--- a/Data/Data_Raw/Country codes & metadata/metadata.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4963E0-BBFA-4B89-91D3-8C4D02A641E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F69A97-A4ED-4C26-AC21-A0C8EB977C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$132</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="404">
   <si>
     <t>name_portal</t>
   </si>
@@ -1222,6 +1235,30 @@
   </si>
   <si>
     <t>2022, November</t>
+  </si>
+  <si>
+    <t>Adulthood and Elderly</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>School-aged Children</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prenatal and Early Childhood </t>
+  </si>
+  <si>
+    <t>All Ages</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Youth</t>
   </si>
 </sst>
 </file>
@@ -1587,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1650,6 +1687,16 @@
       <c r="G2" t="s">
         <v>289</v>
       </c>
+      <c r="H2" t="s">
+        <v>396</v>
+      </c>
+      <c r="I2" t="s">
+        <v>397</v>
+      </c>
+      <c r="J2">
+        <f>1</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1673,6 +1720,16 @@
       <c r="G3" t="s">
         <v>187</v>
       </c>
+      <c r="H3" t="s">
+        <v>398</v>
+      </c>
+      <c r="I3" t="s">
+        <v>399</v>
+      </c>
+      <c r="J3">
+        <f>J2+1</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1690,6 +1747,16 @@
       <c r="G4" t="s">
         <v>14</v>
       </c>
+      <c r="H4" t="s">
+        <v>400</v>
+      </c>
+      <c r="I4" t="s">
+        <v>397</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J67" si="0">J3+1</f>
+        <v>3</v>
+      </c>
       <c r="K4" t="s">
         <v>19</v>
       </c>
@@ -1710,6 +1777,16 @@
       <c r="G5" t="s">
         <v>14</v>
       </c>
+      <c r="H5" t="s">
+        <v>398</v>
+      </c>
+      <c r="I5" t="s">
+        <v>399</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="K5" t="s">
         <v>23</v>
       </c>
@@ -1730,6 +1807,13 @@
       <c r="G6" t="s">
         <v>14</v>
       </c>
+      <c r="H6" t="s">
+        <v>401</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="K6" t="s">
         <v>27</v>
       </c>
@@ -1744,6 +1828,13 @@
       <c r="C7" t="s">
         <v>217</v>
       </c>
+      <c r="H7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="K7" t="s">
         <v>220</v>
       </c>
@@ -1767,6 +1858,13 @@
       <c r="G8" t="s">
         <v>294</v>
       </c>
+      <c r="H8" t="s">
+        <v>401</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1781,6 +1879,16 @@
       <c r="G9" t="s">
         <v>14</v>
       </c>
+      <c r="H9" t="s">
+        <v>400</v>
+      </c>
+      <c r="I9" t="s">
+        <v>397</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1795,6 +1903,16 @@
       <c r="G10" t="s">
         <v>14</v>
       </c>
+      <c r="H10" t="s">
+        <v>398</v>
+      </c>
+      <c r="I10" t="s">
+        <v>399</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1806,6 +1924,16 @@
       <c r="C11" t="s">
         <v>217</v>
       </c>
+      <c r="H11" t="s">
+        <v>396</v>
+      </c>
+      <c r="I11" t="s">
+        <v>402</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="K11" t="s">
         <v>220</v>
       </c>
@@ -1820,6 +1948,16 @@
       <c r="C12" t="s">
         <v>217</v>
       </c>
+      <c r="H12" t="s">
+        <v>396</v>
+      </c>
+      <c r="I12" t="s">
+        <v>402</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="K12" t="s">
         <v>232</v>
       </c>
@@ -1834,6 +1972,16 @@
       <c r="C13" t="s">
         <v>217</v>
       </c>
+      <c r="H13" t="s">
+        <v>396</v>
+      </c>
+      <c r="I13" t="s">
+        <v>402</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="K13" t="s">
         <v>220</v>
       </c>
@@ -1848,6 +1996,16 @@
       <c r="C14" t="s">
         <v>217</v>
       </c>
+      <c r="H14" t="s">
+        <v>396</v>
+      </c>
+      <c r="I14" t="s">
+        <v>402</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="K14" t="s">
         <v>232</v>
       </c>
@@ -1862,6 +2020,16 @@
       <c r="C15" t="s">
         <v>217</v>
       </c>
+      <c r="H15" t="s">
+        <v>396</v>
+      </c>
+      <c r="I15" t="s">
+        <v>402</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="K15" t="s">
         <v>228</v>
       </c>
@@ -1876,6 +2044,16 @@
       <c r="C16" t="s">
         <v>217</v>
       </c>
+      <c r="H16" t="s">
+        <v>396</v>
+      </c>
+      <c r="I16" t="s">
+        <v>402</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="K16" t="s">
         <v>222</v>
       </c>
@@ -1890,6 +2068,16 @@
       <c r="C17" t="s">
         <v>217</v>
       </c>
+      <c r="H17" t="s">
+        <v>403</v>
+      </c>
+      <c r="I17" t="s">
+        <v>402</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="K17" t="s">
         <v>234</v>
       </c>
@@ -1916,6 +2104,16 @@
       <c r="G18" t="s">
         <v>187</v>
       </c>
+      <c r="H18" t="s">
+        <v>403</v>
+      </c>
+      <c r="I18" t="s">
+        <v>402</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="K18" t="s">
         <v>191</v>
       </c>
@@ -1933,6 +2131,16 @@
       <c r="G19" t="s">
         <v>14</v>
       </c>
+      <c r="H19" t="s">
+        <v>403</v>
+      </c>
+      <c r="I19" t="s">
+        <v>402</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="K19" t="s">
         <v>15</v>
       </c>
@@ -1959,6 +2167,16 @@
       <c r="G20" t="s">
         <v>187</v>
       </c>
+      <c r="H20" t="s">
+        <v>403</v>
+      </c>
+      <c r="I20" t="s">
+        <v>402</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="K20" t="s">
         <v>203</v>
       </c>
@@ -1985,6 +2203,16 @@
       <c r="G21" t="s">
         <v>187</v>
       </c>
+      <c r="H21" t="s">
+        <v>403</v>
+      </c>
+      <c r="I21" t="s">
+        <v>402</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="K21" t="s">
         <v>203</v>
       </c>
@@ -2011,6 +2239,16 @@
       <c r="G22" t="s">
         <v>187</v>
       </c>
+      <c r="H22" t="s">
+        <v>403</v>
+      </c>
+      <c r="I22" t="s">
+        <v>402</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
       <c r="K22" t="s">
         <v>203</v>
       </c>
@@ -2031,6 +2269,16 @@
       <c r="G23" t="s">
         <v>14</v>
       </c>
+      <c r="H23" t="s">
+        <v>398</v>
+      </c>
+      <c r="I23" t="s">
+        <v>399</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -2048,6 +2296,16 @@
       <c r="G24" t="s">
         <v>14</v>
       </c>
+      <c r="H24" t="s">
+        <v>401</v>
+      </c>
+      <c r="I24" t="s">
+        <v>399</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -2068,6 +2326,16 @@
       <c r="G25" t="s">
         <v>14</v>
       </c>
+      <c r="H25" t="s">
+        <v>401</v>
+      </c>
+      <c r="I25" t="s">
+        <v>399</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -2088,6 +2356,16 @@
       <c r="G26" t="s">
         <v>14</v>
       </c>
+      <c r="H26" t="s">
+        <v>400</v>
+      </c>
+      <c r="I26" t="s">
+        <v>399</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -2108,6 +2386,16 @@
       <c r="G27" t="s">
         <v>14</v>
       </c>
+      <c r="H27" t="s">
+        <v>398</v>
+      </c>
+      <c r="I27" t="s">
+        <v>399</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -2128,6 +2416,16 @@
       <c r="G28" t="s">
         <v>14</v>
       </c>
+      <c r="H28" t="s">
+        <v>398</v>
+      </c>
+      <c r="I28" t="s">
+        <v>399</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -2148,6 +2446,16 @@
       <c r="G29" t="s">
         <v>14</v>
       </c>
+      <c r="H29" t="s">
+        <v>398</v>
+      </c>
+      <c r="I29" t="s">
+        <v>399</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -2168,6 +2476,16 @@
       <c r="G30" t="s">
         <v>14</v>
       </c>
+      <c r="H30" t="s">
+        <v>398</v>
+      </c>
+      <c r="I30" t="s">
+        <v>399</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -2188,6 +2506,16 @@
       <c r="G31" t="s">
         <v>14</v>
       </c>
+      <c r="H31" t="s">
+        <v>403</v>
+      </c>
+      <c r="I31" t="s">
+        <v>399</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -2208,6 +2536,16 @@
       <c r="G32" t="s">
         <v>14</v>
       </c>
+      <c r="H32" t="s">
+        <v>401</v>
+      </c>
+      <c r="I32" t="s">
+        <v>397</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -2231,6 +2569,16 @@
       <c r="G33" t="s">
         <v>14</v>
       </c>
+      <c r="H33" t="s">
+        <v>401</v>
+      </c>
+      <c r="I33" t="s">
+        <v>397</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -2254,6 +2602,16 @@
       <c r="G34" t="s">
         <v>14</v>
       </c>
+      <c r="H34" t="s">
+        <v>398</v>
+      </c>
+      <c r="I34" t="s">
+        <v>399</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -2277,6 +2635,16 @@
       <c r="G35" t="s">
         <v>352</v>
       </c>
+      <c r="H35" t="s">
+        <v>401</v>
+      </c>
+      <c r="I35" t="s">
+        <v>397</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -2294,6 +2662,16 @@
       <c r="G36" t="s">
         <v>14</v>
       </c>
+      <c r="H36" t="s">
+        <v>401</v>
+      </c>
+      <c r="I36" t="s">
+        <v>397</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -2317,6 +2695,16 @@
       <c r="G37" t="s">
         <v>14</v>
       </c>
+      <c r="H37" t="s">
+        <v>398</v>
+      </c>
+      <c r="I37" t="s">
+        <v>399</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
       <c r="K37" t="s">
         <v>71</v>
       </c>
@@ -2343,6 +2731,16 @@
       <c r="G38" t="s">
         <v>14</v>
       </c>
+      <c r="H38" t="s">
+        <v>401</v>
+      </c>
+      <c r="I38" t="s">
+        <v>397</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
       <c r="K38" t="s">
         <v>71</v>
       </c>
@@ -2369,6 +2767,16 @@
       <c r="G39" t="s">
         <v>14</v>
       </c>
+      <c r="H39" t="s">
+        <v>401</v>
+      </c>
+      <c r="I39" t="s">
+        <v>397</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
       <c r="K39" t="s">
         <v>71</v>
       </c>
@@ -2395,6 +2803,16 @@
       <c r="G40" t="s">
         <v>14</v>
       </c>
+      <c r="H40" t="s">
+        <v>398</v>
+      </c>
+      <c r="I40" t="s">
+        <v>399</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
       <c r="K40" t="s">
         <v>71</v>
       </c>
@@ -2421,6 +2839,16 @@
       <c r="G41" t="s">
         <v>14</v>
       </c>
+      <c r="H41" t="s">
+        <v>400</v>
+      </c>
+      <c r="I41" t="s">
+        <v>397</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="K41" t="s">
         <v>71</v>
       </c>
@@ -2447,6 +2875,16 @@
       <c r="G42" t="s">
         <v>14</v>
       </c>
+      <c r="H42" t="s">
+        <v>400</v>
+      </c>
+      <c r="I42" t="s">
+        <v>397</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
       <c r="K42" t="s">
         <v>71</v>
       </c>
@@ -2473,6 +2911,16 @@
       <c r="G43" t="s">
         <v>14</v>
       </c>
+      <c r="H43" t="s">
+        <v>400</v>
+      </c>
+      <c r="I43" t="s">
+        <v>397</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
       <c r="K43" t="s">
         <v>71</v>
       </c>
@@ -2499,6 +2947,16 @@
       <c r="G44" t="s">
         <v>14</v>
       </c>
+      <c r="H44" t="s">
+        <v>400</v>
+      </c>
+      <c r="I44" t="s">
+        <v>397</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
       <c r="K44" t="s">
         <v>71</v>
       </c>
@@ -2525,6 +2983,16 @@
       <c r="G45" t="s">
         <v>14</v>
       </c>
+      <c r="H45" t="s">
+        <v>400</v>
+      </c>
+      <c r="I45" t="s">
+        <v>397</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
       <c r="K45" t="s">
         <v>71</v>
       </c>
@@ -2551,6 +3019,16 @@
       <c r="G46" t="s">
         <v>14</v>
       </c>
+      <c r="H46" t="s">
+        <v>403</v>
+      </c>
+      <c r="I46" t="s">
+        <v>397</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
       <c r="K46" t="s">
         <v>71</v>
       </c>
@@ -2577,6 +3055,16 @@
       <c r="G47" t="s">
         <v>14</v>
       </c>
+      <c r="H47" t="s">
+        <v>398</v>
+      </c>
+      <c r="I47" t="s">
+        <v>397</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
       <c r="K47" t="s">
         <v>71</v>
       </c>
@@ -2603,6 +3091,16 @@
       <c r="G48" t="s">
         <v>14</v>
       </c>
+      <c r="H48" t="s">
+        <v>400</v>
+      </c>
+      <c r="I48" t="s">
+        <v>397</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
       <c r="K48" t="s">
         <v>71</v>
       </c>
@@ -2629,6 +3127,16 @@
       <c r="G49" t="s">
         <v>352</v>
       </c>
+      <c r="H49" t="s">
+        <v>400</v>
+      </c>
+      <c r="I49" t="s">
+        <v>397</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -2640,6 +3148,16 @@
       <c r="C50" t="s">
         <v>217</v>
       </c>
+      <c r="H50" t="s">
+        <v>400</v>
+      </c>
+      <c r="I50" t="s">
+        <v>397</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
       <c r="K50" t="s">
         <v>271</v>
       </c>
@@ -2654,6 +3172,16 @@
       <c r="C51" t="s">
         <v>217</v>
       </c>
+      <c r="H51" t="s">
+        <v>400</v>
+      </c>
+      <c r="I51" t="s">
+        <v>397</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="K51" t="s">
         <v>275</v>
       </c>
@@ -2668,6 +3196,16 @@
       <c r="C52" t="s">
         <v>217</v>
       </c>
+      <c r="H52" t="s">
+        <v>400</v>
+      </c>
+      <c r="I52" t="s">
+        <v>397</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
       <c r="K52" t="s">
         <v>279</v>
       </c>
@@ -2682,6 +3220,16 @@
       <c r="C53" t="s">
         <v>217</v>
       </c>
+      <c r="H53" t="s">
+        <v>400</v>
+      </c>
+      <c r="I53" t="s">
+        <v>397</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
       <c r="K53" t="s">
         <v>273</v>
       </c>
@@ -2696,6 +3244,16 @@
       <c r="C54" t="s">
         <v>217</v>
       </c>
+      <c r="H54" t="s">
+        <v>400</v>
+      </c>
+      <c r="I54" t="s">
+        <v>397</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
       <c r="K54" t="s">
         <v>283</v>
       </c>
@@ -2710,6 +3268,16 @@
       <c r="C55" t="s">
         <v>217</v>
       </c>
+      <c r="H55" t="s">
+        <v>400</v>
+      </c>
+      <c r="I55" t="s">
+        <v>397</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
       <c r="K55" t="s">
         <v>283</v>
       </c>
@@ -2724,6 +3292,16 @@
       <c r="C56" t="s">
         <v>217</v>
       </c>
+      <c r="H56" t="s">
+        <v>400</v>
+      </c>
+      <c r="I56" t="s">
+        <v>397</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
       <c r="K56" t="s">
         <v>218</v>
       </c>
@@ -2738,6 +3316,16 @@
       <c r="C57" t="s">
         <v>217</v>
       </c>
+      <c r="H57" t="s">
+        <v>400</v>
+      </c>
+      <c r="I57" t="s">
+        <v>397</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
       <c r="K57" t="s">
         <v>230</v>
       </c>
@@ -2764,6 +3352,16 @@
       <c r="G58" t="s">
         <v>14</v>
       </c>
+      <c r="H58" t="s">
+        <v>400</v>
+      </c>
+      <c r="I58" t="s">
+        <v>397</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -2787,6 +3385,16 @@
       <c r="G59" t="s">
         <v>14</v>
       </c>
+      <c r="H59" t="s">
+        <v>400</v>
+      </c>
+      <c r="I59" t="s">
+        <v>397</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -2810,6 +3418,16 @@
       <c r="G60" t="s">
         <v>14</v>
       </c>
+      <c r="H60" t="s">
+        <v>400</v>
+      </c>
+      <c r="I60" t="s">
+        <v>397</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -2833,6 +3451,16 @@
       <c r="G61" t="s">
         <v>14</v>
       </c>
+      <c r="H61" t="s">
+        <v>400</v>
+      </c>
+      <c r="I61" t="s">
+        <v>397</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -2856,6 +3484,16 @@
       <c r="G62" t="s">
         <v>14</v>
       </c>
+      <c r="H62" t="s">
+        <v>400</v>
+      </c>
+      <c r="I62" t="s">
+        <v>397</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -2879,6 +3517,16 @@
       <c r="G63" t="s">
         <v>14</v>
       </c>
+      <c r="H63" t="s">
+        <v>398</v>
+      </c>
+      <c r="I63" t="s">
+        <v>399</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -2902,6 +3550,16 @@
       <c r="G64" t="s">
         <v>14</v>
       </c>
+      <c r="H64" t="s">
+        <v>403</v>
+      </c>
+      <c r="I64" t="s">
+        <v>397</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -2925,6 +3583,16 @@
       <c r="G65" t="s">
         <v>14</v>
       </c>
+      <c r="H65" t="s">
+        <v>401</v>
+      </c>
+      <c r="I65" t="s">
+        <v>397</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -2948,6 +3616,16 @@
       <c r="G66" t="s">
         <v>14</v>
       </c>
+      <c r="H66" t="s">
+        <v>400</v>
+      </c>
+      <c r="I66" t="s">
+        <v>397</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -2971,6 +3649,16 @@
       <c r="G67" t="s">
         <v>14</v>
       </c>
+      <c r="H67" t="s">
+        <v>401</v>
+      </c>
+      <c r="I67" t="s">
+        <v>397</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
       <c r="K67" t="s">
         <v>154</v>
       </c>
@@ -2997,6 +3685,16 @@
       <c r="G68" t="s">
         <v>14</v>
       </c>
+      <c r="H68" t="s">
+        <v>398</v>
+      </c>
+      <c r="I68" t="s">
+        <v>399</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ref="J68:J74" si="1">J67+1</f>
+        <v>67</v>
+      </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -3020,6 +3718,16 @@
       <c r="G69" t="s">
         <v>14</v>
       </c>
+      <c r="H69" t="s">
+        <v>400</v>
+      </c>
+      <c r="I69" t="s">
+        <v>397</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -3043,6 +3751,16 @@
       <c r="G70" t="s">
         <v>187</v>
       </c>
+      <c r="H70" t="s">
+        <v>400</v>
+      </c>
+      <c r="I70" t="s">
+        <v>397</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
       <c r="K70" t="s">
         <v>195</v>
       </c>
@@ -3069,6 +3787,16 @@
       <c r="G71" t="s">
         <v>14</v>
       </c>
+      <c r="H71" t="s">
+        <v>398</v>
+      </c>
+      <c r="I71" t="s">
+        <v>399</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -3092,6 +3820,16 @@
       <c r="G72" t="s">
         <v>14</v>
       </c>
+      <c r="H72" t="s">
+        <v>398</v>
+      </c>
+      <c r="I72" t="s">
+        <v>399</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -3115,6 +3853,16 @@
       <c r="G73" t="s">
         <v>14</v>
       </c>
+      <c r="H73" t="s">
+        <v>398</v>
+      </c>
+      <c r="I73" t="s">
+        <v>399</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -3137,6 +3885,16 @@
       </c>
       <c r="G74" t="s">
         <v>14</v>
+      </c>
+      <c r="H74" t="s">
+        <v>403</v>
+      </c>
+      <c r="I74" t="s">
+        <v>399</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="1"/>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">

--- a/Data/Data_Raw/Country codes & metadata/metadata.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F69A97-A4ED-4C26-AC21-A0C8EB977C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{A89A9E79-7860-4A81-9DCB-C2B256FA1FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F290D4E2-500E-43F5-A737-41563D6561AF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,25 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$132</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="435">
   <si>
     <t>name_portal</t>
   </si>
@@ -913,9 +900,6 @@
     <t>UNHCR</t>
   </si>
   <si>
-    <t>Asylum-seekers</t>
-  </si>
-  <si>
     <t>https://popstats.unhcr.org/refugee-statistics/download/</t>
   </si>
   <si>
@@ -1237,28 +1221,124 @@
     <t>2022, November</t>
   </si>
   <si>
+    <t>School enrollment, preprimary (% gross)</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Prenatal and Early Childhood</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Minimum meal frequency (children aged 6 to 23 months) (%)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Completeness of birth registration (%)</t>
+  </si>
+  <si>
+    <t>Exclusive breastfeeding (%)</t>
+  </si>
+  <si>
+    <t>Careseeking for diarrhoea (%)</t>
+  </si>
+  <si>
+    <t>School-aged Children</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education as a percentage of GDP (%)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Over-age lower secondary students (%)</t>
+  </si>
+  <si>
+    <t>Over-age primary students (%)</t>
+  </si>
+  <si>
+    <t>Qualified teachers in primary education (%)</t>
+  </si>
+  <si>
+    <t>Proportion of primary schools with access to electricity (%)</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Completion rate, upper secondary education (%)</t>
+  </si>
+  <si>
+    <t>Youth</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>Qualified teachers in secondary education (%)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Postnatal contact with a health provider within 2 days of delivery</t>
+  </si>
+  <si>
+    <t>Youth NEET (%), ages 15-24</t>
+  </si>
+  <si>
+    <t>Youth unemployment (%), ages 15-24</t>
+  </si>
+  <si>
+    <t>Youth informal employment rate (%), ages 15-24</t>
+  </si>
+  <si>
     <t>Adulthood and Elderly</t>
   </si>
   <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>School-aged Children</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prenatal and Early Childhood </t>
-  </si>
-  <si>
-    <t>All Ages</t>
-  </si>
-  <si>
-    <t>Labor</t>
-  </si>
-  <si>
-    <t>Youth</t>
+    <t>Life expectancy at birth (years)</t>
+  </si>
+  <si>
+    <t>Cause of death, by non-communicable diseases (% of total)</t>
+  </si>
+  <si>
+    <t>Labour force participation (%), ages 25+</t>
+  </si>
+  <si>
+    <t>Unemployment (%), ages 25+</t>
+  </si>
+  <si>
+    <t>Adult informal employment rate (%), ages 25+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Expenditure on education as a percentage of total government expenditure (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probability a newborn would die before reaching exactly 5 years of age, expressed per 1,000 live births. </t>
+  </si>
+  <si>
+    <t>2023, January</t>
+  </si>
+  <si>
+    <t>Probability of dying at age 15–24 years expressed per 1,000 youth aged 15</t>
+  </si>
+  <si>
+    <t>Probability of dying at age 5–14 years expressed per 1,000 children aged 5</t>
   </si>
 </sst>
 </file>
@@ -1280,12 +1360,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1315,11 +1401,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1335,6 +1424,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1625,10 +1718,15 @@
   <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A117" sqref="A117:XFD117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1667,901 +1765,936 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>286</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>287</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>288</v>
+        <v>392</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
+        <v>393</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>394</v>
       </c>
       <c r="G2" t="s">
-        <v>289</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I2" t="s">
-        <v>397</v>
-      </c>
-      <c r="J2">
-        <f>1</f>
-        <v>1</v>
+        <v>398</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F3" t="s">
-        <v>186</v>
+        <v>431</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>432</v>
       </c>
       <c r="G3" t="s">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I3" t="s">
-        <v>399</v>
-      </c>
-      <c r="J3">
-        <f>J2+1</f>
-        <v>2</v>
+        <v>398</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>433</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>432</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="I4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J67" si="0">J3+1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>434</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>432</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="I5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>401</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K6" t="s">
-        <v>27</v>
+        <v>405</v>
+      </c>
+      <c r="I6" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>217</v>
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>401</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="K7" t="s">
-        <v>220</v>
+        <v>405</v>
+      </c>
+      <c r="I7" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>290</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>290</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>291</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>292</v>
-      </c>
-      <c r="E8" t="s">
-        <v>293</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>294</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>401</v>
+        <v>415</v>
+      </c>
+      <c r="I8" t="s">
+        <v>398</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>400</v>
-      </c>
-      <c r="I9" t="s">
-        <v>397</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="I10" t="s">
-        <v>399</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>223</v>
-      </c>
-      <c r="B11" t="s">
-        <v>223</v>
-      </c>
-      <c r="C11" t="s">
-        <v>217</v>
-      </c>
-      <c r="H11" t="s">
-        <v>396</v>
-      </c>
-      <c r="I11" t="s">
-        <v>402</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K11" t="s">
-        <v>220</v>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>217</v>
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="I12" t="s">
-        <v>402</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="K12" t="s">
-        <v>232</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="I13" t="s">
-        <v>402</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K13" t="s">
-        <v>220</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>231</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>217</v>
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="I14" t="s">
-        <v>402</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="K14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>227</v>
-      </c>
-      <c r="B15" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" t="s">
-        <v>217</v>
-      </c>
-      <c r="H15" t="s">
-        <v>396</v>
-      </c>
-      <c r="I15" t="s">
-        <v>402</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="K15" t="s">
-        <v>228</v>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>221</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>221</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>217</v>
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="I16" t="s">
-        <v>402</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="K16" t="s">
-        <v>222</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>233</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>233</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>217</v>
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="I17" t="s">
-        <v>402</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="K17" t="s">
-        <v>234</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>188</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>188</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>183</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>189</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>186</v>
+        <v>61</v>
       </c>
       <c r="G18" t="s">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="I18" t="s">
-        <v>402</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="K18" t="s">
-        <v>191</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
       <c r="G19" t="s">
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="I19" t="s">
-        <v>402</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="K19" t="s">
-        <v>15</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>183</v>
+        <v>287</v>
       </c>
       <c r="D20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E20" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>186</v>
-      </c>
-      <c r="G20" t="s">
-        <v>187</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="I20" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="J20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="K20" t="s">
-        <v>203</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>204</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>183</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>205</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>206</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="I21" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J21">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K21" t="s">
-        <v>203</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>207</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>183</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="I22" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J22">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K22" t="s">
-        <v>203</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>79</v>
+      </c>
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" t="s">
+        <v>76</v>
       </c>
       <c r="G23" t="s">
         <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I23" t="s">
-        <v>399</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <v>398</v>
+      </c>
+      <c r="K23" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>83</v>
+      </c>
+      <c r="E24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" t="s">
+        <v>76</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I24" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J24">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="K24" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>88</v>
+      </c>
+      <c r="F25" t="s">
+        <v>76</v>
       </c>
       <c r="G25" t="s">
         <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I25" t="s">
-        <v>399</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <v>398</v>
+      </c>
+      <c r="K25" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>92</v>
+      </c>
+      <c r="F26" t="s">
+        <v>76</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I26" t="s">
-        <v>399</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>398</v>
+      </c>
+      <c r="K26" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>96</v>
+      </c>
+      <c r="F27" t="s">
+        <v>76</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I27" t="s">
-        <v>399</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <v>398</v>
+      </c>
+      <c r="K27" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>100</v>
+      </c>
+      <c r="F28" t="s">
+        <v>76</v>
       </c>
       <c r="G28" t="s">
         <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I28" t="s">
-        <v>399</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <v>398</v>
+      </c>
+      <c r="K28" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>104</v>
+      </c>
+      <c r="F29" t="s">
+        <v>76</v>
       </c>
       <c r="G29" t="s">
         <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I29" t="s">
-        <v>399</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <v>398</v>
+      </c>
+      <c r="K29" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>108</v>
+      </c>
+      <c r="F30" t="s">
+        <v>76</v>
       </c>
       <c r="G30" t="s">
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I30" t="s">
-        <v>399</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <v>398</v>
+      </c>
+      <c r="K30" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>112</v>
+      </c>
+      <c r="F31" t="s">
+        <v>76</v>
       </c>
       <c r="G31" t="s">
         <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="I31" t="s">
-        <v>399</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>398</v>
+      </c>
+      <c r="K31" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>116</v>
+      </c>
+      <c r="F32" t="s">
+        <v>76</v>
       </c>
       <c r="G32" t="s">
         <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I32" t="s">
-        <v>397</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <v>398</v>
+      </c>
+      <c r="K32" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="E33" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F33" t="s">
         <v>61</v>
@@ -2570,31 +2703,27 @@
         <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I33" t="s">
-        <v>397</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <v>398</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="E34" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="F34" t="s">
         <v>61</v>
@@ -2603,58 +2732,56 @@
         <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I34" t="s">
-        <v>399</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>348</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>348</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s">
-        <v>349</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>350</v>
+        <v>126</v>
       </c>
       <c r="E35" t="s">
-        <v>350</v>
+        <v>127</v>
       </c>
       <c r="F35" t="s">
-        <v>351</v>
+        <v>61</v>
       </c>
       <c r="G35" t="s">
-        <v>352</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="I35" t="s">
-        <v>397</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <v>398</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" t="s">
+        <v>131</v>
       </c>
       <c r="F36" t="s">
         <v>61</v>
@@ -2663,1659 +2790,1584 @@
         <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I36" t="s">
-        <v>397</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>398</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G37" t="s">
         <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="I37" t="s">
-        <v>399</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="K37" t="s">
-        <v>71</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G38" t="s">
         <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I38" t="s">
-        <v>397</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="K38" t="s">
-        <v>71</v>
+        <v>398</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="E39" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G39" t="s">
         <v>14</v>
       </c>
-      <c r="H39" t="s">
-        <v>401</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="H39" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="J39">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="K39" t="s">
-        <v>71</v>
+      <c r="I39" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="J39" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="F40" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G40" t="s">
         <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I40" t="s">
-        <v>399</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="K40" t="s">
-        <v>71</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="E41" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="F41" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G41" t="s">
         <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I41" t="s">
-        <v>397</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="K41" t="s">
-        <v>71</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="E42" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="F42" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G42" t="s">
         <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="I42" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J42">
-        <f t="shared" si="0"/>
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="K42" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="E43" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="F43" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G43" t="s">
         <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I43" t="s">
-        <v>397</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="K43" t="s">
-        <v>71</v>
+        <v>398</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="E44" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="F44" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G44" t="s">
         <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I44" t="s">
-        <v>397</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="K44" t="s">
-        <v>71</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="E45" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="F45" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G45" t="s">
         <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I45" t="s">
-        <v>397</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="K45" t="s">
-        <v>71</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="F46" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G46" t="s">
         <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="I46" t="s">
-        <v>397</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="K46" t="s">
-        <v>71</v>
+        <v>398</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="E47" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="F47" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G47" t="s">
         <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I47" t="s">
-        <v>397</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="K47" t="s">
-        <v>71</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="B48" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="E48" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="F48" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G48" t="s">
         <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I48" t="s">
-        <v>397</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="K48" t="s">
-        <v>71</v>
+        <v>398</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>353</v>
+        <v>177</v>
       </c>
       <c r="B49" t="s">
-        <v>353</v>
+        <v>178</v>
       </c>
       <c r="C49" t="s">
-        <v>349</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>354</v>
+        <v>179</v>
       </c>
       <c r="E49" t="s">
-        <v>355</v>
+        <v>180</v>
       </c>
       <c r="F49" t="s">
-        <v>356</v>
+        <v>61</v>
       </c>
       <c r="G49" t="s">
-        <v>352</v>
-      </c>
-      <c r="H49" t="s">
-        <v>400</v>
-      </c>
-      <c r="I49" t="s">
-        <v>397</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>270</v>
-      </c>
-      <c r="B50" t="s">
-        <v>270</v>
-      </c>
-      <c r="C50" t="s">
-        <v>217</v>
-      </c>
-      <c r="H50" t="s">
-        <v>400</v>
-      </c>
-      <c r="I50" t="s">
-        <v>397</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="K50" t="s">
-        <v>271</v>
+        <v>14</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="J50" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>274</v>
+        <v>182</v>
       </c>
       <c r="B51" t="s">
-        <v>274</v>
+        <v>182</v>
       </c>
       <c r="C51" t="s">
-        <v>217</v>
+        <v>183</v>
+      </c>
+      <c r="D51" t="s">
+        <v>184</v>
+      </c>
+      <c r="E51" t="s">
+        <v>185</v>
+      </c>
+      <c r="F51" t="s">
+        <v>186</v>
+      </c>
+      <c r="G51" t="s">
+        <v>187</v>
       </c>
       <c r="H51" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="I51" t="s">
-        <v>397</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="K51" t="s">
-        <v>275</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>278</v>
+        <v>188</v>
       </c>
       <c r="B52" t="s">
-        <v>278</v>
+        <v>188</v>
       </c>
       <c r="C52" t="s">
-        <v>217</v>
+        <v>183</v>
+      </c>
+      <c r="D52" t="s">
+        <v>189</v>
+      </c>
+      <c r="E52" t="s">
+        <v>190</v>
+      </c>
+      <c r="F52" t="s">
+        <v>186</v>
+      </c>
+      <c r="G52" t="s">
+        <v>187</v>
       </c>
       <c r="H52" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="I52" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J52">
-        <f t="shared" si="0"/>
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="K52" t="s">
-        <v>279</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>272</v>
+        <v>192</v>
       </c>
       <c r="B53" t="s">
-        <v>272</v>
+        <v>192</v>
       </c>
       <c r="C53" t="s">
-        <v>217</v>
+        <v>183</v>
+      </c>
+      <c r="D53" t="s">
+        <v>193</v>
+      </c>
+      <c r="E53" t="s">
+        <v>194</v>
+      </c>
+      <c r="F53" t="s">
+        <v>186</v>
+      </c>
+      <c r="G53" t="s">
+        <v>187</v>
       </c>
       <c r="H53" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I53" t="s">
-        <v>397</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <v>398</v>
       </c>
       <c r="K53" t="s">
-        <v>273</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="B54" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="C54" t="s">
-        <v>217</v>
-      </c>
-      <c r="H54" t="s">
-        <v>400</v>
-      </c>
-      <c r="I54" t="s">
-        <v>397</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="0"/>
-        <v>53</v>
+        <v>183</v>
+      </c>
+      <c r="D54" t="s">
+        <v>197</v>
+      </c>
+      <c r="E54" t="s">
+        <v>198</v>
+      </c>
+      <c r="F54" t="s">
+        <v>186</v>
+      </c>
+      <c r="G54" t="s">
+        <v>187</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="J54" s="2">
+        <v>7</v>
       </c>
       <c r="K54" t="s">
-        <v>283</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="B55" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="C55" t="s">
-        <v>217</v>
+        <v>183</v>
+      </c>
+      <c r="D55" t="s">
+        <v>201</v>
+      </c>
+      <c r="E55" t="s">
+        <v>202</v>
+      </c>
+      <c r="F55" t="s">
+        <v>186</v>
+      </c>
+      <c r="G55" t="s">
+        <v>187</v>
       </c>
       <c r="H55" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="I55" t="s">
-        <v>397</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="0"/>
-        <v>54</v>
+        <v>413</v>
       </c>
       <c r="K55" t="s">
-        <v>283</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B56" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C56" t="s">
-        <v>217</v>
+        <v>183</v>
+      </c>
+      <c r="D56" t="s">
+        <v>205</v>
+      </c>
+      <c r="E56" t="s">
+        <v>206</v>
+      </c>
+      <c r="F56" t="s">
+        <v>186</v>
+      </c>
+      <c r="G56" t="s">
+        <v>187</v>
       </c>
       <c r="H56" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="I56" t="s">
-        <v>397</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="0"/>
-        <v>55</v>
+        <v>413</v>
       </c>
       <c r="K56" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="B57" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="C57" t="s">
-        <v>217</v>
+        <v>183</v>
+      </c>
+      <c r="D57" t="s">
+        <v>208</v>
+      </c>
+      <c r="E57" t="s">
+        <v>209</v>
+      </c>
+      <c r="F57" t="s">
+        <v>186</v>
+      </c>
+      <c r="G57" t="s">
+        <v>187</v>
       </c>
       <c r="H57" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="I57" t="s">
-        <v>397</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <v>413</v>
       </c>
       <c r="K57" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="D58" t="s">
-        <v>119</v>
+        <v>211</v>
       </c>
       <c r="E58" t="s">
-        <v>120</v>
+        <v>212</v>
       </c>
       <c r="F58" t="s">
-        <v>61</v>
+        <v>186</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="H58" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I58" t="s">
-        <v>397</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <v>398</v>
+      </c>
+      <c r="K58" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>213</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="D59" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="E59" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="F59" t="s">
-        <v>61</v>
+        <v>186</v>
       </c>
       <c r="G59" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="H59" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="I59" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J59">
-        <f t="shared" si="0"/>
-        <v>58</v>
+        <v>8</v>
+      </c>
+      <c r="K59" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>216</v>
       </c>
       <c r="B60" t="s">
-        <v>125</v>
-      </c>
-      <c r="C60" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" t="s">
-        <v>126</v>
-      </c>
-      <c r="E60" t="s">
-        <v>127</v>
-      </c>
-      <c r="F60" t="s">
-        <v>61</v>
-      </c>
-      <c r="G60" t="s">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="H60" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="I60" t="s">
-        <v>397</v>
-      </c>
-      <c r="J60">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <v>413</v>
+      </c>
+      <c r="K60" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>219</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" t="s">
-        <v>130</v>
-      </c>
-      <c r="E61" t="s">
-        <v>131</v>
-      </c>
-      <c r="F61" t="s">
-        <v>61</v>
-      </c>
-      <c r="G61" t="s">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="H61" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="I61" t="s">
-        <v>397</v>
-      </c>
-      <c r="J61">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>413</v>
+      </c>
+      <c r="K61" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>221</v>
       </c>
       <c r="B62" t="s">
-        <v>133</v>
+        <v>221</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="D62" t="s">
-        <v>134</v>
-      </c>
-      <c r="E62" t="s">
-        <v>135</v>
-      </c>
-      <c r="F62" t="s">
-        <v>61</v>
-      </c>
-      <c r="G62" t="s">
-        <v>14</v>
+        <v>428</v>
       </c>
       <c r="H62" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="I62" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="J62">
-        <f t="shared" si="0"/>
-        <v>61</v>
+        <v>3</v>
+      </c>
+      <c r="K62" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="B63" t="s">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" t="s">
-        <v>137</v>
-      </c>
-      <c r="E63" t="s">
-        <v>138</v>
-      </c>
-      <c r="F63" t="s">
-        <v>61</v>
-      </c>
-      <c r="G63" t="s">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="H63" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="I63" t="s">
-        <v>399</v>
-      </c>
-      <c r="J63">
-        <f t="shared" si="0"/>
-        <v>62</v>
+        <v>413</v>
+      </c>
+      <c r="K63" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>139</v>
+        <v>224</v>
       </c>
       <c r="B64" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="D64" t="s">
-        <v>141</v>
-      </c>
-      <c r="E64" t="s">
-        <v>142</v>
-      </c>
-      <c r="F64" t="s">
-        <v>61</v>
-      </c>
-      <c r="G64" t="s">
-        <v>14</v>
+        <v>426</v>
       </c>
       <c r="H64" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="I64" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J64">
-        <f t="shared" si="0"/>
-        <v>63</v>
+        <v>6</v>
+      </c>
+      <c r="K64" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="B65" t="s">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="D65" t="s">
-        <v>144</v>
-      </c>
-      <c r="E65" t="s">
-        <v>145</v>
-      </c>
-      <c r="F65" t="s">
-        <v>61</v>
-      </c>
-      <c r="G65" t="s">
-        <v>14</v>
+        <v>427</v>
       </c>
       <c r="H65" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="I65" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="J65">
-        <f t="shared" si="0"/>
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="K65" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c r="B66" t="s">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="D66" t="s">
-        <v>148</v>
-      </c>
-      <c r="E66" t="s">
-        <v>149</v>
-      </c>
-      <c r="F66" t="s">
-        <v>61</v>
-      </c>
-      <c r="G66" t="s">
-        <v>14</v>
+        <v>420</v>
       </c>
       <c r="H66" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="I66" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="J66">
-        <f t="shared" si="0"/>
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="K66" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="B67" t="s">
-        <v>151</v>
+        <v>229</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" t="s">
-        <v>152</v>
-      </c>
-      <c r="E67" t="s">
-        <v>153</v>
-      </c>
-      <c r="F67" t="s">
-        <v>61</v>
-      </c>
-      <c r="G67" t="s">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="H67" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="I67" t="s">
-        <v>397</v>
-      </c>
-      <c r="J67">
-        <f t="shared" si="0"/>
-        <v>66</v>
+        <v>413</v>
       </c>
       <c r="K67" t="s">
-        <v>154</v>
+        <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="B68" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" t="s">
-        <v>156</v>
-      </c>
-      <c r="E68" t="s">
-        <v>157</v>
-      </c>
-      <c r="F68" t="s">
-        <v>61</v>
-      </c>
-      <c r="G68" t="s">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="H68" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="I68" t="s">
-        <v>399</v>
-      </c>
-      <c r="J68">
-        <f t="shared" ref="J68:J74" si="1">J67+1</f>
-        <v>67</v>
+        <v>413</v>
+      </c>
+      <c r="K68" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c r="B69" t="s">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="D69" t="s">
-        <v>159</v>
-      </c>
-      <c r="E69" t="s">
-        <v>160</v>
-      </c>
-      <c r="F69" t="s">
-        <v>61</v>
-      </c>
-      <c r="G69" t="s">
-        <v>14</v>
+        <v>422</v>
       </c>
       <c r="H69" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="I69" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="J69">
-        <f t="shared" si="1"/>
-        <v>68</v>
+        <v>3</v>
+      </c>
+      <c r="K69" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="B70" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="C70" t="s">
-        <v>183</v>
-      </c>
-      <c r="D70" t="s">
-        <v>193</v>
-      </c>
-      <c r="E70" t="s">
-        <v>194</v>
-      </c>
-      <c r="F70" t="s">
-        <v>186</v>
-      </c>
-      <c r="G70" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="H70" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="I70" t="s">
-        <v>397</v>
-      </c>
-      <c r="J70">
-        <f t="shared" si="1"/>
-        <v>69</v>
+        <v>413</v>
       </c>
       <c r="K70" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="B71" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="D71" t="s">
-        <v>163</v>
-      </c>
-      <c r="E71" t="s">
-        <v>164</v>
-      </c>
-      <c r="F71" t="s">
-        <v>61</v>
-      </c>
-      <c r="G71" t="s">
-        <v>14</v>
+        <v>421</v>
       </c>
       <c r="H71" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="I71" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="J71">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <v>2</v>
+      </c>
+      <c r="K71" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>165</v>
+        <v>238</v>
       </c>
       <c r="B72" t="s">
-        <v>166</v>
+        <v>238</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="D72" t="s">
-        <v>167</v>
-      </c>
-      <c r="E72" t="s">
-        <v>168</v>
-      </c>
-      <c r="F72" t="s">
-        <v>61</v>
-      </c>
-      <c r="G72" t="s">
-        <v>14</v>
+        <v>414</v>
       </c>
       <c r="H72" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="I72" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="J72">
-        <f t="shared" si="1"/>
-        <v>71</v>
+        <v>1</v>
+      </c>
+      <c r="K72" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>169</v>
+        <v>240</v>
       </c>
       <c r="B73" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="D73" t="s">
-        <v>171</v>
-      </c>
-      <c r="E73" t="s">
-        <v>172</v>
-      </c>
-      <c r="F73" t="s">
-        <v>61</v>
-      </c>
-      <c r="G73" t="s">
-        <v>14</v>
+        <v>430</v>
       </c>
       <c r="H73" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="I73" t="s">
-        <v>399</v>
-      </c>
-      <c r="J73">
-        <f t="shared" si="1"/>
-        <v>72</v>
+        <v>396</v>
+      </c>
+      <c r="K73" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>173</v>
+        <v>242</v>
       </c>
       <c r="B74" t="s">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="D74" t="s">
-        <v>175</v>
-      </c>
-      <c r="E74" t="s">
-        <v>176</v>
-      </c>
-      <c r="F74" t="s">
-        <v>61</v>
-      </c>
-      <c r="G74" t="s">
-        <v>14</v>
+        <v>407</v>
       </c>
       <c r="H74" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I74" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="J74">
-        <f t="shared" si="1"/>
-        <v>73</v>
+        <v>4</v>
+      </c>
+      <c r="K74" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>357</v>
+        <v>244</v>
       </c>
       <c r="B75" t="s">
-        <v>357</v>
+        <v>244</v>
       </c>
       <c r="C75" t="s">
-        <v>349</v>
-      </c>
-      <c r="D75" t="s">
-        <v>358</v>
-      </c>
-      <c r="E75" t="s">
-        <v>359</v>
-      </c>
-      <c r="F75" t="s">
-        <v>360</v>
-      </c>
-      <c r="G75" t="s">
-        <v>352</v>
+        <v>217</v>
+      </c>
+      <c r="H75" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" t="s">
+        <v>12</v>
+      </c>
+      <c r="K75" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>361</v>
+        <v>246</v>
       </c>
       <c r="B76" t="s">
-        <v>361</v>
+        <v>246</v>
       </c>
       <c r="C76" t="s">
-        <v>362</v>
+        <v>217</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
-      </c>
-      <c r="E76" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" t="s">
-        <v>12</v>
+        <v>409</v>
+      </c>
+      <c r="H76" t="s">
+        <v>405</v>
+      </c>
+      <c r="I76" t="s">
+        <v>396</v>
+      </c>
+      <c r="J76">
+        <v>10</v>
+      </c>
+      <c r="K76" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="B77" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="C77" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="D77" t="s">
-        <v>211</v>
-      </c>
-      <c r="E77" t="s">
-        <v>212</v>
-      </c>
-      <c r="F77" t="s">
-        <v>186</v>
-      </c>
-      <c r="G77" t="s">
-        <v>187</v>
+        <v>410</v>
+      </c>
+      <c r="H77" t="s">
+        <v>405</v>
+      </c>
+      <c r="I77" t="s">
+        <v>396</v>
+      </c>
+      <c r="J77">
+        <v>11</v>
       </c>
       <c r="K77" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>177</v>
+        <v>249</v>
       </c>
       <c r="B78" t="s">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="D78" t="s">
-        <v>179</v>
-      </c>
-      <c r="E78" t="s">
-        <v>180</v>
-      </c>
-      <c r="F78" t="s">
-        <v>61</v>
-      </c>
-      <c r="G78" t="s">
-        <v>14</v>
+        <v>412</v>
+      </c>
+      <c r="H78" t="s">
+        <v>405</v>
+      </c>
+      <c r="I78" t="s">
+        <v>396</v>
+      </c>
+      <c r="J78">
+        <v>13</v>
+      </c>
+      <c r="K78" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>177</v>
+        <v>251</v>
       </c>
       <c r="B79" t="s">
-        <v>181</v>
+        <v>251</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="D79" t="s">
-        <v>179</v>
-      </c>
-      <c r="E79" t="s">
-        <v>180</v>
-      </c>
-      <c r="F79" t="s">
-        <v>61</v>
-      </c>
-      <c r="G79" t="s">
-        <v>14</v>
+        <v>411</v>
+      </c>
+      <c r="H79" t="s">
+        <v>405</v>
+      </c>
+      <c r="I79" t="s">
+        <v>396</v>
+      </c>
+      <c r="J79">
+        <v>12</v>
+      </c>
+      <c r="K79" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="B80" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="D80" t="s">
-        <v>296</v>
-      </c>
-      <c r="E80" t="s">
-        <v>297</v>
-      </c>
-      <c r="F80" t="s">
-        <v>61</v>
-      </c>
-      <c r="G80" t="s">
-        <v>14</v>
+        <v>417</v>
+      </c>
+      <c r="H80" t="s">
+        <v>415</v>
+      </c>
+      <c r="I80" t="s">
+        <v>396</v>
+      </c>
+      <c r="J80">
+        <v>3</v>
+      </c>
+      <c r="K80" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>298</v>
+        <v>254</v>
       </c>
       <c r="B81" t="s">
-        <v>298</v>
+        <v>254</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="D81" t="s">
-        <v>296</v>
-      </c>
-      <c r="E81" t="s">
-        <v>297</v>
-      </c>
-      <c r="F81" t="s">
-        <v>61</v>
-      </c>
-      <c r="G81" t="s">
-        <v>14</v>
+        <v>404</v>
+      </c>
+      <c r="H81" t="s">
+        <v>397</v>
+      </c>
+      <c r="I81" t="s">
+        <v>398</v>
+      </c>
+      <c r="J81">
+        <v>7</v>
+      </c>
+      <c r="K81" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="B82" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="C82" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="D82" t="s">
-        <v>214</v>
-      </c>
-      <c r="E82" t="s">
-        <v>215</v>
-      </c>
-      <c r="F82" t="s">
-        <v>186</v>
-      </c>
-      <c r="G82" t="s">
-        <v>187</v>
+        <v>419</v>
+      </c>
+      <c r="H82" t="s">
+        <v>397</v>
+      </c>
+      <c r="I82" t="s">
+        <v>398</v>
+      </c>
+      <c r="J82">
+        <v>4</v>
       </c>
       <c r="K82" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>363</v>
+        <v>258</v>
       </c>
       <c r="B83" t="s">
-        <v>363</v>
+        <v>258</v>
       </c>
       <c r="C83" t="s">
-        <v>287</v>
+        <v>217</v>
       </c>
       <c r="D83" t="s">
-        <v>364</v>
-      </c>
-      <c r="E83" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" t="s">
-        <v>289</v>
+        <v>403</v>
+      </c>
+      <c r="H83" t="s">
+        <v>397</v>
+      </c>
+      <c r="I83" t="s">
+        <v>398</v>
+      </c>
+      <c r="J83">
+        <v>6</v>
+      </c>
+      <c r="K83" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>365</v>
+        <v>260</v>
       </c>
       <c r="B84" t="s">
-        <v>365</v>
+        <v>260</v>
       </c>
       <c r="C84" t="s">
-        <v>291</v>
+        <v>217</v>
       </c>
       <c r="D84" t="s">
-        <v>366</v>
-      </c>
-      <c r="E84" t="s">
-        <v>367</v>
-      </c>
-      <c r="G84" t="s">
-        <v>294</v>
+        <v>399</v>
+      </c>
+      <c r="H84" t="s">
+        <v>397</v>
+      </c>
+      <c r="I84" t="s">
+        <v>398</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B85" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C85" t="s">
-        <v>183</v>
-      </c>
-      <c r="D85" t="s">
-        <v>265</v>
-      </c>
-      <c r="E85" t="s">
-        <v>266</v>
-      </c>
-      <c r="F85" t="s">
-        <v>267</v>
-      </c>
-      <c r="G85" t="s">
-        <v>268</v>
+        <v>217</v>
+      </c>
+      <c r="H85" t="s">
+        <v>397</v>
       </c>
       <c r="K85" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B86" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C86" t="s">
-        <v>217</v>
+        <v>183</v>
+      </c>
+      <c r="D86" t="s">
+        <v>265</v>
+      </c>
+      <c r="E86" t="s">
+        <v>266</v>
+      </c>
+      <c r="F86" t="s">
+        <v>267</v>
+      </c>
+      <c r="G86" t="s">
+        <v>268</v>
+      </c>
+      <c r="H86" t="s">
+        <v>405</v>
+      </c>
+      <c r="I86" t="s">
+        <v>396</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
       </c>
       <c r="K86" t="s">
-        <v>191</v>
+        <v>269</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>368</v>
+        <v>270</v>
       </c>
       <c r="B87" t="s">
-        <v>368</v>
+        <v>270</v>
       </c>
       <c r="C87" t="s">
-        <v>349</v>
+        <v>217</v>
       </c>
       <c r="D87" t="s">
-        <v>369</v>
-      </c>
-      <c r="E87" t="s">
-        <v>370</v>
-      </c>
-      <c r="F87" t="s">
-        <v>303</v>
-      </c>
-      <c r="G87" t="s">
-        <v>352</v>
+        <v>418</v>
+      </c>
+      <c r="H87" t="s">
+        <v>415</v>
+      </c>
+      <c r="I87" t="s">
+        <v>398</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>196</v>
+        <v>272</v>
       </c>
       <c r="B88" t="s">
-        <v>196</v>
+        <v>272</v>
       </c>
       <c r="C88" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="D88" t="s">
-        <v>197</v>
-      </c>
-      <c r="E88" t="s">
-        <v>198</v>
-      </c>
-      <c r="F88" t="s">
-        <v>186</v>
-      </c>
-      <c r="G88" t="s">
-        <v>187</v>
+        <v>425</v>
+      </c>
+      <c r="H88" t="s">
+        <v>423</v>
+      </c>
+      <c r="I88" t="s">
+        <v>398</v>
+      </c>
+      <c r="J88">
+        <v>3</v>
       </c>
       <c r="K88" t="s">
-        <v>199</v>
+        <v>273</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>371</v>
+        <v>274</v>
       </c>
       <c r="B89" t="s">
-        <v>371</v>
+        <v>274</v>
       </c>
       <c r="C89" t="s">
-        <v>349</v>
+        <v>217</v>
       </c>
       <c r="D89" t="s">
-        <v>372</v>
-      </c>
-      <c r="E89" t="s">
-        <v>373</v>
-      </c>
-      <c r="F89" t="s">
-        <v>374</v>
-      </c>
-      <c r="G89" t="s">
-        <v>352</v>
+        <v>402</v>
+      </c>
+      <c r="H89" t="s">
+        <v>397</v>
+      </c>
+      <c r="I89" t="s">
+        <v>398</v>
+      </c>
+      <c r="J89">
+        <v>5</v>
+      </c>
+      <c r="K89" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>375</v>
+        <v>276</v>
       </c>
       <c r="B90" t="s">
-        <v>375</v>
+        <v>276</v>
       </c>
       <c r="C90" t="s">
-        <v>349</v>
+        <v>217</v>
       </c>
       <c r="D90" t="s">
-        <v>376</v>
-      </c>
-      <c r="E90" t="s">
-        <v>377</v>
-      </c>
-      <c r="F90" t="s">
-        <v>378</v>
-      </c>
-      <c r="G90" t="s">
-        <v>352</v>
+        <v>424</v>
+      </c>
+      <c r="H90" t="s">
+        <v>423</v>
+      </c>
+      <c r="I90" t="s">
+        <v>398</v>
+      </c>
+      <c r="J90">
+        <v>2</v>
+      </c>
+      <c r="K90" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B91" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C91" t="s">
         <v>217</v>
       </c>
+      <c r="D91" t="s">
+        <v>408</v>
+      </c>
+      <c r="H91" t="s">
+        <v>405</v>
+      </c>
+      <c r="I91" t="s">
+        <v>396</v>
+      </c>
+      <c r="J91">
+        <v>5</v>
+      </c>
       <c r="K91" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B92" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C92" t="s">
         <v>217</v>
       </c>
+      <c r="D92" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H92" t="s">
+        <v>415</v>
+      </c>
+      <c r="I92" t="s">
+        <v>398</v>
+      </c>
+      <c r="J92">
+        <v>2</v>
+      </c>
       <c r="K92" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>238</v>
+        <v>280</v>
       </c>
       <c r="B93" t="s">
-        <v>238</v>
+        <v>280</v>
       </c>
       <c r="C93" t="s">
         <v>217</v>
       </c>
+      <c r="D93" t="s">
+        <v>400</v>
+      </c>
+      <c r="H93" t="s">
+        <v>397</v>
+      </c>
+      <c r="I93" t="s">
+        <v>398</v>
+      </c>
+      <c r="J93">
+        <v>2</v>
+      </c>
       <c r="K93" t="s">
-        <v>239</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="B94" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="C94" t="s">
         <v>217</v>
       </c>
+      <c r="H94" t="s">
+        <v>405</v>
+      </c>
+      <c r="I94" t="s">
+        <v>396</v>
+      </c>
+      <c r="J94">
+        <v>2</v>
+      </c>
       <c r="K94" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4328,789 +4380,1172 @@
       <c r="C95" t="s">
         <v>217</v>
       </c>
+      <c r="D95" t="s">
+        <v>395</v>
+      </c>
+      <c r="H95" t="s">
+        <v>397</v>
+      </c>
+      <c r="I95" t="s">
+        <v>396</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
       <c r="K95" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="B96" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="C96" t="s">
         <v>217</v>
       </c>
+      <c r="D96" t="s">
+        <v>406</v>
+      </c>
+      <c r="H96" t="s">
+        <v>405</v>
+      </c>
+      <c r="I96" t="s">
+        <v>396</v>
+      </c>
+      <c r="J96">
+        <v>3</v>
+      </c>
       <c r="K96" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="B97" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="C97" t="s">
         <v>217</v>
       </c>
+      <c r="D97" t="s">
+        <v>416</v>
+      </c>
+      <c r="H97" t="s">
+        <v>415</v>
+      </c>
+      <c r="I97" t="s">
+        <v>396</v>
+      </c>
+      <c r="J97">
+        <v>2</v>
+      </c>
       <c r="K97" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="B98" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="C98" t="s">
-        <v>217</v>
-      </c>
-      <c r="K98" t="s">
-        <v>252</v>
+        <v>287</v>
+      </c>
+      <c r="D98" t="s">
+        <v>429</v>
+      </c>
+      <c r="E98" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>288</v>
+      </c>
+      <c r="H98" t="s">
+        <v>423</v>
+      </c>
+      <c r="I98" t="s">
+        <v>413</v>
+      </c>
+      <c r="J98">
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="B99" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="C99" t="s">
-        <v>217</v>
-      </c>
-      <c r="K99" t="s">
-        <v>252</v>
+        <v>290</v>
+      </c>
+      <c r="D99" t="s">
+        <v>291</v>
+      </c>
+      <c r="E99" t="s">
+        <v>292</v>
+      </c>
+      <c r="G99" t="s">
+        <v>293</v>
+      </c>
+      <c r="H99" t="s">
+        <v>397</v>
+      </c>
+      <c r="I99" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>249</v>
+        <v>294</v>
       </c>
       <c r="B100" t="s">
-        <v>249</v>
+        <v>294</v>
       </c>
       <c r="C100" t="s">
-        <v>217</v>
-      </c>
-      <c r="K100" t="s">
-        <v>250</v>
+        <v>13</v>
+      </c>
+      <c r="D100" t="s">
+        <v>295</v>
+      </c>
+      <c r="E100" t="s">
+        <v>296</v>
+      </c>
+      <c r="F100" t="s">
+        <v>61</v>
+      </c>
+      <c r="G100" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" t="s">
+        <v>415</v>
+      </c>
+      <c r="I100" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>242</v>
+        <v>297</v>
       </c>
       <c r="B101" t="s">
-        <v>242</v>
+        <v>297</v>
       </c>
       <c r="C101" t="s">
-        <v>217</v>
-      </c>
-      <c r="K101" t="s">
-        <v>243</v>
+        <v>13</v>
+      </c>
+      <c r="D101" t="s">
+        <v>295</v>
+      </c>
+      <c r="E101" t="s">
+        <v>296</v>
+      </c>
+      <c r="F101" t="s">
+        <v>61</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>415</v>
+      </c>
+      <c r="I101" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>240</v>
+        <v>298</v>
       </c>
       <c r="B102" t="s">
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="C102" t="s">
-        <v>217</v>
+        <v>13</v>
+      </c>
+      <c r="D102" t="s">
+        <v>300</v>
+      </c>
+      <c r="E102" t="s">
+        <v>301</v>
+      </c>
+      <c r="F102" t="s">
+        <v>302</v>
+      </c>
+      <c r="G102" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" t="s">
+        <v>423</v>
+      </c>
+      <c r="I102" t="s">
+        <v>398</v>
+      </c>
+      <c r="J102">
+        <v>4</v>
       </c>
       <c r="K102" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>225</v>
+        <v>298</v>
       </c>
       <c r="B103" t="s">
-        <v>225</v>
+        <v>304</v>
       </c>
       <c r="C103" t="s">
-        <v>217</v>
+        <v>13</v>
+      </c>
+      <c r="D103" t="s">
+        <v>300</v>
+      </c>
+      <c r="E103" t="s">
+        <v>301</v>
+      </c>
+      <c r="F103" t="s">
+        <v>302</v>
+      </c>
+      <c r="G103" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" t="s">
+        <v>423</v>
+      </c>
+      <c r="I103" t="s">
+        <v>398</v>
       </c>
       <c r="K103" t="s">
-        <v>226</v>
+        <v>303</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>236</v>
+        <v>305</v>
       </c>
       <c r="B104" t="s">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="C104" t="s">
-        <v>217</v>
+        <v>13</v>
+      </c>
+      <c r="D104" t="s">
+        <v>307</v>
+      </c>
+      <c r="E104" t="s">
+        <v>308</v>
+      </c>
+      <c r="F104" t="s">
+        <v>302</v>
+      </c>
+      <c r="G104" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" t="s">
+        <v>423</v>
+      </c>
+      <c r="I104" t="s">
+        <v>398</v>
+      </c>
+      <c r="J104">
+        <v>5</v>
       </c>
       <c r="K104" t="s">
-        <v>237</v>
+        <v>303</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="B105" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="C105" t="s">
-        <v>217</v>
+        <v>13</v>
+      </c>
+      <c r="D105" t="s">
+        <v>307</v>
+      </c>
+      <c r="E105" t="s">
+        <v>308</v>
+      </c>
+      <c r="F105" t="s">
+        <v>302</v>
+      </c>
+      <c r="G105" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" t="s">
+        <v>423</v>
+      </c>
+      <c r="I105" t="s">
+        <v>398</v>
       </c>
       <c r="K105" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="B106" t="s">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="C106" t="s">
-        <v>217</v>
+        <v>13</v>
+      </c>
+      <c r="D106" t="s">
+        <v>312</v>
+      </c>
+      <c r="E106" t="s">
+        <v>313</v>
+      </c>
+      <c r="F106" t="s">
+        <v>302</v>
+      </c>
+      <c r="G106" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" t="s">
+        <v>423</v>
+      </c>
+      <c r="I106" t="s">
+        <v>413</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
       </c>
       <c r="K106" t="s">
-        <v>257</v>
+        <v>303</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>254</v>
+        <v>310</v>
       </c>
       <c r="B107" t="s">
-        <v>254</v>
+        <v>314</v>
       </c>
       <c r="C107" t="s">
-        <v>217</v>
+        <v>13</v>
+      </c>
+      <c r="D107" t="s">
+        <v>312</v>
+      </c>
+      <c r="E107" t="s">
+        <v>313</v>
+      </c>
+      <c r="F107" t="s">
+        <v>302</v>
+      </c>
+      <c r="G107" t="s">
+        <v>14</v>
+      </c>
+      <c r="H107" t="s">
+        <v>423</v>
+      </c>
+      <c r="I107" t="s">
+        <v>398</v>
       </c>
       <c r="K107" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="B108" t="s">
-        <v>260</v>
+        <v>316</v>
       </c>
       <c r="C108" t="s">
-        <v>217</v>
+        <v>13</v>
+      </c>
+      <c r="D108" t="s">
+        <v>317</v>
+      </c>
+      <c r="E108" t="s">
+        <v>318</v>
+      </c>
+      <c r="F108" t="s">
+        <v>302</v>
+      </c>
+      <c r="G108" t="s">
+        <v>14</v>
+      </c>
+      <c r="H108" t="s">
+        <v>397</v>
+      </c>
+      <c r="I108" t="s">
+        <v>398</v>
+      </c>
+      <c r="J108">
+        <v>13</v>
       </c>
       <c r="K108" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>280</v>
-      </c>
-      <c r="B109" t="s">
-        <v>280</v>
-      </c>
-      <c r="C109" t="s">
-        <v>217</v>
-      </c>
-      <c r="K109" t="s">
-        <v>19</v>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>11</v>
+        <v>321</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>322</v>
       </c>
       <c r="C110" t="s">
         <v>13</v>
       </c>
       <c r="D110" t="s">
-        <v>393</v>
+        <v>323</v>
       </c>
       <c r="E110" t="s">
-        <v>394</v>
+        <v>324</v>
       </c>
       <c r="F110" t="s">
-        <v>395</v>
+        <v>302</v>
       </c>
       <c r="G110" t="s">
         <v>14</v>
       </c>
+      <c r="H110" t="s">
+        <v>397</v>
+      </c>
+      <c r="I110" t="s">
+        <v>398</v>
+      </c>
+      <c r="J110">
+        <v>14</v>
+      </c>
       <c r="K110" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>262</v>
-      </c>
-      <c r="B111" t="s">
-        <v>262</v>
-      </c>
-      <c r="C111" t="s">
-        <v>217</v>
-      </c>
-      <c r="K111" t="s">
-        <v>263</v>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="B112" t="s">
-        <v>380</v>
+        <v>327</v>
       </c>
       <c r="C112" t="s">
-        <v>381</v>
+        <v>13</v>
       </c>
       <c r="D112" t="s">
-        <v>382</v>
+        <v>328</v>
       </c>
       <c r="E112" t="s">
-        <v>383</v>
+        <v>329</v>
       </c>
       <c r="F112" t="s">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="G112" t="s">
-        <v>384</v>
+        <v>14</v>
+      </c>
+      <c r="K112" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>385</v>
+        <v>326</v>
       </c>
       <c r="B113" t="s">
-        <v>386</v>
+        <v>330</v>
       </c>
       <c r="C113" t="s">
-        <v>381</v>
+        <v>13</v>
       </c>
       <c r="D113" t="s">
-        <v>387</v>
+        <v>328</v>
       </c>
       <c r="E113" t="s">
-        <v>388</v>
+        <v>329</v>
       </c>
       <c r="F113" t="s">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="G113" t="s">
-        <v>384</v>
+        <v>14</v>
+      </c>
+      <c r="K113" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>389</v>
+        <v>331</v>
       </c>
       <c r="B114" t="s">
-        <v>390</v>
+        <v>332</v>
       </c>
       <c r="C114" t="s">
-        <v>381</v>
+        <v>13</v>
       </c>
       <c r="D114" t="s">
-        <v>391</v>
+        <v>333</v>
       </c>
       <c r="E114" t="s">
-        <v>392</v>
+        <v>334</v>
       </c>
       <c r="F114" t="s">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="G114" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>299</v>
-      </c>
-      <c r="B115" t="s">
-        <v>300</v>
-      </c>
-      <c r="C115" t="s">
-        <v>13</v>
-      </c>
-      <c r="D115" t="s">
-        <v>301</v>
-      </c>
-      <c r="E115" t="s">
+        <v>14</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="J114" s="2">
+        <v>3</v>
+      </c>
+      <c r="K114" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F115" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F115" t="s">
-        <v>303</v>
-      </c>
-      <c r="G115" t="s">
-        <v>14</v>
-      </c>
-      <c r="K115" t="s">
-        <v>304</v>
+      <c r="G115" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="B116" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="C116" t="s">
         <v>13</v>
       </c>
       <c r="D116" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="E116" t="s">
+        <v>340</v>
+      </c>
+      <c r="F116" t="s">
         <v>302</v>
       </c>
-      <c r="F116" t="s">
-        <v>303</v>
-      </c>
       <c r="G116" t="s">
         <v>14</v>
       </c>
+      <c r="H116" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="J116" s="2">
+        <v>4</v>
+      </c>
       <c r="K116" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>306</v>
-      </c>
-      <c r="B117" t="s">
-        <v>307</v>
-      </c>
-      <c r="C117" t="s">
-        <v>13</v>
-      </c>
-      <c r="D117" t="s">
-        <v>308</v>
-      </c>
-      <c r="E117" t="s">
-        <v>309</v>
-      </c>
-      <c r="F117" t="s">
-        <v>303</v>
-      </c>
-      <c r="G117" t="s">
-        <v>14</v>
-      </c>
-      <c r="K117" t="s">
-        <v>304</v>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="B118" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="C118" t="s">
         <v>13</v>
       </c>
       <c r="D118" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="E118" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="F118" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G118" t="s">
         <v>14</v>
       </c>
+      <c r="H118" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="K118" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="B119" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="C119" t="s">
         <v>13</v>
       </c>
       <c r="D119" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="E119" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="F119" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G119" t="s">
         <v>14</v>
       </c>
+      <c r="H119" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="K119" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="B120" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="C120" t="s">
-        <v>13</v>
+        <v>348</v>
       </c>
       <c r="D120" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="E120" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="F120" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="G120" t="s">
-        <v>14</v>
-      </c>
-      <c r="K120" t="s">
-        <v>304</v>
+        <v>351</v>
+      </c>
+      <c r="H120" t="s">
+        <v>423</v>
+      </c>
+      <c r="I120" t="s">
+        <v>398</v>
+      </c>
+      <c r="J120">
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="B121" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="C121" t="s">
-        <v>13</v>
+        <v>348</v>
       </c>
       <c r="D121" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="E121" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="F121" t="s">
-        <v>303</v>
+        <v>355</v>
       </c>
       <c r="G121" t="s">
-        <v>14</v>
-      </c>
-      <c r="K121" t="s">
-        <v>320</v>
+        <v>351</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="J121" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="B122" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="C122" t="s">
-        <v>13</v>
+        <v>348</v>
       </c>
       <c r="D122" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="E122" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="F122" t="s">
-        <v>303</v>
+        <v>359</v>
       </c>
       <c r="G122" t="s">
-        <v>14</v>
-      </c>
-      <c r="K122" t="s">
-        <v>320</v>
+        <v>351</v>
+      </c>
+      <c r="H122" t="s">
+        <v>423</v>
+      </c>
+      <c r="I122" t="s">
+        <v>398</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="B123" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="C123" t="s">
-        <v>13</v>
+        <v>361</v>
       </c>
       <c r="D123" t="s">
-        <v>324</v>
+        <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>325</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>303</v>
-      </c>
-      <c r="G123" t="s">
-        <v>14</v>
-      </c>
-      <c r="K123" t="s">
-        <v>320</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="B124" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="C124" t="s">
-        <v>13</v>
+        <v>287</v>
       </c>
       <c r="D124" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="E124" t="s">
-        <v>325</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>303</v>
+        <v>12</v>
       </c>
       <c r="G124" t="s">
-        <v>14</v>
-      </c>
-      <c r="K124" t="s">
-        <v>320</v>
+        <v>288</v>
+      </c>
+      <c r="H124" t="s">
+        <v>423</v>
+      </c>
+      <c r="I124" t="s">
+        <v>413</v>
+      </c>
+      <c r="J124">
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="B125" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="C125" t="s">
-        <v>13</v>
+        <v>290</v>
       </c>
       <c r="D125" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="E125" t="s">
-        <v>330</v>
-      </c>
-      <c r="F125" t="s">
-        <v>303</v>
+        <v>366</v>
       </c>
       <c r="G125" t="s">
-        <v>14</v>
-      </c>
-      <c r="K125" t="s">
-        <v>320</v>
+        <v>293</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="J125" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="B126" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="C126" t="s">
-        <v>13</v>
+        <v>348</v>
       </c>
       <c r="D126" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="E126" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="F126" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G126" t="s">
-        <v>14</v>
-      </c>
-      <c r="K126" t="s">
-        <v>320</v>
+        <v>351</v>
+      </c>
+      <c r="H126" t="s">
+        <v>415</v>
+      </c>
+      <c r="I126" t="s">
+        <v>398</v>
+      </c>
+      <c r="J126">
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="B127" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="C127" t="s">
-        <v>13</v>
+        <v>348</v>
       </c>
       <c r="D127" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="E127" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="F127" t="s">
-        <v>303</v>
+        <v>373</v>
       </c>
       <c r="G127" t="s">
-        <v>14</v>
-      </c>
-      <c r="K127" t="s">
-        <v>336</v>
+        <v>351</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="J127">
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="B128" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="C128" t="s">
-        <v>13</v>
+        <v>348</v>
       </c>
       <c r="D128" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="E128" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="F128" t="s">
-        <v>303</v>
+        <v>377</v>
       </c>
       <c r="G128" t="s">
-        <v>14</v>
-      </c>
-      <c r="K128" t="s">
-        <v>336</v>
+        <v>351</v>
+      </c>
+      <c r="H128" t="s">
+        <v>397</v>
+      </c>
+      <c r="I128" t="s">
+        <v>398</v>
+      </c>
+      <c r="J128">
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="B129" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="C129" t="s">
-        <v>13</v>
+        <v>380</v>
       </c>
       <c r="D129" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="E129" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="F129" t="s">
-        <v>303</v>
+        <v>76</v>
       </c>
       <c r="G129" t="s">
-        <v>14</v>
-      </c>
-      <c r="K129" t="s">
-        <v>336</v>
+        <v>383</v>
+      </c>
+      <c r="H129" t="s">
+        <v>397</v>
+      </c>
+      <c r="I129" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="B130" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="C130" t="s">
-        <v>13</v>
+        <v>380</v>
       </c>
       <c r="D130" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="E130" t="s">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="F130" t="s">
-        <v>303</v>
+        <v>76</v>
       </c>
       <c r="G130" t="s">
-        <v>14</v>
-      </c>
-      <c r="K130" t="s">
-        <v>336</v>
+        <v>383</v>
+      </c>
+      <c r="H130" t="s">
+        <v>397</v>
+      </c>
+      <c r="I130" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="B131" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="C131" t="s">
-        <v>13</v>
+        <v>380</v>
       </c>
       <c r="D131" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="E131" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="F131" t="s">
-        <v>303</v>
+        <v>76</v>
       </c>
       <c r="G131" t="s">
-        <v>14</v>
-      </c>
-      <c r="K131" t="s">
-        <v>336</v>
+        <v>383</v>
+      </c>
+      <c r="H131" t="s">
+        <v>397</v>
+      </c>
+      <c r="I131" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>343</v>
+        <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>347</v>
+        <v>11</v>
       </c>
       <c r="C132" t="s">
         <v>13</v>
       </c>
       <c r="D132" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="E132" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="F132" t="s">
-        <v>303</v>
+        <v>394</v>
       </c>
       <c r="G132" t="s">
         <v>14</v>
       </c>
+      <c r="H132" t="s">
+        <v>397</v>
+      </c>
+      <c r="I132" t="s">
+        <v>398</v>
+      </c>
+      <c r="J132">
+        <v>12</v>
+      </c>
       <c r="K132" t="s">
-        <v>336</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K132" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K132">
-      <sortCondition ref="B1:B132"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:K132" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data/Data_Raw/Country codes & metadata/metadata.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{A89A9E79-7860-4A81-9DCB-C2B256FA1FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F290D4E2-500E-43F5-A737-41563D6561AF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F2EF0A-EFC0-4684-A68A-63E28FB2A70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="2790" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$132</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="437">
   <si>
     <t>name_portal</t>
   </si>
@@ -951,9 +964,6 @@
     <t>WS_HCF_H-B</t>
   </si>
   <si>
-    <t>basic_sanitation_health</t>
-  </si>
-  <si>
     <t>WS_HCF_S_B</t>
   </si>
   <si>
@@ -1029,9 +1039,6 @@
     <t>WS_PPL_W-ALB</t>
   </si>
   <si>
-    <t>basic_hygiene_schools</t>
-  </si>
-  <si>
     <t>WS_SCH_H_B</t>
   </si>
   <si>
@@ -1047,9 +1054,6 @@
     <t>WS_SCH_H-B</t>
   </si>
   <si>
-    <t>basic_sanitation_schools</t>
-  </si>
-  <si>
     <t>WS_SCH_S_B</t>
   </si>
   <si>
@@ -1339,6 +1343,21 @@
   </si>
   <si>
     <t>Probability of dying at age 5–14 years expressed per 1,000 children aged 5</t>
+  </si>
+  <si>
+    <t>basic_sanitation_sch</t>
+  </si>
+  <si>
+    <t>basic_hygiene_sch</t>
+  </si>
+  <si>
+    <t>basic_sanit_health</t>
+  </si>
+  <si>
+    <t>PT_F_18_29_SX_AGE_18</t>
+  </si>
+  <si>
+    <t>PT_M_18_29_SX_AGE_18</t>
   </si>
 </sst>
 </file>
@@ -1401,12 +1420,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -1424,10 +1442,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1718,11 +1732,11 @@
   <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A117" sqref="A117:XFD117"/>
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F235" sqref="F235"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
@@ -1774,22 +1788,22 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E2" t="s">
-        <v>393</v>
-      </c>
-      <c r="F2" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
         <v>394</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>397</v>
-      </c>
       <c r="I2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -1809,19 +1823,19 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>431</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
@@ -1841,19 +1855,19 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>433</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J4">
         <v>4</v>
@@ -1876,19 +1890,19 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>434</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1914,10 +1928,10 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1937,10 +1951,10 @@
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1960,38 +1974,38 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I8" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="G9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="J9" s="2">
         <v>5</v>
       </c>
     </row>
@@ -2015,36 +2029,36 @@
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I10" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>398</v>
+      <c r="G11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2067,10 +2081,10 @@
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I12" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2093,10 +2107,10 @@
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I13" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2119,36 +2133,36 @@
         <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I14" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>398</v>
+      <c r="G15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2171,10 +2185,10 @@
         <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I16" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2197,10 +2211,10 @@
         <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I17" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2226,10 +2240,10 @@
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I18" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2255,10 +2269,10 @@
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I19" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2278,10 +2292,10 @@
         <v>61</v>
       </c>
       <c r="H20" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I20" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J20">
         <v>6</v>
@@ -2310,10 +2324,10 @@
         <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I21" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J21">
         <v>15</v>
@@ -2345,10 +2359,10 @@
         <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I22" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J22">
         <v>10</v>
@@ -2380,10 +2394,10 @@
         <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I23" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K23" t="s">
         <v>71</v>
@@ -2412,10 +2426,10 @@
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I24" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J24">
         <v>8</v>
@@ -2447,10 +2461,10 @@
         <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I25" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K25" t="s">
         <v>71</v>
@@ -2479,10 +2493,10 @@
         <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I26" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K26" t="s">
         <v>71</v>
@@ -2511,10 +2525,10 @@
         <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I27" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K27" t="s">
         <v>71</v>
@@ -2543,10 +2557,10 @@
         <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I28" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K28" t="s">
         <v>71</v>
@@ -2575,10 +2589,10 @@
         <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I29" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K29" t="s">
         <v>71</v>
@@ -2607,10 +2621,10 @@
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I30" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K30" t="s">
         <v>71</v>
@@ -2639,10 +2653,10 @@
         <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I31" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K31" t="s">
         <v>71</v>
@@ -2671,10 +2685,10 @@
         <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I32" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K32" t="s">
         <v>71</v>
@@ -2703,10 +2717,10 @@
         <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I33" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2732,10 +2746,10 @@
         <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I34" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2761,10 +2775,10 @@
         <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I35" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2790,10 +2804,10 @@
         <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I36" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2819,10 +2833,10 @@
         <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I37" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2848,10 +2862,10 @@
         <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I38" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2876,13 +2890,13 @@
       <c r="G39" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="J39" s="2">
+      <c r="H39" t="s">
+        <v>394</v>
+      </c>
+      <c r="I39" t="s">
+        <v>395</v>
+      </c>
+      <c r="J39">
         <v>11</v>
       </c>
     </row>
@@ -2909,10 +2923,10 @@
         <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I40" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2938,10 +2952,10 @@
         <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I41" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2967,10 +2981,10 @@
         <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I42" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J42">
         <v>3</v>
@@ -3002,10 +3016,10 @@
         <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I43" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3031,10 +3045,10 @@
         <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I44" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -3060,10 +3074,10 @@
         <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I45" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3089,10 +3103,10 @@
         <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I46" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3118,10 +3132,10 @@
         <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I47" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3147,10 +3161,10 @@
         <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I48" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3175,45 +3189,45 @@
       <c r="G49" t="s">
         <v>14</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="J49" s="2">
+      <c r="H49" t="s">
+        <v>402</v>
+      </c>
+      <c r="I49" t="s">
+        <v>410</v>
+      </c>
+      <c r="J49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="3" t="s">
+      <c r="C50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="J50" s="3">
+      <c r="G50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="J50" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3240,10 +3254,13 @@
         <v>187</v>
       </c>
       <c r="H51" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I51" t="s">
-        <v>398</v>
+        <v>395</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3269,10 +3286,10 @@
         <v>187</v>
       </c>
       <c r="H52" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I52" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J52">
         <v>6</v>
@@ -3304,10 +3321,13 @@
         <v>187</v>
       </c>
       <c r="H53" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I53" t="s">
-        <v>398</v>
+        <v>395</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
       </c>
       <c r="K53" t="s">
         <v>195</v>
@@ -3335,13 +3355,13 @@
       <c r="G54" t="s">
         <v>187</v>
       </c>
-      <c r="H54" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="J54" s="2">
+      <c r="H54" t="s">
+        <v>402</v>
+      </c>
+      <c r="I54" t="s">
+        <v>393</v>
+      </c>
+      <c r="J54">
         <v>7</v>
       </c>
       <c r="K54" t="s">
@@ -3371,10 +3391,13 @@
         <v>187</v>
       </c>
       <c r="H55" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I55" t="s">
-        <v>413</v>
+        <v>410</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
       </c>
       <c r="K55" t="s">
         <v>203</v>
@@ -3403,10 +3426,13 @@
         <v>187</v>
       </c>
       <c r="H56" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I56" t="s">
-        <v>413</v>
+        <v>410</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
       </c>
       <c r="K56" t="s">
         <v>203</v>
@@ -3435,10 +3461,13 @@
         <v>187</v>
       </c>
       <c r="H57" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I57" t="s">
-        <v>413</v>
+        <v>410</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
       </c>
       <c r="K57" t="s">
         <v>203</v>
@@ -3467,10 +3496,13 @@
         <v>187</v>
       </c>
       <c r="H58" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I58" t="s">
-        <v>398</v>
+        <v>395</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
       </c>
       <c r="K58" t="s">
         <v>195</v>
@@ -3499,10 +3531,10 @@
         <v>187</v>
       </c>
       <c r="H59" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I59" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J59">
         <v>8</v>
@@ -3519,10 +3551,10 @@
         <v>216</v>
       </c>
       <c r="H60" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I60" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K60" t="s">
         <v>218</v>
@@ -3539,10 +3571,10 @@
         <v>217</v>
       </c>
       <c r="H61" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I61" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K61" t="s">
         <v>220</v>
@@ -3559,13 +3591,13 @@
         <v>217</v>
       </c>
       <c r="D62" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H62" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I62" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J62">
         <v>3</v>
@@ -3585,10 +3617,10 @@
         <v>217</v>
       </c>
       <c r="H63" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I63" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K63" t="s">
         <v>220</v>
@@ -3605,13 +3637,13 @@
         <v>217</v>
       </c>
       <c r="D64" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H64" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I64" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J64">
         <v>6</v>
@@ -3631,13 +3663,13 @@
         <v>217</v>
       </c>
       <c r="D65" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H65" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I65" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -3657,13 +3689,13 @@
         <v>217</v>
       </c>
       <c r="D66" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H66" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I66" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -3683,10 +3715,10 @@
         <v>217</v>
       </c>
       <c r="H67" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I67" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K67" t="s">
         <v>230</v>
@@ -3703,10 +3735,10 @@
         <v>217</v>
       </c>
       <c r="H68" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I68" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K68" t="s">
         <v>232</v>
@@ -3723,13 +3755,13 @@
         <v>217</v>
       </c>
       <c r="D69" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H69" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I69" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J69">
         <v>3</v>
@@ -3749,10 +3781,10 @@
         <v>217</v>
       </c>
       <c r="H70" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I70" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K70" t="s">
         <v>232</v>
@@ -3769,13 +3801,13 @@
         <v>217</v>
       </c>
       <c r="D71" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H71" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I71" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -3795,13 +3827,13 @@
         <v>217</v>
       </c>
       <c r="D72" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H72" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I72" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -3821,13 +3853,13 @@
         <v>217</v>
       </c>
       <c r="D73" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H73" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I73" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K73" t="s">
         <v>241</v>
@@ -3844,13 +3876,13 @@
         <v>217</v>
       </c>
       <c r="D74" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H74" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I74" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J74">
         <v>4</v>
@@ -3890,13 +3922,13 @@
         <v>217</v>
       </c>
       <c r="D76" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H76" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I76" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J76">
         <v>10</v>
@@ -3916,13 +3948,13 @@
         <v>217</v>
       </c>
       <c r="D77" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H77" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I77" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J77">
         <v>11</v>
@@ -3942,13 +3974,13 @@
         <v>217</v>
       </c>
       <c r="D78" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H78" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I78" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J78">
         <v>13</v>
@@ -3968,13 +4000,13 @@
         <v>217</v>
       </c>
       <c r="D79" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H79" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I79" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J79">
         <v>12</v>
@@ -3994,13 +4026,13 @@
         <v>217</v>
       </c>
       <c r="D80" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H80" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I80" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J80">
         <v>3</v>
@@ -4020,13 +4052,13 @@
         <v>217</v>
       </c>
       <c r="D81" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H81" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I81" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J81">
         <v>7</v>
@@ -4046,13 +4078,13 @@
         <v>217</v>
       </c>
       <c r="D82" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H82" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I82" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J82">
         <v>4</v>
@@ -4072,13 +4104,13 @@
         <v>217</v>
       </c>
       <c r="D83" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H83" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I83" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J83">
         <v>6</v>
@@ -4098,13 +4130,13 @@
         <v>217</v>
       </c>
       <c r="D84" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H84" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I84" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J84">
         <v>1</v>
@@ -4124,7 +4156,7 @@
         <v>217</v>
       </c>
       <c r="H85" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K85" t="s">
         <v>263</v>
@@ -4153,10 +4185,10 @@
         <v>268</v>
       </c>
       <c r="H86" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I86" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -4176,13 +4208,13 @@
         <v>217</v>
       </c>
       <c r="D87" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H87" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I87" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J87">
         <v>1</v>
@@ -4202,13 +4234,13 @@
         <v>217</v>
       </c>
       <c r="D88" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H88" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I88" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -4228,13 +4260,13 @@
         <v>217</v>
       </c>
       <c r="D89" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H89" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I89" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J89">
         <v>5</v>
@@ -4254,13 +4286,13 @@
         <v>217</v>
       </c>
       <c r="D90" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H90" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I90" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J90">
         <v>2</v>
@@ -4280,13 +4312,13 @@
         <v>217</v>
       </c>
       <c r="D91" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H91" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I91" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J91">
         <v>5</v>
@@ -4305,14 +4337,14 @@
       <c r="C92" t="s">
         <v>217</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>401</v>
+      <c r="D92" t="s">
+        <v>398</v>
       </c>
       <c r="H92" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I92" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J92">
         <v>2</v>
@@ -4332,13 +4364,13 @@
         <v>217</v>
       </c>
       <c r="D93" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H93" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I93" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J93">
         <v>2</v>
@@ -4358,10 +4390,10 @@
         <v>217</v>
       </c>
       <c r="H94" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I94" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J94">
         <v>2</v>
@@ -4381,13 +4413,13 @@
         <v>217</v>
       </c>
       <c r="D95" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H95" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I95" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -4407,13 +4439,13 @@
         <v>217</v>
       </c>
       <c r="D96" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H96" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I96" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J96">
         <v>3</v>
@@ -4433,13 +4465,13 @@
         <v>217</v>
       </c>
       <c r="D97" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H97" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I97" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -4459,7 +4491,7 @@
         <v>287</v>
       </c>
       <c r="D98" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E98" t="s">
         <v>12</v>
@@ -4471,10 +4503,10 @@
         <v>288</v>
       </c>
       <c r="H98" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I98" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J98">
         <v>5</v>
@@ -4500,15 +4532,15 @@
         <v>293</v>
       </c>
       <c r="H99" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I99" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>294</v>
+        <v>435</v>
       </c>
       <c r="B100" t="s">
         <v>294</v>
@@ -4529,15 +4561,15 @@
         <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I100" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>297</v>
+        <v>436</v>
       </c>
       <c r="B101" t="s">
         <v>297</v>
@@ -4558,10 +4590,10 @@
         <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I101" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -4587,10 +4619,10 @@
         <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I102" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -4622,10 +4654,10 @@
         <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I103" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K103" t="s">
         <v>303</v>
@@ -4633,19 +4665,19 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>434</v>
+      </c>
+      <c r="B104" t="s">
         <v>305</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" t="s">
         <v>306</v>
       </c>
-      <c r="C104" t="s">
-        <v>13</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>307</v>
-      </c>
-      <c r="E104" t="s">
-        <v>308</v>
       </c>
       <c r="F104" t="s">
         <v>302</v>
@@ -4654,10 +4686,10 @@
         <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I104" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J104">
         <v>5</v>
@@ -4668,19 +4700,19 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>305</v>
+        <v>434</v>
       </c>
       <c r="B105" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C105" t="s">
         <v>13</v>
       </c>
       <c r="D105" t="s">
+        <v>306</v>
+      </c>
+      <c r="E105" t="s">
         <v>307</v>
-      </c>
-      <c r="E105" t="s">
-        <v>308</v>
       </c>
       <c r="F105" t="s">
         <v>302</v>
@@ -4689,10 +4721,10 @@
         <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I105" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K105" t="s">
         <v>303</v>
@@ -4700,19 +4732,19 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>309</v>
+      </c>
+      <c r="B106" t="s">
         <v>310</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" t="s">
         <v>311</v>
       </c>
-      <c r="C106" t="s">
-        <v>13</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>312</v>
-      </c>
-      <c r="E106" t="s">
-        <v>313</v>
       </c>
       <c r="F106" t="s">
         <v>302</v>
@@ -4721,10 +4753,10 @@
         <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I106" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -4735,19 +4767,19 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B107" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C107" t="s">
         <v>13</v>
       </c>
       <c r="D107" t="s">
+        <v>311</v>
+      </c>
+      <c r="E107" t="s">
         <v>312</v>
-      </c>
-      <c r="E107" t="s">
-        <v>313</v>
       </c>
       <c r="F107" t="s">
         <v>302</v>
@@ -4756,10 +4788,10 @@
         <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I107" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K107" t="s">
         <v>303</v>
@@ -4767,19 +4799,19 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>314</v>
+      </c>
+      <c r="B108" t="s">
         <v>315</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" t="s">
         <v>316</v>
       </c>
-      <c r="C108" t="s">
-        <v>13</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>317</v>
-      </c>
-      <c r="E108" t="s">
-        <v>318</v>
       </c>
       <c r="F108" t="s">
         <v>302</v>
@@ -4788,65 +4820,65 @@
         <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I108" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J108">
         <v>13</v>
       </c>
       <c r="K108" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D109" s="3" t="s">
+      <c r="C109" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="F109" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="K109" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="K109" s="3" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>320</v>
+      </c>
+      <c r="B110" t="s">
         <v>321</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" t="s">
         <v>322</v>
       </c>
-      <c r="C110" t="s">
-        <v>13</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>323</v>
-      </c>
-      <c r="E110" t="s">
-        <v>324</v>
       </c>
       <c r="F110" t="s">
         <v>302</v>
@@ -4855,65 +4887,65 @@
         <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I110" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J110">
         <v>14</v>
       </c>
       <c r="K110" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D111" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E111" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="F111" s="3" t="s">
+      <c r="F111" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="G111" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H111" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="K111" s="3" t="s">
-        <v>319</v>
+      <c r="G111" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>325</v>
+      </c>
+      <c r="B112" t="s">
         <v>326</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" t="s">
         <v>327</v>
       </c>
-      <c r="C112" t="s">
-        <v>13</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>328</v>
-      </c>
-      <c r="E112" t="s">
-        <v>329</v>
       </c>
       <c r="F112" t="s">
         <v>302</v>
@@ -4922,24 +4954,24 @@
         <v>14</v>
       </c>
       <c r="K112" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B113" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C113" t="s">
         <v>13</v>
       </c>
       <c r="D113" t="s">
+        <v>327</v>
+      </c>
+      <c r="E113" t="s">
         <v>328</v>
-      </c>
-      <c r="E113" t="s">
-        <v>329</v>
       </c>
       <c r="F113" t="s">
         <v>302</v>
@@ -4948,24 +4980,24 @@
         <v>14</v>
       </c>
       <c r="K113" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>433</v>
+      </c>
+      <c r="B114" t="s">
+        <v>330</v>
+      </c>
+      <c r="C114" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" t="s">
         <v>331</v>
       </c>
-      <c r="B114" t="s">
+      <c r="E114" t="s">
         <v>332</v>
-      </c>
-      <c r="C114" t="s">
-        <v>13</v>
-      </c>
-      <c r="D114" t="s">
-        <v>333</v>
-      </c>
-      <c r="E114" t="s">
-        <v>334</v>
       </c>
       <c r="F114" t="s">
         <v>302</v>
@@ -4973,66 +5005,66 @@
       <c r="G114" t="s">
         <v>14</v>
       </c>
-      <c r="H114" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="J114" s="2">
+      <c r="H114" t="s">
+        <v>402</v>
+      </c>
+      <c r="I114" t="s">
+        <v>395</v>
+      </c>
+      <c r="J114">
         <v>3</v>
       </c>
       <c r="K114" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D115" s="3" t="s">
+      <c r="E115" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="K115" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="K115" s="3" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>432</v>
+      </c>
+      <c r="B116" t="s">
+        <v>335</v>
+      </c>
+      <c r="C116" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" t="s">
+        <v>336</v>
+      </c>
+      <c r="E116" t="s">
         <v>337</v>
-      </c>
-      <c r="B116" t="s">
-        <v>338</v>
-      </c>
-      <c r="C116" t="s">
-        <v>13</v>
-      </c>
-      <c r="D116" t="s">
-        <v>339</v>
-      </c>
-      <c r="E116" t="s">
-        <v>340</v>
       </c>
       <c r="F116" t="s">
         <v>302</v>
@@ -5040,66 +5072,66 @@
       <c r="G116" t="s">
         <v>14</v>
       </c>
-      <c r="H116" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="J116" s="2">
+      <c r="H116" t="s">
+        <v>402</v>
+      </c>
+      <c r="I116" t="s">
+        <v>395</v>
+      </c>
+      <c r="J116">
         <v>4</v>
       </c>
       <c r="K116" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B117" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F117" s="3" t="s">
+      <c r="F117" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="G117" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="K117" s="3" t="s">
-        <v>335</v>
+      <c r="G117" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>339</v>
+      </c>
+      <c r="B118" t="s">
+        <v>340</v>
+      </c>
+      <c r="C118" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" t="s">
+        <v>341</v>
+      </c>
+      <c r="E118" t="s">
         <v>342</v>
-      </c>
-      <c r="B118" t="s">
-        <v>343</v>
-      </c>
-      <c r="C118" t="s">
-        <v>13</v>
-      </c>
-      <c r="D118" t="s">
-        <v>344</v>
-      </c>
-      <c r="E118" t="s">
-        <v>345</v>
       </c>
       <c r="F118" t="s">
         <v>302</v>
@@ -5107,31 +5139,31 @@
       <c r="G118" t="s">
         <v>14</v>
       </c>
-      <c r="H118" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>398</v>
+      <c r="H118" t="s">
+        <v>402</v>
+      </c>
+      <c r="I118" t="s">
+        <v>395</v>
       </c>
       <c r="K118" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>339</v>
+      </c>
+      <c r="B119" t="s">
+        <v>343</v>
+      </c>
+      <c r="C119" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" t="s">
+        <v>341</v>
+      </c>
+      <c r="E119" t="s">
         <v>342</v>
-      </c>
-      <c r="B119" t="s">
-        <v>346</v>
-      </c>
-      <c r="C119" t="s">
-        <v>13</v>
-      </c>
-      <c r="D119" t="s">
-        <v>344</v>
-      </c>
-      <c r="E119" t="s">
-        <v>345</v>
       </c>
       <c r="F119" t="s">
         <v>302</v>
@@ -5139,43 +5171,43 @@
       <c r="G119" t="s">
         <v>14</v>
       </c>
-      <c r="H119" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>398</v>
+      <c r="H119" t="s">
+        <v>402</v>
+      </c>
+      <c r="I119" t="s">
+        <v>395</v>
       </c>
       <c r="K119" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>344</v>
+      </c>
+      <c r="B120" t="s">
+        <v>344</v>
+      </c>
+      <c r="C120" t="s">
+        <v>345</v>
+      </c>
+      <c r="D120" t="s">
+        <v>346</v>
+      </c>
+      <c r="E120" t="s">
+        <v>346</v>
+      </c>
+      <c r="F120" t="s">
         <v>347</v>
       </c>
-      <c r="B120" t="s">
-        <v>347</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="G120" t="s">
         <v>348</v>
       </c>
-      <c r="D120" t="s">
-        <v>349</v>
-      </c>
-      <c r="E120" t="s">
-        <v>349</v>
-      </c>
-      <c r="F120" t="s">
-        <v>350</v>
-      </c>
-      <c r="G120" t="s">
-        <v>351</v>
-      </c>
       <c r="H120" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I120" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -5183,63 +5215,63 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>349</v>
+      </c>
+      <c r="B121" t="s">
+        <v>349</v>
+      </c>
+      <c r="C121" t="s">
+        <v>345</v>
+      </c>
+      <c r="D121" t="s">
+        <v>350</v>
+      </c>
+      <c r="E121" t="s">
+        <v>351</v>
+      </c>
+      <c r="F121" t="s">
         <v>352</v>
       </c>
-      <c r="B121" t="s">
-        <v>352</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="G121" t="s">
         <v>348</v>
       </c>
-      <c r="D121" t="s">
-        <v>353</v>
-      </c>
-      <c r="E121" t="s">
-        <v>354</v>
-      </c>
-      <c r="F121" t="s">
-        <v>355</v>
-      </c>
-      <c r="G121" t="s">
-        <v>351</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="J121" s="2">
+      <c r="H121" t="s">
+        <v>402</v>
+      </c>
+      <c r="I121" t="s">
+        <v>395</v>
+      </c>
+      <c r="J121">
         <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>353</v>
+      </c>
+      <c r="B122" t="s">
+        <v>353</v>
+      </c>
+      <c r="C122" t="s">
+        <v>345</v>
+      </c>
+      <c r="D122" t="s">
+        <v>354</v>
+      </c>
+      <c r="E122" t="s">
+        <v>355</v>
+      </c>
+      <c r="F122" t="s">
         <v>356</v>
       </c>
-      <c r="B122" t="s">
-        <v>356</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="G122" t="s">
         <v>348</v>
       </c>
-      <c r="D122" t="s">
-        <v>357</v>
-      </c>
-      <c r="E122" t="s">
-        <v>358</v>
-      </c>
-      <c r="F122" t="s">
-        <v>359</v>
-      </c>
-      <c r="G122" t="s">
-        <v>351</v>
-      </c>
       <c r="H122" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I122" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J122">
         <v>1</v>
@@ -5247,13 +5279,13 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B123" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C123" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D123" t="s">
         <v>12</v>
@@ -5267,16 +5299,16 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B124" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C124" t="s">
         <v>287</v>
       </c>
       <c r="D124" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E124" t="s">
         <v>12</v>
@@ -5288,10 +5320,10 @@
         <v>288</v>
       </c>
       <c r="H124" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I124" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J124">
         <v>4</v>
@@ -5299,60 +5331,60 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B125" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C125" t="s">
         <v>290</v>
       </c>
       <c r="D125" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E125" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G125" t="s">
         <v>293</v>
       </c>
-      <c r="H125" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="J125" s="2">
+      <c r="H125" t="s">
+        <v>402</v>
+      </c>
+      <c r="I125" t="s">
+        <v>393</v>
+      </c>
+      <c r="J125">
         <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B126" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C126" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D126" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E126" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F126" t="s">
         <v>302</v>
       </c>
       <c r="G126" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H126" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I126" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J126">
         <v>6</v>
@@ -5360,31 +5392,31 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>367</v>
+      </c>
+      <c r="B127" t="s">
+        <v>367</v>
+      </c>
+      <c r="C127" t="s">
+        <v>345</v>
+      </c>
+      <c r="D127" t="s">
+        <v>368</v>
+      </c>
+      <c r="E127" t="s">
+        <v>369</v>
+      </c>
+      <c r="F127" t="s">
         <v>370</v>
       </c>
-      <c r="B127" t="s">
-        <v>370</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="G127" t="s">
         <v>348</v>
       </c>
-      <c r="D127" t="s">
-        <v>371</v>
-      </c>
-      <c r="E127" t="s">
-        <v>372</v>
-      </c>
-      <c r="F127" t="s">
-        <v>373</v>
-      </c>
-      <c r="G127" t="s">
-        <v>351</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>398</v>
+      <c r="H127" t="s">
+        <v>394</v>
+      </c>
+      <c r="I127" t="s">
+        <v>395</v>
       </c>
       <c r="J127">
         <v>3</v>
@@ -5392,31 +5424,31 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>371</v>
+      </c>
+      <c r="B128" t="s">
+        <v>371</v>
+      </c>
+      <c r="C128" t="s">
+        <v>345</v>
+      </c>
+      <c r="D128" t="s">
+        <v>372</v>
+      </c>
+      <c r="E128" t="s">
+        <v>373</v>
+      </c>
+      <c r="F128" t="s">
         <v>374</v>
       </c>
-      <c r="B128" t="s">
-        <v>374</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="G128" t="s">
         <v>348</v>
       </c>
-      <c r="D128" t="s">
-        <v>375</v>
-      </c>
-      <c r="E128" t="s">
-        <v>376</v>
-      </c>
-      <c r="F128" t="s">
-        <v>377</v>
-      </c>
-      <c r="G128" t="s">
-        <v>351</v>
-      </c>
       <c r="H128" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I128" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J128">
         <v>9</v>
@@ -5424,89 +5456,89 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>375</v>
+      </c>
+      <c r="B129" t="s">
+        <v>376</v>
+      </c>
+      <c r="C129" t="s">
+        <v>377</v>
+      </c>
+      <c r="D129" t="s">
         <v>378</v>
       </c>
-      <c r="B129" t="s">
+      <c r="E129" t="s">
         <v>379</v>
-      </c>
-      <c r="C129" t="s">
-        <v>380</v>
-      </c>
-      <c r="D129" t="s">
-        <v>381</v>
-      </c>
-      <c r="E129" t="s">
-        <v>382</v>
       </c>
       <c r="F129" t="s">
         <v>76</v>
       </c>
       <c r="G129" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H129" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I129" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>381</v>
+      </c>
+      <c r="B130" t="s">
+        <v>382</v>
+      </c>
+      <c r="C130" t="s">
+        <v>377</v>
+      </c>
+      <c r="D130" t="s">
+        <v>383</v>
+      </c>
+      <c r="E130" t="s">
         <v>384</v>
-      </c>
-      <c r="B130" t="s">
-        <v>385</v>
-      </c>
-      <c r="C130" t="s">
-        <v>380</v>
-      </c>
-      <c r="D130" t="s">
-        <v>386</v>
-      </c>
-      <c r="E130" t="s">
-        <v>387</v>
       </c>
       <c r="F130" t="s">
         <v>76</v>
       </c>
       <c r="G130" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H130" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I130" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>385</v>
+      </c>
+      <c r="B131" t="s">
+        <v>386</v>
+      </c>
+      <c r="C131" t="s">
+        <v>377</v>
+      </c>
+      <c r="D131" t="s">
+        <v>387</v>
+      </c>
+      <c r="E131" t="s">
         <v>388</v>
-      </c>
-      <c r="B131" t="s">
-        <v>389</v>
-      </c>
-      <c r="C131" t="s">
-        <v>380</v>
-      </c>
-      <c r="D131" t="s">
-        <v>390</v>
-      </c>
-      <c r="E131" t="s">
-        <v>391</v>
       </c>
       <c r="F131" t="s">
         <v>76</v>
       </c>
       <c r="G131" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H131" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I131" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -5520,22 +5552,22 @@
         <v>13</v>
       </c>
       <c r="D132" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E132" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F132" t="s">
+        <v>391</v>
+      </c>
+      <c r="G132" t="s">
+        <v>14</v>
+      </c>
+      <c r="H132" t="s">
         <v>394</v>
       </c>
-      <c r="G132" t="s">
-        <v>14</v>
-      </c>
-      <c r="H132" t="s">
-        <v>397</v>
-      </c>
       <c r="I132" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J132">
         <v>12</v>
@@ -5546,6 +5578,16 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K132" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <dataValidations count="2">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G58" xr:uid="{2F5F9FA7-5446-47AF-A091-DD36F3BEED45}">
+      <formula1>1</formula1>
+      <formula2>20</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A132 A133:A225" xr:uid="{C9CEA4D8-9D09-46A7-AFBC-6B7076AE134A}">
+      <formula1>0</formula1>
+      <formula2>20</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data/Data_Raw/Country codes & metadata/metadata.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F2EF0A-EFC0-4684-A68A-63E28FB2A70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255DEBD7-1AE4-4A83-9D6D-4DFDBABACFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2790" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="445">
   <si>
     <t>name_portal</t>
   </si>
@@ -86,9 +86,6 @@
     <t>per 1,000 total births</t>
   </si>
   <si>
-    <t>unicef_u5mort</t>
-  </si>
-  <si>
     <t>CME_MRY0T4</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>per 1,000 live births</t>
   </si>
   <si>
-    <t>unicef_1524mort</t>
-  </si>
-  <si>
     <t>CME_MRY15T24</t>
   </si>
   <si>
@@ -110,9 +104,6 @@
     <t>per 1,000 youth aged 15</t>
   </si>
   <si>
-    <t>unicef_514mort</t>
-  </si>
-  <si>
     <t>CME_MRY5T14</t>
   </si>
   <si>
@@ -453,9 +444,6 @@
   </si>
   <si>
     <t>Numerator: Number of children under age 5 with fever in the last 2 weeks who received ACT (or other first-line treatment according to national policy). Denominator: Total number of children under age 5 with fever in the last 2 weeks who received any anti-malarial drugs</t>
-  </si>
-  <si>
-    <t>care_febrile_children</t>
   </si>
   <si>
     <t>MNCH_MLRCARE</t>
@@ -487,9 +475,6 @@
   <si>
     <t xml:space="preserve">Numerator: Number of children under age 5 with diarrhea in the last 2 weeks who received oral rehydration salts (ORS packets or pre-packaged ORS fluids).. Denominator: Total number of children under age 5 with diarrhea  in the two weeks preceding the survey_x000D_
 </t>
-  </si>
-  <si>
-    <t>unicef_caremother</t>
   </si>
   <si>
     <t>MNCH_PNCNB</t>
@@ -943,9 +928,6 @@
     <t>PT_M_18_29_SX_V_AGE_18</t>
   </si>
   <si>
-    <t>basic_hygiene_health</t>
-  </si>
-  <si>
     <t>WS_HCF_H_B</t>
   </si>
   <si>
@@ -976,9 +958,6 @@
     <t>WS_HCF_S-B</t>
   </si>
   <si>
-    <t>basic_water_health</t>
-  </si>
-  <si>
     <t>WS_HCF_W_B</t>
   </si>
   <si>
@@ -1066,9 +1045,6 @@
     <t>WS_SCH_S-B</t>
   </si>
   <si>
-    <t>basic_water_schools</t>
-  </si>
-  <si>
     <t>WS_SCH_W_B</t>
   </si>
   <si>
@@ -1174,9 +1150,6 @@
     <t>2022, May</t>
   </si>
   <si>
-    <t>fao_undernourishment</t>
-  </si>
-  <si>
     <t>v210041</t>
   </si>
   <si>
@@ -1192,172 +1165,223 @@
     <t>https://www.fao.org/faostat/es/#data/FS</t>
   </si>
   <si>
+    <t>v21026</t>
+  </si>
+  <si>
+    <t>Percentage of children under 5 years affected by wasting (percent)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Weight-for-height is more than two standard deviations below the median for the international reference population aged 0-59 months.</t>
+  </si>
+  <si>
+    <t>v21049</t>
+  </si>
+  <si>
+    <t>Prevalence of low birthweight (percent)</t>
+  </si>
+  <si>
+    <t>Low birthweight is defined as a weight at birth of less than 2 500 grams (less than 5.51 lbs)</t>
+  </si>
+  <si>
+    <t>Stillbirth rate</t>
+  </si>
+  <si>
+    <t>Number of babies born with no sign of life at 28 weeks or more of gestation, per 1,000 total births</t>
+  </si>
+  <si>
+    <t>2022, November</t>
+  </si>
+  <si>
+    <t>School enrollment, preprimary (% gross)</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Prenatal and Early Childhood</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Minimum meal frequency (children aged 6 to 23 months) (%)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Completeness of birth registration (%)</t>
+  </si>
+  <si>
+    <t>Exclusive breastfeeding (%)</t>
+  </si>
+  <si>
+    <t>Careseeking for diarrhoea (%)</t>
+  </si>
+  <si>
+    <t>School-aged Children</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education as a percentage of GDP (%)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Over-age lower secondary students (%)</t>
+  </si>
+  <si>
+    <t>Over-age primary students (%)</t>
+  </si>
+  <si>
+    <t>Qualified teachers in primary education (%)</t>
+  </si>
+  <si>
+    <t>Proportion of primary schools with access to electricity (%)</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Completion rate, upper secondary education (%)</t>
+  </si>
+  <si>
+    <t>Youth</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>Qualified teachers in secondary education (%)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Postnatal contact with a health provider within 2 days of delivery</t>
+  </si>
+  <si>
+    <t>Youth NEET (%), ages 15-24</t>
+  </si>
+  <si>
+    <t>Youth unemployment (%), ages 15-24</t>
+  </si>
+  <si>
+    <t>Youth informal employment rate (%), ages 15-24</t>
+  </si>
+  <si>
+    <t>Adulthood and Elderly</t>
+  </si>
+  <si>
+    <t>Life expectancy at birth (years)</t>
+  </si>
+  <si>
+    <t>Cause of death, by non-communicable diseases (% of total)</t>
+  </si>
+  <si>
+    <t>Labour force participation (%), ages 25+</t>
+  </si>
+  <si>
+    <t>Unemployment (%), ages 25+</t>
+  </si>
+  <si>
+    <t>Adult informal employment rate (%), ages 25+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Expenditure on education as a percentage of total government expenditure (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probability a newborn would die before reaching exactly 5 years of age, expressed per 1,000 live births. </t>
+  </si>
+  <si>
+    <t>2023, January</t>
+  </si>
+  <si>
+    <t>Probability of dying at age 15–24 years expressed per 1,000 youth aged 15</t>
+  </si>
+  <si>
+    <t>Probability of dying at age 5–14 years expressed per 1,000 children aged 5</t>
+  </si>
+  <si>
+    <t>stillbirths</t>
+  </si>
+  <si>
+    <t>u5mort</t>
+  </si>
+  <si>
+    <t>mort1524</t>
+  </si>
+  <si>
+    <t>mort514</t>
+  </si>
+  <si>
+    <t>HVA_TEST</t>
+  </si>
+  <si>
+    <t>care_febr_child</t>
+  </si>
+  <si>
+    <t>caremother</t>
+  </si>
+  <si>
+    <t>diarrhoea</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>breastf</t>
+  </si>
+  <si>
+    <t>mealfreq</t>
+  </si>
+  <si>
+    <t>neomort</t>
+  </si>
+  <si>
+    <t>b_hygiene_health</t>
+  </si>
+  <si>
+    <t>b_sanit_health</t>
+  </si>
+  <si>
+    <t>b_water_health</t>
+  </si>
+  <si>
+    <t>b_hygiene_sch</t>
+  </si>
+  <si>
+    <t>b_sanitation_sch</t>
+  </si>
+  <si>
+    <t>b_water_schools</t>
+  </si>
+  <si>
+    <t>hypertension</t>
+  </si>
+  <si>
+    <t>undernourishment</t>
+  </si>
+  <si>
+    <t>probdeath_ncd</t>
+  </si>
+  <si>
+    <t>sexual_violence</t>
+  </si>
+  <si>
     <t>fao_wasting</t>
   </si>
   <si>
-    <t>v21026</t>
-  </si>
-  <si>
-    <t>Percentage of children under 5 years affected by wasting (percent)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Weight-for-height is more than two standard deviations below the median for the international reference population aged 0-59 months.</t>
-  </si>
-  <si>
     <t>fao_stunting</t>
-  </si>
-  <si>
-    <t>v21049</t>
-  </si>
-  <si>
-    <t>Prevalence of low birthweight (percent)</t>
-  </si>
-  <si>
-    <t>Low birthweight is defined as a weight at birth of less than 2 500 grams (less than 5.51 lbs)</t>
-  </si>
-  <si>
-    <t>Stillbirth rate</t>
-  </si>
-  <si>
-    <t>Number of babies born with no sign of life at 28 weeks or more of gestation, per 1,000 total births</t>
-  </si>
-  <si>
-    <t>2022, November</t>
-  </si>
-  <si>
-    <t>School enrollment, preprimary (% gross)</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Prenatal and Early Childhood</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>Minimum meal frequency (children aged 6 to 23 months) (%)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Completeness of birth registration (%)</t>
-  </si>
-  <si>
-    <t>Exclusive breastfeeding (%)</t>
-  </si>
-  <si>
-    <t>Careseeking for diarrhoea (%)</t>
-  </si>
-  <si>
-    <t>School-aged Children</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education as a percentage of GDP (%)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Over-age lower secondary students (%)</t>
-  </si>
-  <si>
-    <t>Over-age primary students (%)</t>
-  </si>
-  <si>
-    <t>Qualified teachers in primary education (%)</t>
-  </si>
-  <si>
-    <t>Proportion of primary schools with access to electricity (%)</t>
-  </si>
-  <si>
-    <t>Labor</t>
-  </si>
-  <si>
-    <t>Completion rate, upper secondary education (%)</t>
-  </si>
-  <si>
-    <t>Youth</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>Qualified teachers in secondary education (%)</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
-    <t>Postnatal contact with a health provider within 2 days of delivery</t>
-  </si>
-  <si>
-    <t>Youth NEET (%), ages 15-24</t>
-  </si>
-  <si>
-    <t>Youth unemployment (%), ages 15-24</t>
-  </si>
-  <si>
-    <t>Youth informal employment rate (%), ages 15-24</t>
-  </si>
-  <si>
-    <t>Adulthood and Elderly</t>
-  </si>
-  <si>
-    <t>Life expectancy at birth (years)</t>
-  </si>
-  <si>
-    <t>Cause of death, by non-communicable diseases (% of total)</t>
-  </si>
-  <si>
-    <t>Labour force participation (%), ages 25+</t>
-  </si>
-  <si>
-    <t>Unemployment (%), ages 25+</t>
-  </si>
-  <si>
-    <t>Adult informal employment rate (%), ages 25+</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Expenditure on education as a percentage of total government expenditure (%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probability a newborn would die before reaching exactly 5 years of age, expressed per 1,000 live births. </t>
-  </si>
-  <si>
-    <t>2023, January</t>
-  </si>
-  <si>
-    <t>Probability of dying at age 15–24 years expressed per 1,000 youth aged 15</t>
-  </si>
-  <si>
-    <t>Probability of dying at age 5–14 years expressed per 1,000 children aged 5</t>
-  </si>
-  <si>
-    <t>basic_sanitation_sch</t>
-  </si>
-  <si>
-    <t>basic_hygiene_sch</t>
-  </si>
-  <si>
-    <t>basic_sanit_health</t>
-  </si>
-  <si>
-    <t>PT_F_18_29_SX_AGE_18</t>
-  </si>
-  <si>
-    <t>PT_M_18_29_SX_AGE_18</t>
   </si>
 </sst>
 </file>
@@ -1732,8 +1756,8 @@
   <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F235" sqref="F235"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F133" sqref="F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1779,7 +1803,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>421</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -1788,22 +1812,22 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="E2" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I2" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -1811,112 +1835,112 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>383</v>
+      </c>
+      <c r="I3" t="s">
+        <v>384</v>
+      </c>
+      <c r="K3" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>428</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>394</v>
-      </c>
-      <c r="I3" t="s">
-        <v>395</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="I4" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J4">
         <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>424</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I5" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1928,18 +1952,18 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1951,33 +1975,33 @@
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="I8" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J8">
         <v>5</v>
@@ -1985,25 +2009,25 @@
     </row>
     <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J9" s="2">
         <v>5</v>
@@ -2011,291 +2035,291 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I10" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="G11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
       <c r="G12" t="s">
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I12" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
         <v>41</v>
       </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I13" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
         <v>46</v>
       </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
       <c r="G14" t="s">
         <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="I14" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="G15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I16" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
         <v>54</v>
       </c>
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" t="s">
-        <v>57</v>
-      </c>
       <c r="G17" t="s">
         <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I17" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" t="s">
         <v>58</v>
       </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" t="s">
-        <v>61</v>
-      </c>
       <c r="G18" t="s">
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="I18" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>425</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="I19" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H20" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="I20" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="J20">
         <v>6</v>
@@ -2303,598 +2327,598 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
         <v>66</v>
       </c>
-      <c r="B21" t="s">
+      <c r="F21" t="s">
         <v>67</v>
       </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" t="s">
-        <v>70</v>
-      </c>
       <c r="G21" t="s">
         <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I21" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J21">
         <v>15</v>
       </c>
       <c r="K21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" t="s">
         <v>72</v>
       </c>
-      <c r="B22" t="s">
+      <c r="F22" t="s">
         <v>73</v>
       </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" t="s">
-        <v>76</v>
-      </c>
       <c r="G22" t="s">
         <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I22" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J22">
         <v>10</v>
       </c>
       <c r="K22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" t="s">
         <v>77</v>
       </c>
-      <c r="B23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" t="s">
-        <v>80</v>
-      </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s">
         <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I23" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="K23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" t="s">
         <v>81</v>
       </c>
-      <c r="B24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" t="s">
-        <v>84</v>
-      </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I24" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J24">
         <v>8</v>
       </c>
       <c r="K24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" t="s">
         <v>85</v>
       </c>
-      <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" t="s">
-        <v>88</v>
-      </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s">
         <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I25" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="K25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" t="s">
         <v>89</v>
       </c>
-      <c r="B26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" t="s">
-        <v>92</v>
-      </c>
       <c r="F26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I26" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="K26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" t="s">
         <v>93</v>
       </c>
-      <c r="B27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" t="s">
-        <v>96</v>
-      </c>
       <c r="F27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I27" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="K27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" t="s">
         <v>97</v>
       </c>
-      <c r="B28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" t="s">
-        <v>100</v>
-      </c>
       <c r="F28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G28" t="s">
         <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I28" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="K28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" t="s">
         <v>101</v>
       </c>
-      <c r="B29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" t="s">
-        <v>104</v>
-      </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s">
         <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I29" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="K29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" t="s">
         <v>105</v>
       </c>
-      <c r="B30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" t="s">
-        <v>108</v>
-      </c>
       <c r="F30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G30" t="s">
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I30" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="K30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" t="s">
         <v>109</v>
       </c>
-      <c r="B31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" t="s">
-        <v>112</v>
-      </c>
       <c r="F31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G31" t="s">
         <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I31" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="K31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" t="s">
         <v>113</v>
       </c>
-      <c r="B32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" t="s">
-        <v>116</v>
-      </c>
       <c r="F32" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G32" t="s">
         <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I32" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="K32" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" t="s">
         <v>117</v>
       </c>
-      <c r="B33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" t="s">
-        <v>119</v>
-      </c>
-      <c r="E33" t="s">
-        <v>120</v>
-      </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G33" t="s">
         <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I33" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" t="s">
         <v>121</v>
       </c>
-      <c r="B34" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" t="s">
-        <v>123</v>
-      </c>
-      <c r="E34" t="s">
-        <v>124</v>
-      </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G34" t="s">
         <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I34" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
         <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="I35" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" t="s">
         <v>128</v>
       </c>
-      <c r="B36" t="s">
-        <v>129</v>
-      </c>
-      <c r="C36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" t="s">
-        <v>130</v>
-      </c>
-      <c r="E36" t="s">
-        <v>131</v>
-      </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G36" t="s">
         <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I36" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" t="s">
         <v>132</v>
       </c>
-      <c r="B37" t="s">
-        <v>133</v>
-      </c>
-      <c r="C37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" t="s">
-        <v>134</v>
-      </c>
-      <c r="E37" t="s">
-        <v>135</v>
-      </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G37" t="s">
         <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="I37" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E38" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G38" t="s">
         <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I38" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>426</v>
       </c>
       <c r="B39" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E39" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G39" t="s">
         <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I39" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J39">
         <v>11</v>
@@ -2902,298 +2926,298 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B40" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E40" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G40" t="s">
         <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I40" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B41" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E41" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G41" t="s">
         <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I41" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>150</v>
+        <v>427</v>
       </c>
       <c r="B42" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E42" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G42" t="s">
         <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="I42" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J42">
         <v>3</v>
       </c>
       <c r="K42" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B43" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E43" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G43" t="s">
         <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I43" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B44" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E44" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G44" t="s">
         <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I44" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B45" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E45" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G45" t="s">
         <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I45" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B46" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E46" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G46" t="s">
         <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I46" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B47" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E47" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G47" t="s">
         <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I47" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B48" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E48" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G48" t="s">
         <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I48" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B49" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E49" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G49" t="s">
         <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I49" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -3201,31 +3225,31 @@
     </row>
     <row r="50" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="J50" s="2">
         <v>1</v>
@@ -3233,31 +3257,31 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>177</v>
+      </c>
+      <c r="B51" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" t="s">
+        <v>178</v>
+      </c>
+      <c r="D51" t="s">
+        <v>179</v>
+      </c>
+      <c r="E51" t="s">
+        <v>180</v>
+      </c>
+      <c r="F51" t="s">
+        <v>181</v>
+      </c>
+      <c r="G51" t="s">
         <v>182</v>
       </c>
-      <c r="B51" t="s">
-        <v>182</v>
-      </c>
-      <c r="C51" t="s">
-        <v>183</v>
-      </c>
-      <c r="D51" t="s">
-        <v>184</v>
-      </c>
-      <c r="E51" t="s">
-        <v>185</v>
-      </c>
-      <c r="F51" t="s">
-        <v>186</v>
-      </c>
-      <c r="G51" t="s">
-        <v>187</v>
-      </c>
       <c r="H51" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="I51" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3265,641 +3289,641 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B52" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C52" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D52" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E52" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F52" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G52" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H52" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I52" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="J52">
         <v>6</v>
       </c>
       <c r="K52" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B53" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C53" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D53" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E53" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F53" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G53" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H53" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I53" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B54" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C54" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D54" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E54" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F54" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G54" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H54" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I54" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="J54">
         <v>7</v>
       </c>
       <c r="K54" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B55" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C55" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D55" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E55" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F55" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G55" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H55" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="I55" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B56" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C56" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D56" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E56" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F56" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G56" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H56" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="I56" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B57" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C57" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D57" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E57" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F57" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G57" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H57" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="I57" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B58" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D58" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E58" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F58" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G58" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H58" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I58" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B59" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C59" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D59" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E59" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F59" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G59" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H59" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I59" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="J59">
         <v>8</v>
       </c>
       <c r="K59" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B60" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H60" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="I60" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="K60" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B61" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C61" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H61" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="I61" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="K61" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B62" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C62" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D62" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="H62" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="I62" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="J62">
         <v>3</v>
       </c>
       <c r="K62" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B63" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C63" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H63" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="I63" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="K63" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B64" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C64" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D64" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="H64" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="I64" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J64">
         <v>6</v>
       </c>
       <c r="K64" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B65" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C65" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D65" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="H65" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="I65" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="J65">
         <v>2</v>
       </c>
       <c r="K65" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B66" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C66" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D66" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="H66" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="I66" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="J66">
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B67" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C67" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H67" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="I67" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="K67" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B68" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C68" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H68" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="I68" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="K68" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B69" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C69" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D69" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H69" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="I69" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="J69">
         <v>3</v>
       </c>
       <c r="K69" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B70" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C70" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H70" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="I70" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="K70" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B71" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C71" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D71" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="H71" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="I71" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="J71">
         <v>2</v>
       </c>
       <c r="K71" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B72" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C72" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D72" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="H72" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="I72" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="J72">
         <v>1</v>
       </c>
       <c r="K72" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B73" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C73" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D73" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="H73" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I73" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="K73" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B74" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C74" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D74" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="H74" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I74" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="J74">
         <v>4</v>
       </c>
       <c r="K74" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B75" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C75" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H75" t="s">
         <v>12</v>
@@ -3908,590 +3932,590 @@
         <v>12</v>
       </c>
       <c r="K75" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B76" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C76" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D76" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="H76" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I76" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="J76">
         <v>10</v>
       </c>
       <c r="K76" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B77" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C77" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D77" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="H77" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I77" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="J77">
         <v>11</v>
       </c>
       <c r="K77" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B78" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C78" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D78" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="H78" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I78" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="J78">
         <v>13</v>
       </c>
       <c r="K78" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B79" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C79" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D79" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="H79" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I79" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="J79">
         <v>12</v>
       </c>
       <c r="K79" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B80" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C80" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D80" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="H80" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="I80" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="J80">
         <v>3</v>
       </c>
       <c r="K80" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>254</v>
+        <v>428</v>
       </c>
       <c r="B81" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C81" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D81" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="H81" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I81" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J81">
         <v>7</v>
       </c>
       <c r="K81" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>256</v>
+        <v>429</v>
       </c>
       <c r="B82" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C82" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D82" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="H82" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I82" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J82">
         <v>4</v>
       </c>
       <c r="K82" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>258</v>
+        <v>430</v>
       </c>
       <c r="B83" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C83" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D83" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="H83" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I83" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J83">
         <v>6</v>
       </c>
       <c r="K83" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>260</v>
+        <v>431</v>
       </c>
       <c r="B84" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C84" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D84" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="H84" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I84" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J84">
         <v>1</v>
       </c>
       <c r="K84" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>262</v>
+        <v>156</v>
       </c>
       <c r="B85" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C85" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H85" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="K85" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B86" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C86" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D86" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E86" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F86" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G86" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H86" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I86" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="J86">
         <v>1</v>
       </c>
       <c r="K86" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B87" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C87" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D87" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="H87" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="I87" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J87">
         <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>272</v>
+        <v>441</v>
       </c>
       <c r="B88" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C88" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D88" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="H88" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="I88" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J88">
         <v>3</v>
       </c>
       <c r="K88" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B89" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C89" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D89" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="H89" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I89" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J89">
         <v>5</v>
       </c>
       <c r="K89" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B90" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C90" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D90" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="H90" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="I90" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J90">
         <v>2</v>
       </c>
       <c r="K90" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B91" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C91" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D91" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="H91" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I91" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="J91">
         <v>5</v>
       </c>
       <c r="K91" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B92" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C92" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D92" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="H92" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="I92" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J92">
         <v>2</v>
       </c>
       <c r="K92" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>280</v>
+        <v>432</v>
       </c>
       <c r="B93" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C93" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D93" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="H93" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I93" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J93">
         <v>2</v>
       </c>
       <c r="K93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B94" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C94" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H94" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I94" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="J94">
         <v>2</v>
       </c>
       <c r="K94" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B95" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C95" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D95" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="H95" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I95" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="J95">
         <v>1</v>
       </c>
       <c r="K95" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B96" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C96" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D96" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="H96" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I96" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="J96">
         <v>3</v>
       </c>
       <c r="K96" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B97" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C97" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D97" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="H97" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="I97" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="J97">
         <v>2</v>
       </c>
       <c r="K97" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B98" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C98" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D98" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="E98" t="s">
         <v>12</v>
@@ -4500,13 +4524,13 @@
         <v>12</v>
       </c>
       <c r="G98" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H98" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="I98" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="J98">
         <v>5</v>
@@ -4514,153 +4538,153 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B99" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C99" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D99" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E99" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G99" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H99" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I99" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="B100" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C100" t="s">
         <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E100" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F100" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G100" t="s">
         <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="I100" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B101" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E101" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F101" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G101" t="s">
         <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="I101" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>298</v>
+        <v>433</v>
       </c>
       <c r="B102" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C102" t="s">
         <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E102" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F102" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G102" t="s">
         <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="I102" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J102">
         <v>4</v>
       </c>
       <c r="K102" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>433</v>
+      </c>
+      <c r="B103" t="s">
         <v>298</v>
       </c>
-      <c r="B103" t="s">
-        <v>304</v>
-      </c>
       <c r="C103" t="s">
         <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E103" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F103" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G103" t="s">
         <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="I103" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="K103" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -4668,34 +4692,34 @@
         <v>434</v>
       </c>
       <c r="B104" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C104" t="s">
         <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E104" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F104" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G104" t="s">
         <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="I104" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J104">
         <v>5</v>
       </c>
       <c r="K104" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -4703,511 +4727,511 @@
         <v>434</v>
       </c>
       <c r="B105" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C105" t="s">
         <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E105" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F105" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G105" t="s">
         <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="I105" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="K105" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>309</v>
+        <v>435</v>
       </c>
       <c r="B106" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C106" t="s">
         <v>13</v>
       </c>
       <c r="D106" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E106" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F106" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G106" t="s">
         <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="I106" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="J106">
         <v>1</v>
       </c>
       <c r="K106" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>309</v>
+        <v>435</v>
       </c>
       <c r="B107" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C107" t="s">
         <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E107" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F107" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G107" t="s">
         <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="I107" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="K107" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B108" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C108" t="s">
         <v>13</v>
       </c>
       <c r="D108" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E108" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F108" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G108" t="s">
         <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I108" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J108">
         <v>13</v>
       </c>
       <c r="K108" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="109" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B110" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C110" t="s">
         <v>13</v>
       </c>
       <c r="D110" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E110" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F110" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G110" t="s">
         <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I110" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J110">
         <v>14</v>
       </c>
       <c r="K110" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="111" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B112" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C112" t="s">
         <v>13</v>
       </c>
       <c r="D112" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E112" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F112" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G112" t="s">
         <v>14</v>
       </c>
       <c r="K112" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B113" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C113" t="s">
         <v>13</v>
       </c>
       <c r="D113" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E113" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F113" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G113" t="s">
         <v>14</v>
       </c>
       <c r="K113" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B114" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C114" t="s">
         <v>13</v>
       </c>
       <c r="D114" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E114" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F114" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G114" t="s">
         <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I114" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J114">
         <v>3</v>
       </c>
       <c r="K114" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="115" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B116" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C116" t="s">
         <v>13</v>
       </c>
       <c r="D116" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E116" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F116" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G116" t="s">
         <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I116" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J116">
         <v>4</v>
       </c>
       <c r="K116" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="117" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>339</v>
+        <v>438</v>
       </c>
       <c r="B118" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C118" t="s">
         <v>13</v>
       </c>
       <c r="D118" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E118" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F118" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G118" t="s">
         <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I118" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="K118" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>339</v>
+        <v>438</v>
       </c>
       <c r="B119" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C119" t="s">
         <v>13</v>
       </c>
       <c r="D119" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E119" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F119" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G119" t="s">
         <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I119" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="K119" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>344</v>
+        <v>439</v>
       </c>
       <c r="B120" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C120" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D120" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E120" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F120" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="G120" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="H120" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="I120" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -5215,31 +5239,31 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B121" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C121" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D121" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E121" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F121" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G121" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="H121" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I121" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J121">
         <v>2</v>
@@ -5247,31 +5271,31 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B122" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C122" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D122" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E122" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F122" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G122" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="H122" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="I122" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J122">
         <v>1</v>
@@ -5279,13 +5303,13 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B123" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C123" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D123" t="s">
         <v>12</v>
@@ -5299,16 +5323,16 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B124" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C124" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D124" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E124" t="s">
         <v>12</v>
@@ -5317,13 +5341,13 @@
         <v>12</v>
       </c>
       <c r="G124" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H124" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="I124" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="J124">
         <v>4</v>
@@ -5331,28 +5355,28 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B125" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C125" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D125" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E125" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="G125" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H125" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I125" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="J125">
         <v>9</v>
@@ -5360,31 +5384,31 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B126" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C126" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D126" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E126" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F126" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G126" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="H126" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="I126" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J126">
         <v>6</v>
@@ -5392,31 +5416,31 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B127" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C127" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D127" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E127" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F127" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G127" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="H127" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I127" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J127">
         <v>3</v>
@@ -5424,31 +5448,31 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B128" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C128" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D128" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E128" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F128" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G128" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="H128" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I128" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J128">
         <v>9</v>
@@ -5456,94 +5480,94 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>375</v>
+        <v>440</v>
       </c>
       <c r="B129" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C129" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D129" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E129" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F129" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G129" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="H129" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I129" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>381</v>
+        <v>443</v>
       </c>
       <c r="B130" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C130" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D130" t="s">
+        <v>373</v>
+      </c>
+      <c r="E130" t="s">
+        <v>374</v>
+      </c>
+      <c r="F130" t="s">
+        <v>73</v>
+      </c>
+      <c r="G130" t="s">
+        <v>371</v>
+      </c>
+      <c r="H130" t="s">
         <v>383</v>
       </c>
-      <c r="E130" t="s">
-        <v>384</v>
-      </c>
-      <c r="F130" t="s">
-        <v>76</v>
-      </c>
-      <c r="G130" t="s">
-        <v>380</v>
-      </c>
-      <c r="H130" t="s">
-        <v>394</v>
-      </c>
       <c r="I130" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>385</v>
+        <v>444</v>
       </c>
       <c r="B131" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="C131" t="s">
+        <v>368</v>
+      </c>
+      <c r="D131" t="s">
+        <v>376</v>
+      </c>
+      <c r="E131" t="s">
         <v>377</v>
       </c>
-      <c r="D131" t="s">
-        <v>387</v>
-      </c>
-      <c r="E131" t="s">
-        <v>388</v>
-      </c>
       <c r="F131" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G131" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="H131" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I131" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>11</v>
+        <v>421</v>
       </c>
       <c r="B132" t="s">
         <v>11</v>
@@ -5552,22 +5576,22 @@
         <v>13</v>
       </c>
       <c r="D132" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="E132" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="F132" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="G132" t="s">
         <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I132" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J132">
         <v>12</v>
@@ -5583,7 +5607,7 @@
       <formula1>1</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A132 A133:A225" xr:uid="{C9CEA4D8-9D09-46A7-AFBC-6B7076AE134A}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A225" xr:uid="{C9CEA4D8-9D09-46A7-AFBC-6B7076AE134A}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>

--- a/Data/Data_Raw/Country codes & metadata/metadata.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255DEBD7-1AE4-4A83-9D6D-4DFDBABACFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96358663-0FB4-41DF-BFB9-527CA1BEF3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2790" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18975" yWindow="0" windowWidth="9825" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1388,7 +1388,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1401,6 +1401,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1441,18 +1449,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1756,8 +1767,8 @@
   <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F133" sqref="F133"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5224,7 +5235,7 @@
       <c r="F120" t="s">
         <v>339</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="4" t="s">
         <v>340</v>
       </c>
       <c r="H120" t="s">
@@ -5612,6 +5623,9 @@
       <formula2>20</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G120" r:id="rId1" xr:uid="{86CF00EA-F175-49E3-B292-E21775BC70DA}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data/Data_Raw/Country codes & metadata/metadata.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96358663-0FB4-41DF-BFB9-527CA1BEF3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A47490-2D27-4D0C-B372-38E790C58E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18975" yWindow="0" windowWidth="9825" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18975" yWindow="0" windowWidth="9825" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="446">
   <si>
     <t>name_portal</t>
   </si>
@@ -1228,9 +1228,6 @@
     <t>School enrollment, secondary (% gross)</t>
   </si>
   <si>
-    <t>Government expenditure on education as a percentage of GDP (%)</t>
-  </si>
-  <si>
     <t>Lower secondary completion rate (% of relevant age group)</t>
   </si>
   <si>
@@ -1382,13 +1379,19 @@
   </si>
   <si>
     <t>fao_stunting</t>
+  </si>
+  <si>
+    <t>Government expenditure on education (% GPD)</t>
+  </si>
+  <si>
+    <t>Primary school completion (%) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1406,6 +1409,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1453,7 +1463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1461,6 +1471,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1767,8 +1778,8 @@
   <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1814,7 +1825,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -1846,7 +1857,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1858,10 +1869,10 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>417</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>418</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -1878,7 +1889,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -1890,16 +1901,16 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I4" t="s">
         <v>384</v>
@@ -1913,7 +1924,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -1925,10 +1936,10 @@
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -2009,7 +2020,7 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I8" t="s">
         <v>384</v>
@@ -2035,7 +2046,7 @@
         <v>14</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>384</v>
@@ -2168,7 +2179,7 @@
         <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I14" t="s">
         <v>384</v>
@@ -2194,7 +2205,7 @@
         <v>14</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>384</v>
@@ -2275,7 +2286,7 @@
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I18" t="s">
         <v>384</v>
@@ -2283,7 +2294,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B19" t="s">
         <v>59</v>
@@ -2304,7 +2315,7 @@
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I19" t="s">
         <v>384</v>
@@ -2327,10 +2338,10 @@
         <v>58</v>
       </c>
       <c r="H20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J20">
         <v>6</v>
@@ -2810,7 +2821,7 @@
         <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I35" t="s">
         <v>384</v>
@@ -2868,7 +2879,7 @@
         <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I37" t="s">
         <v>384</v>
@@ -2905,7 +2916,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B39" t="s">
         <v>136</v>
@@ -2995,7 +3006,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B42" t="s">
         <v>146</v>
@@ -3016,7 +3027,7 @@
         <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I42" t="s">
         <v>384</v>
@@ -3228,7 +3239,7 @@
         <v>391</v>
       </c>
       <c r="I49" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -3260,7 +3271,7 @@
         <v>391</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J50" s="2">
         <v>1</v>
@@ -3289,7 +3300,7 @@
         <v>182</v>
       </c>
       <c r="H51" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I51" t="s">
         <v>384</v>
@@ -3426,10 +3437,10 @@
         <v>182</v>
       </c>
       <c r="H55" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I55" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -3461,10 +3472,10 @@
         <v>182</v>
       </c>
       <c r="H56" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I56" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -3496,10 +3507,10 @@
         <v>182</v>
       </c>
       <c r="H57" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I57" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -3586,10 +3597,10 @@
         <v>211</v>
       </c>
       <c r="H60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I60" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K60" t="s">
         <v>213</v>
@@ -3606,10 +3617,10 @@
         <v>212</v>
       </c>
       <c r="H61" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I61" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K61" t="s">
         <v>215</v>
@@ -3626,13 +3637,13 @@
         <v>212</v>
       </c>
       <c r="D62" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H62" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I62" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J62">
         <v>3</v>
@@ -3652,10 +3663,10 @@
         <v>212</v>
       </c>
       <c r="H63" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I63" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K63" t="s">
         <v>215</v>
@@ -3672,10 +3683,10 @@
         <v>212</v>
       </c>
       <c r="D64" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H64" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I64" t="s">
         <v>384</v>
@@ -3698,13 +3709,13 @@
         <v>212</v>
       </c>
       <c r="D65" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H65" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I65" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -3724,13 +3735,13 @@
         <v>212</v>
       </c>
       <c r="D66" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H66" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I66" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -3750,10 +3761,10 @@
         <v>212</v>
       </c>
       <c r="H67" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I67" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K67" t="s">
         <v>225</v>
@@ -3770,10 +3781,10 @@
         <v>212</v>
       </c>
       <c r="H68" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I68" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K68" t="s">
         <v>227</v>
@@ -3790,13 +3801,13 @@
         <v>212</v>
       </c>
       <c r="D69" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H69" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I69" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J69">
         <v>3</v>
@@ -3816,10 +3827,10 @@
         <v>212</v>
       </c>
       <c r="H70" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I70" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K70" t="s">
         <v>227</v>
@@ -3836,13 +3847,13 @@
         <v>212</v>
       </c>
       <c r="D71" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H71" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I71" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -3862,10 +3873,10 @@
         <v>212</v>
       </c>
       <c r="D72" t="s">
+        <v>399</v>
+      </c>
+      <c r="H72" t="s">
         <v>400</v>
-      </c>
-      <c r="H72" t="s">
-        <v>401</v>
       </c>
       <c r="I72" t="s">
         <v>382</v>
@@ -3888,7 +3899,7 @@
         <v>212</v>
       </c>
       <c r="D73" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H73" t="s">
         <v>391</v>
@@ -3911,7 +3922,7 @@
         <v>212</v>
       </c>
       <c r="D74" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="H74" t="s">
         <v>391</v>
@@ -3957,7 +3968,7 @@
         <v>212</v>
       </c>
       <c r="D76" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H76" t="s">
         <v>391</v>
@@ -3983,7 +3994,7 @@
         <v>212</v>
       </c>
       <c r="D77" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H77" t="s">
         <v>391</v>
@@ -4009,7 +4020,7 @@
         <v>212</v>
       </c>
       <c r="D78" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H78" t="s">
         <v>391</v>
@@ -4035,7 +4046,7 @@
         <v>212</v>
       </c>
       <c r="D79" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H79" t="s">
         <v>391</v>
@@ -4061,10 +4072,10 @@
         <v>212</v>
       </c>
       <c r="D80" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H80" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I80" t="s">
         <v>382</v>
@@ -4078,7 +4089,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B81" t="s">
         <v>249</v>
@@ -4104,7 +4115,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B82" t="s">
         <v>251</v>
@@ -4113,7 +4124,7 @@
         <v>212</v>
       </c>
       <c r="D82" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H82" t="s">
         <v>383</v>
@@ -4130,7 +4141,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B83" t="s">
         <v>253</v>
@@ -4156,7 +4167,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B84" t="s">
         <v>255</v>
@@ -4243,10 +4254,10 @@
         <v>212</v>
       </c>
       <c r="D87" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H87" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I87" t="s">
         <v>384</v>
@@ -4260,7 +4271,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B88" t="s">
         <v>267</v>
@@ -4269,10 +4280,10 @@
         <v>212</v>
       </c>
       <c r="D88" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H88" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I88" t="s">
         <v>384</v>
@@ -4321,10 +4332,10 @@
         <v>212</v>
       </c>
       <c r="D90" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H90" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I90" t="s">
         <v>384</v>
@@ -4347,7 +4358,7 @@
         <v>212</v>
       </c>
       <c r="D91" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H91" t="s">
         <v>391</v>
@@ -4376,7 +4387,7 @@
         <v>387</v>
       </c>
       <c r="H92" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I92" t="s">
         <v>384</v>
@@ -4390,7 +4401,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B93" t="s">
         <v>275</v>
@@ -4424,6 +4435,9 @@
       <c r="C94" t="s">
         <v>212</v>
       </c>
+      <c r="D94" s="5" t="s">
+        <v>445</v>
+      </c>
       <c r="H94" t="s">
         <v>391</v>
       </c>
@@ -4500,10 +4514,10 @@
         <v>212</v>
       </c>
       <c r="D97" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H97" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I97" t="s">
         <v>382</v>
@@ -4526,7 +4540,7 @@
         <v>282</v>
       </c>
       <c r="D98" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E98" t="s">
         <v>12</v>
@@ -4538,10 +4552,10 @@
         <v>283</v>
       </c>
       <c r="H98" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I98" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J98">
         <v>5</v>
@@ -4575,7 +4589,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B100" t="s">
         <v>289</v>
@@ -4596,7 +4610,7 @@
         <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I100" t="s">
         <v>384</v>
@@ -4604,7 +4618,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B101" t="s">
         <v>292</v>
@@ -4625,7 +4639,7 @@
         <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I101" t="s">
         <v>384</v>
@@ -4633,7 +4647,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B102" t="s">
         <v>293</v>
@@ -4654,7 +4668,7 @@
         <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I102" t="s">
         <v>384</v>
@@ -4668,7 +4682,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B103" t="s">
         <v>298</v>
@@ -4689,7 +4703,7 @@
         <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I103" t="s">
         <v>384</v>
@@ -4700,7 +4714,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B104" t="s">
         <v>299</v>
@@ -4721,7 +4735,7 @@
         <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I104" t="s">
         <v>384</v>
@@ -4735,7 +4749,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B105" t="s">
         <v>302</v>
@@ -4756,7 +4770,7 @@
         <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I105" t="s">
         <v>384</v>
@@ -4767,7 +4781,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B106" t="s">
         <v>303</v>
@@ -4788,10 +4802,10 @@
         <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I106" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -4802,7 +4816,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B107" t="s">
         <v>306</v>
@@ -4823,7 +4837,7 @@
         <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I107" t="s">
         <v>384</v>
@@ -5020,7 +5034,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B114" t="s">
         <v>323</v>
@@ -5055,7 +5069,7 @@
     </row>
     <row r="115" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>327</v>
@@ -5087,7 +5101,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B116" t="s">
         <v>328</v>
@@ -5122,7 +5136,7 @@
     </row>
     <row r="117" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>331</v>
@@ -5154,7 +5168,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B118" t="s">
         <v>332</v>
@@ -5186,7 +5200,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B119" t="s">
         <v>335</v>
@@ -5218,7 +5232,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B120" t="s">
         <v>336</v>
@@ -5239,7 +5253,7 @@
         <v>340</v>
       </c>
       <c r="H120" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I120" t="s">
         <v>384</v>
@@ -5303,7 +5317,7 @@
         <v>340</v>
       </c>
       <c r="H122" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I122" t="s">
         <v>384</v>
@@ -5355,10 +5369,10 @@
         <v>283</v>
       </c>
       <c r="H124" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I124" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J124">
         <v>4</v>
@@ -5416,7 +5430,7 @@
         <v>340</v>
       </c>
       <c r="H126" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I126" t="s">
         <v>384</v>
@@ -5491,7 +5505,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B129" t="s">
         <v>367</v>
@@ -5520,7 +5534,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B130" t="s">
         <v>372</v>
@@ -5549,7 +5563,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B131" t="s">
         <v>375</v>
@@ -5578,7 +5592,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B132" t="s">
         <v>11</v>
@@ -5627,5 +5641,6 @@
     <hyperlink ref="G120" r:id="rId1" xr:uid="{86CF00EA-F175-49E3-B292-E21775BC70DA}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data/Data_Raw/Country codes & metadata/metadata.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/metadata.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A47490-2D27-4D0C-B372-38E790C58E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="262" documentId="13_ncr:1_{29A47490-2D27-4D0C-B372-38E790C58E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ADE8585-86AE-4CEB-8663-F810A9C57CF4}"/>
   <bookViews>
-    <workbookView xWindow="18975" yWindow="0" windowWidth="9825" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="503">
   <si>
     <t>name_portal</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Estimated number of annual AIDS-related deaths (adolescents and young people aged 15-24 years)</t>
   </si>
   <si>
-    <t>HVA_EPI_DTH_ANN_1524</t>
-  </si>
-  <si>
     <t>AID_deaths_014</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>Numerator: Estimate number of AIDS-related deaths. Denominator: Total population</t>
   </si>
   <si>
-    <t>HVA_EPI_DTH_RT_014</t>
-  </si>
-  <si>
     <t>HIV_inc_014</t>
   </si>
   <si>
@@ -164,13 +158,7 @@
     <t>Numerator: Estimated number of new HIV infections. Denominator: Total number of uninfected population</t>
   </si>
   <si>
-    <t>HVA_EPI_INF_RT_014</t>
-  </si>
-  <si>
     <t>HIV_inc_1019</t>
-  </si>
-  <si>
-    <t>HVA_EPI_INF_RT_10_19</t>
   </si>
   <si>
     <t>Estimated incidence rate (new HIV infection per 1,000 uninfected population, adolescents aged 10-19 years)</t>
@@ -556,9 +544,6 @@
   </si>
   <si>
     <t>child_labor</t>
-  </si>
-  <si>
-    <t>PT_CHLD_5_17_LBR_ECON</t>
   </si>
   <si>
     <t>Percentage of children (aged 5-17 years) engaged in child labour (economic activities)</t>
@@ -943,9 +928,6 @@
     <t>% of surveyed health facilities</t>
   </si>
   <si>
-    <t>WS_HCF_H-B</t>
-  </si>
-  <si>
     <t>WS_HCF_S_B</t>
   </si>
   <si>
@@ -955,9 +937,6 @@
     <t>Numerator: Number of health care facilities with basic sanitation services. Denominator: Number of health care facilities</t>
   </si>
   <si>
-    <t>WS_HCF_S-B</t>
-  </si>
-  <si>
     <t>WS_HCF_W_B</t>
   </si>
   <si>
@@ -967,9 +946,6 @@
     <t>Numerator: Number of health care facilities with basic water services. Denominator: Number of health care facilities</t>
   </si>
   <si>
-    <t>WS_HCF_W-B</t>
-  </si>
-  <si>
     <t>unicef_hygiene</t>
   </si>
   <si>
@@ -985,9 +961,6 @@
     <t>% of households</t>
   </si>
   <si>
-    <t>WS_PPL_H-B</t>
-  </si>
-  <si>
     <t>unicef_sanitation</t>
   </si>
   <si>
@@ -1000,9 +973,6 @@
     <t>Numerator: Population using at least basic sanitation services. Denominator: Total Population</t>
   </si>
   <si>
-    <t>WS_PPL_S-ALB</t>
-  </si>
-  <si>
     <t>unicef_water</t>
   </si>
   <si>
@@ -1015,9 +985,6 @@
     <t>Numerator: Population using at least basic drinking water services. Denominator: Total Population</t>
   </si>
   <si>
-    <t>WS_PPL_W-ALB</t>
-  </si>
-  <si>
     <t>WS_SCH_H_B</t>
   </si>
   <si>
@@ -1030,9 +997,6 @@
     <t>% of surveyed schools</t>
   </si>
   <si>
-    <t>WS_SCH_H-B</t>
-  </si>
-  <si>
     <t>WS_SCH_S_B</t>
   </si>
   <si>
@@ -1042,9 +1006,6 @@
     <t>Numerator: Number of schools with basic sanitation services. Denominator: Number of schools</t>
   </si>
   <si>
-    <t>WS_SCH_S-B</t>
-  </si>
-  <si>
     <t>WS_SCH_W_B</t>
   </si>
   <si>
@@ -1054,9 +1015,6 @@
     <t>Numerator: Number of schools with basic drinking water services. Denominator: Number of schools</t>
   </si>
   <si>
-    <t>WS_SCH_W-B</t>
-  </si>
-  <si>
     <t>hypertension_30_79</t>
   </si>
   <si>
@@ -1385,6 +1343,219 @@
   </si>
   <si>
     <t>Primary school completion (%) </t>
+  </si>
+  <si>
+    <t>Institutional births</t>
+  </si>
+  <si>
+    <t>SRHINSTITUTIONALBIRTH</t>
+  </si>
+  <si>
+    <t>The proportion of births occurring in health facilities in the area, or ‘institutional births’ or ‘institutional deliveries.</t>
+  </si>
+  <si>
+    <t>https://apps.who.int/gho/data/view.main.SRHIBv</t>
+  </si>
+  <si>
+    <t>Current education expenditure, total (% of total expenditure in public institutions)</t>
+  </si>
+  <si>
+    <t>SE.XPD.CTOT.ZS</t>
+  </si>
+  <si>
+    <t>WDI</t>
+  </si>
+  <si>
+    <t>inst_births</t>
+  </si>
+  <si>
+    <t>educ_exp</t>
+  </si>
+  <si>
+    <t>2022, October 24</t>
+  </si>
+  <si>
+    <t>Current expenditure expressed as a percentage of direct expenditure in public educational institutions (instructional and non-instructional) of the specified level of education.</t>
+  </si>
+  <si>
+    <t>ch_ontrack</t>
+  </si>
+  <si>
+    <t>Proportion of children aged 24–59 months who are developmentally on track in health, learning and psychosocial well-being (%)</t>
+  </si>
+  <si>
+    <t>UNICEF</t>
+  </si>
+  <si>
+    <t>https://data.unicef.org/resources/data_explorer/unicef_f/?ag=UNICEF&amp;df=SDG_PROG_ASSESSMENT&amp;dq=.C040201&amp;ver=1.0&amp;startPeriod=2018&amp;endPeriod=2022</t>
+  </si>
+  <si>
+    <t>https://data.unicef.org/resources/data_explorer/unicef_f/?ag=UNICEF&amp;df=SDG_PROG_ASSESSMENT&amp;dq=.C040202&amp;ver=1.0&amp;startPeriod=2018&amp;endPeriod=2022</t>
+  </si>
+  <si>
+    <t> Participation rate in organized learning (one year before the official primary entry age) (%)</t>
+  </si>
+  <si>
+    <t>org_learning</t>
+  </si>
+  <si>
+    <t>2022, March</t>
+  </si>
+  <si>
+    <t>2020, June</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/SE.XPD.CTOT.ZS</t>
+  </si>
+  <si>
+    <t>http://sdg4-data.uis.unesco.org/</t>
+  </si>
+  <si>
+    <t>Proportion of students in Grade 2 or 3 achieving at least a minimum proficiency level in reading, both sexes (%)</t>
+  </si>
+  <si>
+    <t>Number of out-of-school children of primary school age</t>
+  </si>
+  <si>
+    <t>2023, March</t>
+  </si>
+  <si>
+    <t>http://data.uis.unesco.org/</t>
+  </si>
+  <si>
+    <t>out_school</t>
+  </si>
+  <si>
+    <t>OFST_1_CP</t>
+  </si>
+  <si>
+    <t>4.6.2.Youth literacy rate, population 15-24 years, both sexes (%)</t>
+  </si>
+  <si>
+    <t>The youth literacy rate is defined by the percentage of the population aged 15 to 24 years that can read and write. It is typically measured according to the ability to comprehend a short simple statement on everyday life. Generally, literacy also encompasses numeracy, and measurement may incorporate a simple assessment of arithmetic ability. </t>
+  </si>
+  <si>
+    <t>LR_Ag15t24.</t>
+  </si>
+  <si>
+    <t>Early childbearing - percentage of women (aged 20-24 years) who gave birth before age 18</t>
+  </si>
+  <si>
+    <t>births_18</t>
+  </si>
+  <si>
+    <t>Percentage of women age 20-24 years who had at least one live birth before age 18</t>
+  </si>
+  <si>
+    <t>https://data.unicef.org/resources/data_explorer/unicef_f/?ag=UNICEF&amp;df=GLOBAL_DATAFLOW&amp;ver=1.0&amp;dq=.MNCH_BIRTH18..&amp;startPeriod=2015&amp;endPeriod=2022</t>
+  </si>
+  <si>
+    <t>Demand for family planning satisfied by any method (Percent) 1</t>
+  </si>
+  <si>
+    <t> Percentage of women of reproductive age (15-49 years) who had theur need for family planning satisfied with any method</t>
+  </si>
+  <si>
+    <t>https://population.un.org/dataportal/data/indicators/7/locations/4,8,12,16,20,24,660,28,32,51,533,36,40,31,44,48,50,52,112,56,84,204,60,64,68,535,70,72,76,92,96,100,854,108,132,116,120,124,136,140,148,152,156,344,446,158,170,174,178,184,188,384,191,192,531,196,203,408,180,208,262,212,214,218,818,222,226,232,233,748,231,238,234,242,246,250,254,258,266,270,268,276,288,292,300,304,308,312,316,320,831,324,624,328,332,336,340,348,352,356,360,364,368,372,833,376,380,388,392,832,400,398,404,296,412,414,417,418,428,422,426,430,434,438,440,442,450,454,458,462,466,470,584,474,478,480,175,484,583,492,496,499,500,504,508,104,516,520,524,528,540,554,558,562,566,570,807,580,578,512,586,585,591,598,600,604,608,616,620,630,634,410,498,638,642,643,646,652,654,659,662,663,666,670,882,674,678,682,686,688,690,694,702,534,703,705,90,706,710,728,724,144,275,729,740,752,756,760,762,764,626,768,772,776,780,788,792,795,796,798,800,804,784,826,834,840,850,858,860,548,862,704,876,732,887,894,716,927,915,916,5500,910,906,923,928,954,911,912,924,957,931,920,913,5501,925,914,922,926,903,935,908,904,905,909,1834,1831,1832,1829,1830,1833,1835,947,901,902,941,934,1503,1500,1501,1505,1518,1502,900/start/1990/end/2030/table/pivotbylocation</t>
+  </si>
+  <si>
+    <t>met_fam_plan</t>
+  </si>
+  <si>
+    <t>Percentage of females who received the last dose of human papillomavirus (HPV) vaccine per national schedule</t>
+  </si>
+  <si>
+    <t>HPV_vac</t>
+  </si>
+  <si>
+    <t>Female target population who received the last dose of HPV vaccine in the reporting year</t>
+  </si>
+  <si>
+    <t>https://data.unicef.org/resources/data_explorer/unicef_f/?ag=UNICEF&amp;df=IMMUNISATION&amp;ver=1.0&amp;dq=.IM_HPV..&amp;startPeriod=2021&amp;endPeriod=2022</t>
+  </si>
+  <si>
+    <t>https://www.ilo.org/shinyapps/bulkexplorer39/?lang=en&amp;id=EMP_TEMP_SEX_AGE_NB_A</t>
+  </si>
+  <si>
+    <t>EMP_TEMP_SEX_AGE_NB_A</t>
+  </si>
+  <si>
+    <t>emp_high_skill</t>
+  </si>
+  <si>
+    <t>2023, June</t>
+  </si>
+  <si>
+    <t>The employed comprise all persons of working age who, during a specified brief period, were in one of the following categories: a) paid employment (whether at work or with a job but not at work); or b) self-employment (whether at work or with an enterprise but not at work). </t>
+  </si>
+  <si>
+    <t>Employment,high skill</t>
+  </si>
+  <si>
+    <t>minprof_r_prim</t>
+  </si>
+  <si>
+    <t>minprof_r_lowsec</t>
+  </si>
+  <si>
+    <t>minprof_r_g23</t>
+  </si>
+  <si>
+    <t>minprof_m_g23</t>
+  </si>
+  <si>
+    <t>minprof_m_prim</t>
+  </si>
+  <si>
+    <t>minprof_m_lowsec</t>
+  </si>
+  <si>
+    <t>Proportion of students at the end of primary education achieving at least a minimum proficiency level in reading, both sexes (%)</t>
+  </si>
+  <si>
+    <t>Proportion of students at the end of lower secondary education achieving at least a minimum proficiency level in reading, both sexes (%)</t>
+  </si>
+  <si>
+    <t>Proportion of students in Grade 2 or 3 achieving at least a minimum proficiency level in mathematics, both sexes (%)</t>
+  </si>
+  <si>
+    <t>Proportion of students at the end of primary education achieving at least a minimum proficiency level in mathematics, both sexes (%)</t>
+  </si>
+  <si>
+    <t>Proportion of students at the end of lower secondary education achieving at least a minimum proficiency level in mathematics, both sexes (%)</t>
+  </si>
+  <si>
+    <t>youth_lit</t>
+  </si>
+  <si>
+    <t>ILO</t>
+  </si>
+  <si>
+    <t>MNCH_BIRTH18</t>
+  </si>
+  <si>
+    <t>IM_HPV</t>
+  </si>
+  <si>
+    <t>C040201</t>
+  </si>
+  <si>
+    <t>C040202</t>
+  </si>
+  <si>
+    <t>DEMAny</t>
+  </si>
+  <si>
+    <t>health_exp</t>
+  </si>
+  <si>
+    <t>Current health expenditure, %GDP</t>
+  </si>
+  <si>
+    <t>SH.XPD.CHEX.GD.ZS</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/SH.XPD.CHEX.GD.ZS</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1601,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1463,18 +1634,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1488,6 +1663,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1775,14 +1954,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
@@ -1825,7 +2004,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -1834,22 +2013,22 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="E2" t="s">
-        <v>379</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>380</v>
+        <v>365</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I2" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -1857,7 +2036,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1869,19 +2048,19 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>417</v>
+        <v>402</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>403</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I3" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
@@ -1889,7 +2068,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -1901,19 +2080,19 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>418</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>417</v>
+        <v>404</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>403</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="I4" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="J4">
         <v>4</v>
@@ -1924,7 +2103,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -1936,19 +2115,19 @@
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>419</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>417</v>
+        <v>405</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>403</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="I5" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1974,10 +2153,10 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="I6" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1997,10 +2176,10 @@
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="I7" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2020,1287 +2199,1323 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="I8" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="J9" s="2">
-        <v>5</v>
+      <c r="H9" t="s">
+        <v>377</v>
+      </c>
+      <c r="I9" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="I10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>384</v>
+      <c r="H11" t="s">
+        <v>386</v>
+      </c>
+      <c r="I11" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="I12" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="I13" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="I14" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>410</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>384</v>
+      <c r="H15" t="s">
+        <v>386</v>
+      </c>
+      <c r="I15" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>277</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="I16" t="s">
         <v>384</v>
       </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I17" t="s">
-        <v>384</v>
+        <v>370</v>
+      </c>
+      <c r="J17">
+        <v>15</v>
+      </c>
+      <c r="K17" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="I18" t="s">
-        <v>384</v>
+        <v>370</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>424</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="I19" t="s">
-        <v>384</v>
+        <v>370</v>
+      </c>
+      <c r="K19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>282</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>76</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="I20" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="J20">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="K20" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I21" t="s">
-        <v>384</v>
-      </c>
-      <c r="J21">
-        <v>15</v>
+        <v>370</v>
       </c>
       <c r="K21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G22" t="s">
         <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I22" t="s">
-        <v>384</v>
-      </c>
-      <c r="J22">
-        <v>10</v>
+        <v>370</v>
       </c>
       <c r="K22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G23" t="s">
         <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I23" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="K23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I24" t="s">
-        <v>384</v>
-      </c>
-      <c r="J24">
-        <v>8</v>
+        <v>370</v>
       </c>
       <c r="K24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F25" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G25" t="s">
         <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I25" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="K25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I26" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="K26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I27" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="K27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F28" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G28" t="s">
         <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I28" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="K28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="G29" t="s">
         <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I29" t="s">
-        <v>384</v>
-      </c>
-      <c r="K29" t="s">
-        <v>68</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F30" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="G30" t="s">
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I30" t="s">
-        <v>384</v>
-      </c>
-      <c r="K30" t="s">
-        <v>68</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E31" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F31" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="G31" t="s">
         <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="I31" t="s">
-        <v>384</v>
-      </c>
-      <c r="K31" t="s">
-        <v>68</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E32" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="G32" t="s">
         <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I32" t="s">
-        <v>384</v>
-      </c>
-      <c r="K32" t="s">
-        <v>68</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G33" t="s">
         <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="I33" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E34" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G34" t="s">
         <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I34" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>411</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E35" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G35" t="s">
         <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="I35" t="s">
-        <v>384</v>
+        <v>370</v>
+      </c>
+      <c r="J35">
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E36" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G36" t="s">
         <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I36" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E37" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G37" t="s">
         <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="I37" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>412</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E38" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G38" t="s">
         <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="I38" t="s">
-        <v>384</v>
+        <v>370</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>425</v>
+        <v>146</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E39" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G39" t="s">
         <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I39" t="s">
-        <v>384</v>
-      </c>
-      <c r="J39">
-        <v>11</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E40" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G40" t="s">
         <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I40" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E41" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G41" t="s">
         <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I41" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>426</v>
+        <v>156</v>
       </c>
       <c r="B42" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E42" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G42" t="s">
         <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="I42" t="s">
-        <v>384</v>
-      </c>
-      <c r="J42">
-        <v>3</v>
-      </c>
-      <c r="K42" t="s">
-        <v>149</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B43" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E43" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G43" t="s">
         <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I43" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B44" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="E44" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G44" t="s">
         <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I44" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B45" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="E45" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G45" t="s">
         <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="I45" t="s">
         <v>384</v>
       </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="D46" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="E46" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="H46" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="I46" t="s">
-        <v>384</v>
+        <v>370</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="B47" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="D47" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="E47" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="H47" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="I47" t="s">
-        <v>384</v>
+        <v>368</v>
+      </c>
+      <c r="J47">
+        <v>6</v>
+      </c>
+      <c r="K47" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="B48" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="D48" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="E48" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="H48" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I48" t="s">
-        <v>384</v>
+        <v>370</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="B49" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" t="s">
         <v>173</v>
       </c>
-      <c r="C49" t="s">
-        <v>13</v>
-      </c>
       <c r="D49" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="E49" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="H49" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="I49" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="J49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>190</v>
+      </c>
+      <c r="B50" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E50" t="s">
+        <v>192</v>
+      </c>
+      <c r="F50" t="s">
         <v>176</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="J50" s="2">
-        <v>1</v>
+      <c r="G50" t="s">
+        <v>177</v>
+      </c>
+      <c r="H50" t="s">
+        <v>394</v>
+      </c>
+      <c r="I50" t="s">
+        <v>384</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>194</v>
+      </c>
+      <c r="B51" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" t="s">
+        <v>173</v>
+      </c>
+      <c r="D51" t="s">
+        <v>195</v>
+      </c>
+      <c r="E51" t="s">
+        <v>196</v>
+      </c>
+      <c r="F51" t="s">
+        <v>176</v>
+      </c>
+      <c r="G51" t="s">
         <v>177</v>
       </c>
-      <c r="B51" t="s">
-        <v>177</v>
-      </c>
-      <c r="C51" t="s">
-        <v>178</v>
-      </c>
-      <c r="D51" t="s">
-        <v>179</v>
-      </c>
-      <c r="E51" t="s">
-        <v>180</v>
-      </c>
-      <c r="F51" t="s">
-        <v>181</v>
-      </c>
-      <c r="G51" t="s">
-        <v>182</v>
-      </c>
       <c r="H51" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="I51" t="s">
         <v>384</v>
@@ -3308,2339 +3523,2338 @@
       <c r="J51">
         <v>0</v>
       </c>
+      <c r="K51" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="B52" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="C52" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D52" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="E52" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="F52" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G52" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H52" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="I52" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="J52">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="B53" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C53" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D53" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E53" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="F53" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G53" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H53" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I53" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B54" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C54" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D54" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="E54" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="F54" t="s">
+        <v>176</v>
+      </c>
+      <c r="G54" t="s">
+        <v>177</v>
+      </c>
+      <c r="H54" t="s">
+        <v>377</v>
+      </c>
+      <c r="I54" t="s">
+        <v>368</v>
+      </c>
+      <c r="J54">
+        <v>8</v>
+      </c>
+      <c r="K54" t="s">
         <v>181</v>
-      </c>
-      <c r="G54" t="s">
-        <v>182</v>
-      </c>
-      <c r="H54" t="s">
-        <v>391</v>
-      </c>
-      <c r="I54" t="s">
-        <v>382</v>
-      </c>
-      <c r="J54">
-        <v>7</v>
-      </c>
-      <c r="K54" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="B55" t="s">
-        <v>195</v>
-      </c>
-      <c r="C55" t="s">
-        <v>178</v>
-      </c>
-      <c r="D55" t="s">
-        <v>196</v>
-      </c>
-      <c r="E55" t="s">
-        <v>197</v>
-      </c>
-      <c r="F55" t="s">
-        <v>181</v>
-      </c>
-      <c r="G55" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="H55" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="I55" t="s">
-        <v>398</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="K55" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B56" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C56" t="s">
-        <v>178</v>
-      </c>
-      <c r="D56" t="s">
-        <v>200</v>
-      </c>
-      <c r="E56" t="s">
-        <v>201</v>
-      </c>
-      <c r="F56" t="s">
-        <v>181</v>
-      </c>
-      <c r="G56" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="H56" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="I56" t="s">
-        <v>398</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="K56" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B57" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C57" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="D57" t="s">
-        <v>203</v>
-      </c>
-      <c r="E57" t="s">
-        <v>204</v>
-      </c>
-      <c r="F57" t="s">
-        <v>181</v>
-      </c>
-      <c r="G57" t="s">
-        <v>182</v>
+        <v>399</v>
       </c>
       <c r="H57" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="I57" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K57" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B58" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C58" t="s">
-        <v>178</v>
-      </c>
-      <c r="D58" t="s">
-        <v>206</v>
-      </c>
-      <c r="E58" t="s">
         <v>207</v>
       </c>
-      <c r="F58" t="s">
-        <v>181</v>
-      </c>
-      <c r="G58" t="s">
-        <v>182</v>
-      </c>
       <c r="H58" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="I58" t="s">
         <v>384</v>
       </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
       <c r="K58" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B59" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C59" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="D59" t="s">
-        <v>209</v>
-      </c>
-      <c r="E59" t="s">
+        <v>397</v>
+      </c>
+      <c r="H59" t="s">
+        <v>394</v>
+      </c>
+      <c r="I59" t="s">
+        <v>370</v>
+      </c>
+      <c r="J59">
+        <v>6</v>
+      </c>
+      <c r="K59" t="s">
         <v>210</v>
-      </c>
-      <c r="F59" t="s">
-        <v>181</v>
-      </c>
-      <c r="G59" t="s">
-        <v>182</v>
-      </c>
-      <c r="H59" t="s">
-        <v>391</v>
-      </c>
-      <c r="I59" t="s">
-        <v>382</v>
-      </c>
-      <c r="J59">
-        <v>8</v>
-      </c>
-      <c r="K59" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B60" t="s">
-        <v>211</v>
+        <v>215</v>
+      </c>
+      <c r="C60" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" t="s">
+        <v>398</v>
       </c>
       <c r="H60" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="I60" t="s">
-        <v>398</v>
+        <v>384</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
       </c>
       <c r="K60" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B61" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C61" t="s">
-        <v>212</v>
+        <v>207</v>
+      </c>
+      <c r="D61" t="s">
+        <v>391</v>
       </c>
       <c r="H61" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="I61" t="s">
-        <v>398</v>
+        <v>384</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B62" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C62" t="s">
-        <v>212</v>
-      </c>
-      <c r="D62" t="s">
-        <v>413</v>
+        <v>207</v>
       </c>
       <c r="H62" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="I62" t="s">
-        <v>398</v>
-      </c>
-      <c r="J62">
-        <v>3</v>
+        <v>384</v>
       </c>
       <c r="K62" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B63" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C63" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H63" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="I63" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="K63" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B64" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C64" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D64" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="H64" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="I64" t="s">
         <v>384</v>
       </c>
       <c r="J64">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K64" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B65" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C65" t="s">
-        <v>212</v>
-      </c>
-      <c r="D65" t="s">
-        <v>412</v>
+        <v>207</v>
       </c>
       <c r="H65" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="I65" t="s">
-        <v>398</v>
-      </c>
-      <c r="J65">
-        <v>2</v>
+        <v>384</v>
       </c>
       <c r="K65" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B66" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C66" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D66" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="H66" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="I66" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K66" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B67" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C67" t="s">
-        <v>212</v>
+        <v>207</v>
+      </c>
+      <c r="D67" t="s">
+        <v>385</v>
       </c>
       <c r="H67" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="I67" t="s">
-        <v>398</v>
+        <v>368</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B68" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C68" t="s">
-        <v>212</v>
+        <v>207</v>
+      </c>
+      <c r="D68" t="s">
+        <v>401</v>
       </c>
       <c r="H68" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="I68" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="K68" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B69" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C69" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D69" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="H69" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="I69" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="J69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K69" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B70" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C70" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H70" t="s">
-        <v>400</v>
+        <v>12</v>
       </c>
       <c r="I70" t="s">
-        <v>398</v>
+        <v>12</v>
       </c>
       <c r="K70" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B71" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C71" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D71" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="H71" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="I71" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="J71">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K71" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B72" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C72" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D72" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="H72" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="I72" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K72" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B73" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C73" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D73" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="H73" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="I73" t="s">
-        <v>382</v>
+        <v>368</v>
+      </c>
+      <c r="J73">
+        <v>13</v>
       </c>
       <c r="K73" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B74" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C74" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D74" t="s">
-        <v>444</v>
+        <v>382</v>
       </c>
       <c r="H74" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="I74" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="J74">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K74" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B75" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C75" t="s">
-        <v>212</v>
+        <v>207</v>
+      </c>
+      <c r="D75" t="s">
+        <v>388</v>
       </c>
       <c r="H75" t="s">
-        <v>12</v>
+        <v>386</v>
       </c>
       <c r="I75" t="s">
-        <v>12</v>
+        <v>368</v>
+      </c>
+      <c r="J75">
+        <v>3</v>
       </c>
       <c r="K75" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>241</v>
+        <v>413</v>
       </c>
       <c r="B76" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C76" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D76" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="H76" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="I76" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="J76">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K76" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>243</v>
+        <v>414</v>
       </c>
       <c r="B77" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C77" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D77" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H77" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="I77" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="J77">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K77" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>244</v>
+        <v>415</v>
       </c>
       <c r="B78" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C78" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D78" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="H78" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="I78" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="J78">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K78" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>246</v>
+        <v>416</v>
       </c>
       <c r="B79" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C79" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D79" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="H79" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="I79" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="J79">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K79" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>248</v>
+        <v>152</v>
       </c>
       <c r="B80" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C80" t="s">
-        <v>212</v>
-      </c>
-      <c r="D80" t="s">
-        <v>402</v>
+        <v>207</v>
       </c>
       <c r="H80" t="s">
-        <v>400</v>
-      </c>
-      <c r="I80" t="s">
-        <v>382</v>
-      </c>
-      <c r="J80">
-        <v>3</v>
+        <v>369</v>
       </c>
       <c r="K80" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>427</v>
+        <v>254</v>
       </c>
       <c r="B81" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C81" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="D81" t="s">
-        <v>390</v>
+        <v>255</v>
+      </c>
+      <c r="E81" t="s">
+        <v>256</v>
+      </c>
+      <c r="F81" t="s">
+        <v>257</v>
+      </c>
+      <c r="G81" t="s">
+        <v>258</v>
       </c>
       <c r="H81" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="I81" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="J81">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K81" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>428</v>
+        <v>260</v>
       </c>
       <c r="B82" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C82" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D82" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="H82" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="I82" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="J82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K82" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B83" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C83" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D83" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="H83" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="I83" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="J83">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K83" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>430</v>
+        <v>264</v>
       </c>
       <c r="B84" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C84" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D84" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="H84" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I84" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K84" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>156</v>
+        <v>266</v>
       </c>
       <c r="B85" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C85" t="s">
-        <v>212</v>
+        <v>207</v>
+      </c>
+      <c r="D85" t="s">
+        <v>395</v>
       </c>
       <c r="H85" t="s">
-        <v>383</v>
+        <v>394</v>
+      </c>
+      <c r="I85" t="s">
+        <v>370</v>
+      </c>
+      <c r="J85">
+        <v>2</v>
       </c>
       <c r="K85" t="s">
-        <v>258</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B86" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C86" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="D86" t="s">
-        <v>260</v>
-      </c>
-      <c r="E86" t="s">
-        <v>261</v>
-      </c>
-      <c r="F86" t="s">
-        <v>262</v>
-      </c>
-      <c r="G86" t="s">
-        <v>263</v>
+        <v>379</v>
       </c>
       <c r="H86" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="I86" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K86" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B87" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C87" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D87" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="H87" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="I87" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K87" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="B88" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C88" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D88" t="s">
-        <v>410</v>
+        <v>372</v>
       </c>
       <c r="H88" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="I88" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="J88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K88" t="s">
-        <v>268</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B89" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C89" t="s">
-        <v>212</v>
-      </c>
-      <c r="D89" t="s">
-        <v>388</v>
+        <v>207</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>431</v>
       </c>
       <c r="H89" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="I89" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="J89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K89" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B90" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C90" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D90" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="H90" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="I90" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="J90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K90" t="s">
-        <v>186</v>
+        <v>273</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B91" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C91" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D91" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="H91" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="I91" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="J91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K91" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B92" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C92" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D92" t="s">
         <v>387</v>
       </c>
       <c r="H92" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="I92" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="J92">
         <v>2</v>
       </c>
       <c r="K92" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>431</v>
+        <v>276</v>
       </c>
       <c r="B93" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C93" t="s">
-        <v>212</v>
+        <v>277</v>
       </c>
       <c r="D93" t="s">
-        <v>386</v>
+        <v>400</v>
+      </c>
+      <c r="E93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>278</v>
       </c>
       <c r="H93" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="I93" t="s">
         <v>384</v>
       </c>
       <c r="J93">
-        <v>2</v>
-      </c>
-      <c r="K93" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B94" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C94" t="s">
-        <v>212</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>445</v>
+        <v>280</v>
+      </c>
+      <c r="D94" t="s">
+        <v>281</v>
+      </c>
+      <c r="E94" t="s">
+        <v>282</v>
+      </c>
+      <c r="G94" t="s">
+        <v>283</v>
       </c>
       <c r="H94" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="I94" t="s">
-        <v>382</v>
-      </c>
-      <c r="J94">
-        <v>2</v>
-      </c>
-      <c r="K94" t="s">
-        <v>234</v>
+        <v>368</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>277</v>
+        <v>427</v>
       </c>
       <c r="B95" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C95" t="s">
-        <v>212</v>
+        <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>381</v>
+        <v>285</v>
+      </c>
+      <c r="E95" t="s">
+        <v>286</v>
+      </c>
+      <c r="F95" t="s">
+        <v>54</v>
+      </c>
+      <c r="G95" t="s">
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="I95" t="s">
-        <v>382</v>
-      </c>
-      <c r="J95">
-        <v>1</v>
-      </c>
-      <c r="K95" t="s">
-        <v>278</v>
+        <v>370</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>279</v>
+        <v>427</v>
       </c>
       <c r="B96" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C96" t="s">
-        <v>212</v>
+        <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>392</v>
+        <v>285</v>
+      </c>
+      <c r="E96" t="s">
+        <v>286</v>
+      </c>
+      <c r="F96" t="s">
+        <v>54</v>
+      </c>
+      <c r="G96" t="s">
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="I96" t="s">
-        <v>382</v>
-      </c>
-      <c r="J96">
-        <v>3</v>
-      </c>
-      <c r="K96" t="s">
-        <v>278</v>
+        <v>370</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>280</v>
+        <v>418</v>
       </c>
       <c r="B97" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C97" t="s">
-        <v>212</v>
+        <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>401</v>
+        <v>289</v>
+      </c>
+      <c r="E97" t="s">
+        <v>290</v>
+      </c>
+      <c r="F97" t="s">
+        <v>291</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="I97" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="J97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K97" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>281</v>
+        <v>419</v>
       </c>
       <c r="B98" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C98" t="s">
-        <v>282</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>414</v>
+        <v>294</v>
       </c>
       <c r="E98" t="s">
-        <v>12</v>
+        <v>295</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="G98" t="s">
-        <v>283</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="I98" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="J98">
         <v>5</v>
       </c>
+      <c r="K98" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>284</v>
+        <v>420</v>
       </c>
       <c r="B99" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="C99" t="s">
-        <v>285</v>
+        <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="E99" t="s">
-        <v>287</v>
+        <v>298</v>
+      </c>
+      <c r="F99" t="s">
+        <v>291</v>
       </c>
       <c r="G99" t="s">
-        <v>288</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="I99" t="s">
-        <v>382</v>
+        <v>384</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>441</v>
+        <v>299</v>
       </c>
       <c r="B100" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="C100" t="s">
         <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="E100" t="s">
+        <v>302</v>
+      </c>
+      <c r="F100" t="s">
         <v>291</v>
-      </c>
-      <c r="F100" t="s">
-        <v>58</v>
       </c>
       <c r="G100" t="s">
         <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="I100" t="s">
-        <v>384</v>
+        <v>370</v>
+      </c>
+      <c r="J100">
+        <v>13</v>
+      </c>
+      <c r="K100" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>441</v>
+        <v>304</v>
       </c>
       <c r="B101" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="E101" t="s">
+        <v>307</v>
+      </c>
+      <c r="F101" t="s">
         <v>291</v>
-      </c>
-      <c r="F101" t="s">
-        <v>58</v>
       </c>
       <c r="G101" t="s">
         <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="I101" t="s">
-        <v>384</v>
+        <v>370</v>
+      </c>
+      <c r="J101">
+        <v>14</v>
+      </c>
+      <c r="K101" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>432</v>
+        <v>308</v>
       </c>
       <c r="B102" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="C102" t="s">
         <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="E102" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F102" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G102" t="s">
         <v>14</v>
       </c>
-      <c r="H102" t="s">
-        <v>408</v>
-      </c>
-      <c r="I102" t="s">
-        <v>384</v>
-      </c>
-      <c r="J102">
-        <v>4</v>
-      </c>
       <c r="K102" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B103" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="C103" t="s">
         <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="E103" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="F103" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G103" t="s">
         <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>408</v>
+        <v>377</v>
       </c>
       <c r="I103" t="s">
-        <v>384</v>
+        <v>370</v>
+      </c>
+      <c r="J103">
+        <v>3</v>
       </c>
       <c r="K103" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B104" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="C104" t="s">
         <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="E104" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="F104" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G104" t="s">
         <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>408</v>
+        <v>377</v>
       </c>
       <c r="I104" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="J104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K104" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B105" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="C105" t="s">
         <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="E105" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="F105" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G105" t="s">
         <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>408</v>
+        <v>377</v>
       </c>
       <c r="I105" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="K105" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B106" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
+        <v>323</v>
       </c>
       <c r="D106" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="E106" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="F106" t="s">
-        <v>296</v>
-      </c>
-      <c r="G106" t="s">
-        <v>14</v>
+        <v>325</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="H106" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="I106" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="J106">
-        <v>1</v>
-      </c>
-      <c r="K106" t="s">
-        <v>297</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>434</v>
+        <v>327</v>
       </c>
       <c r="B107" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="C107" t="s">
-        <v>13</v>
+        <v>323</v>
       </c>
       <c r="D107" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="E107" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="F107" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="G107" t="s">
-        <v>14</v>
+        <v>326</v>
       </c>
       <c r="H107" t="s">
-        <v>408</v>
+        <v>377</v>
       </c>
       <c r="I107" t="s">
-        <v>384</v>
-      </c>
-      <c r="K107" t="s">
-        <v>297</v>
+        <v>370</v>
+      </c>
+      <c r="J107">
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="B108" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>323</v>
       </c>
       <c r="D108" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="E108" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="F108" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="G108" t="s">
-        <v>14</v>
+        <v>326</v>
       </c>
       <c r="H108" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="I108" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="J108">
-        <v>13</v>
-      </c>
-      <c r="K108" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>311</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>335</v>
+      </c>
+      <c r="B109" t="s">
+        <v>335</v>
+      </c>
+      <c r="C109" t="s">
+        <v>336</v>
+      </c>
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="B110" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="C110" t="s">
-        <v>13</v>
+        <v>277</v>
       </c>
       <c r="D110" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="E110" t="s">
-        <v>316</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="G110" t="s">
-        <v>14</v>
+        <v>278</v>
       </c>
       <c r="H110" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="I110" t="s">
         <v>384</v>
       </c>
       <c r="J110">
-        <v>14</v>
-      </c>
-      <c r="K110" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>311</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>339</v>
+      </c>
+      <c r="B111" t="s">
+        <v>339</v>
+      </c>
+      <c r="C111" t="s">
+        <v>280</v>
+      </c>
+      <c r="D111" t="s">
+        <v>340</v>
+      </c>
+      <c r="E111" t="s">
+        <v>341</v>
+      </c>
+      <c r="G111" t="s">
+        <v>283</v>
+      </c>
+      <c r="H111" t="s">
+        <v>377</v>
+      </c>
+      <c r="I111" t="s">
+        <v>368</v>
+      </c>
+      <c r="J111">
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="B112" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="C112" t="s">
-        <v>13</v>
+        <v>323</v>
       </c>
       <c r="D112" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="E112" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="F112" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G112" t="s">
-        <v>14</v>
-      </c>
-      <c r="K112" t="s">
-        <v>311</v>
+        <v>326</v>
+      </c>
+      <c r="H112" t="s">
+        <v>386</v>
+      </c>
+      <c r="I112" t="s">
+        <v>370</v>
+      </c>
+      <c r="J112">
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="B113" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="C113" t="s">
-        <v>13</v>
+        <v>323</v>
       </c>
       <c r="D113" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="E113" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="F113" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="G113" t="s">
-        <v>14</v>
-      </c>
-      <c r="K113" t="s">
-        <v>311</v>
+        <v>326</v>
+      </c>
+      <c r="H113" t="s">
+        <v>369</v>
+      </c>
+      <c r="I113" t="s">
+        <v>370</v>
+      </c>
+      <c r="J113">
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>435</v>
+        <v>349</v>
       </c>
       <c r="B114" t="s">
+        <v>349</v>
+      </c>
+      <c r="C114" t="s">
         <v>323</v>
       </c>
-      <c r="C114" t="s">
-        <v>13</v>
-      </c>
       <c r="D114" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="E114" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="F114" t="s">
-        <v>296</v>
+        <v>352</v>
       </c>
       <c r="G114" t="s">
-        <v>14</v>
+        <v>326</v>
       </c>
       <c r="H114" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="I114" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="J114">
-        <v>3</v>
-      </c>
-      <c r="K114" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="K115" s="2" t="s">
-        <v>326</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>425</v>
+      </c>
+      <c r="B115" t="s">
+        <v>353</v>
+      </c>
+      <c r="C115" t="s">
+        <v>354</v>
+      </c>
+      <c r="D115" t="s">
+        <v>355</v>
+      </c>
+      <c r="E115" t="s">
+        <v>356</v>
+      </c>
+      <c r="F115" t="s">
+        <v>69</v>
+      </c>
+      <c r="G115" t="s">
+        <v>357</v>
+      </c>
+      <c r="H115" t="s">
+        <v>369</v>
+      </c>
+      <c r="I115" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B116" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="C116" t="s">
-        <v>13</v>
+        <v>354</v>
       </c>
       <c r="D116" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="E116" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="F116" t="s">
-        <v>296</v>
+        <v>69</v>
       </c>
       <c r="G116" t="s">
-        <v>14</v>
+        <v>357</v>
       </c>
       <c r="H116" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="I116" t="s">
-        <v>384</v>
-      </c>
-      <c r="J116">
-        <v>4</v>
-      </c>
-      <c r="K116" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="K117" s="2" t="s">
-        <v>326</v>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>429</v>
+      </c>
+      <c r="B117" t="s">
+        <v>361</v>
+      </c>
+      <c r="C117" t="s">
+        <v>354</v>
+      </c>
+      <c r="D117" t="s">
+        <v>362</v>
+      </c>
+      <c r="E117" t="s">
+        <v>363</v>
+      </c>
+      <c r="F117" t="s">
+        <v>69</v>
+      </c>
+      <c r="G117" t="s">
+        <v>357</v>
+      </c>
+      <c r="H117" t="s">
+        <v>369</v>
+      </c>
+      <c r="I117" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>437</v>
+        <v>406</v>
       </c>
       <c r="B118" t="s">
-        <v>332</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
         <v>13</v>
       </c>
       <c r="D118" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="E118" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="F118" t="s">
-        <v>296</v>
+        <v>366</v>
       </c>
       <c r="G118" t="s">
         <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="I118" t="s">
+        <v>370</v>
+      </c>
+      <c r="J118">
+        <v>12</v>
+      </c>
+      <c r="K118" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I121" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="I122" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="I129" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="I130" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="I131" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="I132" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="I133" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="I134" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="K118" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>437</v>
-      </c>
-      <c r="B119" t="s">
-        <v>335</v>
-      </c>
-      <c r="C119" t="s">
-        <v>13</v>
-      </c>
-      <c r="D119" t="s">
-        <v>333</v>
-      </c>
-      <c r="E119" t="s">
-        <v>334</v>
-      </c>
-      <c r="F119" t="s">
-        <v>296</v>
-      </c>
-      <c r="G119" t="s">
-        <v>14</v>
-      </c>
-      <c r="H119" t="s">
-        <v>391</v>
-      </c>
-      <c r="I119" t="s">
-        <v>384</v>
-      </c>
-      <c r="K119" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    </row>
+    <row r="135" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C135" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="B120" t="s">
-        <v>336</v>
-      </c>
-      <c r="C120" t="s">
-        <v>337</v>
-      </c>
-      <c r="D120" t="s">
-        <v>338</v>
-      </c>
-      <c r="E120" t="s">
-        <v>338</v>
-      </c>
-      <c r="F120" t="s">
-        <v>339</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H120" t="s">
-        <v>408</v>
-      </c>
-      <c r="I120" t="s">
-        <v>384</v>
-      </c>
-      <c r="J120">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>341</v>
-      </c>
-      <c r="B121" t="s">
-        <v>341</v>
-      </c>
-      <c r="C121" t="s">
-        <v>337</v>
-      </c>
-      <c r="D121" t="s">
-        <v>342</v>
-      </c>
-      <c r="E121" t="s">
-        <v>343</v>
-      </c>
-      <c r="F121" t="s">
-        <v>344</v>
-      </c>
-      <c r="G121" t="s">
-        <v>340</v>
-      </c>
-      <c r="H121" t="s">
-        <v>391</v>
-      </c>
-      <c r="I121" t="s">
-        <v>384</v>
-      </c>
-      <c r="J121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>345</v>
-      </c>
-      <c r="B122" t="s">
-        <v>345</v>
-      </c>
-      <c r="C122" t="s">
-        <v>337</v>
-      </c>
-      <c r="D122" t="s">
-        <v>346</v>
-      </c>
-      <c r="E122" t="s">
-        <v>347</v>
-      </c>
-      <c r="F122" t="s">
-        <v>348</v>
-      </c>
-      <c r="G122" t="s">
-        <v>340</v>
-      </c>
-      <c r="H122" t="s">
-        <v>408</v>
-      </c>
-      <c r="I122" t="s">
-        <v>384</v>
-      </c>
-      <c r="J122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>349</v>
-      </c>
-      <c r="B123" t="s">
-        <v>349</v>
-      </c>
-      <c r="C123" t="s">
-        <v>350</v>
-      </c>
-      <c r="D123" t="s">
-        <v>12</v>
-      </c>
-      <c r="E123" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>351</v>
-      </c>
-      <c r="B124" t="s">
-        <v>351</v>
-      </c>
-      <c r="C124" t="s">
-        <v>282</v>
-      </c>
-      <c r="D124" t="s">
-        <v>352</v>
-      </c>
-      <c r="E124" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" t="s">
-        <v>283</v>
-      </c>
-      <c r="H124" t="s">
-        <v>408</v>
-      </c>
-      <c r="I124" t="s">
-        <v>398</v>
-      </c>
-      <c r="J124">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>353</v>
-      </c>
-      <c r="B125" t="s">
-        <v>353</v>
-      </c>
-      <c r="C125" t="s">
-        <v>285</v>
-      </c>
-      <c r="D125" t="s">
-        <v>354</v>
-      </c>
-      <c r="E125" t="s">
-        <v>355</v>
-      </c>
-      <c r="G125" t="s">
-        <v>288</v>
-      </c>
-      <c r="H125" t="s">
-        <v>391</v>
-      </c>
-      <c r="I125" t="s">
-        <v>382</v>
-      </c>
-      <c r="J125">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>356</v>
-      </c>
-      <c r="B126" t="s">
-        <v>356</v>
-      </c>
-      <c r="C126" t="s">
-        <v>337</v>
-      </c>
-      <c r="D126" t="s">
-        <v>357</v>
-      </c>
-      <c r="E126" t="s">
-        <v>358</v>
-      </c>
-      <c r="F126" t="s">
-        <v>296</v>
-      </c>
-      <c r="G126" t="s">
-        <v>340</v>
-      </c>
-      <c r="H126" t="s">
-        <v>400</v>
-      </c>
-      <c r="I126" t="s">
-        <v>384</v>
-      </c>
-      <c r="J126">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>359</v>
-      </c>
-      <c r="B127" t="s">
-        <v>359</v>
-      </c>
-      <c r="C127" t="s">
-        <v>337</v>
-      </c>
-      <c r="D127" t="s">
-        <v>360</v>
-      </c>
-      <c r="E127" t="s">
-        <v>361</v>
-      </c>
-      <c r="F127" t="s">
-        <v>362</v>
-      </c>
-      <c r="G127" t="s">
-        <v>340</v>
-      </c>
-      <c r="H127" t="s">
-        <v>383</v>
-      </c>
-      <c r="I127" t="s">
-        <v>384</v>
-      </c>
-      <c r="J127">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>363</v>
-      </c>
-      <c r="B128" t="s">
-        <v>363</v>
-      </c>
-      <c r="C128" t="s">
-        <v>337</v>
-      </c>
-      <c r="D128" t="s">
-        <v>364</v>
-      </c>
-      <c r="E128" t="s">
-        <v>365</v>
-      </c>
-      <c r="F128" t="s">
-        <v>366</v>
-      </c>
-      <c r="G128" t="s">
-        <v>340</v>
-      </c>
-      <c r="H128" t="s">
-        <v>383</v>
-      </c>
-      <c r="I128" t="s">
-        <v>384</v>
-      </c>
-      <c r="J128">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>439</v>
-      </c>
-      <c r="B129" t="s">
-        <v>367</v>
-      </c>
-      <c r="C129" t="s">
-        <v>368</v>
-      </c>
-      <c r="D129" t="s">
-        <v>369</v>
-      </c>
-      <c r="E129" t="s">
-        <v>370</v>
-      </c>
-      <c r="F129" t="s">
-        <v>73</v>
-      </c>
-      <c r="G129" t="s">
-        <v>371</v>
-      </c>
-      <c r="H129" t="s">
-        <v>383</v>
-      </c>
-      <c r="I129" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>442</v>
-      </c>
-      <c r="B130" t="s">
-        <v>372</v>
-      </c>
-      <c r="C130" t="s">
-        <v>368</v>
-      </c>
-      <c r="D130" t="s">
-        <v>373</v>
-      </c>
-      <c r="E130" t="s">
-        <v>374</v>
-      </c>
-      <c r="F130" t="s">
-        <v>73</v>
-      </c>
-      <c r="G130" t="s">
-        <v>371</v>
-      </c>
-      <c r="H130" t="s">
-        <v>383</v>
-      </c>
-      <c r="I130" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>443</v>
-      </c>
-      <c r="B131" t="s">
-        <v>375</v>
-      </c>
-      <c r="C131" t="s">
-        <v>368</v>
-      </c>
-      <c r="D131" t="s">
-        <v>376</v>
-      </c>
-      <c r="E131" t="s">
-        <v>377</v>
-      </c>
-      <c r="F131" t="s">
-        <v>73</v>
-      </c>
-      <c r="G131" t="s">
-        <v>371</v>
-      </c>
-      <c r="H131" t="s">
-        <v>383</v>
-      </c>
-      <c r="I131" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>420</v>
-      </c>
-      <c r="B132" t="s">
-        <v>11</v>
-      </c>
-      <c r="C132" t="s">
-        <v>13</v>
-      </c>
-      <c r="D132" t="s">
-        <v>378</v>
-      </c>
-      <c r="E132" t="s">
-        <v>379</v>
-      </c>
-      <c r="F132" t="s">
-        <v>380</v>
-      </c>
-      <c r="G132" t="s">
-        <v>14</v>
-      </c>
-      <c r="H132" t="s">
-        <v>383</v>
-      </c>
-      <c r="I132" t="s">
-        <v>384</v>
-      </c>
-      <c r="J132">
-        <v>12</v>
-      </c>
-      <c r="K132" t="s">
-        <v>15</v>
+      <c r="D135" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="I135" s="5" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K132" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K118" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="2">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G58" xr:uid="{2F5F9FA7-5446-47AF-A091-DD36F3BEED45}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G53" xr:uid="{2F5F9FA7-5446-47AF-A091-DD36F3BEED45}">
       <formula1>1</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A225" xr:uid="{C9CEA4D8-9D09-46A7-AFBC-6B7076AE134A}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A218" xr:uid="{C9CEA4D8-9D09-46A7-AFBC-6B7076AE134A}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G120" r:id="rId1" xr:uid="{86CF00EA-F175-49E3-B292-E21775BC70DA}"/>
+    <hyperlink ref="G106" r:id="rId1" xr:uid="{86CF00EA-F175-49E3-B292-E21775BC70DA}"/>
+    <hyperlink ref="G120" r:id="rId2" xr:uid="{6D5714C4-09C7-4724-9E57-FC6947A71A0B}"/>
+    <hyperlink ref="G119" r:id="rId3" xr:uid="{5E00DB9D-DE2F-4335-9771-72FBC89C518A}"/>
+    <hyperlink ref="G121" r:id="rId4" xr:uid="{33ABC5F7-45E0-4703-ADE7-FD5BE84A6C85}"/>
+    <hyperlink ref="G122" r:id="rId5" xr:uid="{28FA960A-1B0F-4F36-AB25-3065353EBB96}"/>
+    <hyperlink ref="G123" r:id="rId6" xr:uid="{AA81982C-4488-4D0A-9FD0-D28A5532BDB6}"/>
+    <hyperlink ref="G124:G128" r:id="rId7" display="http://sdg4-data.uis.unesco.org/" xr:uid="{58D543BA-AA31-46B7-9D51-23E366CBECFA}"/>
+    <hyperlink ref="G129" r:id="rId8" xr:uid="{E5444A53-A5ED-43B0-A996-1EEFCF0EBC2B}"/>
+    <hyperlink ref="G130" r:id="rId9" xr:uid="{30556D34-7A52-4A25-AE71-8D81DA199009}"/>
+    <hyperlink ref="G134" r:id="rId10" xr:uid="{79265DDE-6A41-4907-9981-CC79AE247B48}"/>
+    <hyperlink ref="G131" r:id="rId11" xr:uid="{9909B422-45A8-4627-8430-D53FECADEE8B}"/>
+    <hyperlink ref="G133" r:id="rId12" xr:uid="{4223E1D3-2634-4817-9EFA-3F96BE143230}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/Data/Data_Raw/Country codes & metadata/metadata.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="13_ncr:1_{29A47490-2D27-4D0C-B372-38E790C58E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ADE8585-86AE-4CEB-8663-F810A9C57CF4}"/>
+  <xr:revisionPtr revIDLastSave="386" documentId="13_ncr:1_{29A47490-2D27-4D0C-B372-38E790C58E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2020AC11-4115-4A87-A5E7-A8822AF7785E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$136</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="506">
   <si>
     <t>name_portal</t>
   </si>
@@ -1556,6 +1556,15 @@
   </si>
   <si>
     <t>https://data.worldbank.org/indicator/SH.XPD.CHEX.GD.ZS</t>
+  </si>
+  <si>
+    <t>Labour force participation (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ages 25+</t>
+  </si>
+  <si>
+    <t>% of working-age population</t>
   </si>
 </sst>
 </file>
@@ -1592,7 +1601,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1602,6 +1611,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1634,7 +1649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1647,6 +1662,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1954,11 +1970,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K135"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A137" sqref="A137"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2002,7 +2019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>406</v>
       </c>
@@ -2034,7 +2051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>407</v>
       </c>
@@ -2066,7 +2083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>408</v>
       </c>
@@ -2095,13 +2112,13 @@
         <v>370</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>409</v>
       </c>
@@ -2182,7 +2199,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -2204,11 +2221,8 @@
       <c r="I8" t="s">
         <v>370</v>
       </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -2234,7 +2248,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -2260,7 +2274,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2276,7 +2290,7 @@
       <c r="E11" t="s">
         <v>42</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H11" t="s">
@@ -2286,7 +2300,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -2312,7 +2326,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -2338,7 +2352,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -2367,7 +2381,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>410</v>
       </c>
@@ -2396,7 +2410,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -2418,11 +2432,8 @@
       <c r="I16" t="s">
         <v>384</v>
       </c>
-      <c r="J16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -2457,7 +2468,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -2485,14 +2496,11 @@
       <c r="I18" t="s">
         <v>370</v>
       </c>
-      <c r="J18">
-        <v>10</v>
-      </c>
       <c r="K18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -2520,11 +2528,14 @@
       <c r="I19" t="s">
         <v>370</v>
       </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
       <c r="K19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>74</v>
       </c>
@@ -2553,13 +2564,13 @@
         <v>370</v>
       </c>
       <c r="J20">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -2591,7 +2602,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -2623,7 +2634,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -2655,7 +2666,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -2687,7 +2698,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -2719,7 +2730,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -2751,7 +2762,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -2783,7 +2794,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -2815,7 +2826,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -2844,7 +2855,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -2873,7 +2884,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -2902,7 +2913,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>121</v>
       </c>
@@ -2930,8 +2941,11 @@
       <c r="I32" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>125</v>
       </c>
@@ -2960,7 +2974,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>129</v>
       </c>
@@ -2989,7 +3003,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>411</v>
       </c>
@@ -3018,10 +3032,10 @@
         <v>370</v>
       </c>
       <c r="J35">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>135</v>
       </c>
@@ -3050,7 +3064,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>138</v>
       </c>
@@ -3079,42 +3093,42 @@
         <v>370</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="I38" t="s">
-        <v>370</v>
-      </c>
-      <c r="J38">
-        <v>3</v>
-      </c>
-      <c r="K38" t="s">
+      <c r="I38" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="J38" s="8">
+        <v>7</v>
+      </c>
+      <c r="K38" s="8" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -3143,7 +3157,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -3172,7 +3186,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -3201,7 +3215,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>156</v>
       </c>
@@ -3230,7 +3244,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>160</v>
       </c>
@@ -3259,7 +3273,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>164</v>
       </c>
@@ -3288,7 +3302,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>168</v>
       </c>
@@ -3320,7 +3334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>172</v>
       </c>
@@ -3380,14 +3394,11 @@
       <c r="I47" t="s">
         <v>368</v>
       </c>
-      <c r="J47">
-        <v>6</v>
-      </c>
       <c r="K47" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>182</v>
       </c>
@@ -3414,9 +3425,6 @@
       </c>
       <c r="I48" t="s">
         <v>370</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
       </c>
       <c r="K48" t="s">
         <v>185</v>
@@ -3450,14 +3458,11 @@
       <c r="I49" t="s">
         <v>368</v>
       </c>
-      <c r="J49">
-        <v>7</v>
-      </c>
       <c r="K49" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>190</v>
       </c>
@@ -3485,14 +3490,11 @@
       <c r="I50" t="s">
         <v>384</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
       <c r="K50" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>194</v>
       </c>
@@ -3520,14 +3522,11 @@
       <c r="I51" t="s">
         <v>384</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
       <c r="K51" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>197</v>
       </c>
@@ -3555,14 +3554,11 @@
       <c r="I52" t="s">
         <v>384</v>
       </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
       <c r="K52" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>200</v>
       </c>
@@ -3589,9 +3585,6 @@
       </c>
       <c r="I53" t="s">
         <v>370</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
       </c>
       <c r="K53" t="s">
         <v>185</v>
@@ -3625,14 +3618,11 @@
       <c r="I54" t="s">
         <v>368</v>
       </c>
-      <c r="J54">
-        <v>8</v>
-      </c>
       <c r="K54" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>206</v>
       </c>
@@ -3649,7 +3639,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>209</v>
       </c>
@@ -3669,7 +3659,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>211</v>
       </c>
@@ -3695,7 +3685,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>213</v>
       </c>
@@ -3715,7 +3705,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>214</v>
       </c>
@@ -3741,7 +3731,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>215</v>
       </c>
@@ -3767,7 +3757,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>217</v>
       </c>
@@ -3793,7 +3783,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>219</v>
       </c>
@@ -3813,7 +3803,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>221</v>
       </c>
@@ -3833,7 +3823,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>223</v>
       </c>
@@ -3853,13 +3843,13 @@
         <v>384</v>
       </c>
       <c r="J64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K64" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>225</v>
       </c>
@@ -3879,7 +3869,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>226</v>
       </c>
@@ -3925,7 +3915,7 @@
         <v>368</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K67" t="s">
         <v>229</v>
@@ -3973,14 +3963,11 @@
       <c r="I69" t="s">
         <v>368</v>
       </c>
-      <c r="J69">
-        <v>4</v>
-      </c>
       <c r="K69" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>234</v>
       </c>
@@ -4020,7 +4007,7 @@
         <v>368</v>
       </c>
       <c r="J71">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K71" t="s">
         <v>237</v>
@@ -4046,7 +4033,7 @@
         <v>368</v>
       </c>
       <c r="J72">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K72" t="s">
         <v>237</v>
@@ -4072,7 +4059,7 @@
         <v>368</v>
       </c>
       <c r="J73">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K73" t="s">
         <v>240</v>
@@ -4098,7 +4085,7 @@
         <v>368</v>
       </c>
       <c r="J74">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K74" t="s">
         <v>242</v>
@@ -4124,13 +4111,13 @@
         <v>368</v>
       </c>
       <c r="J75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K75" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>413</v>
       </c>
@@ -4150,13 +4137,13 @@
         <v>370</v>
       </c>
       <c r="J76">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="K76" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>414</v>
       </c>
@@ -4176,13 +4163,13 @@
         <v>370</v>
       </c>
       <c r="J77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K77" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>415</v>
       </c>
@@ -4202,13 +4189,13 @@
         <v>370</v>
       </c>
       <c r="J78">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K78" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>416</v>
       </c>
@@ -4228,13 +4215,13 @@
         <v>370</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K79" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>152</v>
       </c>
@@ -4286,7 +4273,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>260</v>
       </c>
@@ -4312,7 +4299,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>426</v>
       </c>
@@ -4332,13 +4319,13 @@
         <v>370</v>
       </c>
       <c r="J83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K83" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>264</v>
       </c>
@@ -4358,13 +4345,13 @@
         <v>370</v>
       </c>
       <c r="J84">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K84" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>266</v>
       </c>
@@ -4384,7 +4371,7 @@
         <v>370</v>
       </c>
       <c r="J85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K85" t="s">
         <v>181</v>
@@ -4416,7 +4403,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>268</v>
       </c>
@@ -4430,19 +4417,19 @@
         <v>373</v>
       </c>
       <c r="H87" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="I87" t="s">
         <v>370</v>
       </c>
       <c r="J87">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K87" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>417</v>
       </c>
@@ -4462,7 +4449,7 @@
         <v>370</v>
       </c>
       <c r="J88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K88" t="s">
         <v>18</v>
@@ -4514,7 +4501,7 @@
         <v>368</v>
       </c>
       <c r="J90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K90" t="s">
         <v>273</v>
@@ -4566,13 +4553,13 @@
         <v>368</v>
       </c>
       <c r="J92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K92" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>276</v>
       </c>
@@ -4601,7 +4588,7 @@
         <v>384</v>
       </c>
       <c r="J93">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4620,7 +4607,7 @@
       <c r="E94" t="s">
         <v>282</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="3" t="s">
         <v>283</v>
       </c>
       <c r="H94" t="s">
@@ -4629,8 +4616,11 @@
       <c r="I94" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>427</v>
       </c>
@@ -4659,7 +4649,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>427</v>
       </c>
@@ -4688,7 +4678,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>418</v>
       </c>
@@ -4723,7 +4713,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>419</v>
       </c>
@@ -4752,13 +4742,13 @@
         <v>370</v>
       </c>
       <c r="J98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K98" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>420</v>
       </c>
@@ -4786,14 +4776,11 @@
       <c r="I99" t="s">
         <v>384</v>
       </c>
-      <c r="J99">
-        <v>1</v>
-      </c>
       <c r="K99" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>299</v>
       </c>
@@ -4821,14 +4808,11 @@
       <c r="I100" t="s">
         <v>370</v>
       </c>
-      <c r="J100">
-        <v>13</v>
-      </c>
       <c r="K100" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>304</v>
       </c>
@@ -4857,13 +4841,13 @@
         <v>370</v>
       </c>
       <c r="J101">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K101" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>308</v>
       </c>
@@ -4889,7 +4873,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>421</v>
       </c>
@@ -4924,7 +4908,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>422</v>
       </c>
@@ -4953,13 +4937,13 @@
         <v>370</v>
       </c>
       <c r="J104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K104" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>423</v>
       </c>
@@ -4991,7 +4975,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>424</v>
       </c>
@@ -5020,10 +5004,10 @@
         <v>370</v>
       </c>
       <c r="J106">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>327</v>
       </c>
@@ -5052,10 +5036,10 @@
         <v>370</v>
       </c>
       <c r="J107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>331</v>
       </c>
@@ -5084,10 +5068,10 @@
         <v>370</v>
       </c>
       <c r="J108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>335</v>
       </c>
@@ -5107,7 +5091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>337</v>
       </c>
@@ -5136,7 +5120,7 @@
         <v>384</v>
       </c>
       <c r="J110">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -5165,10 +5149,10 @@
         <v>368</v>
       </c>
       <c r="J111">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>342</v>
       </c>
@@ -5200,7 +5184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>345</v>
       </c>
@@ -5229,10 +5213,10 @@
         <v>370</v>
       </c>
       <c r="J113">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>349</v>
       </c>
@@ -5264,7 +5248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>425</v>
       </c>
@@ -5293,7 +5277,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>428</v>
       </c>
@@ -5322,7 +5306,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>429</v>
       </c>
@@ -5351,7 +5335,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>406</v>
       </c>
@@ -5380,7 +5364,7 @@
         <v>370</v>
       </c>
       <c r="J118">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K118" t="s">
         <v>15</v>
@@ -5411,6 +5395,9 @@
       <c r="I119" s="5" t="s">
         <v>368</v>
       </c>
+      <c r="J119" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="120" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
@@ -5434,8 +5421,11 @@
       <c r="I120" s="5" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J120" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>439</v>
       </c>
@@ -5462,6 +5452,9 @@
       </c>
       <c r="I121" s="5" t="s">
         <v>370</v>
+      </c>
+      <c r="J121" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5492,6 +5485,9 @@
       <c r="I122" s="5" t="s">
         <v>368</v>
       </c>
+      <c r="J122" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="123" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
@@ -5515,6 +5511,9 @@
       <c r="H123" s="5" t="s">
         <v>377</v>
       </c>
+      <c r="I123" s="5" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="124" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
@@ -5538,6 +5537,12 @@
       <c r="H124" s="5" t="s">
         <v>377</v>
       </c>
+      <c r="I124" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="J124" s="5">
+        <v>11</v>
+      </c>
     </row>
     <row r="125" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
@@ -5561,6 +5566,9 @@
       <c r="H125" s="5" t="s">
         <v>377</v>
       </c>
+      <c r="I125" s="5" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="126" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
@@ -5584,6 +5592,9 @@
       <c r="H126" s="5" t="s">
         <v>377</v>
       </c>
+      <c r="I126" s="5" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="127" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
@@ -5607,6 +5618,12 @@
       <c r="H127" s="5" t="s">
         <v>377</v>
       </c>
+      <c r="I127" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="J127" s="5">
+        <v>12</v>
+      </c>
     </row>
     <row r="128" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
@@ -5630,8 +5647,11 @@
       <c r="H128" s="5" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I128" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>458</v>
       </c>
@@ -5659,8 +5679,11 @@
       <c r="I129" s="5" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J129" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>492</v>
       </c>
@@ -5688,8 +5711,11 @@
       <c r="I130" s="5" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J130" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>464</v>
       </c>
@@ -5718,7 +5744,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>470</v>
       </c>
@@ -5746,8 +5772,11 @@
       <c r="I132" s="5" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J132" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>472</v>
       </c>
@@ -5775,8 +5804,11 @@
       <c r="I133" s="5" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J133" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>477</v>
       </c>
@@ -5804,8 +5836,11 @@
       <c r="I134" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J134" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>499</v>
       </c>
@@ -5827,15 +5862,56 @@
       <c r="I135" s="5" t="s">
         <v>370</v>
       </c>
+      <c r="J135" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="H136" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="I136" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="J136" s="8">
+        <v>1</v>
+      </c>
+      <c r="K136" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="L136" s="8" t="s">
+        <v>504</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K118" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K136" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Education"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="2">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G53" xr:uid="{2F5F9FA7-5446-47AF-A091-DD36F3BEED45}">
       <formula1>1</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A218" xr:uid="{C9CEA4D8-9D09-46A7-AFBC-6B7076AE134A}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A218 B136" xr:uid="{C9CEA4D8-9D09-46A7-AFBC-6B7076AE134A}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
@@ -5853,8 +5929,10 @@
     <hyperlink ref="G134" r:id="rId10" xr:uid="{79265DDE-6A41-4907-9981-CC79AE247B48}"/>
     <hyperlink ref="G131" r:id="rId11" xr:uid="{9909B422-45A8-4627-8430-D53FECADEE8B}"/>
     <hyperlink ref="G133" r:id="rId12" xr:uid="{4223E1D3-2634-4817-9EFA-3F96BE143230}"/>
+    <hyperlink ref="G11" r:id="rId13" xr:uid="{7F719CB2-8B34-4A47-8AB2-11A150ECAA5B}"/>
+    <hyperlink ref="G94" r:id="rId14" xr:uid="{40D76283-D72C-4222-8FB8-B4531115EFAD}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/Data/Data_Raw/Country codes & metadata/metadata.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="13_ncr:1_{29A47490-2D27-4D0C-B372-38E790C58E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ADE8585-86AE-4CEB-8663-F810A9C57CF4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6F0A26-7643-4184-A5F5-814700B81D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18975" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="501">
   <si>
     <t>name_portal</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>Numerator: Estimated number of new HIV infections. Denominator:  Total number of uninfected population</t>
-  </si>
-  <si>
-    <t>HVA_EPI_INF_RT_1019</t>
   </si>
   <si>
     <t>HVA_PED_ART_CVG</t>
@@ -550,9 +547,6 @@
   </si>
   <si>
     <t>Numerator: Number of children aged 5-17 years who are engaged in child labour (economic activities) during the reference period, usually the week prior to the survey. Denominator: Number of children aged 5-17 years</t>
-  </si>
-  <si>
-    <t>PT_CHLD_517_LBR_ECON</t>
   </si>
   <si>
     <t>asr</t>
@@ -1426,18 +1420,12 @@
     <t>out_school</t>
   </si>
   <si>
-    <t>OFST_1_CP</t>
-  </si>
-  <si>
     <t>4.6.2.Youth literacy rate, population 15-24 years, both sexes (%)</t>
   </si>
   <si>
     <t>The youth literacy rate is defined by the percentage of the population aged 15 to 24 years that can read and write. It is typically measured according to the ability to comprehend a short simple statement on everyday life. Generally, literacy also encompasses numeracy, and measurement may incorporate a simple assessment of arithmetic ability. </t>
   </si>
   <si>
-    <t>LR_Ag15t24.</t>
-  </si>
-  <si>
     <t>Early childbearing - percentage of women (aged 20-24 years) who gave birth before age 18</t>
   </si>
   <si>
@@ -1556,6 +1544,12 @@
   </si>
   <si>
     <t>https://data.worldbank.org/indicator/SH.XPD.CHEX.GD.ZS</t>
+  </si>
+  <si>
+    <t>PT_CHLD_5_17_LBR_ECON</t>
+  </si>
+  <si>
+    <t>HVA_EPI_INF_RT_10_19</t>
   </si>
 </sst>
 </file>
@@ -1649,7 +1643,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1663,10 +1657,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1957,11 +1947,11 @@
   <dimension ref="A1:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A137" sqref="A137"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
@@ -2004,7 +1994,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -2013,22 +2003,22 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="E2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -2036,7 +2026,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -2048,19 +2038,19 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
@@ -2068,7 +2058,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -2080,19 +2070,19 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J4">
         <v>4</v>
@@ -2103,7 +2093,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -2115,19 +2105,19 @@
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -2153,10 +2143,10 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2176,10 +2166,10 @@
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2199,10 +2189,10 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J8">
         <v>5</v>
@@ -2228,10 +2218,10 @@
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2254,10 +2244,10 @@
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2265,7 +2255,7 @@
         <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>500</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -2280,143 +2270,143 @@
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
         <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
         <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
         <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
         <v>52</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>53</v>
-      </c>
-      <c r="F14" t="s">
-        <v>54</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
         <v>56</v>
       </c>
-      <c r="E15" t="s">
-        <v>57</v>
-      </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I16" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J16">
         <v>6</v>
@@ -2424,598 +2414,598 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
         <v>59</v>
-      </c>
-      <c r="B17" t="s">
-        <v>60</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
         <v>61</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>62</v>
-      </c>
-      <c r="F17" t="s">
-        <v>63</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J17">
         <v>15</v>
       </c>
       <c r="K17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
         <v>65</v>
-      </c>
-      <c r="B18" t="s">
-        <v>66</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
         <v>67</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>68</v>
-      </c>
-      <c r="F18" t="s">
-        <v>69</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J18">
         <v>10</v>
       </c>
       <c r="K18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
         <v>70</v>
-      </c>
-      <c r="B19" t="s">
-        <v>71</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" t="s">
         <v>72</v>
       </c>
-      <c r="E19" t="s">
-        <v>73</v>
-      </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I19" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
         <v>74</v>
-      </c>
-      <c r="B20" t="s">
-        <v>75</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
         <v>76</v>
       </c>
-      <c r="E20" t="s">
-        <v>77</v>
-      </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J20">
         <v>8</v>
       </c>
       <c r="K20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
         <v>78</v>
-      </c>
-      <c r="B21" t="s">
-        <v>79</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" t="s">
         <v>80</v>
       </c>
-      <c r="E21" t="s">
-        <v>81</v>
-      </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
         <v>82</v>
-      </c>
-      <c r="B22" t="s">
-        <v>83</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
       </c>
       <c r="D22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" t="s">
         <v>84</v>
       </c>
-      <c r="E22" t="s">
-        <v>85</v>
-      </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G22" t="s">
         <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I22" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
         <v>86</v>
-      </c>
-      <c r="B23" t="s">
-        <v>87</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
       </c>
       <c r="D23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" t="s">
         <v>88</v>
       </c>
-      <c r="E23" t="s">
-        <v>89</v>
-      </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G23" t="s">
         <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I23" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" t="s">
         <v>90</v>
-      </c>
-      <c r="B24" t="s">
-        <v>91</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
       </c>
       <c r="D24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" t="s">
         <v>92</v>
       </c>
-      <c r="E24" t="s">
-        <v>93</v>
-      </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I24" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" t="s">
         <v>94</v>
-      </c>
-      <c r="B25" t="s">
-        <v>95</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
       </c>
       <c r="D25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" t="s">
         <v>96</v>
       </c>
-      <c r="E25" t="s">
-        <v>97</v>
-      </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G25" t="s">
         <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" t="s">
         <v>98</v>
-      </c>
-      <c r="B26" t="s">
-        <v>99</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
       </c>
       <c r="D26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" t="s">
         <v>100</v>
       </c>
-      <c r="E26" t="s">
-        <v>101</v>
-      </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I26" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
         <v>102</v>
-      </c>
-      <c r="B27" t="s">
-        <v>103</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
       </c>
       <c r="D27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" t="s">
         <v>104</v>
       </c>
-      <c r="E27" t="s">
-        <v>105</v>
-      </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I27" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" t="s">
         <v>106</v>
-      </c>
-      <c r="B28" t="s">
-        <v>107</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
       </c>
       <c r="D28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" t="s">
         <v>108</v>
       </c>
-      <c r="E28" t="s">
-        <v>109</v>
-      </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G28" t="s">
         <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I28" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" t="s">
         <v>110</v>
-      </c>
-      <c r="B29" t="s">
-        <v>111</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
       </c>
       <c r="D29" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" t="s">
         <v>112</v>
       </c>
-      <c r="E29" t="s">
-        <v>113</v>
-      </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G29" t="s">
         <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I29" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
         <v>114</v>
-      </c>
-      <c r="B30" t="s">
-        <v>115</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
       </c>
       <c r="D30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" t="s">
         <v>116</v>
       </c>
-      <c r="E30" t="s">
-        <v>117</v>
-      </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G30" t="s">
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I30" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
       </c>
       <c r="D31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" t="s">
         <v>119</v>
       </c>
-      <c r="E31" t="s">
-        <v>120</v>
-      </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G31" t="s">
         <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I31" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" t="s">
         <v>121</v>
-      </c>
-      <c r="B32" t="s">
-        <v>122</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
       </c>
       <c r="D32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" t="s">
         <v>123</v>
       </c>
-      <c r="E32" t="s">
-        <v>124</v>
-      </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G32" t="s">
         <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I32" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" t="s">
         <v>125</v>
-      </c>
-      <c r="B33" t="s">
-        <v>126</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
       </c>
       <c r="D33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" t="s">
         <v>127</v>
       </c>
-      <c r="E33" t="s">
-        <v>128</v>
-      </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G33" t="s">
         <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I33" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
       </c>
       <c r="D34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" t="s">
         <v>130</v>
       </c>
-      <c r="E34" t="s">
-        <v>131</v>
-      </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G34" t="s">
         <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I34" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
       </c>
       <c r="D35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" t="s">
         <v>133</v>
       </c>
-      <c r="E35" t="s">
-        <v>134</v>
-      </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G35" t="s">
         <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I35" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J35">
         <v>11</v>
@@ -3023,298 +3013,298 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
       </c>
       <c r="D36" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" t="s">
         <v>136</v>
       </c>
-      <c r="E36" t="s">
-        <v>137</v>
-      </c>
       <c r="F36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G36" t="s">
         <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I36" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" t="s">
         <v>138</v>
-      </c>
-      <c r="B37" t="s">
-        <v>139</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
       </c>
       <c r="D37" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" t="s">
         <v>140</v>
       </c>
-      <c r="E37" t="s">
-        <v>141</v>
-      </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G37" t="s">
         <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I37" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
       </c>
       <c r="D38" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" t="s">
         <v>143</v>
       </c>
-      <c r="E38" t="s">
-        <v>144</v>
-      </c>
       <c r="F38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G38" t="s">
         <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I38" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J38">
         <v>3</v>
       </c>
       <c r="K38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
       </c>
       <c r="D39" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" t="s">
         <v>147</v>
       </c>
-      <c r="E39" t="s">
-        <v>148</v>
-      </c>
       <c r="F39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G39" t="s">
         <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I39" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
       </c>
       <c r="D40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E40" t="s">
         <v>150</v>
       </c>
-      <c r="E40" t="s">
-        <v>151</v>
-      </c>
       <c r="F40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G40" t="s">
         <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I40" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" t="s">
         <v>152</v>
-      </c>
-      <c r="B41" t="s">
-        <v>153</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
       </c>
       <c r="D41" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" t="s">
         <v>154</v>
       </c>
-      <c r="E41" t="s">
-        <v>155</v>
-      </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G41" t="s">
         <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I41" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" t="s">
         <v>156</v>
-      </c>
-      <c r="B42" t="s">
-        <v>157</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
       </c>
       <c r="D42" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" t="s">
         <v>158</v>
       </c>
-      <c r="E42" t="s">
-        <v>159</v>
-      </c>
       <c r="F42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G42" t="s">
         <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I42" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" t="s">
         <v>160</v>
-      </c>
-      <c r="B43" t="s">
-        <v>161</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
       </c>
       <c r="D43" t="s">
+        <v>161</v>
+      </c>
+      <c r="E43" t="s">
         <v>162</v>
       </c>
-      <c r="E43" t="s">
-        <v>163</v>
-      </c>
       <c r="F43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G43" t="s">
         <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I43" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" t="s">
         <v>164</v>
-      </c>
-      <c r="B44" t="s">
-        <v>165</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
       </c>
       <c r="D44" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" t="s">
         <v>166</v>
       </c>
-      <c r="E44" t="s">
-        <v>167</v>
-      </c>
       <c r="F44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G44" t="s">
         <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I44" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>499</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
       <c r="D45" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" t="s">
         <v>169</v>
       </c>
-      <c r="E45" t="s">
-        <v>170</v>
-      </c>
       <c r="F45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G45" t="s">
         <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I45" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -3322,31 +3312,31 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" t="s">
         <v>172</v>
       </c>
-      <c r="B46" t="s">
-        <v>172</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="E46" t="s">
         <v>173</v>
       </c>
-      <c r="D46" t="s">
+      <c r="F46" t="s">
         <v>174</v>
       </c>
-      <c r="E46" t="s">
+      <c r="G46" t="s">
         <v>175</v>
       </c>
-      <c r="F46" t="s">
-        <v>176</v>
-      </c>
-      <c r="G46" t="s">
-        <v>177</v>
-      </c>
       <c r="H46" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I46" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3354,641 +3344,641 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>176</v>
+      </c>
+      <c r="B47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47" t="s">
+        <v>177</v>
+      </c>
+      <c r="E47" t="s">
         <v>178</v>
       </c>
-      <c r="B47" t="s">
-        <v>178</v>
-      </c>
-      <c r="C47" t="s">
-        <v>173</v>
-      </c>
-      <c r="D47" t="s">
-        <v>179</v>
-      </c>
-      <c r="E47" t="s">
-        <v>180</v>
-      </c>
       <c r="F47" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G47" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H47" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I47" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J47">
         <v>6</v>
       </c>
       <c r="K47" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E48" t="s">
         <v>182</v>
       </c>
-      <c r="B48" t="s">
-        <v>182</v>
-      </c>
-      <c r="C48" t="s">
-        <v>173</v>
-      </c>
-      <c r="D48" t="s">
-        <v>183</v>
-      </c>
-      <c r="E48" t="s">
-        <v>184</v>
-      </c>
       <c r="F48" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G48" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H48" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I48" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" t="s">
+        <v>185</v>
+      </c>
+      <c r="E49" t="s">
         <v>186</v>
       </c>
-      <c r="B49" t="s">
-        <v>186</v>
-      </c>
-      <c r="C49" t="s">
-        <v>173</v>
-      </c>
-      <c r="D49" t="s">
-        <v>187</v>
-      </c>
-      <c r="E49" t="s">
-        <v>188</v>
-      </c>
       <c r="F49" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G49" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H49" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I49" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J49">
         <v>7</v>
       </c>
       <c r="K49" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>188</v>
+      </c>
+      <c r="B50" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50" t="s">
+        <v>189</v>
+      </c>
+      <c r="E50" t="s">
         <v>190</v>
       </c>
-      <c r="B50" t="s">
-        <v>190</v>
-      </c>
-      <c r="C50" t="s">
-        <v>173</v>
-      </c>
-      <c r="D50" t="s">
-        <v>191</v>
-      </c>
-      <c r="E50" t="s">
-        <v>192</v>
-      </c>
       <c r="F50" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G50" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I50" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>192</v>
+      </c>
+      <c r="B51" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" t="s">
+        <v>193</v>
+      </c>
+      <c r="E51" t="s">
         <v>194</v>
       </c>
-      <c r="B51" t="s">
-        <v>194</v>
-      </c>
-      <c r="C51" t="s">
-        <v>173</v>
-      </c>
-      <c r="D51" t="s">
-        <v>195</v>
-      </c>
-      <c r="E51" t="s">
-        <v>196</v>
-      </c>
       <c r="F51" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H51" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I51" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" t="s">
+        <v>196</v>
+      </c>
+      <c r="E52" t="s">
         <v>197</v>
       </c>
-      <c r="B52" t="s">
-        <v>197</v>
-      </c>
-      <c r="C52" t="s">
-        <v>173</v>
-      </c>
-      <c r="D52" t="s">
-        <v>198</v>
-      </c>
-      <c r="E52" t="s">
-        <v>199</v>
-      </c>
       <c r="F52" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G52" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H52" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I52" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>198</v>
+      </c>
+      <c r="B53" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53" t="s">
+        <v>171</v>
+      </c>
+      <c r="D53" t="s">
+        <v>199</v>
+      </c>
+      <c r="E53" t="s">
         <v>200</v>
       </c>
-      <c r="B53" t="s">
-        <v>200</v>
-      </c>
-      <c r="C53" t="s">
-        <v>173</v>
-      </c>
-      <c r="D53" t="s">
-        <v>201</v>
-      </c>
-      <c r="E53" t="s">
-        <v>202</v>
-      </c>
       <c r="F53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G53" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H53" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I53" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>201</v>
+      </c>
+      <c r="B54" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" t="s">
+        <v>202</v>
+      </c>
+      <c r="E54" t="s">
         <v>203</v>
       </c>
-      <c r="B54" t="s">
-        <v>203</v>
-      </c>
-      <c r="C54" t="s">
-        <v>173</v>
-      </c>
-      <c r="D54" t="s">
-        <v>204</v>
-      </c>
-      <c r="E54" t="s">
-        <v>205</v>
-      </c>
       <c r="F54" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H54" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I54" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J54">
         <v>8</v>
       </c>
       <c r="K54" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>204</v>
+      </c>
+      <c r="B55" t="s">
+        <v>204</v>
+      </c>
+      <c r="H55" t="s">
+        <v>392</v>
+      </c>
+      <c r="I55" t="s">
+        <v>382</v>
+      </c>
+      <c r="K55" t="s">
         <v>206</v>
-      </c>
-      <c r="B55" t="s">
-        <v>206</v>
-      </c>
-      <c r="H55" t="s">
-        <v>394</v>
-      </c>
-      <c r="I55" t="s">
-        <v>384</v>
-      </c>
-      <c r="K55" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B56" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C56" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H56" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I56" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K56" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B57" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C57" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D57" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H57" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I57" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J57">
         <v>3</v>
       </c>
       <c r="K57" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B58" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C58" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H58" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I58" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K58" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B59" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C59" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H59" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I59" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J59">
         <v>6</v>
       </c>
       <c r="K59" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B60" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D60" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H60" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I60" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J60">
         <v>2</v>
       </c>
       <c r="K60" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B61" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C61" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D61" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H61" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I61" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J61">
         <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B62" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C62" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H62" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I62" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K62" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B63" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C63" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H63" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I63" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K63" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B64" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C64" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D64" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H64" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I64" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J64">
         <v>3</v>
       </c>
       <c r="K64" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B65" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C65" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H65" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I65" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K65" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B66" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C66" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D66" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H66" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I66" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J66">
         <v>2</v>
       </c>
       <c r="K66" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B67" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C67" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D67" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H67" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I67" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J67">
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B68" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C68" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D68" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H68" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I68" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K68" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B69" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C69" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D69" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H69" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I69" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J69">
         <v>4</v>
       </c>
       <c r="K69" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B70" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C70" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H70" t="s">
         <v>12</v>
@@ -3997,469 +3987,469 @@
         <v>12</v>
       </c>
       <c r="K70" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B71" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C71" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D71" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H71" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I71" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J71">
         <v>10</v>
       </c>
       <c r="K71" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B72" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C72" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D72" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H72" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I72" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J72">
         <v>11</v>
       </c>
       <c r="K72" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B73" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C73" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D73" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H73" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I73" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J73">
         <v>13</v>
       </c>
       <c r="K73" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B74" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C74" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D74" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H74" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I74" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J74">
         <v>12</v>
       </c>
       <c r="K74" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B75" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C75" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D75" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H75" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I75" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J75">
         <v>3</v>
       </c>
       <c r="K75" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B76" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C76" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D76" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H76" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I76" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J76">
         <v>7</v>
       </c>
       <c r="K76" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B77" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C77" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D77" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H77" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I77" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J77">
         <v>4</v>
       </c>
       <c r="K77" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B78" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D78" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H78" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I78" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J78">
         <v>6</v>
       </c>
       <c r="K78" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B79" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C79" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D79" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H79" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I79" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J79">
         <v>1</v>
       </c>
       <c r="K79" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B80" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C80" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H80" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K80" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>252</v>
+      </c>
+      <c r="B81" t="s">
+        <v>252</v>
+      </c>
+      <c r="C81" t="s">
+        <v>171</v>
+      </c>
+      <c r="D81" t="s">
+        <v>253</v>
+      </c>
+      <c r="E81" t="s">
         <v>254</v>
       </c>
-      <c r="B81" t="s">
-        <v>254</v>
-      </c>
-      <c r="C81" t="s">
-        <v>173</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="F81" t="s">
         <v>255</v>
       </c>
-      <c r="E81" t="s">
+      <c r="G81" t="s">
         <v>256</v>
       </c>
-      <c r="F81" t="s">
-        <v>257</v>
-      </c>
-      <c r="G81" t="s">
-        <v>258</v>
-      </c>
       <c r="H81" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I81" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J81">
         <v>1</v>
       </c>
       <c r="K81" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B82" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C82" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D82" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H82" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I82" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J82">
         <v>1</v>
       </c>
       <c r="K82" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B83" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C83" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D83" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H83" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I83" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J83">
         <v>3</v>
       </c>
       <c r="K83" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B84" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C84" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D84" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H84" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I84" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J84">
         <v>5</v>
       </c>
       <c r="K84" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B85" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C85" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D85" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H85" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I85" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J85">
         <v>2</v>
       </c>
       <c r="K85" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B86" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C86" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D86" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H86" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I86" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J86">
         <v>5</v>
       </c>
       <c r="K86" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B87" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C87" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D87" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H87" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I87" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J87">
         <v>2</v>
       </c>
       <c r="K87" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B88" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C88" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D88" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H88" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I88" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J88">
         <v>2</v>
@@ -4470,120 +4460,120 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B89" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C89" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H89" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I89" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J89">
         <v>2</v>
       </c>
       <c r="K89" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B90" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C90" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D90" t="s">
+        <v>365</v>
+      </c>
+      <c r="H90" t="s">
         <v>367</v>
       </c>
-      <c r="H90" t="s">
-        <v>369</v>
-      </c>
       <c r="I90" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J90">
         <v>1</v>
       </c>
       <c r="K90" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B91" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C91" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D91" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H91" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I91" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J91">
         <v>3</v>
       </c>
       <c r="K91" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B92" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C92" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D92" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H92" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I92" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J92">
         <v>2</v>
       </c>
       <c r="K92" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B93" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C93" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D93" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E93" t="s">
         <v>12</v>
@@ -4592,13 +4582,13 @@
         <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H93" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I93" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J93">
         <v>5</v>
@@ -4606,418 +4596,418 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>277</v>
+      </c>
+      <c r="B94" t="s">
+        <v>277</v>
+      </c>
+      <c r="C94" t="s">
+        <v>278</v>
+      </c>
+      <c r="D94" t="s">
         <v>279</v>
       </c>
-      <c r="B94" t="s">
-        <v>279</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="E94" t="s">
         <v>280</v>
       </c>
-      <c r="D94" t="s">
+      <c r="G94" t="s">
         <v>281</v>
       </c>
-      <c r="E94" t="s">
-        <v>282</v>
-      </c>
-      <c r="G94" t="s">
-        <v>283</v>
-      </c>
       <c r="H94" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I94" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B95" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E95" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G95" t="s">
         <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I95" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B96" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E96" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G96" t="s">
         <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I96" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B97" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
       </c>
       <c r="D97" t="s">
+        <v>287</v>
+      </c>
+      <c r="E97" t="s">
+        <v>288</v>
+      </c>
+      <c r="F97" t="s">
         <v>289</v>
-      </c>
-      <c r="E97" t="s">
-        <v>290</v>
-      </c>
-      <c r="F97" t="s">
-        <v>291</v>
       </c>
       <c r="G97" t="s">
         <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I97" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J97">
         <v>4</v>
       </c>
       <c r="K97" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B98" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C98" t="s">
         <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E98" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F98" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G98" t="s">
         <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I98" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J98">
         <v>5</v>
       </c>
       <c r="K98" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B99" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C99" t="s">
         <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E99" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F99" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G99" t="s">
         <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I99" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J99">
         <v>1</v>
       </c>
       <c r="K99" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B100" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C100" t="s">
         <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E100" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F100" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G100" t="s">
         <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I100" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J100">
         <v>13</v>
       </c>
       <c r="K100" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B101" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E101" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F101" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G101" t="s">
         <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I101" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J101">
         <v>14</v>
       </c>
       <c r="K101" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B102" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C102" t="s">
         <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E102" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F102" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G102" t="s">
         <v>14</v>
       </c>
       <c r="K102" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B103" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C103" t="s">
         <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E103" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F103" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G103" t="s">
         <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I103" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J103">
         <v>3</v>
       </c>
       <c r="K103" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B104" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C104" t="s">
         <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E104" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F104" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G104" t="s">
         <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I104" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J104">
         <v>4</v>
       </c>
       <c r="K104" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B105" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C105" t="s">
         <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E105" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F105" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G105" t="s">
         <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I105" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K105" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B106" t="s">
+        <v>320</v>
+      </c>
+      <c r="C106" t="s">
+        <v>321</v>
+      </c>
+      <c r="D106" t="s">
         <v>322</v>
       </c>
-      <c r="C106" t="s">
+      <c r="E106" t="s">
+        <v>322</v>
+      </c>
+      <c r="F106" t="s">
         <v>323</v>
       </c>
-      <c r="D106" t="s">
+      <c r="G106" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E106" t="s">
-        <v>324</v>
-      </c>
-      <c r="F106" t="s">
-        <v>325</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>326</v>
-      </c>
       <c r="H106" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I106" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J106">
         <v>5</v>
@@ -5025,31 +5015,31 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>325</v>
+      </c>
+      <c r="B107" t="s">
+        <v>325</v>
+      </c>
+      <c r="C107" t="s">
+        <v>321</v>
+      </c>
+      <c r="D107" t="s">
+        <v>326</v>
+      </c>
+      <c r="E107" t="s">
         <v>327</v>
       </c>
-      <c r="B107" t="s">
-        <v>327</v>
-      </c>
-      <c r="C107" t="s">
-        <v>323</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="F107" t="s">
         <v>328</v>
       </c>
-      <c r="E107" t="s">
-        <v>329</v>
-      </c>
-      <c r="F107" t="s">
-        <v>330</v>
-      </c>
       <c r="G107" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H107" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I107" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J107">
         <v>2</v>
@@ -5057,31 +5047,31 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>329</v>
+      </c>
+      <c r="B108" t="s">
+        <v>329</v>
+      </c>
+      <c r="C108" t="s">
+        <v>321</v>
+      </c>
+      <c r="D108" t="s">
+        <v>330</v>
+      </c>
+      <c r="E108" t="s">
         <v>331</v>
       </c>
-      <c r="B108" t="s">
-        <v>331</v>
-      </c>
-      <c r="C108" t="s">
-        <v>323</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="F108" t="s">
         <v>332</v>
       </c>
-      <c r="E108" t="s">
-        <v>333</v>
-      </c>
-      <c r="F108" t="s">
-        <v>334</v>
-      </c>
       <c r="G108" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H108" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I108" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -5089,13 +5079,13 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B109" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C109" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D109" t="s">
         <v>12</v>
@@ -5109,16 +5099,16 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B110" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C110" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D110" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E110" t="s">
         <v>12</v>
@@ -5127,13 +5117,13 @@
         <v>12</v>
       </c>
       <c r="G110" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H110" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I110" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J110">
         <v>4</v>
@@ -5141,28 +5131,28 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>337</v>
+      </c>
+      <c r="B111" t="s">
+        <v>337</v>
+      </c>
+      <c r="C111" t="s">
+        <v>278</v>
+      </c>
+      <c r="D111" t="s">
+        <v>338</v>
+      </c>
+      <c r="E111" t="s">
         <v>339</v>
       </c>
-      <c r="B111" t="s">
-        <v>339</v>
-      </c>
-      <c r="C111" t="s">
-        <v>280</v>
-      </c>
-      <c r="D111" t="s">
-        <v>340</v>
-      </c>
-      <c r="E111" t="s">
-        <v>341</v>
-      </c>
       <c r="G111" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H111" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I111" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J111">
         <v>9</v>
@@ -5170,31 +5160,31 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>340</v>
+      </c>
+      <c r="B112" t="s">
+        <v>340</v>
+      </c>
+      <c r="C112" t="s">
+        <v>321</v>
+      </c>
+      <c r="D112" t="s">
+        <v>341</v>
+      </c>
+      <c r="E112" t="s">
         <v>342</v>
       </c>
-      <c r="B112" t="s">
-        <v>342</v>
-      </c>
-      <c r="C112" t="s">
-        <v>323</v>
-      </c>
-      <c r="D112" t="s">
-        <v>343</v>
-      </c>
-      <c r="E112" t="s">
-        <v>344</v>
-      </c>
       <c r="F112" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G112" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H112" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I112" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J112">
         <v>6</v>
@@ -5202,31 +5192,31 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>343</v>
+      </c>
+      <c r="B113" t="s">
+        <v>343</v>
+      </c>
+      <c r="C113" t="s">
+        <v>321</v>
+      </c>
+      <c r="D113" t="s">
+        <v>344</v>
+      </c>
+      <c r="E113" t="s">
         <v>345</v>
       </c>
-      <c r="B113" t="s">
-        <v>345</v>
-      </c>
-      <c r="C113" t="s">
-        <v>323</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="F113" t="s">
         <v>346</v>
       </c>
-      <c r="E113" t="s">
-        <v>347</v>
-      </c>
-      <c r="F113" t="s">
-        <v>348</v>
-      </c>
       <c r="G113" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H113" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I113" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -5234,31 +5224,31 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>347</v>
+      </c>
+      <c r="B114" t="s">
+        <v>347</v>
+      </c>
+      <c r="C114" t="s">
+        <v>321</v>
+      </c>
+      <c r="D114" t="s">
+        <v>348</v>
+      </c>
+      <c r="E114" t="s">
         <v>349</v>
       </c>
-      <c r="B114" t="s">
-        <v>349</v>
-      </c>
-      <c r="C114" t="s">
-        <v>323</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="F114" t="s">
         <v>350</v>
       </c>
-      <c r="E114" t="s">
-        <v>351</v>
-      </c>
-      <c r="F114" t="s">
-        <v>352</v>
-      </c>
       <c r="G114" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H114" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I114" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J114">
         <v>9</v>
@@ -5266,94 +5256,94 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B115" t="s">
+        <v>351</v>
+      </c>
+      <c r="C115" t="s">
+        <v>352</v>
+      </c>
+      <c r="D115" t="s">
         <v>353</v>
       </c>
-      <c r="C115" t="s">
+      <c r="E115" t="s">
         <v>354</v>
       </c>
-      <c r="D115" t="s">
+      <c r="F115" t="s">
+        <v>68</v>
+      </c>
+      <c r="G115" t="s">
         <v>355</v>
       </c>
-      <c r="E115" t="s">
-        <v>356</v>
-      </c>
-      <c r="F115" t="s">
-        <v>69</v>
-      </c>
-      <c r="G115" t="s">
-        <v>357</v>
-      </c>
       <c r="H115" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I115" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B116" t="s">
+        <v>356</v>
+      </c>
+      <c r="C116" t="s">
+        <v>352</v>
+      </c>
+      <c r="D116" t="s">
+        <v>357</v>
+      </c>
+      <c r="E116" t="s">
         <v>358</v>
       </c>
-      <c r="C116" t="s">
-        <v>354</v>
-      </c>
-      <c r="D116" t="s">
-        <v>359</v>
-      </c>
-      <c r="E116" t="s">
-        <v>360</v>
-      </c>
       <c r="F116" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G116" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H116" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I116" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B117" t="s">
+        <v>359</v>
+      </c>
+      <c r="C117" t="s">
+        <v>352</v>
+      </c>
+      <c r="D117" t="s">
+        <v>360</v>
+      </c>
+      <c r="E117" t="s">
         <v>361</v>
       </c>
-      <c r="C117" t="s">
-        <v>354</v>
-      </c>
-      <c r="D117" t="s">
-        <v>362</v>
-      </c>
-      <c r="E117" t="s">
-        <v>363</v>
-      </c>
       <c r="F117" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G117" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H117" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I117" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B118" t="s">
         <v>11</v>
@@ -5362,22 +5352,22 @@
         <v>13</v>
       </c>
       <c r="D118" t="s">
+        <v>362</v>
+      </c>
+      <c r="E118" t="s">
+        <v>363</v>
+      </c>
+      <c r="F118" t="s">
         <v>364</v>
-      </c>
-      <c r="E118" t="s">
-        <v>365</v>
-      </c>
-      <c r="F118" t="s">
-        <v>366</v>
       </c>
       <c r="G118" t="s">
         <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I118" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J118">
         <v>12</v>
@@ -5388,444 +5378,444 @@
     </row>
     <row r="119" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C119" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="B119" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>445</v>
-      </c>
       <c r="D119" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="G119" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="F119" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="G119" s="6" t="s">
-        <v>446</v>
-      </c>
       <c r="H119" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="120" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C120" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="G120" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="D120" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>447</v>
-      </c>
       <c r="H120" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="121" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B121" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="G121" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C121" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>435</v>
-      </c>
       <c r="H121" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="122" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="E122" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="B122" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>442</v>
-      </c>
       <c r="F122" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="123" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>12</v>
+        <v>479</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="124" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>12</v>
+        <v>477</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="125" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>12</v>
+        <v>478</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="126" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>12</v>
+        <v>480</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="127" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>12</v>
+        <v>481</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="128" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>12</v>
+        <v>482</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="129" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="130" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="131" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="132" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="133" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="134" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B134" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="D134" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="C134" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>480</v>
-      </c>
       <c r="E134" s="5" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="135" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -5835,7 +5825,7 @@
       <formula1>1</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A218" xr:uid="{C9CEA4D8-9D09-46A7-AFBC-6B7076AE134A}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A218 B123:B130" xr:uid="{C9CEA4D8-9D09-46A7-AFBC-6B7076AE134A}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>

--- a/Data/Data_Raw/Country codes & metadata/metadata.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="386" documentId="13_ncr:1_{29A47490-2D27-4D0C-B372-38E790C58E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2020AC11-4115-4A87-A5E7-A8822AF7785E}"/>
+  <xr:revisionPtr revIDLastSave="628" documentId="13_ncr:1_{29A47490-2D27-4D0C-B372-38E790C58E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C3458A3-4AC2-446F-99D3-698ED1C55D1B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$137</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="563">
   <si>
     <t>name_portal</t>
   </si>
@@ -1249,9 +1249,6 @@
     <t>Adult informal employment rate (%), ages 25+</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Expenditure on education as a percentage of total government expenditure (%)</t>
   </si>
   <si>
@@ -1558,13 +1555,187 @@
     <t>https://data.worldbank.org/indicator/SH.XPD.CHEX.GD.ZS</t>
   </si>
   <si>
-    <t>Labour force participation (%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ages 25+</t>
-  </si>
-  <si>
-    <t>% of working-age population</t>
+    <t>CME_SBR</t>
+  </si>
+  <si>
+    <t>Proportion of students in Grade 2 or 3 achieving at least a minimum proficiency level in mathematics</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Proportion of students in Grade 2 or 3 achieving at least a minimum proficiency level in reading</t>
+  </si>
+  <si>
+    <t>Internally displaced persons of concern to UNHCR</t>
+  </si>
+  <si>
+    <t>Postpartum care coverage for mothers (%)</t>
+  </si>
+  <si>
+    <t>Percentage of women age 15-49 years who received a health check within 2 days after delivery of their most recent live birth in the last 2 years.</t>
+  </si>
+  <si>
+    <t>https://www.who.int/data/maternal-newborn-child-adolescent-ageing/indicator-explorer-new/mca/proportion-of-mothers-who-had-postnatal-contact-with-a-health-provider-within-2-days-of-delivery</t>
+  </si>
+  <si>
+    <t>Adult composite measure of labour underutilization, ages 25+</t>
+  </si>
+  <si>
+    <t>https://www.ilo.org/ilostat-files/WEB_bulk_download/indicator/</t>
+  </si>
+  <si>
+    <t>Adult inactivity rate (%), ages 25+</t>
+  </si>
+  <si>
+    <t>Proportion of the working-age population that is not in the labour force</t>
+  </si>
+  <si>
+    <t>[(persons in time-related underemployment + persons in unemployment +potential labour force) / (extended labour force)] x 100</t>
+  </si>
+  <si>
+    <t>Share of informal employment in total employment = Informal employment / Total employment  x 100</t>
+  </si>
+  <si>
+    <t>Adult potential labour force rate (%), ages 25+</t>
+  </si>
+  <si>
+    <t>The potential labour force is made up of 2 groups of people not in employment: the available potential jobseekers (available but not seeking), and. the unavailable jobseekers (not available but seeking).</t>
+  </si>
+  <si>
+    <t>Labour force participation rate = Labour force / Working-age population x 100 = (Persons employed + Persons unemployed) / Working-age population x 100</t>
+  </si>
+  <si>
+    <t>Unemployment rate = Persons unemployed / Labour force = Persons unemployed / (Persons employed + Persons unemployed) x 100</t>
+  </si>
+  <si>
+    <t>Share of youth not in employment, education or training (NEET) by sex and age. NEET rate = (Youth – Youth in employment – Youth not in employment but in education or training) / Youth x 100</t>
+  </si>
+  <si>
+    <t>Youth composite measure of labour underutilization, ages 15-24</t>
+  </si>
+  <si>
+    <t>Youth inactivity rate (%), ages 15-24</t>
+  </si>
+  <si>
+    <t>Youth potential labour force rate (%), ages 15-24</t>
+  </si>
+  <si>
+    <t>Percentage of a cohort of children or young people aged 3-5 years above the intended age for the last grade of each level of education who have completed that grade</t>
+  </si>
+  <si>
+    <t>Expenditure on education refers to expenditure on core educational goods and services, such as teaching staff, school buildings, or school books and teaching materials, and peripheral educational goods and services such as ancillary services, general administration and other activities. As percentage of total government expenditure.</t>
+  </si>
+  <si>
+    <t>UIS</t>
+  </si>
+  <si>
+    <t>Expenditure on education refers to expenditure on core educational goods and services, such as teaching staff, school buildings, or school books and teaching materials, and peripheral educational goods and services such as ancillary services, general administration and other activities. As percentage of GDP.</t>
+  </si>
+  <si>
+    <t>Gross enrolment ratio, early childhood educational development programmes (%)</t>
+  </si>
+  <si>
+    <t>Total enrolment in a specific level of education, regardless of age, expressed as a percentage of the eligible official school-age population corresponding to the same level of education in a given school year.</t>
+  </si>
+  <si>
+    <t>Percentage of pupils in each level of education (lower secondary education) who are at least 2 years above the intended age for their grade</t>
+  </si>
+  <si>
+    <t>Percentage of pupils in each level of education (primary education) who are at least 2 years above the intended age for their grade</t>
+  </si>
+  <si>
+    <t>Regularly and readily available sources of power (e.g. grid/mains connection, wind, water, solar and fuel-powered generator, etc.) that enable the adequate and sustainable use of ICT infrastructure for educational purposes.</t>
+  </si>
+  <si>
+    <t>Percentage of teachers by level of education taught who have at least the minimum academic qualifications required for teaching their subjects at the relevant level in a given country, in a given academic year.</t>
+  </si>
+  <si>
+    <t>Percentage of children (under age 5) with diarrhoea for whom advice or treatment was sought from a health facility or provider</t>
+  </si>
+  <si>
+    <t>https://data.unicef.org/resources/data_explorer/unicef_f/?ag=UNICEF&amp;df=GLOBAL_DATAFLOW&amp;ver=1.0&amp;dq=.MNCH_DIARCARE..&amp;startPeriod=2015&amp;endPeriod=2020</t>
+  </si>
+  <si>
+    <t>Percentage of infants 0–5 months of age who are fed exclusively with breast milk</t>
+  </si>
+  <si>
+    <t>2022, December</t>
+  </si>
+  <si>
+    <t>https://data.unicef.org/topic/nutrition/breastfeeding/</t>
+  </si>
+  <si>
+    <t>Children 6–23 months of age who consumed solid, semi-solid or soft foods at least the minimum number of times during the previous day</t>
+  </si>
+  <si>
+    <t>https://data.unicef.org/resources/data_explorer/unicef_f/?ag=UNICEF&amp;df=GLOBAL_DATAFLOW&amp;ver=1.0&amp;dq=.NT_CF_MMF..&amp;startPeriod=1993&amp;endPeriod=2023</t>
+  </si>
+  <si>
+    <t>Share of under-fives falling below minus 2 standard deviations (moderate and severe) and minus 3 standard deviations (severe) from the median height-for-age of the reference* population, among children under 5 years of age in the surveyed population</t>
+  </si>
+  <si>
+    <t>Stunting rate</t>
+  </si>
+  <si>
+    <t>https://data.unicef.org/topic/nutrition/malnutrition/</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate is the number of births per 1,000 women ages 15-19.</t>
+  </si>
+  <si>
+    <t>Cause of death refers to the share of all deaths for all ages by underlying causes. Non-communicable diseases include cancer, diabetes mellitus, cardiovascular diseases, digestive diseases, skin diseases, musculoskeletal diseases, and congenital anomalies.</t>
+  </si>
+  <si>
+    <t>Completeness of birth registration is the percentage of children under age 5 whose births were registered at the time of the survey. The numerator of completeness of birth registration includes children whose birth certificate was seen by the interviewer or whose mother or caretaker says the birth has been registered.</t>
+  </si>
+  <si>
+    <t>Life expectancy at birth indicates the number of years a newborn infant would live if prevailing patterns of mortality at the time of its birth were to stay the same throughout its life.</t>
+  </si>
+  <si>
+    <t>Lower secondary education completion rate is measured as the gross intake ratio to the last grade of lower secondary education (general and pre-vocational). It is calculated as the number of new entrants in the last grade of lower secondary education, regardless of age, divided by the population at the entrance age for the last grade of lower secondary education.</t>
+  </si>
+  <si>
+    <t>2022, October</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio is the number of women who die from pregnancy-related causes while pregnant or within 42 days of pregnancy termination per 100,000 live births.</t>
+  </si>
+  <si>
+    <t>https://data.unicef.org/topic/child-survival/neonatal-mortality/</t>
+  </si>
+  <si>
+    <t>Population mid-year estimates (millions)</t>
+  </si>
+  <si>
+    <t>https://population.un.org/wpp/</t>
+  </si>
+  <si>
+    <t>fixme</t>
+  </si>
+  <si>
+    <t>Asylum seekers</t>
+  </si>
+  <si>
+    <t>Primary completion rate, or gross intake ratio to the last grade of primary education, is the number of new entrants (enrollments minus repeaters) in the last grade of primary education, regardless of age, divided by the population at the entrance age for the last grade of primary education. Data limitations preclude adjusting for students who drop out during the final year of primary education.</t>
+  </si>
+  <si>
+    <t>Gross enrollment ratio is the ratio of total enrollment, regardless of age, to the population of the age group that officially corresponds to the level of education shown. Preprimary education refers to programs at the initial stage of organized instruction, designed primarily to introduce very young children to a school-type environment and to provide a bridge between home and school.</t>
+  </si>
+  <si>
+    <t>Gross enrollment ratio is the ratio of total enrollment, regardless of age, to the population of the age group that officially corresponds to the level of education shown. Secondary education completes the provision of basic education that began at the primary level, and aims at laying the foundations for lifelong learning and human development, by offering more subject- or skill-oriented instruction using more specialized teachers.</t>
+  </si>
+  <si>
+    <t>Gross enrollment ratio is the ratio of total enrollment, regardless of age, to the population of the age group that officially corresponds to the level of education shown. Tertiary education, whether or not to an advanced research qualification, normally requires, as a minimum condition of admission, the successful completion of education at the secondary level.</t>
+  </si>
+  <si>
+    <t>Youth/adult unemployment ratio</t>
+  </si>
+  <si>
+    <t>Youth unemployment (%), ages 15-24/ Unemployment, +25 (own calculation)</t>
+  </si>
+  <si>
+    <t>youth_adult_un</t>
   </si>
 </sst>
 </file>
@@ -1649,7 +1820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1663,6 +1834,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1970,12 +2144,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L136"/>
+  <dimension ref="A1:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J81" sqref="J81"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2019,12 +2192,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>502</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -2051,9 +2224,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -2065,10 +2238,10 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -2083,9 +2256,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -2097,10 +2270,10 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -2118,9 +2291,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -2132,10 +2305,10 @@
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -2164,6 +2337,12 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
+        <v>503</v>
+      </c>
+      <c r="E6" t="s">
+        <v>503</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
@@ -2174,6 +2353,9 @@
       </c>
       <c r="I6" t="s">
         <v>368</v>
+      </c>
+      <c r="K6" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2187,6 +2369,12 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
+        <v>505</v>
+      </c>
+      <c r="E7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
@@ -2199,7 +2387,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -2212,6 +2400,9 @@
       <c r="D8" t="s">
         <v>31</v>
       </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
       <c r="G8" t="s">
         <v>14</v>
       </c>
@@ -2222,7 +2413,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -2248,7 +2439,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -2274,33 +2465,36 @@
         <v>370</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="I11" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="J11" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -2326,7 +2520,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -2352,7 +2546,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -2381,9 +2575,9 @@
         <v>370</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -2410,7 +2604,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -2421,11 +2615,14 @@
         <v>277</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>506</v>
       </c>
       <c r="F16" t="s">
         <v>54</v>
       </c>
+      <c r="G16" t="s">
+        <v>278</v>
+      </c>
       <c r="H16" t="s">
         <v>394</v>
       </c>
@@ -2433,7 +2630,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -2468,7 +2665,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -2500,7 +2697,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -2535,7 +2732,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>74</v>
       </c>
@@ -2570,7 +2767,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -2602,7 +2799,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -2634,7 +2831,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -2666,7 +2863,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -2698,7 +2895,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -2730,7 +2927,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -2762,7 +2959,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -2794,7 +2991,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -2826,7 +3023,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -2855,7 +3052,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -2884,7 +3081,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -2913,7 +3110,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>121</v>
       </c>
@@ -2945,7 +3142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>125</v>
       </c>
@@ -2974,7 +3171,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>129</v>
       </c>
@@ -3003,9 +3200,9 @@
         <v>370</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B35" t="s">
         <v>132</v>
@@ -3035,7 +3232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>135</v>
       </c>
@@ -3064,7 +3261,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>138</v>
       </c>
@@ -3093,9 +3290,9 @@
         <v>370</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>142</v>
@@ -3128,50 +3325,50 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>146</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>146</v>
-      </c>
-      <c r="C39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" t="s">
-        <v>147</v>
-      </c>
-      <c r="E39" t="s">
-        <v>148</v>
-      </c>
-      <c r="F39" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" t="s">
-        <v>369</v>
-      </c>
-      <c r="I39" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>149</v>
-      </c>
-      <c r="B40" t="s">
-        <v>149</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E40" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F40" t="s">
         <v>54</v>
@@ -3186,21 +3383,21 @@
         <v>370</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B41" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E41" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F41" t="s">
         <v>54</v>
@@ -3215,21 +3412,21 @@
         <v>370</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E42" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F42" t="s">
         <v>54</v>
@@ -3244,21 +3441,21 @@
         <v>370</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B43" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E43" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F43" t="s">
         <v>54</v>
@@ -3273,21 +3470,21 @@
         <v>370</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B44" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E44" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F44" t="s">
         <v>54</v>
@@ -3302,21 +3499,21 @@
         <v>370</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E45" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F45" t="s">
         <v>54</v>
@@ -3325,62 +3522,59 @@
         <v>14</v>
       </c>
       <c r="H45" t="s">
+        <v>369</v>
+      </c>
+      <c r="I45" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" t="s">
+        <v>170</v>
+      </c>
+      <c r="F46" t="s">
+        <v>54</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
         <v>377</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I46" t="s">
         <v>384</v>
       </c>
-      <c r="J45">
+      <c r="J46">
         <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>172</v>
-      </c>
-      <c r="B46" t="s">
-        <v>172</v>
-      </c>
-      <c r="C46" t="s">
-        <v>173</v>
-      </c>
-      <c r="D46" t="s">
-        <v>174</v>
-      </c>
-      <c r="E46" t="s">
-        <v>175</v>
-      </c>
-      <c r="F46" t="s">
-        <v>176</v>
-      </c>
-      <c r="G46" t="s">
-        <v>177</v>
-      </c>
-      <c r="H46" t="s">
-        <v>394</v>
-      </c>
-      <c r="I46" t="s">
-        <v>370</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B47" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C47" t="s">
         <v>173</v>
       </c>
       <c r="D47" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E47" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F47" t="s">
         <v>176</v>
@@ -3389,30 +3583,30 @@
         <v>177</v>
       </c>
       <c r="H47" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="I47" t="s">
-        <v>368</v>
-      </c>
-      <c r="K47" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B48" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C48" t="s">
         <v>173</v>
       </c>
       <c r="D48" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E48" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F48" t="s">
         <v>176</v>
@@ -3421,30 +3615,30 @@
         <v>177</v>
       </c>
       <c r="H48" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="I48" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K48" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B49" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C49" t="s">
         <v>173</v>
       </c>
       <c r="D49" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E49" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F49" t="s">
         <v>176</v>
@@ -3453,30 +3647,30 @@
         <v>177</v>
       </c>
       <c r="H49" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="I49" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K49" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B50" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C50" t="s">
         <v>173</v>
       </c>
       <c r="D50" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E50" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F50" t="s">
         <v>176</v>
@@ -3485,30 +3679,30 @@
         <v>177</v>
       </c>
       <c r="H50" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="I50" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="K50" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B51" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C51" t="s">
         <v>173</v>
       </c>
       <c r="D51" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E51" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F51" t="s">
         <v>176</v>
@@ -3526,21 +3720,21 @@
         <v>193</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B52" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C52" t="s">
         <v>173</v>
       </c>
       <c r="D52" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E52" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F52" t="s">
         <v>176</v>
@@ -3558,21 +3752,21 @@
         <v>193</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B53" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C53" t="s">
         <v>173</v>
       </c>
       <c r="D53" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E53" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F53" t="s">
         <v>176</v>
@@ -3581,30 +3775,30 @@
         <v>177</v>
       </c>
       <c r="H53" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I53" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="K53" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B54" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C54" t="s">
         <v>173</v>
       </c>
       <c r="D54" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E54" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F54" t="s">
         <v>176</v>
@@ -3613,41 +3807,68 @@
         <v>177</v>
       </c>
       <c r="H54" t="s">
+        <v>369</v>
+      </c>
+      <c r="I54" t="s">
+        <v>370</v>
+      </c>
+      <c r="K54" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>203</v>
+      </c>
+      <c r="B55" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55" t="s">
+        <v>204</v>
+      </c>
+      <c r="E55" t="s">
+        <v>205</v>
+      </c>
+      <c r="F55" t="s">
+        <v>176</v>
+      </c>
+      <c r="G55" t="s">
+        <v>177</v>
+      </c>
+      <c r="H55" t="s">
         <v>377</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I55" t="s">
         <v>368</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K55" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>206</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>206</v>
       </c>
-      <c r="H55" t="s">
-        <v>394</v>
-      </c>
-      <c r="I55" t="s">
-        <v>384</v>
-      </c>
-      <c r="K55" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>209</v>
-      </c>
-      <c r="B56" t="s">
-        <v>209</v>
-      </c>
       <c r="C56" t="s">
-        <v>207</v>
+        <v>492</v>
+      </c>
+      <c r="D56" t="s">
+        <v>510</v>
+      </c>
+      <c r="E56" t="s">
+        <v>514</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>511</v>
       </c>
       <c r="H56" t="s">
         <v>394</v>
@@ -3656,21 +3877,30 @@
         <v>384</v>
       </c>
       <c r="K56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B57" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C57" t="s">
-        <v>207</v>
+        <v>492</v>
       </c>
       <c r="D57" t="s">
-        <v>399</v>
+        <v>512</v>
+      </c>
+      <c r="E57" t="s">
+        <v>513</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>511</v>
       </c>
       <c r="H57" t="s">
         <v>394</v>
@@ -3678,22 +3908,31 @@
       <c r="I57" t="s">
         <v>384</v>
       </c>
-      <c r="J57">
-        <v>3</v>
-      </c>
       <c r="K57" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B58" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C58" t="s">
-        <v>207</v>
+        <v>492</v>
+      </c>
+      <c r="D58" t="s">
+        <v>399</v>
+      </c>
+      <c r="E58" t="s">
+        <v>515</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>511</v>
       </c>
       <c r="H58" t="s">
         <v>394</v>
@@ -3701,48 +3940,66 @@
       <c r="I58" t="s">
         <v>384</v>
       </c>
+      <c r="J58">
+        <v>3</v>
+      </c>
       <c r="K58" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B59" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C59" t="s">
-        <v>207</v>
+        <v>492</v>
       </c>
       <c r="D59" t="s">
-        <v>397</v>
+        <v>516</v>
+      </c>
+      <c r="E59" t="s">
+        <v>517</v>
+      </c>
+      <c r="F59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>511</v>
       </c>
       <c r="H59" t="s">
         <v>394</v>
       </c>
       <c r="I59" t="s">
-        <v>370</v>
-      </c>
-      <c r="J59">
-        <v>6</v>
+        <v>384</v>
       </c>
       <c r="K59" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C60" t="s">
-        <v>207</v>
+        <v>492</v>
       </c>
       <c r="D60" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="E60" t="s">
+        <v>518</v>
+      </c>
+      <c r="F60" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>511</v>
       </c>
       <c r="H60" t="s">
         <v>394</v>
@@ -3751,47 +4008,68 @@
         <v>384</v>
       </c>
       <c r="J60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K60" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B61" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C61" t="s">
-        <v>207</v>
+        <v>492</v>
       </c>
       <c r="D61" t="s">
-        <v>391</v>
+        <v>398</v>
+      </c>
+      <c r="E61" t="s">
+        <v>519</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>511</v>
       </c>
       <c r="H61" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="I61" t="s">
         <v>384</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K61" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B62" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C62" t="s">
-        <v>207</v>
+        <v>492</v>
+      </c>
+      <c r="D62" t="s">
+        <v>391</v>
+      </c>
+      <c r="E62" t="s">
+        <v>520</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>511</v>
       </c>
       <c r="H62" t="s">
         <v>386</v>
@@ -3799,19 +4077,34 @@
       <c r="I62" t="s">
         <v>384</v>
       </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
       <c r="K62" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B63" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C63" t="s">
-        <v>207</v>
+        <v>492</v>
+      </c>
+      <c r="D63" t="s">
+        <v>521</v>
+      </c>
+      <c r="E63" t="s">
+        <v>514</v>
+      </c>
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>511</v>
       </c>
       <c r="H63" t="s">
         <v>386</v>
@@ -3820,21 +4113,30 @@
         <v>384</v>
       </c>
       <c r="K63" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B64" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C64" t="s">
-        <v>207</v>
+        <v>492</v>
       </c>
       <c r="D64" t="s">
-        <v>393</v>
+        <v>522</v>
+      </c>
+      <c r="E64" t="s">
+        <v>513</v>
+      </c>
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>511</v>
       </c>
       <c r="H64" t="s">
         <v>386</v>
@@ -3842,22 +4144,31 @@
       <c r="I64" t="s">
         <v>384</v>
       </c>
-      <c r="J64">
-        <v>4</v>
-      </c>
       <c r="K64" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B65" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C65" t="s">
-        <v>207</v>
+        <v>492</v>
+      </c>
+      <c r="D65" t="s">
+        <v>393</v>
+      </c>
+      <c r="E65" t="s">
+        <v>515</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>511</v>
       </c>
       <c r="H65" t="s">
         <v>386</v>
@@ -3865,22 +4176,34 @@
       <c r="I65" t="s">
         <v>384</v>
       </c>
+      <c r="J65">
+        <v>4</v>
+      </c>
       <c r="K65" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C66" t="s">
-        <v>207</v>
+        <v>492</v>
       </c>
       <c r="D66" t="s">
-        <v>392</v>
+        <v>523</v>
+      </c>
+      <c r="E66" t="s">
+        <v>517</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>511</v>
       </c>
       <c r="H66" t="s">
         <v>386</v>
@@ -3888,74 +4211,101 @@
       <c r="I66" t="s">
         <v>384</v>
       </c>
-      <c r="J66">
-        <v>2</v>
-      </c>
       <c r="K66" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B67" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C67" t="s">
-        <v>207</v>
+        <v>492</v>
       </c>
       <c r="D67" t="s">
-        <v>385</v>
+        <v>392</v>
+      </c>
+      <c r="E67" t="s">
+        <v>519</v>
+      </c>
+      <c r="F67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>511</v>
       </c>
       <c r="H67" t="s">
         <v>386</v>
       </c>
       <c r="I67" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="J67">
         <v>2</v>
       </c>
       <c r="K67" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B68" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C68" t="s">
-        <v>207</v>
+        <v>492</v>
       </c>
       <c r="D68" t="s">
-        <v>401</v>
+        <v>385</v>
+      </c>
+      <c r="E68" t="s">
+        <v>524</v>
+      </c>
+      <c r="F68" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>456</v>
       </c>
       <c r="H68" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="I68" t="s">
         <v>368</v>
       </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
       <c r="K68" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B69" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C69" t="s">
-        <v>207</v>
+        <v>526</v>
       </c>
       <c r="D69" t="s">
-        <v>430</v>
+        <v>400</v>
+      </c>
+      <c r="E69" t="s">
+        <v>525</v>
+      </c>
+      <c r="F69" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>456</v>
       </c>
       <c r="H69" t="s">
         <v>377</v>
@@ -3964,67 +4314,94 @@
         <v>368</v>
       </c>
       <c r="K69" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>232</v>
+      </c>
+      <c r="B70" t="s">
+        <v>232</v>
+      </c>
+      <c r="C70" t="s">
+        <v>526</v>
+      </c>
+      <c r="D70" t="s">
+        <v>429</v>
+      </c>
+      <c r="E70" t="s">
+        <v>527</v>
+      </c>
+      <c r="F70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>456</v>
+      </c>
+      <c r="H70" t="s">
+        <v>377</v>
+      </c>
+      <c r="I70" t="s">
+        <v>368</v>
+      </c>
+      <c r="K70" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>234</v>
-      </c>
-      <c r="B70" t="s">
-        <v>234</v>
-      </c>
-      <c r="C70" t="s">
-        <v>207</v>
-      </c>
-      <c r="H70" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70" t="s">
-        <v>12</v>
-      </c>
-      <c r="K70" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B71" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C71" t="s">
-        <v>207</v>
+        <v>526</v>
       </c>
       <c r="D71" t="s">
-        <v>380</v>
+        <v>528</v>
+      </c>
+      <c r="E71" t="s">
+        <v>529</v>
+      </c>
+      <c r="F71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>456</v>
       </c>
       <c r="H71" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="I71" t="s">
         <v>368</v>
       </c>
-      <c r="J71">
-        <v>7</v>
-      </c>
       <c r="K71" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B72" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C72" t="s">
-        <v>207</v>
+        <v>526</v>
       </c>
       <c r="D72" t="s">
-        <v>381</v>
+        <v>380</v>
+      </c>
+      <c r="E72" t="s">
+        <v>530</v>
+      </c>
+      <c r="F72" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>456</v>
       </c>
       <c r="H72" t="s">
         <v>377</v>
@@ -4033,7 +4410,7 @@
         <v>368</v>
       </c>
       <c r="J72">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K72" t="s">
         <v>237</v>
@@ -4041,16 +4418,25 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B73" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C73" t="s">
-        <v>207</v>
+        <v>526</v>
       </c>
       <c r="D73" t="s">
-        <v>383</v>
+        <v>381</v>
+      </c>
+      <c r="E73" t="s">
+        <v>531</v>
+      </c>
+      <c r="F73" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>456</v>
       </c>
       <c r="H73" t="s">
         <v>377</v>
@@ -4059,24 +4445,33 @@
         <v>368</v>
       </c>
       <c r="J73">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K73" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B74" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C74" t="s">
-        <v>207</v>
+        <v>526</v>
       </c>
       <c r="D74" t="s">
-        <v>382</v>
+        <v>383</v>
+      </c>
+      <c r="E74" t="s">
+        <v>532</v>
+      </c>
+      <c r="F74" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>456</v>
       </c>
       <c r="H74" t="s">
         <v>377</v>
@@ -4085,76 +4480,97 @@
         <v>368</v>
       </c>
       <c r="J74">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K74" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B75" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C75" t="s">
-        <v>207</v>
+        <v>526</v>
       </c>
       <c r="D75" t="s">
-        <v>388</v>
+        <v>382</v>
+      </c>
+      <c r="E75" t="s">
+        <v>533</v>
+      </c>
+      <c r="F75" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>456</v>
       </c>
       <c r="H75" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="I75" t="s">
         <v>368</v>
       </c>
       <c r="J75">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K75" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>413</v>
+        <v>243</v>
       </c>
       <c r="B76" t="s">
+        <v>243</v>
+      </c>
+      <c r="C76" t="s">
+        <v>526</v>
+      </c>
+      <c r="D76" t="s">
+        <v>388</v>
+      </c>
+      <c r="E76" t="s">
+        <v>533</v>
+      </c>
+      <c r="F76" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>456</v>
+      </c>
+      <c r="H76" t="s">
+        <v>386</v>
+      </c>
+      <c r="I76" t="s">
+        <v>368</v>
+      </c>
+      <c r="J76">
+        <v>4</v>
+      </c>
+      <c r="K76" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>412</v>
+      </c>
+      <c r="B77" t="s">
         <v>244</v>
       </c>
-      <c r="C76" t="s">
-        <v>207</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
         <v>376</v>
       </c>
-      <c r="H76" t="s">
-        <v>369</v>
-      </c>
-      <c r="I76" t="s">
-        <v>370</v>
-      </c>
-      <c r="J76">
-        <v>16</v>
-      </c>
-      <c r="K76" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>414</v>
-      </c>
-      <c r="B77" t="s">
-        <v>246</v>
-      </c>
-      <c r="C77" t="s">
-        <v>207</v>
-      </c>
-      <c r="D77" t="s">
-        <v>390</v>
+      <c r="E77" t="s">
+        <v>534</v>
       </c>
       <c r="H77" t="s">
         <v>369</v>
@@ -4163,24 +4579,30 @@
         <v>370</v>
       </c>
       <c r="J77">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K77" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B78" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C78" t="s">
-        <v>207</v>
+        <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>375</v>
+        <v>390</v>
+      </c>
+      <c r="F78" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>535</v>
       </c>
       <c r="H78" t="s">
         <v>369</v>
@@ -4189,24 +4611,33 @@
         <v>370</v>
       </c>
       <c r="J78">
+        <v>5</v>
+      </c>
+      <c r="K78" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>414</v>
+      </c>
+      <c r="B79" t="s">
+        <v>248</v>
+      </c>
+      <c r="C79" t="s">
         <v>13</v>
       </c>
-      <c r="K78" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>416</v>
-      </c>
-      <c r="B79" t="s">
-        <v>250</v>
-      </c>
-      <c r="C79" t="s">
-        <v>207</v>
-      </c>
       <c r="D79" t="s">
-        <v>371</v>
+        <v>375</v>
+      </c>
+      <c r="E79" t="s">
+        <v>536</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>538</v>
       </c>
       <c r="H79" t="s">
         <v>369</v>
@@ -4215,232 +4646,307 @@
         <v>370</v>
       </c>
       <c r="J79">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K79" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>152</v>
+        <v>415</v>
       </c>
       <c r="B80" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C80" t="s">
-        <v>207</v>
+        <v>13</v>
+      </c>
+      <c r="D80" t="s">
+        <v>371</v>
+      </c>
+      <c r="E80" t="s">
+        <v>539</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="H80" t="s">
         <v>369</v>
       </c>
+      <c r="I80" t="s">
+        <v>370</v>
+      </c>
+      <c r="J80">
+        <v>2</v>
+      </c>
       <c r="K80" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" t="s">
+        <v>252</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
+        <v>542</v>
+      </c>
+      <c r="E81" t="s">
+        <v>541</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="H81" t="s">
+        <v>369</v>
+      </c>
+      <c r="K81" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>254</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>254</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>173</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D82" t="s">
         <v>255</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E82" t="s">
         <v>256</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F82" t="s">
         <v>257</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G82" t="s">
         <v>258</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H82" t="s">
         <v>377</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I82" t="s">
         <v>368</v>
-      </c>
-      <c r="J81">
-        <v>1</v>
-      </c>
-      <c r="K81" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>260</v>
-      </c>
-      <c r="B82" t="s">
-        <v>260</v>
-      </c>
-      <c r="C82" t="s">
-        <v>207</v>
-      </c>
-      <c r="D82" t="s">
-        <v>389</v>
-      </c>
-      <c r="H82" t="s">
-        <v>386</v>
-      </c>
-      <c r="I82" t="s">
-        <v>370</v>
       </c>
       <c r="J82">
         <v>1</v>
       </c>
       <c r="K82" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>260</v>
+      </c>
+      <c r="B83" t="s">
+        <v>260</v>
+      </c>
+      <c r="C83" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" t="s">
+        <v>389</v>
+      </c>
+      <c r="E83" t="s">
+        <v>544</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>177</v>
+      </c>
+      <c r="H83" t="s">
+        <v>386</v>
+      </c>
+      <c r="I83" t="s">
+        <v>370</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>426</v>
-      </c>
-      <c r="B83" t="s">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>425</v>
+      </c>
+      <c r="B84" t="s">
         <v>262</v>
       </c>
-      <c r="C83" t="s">
-        <v>207</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="C84" t="s">
+        <v>173</v>
+      </c>
+      <c r="D84" t="s">
         <v>396</v>
       </c>
-      <c r="H83" t="s">
+      <c r="E84" t="s">
+        <v>545</v>
+      </c>
+      <c r="F84" t="s">
+        <v>257</v>
+      </c>
+      <c r="G84" t="s">
+        <v>177</v>
+      </c>
+      <c r="H84" t="s">
         <v>394</v>
       </c>
-      <c r="I83" t="s">
-        <v>370</v>
-      </c>
-      <c r="J83">
+      <c r="I84" t="s">
+        <v>370</v>
+      </c>
+      <c r="J84">
         <v>2</v>
       </c>
-      <c r="K83" t="s">
+      <c r="K84" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>264</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>264</v>
       </c>
-      <c r="C84" t="s">
-        <v>207</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="C85" t="s">
+        <v>173</v>
+      </c>
+      <c r="D85" t="s">
         <v>374</v>
       </c>
-      <c r="H84" t="s">
+      <c r="E85" t="s">
+        <v>546</v>
+      </c>
+      <c r="F85" t="s">
+        <v>257</v>
+      </c>
+      <c r="G85" t="s">
+        <v>177</v>
+      </c>
+      <c r="H85" t="s">
         <v>369</v>
       </c>
-      <c r="I84" t="s">
-        <v>370</v>
-      </c>
-      <c r="J84">
+      <c r="I85" t="s">
+        <v>370</v>
+      </c>
+      <c r="J85">
         <v>11</v>
       </c>
-      <c r="K84" t="s">
+      <c r="K85" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>266</v>
-      </c>
-      <c r="B85" t="s">
-        <v>266</v>
-      </c>
-      <c r="C85" t="s">
-        <v>207</v>
-      </c>
-      <c r="D85" t="s">
-        <v>395</v>
-      </c>
-      <c r="H85" t="s">
-        <v>394</v>
-      </c>
-      <c r="I85" t="s">
-        <v>370</v>
-      </c>
-      <c r="J85">
-        <v>1</v>
-      </c>
-      <c r="K85" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>266</v>
+      </c>
+      <c r="B86" t="s">
+        <v>266</v>
+      </c>
+      <c r="C86" t="s">
+        <v>173</v>
+      </c>
+      <c r="D86" t="s">
+        <v>395</v>
+      </c>
+      <c r="E86" t="s">
+        <v>547</v>
+      </c>
+      <c r="F86" t="s">
+        <v>257</v>
+      </c>
+      <c r="G86" t="s">
+        <v>177</v>
+      </c>
+      <c r="H86" t="s">
+        <v>394</v>
+      </c>
+      <c r="I86" t="s">
+        <v>370</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>267</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>267</v>
       </c>
-      <c r="C86" t="s">
-        <v>207</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="C87" t="s">
+        <v>173</v>
+      </c>
+      <c r="D87" t="s">
         <v>379</v>
       </c>
-      <c r="H86" t="s">
+      <c r="E87" t="s">
+        <v>548</v>
+      </c>
+      <c r="F87" t="s">
+        <v>549</v>
+      </c>
+      <c r="G87" t="s">
+        <v>177</v>
+      </c>
+      <c r="H87" t="s">
         <v>377</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I87" t="s">
         <v>368</v>
       </c>
-      <c r="J86">
+      <c r="J87">
         <v>5</v>
       </c>
-      <c r="K86" t="s">
+      <c r="K87" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>268</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>268</v>
       </c>
-      <c r="C87" t="s">
-        <v>207</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="C88" t="s">
+        <v>173</v>
+      </c>
+      <c r="D88" t="s">
         <v>373</v>
       </c>
-      <c r="H87" t="s">
-        <v>369</v>
-      </c>
-      <c r="I87" t="s">
-        <v>370</v>
-      </c>
-      <c r="J87">
-        <v>7</v>
-      </c>
-      <c r="K87" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>417</v>
-      </c>
-      <c r="B88" t="s">
-        <v>270</v>
-      </c>
-      <c r="C88" t="s">
-        <v>207</v>
-      </c>
-      <c r="D88" t="s">
-        <v>372</v>
+      <c r="E88" t="s">
+        <v>550</v>
+      </c>
+      <c r="F88" t="s">
+        <v>257</v>
+      </c>
+      <c r="G88" t="s">
+        <v>177</v>
       </c>
       <c r="H88" t="s">
         <v>369</v>
@@ -4449,79 +4955,100 @@
         <v>370</v>
       </c>
       <c r="J88">
+        <v>7</v>
+      </c>
+      <c r="K88" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="I89" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="J89" s="10">
         <v>1</v>
       </c>
-      <c r="K88" t="s">
+      <c r="K89" s="10" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>271</v>
-      </c>
-      <c r="B89" t="s">
-        <v>271</v>
-      </c>
-      <c r="C89" t="s">
-        <v>207</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="H89" t="s">
-        <v>377</v>
-      </c>
-      <c r="I89" t="s">
-        <v>368</v>
-      </c>
-      <c r="J89">
-        <v>2</v>
-      </c>
-      <c r="K89" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B90" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C90" t="s">
-        <v>207</v>
-      </c>
-      <c r="D90" t="s">
-        <v>367</v>
+        <v>173</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="E90" t="s">
+        <v>556</v>
+      </c>
+      <c r="F90" t="s">
+        <v>549</v>
+      </c>
+      <c r="G90" t="s">
+        <v>177</v>
       </c>
       <c r="H90" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="I90" t="s">
         <v>368</v>
       </c>
       <c r="J90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K90" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B91" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C91" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="D91" t="s">
-        <v>378</v>
+        <v>367</v>
+      </c>
+      <c r="E91" t="s">
+        <v>557</v>
+      </c>
+      <c r="F91" t="s">
+        <v>549</v>
+      </c>
+      <c r="G91" t="s">
+        <v>177</v>
       </c>
       <c r="H91" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="I91" t="s">
         <v>368</v>
@@ -4535,19 +5062,28 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B92" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C92" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="D92" t="s">
-        <v>387</v>
+        <v>378</v>
+      </c>
+      <c r="E92" t="s">
+        <v>558</v>
+      </c>
+      <c r="F92" t="s">
+        <v>549</v>
+      </c>
+      <c r="G92" t="s">
+        <v>177</v>
       </c>
       <c r="H92" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="I92" t="s">
         <v>368</v>
@@ -4559,102 +5095,108 @@
         <v>273</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B93" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C93" t="s">
-        <v>277</v>
+        <v>207</v>
       </c>
       <c r="D93" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="E93" t="s">
-        <v>12</v>
+        <v>559</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>549</v>
       </c>
       <c r="G93" t="s">
-        <v>278</v>
+        <v>177</v>
       </c>
       <c r="H93" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="I93" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="J93">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="K93" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>276</v>
+      </c>
+      <c r="B94" t="s">
+        <v>276</v>
+      </c>
+      <c r="C94" t="s">
+        <v>277</v>
+      </c>
+      <c r="D94" t="s">
+        <v>555</v>
+      </c>
+      <c r="E94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>278</v>
+      </c>
+      <c r="H94" t="s">
+        <v>394</v>
+      </c>
+      <c r="I94" t="s">
+        <v>384</v>
+      </c>
+      <c r="J94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>279</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>279</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C95" t="s">
         <v>280</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D95" t="s">
         <v>281</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E95" t="s">
         <v>282</v>
       </c>
-      <c r="G94" s="3" t="s">
+      <c r="G95" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H95" t="s">
         <v>369</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I95" t="s">
         <v>368</v>
       </c>
-      <c r="J94">
+      <c r="J95">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>427</v>
-      </c>
-      <c r="B95" t="s">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>426</v>
+      </c>
+      <c r="B96" t="s">
         <v>284</v>
-      </c>
-      <c r="C95" t="s">
-        <v>13</v>
-      </c>
-      <c r="D95" t="s">
-        <v>285</v>
-      </c>
-      <c r="E95" t="s">
-        <v>286</v>
-      </c>
-      <c r="F95" t="s">
-        <v>54</v>
-      </c>
-      <c r="G95" t="s">
-        <v>14</v>
-      </c>
-      <c r="H95" t="s">
-        <v>386</v>
-      </c>
-      <c r="I95" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>427</v>
-      </c>
-      <c r="B96" t="s">
-        <v>287</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
@@ -4678,56 +5220,50 @@
         <v>370</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B97" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E97" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F97" t="s">
-        <v>291</v>
+        <v>54</v>
       </c>
       <c r="G97" t="s">
         <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="I97" t="s">
         <v>370</v>
       </c>
-      <c r="J97">
-        <v>4</v>
-      </c>
-      <c r="K97" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B98" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C98" t="s">
         <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E98" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F98" t="s">
         <v>291</v>
@@ -4742,27 +5278,27 @@
         <v>370</v>
       </c>
       <c r="J98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K98" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B99" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C99" t="s">
         <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E99" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F99" t="s">
         <v>291</v>
@@ -4774,27 +5310,30 @@
         <v>394</v>
       </c>
       <c r="I99" t="s">
-        <v>384</v>
+        <v>370</v>
+      </c>
+      <c r="J99">
+        <v>3</v>
       </c>
       <c r="K99" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>299</v>
+        <v>419</v>
       </c>
       <c r="B100" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C100" t="s">
         <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E100" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F100" t="s">
         <v>291</v>
@@ -4803,30 +5342,30 @@
         <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I100" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="K100" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B101" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E101" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F101" t="s">
         <v>291</v>
@@ -4840,28 +5379,25 @@
       <c r="I101" t="s">
         <v>370</v>
       </c>
-      <c r="J101">
-        <v>17</v>
-      </c>
       <c r="K101" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B102" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C102" t="s">
         <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E102" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F102" t="s">
         <v>291</v>
@@ -4869,25 +5405,34 @@
       <c r="G102" t="s">
         <v>14</v>
       </c>
+      <c r="H102" t="s">
+        <v>369</v>
+      </c>
+      <c r="I102" t="s">
+        <v>370</v>
+      </c>
+      <c r="J102">
+        <v>17</v>
+      </c>
       <c r="K102" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>421</v>
+        <v>308</v>
       </c>
       <c r="B103" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C103" t="s">
         <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E103" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F103" t="s">
         <v>291</v>
@@ -4895,34 +5440,25 @@
       <c r="G103" t="s">
         <v>14</v>
       </c>
-      <c r="H103" t="s">
-        <v>377</v>
-      </c>
-      <c r="I103" t="s">
-        <v>370</v>
-      </c>
-      <c r="J103">
-        <v>3</v>
-      </c>
       <c r="K103" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B104" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C104" t="s">
         <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E104" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F104" t="s">
         <v>291</v>
@@ -4937,27 +5473,27 @@
         <v>370</v>
       </c>
       <c r="J104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K104" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B105" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C105" t="s">
         <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E105" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F105" t="s">
         <v>291</v>
@@ -4971,147 +5507,162 @@
       <c r="I105" t="s">
         <v>370</v>
       </c>
+      <c r="J105">
+        <v>2</v>
+      </c>
       <c r="K105" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B106" t="s">
+        <v>319</v>
+      </c>
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" t="s">
+        <v>320</v>
+      </c>
+      <c r="E106" t="s">
+        <v>321</v>
+      </c>
+      <c r="F106" t="s">
+        <v>291</v>
+      </c>
+      <c r="G106" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" t="s">
+        <v>377</v>
+      </c>
+      <c r="I106" t="s">
+        <v>370</v>
+      </c>
+      <c r="K106" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>423</v>
+      </c>
+      <c r="B107" t="s">
         <v>322</v>
-      </c>
-      <c r="C106" t="s">
-        <v>323</v>
-      </c>
-      <c r="D106" t="s">
-        <v>324</v>
-      </c>
-      <c r="E106" t="s">
-        <v>324</v>
-      </c>
-      <c r="F106" t="s">
-        <v>325</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="H106" t="s">
-        <v>394</v>
-      </c>
-      <c r="I106" t="s">
-        <v>370</v>
-      </c>
-      <c r="J106">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>327</v>
-      </c>
-      <c r="B107" t="s">
-        <v>327</v>
       </c>
       <c r="C107" t="s">
         <v>323</v>
       </c>
       <c r="D107" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E107" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F107" t="s">
-        <v>330</v>
-      </c>
-      <c r="G107" t="s">
+        <v>325</v>
+      </c>
+      <c r="G107" s="3" t="s">
         <v>326</v>
       </c>
       <c r="H107" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="I107" t="s">
         <v>370</v>
       </c>
       <c r="J107">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B108" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C108" t="s">
         <v>323</v>
       </c>
       <c r="D108" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E108" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F108" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G108" t="s">
         <v>326</v>
       </c>
       <c r="H108" t="s">
+        <v>377</v>
+      </c>
+      <c r="I108" t="s">
+        <v>370</v>
+      </c>
+      <c r="J108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>331</v>
+      </c>
+      <c r="B109" t="s">
+        <v>331</v>
+      </c>
+      <c r="C109" t="s">
+        <v>323</v>
+      </c>
+      <c r="D109" t="s">
+        <v>332</v>
+      </c>
+      <c r="E109" t="s">
+        <v>333</v>
+      </c>
+      <c r="F109" t="s">
+        <v>334</v>
+      </c>
+      <c r="G109" t="s">
+        <v>326</v>
+      </c>
+      <c r="H109" t="s">
         <v>394</v>
       </c>
-      <c r="I108" t="s">
-        <v>370</v>
-      </c>
-      <c r="J108">
+      <c r="I109" t="s">
+        <v>370</v>
+      </c>
+      <c r="J109">
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>335</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>335</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C110" t="s">
         <v>336</v>
       </c>
-      <c r="D109" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>337</v>
-      </c>
-      <c r="B110" t="s">
-        <v>337</v>
-      </c>
-      <c r="C110" t="s">
-        <v>277</v>
-      </c>
       <c r="D110" t="s">
-        <v>338</v>
+        <v>552</v>
       </c>
       <c r="E110" t="s">
-        <v>12</v>
+        <v>552</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="G110" t="s">
-        <v>278</v>
+        <v>553</v>
       </c>
       <c r="H110" t="s">
         <v>394</v>
@@ -5119,121 +5670,121 @@
       <c r="I110" t="s">
         <v>384</v>
       </c>
-      <c r="J110">
-        <v>5</v>
-      </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>337</v>
+      </c>
+      <c r="B111" t="s">
+        <v>337</v>
+      </c>
+      <c r="C111" t="s">
+        <v>277</v>
+      </c>
+      <c r="D111" t="s">
+        <v>338</v>
+      </c>
+      <c r="E111" t="s">
+        <v>338</v>
+      </c>
+      <c r="F111" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>278</v>
+      </c>
+      <c r="H111" t="s">
+        <v>394</v>
+      </c>
+      <c r="I111" t="s">
+        <v>384</v>
+      </c>
+      <c r="J111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>339</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>339</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C112" t="s">
         <v>280</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D112" t="s">
         <v>340</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E112" t="s">
         <v>341</v>
       </c>
-      <c r="G111" t="s">
+      <c r="F112" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
         <v>283</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H112" t="s">
         <v>377</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I112" t="s">
         <v>368</v>
-      </c>
-      <c r="J111">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>342</v>
-      </c>
-      <c r="B112" t="s">
-        <v>342</v>
-      </c>
-      <c r="C112" t="s">
-        <v>323</v>
-      </c>
-      <c r="D112" t="s">
-        <v>343</v>
-      </c>
-      <c r="E112" t="s">
-        <v>344</v>
-      </c>
-      <c r="F112" t="s">
-        <v>291</v>
-      </c>
-      <c r="G112" t="s">
-        <v>326</v>
-      </c>
-      <c r="H112" t="s">
-        <v>386</v>
-      </c>
-      <c r="I112" t="s">
-        <v>370</v>
       </c>
       <c r="J112">
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B113" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C113" t="s">
         <v>323</v>
       </c>
       <c r="D113" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E113" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F113" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
       <c r="G113" t="s">
         <v>326</v>
       </c>
       <c r="H113" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="I113" t="s">
         <v>370</v>
       </c>
       <c r="J113">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B114" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C114" t="s">
         <v>323</v>
       </c>
       <c r="D114" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E114" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F114" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G114" t="s">
         <v>326</v>
@@ -5245,30 +5796,30 @@
         <v>370</v>
       </c>
       <c r="J114">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>425</v>
+        <v>349</v>
       </c>
       <c r="B115" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C115" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="D115" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E115" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F115" t="s">
-        <v>69</v>
+        <v>352</v>
       </c>
       <c r="G115" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="H115" t="s">
         <v>369</v>
@@ -5276,22 +5827,25 @@
       <c r="I115" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J115">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B116" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C116" t="s">
         <v>354</v>
       </c>
       <c r="D116" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E116" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F116" t="s">
         <v>69</v>
@@ -5306,21 +5860,21 @@
         <v>370</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B117" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C117" t="s">
         <v>354</v>
       </c>
       <c r="D117" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E117" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F117" t="s">
         <v>69</v>
@@ -5335,27 +5889,27 @@
         <v>370</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="B118" t="s">
-        <v>11</v>
+        <v>361</v>
       </c>
       <c r="C118" t="s">
-        <v>13</v>
+        <v>354</v>
       </c>
       <c r="D118" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E118" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F118" t="s">
-        <v>366</v>
+        <v>69</v>
       </c>
       <c r="G118" t="s">
-        <v>14</v>
+        <v>357</v>
       </c>
       <c r="H118" t="s">
         <v>369</v>
@@ -5363,57 +5917,63 @@
       <c r="I118" t="s">
         <v>370</v>
       </c>
-      <c r="J118">
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>405</v>
+      </c>
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" t="s">
+        <v>364</v>
+      </c>
+      <c r="E119" t="s">
+        <v>365</v>
+      </c>
+      <c r="F119" t="s">
+        <v>366</v>
+      </c>
+      <c r="G119" t="s">
         <v>14</v>
       </c>
-      <c r="K118" t="s">
+      <c r="H119" t="s">
+        <v>369</v>
+      </c>
+      <c r="I119" t="s">
+        <v>370</v>
+      </c>
+      <c r="J119">
+        <v>14</v>
+      </c>
+      <c r="K119" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="G119" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I119" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="J119" s="5">
-        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="B120" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="C120" s="5" t="s">
+      <c r="G120" s="6" t="s">
         <v>445</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>447</v>
       </c>
       <c r="H120" s="5" t="s">
         <v>369</v>
@@ -5422,91 +5982,94 @@
         <v>368</v>
       </c>
       <c r="J120" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>323</v>
+        <v>444</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>434</v>
+        <v>554</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>451</v>
+        <v>12</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>369</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J121" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>438</v>
+        <v>323</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="J122" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>483</v>
+        <v>439</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>12</v>
+        <v>436</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>454</v>
+        <v>437</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>377</v>
@@ -5514,10 +6077,13 @@
       <c r="I123" s="5" t="s">
         <v>368</v>
       </c>
+      <c r="J123" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="124" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>12</v>
@@ -5526,13 +6092,13 @@
         <v>280</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>487</v>
+        <v>453</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>377</v>
@@ -5540,13 +6106,10 @@
       <c r="I124" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="J124" s="5">
-        <v>11</v>
-      </c>
     </row>
     <row r="125" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>12</v>
@@ -5555,13 +6118,13 @@
         <v>280</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>377</v>
@@ -5569,10 +6132,13 @@
       <c r="I125" s="5" t="s">
         <v>368</v>
       </c>
+      <c r="J125" s="5">
+        <v>11</v>
+      </c>
     </row>
     <row r="126" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>12</v>
@@ -5581,13 +6147,13 @@
         <v>280</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H126" s="5" t="s">
         <v>377</v>
@@ -5598,7 +6164,7 @@
     </row>
     <row r="127" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>12</v>
@@ -5607,13 +6173,13 @@
         <v>280</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H127" s="5" t="s">
         <v>377</v>
@@ -5621,13 +6187,10 @@
       <c r="I127" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="J127" s="5">
-        <v>12</v>
-      </c>
     </row>
     <row r="128" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>12</v>
@@ -5636,13 +6199,13 @@
         <v>280</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H128" s="5" t="s">
         <v>377</v>
@@ -5650,28 +6213,28 @@
       <c r="I128" s="5" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J128" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>459</v>
+        <v>12</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D129" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>12</v>
+      <c r="D129" s="7" t="s">
+        <v>490</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="H129" s="5" t="s">
         <v>377</v>
@@ -5679,92 +6242,92 @@
       <c r="I129" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="J129" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>492</v>
+        <v>457</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D130" s="7" t="s">
-        <v>460</v>
+      <c r="D130" s="5" t="s">
+        <v>454</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>461</v>
+        <v>12</v>
       </c>
       <c r="F130" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="G130" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="G130" s="6" t="s">
-        <v>453</v>
-      </c>
       <c r="H130" s="5" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="I130" s="5" t="s">
         <v>368</v>
       </c>
       <c r="J130" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>463</v>
+        <v>280</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>459</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>12</v>
+        <v>455</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="H131" s="5" t="s">
         <v>386</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="J131" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>336</v>
+        <v>444</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="G132" s="5" t="s">
-        <v>469</v>
+        <v>12</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>465</v>
       </c>
       <c r="H132" s="5" t="s">
         <v>386</v>
@@ -5772,31 +6335,28 @@
       <c r="I132" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="J132" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>445</v>
+        <v>336</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>474</v>
+        <v>455</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>468</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>386</v>
@@ -5805,134 +6365,163 @@
         <v>370</v>
       </c>
       <c r="J133" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="I134" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J134" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:12" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
+    <row r="135" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="F135" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="B134" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="G134" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="H134" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="I134" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="J134" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="G135" s="5" t="s">
-        <v>502</v>
+      <c r="G135" s="6" t="s">
+        <v>474</v>
       </c>
       <c r="H135" s="5" t="s">
         <v>394</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="J135" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="I136" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J136" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="H136" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="I136" s="8" t="s">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>562</v>
+      </c>
+      <c r="B137" t="s">
+        <v>562</v>
+      </c>
+      <c r="C137" t="s">
+        <v>492</v>
+      </c>
+      <c r="D137" t="s">
+        <v>560</v>
+      </c>
+      <c r="E137" t="s">
+        <v>561</v>
+      </c>
+      <c r="F137" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>511</v>
+      </c>
+      <c r="H137" t="s">
+        <v>386</v>
+      </c>
+      <c r="I137" t="s">
         <v>384</v>
       </c>
-      <c r="J136" s="8">
-        <v>1</v>
-      </c>
-      <c r="K136" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="L136" s="8" t="s">
-        <v>504</v>
+      <c r="J137">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K136" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="Education"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K137" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="2">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G53" xr:uid="{2F5F9FA7-5446-47AF-A091-DD36F3BEED45}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G54" xr:uid="{2F5F9FA7-5446-47AF-A091-DD36F3BEED45}">
       <formula1>1</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A218 B136" xr:uid="{C9CEA4D8-9D09-46A7-AFBC-6B7076AE134A}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A218" xr:uid="{C9CEA4D8-9D09-46A7-AFBC-6B7076AE134A}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G106" r:id="rId1" xr:uid="{86CF00EA-F175-49E3-B292-E21775BC70DA}"/>
-    <hyperlink ref="G120" r:id="rId2" xr:uid="{6D5714C4-09C7-4724-9E57-FC6947A71A0B}"/>
-    <hyperlink ref="G119" r:id="rId3" xr:uid="{5E00DB9D-DE2F-4335-9771-72FBC89C518A}"/>
-    <hyperlink ref="G121" r:id="rId4" xr:uid="{33ABC5F7-45E0-4703-ADE7-FD5BE84A6C85}"/>
-    <hyperlink ref="G122" r:id="rId5" xr:uid="{28FA960A-1B0F-4F36-AB25-3065353EBB96}"/>
-    <hyperlink ref="G123" r:id="rId6" xr:uid="{AA81982C-4488-4D0A-9FD0-D28A5532BDB6}"/>
-    <hyperlink ref="G124:G128" r:id="rId7" display="http://sdg4-data.uis.unesco.org/" xr:uid="{58D543BA-AA31-46B7-9D51-23E366CBECFA}"/>
-    <hyperlink ref="G129" r:id="rId8" xr:uid="{E5444A53-A5ED-43B0-A996-1EEFCF0EBC2B}"/>
-    <hyperlink ref="G130" r:id="rId9" xr:uid="{30556D34-7A52-4A25-AE71-8D81DA199009}"/>
-    <hyperlink ref="G134" r:id="rId10" xr:uid="{79265DDE-6A41-4907-9981-CC79AE247B48}"/>
-    <hyperlink ref="G131" r:id="rId11" xr:uid="{9909B422-45A8-4627-8430-D53FECADEE8B}"/>
-    <hyperlink ref="G133" r:id="rId12" xr:uid="{4223E1D3-2634-4817-9EFA-3F96BE143230}"/>
+    <hyperlink ref="G107" r:id="rId1" xr:uid="{86CF00EA-F175-49E3-B292-E21775BC70DA}"/>
+    <hyperlink ref="G121" r:id="rId2" xr:uid="{6D5714C4-09C7-4724-9E57-FC6947A71A0B}"/>
+    <hyperlink ref="G120" r:id="rId3" xr:uid="{5E00DB9D-DE2F-4335-9771-72FBC89C518A}"/>
+    <hyperlink ref="G122" r:id="rId4" xr:uid="{33ABC5F7-45E0-4703-ADE7-FD5BE84A6C85}"/>
+    <hyperlink ref="G123" r:id="rId5" xr:uid="{28FA960A-1B0F-4F36-AB25-3065353EBB96}"/>
+    <hyperlink ref="G124" r:id="rId6" xr:uid="{AA81982C-4488-4D0A-9FD0-D28A5532BDB6}"/>
+    <hyperlink ref="G125:G129" r:id="rId7" display="http://sdg4-data.uis.unesco.org/" xr:uid="{58D543BA-AA31-46B7-9D51-23E366CBECFA}"/>
+    <hyperlink ref="G130" r:id="rId8" xr:uid="{E5444A53-A5ED-43B0-A996-1EEFCF0EBC2B}"/>
+    <hyperlink ref="G131" r:id="rId9" xr:uid="{30556D34-7A52-4A25-AE71-8D81DA199009}"/>
+    <hyperlink ref="G135" r:id="rId10" xr:uid="{79265DDE-6A41-4907-9981-CC79AE247B48}"/>
+    <hyperlink ref="G132" r:id="rId11" xr:uid="{9909B422-45A8-4627-8430-D53FECADEE8B}"/>
+    <hyperlink ref="G134" r:id="rId12" xr:uid="{4223E1D3-2634-4817-9EFA-3F96BE143230}"/>
     <hyperlink ref="G11" r:id="rId13" xr:uid="{7F719CB2-8B34-4A47-8AB2-11A150ECAA5B}"/>
-    <hyperlink ref="G94" r:id="rId14" xr:uid="{40D76283-D72C-4222-8FB8-B4531115EFAD}"/>
+    <hyperlink ref="G95" r:id="rId14" xr:uid="{40D76283-D72C-4222-8FB8-B4531115EFAD}"/>
+    <hyperlink ref="G79" r:id="rId15" xr:uid="{68FDFCA9-FB4B-4EED-8D4C-E6016B9042C3}"/>
+    <hyperlink ref="G80" r:id="rId16" xr:uid="{EA923F37-55CE-4483-A9E1-D5A1042DB662}"/>
+    <hyperlink ref="G81" r:id="rId17" xr:uid="{E5ED0119-33A0-4A2E-829E-695F316B42BF}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/Data/Data_Raw/Country codes & metadata/metadata.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="386" documentId="13_ncr:1_{29A47490-2D27-4D0C-B372-38E790C58E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2020AC11-4115-4A87-A5E7-A8822AF7785E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A4C604-F191-44FC-9A77-6FD34D6F47E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="501">
   <si>
     <t>name_portal</t>
   </si>
@@ -1348,9 +1348,6 @@
     <t>Institutional births</t>
   </si>
   <si>
-    <t>SRHINSTITUTIONALBIRTH</t>
-  </si>
-  <si>
     <t>The proportion of births occurring in health facilities in the area, or ‘institutional births’ or ‘institutional deliveries.</t>
   </si>
   <si>
@@ -1360,9 +1357,6 @@
     <t>Current education expenditure, total (% of total expenditure in public institutions)</t>
   </si>
   <si>
-    <t>SE.XPD.CTOT.ZS</t>
-  </si>
-  <si>
     <t>WDI</t>
   </si>
   <si>
@@ -1426,18 +1420,12 @@
     <t>out_school</t>
   </si>
   <si>
-    <t>OFST_1_CP</t>
-  </si>
-  <si>
     <t>4.6.2.Youth literacy rate, population 15-24 years, both sexes (%)</t>
   </si>
   <si>
     <t>The youth literacy rate is defined by the percentage of the population aged 15 to 24 years that can read and write. It is typically measured according to the ability to comprehend a short simple statement on everyday life. Generally, literacy also encompasses numeracy, and measurement may incorporate a simple assessment of arithmetic ability. </t>
   </si>
   <si>
-    <t>LR_Ag15t24.</t>
-  </si>
-  <si>
     <t>Early childbearing - percentage of women (aged 20-24 years) who gave birth before age 18</t>
   </si>
   <si>
@@ -1537,12 +1525,6 @@
     <t>IM_HPV</t>
   </si>
   <si>
-    <t>C040201</t>
-  </si>
-  <si>
-    <t>C040202</t>
-  </si>
-  <si>
     <t>DEMAny</t>
   </si>
   <si>
@@ -1565,6 +1547,9 @@
   </si>
   <si>
     <t>% of working-age population</t>
+  </si>
+  <si>
+    <t>rank 4</t>
   </si>
 </sst>
 </file>
@@ -1601,7 +1586,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1617,6 +1602,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1649,7 +1640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1663,9 +1654,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1679,10 +1671,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1970,15 +1958,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J81" sqref="J81"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L111" sqref="L111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
@@ -2019,7 +2006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>406</v>
       </c>
@@ -2051,7 +2038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>407</v>
       </c>
@@ -2083,7 +2070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>408</v>
       </c>
@@ -2118,7 +2105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>409</v>
       </c>
@@ -2199,7 +2186,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -2222,7 +2209,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -2248,7 +2235,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -2274,7 +2261,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2300,7 +2287,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -2326,7 +2313,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -2352,7 +2339,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -2381,7 +2368,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>410</v>
       </c>
@@ -2410,7 +2397,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -2433,7 +2420,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -2468,7 +2455,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -2500,7 +2487,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -2535,7 +2522,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>74</v>
       </c>
@@ -2570,7 +2557,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -2602,7 +2589,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -2634,7 +2621,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -2666,7 +2653,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -2698,7 +2685,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -2730,7 +2717,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -2762,7 +2749,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -2794,7 +2781,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -2826,7 +2813,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -2855,7 +2842,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -2884,7 +2871,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -2913,7 +2900,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>121</v>
       </c>
@@ -2945,7 +2932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>125</v>
       </c>
@@ -2974,7 +2961,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>129</v>
       </c>
@@ -3003,7 +2990,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>411</v>
       </c>
@@ -3035,7 +3022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>135</v>
       </c>
@@ -3064,7 +3051,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>138</v>
       </c>
@@ -3093,7 +3080,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>412</v>
       </c>
@@ -3128,7 +3115,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -3157,7 +3144,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -3186,7 +3173,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -3215,7 +3202,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>156</v>
       </c>
@@ -3244,7 +3231,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>160</v>
       </c>
@@ -3273,7 +3260,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>164</v>
       </c>
@@ -3302,7 +3289,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>168</v>
       </c>
@@ -3334,7 +3321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>172</v>
       </c>
@@ -3398,7 +3385,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>182</v>
       </c>
@@ -3462,7 +3449,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>190</v>
       </c>
@@ -3494,7 +3481,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>194</v>
       </c>
@@ -3526,7 +3513,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>197</v>
       </c>
@@ -3558,7 +3545,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>200</v>
       </c>
@@ -3622,7 +3609,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>206</v>
       </c>
@@ -3639,7 +3626,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>209</v>
       </c>
@@ -3659,7 +3646,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>211</v>
       </c>
@@ -3685,7 +3672,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>213</v>
       </c>
@@ -3705,7 +3692,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>214</v>
       </c>
@@ -3731,7 +3718,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>215</v>
       </c>
@@ -3757,7 +3744,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>217</v>
       </c>
@@ -3783,7 +3770,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>219</v>
       </c>
@@ -3803,7 +3790,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>221</v>
       </c>
@@ -3823,7 +3810,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>223</v>
       </c>
@@ -3849,7 +3836,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>225</v>
       </c>
@@ -3869,7 +3856,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>226</v>
       </c>
@@ -3967,7 +3954,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>234</v>
       </c>
@@ -4117,7 +4104,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>413</v>
       </c>
@@ -4143,7 +4130,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>414</v>
       </c>
@@ -4169,7 +4156,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>415</v>
       </c>
@@ -4195,7 +4182,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>416</v>
       </c>
@@ -4221,7 +4208,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>152</v>
       </c>
@@ -4273,7 +4260,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>260</v>
       </c>
@@ -4299,7 +4286,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>426</v>
       </c>
@@ -4325,7 +4312,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>264</v>
       </c>
@@ -4351,7 +4338,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>266</v>
       </c>
@@ -4403,7 +4390,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>268</v>
       </c>
@@ -4429,7 +4416,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>417</v>
       </c>
@@ -4559,7 +4546,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>276</v>
       </c>
@@ -4578,7 +4565,7 @@
       <c r="F93" t="s">
         <v>12</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="3" t="s">
         <v>278</v>
       </c>
       <c r="H93" t="s">
@@ -4620,7 +4607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>427</v>
       </c>
@@ -4649,7 +4636,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>427</v>
       </c>
@@ -4678,7 +4665,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>418</v>
       </c>
@@ -4713,7 +4700,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>419</v>
       </c>
@@ -4748,7 +4735,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>420</v>
       </c>
@@ -4780,7 +4767,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>299</v>
       </c>
@@ -4812,7 +4799,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>304</v>
       </c>
@@ -4847,7 +4834,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>308</v>
       </c>
@@ -4873,7 +4860,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>421</v>
       </c>
@@ -4908,7 +4895,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>422</v>
       </c>
@@ -4943,7 +4930,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>423</v>
       </c>
@@ -4975,7 +4962,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>424</v>
       </c>
@@ -5007,7 +4994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>327</v>
       </c>
@@ -5039,7 +5026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>331</v>
       </c>
@@ -5071,7 +5058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>335</v>
       </c>
@@ -5091,7 +5078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>337</v>
       </c>
@@ -5152,7 +5139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>342</v>
       </c>
@@ -5184,7 +5171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>345</v>
       </c>
@@ -5216,7 +5203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>349</v>
       </c>
@@ -5248,7 +5235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>425</v>
       </c>
@@ -5277,7 +5264,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>428</v>
       </c>
@@ -5306,7 +5293,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>429</v>
       </c>
@@ -5335,7 +5322,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>406</v>
       </c>
@@ -5370,24 +5357,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C119" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="B119" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>445</v>
-      </c>
       <c r="D119" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="G119" s="6" t="s">
         <v>444</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="G119" s="6" t="s">
-        <v>446</v>
       </c>
       <c r="H119" s="5" t="s">
         <v>369</v>
@@ -5399,21 +5386,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>497</v>
+        <v>447</v>
       </c>
       <c r="C120" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="G120" s="6" t="s">
         <v>445</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>447</v>
       </c>
       <c r="H120" s="5" t="s">
         <v>369</v>
@@ -5425,12 +5412,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:11" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>323</v>
@@ -5439,13 +5426,13 @@
         <v>432</v>
       </c>
       <c r="E121" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="G121" s="6" t="s">
         <v>434</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>435</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>369</v>
@@ -5457,27 +5444,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
+    <row r="122" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="E122" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="B122" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>442</v>
-      </c>
       <c r="F122" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H122" s="5" t="s">
         <v>377</v>
@@ -5485,28 +5472,30 @@
       <c r="I122" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="J122" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>12</v>
+        <v>479</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>479</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>280</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>377</v>
@@ -5515,24 +5504,24 @@
         <v>368</v>
       </c>
     </row>
-    <row r="124" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>12</v>
+        <v>477</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>280</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>377</v>
@@ -5544,24 +5533,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>12</v>
+        <v>478</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>280</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>377</v>
@@ -5570,24 +5559,24 @@
         <v>368</v>
       </c>
     </row>
-    <row r="126" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>12</v>
+        <v>480</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>280</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H126" s="5" t="s">
         <v>377</v>
@@ -5596,24 +5585,24 @@
         <v>368</v>
       </c>
     </row>
-    <row r="127" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>12</v>
+        <v>481</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>280</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H127" s="5" t="s">
         <v>377</v>
@@ -5625,24 +5614,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>12</v>
+        <v>482</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>280</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H128" s="5" t="s">
         <v>377</v>
@@ -5652,26 +5641,26 @@
       </c>
     </row>
     <row r="129" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
-        <v>458</v>
+      <c r="A129" s="9" t="s">
+        <v>456</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="C129" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C129" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D129" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="G129" s="6" t="s">
         <v>455</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="G129" s="6" t="s">
-        <v>457</v>
       </c>
       <c r="H129" s="5" t="s">
         <v>377</v>
@@ -5685,25 +5674,25 @@
     </row>
     <row r="130" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>462</v>
+        <v>488</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>488</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>280</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H130" s="5" t="s">
         <v>386</v>
@@ -5715,27 +5704,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:12" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H131" s="5" t="s">
         <v>386</v>
@@ -5744,27 +5733,27 @@
         <v>370</v>
       </c>
     </row>
-    <row r="132" spans="1:12" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>336</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="H132" s="5" t="s">
         <v>386</v>
@@ -5776,27 +5765,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:12" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>386</v>
@@ -5808,27 +5797,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:12" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B134" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="D134" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="C134" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>480</v>
-      </c>
       <c r="E134" s="5" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="H134" s="5" t="s">
         <v>394</v>
@@ -5840,21 +5829,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:12" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="H135" s="5" t="s">
         <v>394</v>
@@ -5866,7 +5855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>214</v>
       </c>
@@ -5877,10 +5866,10 @@
         <v>207</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="H136" s="8" t="s">
         <v>394</v>
@@ -5892,26 +5881,20 @@
         <v>1</v>
       </c>
       <c r="K136" s="8" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="L136" s="8" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K136" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="Education"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K136" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G53" xr:uid="{2F5F9FA7-5446-47AF-A091-DD36F3BEED45}">
       <formula1>1</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A218 B136" xr:uid="{C9CEA4D8-9D09-46A7-AFBC-6B7076AE134A}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A218 B136 B119:B130" xr:uid="{C9CEA4D8-9D09-46A7-AFBC-6B7076AE134A}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
@@ -5931,8 +5914,9 @@
     <hyperlink ref="G133" r:id="rId12" xr:uid="{4223E1D3-2634-4817-9EFA-3F96BE143230}"/>
     <hyperlink ref="G11" r:id="rId13" xr:uid="{7F719CB2-8B34-4A47-8AB2-11A150ECAA5B}"/>
     <hyperlink ref="G94" r:id="rId14" xr:uid="{40D76283-D72C-4222-8FB8-B4531115EFAD}"/>
+    <hyperlink ref="G93" r:id="rId15" xr:uid="{6785D54E-5D95-47C1-AE62-5F24578C8401}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/Data/Data_Raw/Country codes & metadata/metadata.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="628" documentId="13_ncr:1_{29A47490-2D27-4D0C-B372-38E790C58E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C3458A3-4AC2-446F-99D3-698ED1C55D1B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E68DCA-7B95-4D69-95AE-DC3B45318DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18975" yWindow="0" windowWidth="9825" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="559">
   <si>
     <t>name_portal</t>
   </si>
@@ -1390,9 +1390,6 @@
     <t>https://data.unicef.org/resources/data_explorer/unicef_f/?ag=UNICEF&amp;df=SDG_PROG_ASSESSMENT&amp;dq=.C040202&amp;ver=1.0&amp;startPeriod=2018&amp;endPeriod=2022</t>
   </si>
   <si>
-    <t> Participation rate in organized learning (one year before the official primary entry age) (%)</t>
-  </si>
-  <si>
     <t>org_learning</t>
   </si>
   <si>
@@ -1423,18 +1420,12 @@
     <t>out_school</t>
   </si>
   <si>
-    <t>OFST_1_CP</t>
-  </si>
-  <si>
     <t>4.6.2.Youth literacy rate, population 15-24 years, both sexes (%)</t>
   </si>
   <si>
     <t>The youth literacy rate is defined by the percentage of the population aged 15 to 24 years that can read and write. It is typically measured according to the ability to comprehend a short simple statement on everyday life. Generally, literacy also encompasses numeracy, and measurement may incorporate a simple assessment of arithmetic ability. </t>
   </si>
   <si>
-    <t>LR_Ag15t24.</t>
-  </si>
-  <si>
     <t>Early childbearing - percentage of women (aged 20-24 years) who gave birth before age 18</t>
   </si>
   <si>
@@ -1474,12 +1465,6 @@
     <t>https://www.ilo.org/shinyapps/bulkexplorer39/?lang=en&amp;id=EMP_TEMP_SEX_AGE_NB_A</t>
   </si>
   <si>
-    <t>EMP_TEMP_SEX_AGE_NB_A</t>
-  </si>
-  <si>
-    <t>emp_high_skill</t>
-  </si>
-  <si>
     <t>2023, June</t>
   </si>
   <si>
@@ -1534,15 +1519,9 @@
     <t>IM_HPV</t>
   </si>
   <si>
-    <t>C040201</t>
-  </si>
-  <si>
     <t>C040202</t>
   </si>
   <si>
-    <t>DEMAny</t>
-  </si>
-  <si>
     <t>health_exp</t>
   </si>
   <si>
@@ -1736,6 +1715,15 @@
   </si>
   <si>
     <t>youth_adult_un</t>
+  </si>
+  <si>
+    <t>ECD_CHLD_36_59M_LMPSL</t>
+  </si>
+  <si>
+    <t>Participation rate in organized learning (one year before the official primary entry age) (%)</t>
+  </si>
+  <si>
+    <t>high_skill</t>
   </si>
 </sst>
 </file>
@@ -1772,7 +1760,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1788,6 +1776,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1835,11 +1829,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1853,10 +1847,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2146,12 +2136,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M58" sqref="M58"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
@@ -2194,86 +2184,77 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>405</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>502</v>
+        <v>276</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>277</v>
       </c>
       <c r="D2" t="s">
-        <v>364</v>
+        <v>548</v>
       </c>
       <c r="E2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>366</v>
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>278</v>
       </c>
       <c r="H2" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I2" t="s">
-        <v>370</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
+        <v>384</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>406</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>401</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>402</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="I3" t="s">
         <v>370</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>407</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>403</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>402</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -2284,150 +2265,150 @@
       <c r="I4" t="s">
         <v>370</v>
       </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>408</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>404</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>402</v>
+        <v>113</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="I5" t="s">
         <v>370</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>503</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>503</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>117</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="I6" t="s">
-        <v>368</v>
-      </c>
-      <c r="K6" t="s">
-        <v>504</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="D7" t="s">
-        <v>505</v>
+        <v>174</v>
       </c>
       <c r="E7" t="s">
-        <v>505</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
+        <v>175</v>
+      </c>
+      <c r="F7" t="s">
+        <v>176</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="H7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="I7" t="s">
-        <v>368</v>
+        <v>370</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>288</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>289</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>290</v>
+      </c>
+      <c r="F8" t="s">
+        <v>291</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="I8" t="s">
         <v>370</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>420</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>312</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>313</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>314</v>
+      </c>
+      <c r="F9" t="s">
+        <v>291</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -2438,216 +2419,263 @@
       <c r="I9" t="s">
         <v>370</v>
       </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>418</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>294</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>295</v>
+      </c>
+      <c r="F10" t="s">
+        <v>291</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
       <c r="H10" t="s">
+        <v>394</v>
+      </c>
+      <c r="I10" t="s">
+        <v>370</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>421</v>
+      </c>
+      <c r="B11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E11" t="s">
+        <v>318</v>
+      </c>
+      <c r="F11" t="s">
+        <v>291</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
         <v>377</v>
       </c>
-      <c r="I10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="J11" s="8">
-        <v>4</v>
+      <c r="I11" t="s">
+        <v>370</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>419</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>296</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>297</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>298</v>
+      </c>
+      <c r="F12" t="s">
+        <v>291</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="I12" t="s">
-        <v>370</v>
+        <v>384</v>
+      </c>
+      <c r="K12" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>422</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>320</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>321</v>
+      </c>
+      <c r="F13" t="s">
+        <v>291</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="I13" t="s">
         <v>370</v>
       </c>
+      <c r="K13" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="A14" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="I14" t="s">
-        <v>370</v>
-      </c>
+      <c r="I14" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>248</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>375</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" t="s">
-        <v>14</v>
+        <v>529</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>531</v>
       </c>
       <c r="H15" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="I15" t="s">
         <v>370</v>
+      </c>
+      <c r="J15">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>413</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>246</v>
       </c>
       <c r="C16" t="s">
-        <v>277</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>506</v>
+        <v>390</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>278</v>
+        <v>528</v>
       </c>
       <c r="H16" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="I16" t="s">
-        <v>384</v>
+        <v>370</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>410</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
@@ -2659,167 +2687,155 @@
         <v>370</v>
       </c>
       <c r="J17">
-        <v>15</v>
-      </c>
-      <c r="K17" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="A18" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="D18" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="J18" s="8">
+        <v>7</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="I18" t="s">
-        <v>370</v>
-      </c>
-      <c r="K18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" t="s">
-        <v>369</v>
-      </c>
-      <c r="I19" t="s">
-        <v>370</v>
-      </c>
-      <c r="J19">
-        <v>3</v>
-      </c>
-      <c r="K19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" t="s">
-        <v>369</v>
-      </c>
-      <c r="I20" t="s">
-        <v>370</v>
-      </c>
-      <c r="J20">
-        <v>4</v>
-      </c>
-      <c r="K20" t="s">
-        <v>64</v>
-      </c>
+      <c r="I20" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="I21" t="s">
-        <v>370</v>
-      </c>
-      <c r="K21" t="s">
-        <v>64</v>
+        <v>384</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>412</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>244</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>376</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" t="s">
-        <v>14</v>
+        <v>527</v>
       </c>
       <c r="H22" t="s">
         <v>369</v>
@@ -2827,432 +2843,457 @@
       <c r="I22" t="s">
         <v>370</v>
       </c>
+      <c r="J22">
+        <v>16</v>
+      </c>
       <c r="K22" t="s">
-        <v>64</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>214</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>487</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>397</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>511</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>504</v>
       </c>
       <c r="H23" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I23" t="s">
-        <v>370</v>
+        <v>384</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>64</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>279</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>279</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>280</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>281</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" t="s">
-        <v>14</v>
+        <v>282</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="H24" t="s">
         <v>369</v>
       </c>
       <c r="I24" t="s">
-        <v>370</v>
-      </c>
-      <c r="K24" t="s">
-        <v>64</v>
+        <v>368</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>496</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" t="s">
-        <v>69</v>
+        <v>496</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G25" t="s">
         <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="I25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K25" t="s">
-        <v>64</v>
+        <v>497</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>498</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" t="s">
-        <v>69</v>
+        <v>498</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="I26" t="s">
-        <v>370</v>
-      </c>
-      <c r="K26" t="s">
-        <v>64</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" t="s">
-        <v>105</v>
-      </c>
-      <c r="F27" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" t="s">
-        <v>369</v>
-      </c>
-      <c r="I27" t="s">
-        <v>370</v>
-      </c>
-      <c r="K27" t="s">
-        <v>64</v>
-      </c>
+      <c r="A27" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="J27" s="5">
+        <v>4</v>
+      </c>
+      <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>487</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>509</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>510</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>504</v>
       </c>
       <c r="H28" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I28" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="K28" t="s">
-        <v>64</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>225</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>487</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>516</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>510</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>504</v>
       </c>
       <c r="H29" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="I29" t="s">
-        <v>370</v>
+        <v>384</v>
+      </c>
+      <c r="K29" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>209</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>209</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>487</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>505</v>
       </c>
       <c r="E30" t="s">
-        <v>117</v>
+        <v>506</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>504</v>
       </c>
       <c r="H30" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I30" t="s">
-        <v>370</v>
+        <v>384</v>
+      </c>
+      <c r="K30" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>487</v>
       </c>
       <c r="D31" t="s">
-        <v>119</v>
+        <v>515</v>
       </c>
       <c r="E31" t="s">
-        <v>120</v>
+        <v>506</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>504</v>
       </c>
       <c r="H31" t="s">
         <v>386</v>
       </c>
       <c r="I31" t="s">
-        <v>370</v>
+        <v>384</v>
+      </c>
+      <c r="K31" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>217</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>487</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>391</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>513</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>504</v>
       </c>
       <c r="H32" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="I32" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="J32">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>487</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>399</v>
       </c>
       <c r="E33" t="s">
-        <v>128</v>
+        <v>508</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>504</v>
       </c>
       <c r="H33" t="s">
         <v>394</v>
       </c>
       <c r="I33" t="s">
-        <v>370</v>
+        <v>384</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>487</v>
       </c>
       <c r="D34" t="s">
-        <v>130</v>
+        <v>393</v>
       </c>
       <c r="E34" t="s">
-        <v>131</v>
+        <v>508</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>504</v>
       </c>
       <c r="H34" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="I34" t="s">
-        <v>370</v>
+        <v>384</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>410</v>
+        <v>178</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="E35" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="H35" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="I35" t="s">
-        <v>370</v>
-      </c>
-      <c r="J35">
-        <v>8</v>
+        <v>368</v>
+      </c>
+      <c r="K35" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>428</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>361</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>354</v>
       </c>
       <c r="D36" t="s">
-        <v>136</v>
+        <v>362</v>
       </c>
       <c r="E36" t="s">
-        <v>137</v>
+        <v>363</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>357</v>
       </c>
       <c r="H36" t="s">
         <v>369</v>
@@ -3263,25 +3304,25 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>427</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
+        <v>358</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>354</v>
       </c>
       <c r="D37" t="s">
-        <v>140</v>
+        <v>359</v>
       </c>
       <c r="E37" t="s">
-        <v>141</v>
+        <v>360</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>357</v>
       </c>
       <c r="H37" t="s">
         <v>369</v>
@@ -3291,232 +3332,237 @@
       </c>
     </row>
     <row r="38" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="J38" s="8">
-        <v>7</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>145</v>
+      <c r="A38" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" t="s">
+        <v>192</v>
+      </c>
+      <c r="F38" t="s">
+        <v>176</v>
+      </c>
+      <c r="G38" t="s">
+        <v>177</v>
+      </c>
+      <c r="H38" t="s">
+        <v>394</v>
+      </c>
+      <c r="I38" t="s">
+        <v>384</v>
+      </c>
+      <c r="J38"/>
+      <c r="K38" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>145</v>
+      <c r="A39" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" t="s">
+        <v>195</v>
+      </c>
+      <c r="E39" t="s">
+        <v>196</v>
+      </c>
+      <c r="F39" t="s">
+        <v>176</v>
+      </c>
+      <c r="G39" t="s">
+        <v>177</v>
+      </c>
+      <c r="H39" t="s">
+        <v>394</v>
+      </c>
+      <c r="I39" t="s">
+        <v>384</v>
+      </c>
+      <c r="J39"/>
+      <c r="K39" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="B40" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="D40" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="E40" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="H40" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I40" t="s">
-        <v>370</v>
+        <v>384</v>
+      </c>
+      <c r="K40" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>149</v>
-      </c>
-      <c r="B41" t="s">
-        <v>149</v>
-      </c>
-      <c r="C41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" t="s">
-        <v>150</v>
-      </c>
-      <c r="E41" t="s">
-        <v>151</v>
-      </c>
-      <c r="F41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G41" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" t="s">
-        <v>369</v>
-      </c>
-      <c r="I41" t="s">
-        <v>370</v>
-      </c>
+      <c r="A41" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J41" s="5">
+        <v>5</v>
+      </c>
+      <c r="K41" s="5"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>152</v>
-      </c>
-      <c r="B42" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" t="s">
-        <v>154</v>
-      </c>
-      <c r="E42" t="s">
-        <v>155</v>
-      </c>
-      <c r="F42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G42" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" t="s">
-        <v>369</v>
-      </c>
-      <c r="I42" t="s">
-        <v>370</v>
-      </c>
+      <c r="A42" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="J42" s="5">
+        <v>4</v>
+      </c>
+      <c r="K42" s="5"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="E43" t="s">
-        <v>159</v>
-      </c>
-      <c r="F43" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
         <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="I43" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>160</v>
-      </c>
-      <c r="B44" t="s">
-        <v>161</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="A44" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D44" t="s">
-        <v>162</v>
-      </c>
-      <c r="E44" t="s">
-        <v>163</v>
-      </c>
-      <c r="F44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="D44" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H44" t="s">
-        <v>369</v>
-      </c>
-      <c r="I44" t="s">
-        <v>370</v>
-      </c>
+      <c r="H44" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="J44" s="8">
+        <v>4</v>
+      </c>
+      <c r="K44" s="8"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="E45" t="s">
-        <v>167</v>
-      </c>
-      <c r="F45" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s">
         <v>14</v>
@@ -3529,186 +3575,172 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>168</v>
-      </c>
-      <c r="B46" t="s">
-        <v>171</v>
-      </c>
-      <c r="C46" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" t="s">
-        <v>169</v>
-      </c>
-      <c r="E46" t="s">
-        <v>170</v>
-      </c>
-      <c r="F46" t="s">
-        <v>54</v>
-      </c>
-      <c r="G46" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" t="s">
-        <v>377</v>
-      </c>
-      <c r="I46" t="s">
-        <v>384</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
+      <c r="A46" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J46" s="5">
+        <v>5</v>
+      </c>
+      <c r="K46" s="5"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="E47" t="s">
-        <v>175</v>
-      </c>
-      <c r="F47" t="s">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="G47" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="I47" t="s">
         <v>370</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>180</v>
+        <v>53</v>
       </c>
       <c r="F48" t="s">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="G48" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="I48" t="s">
-        <v>368</v>
-      </c>
-      <c r="K48" t="s">
-        <v>181</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>182</v>
+        <v>409</v>
       </c>
       <c r="B49" t="s">
-        <v>182</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>183</v>
+        <v>56</v>
       </c>
       <c r="E49" t="s">
-        <v>184</v>
+        <v>57</v>
       </c>
       <c r="F49" t="s">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="G49" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="I49" t="s">
         <v>370</v>
-      </c>
-      <c r="K49" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>186</v>
+        <v>423</v>
       </c>
       <c r="B50" t="s">
-        <v>186</v>
+        <v>322</v>
       </c>
       <c r="C50" t="s">
-        <v>173</v>
+        <v>323</v>
       </c>
       <c r="D50" t="s">
-        <v>187</v>
+        <v>324</v>
       </c>
       <c r="E50" t="s">
-        <v>188</v>
+        <v>324</v>
       </c>
       <c r="F50" t="s">
-        <v>176</v>
-      </c>
-      <c r="G50" t="s">
-        <v>177</v>
+        <v>325</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="H50" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="I50" t="s">
-        <v>368</v>
-      </c>
-      <c r="K50" t="s">
-        <v>189</v>
+        <v>370</v>
+      </c>
+      <c r="J50">
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>190</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>190</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>173</v>
+        <v>277</v>
       </c>
       <c r="D51" t="s">
-        <v>191</v>
-      </c>
-      <c r="E51" t="s">
-        <v>192</v>
+        <v>499</v>
       </c>
       <c r="F51" t="s">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="G51" t="s">
-        <v>177</v>
+        <v>278</v>
       </c>
       <c r="H51" t="s">
         <v>394</v>
@@ -3716,95 +3748,93 @@
       <c r="I51" t="s">
         <v>384</v>
       </c>
-      <c r="K51" t="s">
-        <v>193</v>
-      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>194</v>
-      </c>
-      <c r="B52" t="s">
-        <v>194</v>
-      </c>
-      <c r="C52" t="s">
-        <v>173</v>
-      </c>
-      <c r="D52" t="s">
-        <v>195</v>
-      </c>
-      <c r="E52" t="s">
-        <v>196</v>
-      </c>
-      <c r="F52" t="s">
-        <v>176</v>
-      </c>
-      <c r="G52" t="s">
-        <v>177</v>
-      </c>
-      <c r="H52" t="s">
-        <v>394</v>
-      </c>
-      <c r="I52" t="s">
-        <v>384</v>
-      </c>
-      <c r="K52" t="s">
-        <v>193</v>
-      </c>
+      <c r="A52" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J52" s="5">
+        <v>6</v>
+      </c>
+      <c r="K52" s="5"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>197</v>
+        <v>327</v>
       </c>
       <c r="B53" t="s">
-        <v>197</v>
+        <v>327</v>
       </c>
       <c r="C53" t="s">
-        <v>173</v>
+        <v>323</v>
       </c>
       <c r="D53" t="s">
-        <v>198</v>
+        <v>328</v>
       </c>
       <c r="E53" t="s">
-        <v>199</v>
+        <v>329</v>
       </c>
       <c r="F53" t="s">
-        <v>176</v>
+        <v>330</v>
       </c>
       <c r="G53" t="s">
-        <v>177</v>
+        <v>326</v>
       </c>
       <c r="H53" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="I53" t="s">
-        <v>384</v>
-      </c>
-      <c r="K53" t="s">
-        <v>193</v>
+        <v>370</v>
+      </c>
+      <c r="J53">
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>200</v>
+        <v>121</v>
       </c>
       <c r="B54" t="s">
-        <v>200</v>
+        <v>122</v>
       </c>
       <c r="C54" t="s">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>201</v>
+        <v>123</v>
       </c>
       <c r="E54" t="s">
-        <v>202</v>
+        <v>124</v>
       </c>
       <c r="F54" t="s">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="G54" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
         <v>369</v>
@@ -3812,229 +3842,235 @@
       <c r="I54" t="s">
         <v>370</v>
       </c>
-      <c r="K54" t="s">
-        <v>185</v>
+      <c r="J54">
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>203</v>
+        <v>125</v>
       </c>
       <c r="B55" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="C55" t="s">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="E55" t="s">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="F55" t="s">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="G55" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="I55" t="s">
-        <v>368</v>
-      </c>
-      <c r="K55" t="s">
-        <v>181</v>
+        <v>370</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="B56" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="C56" t="s">
-        <v>492</v>
+        <v>173</v>
       </c>
       <c r="D56" t="s">
-        <v>510</v>
+        <v>389</v>
       </c>
       <c r="E56" t="s">
-        <v>514</v>
-      </c>
-      <c r="F56" t="s">
+        <v>537</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>511</v>
+        <v>177</v>
       </c>
       <c r="H56" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="I56" t="s">
-        <v>384</v>
+        <v>370</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
       </c>
       <c r="K56" t="s">
-        <v>208</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="B57" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="C57" t="s">
-        <v>492</v>
+        <v>173</v>
       </c>
       <c r="D57" t="s">
-        <v>512</v>
+        <v>374</v>
       </c>
       <c r="E57" t="s">
-        <v>513</v>
+        <v>539</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="G57" t="s">
-        <v>511</v>
+        <v>177</v>
       </c>
       <c r="H57" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="I57" t="s">
-        <v>384</v>
+        <v>370</v>
+      </c>
+      <c r="J57">
+        <v>11</v>
       </c>
       <c r="K57" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="B58" t="s">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="C58" t="s">
-        <v>492</v>
+        <v>173</v>
       </c>
       <c r="D58" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="E58" t="s">
-        <v>515</v>
+        <v>543</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="G58" t="s">
-        <v>511</v>
+        <v>177</v>
       </c>
       <c r="H58" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="I58" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="J58">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K58" t="s">
-        <v>212</v>
+        <v>269</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>213</v>
+        <v>274</v>
       </c>
       <c r="B59" t="s">
-        <v>213</v>
+        <v>274</v>
       </c>
       <c r="C59" t="s">
-        <v>492</v>
+        <v>173</v>
       </c>
       <c r="D59" t="s">
-        <v>516</v>
+        <v>378</v>
       </c>
       <c r="E59" t="s">
-        <v>517</v>
+        <v>551</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>542</v>
       </c>
       <c r="G59" t="s">
-        <v>511</v>
+        <v>177</v>
       </c>
       <c r="H59" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="I59" t="s">
-        <v>384</v>
+        <v>368</v>
+      </c>
+      <c r="J59">
+        <v>3</v>
       </c>
       <c r="K59" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="B60" t="s">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="C60" t="s">
-        <v>492</v>
+        <v>207</v>
       </c>
       <c r="D60" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="E60" t="s">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>542</v>
       </c>
       <c r="G60" t="s">
-        <v>511</v>
+        <v>177</v>
       </c>
       <c r="H60" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="I60" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K60" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B61" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C61" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D61" t="s">
-        <v>398</v>
+        <v>503</v>
       </c>
       <c r="E61" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="F61" t="s">
         <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="H61" t="s">
         <v>394</v>
@@ -4042,34 +4078,31 @@
       <c r="I61" t="s">
         <v>384</v>
       </c>
-      <c r="J61">
-        <v>2</v>
-      </c>
       <c r="K61" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B62" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C62" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D62" t="s">
-        <v>391</v>
+        <v>514</v>
       </c>
       <c r="E62" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="F62" t="s">
         <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="H62" t="s">
         <v>386</v>
@@ -4077,532 +4110,486 @@
       <c r="I62" t="s">
         <v>384</v>
       </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
       <c r="K62" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>219</v>
+        <v>415</v>
       </c>
       <c r="B63" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="C63" t="s">
-        <v>492</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>521</v>
+        <v>371</v>
       </c>
       <c r="E63" t="s">
-        <v>514</v>
-      </c>
-      <c r="F63" t="s">
+        <v>532</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="H63" t="s">
+        <v>369</v>
+      </c>
+      <c r="I63" t="s">
+        <v>370</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J64" s="5">
+        <v>3</v>
+      </c>
+      <c r="K64" s="5"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="J67" s="5">
         <v>12</v>
       </c>
-      <c r="G63" t="s">
-        <v>511</v>
-      </c>
-      <c r="H63" t="s">
-        <v>386</v>
-      </c>
-      <c r="I63" t="s">
-        <v>384</v>
-      </c>
-      <c r="K63" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>221</v>
-      </c>
-      <c r="B64" t="s">
-        <v>221</v>
-      </c>
-      <c r="C64" t="s">
-        <v>492</v>
-      </c>
-      <c r="D64" t="s">
-        <v>522</v>
-      </c>
-      <c r="E64" t="s">
-        <v>513</v>
-      </c>
-      <c r="F64" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" t="s">
-        <v>511</v>
-      </c>
-      <c r="H64" t="s">
-        <v>386</v>
-      </c>
-      <c r="I64" t="s">
-        <v>384</v>
-      </c>
-      <c r="K64" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>223</v>
-      </c>
-      <c r="B65" t="s">
-        <v>223</v>
-      </c>
-      <c r="C65" t="s">
-        <v>492</v>
-      </c>
-      <c r="D65" t="s">
-        <v>393</v>
-      </c>
-      <c r="E65" t="s">
-        <v>515</v>
-      </c>
-      <c r="F65" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" t="s">
-        <v>511</v>
-      </c>
-      <c r="H65" t="s">
-        <v>386</v>
-      </c>
-      <c r="I65" t="s">
-        <v>384</v>
-      </c>
-      <c r="J65">
-        <v>4</v>
-      </c>
-      <c r="K65" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>225</v>
-      </c>
-      <c r="B66" t="s">
-        <v>225</v>
-      </c>
-      <c r="C66" t="s">
-        <v>492</v>
-      </c>
-      <c r="D66" t="s">
-        <v>523</v>
-      </c>
-      <c r="E66" t="s">
-        <v>517</v>
-      </c>
-      <c r="F66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" t="s">
-        <v>511</v>
-      </c>
-      <c r="H66" t="s">
-        <v>386</v>
-      </c>
-      <c r="I66" t="s">
-        <v>384</v>
-      </c>
-      <c r="K66" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>226</v>
-      </c>
-      <c r="B67" t="s">
-        <v>226</v>
-      </c>
-      <c r="C67" t="s">
-        <v>492</v>
-      </c>
-      <c r="D67" t="s">
-        <v>392</v>
-      </c>
-      <c r="E67" t="s">
-        <v>519</v>
-      </c>
-      <c r="F67" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" t="s">
-        <v>511</v>
-      </c>
-      <c r="H67" t="s">
-        <v>386</v>
-      </c>
-      <c r="I67" t="s">
-        <v>384</v>
-      </c>
-      <c r="J67">
-        <v>2</v>
-      </c>
-      <c r="K67" t="s">
-        <v>227</v>
-      </c>
+      <c r="K67" s="5"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>228</v>
-      </c>
-      <c r="B68" t="s">
-        <v>228</v>
-      </c>
-      <c r="C68" t="s">
-        <v>492</v>
-      </c>
-      <c r="D68" t="s">
-        <v>385</v>
-      </c>
-      <c r="E68" t="s">
-        <v>524</v>
-      </c>
-      <c r="F68" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" t="s">
-        <v>456</v>
-      </c>
-      <c r="H68" t="s">
-        <v>386</v>
-      </c>
-      <c r="I68" t="s">
+      <c r="A68" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="I68" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="J68">
-        <v>2</v>
-      </c>
-      <c r="K68" t="s">
-        <v>229</v>
-      </c>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>230</v>
-      </c>
-      <c r="B69" t="s">
-        <v>230</v>
-      </c>
-      <c r="C69" t="s">
-        <v>526</v>
-      </c>
-      <c r="D69" t="s">
-        <v>400</v>
-      </c>
-      <c r="E69" t="s">
-        <v>525</v>
-      </c>
-      <c r="F69" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" t="s">
-        <v>456</v>
-      </c>
-      <c r="H69" t="s">
+      <c r="A69" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="H69" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="K69" t="s">
-        <v>231</v>
-      </c>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>232</v>
-      </c>
-      <c r="B70" t="s">
-        <v>232</v>
-      </c>
-      <c r="C70" t="s">
-        <v>526</v>
-      </c>
-      <c r="D70" t="s">
-        <v>429</v>
-      </c>
-      <c r="E70" t="s">
-        <v>527</v>
-      </c>
-      <c r="F70" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" t="s">
-        <v>456</v>
-      </c>
-      <c r="H70" t="s">
+      <c r="A70" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="H70" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="K70" t="s">
-        <v>233</v>
-      </c>
+      <c r="J70" s="5">
+        <v>11</v>
+      </c>
+      <c r="K70" s="5"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>234</v>
+        <v>118</v>
       </c>
       <c r="B71" t="s">
-        <v>234</v>
+        <v>118</v>
       </c>
       <c r="C71" t="s">
-        <v>526</v>
+        <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>528</v>
+        <v>119</v>
       </c>
       <c r="E71" t="s">
-        <v>529</v>
+        <v>120</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G71" t="s">
-        <v>456</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="I71" t="s">
-        <v>368</v>
-      </c>
-      <c r="K71" t="s">
-        <v>235</v>
+        <v>370</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>236</v>
+        <v>129</v>
       </c>
       <c r="B72" t="s">
-        <v>236</v>
+        <v>129</v>
       </c>
       <c r="C72" t="s">
-        <v>526</v>
+        <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>380</v>
+        <v>130</v>
       </c>
       <c r="E72" t="s">
-        <v>530</v>
+        <v>131</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G72" t="s">
-        <v>456</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="I72" t="s">
-        <v>368</v>
-      </c>
-      <c r="J72">
-        <v>7</v>
-      </c>
-      <c r="K72" t="s">
-        <v>237</v>
+        <v>370</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>238</v>
+        <v>135</v>
       </c>
       <c r="B73" t="s">
-        <v>238</v>
+        <v>135</v>
       </c>
       <c r="C73" t="s">
-        <v>526</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>381</v>
+        <v>136</v>
       </c>
       <c r="E73" t="s">
-        <v>531</v>
+        <v>137</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G73" t="s">
-        <v>456</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="I73" t="s">
-        <v>368</v>
-      </c>
-      <c r="J73">
-        <v>8</v>
-      </c>
-      <c r="K73" t="s">
-        <v>237</v>
+        <v>370</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>239</v>
+        <v>146</v>
       </c>
       <c r="B74" t="s">
-        <v>239</v>
+        <v>146</v>
       </c>
       <c r="C74" t="s">
-        <v>526</v>
+        <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>383</v>
+        <v>147</v>
       </c>
       <c r="E74" t="s">
-        <v>532</v>
+        <v>148</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G74" t="s">
-        <v>456</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="I74" t="s">
-        <v>368</v>
-      </c>
-      <c r="J74">
-        <v>10</v>
-      </c>
-      <c r="K74" t="s">
-        <v>240</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="B75" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="C75" t="s">
-        <v>526</v>
+        <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>382</v>
+        <v>150</v>
       </c>
       <c r="E75" t="s">
-        <v>533</v>
+        <v>151</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G75" t="s">
-        <v>456</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="I75" t="s">
-        <v>368</v>
-      </c>
-      <c r="J75">
-        <v>9</v>
-      </c>
-      <c r="K75" t="s">
-        <v>242</v>
+        <v>370</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>243</v>
+        <v>407</v>
       </c>
       <c r="B76" t="s">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>526</v>
+        <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>388</v>
+        <v>20</v>
       </c>
       <c r="E76" t="s">
-        <v>533</v>
-      </c>
-      <c r="F76" t="s">
-        <v>12</v>
+        <v>403</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="G76" t="s">
-        <v>456</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
         <v>386</v>
       </c>
       <c r="I76" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="J76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K76" t="s">
-        <v>242</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B77" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>376</v>
+        <v>23</v>
       </c>
       <c r="E77" t="s">
-        <v>534</v>
+        <v>404</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G77" t="s">
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="I77" t="s">
         <v>370</v>
       </c>
       <c r="J77">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K77" t="s">
-        <v>245</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B78" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>390</v>
-      </c>
-      <c r="F78" t="s">
-        <v>12</v>
+        <v>372</v>
       </c>
       <c r="G78" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="H78" t="s">
         <v>369</v>
@@ -4611,33 +4598,33 @@
         <v>370</v>
       </c>
       <c r="J78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>247</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>414</v>
+        <v>182</v>
       </c>
       <c r="B79" t="s">
-        <v>248</v>
+        <v>182</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="D79" t="s">
-        <v>375</v>
+        <v>183</v>
       </c>
       <c r="E79" t="s">
-        <v>536</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>538</v>
+        <v>184</v>
+      </c>
+      <c r="F79" t="s">
+        <v>176</v>
+      </c>
+      <c r="G79" t="s">
+        <v>177</v>
       </c>
       <c r="H79" t="s">
         <v>369</v>
@@ -4645,232 +4632,210 @@
       <c r="I79" t="s">
         <v>370</v>
       </c>
-      <c r="J79">
-        <v>13</v>
-      </c>
       <c r="K79" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>415</v>
+        <v>331</v>
       </c>
       <c r="B80" t="s">
-        <v>250</v>
+        <v>331</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>323</v>
       </c>
       <c r="D80" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="E80" t="s">
-        <v>539</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>540</v>
+        <v>333</v>
+      </c>
+      <c r="F80" t="s">
+        <v>334</v>
+      </c>
+      <c r="G80" t="s">
+        <v>326</v>
       </c>
       <c r="H80" t="s">
+        <v>394</v>
+      </c>
+      <c r="I80" t="s">
+        <v>370</v>
+      </c>
+      <c r="J80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H81" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="I80" t="s">
-        <v>370</v>
-      </c>
-      <c r="J80">
+      <c r="I81" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="J81" s="5">
         <v>2</v>
       </c>
-      <c r="K80" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>152</v>
-      </c>
-      <c r="B81" t="s">
-        <v>252</v>
-      </c>
-      <c r="C81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" t="s">
-        <v>542</v>
-      </c>
-      <c r="E81" t="s">
-        <v>541</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="H81" t="s">
-        <v>369</v>
-      </c>
-      <c r="K81" t="s">
-        <v>253</v>
-      </c>
+      <c r="K81" s="5"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>254</v>
+        <v>138</v>
       </c>
       <c r="B82" t="s">
-        <v>254</v>
+        <v>139</v>
       </c>
       <c r="C82" t="s">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>255</v>
+        <v>140</v>
       </c>
       <c r="E82" t="s">
-        <v>256</v>
+        <v>141</v>
       </c>
       <c r="F82" t="s">
-        <v>257</v>
+        <v>54</v>
       </c>
       <c r="G82" t="s">
-        <v>258</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
+        <v>369</v>
+      </c>
+      <c r="I82" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="H83" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I83" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="J82">
-        <v>1</v>
-      </c>
-      <c r="K82" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>260</v>
-      </c>
-      <c r="B83" t="s">
-        <v>260</v>
-      </c>
-      <c r="C83" t="s">
-        <v>173</v>
-      </c>
-      <c r="D83" t="s">
-        <v>389</v>
-      </c>
-      <c r="E83" t="s">
-        <v>544</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" t="s">
-        <v>177</v>
-      </c>
-      <c r="H83" t="s">
-        <v>386</v>
-      </c>
-      <c r="I83" t="s">
-        <v>370</v>
-      </c>
-      <c r="J83">
-        <v>1</v>
-      </c>
-      <c r="K83" t="s">
-        <v>261</v>
-      </c>
+      <c r="J83" s="5">
+        <v>13</v>
+      </c>
+      <c r="K83" s="5"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>425</v>
+        <v>164</v>
       </c>
       <c r="B84" t="s">
-        <v>262</v>
+        <v>165</v>
       </c>
       <c r="C84" t="s">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>396</v>
+        <v>166</v>
       </c>
       <c r="E84" t="s">
-        <v>545</v>
+        <v>167</v>
       </c>
       <c r="F84" t="s">
-        <v>257</v>
+        <v>54</v>
       </c>
       <c r="G84" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="I84" t="s">
         <v>370</v>
-      </c>
-      <c r="J84">
-        <v>2</v>
-      </c>
-      <c r="K84" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>264</v>
+        <v>335</v>
       </c>
       <c r="B85" t="s">
-        <v>264</v>
+        <v>335</v>
       </c>
       <c r="C85" t="s">
-        <v>173</v>
+        <v>336</v>
       </c>
       <c r="D85" t="s">
-        <v>374</v>
+        <v>545</v>
       </c>
       <c r="E85" t="s">
+        <v>545</v>
+      </c>
+      <c r="F85" t="s">
+        <v>69</v>
+      </c>
+      <c r="G85" t="s">
         <v>546</v>
       </c>
-      <c r="F85" t="s">
-        <v>257</v>
-      </c>
-      <c r="G85" t="s">
-        <v>177</v>
-      </c>
       <c r="H85" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I85" t="s">
-        <v>370</v>
-      </c>
-      <c r="J85">
-        <v>11</v>
-      </c>
-      <c r="K85" t="s">
-        <v>265</v>
+        <v>384</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>266</v>
+        <v>425</v>
       </c>
       <c r="B86" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C86" t="s">
         <v>173</v>
       </c>
       <c r="D86" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E86" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F86" t="s">
         <v>257</v>
@@ -4885,132 +4850,129 @@
         <v>370</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K86" t="s">
-        <v>181</v>
+        <v>263</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>267</v>
+        <v>200</v>
       </c>
       <c r="B87" t="s">
-        <v>267</v>
+        <v>200</v>
       </c>
       <c r="C87" t="s">
         <v>173</v>
       </c>
       <c r="D87" t="s">
-        <v>379</v>
+        <v>201</v>
       </c>
       <c r="E87" t="s">
-        <v>548</v>
+        <v>202</v>
       </c>
       <c r="F87" t="s">
-        <v>549</v>
+        <v>176</v>
       </c>
       <c r="G87" t="s">
         <v>177</v>
       </c>
       <c r="H87" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="I87" t="s">
-        <v>368</v>
-      </c>
-      <c r="J87">
-        <v>5</v>
+        <v>370</v>
       </c>
       <c r="K87" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>268</v>
+        <v>203</v>
       </c>
       <c r="B88" t="s">
-        <v>268</v>
+        <v>203</v>
       </c>
       <c r="C88" t="s">
         <v>173</v>
       </c>
       <c r="D88" t="s">
-        <v>373</v>
+        <v>204</v>
       </c>
       <c r="E88" t="s">
-        <v>550</v>
+        <v>205</v>
       </c>
       <c r="F88" t="s">
-        <v>257</v>
+        <v>176</v>
       </c>
       <c r="G88" t="s">
         <v>177</v>
       </c>
       <c r="H88" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="I88" t="s">
-        <v>370</v>
-      </c>
-      <c r="J88">
-        <v>7</v>
+        <v>368</v>
       </c>
       <c r="K88" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="H89" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="I89" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="J89" s="10">
-        <v>1</v>
-      </c>
-      <c r="K89" s="10" t="s">
-        <v>18</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>337</v>
+      </c>
+      <c r="B89" t="s">
+        <v>337</v>
+      </c>
+      <c r="C89" t="s">
+        <v>277</v>
+      </c>
+      <c r="D89" t="s">
+        <v>338</v>
+      </c>
+      <c r="E89" t="s">
+        <v>338</v>
+      </c>
+      <c r="F89" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>278</v>
+      </c>
+      <c r="H89" t="s">
+        <v>394</v>
+      </c>
+      <c r="I89" t="s">
+        <v>384</v>
+      </c>
+      <c r="J89">
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>271</v>
+        <v>339</v>
       </c>
       <c r="B90" t="s">
-        <v>271</v>
+        <v>339</v>
       </c>
       <c r="C90" t="s">
-        <v>173</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>430</v>
+        <v>280</v>
+      </c>
+      <c r="D90" t="s">
+        <v>340</v>
       </c>
       <c r="E90" t="s">
-        <v>556</v>
+        <v>341</v>
       </c>
       <c r="F90" t="s">
-        <v>549</v>
+        <v>12</v>
       </c>
       <c r="G90" t="s">
-        <v>177</v>
+        <v>283</v>
       </c>
       <c r="H90" t="s">
         <v>377</v>
@@ -5019,391 +4981,376 @@
         <v>368</v>
       </c>
       <c r="J90">
-        <v>2</v>
-      </c>
-      <c r="K90" t="s">
-        <v>229</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="B91" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="C91" t="s">
         <v>173</v>
       </c>
       <c r="D91" t="s">
-        <v>367</v>
+        <v>255</v>
       </c>
       <c r="E91" t="s">
-        <v>557</v>
+        <v>256</v>
       </c>
       <c r="F91" t="s">
-        <v>549</v>
+        <v>257</v>
       </c>
       <c r="G91" t="s">
-        <v>177</v>
+        <v>258</v>
       </c>
       <c r="H91" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="I91" t="s">
         <v>368</v>
       </c>
       <c r="J91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K91" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="B92" t="s">
-        <v>274</v>
+        <v>161</v>
       </c>
       <c r="C92" t="s">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>378</v>
+        <v>162</v>
       </c>
       <c r="E92" t="s">
-        <v>558</v>
+        <v>163</v>
       </c>
       <c r="F92" t="s">
-        <v>549</v>
+        <v>54</v>
       </c>
       <c r="G92" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="I92" t="s">
-        <v>368</v>
-      </c>
-      <c r="J92">
-        <v>3</v>
-      </c>
-      <c r="K92" t="s">
-        <v>273</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>275</v>
+        <v>426</v>
       </c>
       <c r="B93" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C93" t="s">
-        <v>207</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>387</v>
+        <v>285</v>
       </c>
       <c r="E93" t="s">
-        <v>559</v>
+        <v>286</v>
       </c>
       <c r="F93" t="s">
-        <v>549</v>
+        <v>54</v>
       </c>
       <c r="G93" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
         <v>386</v>
       </c>
       <c r="I93" t="s">
-        <v>368</v>
-      </c>
-      <c r="J93">
-        <v>3</v>
-      </c>
-      <c r="K93" t="s">
-        <v>273</v>
+        <v>370</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>276</v>
+        <v>426</v>
       </c>
       <c r="B94" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C94" t="s">
-        <v>277</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>555</v>
+        <v>285</v>
       </c>
       <c r="E94" t="s">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G94" t="s">
-        <v>278</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="I94" t="s">
-        <v>384</v>
-      </c>
-      <c r="J94">
-        <v>6</v>
+        <v>370</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="B95" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C95" t="s">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="D95" t="s">
-        <v>281</v>
+        <v>395</v>
       </c>
       <c r="E95" t="s">
-        <v>282</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>283</v>
+        <v>540</v>
+      </c>
+      <c r="F95" t="s">
+        <v>257</v>
+      </c>
+      <c r="G95" t="s">
+        <v>177</v>
       </c>
       <c r="H95" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I95" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="J95">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="K95" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="B96" t="s">
-        <v>284</v>
+        <v>495</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>285</v>
+        <v>364</v>
       </c>
       <c r="E96" t="s">
-        <v>286</v>
-      </c>
-      <c r="F96" t="s">
-        <v>54</v>
+        <v>365</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="G96" t="s">
         <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="I96" t="s">
         <v>370</v>
+      </c>
+      <c r="K96" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="B97" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>285</v>
+        <v>364</v>
       </c>
       <c r="E97" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F97" t="s">
-        <v>54</v>
+        <v>366</v>
       </c>
       <c r="G97" t="s">
         <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="I97" t="s">
         <v>370</v>
+      </c>
+      <c r="J97">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>417</v>
+        <v>152</v>
       </c>
       <c r="B98" t="s">
-        <v>288</v>
+        <v>153</v>
       </c>
       <c r="C98" t="s">
         <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>289</v>
+        <v>154</v>
       </c>
       <c r="E98" t="s">
-        <v>290</v>
+        <v>155</v>
       </c>
       <c r="F98" t="s">
-        <v>291</v>
+        <v>54</v>
       </c>
       <c r="G98" t="s">
         <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="I98" t="s">
         <v>370</v>
-      </c>
-      <c r="J98">
-        <v>4</v>
-      </c>
-      <c r="K98" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>418</v>
+        <v>152</v>
       </c>
       <c r="B99" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="C99" t="s">
         <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>294</v>
+        <v>535</v>
       </c>
       <c r="E99" t="s">
-        <v>295</v>
-      </c>
-      <c r="F99" t="s">
-        <v>291</v>
-      </c>
-      <c r="G99" t="s">
-        <v>14</v>
+        <v>534</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>536</v>
       </c>
       <c r="H99" t="s">
-        <v>394</v>
-      </c>
-      <c r="I99" t="s">
-        <v>370</v>
-      </c>
-      <c r="J99">
-        <v>3</v>
+        <v>369</v>
       </c>
       <c r="K99" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>419</v>
+        <v>342</v>
       </c>
       <c r="B100" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>323</v>
       </c>
       <c r="D100" t="s">
-        <v>297</v>
+        <v>343</v>
       </c>
       <c r="E100" t="s">
-        <v>298</v>
+        <v>344</v>
       </c>
       <c r="F100" t="s">
         <v>291</v>
       </c>
       <c r="G100" t="s">
-        <v>14</v>
+        <v>326</v>
       </c>
       <c r="H100" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="I100" t="s">
-        <v>384</v>
-      </c>
-      <c r="K100" t="s">
-        <v>292</v>
+        <v>370</v>
+      </c>
+      <c r="J100">
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>299</v>
+        <v>186</v>
       </c>
       <c r="B101" t="s">
-        <v>300</v>
+        <v>186</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="D101" t="s">
-        <v>301</v>
+        <v>187</v>
       </c>
       <c r="E101" t="s">
-        <v>302</v>
+        <v>188</v>
       </c>
       <c r="F101" t="s">
-        <v>291</v>
+        <v>176</v>
       </c>
       <c r="G101" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="H101" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="I101" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K101" t="s">
-        <v>303</v>
+        <v>189</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="B102" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="C102" t="s">
-        <v>13</v>
+        <v>323</v>
       </c>
       <c r="D102" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="E102" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="F102" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="G102" t="s">
-        <v>14</v>
+        <v>326</v>
       </c>
       <c r="H102" t="s">
         <v>369</v>
@@ -5412,318 +5359,336 @@
         <v>370</v>
       </c>
       <c r="J102">
-        <v>17</v>
-      </c>
-      <c r="K102" t="s">
-        <v>303</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="B103" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="C103" t="s">
-        <v>13</v>
+        <v>323</v>
       </c>
       <c r="D103" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="E103" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="F103" t="s">
-        <v>291</v>
+        <v>352</v>
       </c>
       <c r="G103" t="s">
-        <v>14</v>
-      </c>
-      <c r="K103" t="s">
-        <v>303</v>
+        <v>326</v>
+      </c>
+      <c r="H103" t="s">
+        <v>369</v>
+      </c>
+      <c r="I103" t="s">
+        <v>370</v>
+      </c>
+      <c r="J103">
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="B104" t="s">
-        <v>312</v>
+        <v>16</v>
       </c>
       <c r="C104" t="s">
         <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>313</v>
+        <v>17</v>
       </c>
       <c r="E104" t="s">
-        <v>314</v>
-      </c>
-      <c r="F104" t="s">
-        <v>291</v>
+        <v>401</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="G104" t="s">
         <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="I104" t="s">
         <v>370</v>
       </c>
-      <c r="J104">
-        <v>3</v>
-      </c>
       <c r="K104" t="s">
-        <v>315</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>421</v>
+        <v>271</v>
       </c>
       <c r="B105" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="C105" t="s">
-        <v>13</v>
-      </c>
-      <c r="D105" t="s">
-        <v>317</v>
+        <v>173</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>430</v>
       </c>
       <c r="E105" t="s">
-        <v>318</v>
+        <v>549</v>
       </c>
       <c r="F105" t="s">
-        <v>291</v>
+        <v>542</v>
       </c>
       <c r="G105" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="H105" t="s">
         <v>377</v>
       </c>
       <c r="I105" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J105">
         <v>2</v>
       </c>
       <c r="K105" t="s">
-        <v>315</v>
+        <v>229</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>422</v>
+        <v>267</v>
       </c>
       <c r="B106" t="s">
-        <v>319</v>
+        <v>267</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="D106" t="s">
-        <v>320</v>
+        <v>379</v>
       </c>
       <c r="E106" t="s">
-        <v>321</v>
+        <v>541</v>
       </c>
       <c r="F106" t="s">
-        <v>291</v>
+        <v>542</v>
       </c>
       <c r="G106" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="H106" t="s">
         <v>377</v>
       </c>
       <c r="I106" t="s">
-        <v>370</v>
+        <v>368</v>
+      </c>
+      <c r="J106">
+        <v>5</v>
       </c>
       <c r="K106" t="s">
-        <v>315</v>
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>423</v>
+        <v>228</v>
       </c>
       <c r="B107" t="s">
-        <v>322</v>
+        <v>228</v>
       </c>
       <c r="C107" t="s">
-        <v>323</v>
+        <v>487</v>
       </c>
       <c r="D107" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
       <c r="E107" t="s">
-        <v>324</v>
+        <v>517</v>
       </c>
       <c r="F107" t="s">
-        <v>325</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>326</v>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>455</v>
       </c>
       <c r="H107" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="I107" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J107">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="K107" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>327</v>
+        <v>234</v>
       </c>
       <c r="B108" t="s">
-        <v>327</v>
+        <v>234</v>
       </c>
       <c r="C108" t="s">
-        <v>323</v>
+        <v>519</v>
       </c>
       <c r="D108" t="s">
-        <v>328</v>
+        <v>521</v>
       </c>
       <c r="E108" t="s">
-        <v>329</v>
+        <v>522</v>
       </c>
       <c r="F108" t="s">
-        <v>330</v>
+        <v>12</v>
       </c>
       <c r="G108" t="s">
-        <v>326</v>
+        <v>455</v>
       </c>
       <c r="H108" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="I108" t="s">
-        <v>370</v>
-      </c>
-      <c r="J108">
-        <v>4</v>
+        <v>368</v>
+      </c>
+      <c r="K108" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="B109" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="C109" t="s">
-        <v>323</v>
+        <v>173</v>
       </c>
       <c r="D109" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="E109" t="s">
-        <v>333</v>
+        <v>550</v>
       </c>
       <c r="F109" t="s">
-        <v>334</v>
+        <v>542</v>
       </c>
       <c r="G109" t="s">
-        <v>326</v>
+        <v>177</v>
       </c>
       <c r="H109" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="I109" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J109">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="K109" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>335</v>
+        <v>238</v>
       </c>
       <c r="B110" t="s">
-        <v>335</v>
+        <v>238</v>
       </c>
       <c r="C110" t="s">
-        <v>336</v>
+        <v>519</v>
       </c>
       <c r="D110" t="s">
-        <v>552</v>
+        <v>381</v>
       </c>
       <c r="E110" t="s">
-        <v>552</v>
+        <v>524</v>
       </c>
       <c r="F110" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="G110" t="s">
-        <v>553</v>
+        <v>455</v>
       </c>
       <c r="H110" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="I110" t="s">
-        <v>384</v>
+        <v>368</v>
+      </c>
+      <c r="J110">
+        <v>8</v>
+      </c>
+      <c r="K110" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>337</v>
+        <v>236</v>
       </c>
       <c r="B111" t="s">
-        <v>337</v>
+        <v>236</v>
       </c>
       <c r="C111" t="s">
-        <v>277</v>
+        <v>519</v>
       </c>
       <c r="D111" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="E111" t="s">
-        <v>338</v>
+        <v>523</v>
       </c>
       <c r="F111" t="s">
         <v>12</v>
       </c>
       <c r="G111" t="s">
-        <v>278</v>
+        <v>455</v>
       </c>
       <c r="H111" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="I111" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="J111">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="K111" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="B112" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="C112" t="s">
-        <v>280</v>
+        <v>519</v>
       </c>
       <c r="D112" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="E112" t="s">
-        <v>341</v>
+        <v>526</v>
       </c>
       <c r="F112" t="s">
         <v>12</v>
       </c>
       <c r="G112" t="s">
-        <v>283</v>
+        <v>455</v>
       </c>
       <c r="H112" t="s">
         <v>377</v>
@@ -5732,149 +5697,161 @@
         <v>368</v>
       </c>
       <c r="J112">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="K112" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>342</v>
+        <v>243</v>
       </c>
       <c r="B113" t="s">
-        <v>342</v>
+        <v>243</v>
       </c>
       <c r="C113" t="s">
-        <v>323</v>
+        <v>519</v>
       </c>
       <c r="D113" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="E113" t="s">
-        <v>344</v>
+        <v>526</v>
       </c>
       <c r="F113" t="s">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="G113" t="s">
-        <v>326</v>
+        <v>455</v>
       </c>
       <c r="H113" t="s">
         <v>386</v>
       </c>
       <c r="I113" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J113">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="K113" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>345</v>
+        <v>239</v>
       </c>
       <c r="B114" t="s">
-        <v>345</v>
+        <v>239</v>
       </c>
       <c r="C114" t="s">
-        <v>323</v>
+        <v>519</v>
       </c>
       <c r="D114" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="E114" t="s">
-        <v>347</v>
+        <v>525</v>
       </c>
       <c r="F114" t="s">
-        <v>348</v>
+        <v>12</v>
       </c>
       <c r="G114" t="s">
-        <v>326</v>
+        <v>455</v>
       </c>
       <c r="H114" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="I114" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J114">
         <v>10</v>
       </c>
+      <c r="K114" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
       <c r="B115" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
       <c r="C115" t="s">
-        <v>323</v>
+        <v>519</v>
       </c>
       <c r="D115" t="s">
-        <v>350</v>
+        <v>429</v>
       </c>
       <c r="E115" t="s">
-        <v>351</v>
+        <v>520</v>
       </c>
       <c r="F115" t="s">
-        <v>352</v>
+        <v>12</v>
       </c>
       <c r="G115" t="s">
-        <v>326</v>
+        <v>455</v>
       </c>
       <c r="H115" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="I115" t="s">
-        <v>370</v>
-      </c>
-      <c r="J115">
-        <v>9</v>
+        <v>368</v>
+      </c>
+      <c r="K115" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>424</v>
+        <v>230</v>
       </c>
       <c r="B116" t="s">
-        <v>353</v>
+        <v>230</v>
       </c>
       <c r="C116" t="s">
-        <v>354</v>
+        <v>519</v>
       </c>
       <c r="D116" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="E116" t="s">
-        <v>356</v>
+        <v>518</v>
       </c>
       <c r="F116" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="G116" t="s">
-        <v>357</v>
+        <v>455</v>
       </c>
       <c r="H116" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="I116" t="s">
-        <v>370</v>
+        <v>368</v>
+      </c>
+      <c r="K116" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B117" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C117" t="s">
         <v>354</v>
       </c>
       <c r="D117" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E117" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F117" t="s">
         <v>69</v>
@@ -5891,635 +5868,704 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>428</v>
+        <v>215</v>
       </c>
       <c r="B118" t="s">
-        <v>361</v>
+        <v>215</v>
       </c>
       <c r="C118" t="s">
-        <v>354</v>
+        <v>487</v>
       </c>
       <c r="D118" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="E118" t="s">
-        <v>363</v>
+        <v>512</v>
       </c>
       <c r="F118" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="G118" t="s">
-        <v>357</v>
+        <v>504</v>
       </c>
       <c r="H118" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="I118" t="s">
-        <v>370</v>
+        <v>384</v>
+      </c>
+      <c r="J118">
+        <v>2</v>
+      </c>
+      <c r="K118" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>405</v>
+        <v>226</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>226</v>
       </c>
       <c r="C119" t="s">
+        <v>487</v>
+      </c>
+      <c r="D119" t="s">
+        <v>392</v>
+      </c>
+      <c r="E119" t="s">
+        <v>512</v>
+      </c>
+      <c r="F119" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>504</v>
+      </c>
+      <c r="H119" t="s">
+        <v>386</v>
+      </c>
+      <c r="I119" t="s">
+        <v>384</v>
+      </c>
+      <c r="J119">
+        <v>2</v>
+      </c>
+      <c r="K119" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>299</v>
+      </c>
+      <c r="B120" t="s">
+        <v>300</v>
+      </c>
+      <c r="C120" t="s">
         <v>13</v>
       </c>
-      <c r="D119" t="s">
-        <v>364</v>
-      </c>
-      <c r="E119" t="s">
-        <v>365</v>
-      </c>
-      <c r="F119" t="s">
-        <v>366</v>
-      </c>
-      <c r="G119" t="s">
+      <c r="D120" t="s">
+        <v>301</v>
+      </c>
+      <c r="E120" t="s">
+        <v>302</v>
+      </c>
+      <c r="F120" t="s">
+        <v>291</v>
+      </c>
+      <c r="G120" t="s">
         <v>14</v>
       </c>
-      <c r="H119" t="s">
+      <c r="H120" t="s">
         <v>369</v>
       </c>
-      <c r="I119" t="s">
-        <v>370</v>
-      </c>
-      <c r="J119">
+      <c r="I120" t="s">
+        <v>370</v>
+      </c>
+      <c r="J120"/>
+      <c r="K120" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>304</v>
+      </c>
+      <c r="B121" t="s">
+        <v>305</v>
+      </c>
+      <c r="C121" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" t="s">
+        <v>306</v>
+      </c>
+      <c r="E121" t="s">
+        <v>307</v>
+      </c>
+      <c r="F121" t="s">
+        <v>291</v>
+      </c>
+      <c r="G121" t="s">
         <v>14</v>
       </c>
-      <c r="K119" t="s">
+      <c r="H121" t="s">
+        <v>369</v>
+      </c>
+      <c r="I121" t="s">
+        <v>370</v>
+      </c>
+      <c r="J121">
+        <v>17</v>
+      </c>
+      <c r="K121" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>308</v>
+      </c>
+      <c r="B122" t="s">
+        <v>309</v>
+      </c>
+      <c r="C122" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" t="s">
+        <v>310</v>
+      </c>
+      <c r="E122" t="s">
+        <v>311</v>
+      </c>
+      <c r="F122" t="s">
+        <v>291</v>
+      </c>
+      <c r="G122" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="K122" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>59</v>
+      </c>
+      <c r="B123" t="s">
+        <v>60</v>
+      </c>
+      <c r="C123" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" t="s">
+        <v>61</v>
+      </c>
+      <c r="E123" t="s">
+        <v>62</v>
+      </c>
+      <c r="F123" t="s">
+        <v>63</v>
+      </c>
+      <c r="G123" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" t="s">
+        <v>369</v>
+      </c>
+      <c r="I123" t="s">
+        <v>370</v>
+      </c>
+      <c r="J123">
         <v>15</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="E120" s="5" t="s">
+      <c r="K123" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>65</v>
+      </c>
+      <c r="B124" t="s">
+        <v>66</v>
+      </c>
+      <c r="C124" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" t="s">
+        <v>67</v>
+      </c>
+      <c r="E124" t="s">
+        <v>68</v>
+      </c>
+      <c r="F124" t="s">
+        <v>69</v>
+      </c>
+      <c r="G124" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" t="s">
+        <v>369</v>
+      </c>
+      <c r="I124" t="s">
+        <v>370</v>
+      </c>
+      <c r="J124"/>
+      <c r="K124" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>70</v>
+      </c>
+      <c r="B125" t="s">
+        <v>71</v>
+      </c>
+      <c r="C125" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" t="s">
+        <v>72</v>
+      </c>
+      <c r="E125" t="s">
+        <v>73</v>
+      </c>
+      <c r="F125" t="s">
+        <v>69</v>
+      </c>
+      <c r="G125" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" t="s">
+        <v>369</v>
+      </c>
+      <c r="I125" t="s">
+        <v>370</v>
+      </c>
+      <c r="J125">
+        <v>3</v>
+      </c>
+      <c r="K125" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>74</v>
+      </c>
+      <c r="B126" t="s">
+        <v>75</v>
+      </c>
+      <c r="C126" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" t="s">
+        <v>76</v>
+      </c>
+      <c r="E126" t="s">
+        <v>77</v>
+      </c>
+      <c r="F126" t="s">
+        <v>69</v>
+      </c>
+      <c r="G126" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" t="s">
+        <v>369</v>
+      </c>
+      <c r="I126" t="s">
+        <v>370</v>
+      </c>
+      <c r="J126">
+        <v>4</v>
+      </c>
+      <c r="K126" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>78</v>
+      </c>
+      <c r="B127" t="s">
+        <v>79</v>
+      </c>
+      <c r="C127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" t="s">
+        <v>80</v>
+      </c>
+      <c r="E127" t="s">
+        <v>81</v>
+      </c>
+      <c r="F127" t="s">
+        <v>69</v>
+      </c>
+      <c r="G127" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" t="s">
+        <v>369</v>
+      </c>
+      <c r="I127" t="s">
+        <v>370</v>
+      </c>
+      <c r="J127"/>
+      <c r="K127" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>82</v>
+      </c>
+      <c r="B128" t="s">
+        <v>83</v>
+      </c>
+      <c r="C128" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" t="s">
+        <v>84</v>
+      </c>
+      <c r="E128" t="s">
+        <v>85</v>
+      </c>
+      <c r="F128" t="s">
+        <v>69</v>
+      </c>
+      <c r="G128" t="s">
+        <v>14</v>
+      </c>
+      <c r="H128" t="s">
+        <v>369</v>
+      </c>
+      <c r="I128" t="s">
+        <v>370</v>
+      </c>
+      <c r="J128"/>
+      <c r="K128" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>86</v>
+      </c>
+      <c r="B129" t="s">
+        <v>87</v>
+      </c>
+      <c r="C129" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" t="s">
+        <v>88</v>
+      </c>
+      <c r="E129" t="s">
+        <v>89</v>
+      </c>
+      <c r="F129" t="s">
+        <v>69</v>
+      </c>
+      <c r="G129" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" t="s">
+        <v>369</v>
+      </c>
+      <c r="I129" t="s">
+        <v>370</v>
+      </c>
+      <c r="J129"/>
+      <c r="K129" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>90</v>
+      </c>
+      <c r="B130" t="s">
+        <v>91</v>
+      </c>
+      <c r="C130" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" t="s">
+        <v>92</v>
+      </c>
+      <c r="E130" t="s">
+        <v>93</v>
+      </c>
+      <c r="F130" t="s">
+        <v>69</v>
+      </c>
+      <c r="G130" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" t="s">
+        <v>369</v>
+      </c>
+      <c r="I130" t="s">
+        <v>370</v>
+      </c>
+      <c r="J130"/>
+      <c r="K130" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>94</v>
+      </c>
+      <c r="B131" t="s">
+        <v>95</v>
+      </c>
+      <c r="C131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" t="s">
+        <v>96</v>
+      </c>
+      <c r="E131" t="s">
+        <v>97</v>
+      </c>
+      <c r="F131" t="s">
+        <v>69</v>
+      </c>
+      <c r="G131" t="s">
+        <v>14</v>
+      </c>
+      <c r="H131" t="s">
+        <v>369</v>
+      </c>
+      <c r="I131" t="s">
+        <v>370</v>
+      </c>
+      <c r="J131"/>
+      <c r="K131" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>98</v>
+      </c>
+      <c r="B132" t="s">
+        <v>99</v>
+      </c>
+      <c r="C132" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" t="s">
+        <v>100</v>
+      </c>
+      <c r="E132" t="s">
+        <v>101</v>
+      </c>
+      <c r="F132" t="s">
+        <v>69</v>
+      </c>
+      <c r="G132" t="s">
+        <v>14</v>
+      </c>
+      <c r="H132" t="s">
+        <v>369</v>
+      </c>
+      <c r="I132" t="s">
+        <v>370</v>
+      </c>
+      <c r="J132"/>
+      <c r="K132" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>102</v>
+      </c>
+      <c r="B133" t="s">
+        <v>103</v>
+      </c>
+      <c r="C133" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" t="s">
+        <v>104</v>
+      </c>
+      <c r="E133" t="s">
+        <v>105</v>
+      </c>
+      <c r="F133" t="s">
+        <v>69</v>
+      </c>
+      <c r="G133" t="s">
+        <v>14</v>
+      </c>
+      <c r="H133" t="s">
+        <v>369</v>
+      </c>
+      <c r="I133" t="s">
+        <v>370</v>
+      </c>
+      <c r="J133"/>
+      <c r="K133" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>106</v>
+      </c>
+      <c r="B134" t="s">
+        <v>107</v>
+      </c>
+      <c r="C134" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" t="s">
+        <v>108</v>
+      </c>
+      <c r="E134" t="s">
+        <v>109</v>
+      </c>
+      <c r="F134" t="s">
+        <v>69</v>
+      </c>
+      <c r="G134" t="s">
+        <v>14</v>
+      </c>
+      <c r="H134" t="s">
+        <v>369</v>
+      </c>
+      <c r="I134" t="s">
+        <v>370</v>
+      </c>
+      <c r="J134"/>
+      <c r="K134" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>156</v>
+      </c>
+      <c r="B135" t="s">
+        <v>157</v>
+      </c>
+      <c r="C135" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" t="s">
+        <v>158</v>
+      </c>
+      <c r="E135" t="s">
+        <v>159</v>
+      </c>
+      <c r="F135" t="s">
+        <v>54</v>
+      </c>
+      <c r="G135" t="s">
+        <v>14</v>
+      </c>
+      <c r="H135" t="s">
+        <v>369</v>
+      </c>
+      <c r="I135" t="s">
+        <v>370</v>
+      </c>
+      <c r="J135"/>
+      <c r="K135"/>
+    </row>
+    <row r="136" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>555</v>
+      </c>
+      <c r="B136" t="s">
+        <v>555</v>
+      </c>
+      <c r="C136" t="s">
+        <v>487</v>
+      </c>
+      <c r="D136" t="s">
+        <v>553</v>
+      </c>
+      <c r="E136" t="s">
+        <v>554</v>
+      </c>
+      <c r="F136" t="s">
         <v>12</v>
       </c>
-      <c r="F120" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I120" s="5" t="s">
+      <c r="G136" t="s">
+        <v>504</v>
+      </c>
+      <c r="H136" t="s">
+        <v>386</v>
+      </c>
+      <c r="I136" t="s">
+        <v>384</v>
+      </c>
+      <c r="J136">
+        <v>3</v>
+      </c>
+      <c r="K136"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="H137" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="I137" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="J120" s="5">
+      <c r="J137" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I121" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="J121" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="G122" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I122" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="J122" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="G123" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="I123" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="J123" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="G124" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="I124" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="G125" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="I125" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="J125" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="H126" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="I126" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="G127" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="H127" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="I127" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="G128" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="H128" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="I128" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="J128" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="G129" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="H129" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="I129" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="G130" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="H130" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="I130" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="J130" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="H131" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="I131" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="J131" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="F132" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="H132" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="I132" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="G133" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="H133" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="I133" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="J133" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="H134" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="I134" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="J134" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="G135" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="H135" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="I135" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="J135" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="G136" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="H136" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="I136" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="J136" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>562</v>
-      </c>
-      <c r="B137" t="s">
-        <v>562</v>
-      </c>
-      <c r="C137" t="s">
-        <v>492</v>
-      </c>
-      <c r="D137" t="s">
-        <v>560</v>
-      </c>
-      <c r="E137" t="s">
-        <v>561</v>
-      </c>
-      <c r="F137" t="s">
-        <v>12</v>
-      </c>
-      <c r="G137" t="s">
-        <v>511</v>
-      </c>
-      <c r="H137" t="s">
-        <v>386</v>
-      </c>
-      <c r="I137" t="s">
-        <v>384</v>
-      </c>
-      <c r="J137">
-        <v>3</v>
-      </c>
+      <c r="K137" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K137" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K137" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K137">
+      <sortCondition ref="A1:A137"/>
+    </sortState>
+  </autoFilter>
   <dataValidations count="2">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G54" xr:uid="{2F5F9FA7-5446-47AF-A091-DD36F3BEED45}">
       <formula1>1</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A218" xr:uid="{C9CEA4D8-9D09-46A7-AFBC-6B7076AE134A}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A218 B124:B131 B133 B135" xr:uid="{C9CEA4D8-9D09-46A7-AFBC-6B7076AE134A}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G107" r:id="rId1" xr:uid="{86CF00EA-F175-49E3-B292-E21775BC70DA}"/>
-    <hyperlink ref="G121" r:id="rId2" xr:uid="{6D5714C4-09C7-4724-9E57-FC6947A71A0B}"/>
-    <hyperlink ref="G120" r:id="rId3" xr:uid="{5E00DB9D-DE2F-4335-9771-72FBC89C518A}"/>
-    <hyperlink ref="G122" r:id="rId4" xr:uid="{33ABC5F7-45E0-4703-ADE7-FD5BE84A6C85}"/>
-    <hyperlink ref="G123" r:id="rId5" xr:uid="{28FA960A-1B0F-4F36-AB25-3065353EBB96}"/>
-    <hyperlink ref="G124" r:id="rId6" xr:uid="{AA81982C-4488-4D0A-9FD0-D28A5532BDB6}"/>
+    <hyperlink ref="G50" r:id="rId1" xr:uid="{86CF00EA-F175-49E3-B292-E21775BC70DA}"/>
+    <hyperlink ref="G81" r:id="rId2" xr:uid="{6D5714C4-09C7-4724-9E57-FC6947A71A0B}"/>
+    <hyperlink ref="G20" r:id="rId3" xr:uid="{5E00DB9D-DE2F-4335-9771-72FBC89C518A}"/>
+    <hyperlink ref="G52" r:id="rId4" xr:uid="{33ABC5F7-45E0-4703-ADE7-FD5BE84A6C85}"/>
+    <hyperlink ref="G27" r:id="rId5" xr:uid="{28FA960A-1B0F-4F36-AB25-3065353EBB96}"/>
+    <hyperlink ref="G68" r:id="rId6" xr:uid="{AA81982C-4488-4D0A-9FD0-D28A5532BDB6}"/>
     <hyperlink ref="G125:G129" r:id="rId7" display="http://sdg4-data.uis.unesco.org/" xr:uid="{58D543BA-AA31-46B7-9D51-23E366CBECFA}"/>
-    <hyperlink ref="G130" r:id="rId8" xr:uid="{E5444A53-A5ED-43B0-A996-1EEFCF0EBC2B}"/>
-    <hyperlink ref="G131" r:id="rId9" xr:uid="{30556D34-7A52-4A25-AE71-8D81DA199009}"/>
-    <hyperlink ref="G135" r:id="rId10" xr:uid="{79265DDE-6A41-4907-9981-CC79AE247B48}"/>
-    <hyperlink ref="G132" r:id="rId11" xr:uid="{9909B422-45A8-4627-8430-D53FECADEE8B}"/>
-    <hyperlink ref="G134" r:id="rId12" xr:uid="{4223E1D3-2634-4817-9EFA-3F96BE143230}"/>
-    <hyperlink ref="G11" r:id="rId13" xr:uid="{7F719CB2-8B34-4A47-8AB2-11A150ECAA5B}"/>
-    <hyperlink ref="G95" r:id="rId14" xr:uid="{40D76283-D72C-4222-8FB8-B4531115EFAD}"/>
-    <hyperlink ref="G79" r:id="rId15" xr:uid="{68FDFCA9-FB4B-4EED-8D4C-E6016B9042C3}"/>
-    <hyperlink ref="G80" r:id="rId16" xr:uid="{EA923F37-55CE-4483-A9E1-D5A1042DB662}"/>
-    <hyperlink ref="G81" r:id="rId17" xr:uid="{E5ED0119-33A0-4A2E-829E-695F316B42BF}"/>
+    <hyperlink ref="G83" r:id="rId8" xr:uid="{E5444A53-A5ED-43B0-A996-1EEFCF0EBC2B}"/>
+    <hyperlink ref="G137" r:id="rId9" xr:uid="{30556D34-7A52-4A25-AE71-8D81DA199009}"/>
+    <hyperlink ref="G42" r:id="rId10" xr:uid="{79265DDE-6A41-4907-9981-CC79AE247B48}"/>
+    <hyperlink ref="G14" r:id="rId11" xr:uid="{9909B422-45A8-4627-8430-D53FECADEE8B}"/>
+    <hyperlink ref="G46" r:id="rId12" xr:uid="{4223E1D3-2634-4817-9EFA-3F96BE143230}"/>
+    <hyperlink ref="G44" r:id="rId13" xr:uid="{7F719CB2-8B34-4A47-8AB2-11A150ECAA5B}"/>
+    <hyperlink ref="G24" r:id="rId14" xr:uid="{40D76283-D72C-4222-8FB8-B4531115EFAD}"/>
+    <hyperlink ref="G15" r:id="rId15" xr:uid="{68FDFCA9-FB4B-4EED-8D4C-E6016B9042C3}"/>
+    <hyperlink ref="G63" r:id="rId16" xr:uid="{EA923F37-55CE-4483-A9E1-D5A1042DB662}"/>
+    <hyperlink ref="G99" r:id="rId17" xr:uid="{E5ED0119-33A0-4A2E-829E-695F316B42BF}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>

--- a/Data/Data_Raw/Country codes & metadata/metadata.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E68DCA-7B95-4D69-95AE-DC3B45318DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9A1520-E134-485D-94BE-58C789987881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18975" yWindow="0" windowWidth="9825" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -167,9 +167,6 @@
     <t>Numerator: Estimated number of new HIV infections. Denominator:  Total number of uninfected population</t>
   </si>
   <si>
-    <t>HVA_EPI_INF_RT_1019</t>
-  </si>
-  <si>
     <t>HVA_PED_ART_CVG</t>
   </si>
   <si>
@@ -550,9 +547,6 @@
   </si>
   <si>
     <t>Numerator: Number of children aged 5-17 years who are engaged in child labour (economic activities) during the reference period, usually the week prior to the survey. Denominator: Number of children aged 5-17 years</t>
-  </si>
-  <si>
-    <t>PT_CHLD_517_LBR_ECON</t>
   </si>
   <si>
     <t>asr</t>
@@ -1474,9 +1468,6 @@
     <t>Employment,high skill</t>
   </si>
   <si>
-    <t>minprof_r_prim</t>
-  </si>
-  <si>
     <t>minprof_r_lowsec</t>
   </si>
   <si>
@@ -1486,9 +1477,6 @@
     <t>minprof_m_g23</t>
   </si>
   <si>
-    <t>minprof_m_prim</t>
-  </si>
-  <si>
     <t>minprof_m_lowsec</t>
   </si>
   <si>
@@ -1724,6 +1712,18 @@
   </si>
   <si>
     <t>high_skill</t>
+  </si>
+  <si>
+    <t>PT_CHLD_5_17_LBR_ECON</t>
+  </si>
+  <si>
+    <t>minprof_m_endprim</t>
+  </si>
+  <si>
+    <t>minprof_r_endprim</t>
+  </si>
+  <si>
+    <t>HVA_EPI_INF_RT_10_19</t>
   </si>
 </sst>
 </file>
@@ -2136,9 +2136,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D136" sqref="D136"/>
+      <selection pane="topRight" activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,16 +2184,16 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D2" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -2202,13 +2202,13 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J2">
         <v>6</v>
@@ -2234,10 +2234,10 @@
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2260,97 +2260,97 @@
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" t="s">
         <v>110</v>
-      </c>
-      <c r="B5" t="s">
-        <v>111</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" t="s">
         <v>112</v>
       </c>
-      <c r="E5" t="s">
-        <v>113</v>
-      </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
         <v>114</v>
-      </c>
-      <c r="B6" t="s">
-        <v>115</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" t="s">
         <v>116</v>
       </c>
-      <c r="E6" t="s">
-        <v>117</v>
-      </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" t="s">
         <v>172</v>
       </c>
-      <c r="B7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>173</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>174</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>175</v>
       </c>
-      <c r="F7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G7" t="s">
-        <v>177</v>
-      </c>
       <c r="H7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2358,333 +2358,333 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F8" t="s">
         <v>289</v>
-      </c>
-      <c r="E8" t="s">
-        <v>290</v>
-      </c>
-      <c r="F8" t="s">
-        <v>291</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J9">
         <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J11">
         <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>459</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>461</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E15" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J15">
         <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="H16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J16">
         <v>5</v>
       </c>
       <c r="K16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" t="s">
         <v>133</v>
       </c>
-      <c r="E17" t="s">
-        <v>134</v>
-      </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J17">
         <v>8</v>
@@ -2692,97 +2692,97 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="F18" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J18" s="8">
         <v>7</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>444</v>
-      </c>
       <c r="D20" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J20" s="5">
         <v>1</v>
@@ -2791,31 +2791,31 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>555</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" t="s">
         <v>169</v>
       </c>
-      <c r="E21" t="s">
-        <v>170</v>
-      </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I21" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -2823,92 +2823,92 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E22" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H22" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I22" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J22">
         <v>16</v>
       </c>
       <c r="K22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C23" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D23" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E23" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H23" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I23" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>277</v>
+      </c>
+      <c r="B24" t="s">
+        <v>277</v>
+      </c>
+      <c r="C24" t="s">
+        <v>278</v>
+      </c>
+      <c r="D24" t="s">
         <v>279</v>
       </c>
-      <c r="B24" t="s">
-        <v>279</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>280</v>
       </c>
-      <c r="D24" t="s">
+      <c r="G24" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E24" t="s">
-        <v>282</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="H24" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I24" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -2925,10 +2925,10 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E25" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>12</v>
@@ -2937,13 +2937,13 @@
         <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I25" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K25" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2957,10 +2957,10 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E26" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>12</v>
@@ -2969,39 +2969,39 @@
         <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I26" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>441</v>
-      </c>
       <c r="F27" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J27" s="5">
         <v>4</v>
@@ -3010,448 +3010,453 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C28" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D28" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E28" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H28" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I28" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B29" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C29" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D29" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E29" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H29" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I29" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B30" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C30" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D30" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E30" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H30" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I30" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C31" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D31" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E31" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H31" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I31" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C32" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D32" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E32" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H32" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I32" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C33" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E33" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H33" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J33">
         <v>3</v>
       </c>
       <c r="K33" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B34" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C34" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D34" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E34" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H34" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I34" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J34">
         <v>4</v>
       </c>
       <c r="K34" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" t="s">
+        <v>177</v>
+      </c>
+      <c r="E35" t="s">
         <v>178</v>
       </c>
-      <c r="B35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C35" t="s">
-        <v>173</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
+        <v>174</v>
+      </c>
+      <c r="G35" t="s">
+        <v>175</v>
+      </c>
+      <c r="H35" t="s">
+        <v>375</v>
+      </c>
+      <c r="I35" t="s">
+        <v>366</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
         <v>179</v>
-      </c>
-      <c r="E35" t="s">
-        <v>180</v>
-      </c>
-      <c r="F35" t="s">
-        <v>176</v>
-      </c>
-      <c r="G35" t="s">
-        <v>177</v>
-      </c>
-      <c r="H35" t="s">
-        <v>377</v>
-      </c>
-      <c r="I35" t="s">
-        <v>368</v>
-      </c>
-      <c r="K35" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C36" t="s">
+        <v>352</v>
+      </c>
+      <c r="D36" t="s">
+        <v>360</v>
+      </c>
+      <c r="E36" t="s">
         <v>361</v>
       </c>
-      <c r="C36" t="s">
-        <v>354</v>
-      </c>
-      <c r="D36" t="s">
-        <v>362</v>
-      </c>
-      <c r="E36" t="s">
-        <v>363</v>
-      </c>
       <c r="F36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H36" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I36" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B37" t="s">
+        <v>356</v>
+      </c>
+      <c r="C37" t="s">
+        <v>352</v>
+      </c>
+      <c r="D37" t="s">
+        <v>357</v>
+      </c>
+      <c r="E37" t="s">
         <v>358</v>
       </c>
-      <c r="C37" t="s">
-        <v>354</v>
-      </c>
-      <c r="D37" t="s">
-        <v>359</v>
-      </c>
-      <c r="E37" t="s">
-        <v>360</v>
-      </c>
       <c r="F37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H37" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I37" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>188</v>
+      </c>
+      <c r="B38" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38" t="s">
         <v>190</v>
       </c>
-      <c r="B38" t="s">
-        <v>190</v>
-      </c>
-      <c r="C38" t="s">
-        <v>173</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G38" t="s">
+        <v>175</v>
+      </c>
+      <c r="H38" t="s">
+        <v>392</v>
+      </c>
+      <c r="I38" t="s">
+        <v>382</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
         <v>191</v>
-      </c>
-      <c r="E38" t="s">
-        <v>192</v>
-      </c>
-      <c r="F38" t="s">
-        <v>176</v>
-      </c>
-      <c r="G38" t="s">
-        <v>177</v>
-      </c>
-      <c r="H38" t="s">
-        <v>394</v>
-      </c>
-      <c r="I38" t="s">
-        <v>384</v>
-      </c>
-      <c r="J38"/>
-      <c r="K38" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" t="s">
+        <v>192</v>
+      </c>
+      <c r="C39" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" t="s">
+        <v>193</v>
+      </c>
+      <c r="E39" t="s">
         <v>194</v>
       </c>
-      <c r="B39" t="s">
-        <v>194</v>
-      </c>
-      <c r="C39" t="s">
-        <v>173</v>
-      </c>
-      <c r="D39" t="s">
-        <v>195</v>
-      </c>
-      <c r="E39" t="s">
-        <v>196</v>
-      </c>
       <c r="F39" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H39" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J39"/>
       <c r="K39" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" t="s">
+        <v>195</v>
+      </c>
+      <c r="C40" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40" t="s">
         <v>197</v>
       </c>
-      <c r="B40" t="s">
-        <v>197</v>
-      </c>
-      <c r="C40" t="s">
-        <v>173</v>
-      </c>
-      <c r="D40" t="s">
-        <v>198</v>
-      </c>
-      <c r="E40" t="s">
-        <v>199</v>
-      </c>
       <c r="F40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H40" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I40" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K40" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J41" s="5">
         <v>5</v>
@@ -3460,31 +3465,31 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J42" s="5">
         <v>4</v>
@@ -3511,10 +3516,10 @@
         <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I43" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3522,7 +3527,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>43</v>
+        <v>558</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>13</v>
@@ -3538,10 +3543,10 @@
         <v>14</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J44" s="8">
         <v>4</v>
@@ -3550,57 +3555,57 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
         <v>47</v>
-      </c>
-      <c r="B45" t="s">
-        <v>48</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
       <c r="D45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" t="s">
         <v>49</v>
-      </c>
-      <c r="E45" t="s">
-        <v>50</v>
       </c>
       <c r="G45" t="s">
         <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I45" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D46" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>467</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>469</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J46" s="5">
         <v>5</v>
@@ -3609,115 +3614,115 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
       </c>
       <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" t="s">
         <v>45</v>
-      </c>
-      <c r="E47" t="s">
-        <v>46</v>
       </c>
       <c r="G47" t="s">
         <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I47" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
       </c>
       <c r="D48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" t="s">
         <v>52</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>53</v>
-      </c>
-      <c r="F48" t="s">
-        <v>54</v>
       </c>
       <c r="G48" t="s">
         <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I48" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
       </c>
       <c r="D49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" t="s">
         <v>56</v>
       </c>
-      <c r="E49" t="s">
-        <v>57</v>
-      </c>
       <c r="F49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G49" t="s">
         <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I49" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B50" t="s">
+        <v>320</v>
+      </c>
+      <c r="C50" t="s">
+        <v>321</v>
+      </c>
+      <c r="D50" t="s">
         <v>322</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
+        <v>322</v>
+      </c>
+      <c r="F50" t="s">
         <v>323</v>
       </c>
-      <c r="D50" t="s">
+      <c r="G50" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E50" t="s">
-        <v>324</v>
-      </c>
-      <c r="F50" t="s">
-        <v>325</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>326</v>
-      </c>
       <c r="H50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I50" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J50">
         <v>6</v>
@@ -3725,57 +3730,57 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D51" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G51" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H51" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I51" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>434</v>
-      </c>
       <c r="H52" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J52" s="5">
         <v>6</v>
@@ -3784,31 +3789,31 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>325</v>
+      </c>
+      <c r="B53" t="s">
+        <v>325</v>
+      </c>
+      <c r="C53" t="s">
+        <v>321</v>
+      </c>
+      <c r="D53" t="s">
+        <v>326</v>
+      </c>
+      <c r="E53" t="s">
         <v>327</v>
       </c>
-      <c r="B53" t="s">
-        <v>327</v>
-      </c>
-      <c r="C53" t="s">
-        <v>323</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="F53" t="s">
         <v>328</v>
       </c>
-      <c r="E53" t="s">
-        <v>329</v>
-      </c>
-      <c r="F53" t="s">
-        <v>330</v>
-      </c>
       <c r="G53" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H53" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I53" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J53">
         <v>4</v>
@@ -3816,31 +3821,31 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" t="s">
         <v>121</v>
-      </c>
-      <c r="B54" t="s">
-        <v>122</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
       </c>
       <c r="D54" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" t="s">
         <v>123</v>
       </c>
-      <c r="E54" t="s">
-        <v>124</v>
-      </c>
       <c r="F54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G54" t="s">
         <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I54" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J54">
         <v>12</v>
@@ -3848,334 +3853,334 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" t="s">
         <v>125</v>
-      </c>
-      <c r="B55" t="s">
-        <v>126</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
       </c>
       <c r="D55" t="s">
+        <v>126</v>
+      </c>
+      <c r="E55" t="s">
         <v>127</v>
       </c>
-      <c r="E55" t="s">
-        <v>128</v>
-      </c>
       <c r="F55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G55" t="s">
         <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I55" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B56" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C56" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D56" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E56" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H56" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I56" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J56">
         <v>1</v>
       </c>
       <c r="K56" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B57" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C57" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E57" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F57" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G57" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H57" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I57" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J57">
         <v>11</v>
       </c>
       <c r="K57" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B58" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E58" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F58" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G58" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H58" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I58" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J58">
         <v>7</v>
       </c>
       <c r="K58" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B59" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C59" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D59" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E59" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F59" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G59" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H59" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I59" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J59">
         <v>3</v>
       </c>
       <c r="K59" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B60" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D60" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E60" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F60" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G60" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H60" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I60" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J60">
         <v>3</v>
       </c>
       <c r="K60" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B61" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C61" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D61" t="s">
+        <v>499</v>
+      </c>
+      <c r="E61" t="s">
         <v>503</v>
-      </c>
-      <c r="E61" t="s">
-        <v>507</v>
       </c>
       <c r="F61" t="s">
         <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H61" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I61" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K61" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B62" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C62" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D62" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E62" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F62" t="s">
         <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H62" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I62" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K62" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B63" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E63" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H63" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I63" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J63">
         <v>2</v>
       </c>
       <c r="K63" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D64" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="G64" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="E64" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>465</v>
-      </c>
       <c r="H64" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J64" s="5">
         <v>3</v>
@@ -4184,87 +4189,87 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>479</v>
+        <v>556</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>479</v>
+        <v>556</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J67" s="5">
         <v>12</v>
@@ -4273,87 +4278,87 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>475</v>
+        <v>557</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>475</v>
+        <v>557</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J70" s="5">
         <v>11</v>
@@ -4362,152 +4367,152 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
       </c>
       <c r="D71" t="s">
+        <v>118</v>
+      </c>
+      <c r="E71" t="s">
         <v>119</v>
       </c>
-      <c r="E71" t="s">
-        <v>120</v>
-      </c>
       <c r="F71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G71" t="s">
         <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I71" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
       </c>
       <c r="D72" t="s">
+        <v>129</v>
+      </c>
+      <c r="E72" t="s">
         <v>130</v>
       </c>
-      <c r="E72" t="s">
-        <v>131</v>
-      </c>
       <c r="F72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G72" t="s">
         <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I72" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B73" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
       </c>
       <c r="D73" t="s">
+        <v>135</v>
+      </c>
+      <c r="E73" t="s">
         <v>136</v>
       </c>
-      <c r="E73" t="s">
-        <v>137</v>
-      </c>
       <c r="F73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G73" t="s">
         <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I73" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
       </c>
       <c r="D74" t="s">
+        <v>146</v>
+      </c>
+      <c r="E74" t="s">
         <v>147</v>
       </c>
-      <c r="E74" t="s">
-        <v>148</v>
-      </c>
       <c r="F74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G74" t="s">
         <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I74" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
       </c>
       <c r="D75" t="s">
+        <v>149</v>
+      </c>
+      <c r="E75" t="s">
         <v>150</v>
       </c>
-      <c r="E75" t="s">
-        <v>151</v>
-      </c>
       <c r="F75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G75" t="s">
         <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I75" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B76" t="s">
         <v>19</v>
@@ -4519,19 +4524,19 @@
         <v>20</v>
       </c>
       <c r="E76" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G76" t="s">
         <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I76" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J76">
         <v>2</v>
@@ -4542,7 +4547,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
@@ -4554,19 +4559,19 @@
         <v>23</v>
       </c>
       <c r="E77" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G77" t="s">
         <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I77" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -4577,25 +4582,25 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B78" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G78" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="H78" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I78" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -4606,63 +4611,66 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>180</v>
+      </c>
+      <c r="B79" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" t="s">
+        <v>171</v>
+      </c>
+      <c r="D79" t="s">
+        <v>181</v>
+      </c>
+      <c r="E79" t="s">
         <v>182</v>
       </c>
-      <c r="B79" t="s">
-        <v>182</v>
-      </c>
-      <c r="C79" t="s">
-        <v>173</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="F79" t="s">
+        <v>174</v>
+      </c>
+      <c r="G79" t="s">
+        <v>175</v>
+      </c>
+      <c r="H79" t="s">
+        <v>367</v>
+      </c>
+      <c r="I79" t="s">
+        <v>368</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79" t="s">
         <v>183</v>
-      </c>
-      <c r="E79" t="s">
-        <v>184</v>
-      </c>
-      <c r="F79" t="s">
-        <v>176</v>
-      </c>
-      <c r="G79" t="s">
-        <v>177</v>
-      </c>
-      <c r="H79" t="s">
-        <v>369</v>
-      </c>
-      <c r="I79" t="s">
-        <v>370</v>
-      </c>
-      <c r="K79" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>329</v>
+      </c>
+      <c r="B80" t="s">
+        <v>329</v>
+      </c>
+      <c r="C80" t="s">
+        <v>321</v>
+      </c>
+      <c r="D80" t="s">
+        <v>330</v>
+      </c>
+      <c r="E80" t="s">
         <v>331</v>
       </c>
-      <c r="B80" t="s">
-        <v>331</v>
-      </c>
-      <c r="C80" t="s">
-        <v>323</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="F80" t="s">
         <v>332</v>
       </c>
-      <c r="E80" t="s">
-        <v>333</v>
-      </c>
-      <c r="F80" t="s">
-        <v>334</v>
-      </c>
       <c r="G80" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H80" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I80" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J80">
         <v>7</v>
@@ -4670,31 +4678,31 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J81" s="5">
         <v>2</v>
@@ -4703,60 +4711,60 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82" t="s">
         <v>138</v>
-      </c>
-      <c r="B82" t="s">
-        <v>139</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
       </c>
       <c r="D82" t="s">
+        <v>139</v>
+      </c>
+      <c r="E82" t="s">
         <v>140</v>
       </c>
-      <c r="E82" t="s">
-        <v>141</v>
-      </c>
       <c r="F82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G82" t="s">
         <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I82" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J83" s="5">
         <v>13</v>
@@ -4765,188 +4773,194 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" t="s">
         <v>164</v>
-      </c>
-      <c r="B84" t="s">
-        <v>165</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
       <c r="D84" t="s">
+        <v>165</v>
+      </c>
+      <c r="E84" t="s">
         <v>166</v>
       </c>
-      <c r="E84" t="s">
-        <v>167</v>
-      </c>
       <c r="F84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G84" t="s">
         <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I84" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B85" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C85" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D85" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E85" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F85" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G85" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="H85" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I85" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B86" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C86" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D86" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E86" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F86" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G86" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H86" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I86" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J86">
         <v>2</v>
       </c>
       <c r="K86" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>198</v>
+      </c>
+      <c r="B87" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87" t="s">
+        <v>171</v>
+      </c>
+      <c r="D87" t="s">
+        <v>199</v>
+      </c>
+      <c r="E87" t="s">
         <v>200</v>
       </c>
-      <c r="B87" t="s">
-        <v>200</v>
-      </c>
-      <c r="C87" t="s">
-        <v>173</v>
-      </c>
-      <c r="D87" t="s">
-        <v>201</v>
-      </c>
-      <c r="E87" t="s">
-        <v>202</v>
-      </c>
       <c r="F87" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G87" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H87" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I87" t="s">
-        <v>370</v>
+        <v>368</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>201</v>
+      </c>
+      <c r="B88" t="s">
+        <v>201</v>
+      </c>
+      <c r="C88" t="s">
+        <v>171</v>
+      </c>
+      <c r="D88" t="s">
+        <v>202</v>
+      </c>
+      <c r="E88" t="s">
         <v>203</v>
       </c>
-      <c r="B88" t="s">
-        <v>203</v>
-      </c>
-      <c r="C88" t="s">
-        <v>173</v>
-      </c>
-      <c r="D88" t="s">
-        <v>204</v>
-      </c>
-      <c r="E88" t="s">
-        <v>205</v>
-      </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G88" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H88" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I88" t="s">
-        <v>368</v>
+        <v>366</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B89" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C89" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D89" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E89" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F89" t="s">
         <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H89" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I89" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J89">
         <v>5</v>
@@ -4954,31 +4968,31 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>337</v>
+      </c>
+      <c r="B90" t="s">
+        <v>337</v>
+      </c>
+      <c r="C90" t="s">
+        <v>278</v>
+      </c>
+      <c r="D90" t="s">
+        <v>338</v>
+      </c>
+      <c r="E90" t="s">
         <v>339</v>
-      </c>
-      <c r="B90" t="s">
-        <v>339</v>
-      </c>
-      <c r="C90" t="s">
-        <v>280</v>
-      </c>
-      <c r="D90" t="s">
-        <v>340</v>
-      </c>
-      <c r="E90" t="s">
-        <v>341</v>
       </c>
       <c r="F90" t="s">
         <v>12</v>
       </c>
       <c r="G90" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H90" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I90" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J90">
         <v>6</v>
@@ -4986,188 +5000,188 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>252</v>
+      </c>
+      <c r="B91" t="s">
+        <v>252</v>
+      </c>
+      <c r="C91" t="s">
+        <v>171</v>
+      </c>
+      <c r="D91" t="s">
+        <v>253</v>
+      </c>
+      <c r="E91" t="s">
         <v>254</v>
       </c>
-      <c r="B91" t="s">
-        <v>254</v>
-      </c>
-      <c r="C91" t="s">
-        <v>173</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="F91" t="s">
         <v>255</v>
       </c>
-      <c r="E91" t="s">
+      <c r="G91" t="s">
         <v>256</v>
       </c>
-      <c r="F91" t="s">
-        <v>257</v>
-      </c>
-      <c r="G91" t="s">
-        <v>258</v>
-      </c>
       <c r="H91" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I91" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J91">
         <v>1</v>
       </c>
       <c r="K91" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>159</v>
+      </c>
+      <c r="B92" t="s">
         <v>160</v>
-      </c>
-      <c r="B92" t="s">
-        <v>161</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
       </c>
       <c r="D92" t="s">
+        <v>161</v>
+      </c>
+      <c r="E92" t="s">
         <v>162</v>
       </c>
-      <c r="E92" t="s">
-        <v>163</v>
-      </c>
       <c r="F92" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G92" t="s">
         <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I92" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B93" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E93" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G93" t="s">
         <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I93" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B94" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E94" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G94" t="s">
         <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I94" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B95" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C95" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D95" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E95" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F95" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G95" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H95" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I95" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J95">
         <v>1</v>
       </c>
       <c r="K95" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B96" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
       </c>
       <c r="D96" t="s">
+        <v>362</v>
+      </c>
+      <c r="E96" t="s">
+        <v>363</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="E96" t="s">
-        <v>365</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="G96" t="s">
         <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I96" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K96" t="s">
         <v>15</v>
@@ -5175,7 +5189,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B97" t="s">
         <v>11</v>
@@ -5184,22 +5198,22 @@
         <v>13</v>
       </c>
       <c r="D97" t="s">
+        <v>362</v>
+      </c>
+      <c r="E97" t="s">
+        <v>363</v>
+      </c>
+      <c r="F97" t="s">
         <v>364</v>
-      </c>
-      <c r="E97" t="s">
-        <v>365</v>
-      </c>
-      <c r="F97" t="s">
-        <v>366</v>
       </c>
       <c r="G97" t="s">
         <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I97" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J97">
         <v>14</v>
@@ -5210,89 +5224,89 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>151</v>
+      </c>
+      <c r="B98" t="s">
         <v>152</v>
-      </c>
-      <c r="B98" t="s">
-        <v>153</v>
       </c>
       <c r="C98" t="s">
         <v>13</v>
       </c>
       <c r="D98" t="s">
+        <v>153</v>
+      </c>
+      <c r="E98" t="s">
         <v>154</v>
       </c>
-      <c r="E98" t="s">
-        <v>155</v>
-      </c>
       <c r="F98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G98" t="s">
         <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I98" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B99" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C99" t="s">
         <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E99" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H99" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K99" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>340</v>
+      </c>
+      <c r="B100" t="s">
+        <v>340</v>
+      </c>
+      <c r="C100" t="s">
+        <v>321</v>
+      </c>
+      <c r="D100" t="s">
+        <v>341</v>
+      </c>
+      <c r="E100" t="s">
         <v>342</v>
       </c>
-      <c r="B100" t="s">
-        <v>342</v>
-      </c>
-      <c r="C100" t="s">
-        <v>323</v>
-      </c>
-      <c r="D100" t="s">
-        <v>343</v>
-      </c>
-      <c r="E100" t="s">
-        <v>344</v>
-      </c>
       <c r="F100" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G100" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H100" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I100" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J100">
         <v>6</v>
@@ -5300,63 +5314,66 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>184</v>
+      </c>
+      <c r="B101" t="s">
+        <v>184</v>
+      </c>
+      <c r="C101" t="s">
+        <v>171</v>
+      </c>
+      <c r="D101" t="s">
+        <v>185</v>
+      </c>
+      <c r="E101" t="s">
         <v>186</v>
       </c>
-      <c r="B101" t="s">
-        <v>186</v>
-      </c>
-      <c r="C101" t="s">
-        <v>173</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="F101" t="s">
+        <v>174</v>
+      </c>
+      <c r="G101" t="s">
+        <v>175</v>
+      </c>
+      <c r="H101" t="s">
+        <v>375</v>
+      </c>
+      <c r="I101" t="s">
+        <v>366</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101" t="s">
         <v>187</v>
-      </c>
-      <c r="E101" t="s">
-        <v>188</v>
-      </c>
-      <c r="F101" t="s">
-        <v>176</v>
-      </c>
-      <c r="G101" t="s">
-        <v>177</v>
-      </c>
-      <c r="H101" t="s">
-        <v>377</v>
-      </c>
-      <c r="I101" t="s">
-        <v>368</v>
-      </c>
-      <c r="K101" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>343</v>
+      </c>
+      <c r="B102" t="s">
+        <v>343</v>
+      </c>
+      <c r="C102" t="s">
+        <v>321</v>
+      </c>
+      <c r="D102" t="s">
+        <v>344</v>
+      </c>
+      <c r="E102" t="s">
         <v>345</v>
       </c>
-      <c r="B102" t="s">
-        <v>345</v>
-      </c>
-      <c r="C102" t="s">
-        <v>323</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="F102" t="s">
         <v>346</v>
       </c>
-      <c r="E102" t="s">
-        <v>347</v>
-      </c>
-      <c r="F102" t="s">
-        <v>348</v>
-      </c>
       <c r="G102" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H102" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I102" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J102">
         <v>10</v>
@@ -5364,31 +5381,31 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>347</v>
+      </c>
+      <c r="B103" t="s">
+        <v>347</v>
+      </c>
+      <c r="C103" t="s">
+        <v>321</v>
+      </c>
+      <c r="D103" t="s">
+        <v>348</v>
+      </c>
+      <c r="E103" t="s">
         <v>349</v>
       </c>
-      <c r="B103" t="s">
-        <v>349</v>
-      </c>
-      <c r="C103" t="s">
-        <v>323</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="F103" t="s">
         <v>350</v>
       </c>
-      <c r="E103" t="s">
-        <v>351</v>
-      </c>
-      <c r="F103" t="s">
-        <v>352</v>
-      </c>
       <c r="G103" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H103" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I103" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J103">
         <v>9</v>
@@ -5396,7 +5413,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B104" t="s">
         <v>16</v>
@@ -5408,19 +5425,19 @@
         <v>17</v>
       </c>
       <c r="E104" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G104" t="s">
         <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I104" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K104" t="s">
         <v>18</v>
@@ -5428,600 +5445,600 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B105" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C105" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E105" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F105" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G105" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H105" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I105" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J105">
         <v>2</v>
       </c>
       <c r="K105" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B106" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C106" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D106" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E106" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F106" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G106" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H106" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I106" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J106">
         <v>5</v>
       </c>
       <c r="K106" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B107" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C107" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D107" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E107" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F107" t="s">
         <v>12</v>
       </c>
       <c r="G107" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H107" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I107" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J107">
         <v>2</v>
       </c>
       <c r="K107" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B108" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C108" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D108" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E108" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F108" t="s">
         <v>12</v>
       </c>
       <c r="G108" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H108" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I108" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K108" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B109" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C109" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D109" t="s">
+        <v>365</v>
+      </c>
+      <c r="E109" t="s">
+        <v>546</v>
+      </c>
+      <c r="F109" t="s">
+        <v>538</v>
+      </c>
+      <c r="G109" t="s">
+        <v>175</v>
+      </c>
+      <c r="H109" t="s">
         <v>367</v>
       </c>
-      <c r="E109" t="s">
-        <v>550</v>
-      </c>
-      <c r="F109" t="s">
-        <v>542</v>
-      </c>
-      <c r="G109" t="s">
-        <v>177</v>
-      </c>
-      <c r="H109" t="s">
-        <v>369</v>
-      </c>
       <c r="I109" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J109">
         <v>3</v>
       </c>
       <c r="K109" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B110" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C110" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D110" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E110" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F110" t="s">
         <v>12</v>
       </c>
       <c r="G110" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H110" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I110" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J110">
         <v>8</v>
       </c>
       <c r="K110" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B111" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C111" t="s">
+        <v>515</v>
+      </c>
+      <c r="D111" t="s">
+        <v>378</v>
+      </c>
+      <c r="E111" t="s">
         <v>519</v>
-      </c>
-      <c r="D111" t="s">
-        <v>380</v>
-      </c>
-      <c r="E111" t="s">
-        <v>523</v>
       </c>
       <c r="F111" t="s">
         <v>12</v>
       </c>
       <c r="G111" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H111" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I111" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J111">
         <v>7</v>
       </c>
       <c r="K111" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B112" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C112" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D112" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E112" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F112" t="s">
         <v>12</v>
       </c>
       <c r="G112" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H112" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I112" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J112">
         <v>9</v>
       </c>
       <c r="K112" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B113" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C113" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D113" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E113" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F113" t="s">
         <v>12</v>
       </c>
       <c r="G113" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H113" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I113" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J113">
         <v>4</v>
       </c>
       <c r="K113" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B114" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C114" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D114" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E114" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F114" t="s">
         <v>12</v>
       </c>
       <c r="G114" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H114" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I114" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J114">
         <v>10</v>
       </c>
       <c r="K114" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B115" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C115" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D115" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E115" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F115" t="s">
         <v>12</v>
       </c>
       <c r="G115" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H115" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I115" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K115" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C116" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D116" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E116" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F116" t="s">
         <v>12</v>
       </c>
       <c r="G116" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H116" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I116" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K116" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B117" t="s">
+        <v>351</v>
+      </c>
+      <c r="C117" t="s">
+        <v>352</v>
+      </c>
+      <c r="D117" t="s">
         <v>353</v>
       </c>
-      <c r="C117" t="s">
+      <c r="E117" t="s">
         <v>354</v>
       </c>
-      <c r="D117" t="s">
+      <c r="F117" t="s">
+        <v>68</v>
+      </c>
+      <c r="G117" t="s">
         <v>355</v>
       </c>
-      <c r="E117" t="s">
-        <v>356</v>
-      </c>
-      <c r="F117" t="s">
-        <v>69</v>
-      </c>
-      <c r="G117" t="s">
-        <v>357</v>
-      </c>
       <c r="H117" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I117" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B118" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C118" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D118" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E118" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F118" t="s">
         <v>12</v>
       </c>
       <c r="G118" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H118" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I118" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J118">
         <v>2</v>
       </c>
       <c r="K118" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B119" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C119" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D119" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E119" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F119" t="s">
         <v>12</v>
       </c>
       <c r="G119" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H119" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I119" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J119">
         <v>2</v>
       </c>
       <c r="K119" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="120" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B120" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C120" t="s">
         <v>13</v>
       </c>
       <c r="D120" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E120" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F120" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G120" t="s">
         <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I120" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J120"/>
       <c r="K120" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="121" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B121" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C121" t="s">
         <v>13</v>
       </c>
       <c r="D121" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E121" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F121" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G121" t="s">
         <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I121" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J121">
         <v>17</v>
       </c>
       <c r="K121" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="122" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B122" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C122" t="s">
         <v>13</v>
       </c>
       <c r="D122" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E122" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F122" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G122" t="s">
         <v>14</v>
@@ -6030,469 +6047,469 @@
       <c r="I122"/>
       <c r="J122"/>
       <c r="K122" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="123" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>58</v>
+      </c>
+      <c r="B123" t="s">
         <v>59</v>
-      </c>
-      <c r="B123" t="s">
-        <v>60</v>
       </c>
       <c r="C123" t="s">
         <v>13</v>
       </c>
       <c r="D123" t="s">
+        <v>60</v>
+      </c>
+      <c r="E123" t="s">
         <v>61</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>62</v>
-      </c>
-      <c r="F123" t="s">
-        <v>63</v>
       </c>
       <c r="G123" t="s">
         <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I123" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J123">
         <v>15</v>
       </c>
       <c r="K123" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="124" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>64</v>
+      </c>
+      <c r="B124" t="s">
         <v>65</v>
-      </c>
-      <c r="B124" t="s">
-        <v>66</v>
       </c>
       <c r="C124" t="s">
         <v>13</v>
       </c>
       <c r="D124" t="s">
+        <v>66</v>
+      </c>
+      <c r="E124" t="s">
         <v>67</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>68</v>
-      </c>
-      <c r="F124" t="s">
-        <v>69</v>
       </c>
       <c r="G124" t="s">
         <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I124" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J124"/>
       <c r="K124" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="125" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>69</v>
+      </c>
+      <c r="B125" t="s">
         <v>70</v>
-      </c>
-      <c r="B125" t="s">
-        <v>71</v>
       </c>
       <c r="C125" t="s">
         <v>13</v>
       </c>
       <c r="D125" t="s">
+        <v>71</v>
+      </c>
+      <c r="E125" t="s">
         <v>72</v>
       </c>
-      <c r="E125" t="s">
-        <v>73</v>
-      </c>
       <c r="F125" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G125" t="s">
         <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I125" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J125">
         <v>3</v>
       </c>
       <c r="K125" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="126" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>73</v>
+      </c>
+      <c r="B126" t="s">
         <v>74</v>
-      </c>
-      <c r="B126" t="s">
-        <v>75</v>
       </c>
       <c r="C126" t="s">
         <v>13</v>
       </c>
       <c r="D126" t="s">
+        <v>75</v>
+      </c>
+      <c r="E126" t="s">
         <v>76</v>
       </c>
-      <c r="E126" t="s">
-        <v>77</v>
-      </c>
       <c r="F126" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G126" t="s">
         <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I126" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J126">
         <v>4</v>
       </c>
       <c r="K126" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="127" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>77</v>
+      </c>
+      <c r="B127" t="s">
         <v>78</v>
-      </c>
-      <c r="B127" t="s">
-        <v>79</v>
       </c>
       <c r="C127" t="s">
         <v>13</v>
       </c>
       <c r="D127" t="s">
+        <v>79</v>
+      </c>
+      <c r="E127" t="s">
         <v>80</v>
       </c>
-      <c r="E127" t="s">
-        <v>81</v>
-      </c>
       <c r="F127" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G127" t="s">
         <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I127" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J127"/>
       <c r="K127" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="128" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>81</v>
+      </c>
+      <c r="B128" t="s">
         <v>82</v>
-      </c>
-      <c r="B128" t="s">
-        <v>83</v>
       </c>
       <c r="C128" t="s">
         <v>13</v>
       </c>
       <c r="D128" t="s">
+        <v>83</v>
+      </c>
+      <c r="E128" t="s">
         <v>84</v>
       </c>
-      <c r="E128" t="s">
-        <v>85</v>
-      </c>
       <c r="F128" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G128" t="s">
         <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I128" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J128"/>
       <c r="K128" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="129" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>85</v>
+      </c>
+      <c r="B129" t="s">
         <v>86</v>
-      </c>
-      <c r="B129" t="s">
-        <v>87</v>
       </c>
       <c r="C129" t="s">
         <v>13</v>
       </c>
       <c r="D129" t="s">
+        <v>87</v>
+      </c>
+      <c r="E129" t="s">
         <v>88</v>
       </c>
-      <c r="E129" t="s">
-        <v>89</v>
-      </c>
       <c r="F129" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G129" t="s">
         <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I129" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J129"/>
       <c r="K129" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="130" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>89</v>
+      </c>
+      <c r="B130" t="s">
         <v>90</v>
-      </c>
-      <c r="B130" t="s">
-        <v>91</v>
       </c>
       <c r="C130" t="s">
         <v>13</v>
       </c>
       <c r="D130" t="s">
+        <v>91</v>
+      </c>
+      <c r="E130" t="s">
         <v>92</v>
       </c>
-      <c r="E130" t="s">
-        <v>93</v>
-      </c>
       <c r="F130" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G130" t="s">
         <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I130" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J130"/>
       <c r="K130" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="131" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>93</v>
+      </c>
+      <c r="B131" t="s">
         <v>94</v>
-      </c>
-      <c r="B131" t="s">
-        <v>95</v>
       </c>
       <c r="C131" t="s">
         <v>13</v>
       </c>
       <c r="D131" t="s">
+        <v>95</v>
+      </c>
+      <c r="E131" t="s">
         <v>96</v>
       </c>
-      <c r="E131" t="s">
-        <v>97</v>
-      </c>
       <c r="F131" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G131" t="s">
         <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I131" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J131"/>
       <c r="K131" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="132" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>97</v>
+      </c>
+      <c r="B132" t="s">
         <v>98</v>
-      </c>
-      <c r="B132" t="s">
-        <v>99</v>
       </c>
       <c r="C132" t="s">
         <v>13</v>
       </c>
       <c r="D132" t="s">
+        <v>99</v>
+      </c>
+      <c r="E132" t="s">
         <v>100</v>
       </c>
-      <c r="E132" t="s">
-        <v>101</v>
-      </c>
       <c r="F132" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G132" t="s">
         <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I132" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J132"/>
       <c r="K132" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="133" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>101</v>
+      </c>
+      <c r="B133" t="s">
         <v>102</v>
-      </c>
-      <c r="B133" t="s">
-        <v>103</v>
       </c>
       <c r="C133" t="s">
         <v>13</v>
       </c>
       <c r="D133" t="s">
+        <v>103</v>
+      </c>
+      <c r="E133" t="s">
         <v>104</v>
       </c>
-      <c r="E133" t="s">
-        <v>105</v>
-      </c>
       <c r="F133" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G133" t="s">
         <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I133" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J133"/>
       <c r="K133" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="134" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>105</v>
+      </c>
+      <c r="B134" t="s">
         <v>106</v>
-      </c>
-      <c r="B134" t="s">
-        <v>107</v>
       </c>
       <c r="C134" t="s">
         <v>13</v>
       </c>
       <c r="D134" t="s">
+        <v>107</v>
+      </c>
+      <c r="E134" t="s">
         <v>108</v>
       </c>
-      <c r="E134" t="s">
-        <v>109</v>
-      </c>
       <c r="F134" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G134" t="s">
         <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I134" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J134"/>
       <c r="K134" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="135" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>155</v>
+      </c>
+      <c r="B135" t="s">
         <v>156</v>
-      </c>
-      <c r="B135" t="s">
-        <v>157</v>
       </c>
       <c r="C135" t="s">
         <v>13</v>
       </c>
       <c r="D135" t="s">
+        <v>157</v>
+      </c>
+      <c r="E135" t="s">
         <v>158</v>
       </c>
-      <c r="E135" t="s">
-        <v>159</v>
-      </c>
       <c r="F135" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G135" t="s">
         <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I135" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J135"/>
       <c r="K135"/>
     </row>
     <row r="136" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B136" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C136" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D136" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E136" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F136" t="s">
         <v>12</v>
       </c>
       <c r="G136" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H136" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I136" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -6501,31 +6518,31 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J137" s="5">
         <v>1</v>
@@ -6543,7 +6560,7 @@
       <formula1>1</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A218 B124:B131 B133 B135" xr:uid="{C9CEA4D8-9D09-46A7-AFBC-6B7076AE134A}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A218 B124:B131 B133 B135 B70" xr:uid="{C9CEA4D8-9D09-46A7-AFBC-6B7076AE134A}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>

--- a/Data/Data_Raw/Country codes & metadata/metadata.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9A1520-E134-485D-94BE-58C789987881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB20E77-FE36-4EDA-82F4-1630D4E88F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="0" windowWidth="18975" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2136,9 +2136,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I69" sqref="I69"/>
+      <selection pane="topRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3397,7 +3397,9 @@
       <c r="I39" t="s">
         <v>382</v>
       </c>
-      <c r="J39"/>
+      <c r="J39">
+        <v>0</v>
+      </c>
       <c r="K39" t="s">
         <v>191</v>
       </c>
@@ -3429,6 +3431,9 @@
       </c>
       <c r="I40" t="s">
         <v>382</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
       </c>
       <c r="K40" t="s">
         <v>191</v>

--- a/Data/Data_Raw/Country codes & metadata/metadata.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB20E77-FE36-4EDA-82F4-1630D4E88F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2C9288-8A66-4053-A636-819A3E74D826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="0" windowWidth="18975" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="563">
   <si>
     <t>name_portal</t>
   </si>
@@ -1724,6 +1724,18 @@
   </si>
   <si>
     <t>HVA_EPI_INF_RT_10_19</t>
+  </si>
+  <si>
+    <t>uhci</t>
+  </si>
+  <si>
+    <t>HD Chief Economist Office</t>
+  </si>
+  <si>
+    <t>Utilization-adjusted Capital Index (UHCI)</t>
+  </si>
+  <si>
+    <t>Basic measure of Utilization Adjusted Human Capital Index, defined as the Basic Utilization Rate (employment-to-working population ratio of the 15-64 age group) multiplied by the Human Capital Index (HCI).</t>
   </si>
 </sst>
 </file>
@@ -1760,7 +1772,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1782,6 +1794,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1814,7 +1832,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1831,6 +1849,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2134,11 +2153,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K137"/>
+  <dimension ref="A1:K138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M13" sqref="M13"/>
+      <selection pane="topRight" activeCell="G130" sqref="G130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6553,6 +6572,35 @@
         <v>1</v>
       </c>
       <c r="K137" s="5"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>559</v>
+      </c>
+      <c r="B138" t="s">
+        <v>559</v>
+      </c>
+      <c r="C138" t="s">
+        <v>560</v>
+      </c>
+      <c r="D138" t="s">
+        <v>561</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="F138" t="s">
+        <v>174</v>
+      </c>
+      <c r="H138" t="s">
+        <v>392</v>
+      </c>
+      <c r="I138" t="s">
+        <v>382</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K137" xr:uid="{00000000-0001-0000-0000-000000000000}">

--- a/Data/Data_Raw/Country codes & metadata/metadata.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2C9288-8A66-4053-A636-819A3E74D826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{FC2C9288-8A66-4053-A636-819A3E74D826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{661EC13F-FF58-439C-B7C3-50311394597A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1852,7 +1852,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1866,6 +1866,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2155,15 +2159,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G130" sqref="G130"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="157" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -5486,7 +5490,7 @@
       <c r="F105" t="s">
         <v>538</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="3" t="s">
         <v>175</v>
       </c>
       <c r="H105" t="s">
@@ -6636,8 +6640,9 @@
     <hyperlink ref="G15" r:id="rId15" xr:uid="{68FDFCA9-FB4B-4EED-8D4C-E6016B9042C3}"/>
     <hyperlink ref="G63" r:id="rId16" xr:uid="{EA923F37-55CE-4483-A9E1-D5A1042DB662}"/>
     <hyperlink ref="G99" r:id="rId17" xr:uid="{E5ED0119-33A0-4A2E-829E-695F316B42BF}"/>
+    <hyperlink ref="G105" r:id="rId18" xr:uid="{18725DBC-CEF7-41D2-A3A0-584402339517}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/Data/Data_Raw/Country codes & metadata/metadata.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{FC2C9288-8A66-4053-A636-819A3E74D826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{661EC13F-FF58-439C-B7C3-50311394597A}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{FC2C9288-8A66-4053-A636-819A3E74D826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B766D8E6-2AAE-4CC9-B26E-E3CADBDFCBBF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="565">
   <si>
     <t>name_portal</t>
   </si>
@@ -1737,11 +1737,20 @@
   <si>
     <t>Basic measure of Utilization Adjusted Human Capital Index, defined as the Basic Utilization Rate (employment-to-working population ratio of the 15-64 age group) multiplied by the Human Capital Index (HCI).</t>
   </si>
+  <si>
+    <t>Date_download</t>
+  </si>
+  <si>
+    <t>May 19, 2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1804,7 +1813,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1827,12 +1836,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1850,9 +1870,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2157,20 +2181,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K138"/>
+  <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J105" sqref="J105"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="157" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2204,8 +2229,11 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="13" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>274</v>
       </c>
@@ -2236,8 +2264,11 @@
       <c r="J2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="14" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -2263,7 +2294,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -2289,7 +2320,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -2318,7 +2349,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -2347,7 +2378,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>170</v>
       </c>
@@ -2379,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>415</v>
       </c>
@@ -2414,7 +2445,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>418</v>
       </c>
@@ -2449,7 +2480,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>416</v>
       </c>
@@ -2484,7 +2515,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>419</v>
       </c>
@@ -2519,7 +2550,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>417</v>
       </c>
@@ -2551,7 +2582,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>420</v>
       </c>
@@ -2583,7 +2614,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>458</v>
       </c>
@@ -2614,7 +2645,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>412</v>
       </c>
@@ -2649,7 +2680,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>411</v>
       </c>
@@ -3695,7 +3726,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>407</v>
       </c>
@@ -3724,7 +3755,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>421</v>
       </c>
@@ -3756,7 +3787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -3781,8 +3812,11 @@
       <c r="I51" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>436</v>
       </c>
@@ -3815,7 +3849,7 @@
       </c>
       <c r="K52" s="5"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>325</v>
       </c>
@@ -3847,7 +3881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>120</v>
       </c>
@@ -3879,7 +3913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>124</v>
       </c>
@@ -3908,7 +3942,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>258</v>
       </c>
@@ -3943,7 +3977,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>262</v>
       </c>
@@ -3978,7 +4012,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>266</v>
       </c>
@@ -4013,7 +4047,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>272</v>
       </c>
@@ -4048,7 +4082,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>273</v>
       </c>
@@ -4083,7 +4117,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>204</v>
       </c>
@@ -4115,7 +4149,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>217</v>
       </c>
@@ -4147,7 +4181,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>413</v>
       </c>
@@ -4182,7 +4216,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>464</v>
       </c>
@@ -4704,7 +4738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>445</v>
       </c>
@@ -4737,7 +4771,7 @@
       </c>
       <c r="K81" s="5"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>137</v>
       </c>
@@ -4766,7 +4800,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>454</v>
       </c>
@@ -4799,7 +4833,7 @@
       </c>
       <c r="K83" s="5"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>163</v>
       </c>
@@ -4828,7 +4862,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>333</v>
       </c>
@@ -4857,7 +4891,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>423</v>
       </c>
@@ -4892,7 +4926,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>198</v>
       </c>
@@ -4927,7 +4961,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>201</v>
       </c>
@@ -4962,7 +4996,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>335</v>
       </c>
@@ -4993,8 +5027,11 @@
       <c r="J89">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>337</v>
       </c>
@@ -5026,7 +5063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>252</v>
       </c>
@@ -5061,7 +5098,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>159</v>
       </c>
@@ -5090,7 +5127,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>424</v>
       </c>
@@ -5119,7 +5156,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>424</v>
       </c>
@@ -5148,7 +5185,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>264</v>
       </c>
@@ -5183,7 +5220,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>403</v>
       </c>
@@ -6607,11 +6644,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K137" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K137">
-      <sortCondition ref="A1:A137"/>
-    </sortState>
-  </autoFilter>
   <dataValidations count="2">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G54" xr:uid="{2F5F9FA7-5446-47AF-A091-DD36F3BEED45}">
       <formula1>1</formula1>

--- a/Data/Data_Raw/Country codes & metadata/metadata.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{FC2C9288-8A66-4053-A636-819A3E74D826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B766D8E6-2AAE-4CC9-B26E-E3CADBDFCBBF}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="13_ncr:1_{FC2C9288-8A66-4053-A636-819A3E74D826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7288004-9EA4-40B1-AD6C-F26E793A862A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$137</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="571">
   <si>
     <t>name_portal</t>
   </si>
@@ -463,12 +463,6 @@
   </si>
   <si>
     <t>MNCH_PNCNB</t>
-  </si>
-  <si>
-    <t>Postnatal care for newborns - percentage of newborns who have a postnatal contact with a health provider within 2 days of delivery</t>
-  </si>
-  <si>
-    <t>Numerator: Number of recent live births in the last 2 years who received a health check while in facility or at home following delivery, or a postnatal care visit within 2 days after delivery. Denominator: Total number of last live births in the last 2 or 5 years</t>
   </si>
   <si>
     <t>% of women (aged 15-49 years)</t>
@@ -664,9 +658,6 @@
     <t>luu_2lu4_mf_a</t>
   </si>
   <si>
-    <t>comp_series FIXME</t>
-  </si>
-  <si>
     <t>% of extended labour force, ages 25+</t>
   </si>
   <si>
@@ -1537,15 +1528,6 @@
     <t>Internally displaced persons of concern to UNHCR</t>
   </si>
   <si>
-    <t>Postpartum care coverage for mothers (%)</t>
-  </si>
-  <si>
-    <t>Percentage of women age 15-49 years who received a health check within 2 days after delivery of their most recent live birth in the last 2 years.</t>
-  </si>
-  <si>
-    <t>https://www.who.int/data/maternal-newborn-child-adolescent-ageing/indicator-explorer-new/mca/proportion-of-mothers-who-had-postnatal-contact-with-a-health-provider-within-2-days-of-delivery</t>
-  </si>
-  <si>
     <t>Adult composite measure of labour underutilization, ages 25+</t>
   </si>
   <si>
@@ -1742,6 +1724,42 @@
   </si>
   <si>
     <t>May 19, 2023</t>
+  </si>
+  <si>
+    <t>May 16, 2023</t>
+  </si>
+  <si>
+    <t>June 22, 2023</t>
+  </si>
+  <si>
+    <t>May 18, 2023</t>
+  </si>
+  <si>
+    <t>June 26, 2023</t>
+  </si>
+  <si>
+    <t>May 4, 2022</t>
+  </si>
+  <si>
+    <t>June 23, 2023</t>
+  </si>
+  <si>
+    <t>March 2, 2023</t>
+  </si>
+  <si>
+    <t>June 21, 2023</t>
+  </si>
+  <si>
+    <t>March 16, 2023</t>
+  </si>
+  <si>
+    <t>Postnatal care for mothers - percentage of women (aged 15-49 years) who received postnatal care within 2 days of giving birth</t>
+  </si>
+  <si>
+    <t>Numerator: Number of women age 15-49 years who received a health check while in facility or at home following delivery, or a post-natal care visit within 2 days after delivery of their most recent live birth in the two years preceding the survey. Denominator: Total number of women age 15-49 years with a live birth in the two years preceding the survey</t>
+  </si>
+  <si>
+    <t>https://data.unicef.org/resources/data_explorer/unicef_f/?ag=UNICEF&amp;df=GLOBAL_DATAFLOW&amp;ver=1.0&amp;dq=.MNCH_PNCMOM..&amp;startPeriod=2011&amp;endPeriod=2021</t>
   </si>
 </sst>
 </file>
@@ -1749,9 +1767,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1780,8 +1798,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1791,12 +1822,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1865,15 +1890,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1890,10 +1915,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2181,21 +2202,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L138"/>
+  <dimension ref="A1:L137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="157" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2229,22 +2251,22 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L1" s="10" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D2" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -2253,22 +2275,22 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J2">
         <v>6</v>
       </c>
-      <c r="L2" s="14" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L2" s="11" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -2288,13 +2310,13 @@
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -2314,13 +2336,13 @@
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I4" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -2343,13 +2365,13 @@
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -2372,349 +2394,353 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" t="s">
         <v>170</v>
       </c>
-      <c r="B7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>171</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>172</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>173</v>
       </c>
-      <c r="F7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G7" t="s">
-        <v>175</v>
-      </c>
       <c r="H7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E9" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J9">
         <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E10" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I10" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>419</v>
-      </c>
-      <c r="B11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>315</v>
-      </c>
-      <c r="E11" t="s">
-        <v>316</v>
-      </c>
-      <c r="F11" t="s">
-        <v>289</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="D11" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H11" t="s">
-        <v>375</v>
-      </c>
-      <c r="I11" t="s">
-        <v>368</v>
-      </c>
-      <c r="J11">
+      <c r="H11" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="J11" s="14">
         <v>2</v>
       </c>
-      <c r="K11" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K11" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B12" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F12" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I12" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="K12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B13" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E13" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F13" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I13" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="K13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E15" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>527</v>
+        <v>520</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>521</v>
       </c>
       <c r="H15" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I15" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J15">
         <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B16" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="H16" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I16" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J16">
         <v>5</v>
       </c>
       <c r="K16" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B17" t="s">
         <v>131</v>
@@ -2735,254 +2761,259 @@
         <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I17" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J17">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="B18" s="8" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="J18" s="14">
+        <v>7</v>
+      </c>
+      <c r="K18" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F18" s="8" t="s">
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" t="s">
+        <v>549</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G20" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="J18" s="8">
-        <v>7</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="J20" s="5">
+      <c r="H20" t="s">
+        <v>372</v>
+      </c>
+      <c r="I20" t="s">
+        <v>379</v>
+      </c>
+      <c r="J20">
         <v>1</v>
       </c>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>407</v>
       </c>
       <c r="B21" t="s">
-        <v>555</v>
+        <v>239</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>168</v>
+        <v>371</v>
       </c>
       <c r="E21" t="s">
-        <v>169</v>
-      </c>
-      <c r="F21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" t="s">
+        <v>517</v>
+      </c>
+      <c r="H21" t="s">
+        <v>364</v>
+      </c>
+      <c r="I21" t="s">
+        <v>365</v>
+      </c>
+      <c r="J21">
+        <v>16</v>
+      </c>
+      <c r="K21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" t="s">
+        <v>480</v>
+      </c>
+      <c r="D22" t="s">
+        <v>392</v>
+      </c>
+      <c r="E22" t="s">
+        <v>501</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>494</v>
+      </c>
+      <c r="H22" t="s">
+        <v>389</v>
+      </c>
+      <c r="I22" t="s">
+        <v>379</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>274</v>
+      </c>
+      <c r="B23" t="s">
+        <v>274</v>
+      </c>
+      <c r="C23" t="s">
+        <v>275</v>
+      </c>
+      <c r="D23" t="s">
+        <v>276</v>
+      </c>
+      <c r="E23" t="s">
+        <v>277</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H23" t="s">
+        <v>364</v>
+      </c>
+      <c r="I23" t="s">
+        <v>363</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="L23" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>489</v>
+      </c>
+      <c r="E24" t="s">
+        <v>489</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
         <v>14</v>
       </c>
-      <c r="H21" t="s">
-        <v>375</v>
-      </c>
-      <c r="I21" t="s">
-        <v>382</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>410</v>
-      </c>
-      <c r="B22" t="s">
-        <v>242</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>374</v>
-      </c>
-      <c r="E22" t="s">
-        <v>523</v>
-      </c>
-      <c r="H22" t="s">
-        <v>367</v>
-      </c>
-      <c r="I22" t="s">
-        <v>368</v>
-      </c>
-      <c r="J22">
-        <v>16</v>
-      </c>
-      <c r="K22" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>212</v>
-      </c>
-      <c r="B23" t="s">
-        <v>212</v>
-      </c>
-      <c r="C23" t="s">
-        <v>483</v>
-      </c>
-      <c r="D23" t="s">
-        <v>395</v>
-      </c>
-      <c r="E23" t="s">
-        <v>507</v>
-      </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>500</v>
-      </c>
-      <c r="H23" t="s">
-        <v>392</v>
-      </c>
-      <c r="I23" t="s">
-        <v>382</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>277</v>
-      </c>
-      <c r="B24" t="s">
-        <v>277</v>
-      </c>
-      <c r="C24" t="s">
-        <v>278</v>
-      </c>
-      <c r="D24" t="s">
-        <v>279</v>
-      </c>
-      <c r="E24" t="s">
-        <v>280</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>281</v>
-      </c>
       <c r="H24" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="I24" t="s">
-        <v>366</v>
-      </c>
-      <c r="J24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="K24" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E25" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>12</v>
@@ -2991,727 +3022,773 @@
         <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I25" t="s">
-        <v>366</v>
-      </c>
-      <c r="K25" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="J26" s="5">
+        <v>4</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27" t="s">
+        <v>208</v>
+      </c>
+      <c r="C27" t="s">
+        <v>480</v>
+      </c>
+      <c r="D27" t="s">
+        <v>499</v>
+      </c>
+      <c r="E27" t="s">
+        <v>500</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
         <v>494</v>
       </c>
-      <c r="E26" t="s">
-        <v>494</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" t="s">
-        <v>375</v>
-      </c>
-      <c r="I26" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="J27" s="5">
-        <v>4</v>
-      </c>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>389</v>
+      </c>
+      <c r="I27" t="s">
+        <v>379</v>
+      </c>
+      <c r="K27" t="s">
+        <v>205</v>
+      </c>
+      <c r="L27" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B28" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C28" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D28" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E28" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="H28" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="I28" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="K28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="L28" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="B29" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C29" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D29" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="E29" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="H29" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="I29" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="K29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="L29" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B30" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C30" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D30" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="E30" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="H30" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="I30" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="K30" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="L30" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B31" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C31" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D31" t="s">
-        <v>511</v>
+        <v>386</v>
       </c>
       <c r="E31" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="H31" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I31" t="s">
-        <v>382</v>
+        <v>379</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="L31" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B32" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C32" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D32" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="E32" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="H32" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="I32" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K32" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="L32" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B33" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C33" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D33" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="E33" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="H33" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="I33" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K33" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="L33" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="B34" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="C34" t="s">
-        <v>483</v>
+        <v>169</v>
       </c>
       <c r="D34" t="s">
-        <v>391</v>
+        <v>175</v>
       </c>
       <c r="E34" t="s">
-        <v>504</v>
+        <v>176</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="G34" t="s">
-        <v>500</v>
+        <v>173</v>
       </c>
       <c r="H34" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="I34" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="L34" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>176</v>
+        <v>423</v>
       </c>
       <c r="B35" t="s">
-        <v>176</v>
+        <v>356</v>
       </c>
       <c r="C35" t="s">
-        <v>171</v>
+        <v>349</v>
       </c>
       <c r="D35" t="s">
-        <v>177</v>
+        <v>357</v>
       </c>
       <c r="E35" t="s">
-        <v>178</v>
+        <v>358</v>
       </c>
       <c r="F35" t="s">
-        <v>174</v>
+        <v>68</v>
       </c>
       <c r="G35" t="s">
-        <v>175</v>
+        <v>352</v>
       </c>
       <c r="H35" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="I35" t="s">
-        <v>366</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="L35" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B36" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C36" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D36" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E36" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F36" t="s">
         <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H36" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I36" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="L36" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>425</v>
+        <v>186</v>
       </c>
       <c r="B37" t="s">
-        <v>356</v>
+        <v>186</v>
       </c>
       <c r="C37" t="s">
-        <v>352</v>
+        <v>169</v>
       </c>
       <c r="D37" t="s">
-        <v>357</v>
+        <v>187</v>
       </c>
       <c r="E37" t="s">
-        <v>358</v>
+        <v>188</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>172</v>
       </c>
       <c r="G37" t="s">
-        <v>355</v>
+        <v>173</v>
       </c>
       <c r="H37" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="I37" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>189</v>
+      </c>
+      <c r="L37" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B38" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D38" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E38" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G38" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H38" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I38" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="L38" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C39" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F39" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G39" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H39" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I39" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>195</v>
-      </c>
-      <c r="B40" t="s">
-        <v>195</v>
-      </c>
-      <c r="C40" t="s">
-        <v>171</v>
-      </c>
-      <c r="D40" t="s">
-        <v>196</v>
-      </c>
-      <c r="E40" t="s">
-        <v>197</v>
-      </c>
-      <c r="F40" t="s">
-        <v>174</v>
-      </c>
-      <c r="G40" t="s">
-        <v>175</v>
-      </c>
-      <c r="H40" t="s">
-        <v>392</v>
-      </c>
-      <c r="I40" t="s">
-        <v>382</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="L39" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J40" s="5">
+        <v>5</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>487</v>
+        <v>548</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>489</v>
+        <v>548</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5" t="s">
-        <v>490</v>
+        <v>469</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>466</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="J41" s="5">
+        <v>4</v>
+      </c>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>372</v>
+      </c>
+      <c r="I42" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="14"/>
+      <c r="G43" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="J43" s="14">
+        <v>4</v>
+      </c>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+    </row>
+    <row r="44" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>364</v>
+      </c>
+      <c r="I44" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J45" s="5">
         <v>5</v>
       </c>
-      <c r="K41" s="5"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="J42" s="5">
-        <v>4</v>
-      </c>
-      <c r="K42" s="5"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
         <v>13</v>
       </c>
-      <c r="D43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46" t="s">
         <v>14</v>
       </c>
-      <c r="H43" t="s">
-        <v>375</v>
-      </c>
-      <c r="I43" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="J44" s="8">
-        <v>4</v>
-      </c>
-      <c r="K44" s="8"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" t="s">
-        <v>49</v>
-      </c>
-      <c r="G45" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" t="s">
-        <v>367</v>
-      </c>
-      <c r="I45" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="J46" s="5">
-        <v>5</v>
-      </c>
-      <c r="K46" s="5"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>372</v>
+      </c>
+      <c r="I46" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>52</v>
+      </c>
+      <c r="F47" t="s">
+        <v>53</v>
       </c>
       <c r="G47" t="s">
         <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="I47" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>404</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F48" t="s">
         <v>53</v>
@@ -3720,182 +3797,190 @@
         <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I48" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>317</v>
       </c>
       <c r="C49" t="s">
+        <v>318</v>
+      </c>
+      <c r="D49" t="s">
+        <v>319</v>
+      </c>
+      <c r="E49" t="s">
+        <v>319</v>
+      </c>
+      <c r="F49" t="s">
+        <v>320</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H49" t="s">
+        <v>389</v>
+      </c>
+      <c r="I49" t="s">
+        <v>365</v>
+      </c>
+      <c r="J49">
+        <v>6</v>
+      </c>
+      <c r="L49" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" t="s">
+        <v>272</v>
+      </c>
+      <c r="D50" t="s">
+        <v>492</v>
+      </c>
+      <c r="F50" t="s">
+        <v>53</v>
+      </c>
+      <c r="G50" t="s">
+        <v>273</v>
+      </c>
+      <c r="H50" t="s">
+        <v>389</v>
+      </c>
+      <c r="I50" t="s">
+        <v>379</v>
+      </c>
+      <c r="L50" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="J51" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B52" t="s">
+        <v>322</v>
+      </c>
+      <c r="C52" t="s">
+        <v>318</v>
+      </c>
+      <c r="D52" t="s">
+        <v>323</v>
+      </c>
+      <c r="E52" t="s">
+        <v>324</v>
+      </c>
+      <c r="F52" t="s">
+        <v>325</v>
+      </c>
+      <c r="G52" t="s">
+        <v>321</v>
+      </c>
+      <c r="H52" t="s">
+        <v>372</v>
+      </c>
+      <c r="I52" t="s">
+        <v>365</v>
+      </c>
+      <c r="J52">
+        <v>4</v>
+      </c>
+      <c r="L52" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" t="s">
         <v>13</v>
       </c>
-      <c r="D49" t="s">
-        <v>55</v>
-      </c>
-      <c r="E49" t="s">
-        <v>56</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="D53" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" t="s">
         <v>53</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G53" t="s">
         <v>14</v>
       </c>
-      <c r="H49" t="s">
-        <v>384</v>
-      </c>
-      <c r="I49" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>421</v>
-      </c>
-      <c r="B50" t="s">
-        <v>320</v>
-      </c>
-      <c r="C50" t="s">
-        <v>321</v>
-      </c>
-      <c r="D50" t="s">
-        <v>322</v>
-      </c>
-      <c r="E50" t="s">
-        <v>322</v>
-      </c>
-      <c r="F50" t="s">
-        <v>323</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="H50" t="s">
-        <v>392</v>
-      </c>
-      <c r="I50" t="s">
-        <v>368</v>
-      </c>
-      <c r="J50">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" t="s">
-        <v>275</v>
-      </c>
-      <c r="D51" t="s">
-        <v>495</v>
-      </c>
-      <c r="F51" t="s">
-        <v>53</v>
-      </c>
-      <c r="G51" t="s">
-        <v>276</v>
-      </c>
-      <c r="H51" t="s">
-        <v>392</v>
-      </c>
-      <c r="I51" t="s">
-        <v>382</v>
-      </c>
-      <c r="L51" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="J52" s="5">
-        <v>6</v>
-      </c>
-      <c r="K52" s="5"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>325</v>
-      </c>
-      <c r="B53" t="s">
-        <v>325</v>
-      </c>
-      <c r="C53" t="s">
-        <v>321</v>
-      </c>
-      <c r="D53" t="s">
-        <v>326</v>
-      </c>
-      <c r="E53" t="s">
-        <v>327</v>
-      </c>
-      <c r="F53" t="s">
-        <v>328</v>
-      </c>
-      <c r="G53" t="s">
-        <v>324</v>
-      </c>
       <c r="H53" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="I53" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E54" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F54" t="s">
         <v>53</v>
@@ -3904,544 +3989,583 @@
         <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="I54" t="s">
-        <v>368</v>
-      </c>
-      <c r="J54">
-        <v>12</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>124</v>
+        <v>255</v>
       </c>
       <c r="B55" t="s">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="D55" t="s">
-        <v>126</v>
+        <v>384</v>
       </c>
       <c r="E55" t="s">
-        <v>127</v>
-      </c>
-      <c r="F55" t="s">
-        <v>53</v>
+        <v>527</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="H55" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="I55" t="s">
-        <v>368</v>
+        <v>365</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>256</v>
+      </c>
+      <c r="L55" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B56" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C56" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D56" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="E56" t="s">
-        <v>533</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>12</v>
+        <v>529</v>
+      </c>
+      <c r="F56" t="s">
+        <v>252</v>
       </c>
       <c r="G56" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H56" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="I56" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K56" t="s">
-        <v>259</v>
+        <v>260</v>
+      </c>
+      <c r="L56" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B57" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C57" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D57" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E57" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F57" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G57" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H57" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I57" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J57">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K57" t="s">
-        <v>263</v>
+        <v>264</v>
+      </c>
+      <c r="L57" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B58" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C58" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D58" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E58" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F58" t="s">
-        <v>255</v>
+        <v>532</v>
       </c>
       <c r="G58" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H58" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="I58" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J58">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K58" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="L58" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B59" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C59" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D59" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="E59" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F59" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="G59" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H59" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="I59" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="J59">
         <v>3</v>
       </c>
       <c r="K59" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="L59" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>273</v>
+        <v>202</v>
       </c>
       <c r="B60" t="s">
-        <v>273</v>
+        <v>202</v>
       </c>
       <c r="C60" t="s">
-        <v>205</v>
+        <v>480</v>
       </c>
       <c r="D60" t="s">
-        <v>385</v>
+        <v>493</v>
       </c>
       <c r="E60" t="s">
-        <v>548</v>
+        <v>497</v>
       </c>
       <c r="F60" t="s">
-        <v>538</v>
+        <v>12</v>
       </c>
       <c r="G60" t="s">
-        <v>175</v>
+        <v>494</v>
       </c>
       <c r="H60" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="I60" t="s">
-        <v>366</v>
-      </c>
-      <c r="J60">
-        <v>3</v>
+        <v>379</v>
       </c>
       <c r="K60" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="L60" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B61" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C61" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D61" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="E61" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F61" t="s">
         <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="H61" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="I61" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="K61" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="L61" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>217</v>
+        <v>410</v>
       </c>
       <c r="B62" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="C62" t="s">
-        <v>483</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>510</v>
+        <v>366</v>
       </c>
       <c r="E62" t="s">
-        <v>503</v>
-      </c>
-      <c r="F62" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" t="s">
-        <v>500</v>
+        <v>522</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>523</v>
       </c>
       <c r="H62" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="I62" t="s">
-        <v>382</v>
+        <v>365</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
       </c>
       <c r="K62" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>413</v>
-      </c>
-      <c r="B63" t="s">
-        <v>248</v>
-      </c>
-      <c r="C63" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" t="s">
-        <v>369</v>
-      </c>
-      <c r="E63" t="s">
-        <v>528</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="H63" t="s">
-        <v>367</v>
-      </c>
-      <c r="I63" t="s">
-        <v>368</v>
-      </c>
-      <c r="J63">
-        <v>2</v>
-      </c>
-      <c r="K63" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J63" s="5">
+        <v>3</v>
+      </c>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>462</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="E64" s="5"/>
       <c r="F64" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>463</v>
+        <v>443</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>446</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="J64" s="5">
-        <v>3</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G65" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="G65" s="6" t="s">
-        <v>449</v>
-      </c>
       <c r="H65" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>476</v>
+        <v>550</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>476</v>
+        <v>550</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G66" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="G66" s="6" t="s">
-        <v>449</v>
-      </c>
       <c r="H66" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="J66" s="5"/>
+        <v>363</v>
+      </c>
+      <c r="J66" s="5">
+        <v>12</v>
+      </c>
       <c r="K66" s="5"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>556</v>
+        <v>471</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>556</v>
+        <v>471</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G67" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="G67" s="6" t="s">
-        <v>449</v>
-      </c>
       <c r="H67" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="J67" s="5">
-        <v>12</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G68" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="G68" s="6" t="s">
-        <v>449</v>
-      </c>
       <c r="H68" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>473</v>
+        <v>551</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>473</v>
+        <v>551</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G69" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="G69" s="6" t="s">
-        <v>449</v>
-      </c>
       <c r="H69" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="J69" s="5"/>
+        <v>363</v>
+      </c>
+      <c r="J69" s="5">
+        <v>11</v>
+      </c>
       <c r="K69" s="5"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="J70" s="5">
-        <v>11</v>
-      </c>
-      <c r="K70" s="5"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>118</v>
+      </c>
+      <c r="E70" t="s">
+        <v>119</v>
+      </c>
+      <c r="F70" t="s">
+        <v>53</v>
+      </c>
+      <c r="G70" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" t="s">
+        <v>381</v>
+      </c>
+      <c r="I70" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="E71" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="F71" t="s">
         <v>53</v>
@@ -4450,27 +4574,27 @@
         <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="I71" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B72" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E72" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F72" t="s">
         <v>53</v>
@@ -4479,27 +4603,27 @@
         <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I72" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E73" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F73" t="s">
         <v>53</v>
@@ -4508,27 +4632,27 @@
         <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I73" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F74" t="s">
         <v>53</v>
@@ -4537,477 +4661,505 @@
         <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I74" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>402</v>
       </c>
       <c r="B75" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="E75" t="s">
-        <v>150</v>
-      </c>
-      <c r="F75" t="s">
-        <v>53</v>
+        <v>398</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="G75" t="s">
         <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="I75" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+      <c r="K75" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E76" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G76" t="s">
         <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="I76" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K76" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>265</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>23</v>
-      </c>
-      <c r="E77" t="s">
-        <v>402</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="G77" t="s">
-        <v>14</v>
+        <v>534</v>
       </c>
       <c r="H77" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="I77" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J77">
         <v>1</v>
       </c>
       <c r="K77" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>414</v>
+        <v>178</v>
       </c>
       <c r="B78" t="s">
-        <v>268</v>
+        <v>178</v>
       </c>
       <c r="C78" t="s">
+        <v>169</v>
+      </c>
+      <c r="D78" t="s">
+        <v>179</v>
+      </c>
+      <c r="E78" t="s">
+        <v>180</v>
+      </c>
+      <c r="F78" t="s">
+        <v>172</v>
+      </c>
+      <c r="G78" t="s">
+        <v>173</v>
+      </c>
+      <c r="H78" t="s">
+        <v>364</v>
+      </c>
+      <c r="I78" t="s">
+        <v>365</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>181</v>
+      </c>
+      <c r="L78" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>326</v>
+      </c>
+      <c r="B79" t="s">
+        <v>326</v>
+      </c>
+      <c r="C79" t="s">
+        <v>318</v>
+      </c>
+      <c r="D79" t="s">
+        <v>327</v>
+      </c>
+      <c r="E79" t="s">
+        <v>328</v>
+      </c>
+      <c r="F79" t="s">
+        <v>329</v>
+      </c>
+      <c r="G79" t="s">
+        <v>321</v>
+      </c>
+      <c r="H79" t="s">
+        <v>389</v>
+      </c>
+      <c r="I79" t="s">
+        <v>365</v>
+      </c>
+      <c r="J79">
+        <v>7</v>
+      </c>
+      <c r="L79" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D78" t="s">
-        <v>370</v>
-      </c>
-      <c r="G78" t="s">
-        <v>540</v>
-      </c>
-      <c r="H78" t="s">
-        <v>367</v>
-      </c>
-      <c r="I78" t="s">
-        <v>368</v>
-      </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-      <c r="K78" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>180</v>
-      </c>
-      <c r="B79" t="s">
-        <v>180</v>
-      </c>
-      <c r="C79" t="s">
-        <v>171</v>
-      </c>
-      <c r="D79" t="s">
-        <v>181</v>
-      </c>
-      <c r="E79" t="s">
-        <v>182</v>
-      </c>
-      <c r="F79" t="s">
-        <v>174</v>
-      </c>
-      <c r="G79" t="s">
-        <v>175</v>
-      </c>
-      <c r="H79" t="s">
-        <v>367</v>
-      </c>
-      <c r="I79" t="s">
-        <v>368</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>329</v>
-      </c>
-      <c r="B80" t="s">
-        <v>329</v>
-      </c>
-      <c r="C80" t="s">
-        <v>321</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="D80" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="J80" s="5">
+        <v>2</v>
+      </c>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+    </row>
+    <row r="81" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>137</v>
+      </c>
+      <c r="B81" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
+        <v>139</v>
+      </c>
+      <c r="E81" t="s">
+        <v>140</v>
+      </c>
+      <c r="F81" t="s">
+        <v>53</v>
+      </c>
+      <c r="G81" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" t="s">
+        <v>364</v>
+      </c>
+      <c r="I81" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="J82" s="5">
+        <v>13</v>
+      </c>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>161</v>
+      </c>
+      <c r="B83" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" t="s">
+        <v>163</v>
+      </c>
+      <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
+        <v>53</v>
+      </c>
+      <c r="G83" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s">
+        <v>364</v>
+      </c>
+      <c r="I83" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>330</v>
       </c>
-      <c r="E80" t="s">
+      <c r="B84" t="s">
+        <v>330</v>
+      </c>
+      <c r="C84" t="s">
         <v>331</v>
       </c>
-      <c r="F80" t="s">
-        <v>332</v>
-      </c>
-      <c r="G80" t="s">
-        <v>324</v>
-      </c>
-      <c r="H80" t="s">
-        <v>392</v>
-      </c>
-      <c r="I80" t="s">
-        <v>368</v>
-      </c>
-      <c r="J80">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="J81" s="5">
-        <v>2</v>
-      </c>
-      <c r="K81" s="5"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>137</v>
-      </c>
-      <c r="B82" t="s">
-        <v>138</v>
-      </c>
-      <c r="C82" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" t="s">
-        <v>139</v>
-      </c>
-      <c r="E82" t="s">
-        <v>140</v>
-      </c>
-      <c r="F82" t="s">
-        <v>53</v>
-      </c>
-      <c r="G82" t="s">
-        <v>14</v>
-      </c>
-      <c r="H82" t="s">
-        <v>367</v>
-      </c>
-      <c r="I82" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="I83" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="J83" s="5">
-        <v>13</v>
-      </c>
-      <c r="K83" s="5"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>163</v>
-      </c>
-      <c r="B84" t="s">
-        <v>164</v>
-      </c>
-      <c r="C84" t="s">
-        <v>13</v>
-      </c>
       <c r="D84" t="s">
-        <v>165</v>
+        <v>535</v>
       </c>
       <c r="E84" t="s">
-        <v>166</v>
+        <v>535</v>
       </c>
       <c r="F84" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G84" t="s">
-        <v>14</v>
+        <v>536</v>
       </c>
       <c r="H84" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="I84" t="s">
-        <v>368</v>
+        <v>379</v>
+      </c>
+      <c r="L84" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>333</v>
+        <v>420</v>
       </c>
       <c r="B85" t="s">
-        <v>333</v>
+        <v>257</v>
       </c>
       <c r="C85" t="s">
-        <v>334</v>
+        <v>169</v>
       </c>
       <c r="D85" t="s">
-        <v>541</v>
+        <v>391</v>
       </c>
       <c r="E85" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="F85" t="s">
-        <v>68</v>
+        <v>252</v>
       </c>
       <c r="G85" t="s">
-        <v>542</v>
+        <v>173</v>
       </c>
       <c r="H85" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I85" t="s">
-        <v>382</v>
+        <v>365</v>
+      </c>
+      <c r="J85">
+        <v>2</v>
+      </c>
+      <c r="K85" t="s">
+        <v>258</v>
+      </c>
+      <c r="L85" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>423</v>
+        <v>196</v>
       </c>
       <c r="B86" t="s">
-        <v>260</v>
+        <v>196</v>
       </c>
       <c r="C86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D86" t="s">
-        <v>394</v>
+        <v>197</v>
       </c>
       <c r="E86" t="s">
-        <v>534</v>
+        <v>198</v>
       </c>
       <c r="F86" t="s">
-        <v>255</v>
+        <v>172</v>
       </c>
       <c r="G86" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H86" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="I86" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>261</v>
+        <v>181</v>
+      </c>
+      <c r="L86" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B87" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D87" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E87" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G87" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H87" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="I87" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="L87" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>201</v>
+        <v>332</v>
       </c>
       <c r="B88" t="s">
-        <v>201</v>
+        <v>332</v>
       </c>
       <c r="C88" t="s">
-        <v>171</v>
+        <v>272</v>
       </c>
       <c r="D88" t="s">
-        <v>202</v>
+        <v>333</v>
       </c>
       <c r="E88" t="s">
-        <v>203</v>
+        <v>333</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>175</v>
+        <v>273</v>
       </c>
       <c r="H88" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="I88" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="L88" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B89" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C89" t="s">
         <v>275</v>
       </c>
       <c r="D89" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E89" t="s">
         <v>336</v>
@@ -5016,103 +5168,103 @@
         <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H89" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="I89" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="J89">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L89" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="B90" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="C90" t="s">
-        <v>278</v>
+        <v>169</v>
       </c>
       <c r="D90" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="E90" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="G90" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="H90" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I90" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="J90">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K90" t="s">
+        <v>254</v>
+      </c>
+      <c r="L90" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>252</v>
+        <v>157</v>
       </c>
       <c r="B91" t="s">
-        <v>252</v>
+        <v>158</v>
       </c>
       <c r="C91" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>253</v>
+        <v>159</v>
       </c>
       <c r="E91" t="s">
-        <v>254</v>
+        <v>160</v>
       </c>
       <c r="F91" t="s">
-        <v>255</v>
+        <v>53</v>
       </c>
       <c r="G91" t="s">
-        <v>256</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="I91" t="s">
-        <v>366</v>
-      </c>
-      <c r="J91">
-        <v>1</v>
-      </c>
-      <c r="K91" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>159</v>
+        <v>421</v>
       </c>
       <c r="B92" t="s">
-        <v>160</v>
+        <v>279</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>161</v>
+        <v>280</v>
       </c>
       <c r="E92" t="s">
-        <v>162</v>
+        <v>281</v>
       </c>
       <c r="F92" t="s">
         <v>53</v>
@@ -5121,15 +5273,15 @@
         <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="I92" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B93" t="s">
         <v>282</v>
@@ -5138,10 +5290,10 @@
         <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E93" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F93" t="s">
         <v>53</v>
@@ -5150,1531 +5302,1592 @@
         <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I93" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>424</v>
+        <v>261</v>
       </c>
       <c r="B94" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="C94" t="s">
+        <v>169</v>
+      </c>
+      <c r="D94" t="s">
+        <v>390</v>
+      </c>
+      <c r="E94" t="s">
+        <v>530</v>
+      </c>
+      <c r="F94" t="s">
+        <v>252</v>
+      </c>
+      <c r="G94" t="s">
+        <v>173</v>
+      </c>
+      <c r="H94" t="s">
+        <v>389</v>
+      </c>
+      <c r="I94" t="s">
+        <v>365</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94" t="s">
+        <v>177</v>
+      </c>
+      <c r="L94" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>400</v>
+      </c>
+      <c r="B95" t="s">
+        <v>488</v>
+      </c>
+      <c r="C95" t="s">
         <v>13</v>
       </c>
-      <c r="D94" t="s">
-        <v>283</v>
-      </c>
-      <c r="E94" t="s">
-        <v>284</v>
-      </c>
-      <c r="F94" t="s">
-        <v>53</v>
-      </c>
-      <c r="G94" t="s">
+      <c r="D95" t="s">
+        <v>359</v>
+      </c>
+      <c r="E95" t="s">
+        <v>360</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G95" t="s">
         <v>14</v>
       </c>
-      <c r="H94" t="s">
-        <v>384</v>
-      </c>
-      <c r="I94" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>264</v>
-      </c>
-      <c r="B95" t="s">
-        <v>264</v>
-      </c>
-      <c r="C95" t="s">
-        <v>171</v>
-      </c>
-      <c r="D95" t="s">
-        <v>393</v>
-      </c>
-      <c r="E95" t="s">
-        <v>536</v>
-      </c>
-      <c r="F95" t="s">
-        <v>255</v>
-      </c>
-      <c r="G95" t="s">
-        <v>175</v>
-      </c>
       <c r="H95" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="I95" t="s">
-        <v>368</v>
-      </c>
-      <c r="J95">
-        <v>1</v>
+        <v>365</v>
       </c>
       <c r="K95" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B96" t="s">
-        <v>491</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E96" t="s">
-        <v>363</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
+      </c>
+      <c r="F96" t="s">
+        <v>361</v>
       </c>
       <c r="G96" t="s">
         <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I96" t="s">
-        <v>368</v>
+        <v>365</v>
+      </c>
+      <c r="J96">
+        <v>14</v>
       </c>
       <c r="K96" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>403</v>
+        <v>149</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>362</v>
+        <v>151</v>
       </c>
       <c r="E97" t="s">
-        <v>363</v>
+        <v>152</v>
       </c>
       <c r="F97" t="s">
-        <v>364</v>
+        <v>53</v>
       </c>
       <c r="G97" t="s">
         <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I97" t="s">
-        <v>368</v>
-      </c>
-      <c r="J97">
-        <v>14</v>
-      </c>
-      <c r="K97" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B98" t="s">
-        <v>152</v>
+        <v>247</v>
       </c>
       <c r="C98" t="s">
         <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>153</v>
+        <v>525</v>
       </c>
       <c r="E98" t="s">
-        <v>154</v>
-      </c>
-      <c r="F98" t="s">
-        <v>53</v>
-      </c>
-      <c r="G98" t="s">
+        <v>524</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="H98" t="s">
+        <v>364</v>
+      </c>
+      <c r="K98" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>337</v>
+      </c>
+      <c r="B99" t="s">
+        <v>337</v>
+      </c>
+      <c r="C99" t="s">
+        <v>318</v>
+      </c>
+      <c r="D99" t="s">
+        <v>338</v>
+      </c>
+      <c r="E99" t="s">
+        <v>339</v>
+      </c>
+      <c r="F99" t="s">
+        <v>286</v>
+      </c>
+      <c r="G99" t="s">
+        <v>321</v>
+      </c>
+      <c r="H99" t="s">
+        <v>381</v>
+      </c>
+      <c r="I99" t="s">
+        <v>365</v>
+      </c>
+      <c r="J99">
+        <v>6</v>
+      </c>
+      <c r="L99" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>182</v>
+      </c>
+      <c r="B100" t="s">
+        <v>182</v>
+      </c>
+      <c r="C100" t="s">
+        <v>169</v>
+      </c>
+      <c r="D100" t="s">
+        <v>183</v>
+      </c>
+      <c r="E100" t="s">
+        <v>184</v>
+      </c>
+      <c r="F100" t="s">
+        <v>172</v>
+      </c>
+      <c r="G100" t="s">
+        <v>173</v>
+      </c>
+      <c r="H100" t="s">
+        <v>372</v>
+      </c>
+      <c r="I100" t="s">
+        <v>363</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100" t="s">
+        <v>185</v>
+      </c>
+      <c r="L100" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>340</v>
+      </c>
+      <c r="B101" t="s">
+        <v>340</v>
+      </c>
+      <c r="C101" t="s">
+        <v>318</v>
+      </c>
+      <c r="D101" t="s">
+        <v>341</v>
+      </c>
+      <c r="E101" t="s">
+        <v>342</v>
+      </c>
+      <c r="F101" t="s">
+        <v>343</v>
+      </c>
+      <c r="G101" t="s">
+        <v>321</v>
+      </c>
+      <c r="H101" t="s">
+        <v>364</v>
+      </c>
+      <c r="I101" t="s">
+        <v>365</v>
+      </c>
+      <c r="J101">
+        <v>10</v>
+      </c>
+      <c r="L101" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>344</v>
+      </c>
+      <c r="B102" t="s">
+        <v>344</v>
+      </c>
+      <c r="C102" t="s">
+        <v>318</v>
+      </c>
+      <c r="D102" t="s">
+        <v>345</v>
+      </c>
+      <c r="E102" t="s">
+        <v>346</v>
+      </c>
+      <c r="F102" t="s">
+        <v>347</v>
+      </c>
+      <c r="G102" t="s">
+        <v>321</v>
+      </c>
+      <c r="H102" t="s">
+        <v>364</v>
+      </c>
+      <c r="I102" t="s">
+        <v>365</v>
+      </c>
+      <c r="J102">
+        <v>9</v>
+      </c>
+      <c r="L102" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>401</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" t="s">
+        <v>396</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G103" t="s">
         <v>14</v>
       </c>
-      <c r="H98" t="s">
-        <v>367</v>
-      </c>
-      <c r="I98" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>151</v>
-      </c>
-      <c r="B99" t="s">
-        <v>250</v>
-      </c>
-      <c r="C99" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="H103" t="s">
+        <v>364</v>
+      </c>
+      <c r="I103" t="s">
+        <v>365</v>
+      </c>
+      <c r="K103" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>266</v>
+      </c>
+      <c r="B104" t="s">
+        <v>266</v>
+      </c>
+      <c r="C104" t="s">
+        <v>169</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="E104" t="s">
+        <v>539</v>
+      </c>
+      <c r="F104" t="s">
+        <v>532</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H104" t="s">
+        <v>372</v>
+      </c>
+      <c r="I104" t="s">
+        <v>363</v>
+      </c>
+      <c r="J104">
+        <v>2</v>
+      </c>
+      <c r="K104" t="s">
+        <v>224</v>
+      </c>
+      <c r="L104" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>262</v>
+      </c>
+      <c r="B105" t="s">
+        <v>262</v>
+      </c>
+      <c r="C105" t="s">
+        <v>169</v>
+      </c>
+      <c r="D105" t="s">
+        <v>374</v>
+      </c>
+      <c r="E105" t="s">
         <v>531</v>
       </c>
-      <c r="E99" t="s">
-        <v>530</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="G99" s="9" t="s">
+      <c r="F105" t="s">
         <v>532</v>
       </c>
-      <c r="H99" t="s">
-        <v>367</v>
-      </c>
-      <c r="K99" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>340</v>
-      </c>
-      <c r="B100" t="s">
-        <v>340</v>
-      </c>
-      <c r="C100" t="s">
-        <v>321</v>
-      </c>
-      <c r="D100" t="s">
-        <v>341</v>
-      </c>
-      <c r="E100" t="s">
-        <v>342</v>
-      </c>
-      <c r="F100" t="s">
-        <v>289</v>
-      </c>
-      <c r="G100" t="s">
-        <v>324</v>
-      </c>
-      <c r="H100" t="s">
-        <v>384</v>
-      </c>
-      <c r="I100" t="s">
-        <v>368</v>
-      </c>
-      <c r="J100">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>184</v>
-      </c>
-      <c r="B101" t="s">
-        <v>184</v>
-      </c>
-      <c r="C101" t="s">
-        <v>171</v>
-      </c>
-      <c r="D101" t="s">
-        <v>185</v>
-      </c>
-      <c r="E101" t="s">
-        <v>186</v>
-      </c>
-      <c r="F101" t="s">
-        <v>174</v>
-      </c>
-      <c r="G101" t="s">
-        <v>175</v>
-      </c>
-      <c r="H101" t="s">
+      <c r="G105" t="s">
+        <v>173</v>
+      </c>
+      <c r="H105" t="s">
+        <v>372</v>
+      </c>
+      <c r="I105" t="s">
+        <v>363</v>
+      </c>
+      <c r="J105">
+        <v>5</v>
+      </c>
+      <c r="K105" t="s">
+        <v>224</v>
+      </c>
+      <c r="L105" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="H106" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="I106" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="J106" s="14">
+        <v>2</v>
+      </c>
+      <c r="K106" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="L106" s="14" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="D107" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="H107" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="I107" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="J107" s="14"/>
+      <c r="K107" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="L107" s="14" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="G108" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="H108" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="I108" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="J108" s="14">
+        <v>3</v>
+      </c>
+      <c r="K108" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="L108" s="14" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="H109" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="I109" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="J109" s="14">
+        <v>8</v>
+      </c>
+      <c r="K109" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="L109" s="14" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="D110" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="I101" t="s">
-        <v>366</v>
-      </c>
-      <c r="J101">
-        <v>0</v>
-      </c>
-      <c r="K101" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>343</v>
-      </c>
-      <c r="B102" t="s">
-        <v>343</v>
-      </c>
-      <c r="C102" t="s">
-        <v>321</v>
-      </c>
-      <c r="D102" t="s">
-        <v>344</v>
-      </c>
-      <c r="E102" t="s">
-        <v>345</v>
-      </c>
-      <c r="F102" t="s">
-        <v>346</v>
-      </c>
-      <c r="G102" t="s">
-        <v>324</v>
-      </c>
-      <c r="H102" t="s">
-        <v>367</v>
-      </c>
-      <c r="I102" t="s">
-        <v>368</v>
-      </c>
-      <c r="J102">
+      <c r="E110" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="F110" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="H110" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="I110" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="J110" s="14">
+        <v>7</v>
+      </c>
+      <c r="K110" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="L110" s="14" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="H111" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="I111" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="J111" s="14">
+        <v>9</v>
+      </c>
+      <c r="K111" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="L111" s="14" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="H112" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="I112" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="J112" s="14">
+        <v>4</v>
+      </c>
+      <c r="K112" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="L112" s="14" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="D113" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="H113" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="I113" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="J113" s="14">
         <v>10</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>347</v>
-      </c>
-      <c r="B103" t="s">
-        <v>347</v>
-      </c>
-      <c r="C103" t="s">
-        <v>321</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="K113" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="L113" s="14" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="F114" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="H114" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="I114" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="J114" s="14"/>
+      <c r="K114" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="L114" s="14" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="H115" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="I115" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="J115" s="14"/>
+      <c r="K115" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="L115" s="14" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>419</v>
+      </c>
+      <c r="B116" t="s">
         <v>348</v>
       </c>
-      <c r="E103" t="s">
+      <c r="C116" t="s">
         <v>349</v>
       </c>
-      <c r="F103" t="s">
+      <c r="D116" t="s">
         <v>350</v>
       </c>
-      <c r="G103" t="s">
-        <v>324</v>
-      </c>
-      <c r="H103" t="s">
-        <v>367</v>
-      </c>
-      <c r="I103" t="s">
-        <v>368</v>
-      </c>
-      <c r="J103">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>404</v>
-      </c>
-      <c r="B104" t="s">
-        <v>16</v>
-      </c>
-      <c r="C104" t="s">
-        <v>13</v>
-      </c>
-      <c r="D104" t="s">
-        <v>17</v>
-      </c>
-      <c r="E104" t="s">
-        <v>399</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="G104" t="s">
-        <v>14</v>
-      </c>
-      <c r="H104" t="s">
-        <v>367</v>
-      </c>
-      <c r="I104" t="s">
-        <v>368</v>
-      </c>
-      <c r="K104" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>269</v>
-      </c>
-      <c r="B105" t="s">
-        <v>269</v>
-      </c>
-      <c r="C105" t="s">
-        <v>171</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="E105" t="s">
-        <v>545</v>
-      </c>
-      <c r="F105" t="s">
-        <v>538</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H105" t="s">
-        <v>375</v>
-      </c>
-      <c r="I105" t="s">
-        <v>366</v>
-      </c>
-      <c r="J105">
+      <c r="E116" t="s">
+        <v>351</v>
+      </c>
+      <c r="F116" t="s">
+        <v>68</v>
+      </c>
+      <c r="G116" t="s">
+        <v>352</v>
+      </c>
+      <c r="H116" t="s">
+        <v>364</v>
+      </c>
+      <c r="I116" t="s">
+        <v>365</v>
+      </c>
+      <c r="L116" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>210</v>
+      </c>
+      <c r="B117" t="s">
+        <v>210</v>
+      </c>
+      <c r="C117" t="s">
+        <v>480</v>
+      </c>
+      <c r="D117" t="s">
+        <v>393</v>
+      </c>
+      <c r="E117" t="s">
+        <v>502</v>
+      </c>
+      <c r="F117" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>494</v>
+      </c>
+      <c r="H117" t="s">
+        <v>389</v>
+      </c>
+      <c r="I117" t="s">
+        <v>379</v>
+      </c>
+      <c r="J117">
         <v>2</v>
       </c>
-      <c r="K105" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>265</v>
-      </c>
-      <c r="B106" t="s">
-        <v>265</v>
-      </c>
-      <c r="C106" t="s">
-        <v>171</v>
-      </c>
-      <c r="D106" t="s">
-        <v>377</v>
-      </c>
-      <c r="E106" t="s">
-        <v>537</v>
-      </c>
-      <c r="F106" t="s">
-        <v>538</v>
-      </c>
-      <c r="G106" t="s">
-        <v>175</v>
-      </c>
-      <c r="H106" t="s">
-        <v>375</v>
-      </c>
-      <c r="I106" t="s">
-        <v>366</v>
-      </c>
-      <c r="J106">
-        <v>5</v>
-      </c>
-      <c r="K106" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>226</v>
-      </c>
-      <c r="B107" t="s">
-        <v>226</v>
-      </c>
-      <c r="C107" t="s">
-        <v>483</v>
-      </c>
-      <c r="D107" t="s">
-        <v>383</v>
-      </c>
-      <c r="E107" t="s">
-        <v>513</v>
-      </c>
-      <c r="F107" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" t="s">
-        <v>453</v>
-      </c>
-      <c r="H107" t="s">
-        <v>384</v>
-      </c>
-      <c r="I107" t="s">
-        <v>366</v>
-      </c>
-      <c r="J107">
-        <v>2</v>
-      </c>
-      <c r="K107" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>232</v>
-      </c>
-      <c r="B108" t="s">
-        <v>232</v>
-      </c>
-      <c r="C108" t="s">
-        <v>515</v>
-      </c>
-      <c r="D108" t="s">
-        <v>517</v>
-      </c>
-      <c r="E108" t="s">
-        <v>518</v>
-      </c>
-      <c r="F108" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" t="s">
-        <v>453</v>
-      </c>
-      <c r="H108" t="s">
-        <v>367</v>
-      </c>
-      <c r="I108" t="s">
-        <v>366</v>
-      </c>
-      <c r="K108" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>270</v>
-      </c>
-      <c r="B109" t="s">
-        <v>270</v>
-      </c>
-      <c r="C109" t="s">
-        <v>171</v>
-      </c>
-      <c r="D109" t="s">
-        <v>365</v>
-      </c>
-      <c r="E109" t="s">
-        <v>546</v>
-      </c>
-      <c r="F109" t="s">
-        <v>538</v>
-      </c>
-      <c r="G109" t="s">
-        <v>175</v>
-      </c>
-      <c r="H109" t="s">
-        <v>367</v>
-      </c>
-      <c r="I109" t="s">
-        <v>366</v>
-      </c>
-      <c r="J109">
-        <v>3</v>
-      </c>
-      <c r="K109" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>236</v>
-      </c>
-      <c r="B110" t="s">
-        <v>236</v>
-      </c>
-      <c r="C110" t="s">
-        <v>515</v>
-      </c>
-      <c r="D110" t="s">
-        <v>379</v>
-      </c>
-      <c r="E110" t="s">
-        <v>520</v>
-      </c>
-      <c r="F110" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" t="s">
-        <v>453</v>
-      </c>
-      <c r="H110" t="s">
-        <v>375</v>
-      </c>
-      <c r="I110" t="s">
-        <v>366</v>
-      </c>
-      <c r="J110">
-        <v>8</v>
-      </c>
-      <c r="K110" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>234</v>
-      </c>
-      <c r="B111" t="s">
-        <v>234</v>
-      </c>
-      <c r="C111" t="s">
-        <v>515</v>
-      </c>
-      <c r="D111" t="s">
-        <v>378</v>
-      </c>
-      <c r="E111" t="s">
-        <v>519</v>
-      </c>
-      <c r="F111" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" t="s">
-        <v>453</v>
-      </c>
-      <c r="H111" t="s">
-        <v>375</v>
-      </c>
-      <c r="I111" t="s">
-        <v>366</v>
-      </c>
-      <c r="J111">
-        <v>7</v>
-      </c>
-      <c r="K111" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>239</v>
-      </c>
-      <c r="B112" t="s">
-        <v>239</v>
-      </c>
-      <c r="C112" t="s">
-        <v>515</v>
-      </c>
-      <c r="D112" t="s">
-        <v>380</v>
-      </c>
-      <c r="E112" t="s">
-        <v>522</v>
-      </c>
-      <c r="F112" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" t="s">
-        <v>453</v>
-      </c>
-      <c r="H112" t="s">
-        <v>375</v>
-      </c>
-      <c r="I112" t="s">
-        <v>366</v>
-      </c>
-      <c r="J112">
-        <v>9</v>
-      </c>
-      <c r="K112" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>241</v>
-      </c>
-      <c r="B113" t="s">
-        <v>241</v>
-      </c>
-      <c r="C113" t="s">
-        <v>515</v>
-      </c>
-      <c r="D113" t="s">
-        <v>386</v>
-      </c>
-      <c r="E113" t="s">
-        <v>522</v>
-      </c>
-      <c r="F113" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" t="s">
-        <v>453</v>
-      </c>
-      <c r="H113" t="s">
-        <v>384</v>
-      </c>
-      <c r="I113" t="s">
-        <v>366</v>
-      </c>
-      <c r="J113">
-        <v>4</v>
-      </c>
-      <c r="K113" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>237</v>
-      </c>
-      <c r="B114" t="s">
-        <v>237</v>
-      </c>
-      <c r="C114" t="s">
-        <v>515</v>
-      </c>
-      <c r="D114" t="s">
-        <v>381</v>
-      </c>
-      <c r="E114" t="s">
-        <v>521</v>
-      </c>
-      <c r="F114" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" t="s">
-        <v>453</v>
-      </c>
-      <c r="H114" t="s">
-        <v>375</v>
-      </c>
-      <c r="I114" t="s">
-        <v>366</v>
-      </c>
-      <c r="J114">
-        <v>10</v>
-      </c>
-      <c r="K114" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>230</v>
-      </c>
-      <c r="B115" t="s">
-        <v>230</v>
-      </c>
-      <c r="C115" t="s">
-        <v>515</v>
-      </c>
-      <c r="D115" t="s">
-        <v>427</v>
-      </c>
-      <c r="E115" t="s">
-        <v>516</v>
-      </c>
-      <c r="F115" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" t="s">
-        <v>453</v>
-      </c>
-      <c r="H115" t="s">
-        <v>375</v>
-      </c>
-      <c r="I115" t="s">
-        <v>366</v>
-      </c>
-      <c r="K115" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>228</v>
-      </c>
-      <c r="B116" t="s">
-        <v>228</v>
-      </c>
-      <c r="C116" t="s">
-        <v>515</v>
-      </c>
-      <c r="D116" t="s">
-        <v>398</v>
-      </c>
-      <c r="E116" t="s">
-        <v>514</v>
-      </c>
-      <c r="F116" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" t="s">
-        <v>453</v>
-      </c>
-      <c r="H116" t="s">
-        <v>375</v>
-      </c>
-      <c r="I116" t="s">
-        <v>366</v>
-      </c>
-      <c r="K116" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>422</v>
-      </c>
-      <c r="B117" t="s">
-        <v>351</v>
-      </c>
-      <c r="C117" t="s">
-        <v>352</v>
-      </c>
-      <c r="D117" t="s">
-        <v>353</v>
-      </c>
-      <c r="E117" t="s">
-        <v>354</v>
-      </c>
-      <c r="F117" t="s">
-        <v>68</v>
-      </c>
-      <c r="G117" t="s">
-        <v>355</v>
-      </c>
-      <c r="H117" t="s">
-        <v>367</v>
-      </c>
-      <c r="I117" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K117" t="s">
+        <v>211</v>
+      </c>
+      <c r="L117" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B118" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C118" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D118" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="E118" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="F118" t="s">
         <v>12</v>
       </c>
       <c r="G118" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="H118" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="I118" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J118">
         <v>2</v>
       </c>
       <c r="K118" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>224</v>
-      </c>
-      <c r="B119" t="s">
-        <v>224</v>
-      </c>
-      <c r="C119" t="s">
-        <v>483</v>
-      </c>
-      <c r="D119" t="s">
-        <v>390</v>
-      </c>
-      <c r="E119" t="s">
-        <v>508</v>
-      </c>
-      <c r="F119" t="s">
+        <v>222</v>
+      </c>
+      <c r="L118" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="G119" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H119" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="I119" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="J119" s="14"/>
+      <c r="K119" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="L119" s="14"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="G120" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H120" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="I120" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="J120" s="14">
+        <v>17</v>
+      </c>
+      <c r="K120" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="L120" s="14"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="F121" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="G121" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
+      <c r="J121" s="14"/>
+      <c r="K121" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="L121" s="14"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F122" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G122" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="I122" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="J122" s="14">
+        <v>15</v>
+      </c>
+      <c r="K122" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L122" s="14"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G123" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="I123" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="J123" s="14"/>
+      <c r="K123" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L123" s="14"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F124" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G124" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="I124" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="J124" s="14">
+        <v>3</v>
+      </c>
+      <c r="K124" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L124" s="14"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G125" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="I125" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="J125" s="14">
+        <v>4</v>
+      </c>
+      <c r="K125" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L125" s="14"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G126" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="I126" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="J126" s="14"/>
+      <c r="K126" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L126" s="14"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G127" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="I127" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="J127" s="14"/>
+      <c r="K127" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L127" s="14"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G128" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H128" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="I128" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="J128" s="14"/>
+      <c r="K128" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L128" s="14"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F129" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G129" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="I129" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="J129" s="14"/>
+      <c r="K129" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L129" s="14"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G130" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="I130" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="J130" s="14"/>
+      <c r="K130" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L130" s="14"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C131" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E131" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G131" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H131" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="I131" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="J131" s="14"/>
+      <c r="K131" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L131" s="14"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C132" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E132" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G132" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H132" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="I132" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="J132" s="14"/>
+      <c r="K132" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L132" s="14"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G133" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H133" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="I133" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="J133" s="14"/>
+      <c r="K133" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L133" s="14"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C134" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E134" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F134" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G134" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H134" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="I134" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="J134" s="14"/>
+      <c r="K134" s="14"/>
+      <c r="L134" s="14"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="C135" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="D135" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="F135" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G119" t="s">
-        <v>500</v>
-      </c>
-      <c r="H119" t="s">
-        <v>384</v>
-      </c>
-      <c r="I119" t="s">
-        <v>382</v>
-      </c>
-      <c r="J119">
-        <v>2</v>
-      </c>
-      <c r="K119" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>297</v>
-      </c>
-      <c r="B120" t="s">
-        <v>298</v>
-      </c>
-      <c r="C120" t="s">
-        <v>13</v>
-      </c>
-      <c r="D120" t="s">
-        <v>299</v>
-      </c>
-      <c r="E120" t="s">
-        <v>300</v>
-      </c>
-      <c r="F120" t="s">
-        <v>289</v>
-      </c>
-      <c r="G120" t="s">
-        <v>14</v>
-      </c>
-      <c r="H120" t="s">
-        <v>367</v>
-      </c>
-      <c r="I120" t="s">
-        <v>368</v>
-      </c>
-      <c r="J120"/>
-      <c r="K120" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>302</v>
-      </c>
-      <c r="B121" t="s">
-        <v>303</v>
-      </c>
-      <c r="C121" t="s">
-        <v>13</v>
-      </c>
-      <c r="D121" t="s">
-        <v>304</v>
-      </c>
-      <c r="E121" t="s">
-        <v>305</v>
-      </c>
-      <c r="F121" t="s">
-        <v>289</v>
-      </c>
-      <c r="G121" t="s">
-        <v>14</v>
-      </c>
-      <c r="H121" t="s">
-        <v>367</v>
-      </c>
-      <c r="I121" t="s">
-        <v>368</v>
-      </c>
-      <c r="J121">
-        <v>17</v>
-      </c>
-      <c r="K121" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>306</v>
-      </c>
-      <c r="B122" t="s">
-        <v>307</v>
-      </c>
-      <c r="C122" t="s">
-        <v>13</v>
-      </c>
-      <c r="D122" t="s">
-        <v>308</v>
-      </c>
-      <c r="E122" t="s">
-        <v>309</v>
-      </c>
-      <c r="F122" t="s">
-        <v>289</v>
-      </c>
-      <c r="G122" t="s">
-        <v>14</v>
-      </c>
-      <c r="H122"/>
-      <c r="I122"/>
-      <c r="J122"/>
-      <c r="K122" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>58</v>
-      </c>
-      <c r="B123" t="s">
-        <v>59</v>
-      </c>
-      <c r="C123" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123" t="s">
-        <v>60</v>
-      </c>
-      <c r="E123" t="s">
-        <v>61</v>
-      </c>
-      <c r="F123" t="s">
-        <v>62</v>
-      </c>
-      <c r="G123" t="s">
-        <v>14</v>
-      </c>
-      <c r="H123" t="s">
-        <v>367</v>
-      </c>
-      <c r="I123" t="s">
-        <v>368</v>
-      </c>
-      <c r="J123">
-        <v>15</v>
-      </c>
-      <c r="K123" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>64</v>
-      </c>
-      <c r="B124" t="s">
-        <v>65</v>
-      </c>
-      <c r="C124" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124" t="s">
-        <v>66</v>
-      </c>
-      <c r="E124" t="s">
-        <v>67</v>
-      </c>
-      <c r="F124" t="s">
-        <v>68</v>
-      </c>
-      <c r="G124" t="s">
-        <v>14</v>
-      </c>
-      <c r="H124" t="s">
-        <v>367</v>
-      </c>
-      <c r="I124" t="s">
-        <v>368</v>
-      </c>
-      <c r="J124"/>
-      <c r="K124" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>69</v>
-      </c>
-      <c r="B125" t="s">
-        <v>70</v>
-      </c>
-      <c r="C125" t="s">
-        <v>13</v>
-      </c>
-      <c r="D125" t="s">
-        <v>71</v>
-      </c>
-      <c r="E125" t="s">
-        <v>72</v>
-      </c>
-      <c r="F125" t="s">
-        <v>68</v>
-      </c>
-      <c r="G125" t="s">
-        <v>14</v>
-      </c>
-      <c r="H125" t="s">
-        <v>367</v>
-      </c>
-      <c r="I125" t="s">
-        <v>368</v>
-      </c>
-      <c r="J125">
+      <c r="G135" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="H135" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="I135" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="J135" s="14">
         <v>3</v>
       </c>
-      <c r="K125" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>73</v>
-      </c>
-      <c r="B126" t="s">
-        <v>74</v>
-      </c>
-      <c r="C126" t="s">
-        <v>13</v>
-      </c>
-      <c r="D126" t="s">
-        <v>75</v>
-      </c>
-      <c r="E126" t="s">
-        <v>76</v>
-      </c>
-      <c r="F126" t="s">
-        <v>68</v>
-      </c>
-      <c r="G126" t="s">
-        <v>14</v>
-      </c>
-      <c r="H126" t="s">
-        <v>367</v>
-      </c>
-      <c r="I126" t="s">
-        <v>368</v>
-      </c>
-      <c r="J126">
-        <v>4</v>
-      </c>
-      <c r="K126" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>77</v>
-      </c>
-      <c r="B127" t="s">
-        <v>78</v>
-      </c>
-      <c r="C127" t="s">
-        <v>13</v>
-      </c>
-      <c r="D127" t="s">
-        <v>79</v>
-      </c>
-      <c r="E127" t="s">
-        <v>80</v>
-      </c>
-      <c r="F127" t="s">
-        <v>68</v>
-      </c>
-      <c r="G127" t="s">
-        <v>14</v>
-      </c>
-      <c r="H127" t="s">
-        <v>367</v>
-      </c>
-      <c r="I127" t="s">
-        <v>368</v>
-      </c>
-      <c r="J127"/>
-      <c r="K127" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>81</v>
-      </c>
-      <c r="B128" t="s">
-        <v>82</v>
-      </c>
-      <c r="C128" t="s">
-        <v>13</v>
-      </c>
-      <c r="D128" t="s">
-        <v>83</v>
-      </c>
-      <c r="E128" t="s">
-        <v>84</v>
-      </c>
-      <c r="F128" t="s">
-        <v>68</v>
-      </c>
-      <c r="G128" t="s">
-        <v>14</v>
-      </c>
-      <c r="H128" t="s">
-        <v>367</v>
-      </c>
-      <c r="I128" t="s">
-        <v>368</v>
-      </c>
-      <c r="J128"/>
-      <c r="K128" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>85</v>
-      </c>
-      <c r="B129" t="s">
-        <v>86</v>
-      </c>
-      <c r="C129" t="s">
-        <v>13</v>
-      </c>
-      <c r="D129" t="s">
-        <v>87</v>
-      </c>
-      <c r="E129" t="s">
-        <v>88</v>
-      </c>
-      <c r="F129" t="s">
-        <v>68</v>
-      </c>
-      <c r="G129" t="s">
-        <v>14</v>
-      </c>
-      <c r="H129" t="s">
-        <v>367</v>
-      </c>
-      <c r="I129" t="s">
-        <v>368</v>
-      </c>
-      <c r="J129"/>
-      <c r="K129" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>89</v>
-      </c>
-      <c r="B130" t="s">
-        <v>90</v>
-      </c>
-      <c r="C130" t="s">
-        <v>13</v>
-      </c>
-      <c r="D130" t="s">
-        <v>91</v>
-      </c>
-      <c r="E130" t="s">
-        <v>92</v>
-      </c>
-      <c r="F130" t="s">
-        <v>68</v>
-      </c>
-      <c r="G130" t="s">
-        <v>14</v>
-      </c>
-      <c r="H130" t="s">
-        <v>367</v>
-      </c>
-      <c r="I130" t="s">
-        <v>368</v>
-      </c>
-      <c r="J130"/>
-      <c r="K130" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>93</v>
-      </c>
-      <c r="B131" t="s">
-        <v>94</v>
-      </c>
-      <c r="C131" t="s">
-        <v>13</v>
-      </c>
-      <c r="D131" t="s">
-        <v>95</v>
-      </c>
-      <c r="E131" t="s">
-        <v>96</v>
-      </c>
-      <c r="F131" t="s">
-        <v>68</v>
-      </c>
-      <c r="G131" t="s">
-        <v>14</v>
-      </c>
-      <c r="H131" t="s">
-        <v>367</v>
-      </c>
-      <c r="I131" t="s">
-        <v>368</v>
-      </c>
-      <c r="J131"/>
-      <c r="K131" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>97</v>
-      </c>
-      <c r="B132" t="s">
-        <v>98</v>
-      </c>
-      <c r="C132" t="s">
-        <v>13</v>
-      </c>
-      <c r="D132" t="s">
-        <v>99</v>
-      </c>
-      <c r="E132" t="s">
-        <v>100</v>
-      </c>
-      <c r="F132" t="s">
-        <v>68</v>
-      </c>
-      <c r="G132" t="s">
-        <v>14</v>
-      </c>
-      <c r="H132" t="s">
-        <v>367</v>
-      </c>
-      <c r="I132" t="s">
-        <v>368</v>
-      </c>
-      <c r="J132"/>
-      <c r="K132" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>101</v>
-      </c>
-      <c r="B133" t="s">
-        <v>102</v>
-      </c>
-      <c r="C133" t="s">
-        <v>13</v>
-      </c>
-      <c r="D133" t="s">
-        <v>103</v>
-      </c>
-      <c r="E133" t="s">
-        <v>104</v>
-      </c>
-      <c r="F133" t="s">
-        <v>68</v>
-      </c>
-      <c r="G133" t="s">
-        <v>14</v>
-      </c>
-      <c r="H133" t="s">
-        <v>367</v>
-      </c>
-      <c r="I133" t="s">
-        <v>368</v>
-      </c>
-      <c r="J133"/>
-      <c r="K133" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>105</v>
-      </c>
-      <c r="B134" t="s">
-        <v>106</v>
-      </c>
-      <c r="C134" t="s">
-        <v>13</v>
-      </c>
-      <c r="D134" t="s">
-        <v>107</v>
-      </c>
-      <c r="E134" t="s">
-        <v>108</v>
-      </c>
-      <c r="F134" t="s">
-        <v>68</v>
-      </c>
-      <c r="G134" t="s">
-        <v>14</v>
-      </c>
-      <c r="H134" t="s">
-        <v>367</v>
-      </c>
-      <c r="I134" t="s">
-        <v>368</v>
-      </c>
-      <c r="J134"/>
-      <c r="K134" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>155</v>
-      </c>
-      <c r="B135" t="s">
-        <v>156</v>
-      </c>
-      <c r="C135" t="s">
-        <v>13</v>
-      </c>
-      <c r="D135" t="s">
-        <v>157</v>
-      </c>
-      <c r="E135" t="s">
-        <v>158</v>
-      </c>
-      <c r="F135" t="s">
-        <v>53</v>
-      </c>
-      <c r="G135" t="s">
-        <v>14</v>
-      </c>
-      <c r="H135" t="s">
-        <v>367</v>
-      </c>
-      <c r="I135" t="s">
-        <v>368</v>
-      </c>
-      <c r="J135"/>
-      <c r="K135"/>
-    </row>
-    <row r="136" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>551</v>
-      </c>
-      <c r="B136" t="s">
-        <v>551</v>
-      </c>
-      <c r="C136" t="s">
-        <v>483</v>
-      </c>
-      <c r="D136" t="s">
-        <v>549</v>
-      </c>
-      <c r="E136" t="s">
-        <v>550</v>
-      </c>
-      <c r="F136" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136" t="s">
-        <v>500</v>
-      </c>
-      <c r="H136" t="s">
-        <v>384</v>
-      </c>
-      <c r="I136" t="s">
-        <v>382</v>
-      </c>
-      <c r="J136">
-        <v>3</v>
-      </c>
-      <c r="K136"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="F137" s="5" t="s">
+      <c r="K135" s="14"/>
+      <c r="L135" s="14" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D136" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G137" s="6" t="s">
+      <c r="E136" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="F136" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="H137" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="I137" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="J137" s="5">
+      <c r="G136" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="I136" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="J136" s="5">
         <v>1</v>
       </c>
-      <c r="K137" s="5"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>559</v>
-      </c>
-      <c r="B138" t="s">
-        <v>559</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="K136" s="5"/>
+      <c r="L136" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="D138" t="s">
-        <v>561</v>
-      </c>
-      <c r="E138" s="12" t="s">
-        <v>562</v>
-      </c>
-      <c r="F138" t="s">
-        <v>174</v>
-      </c>
-      <c r="H138" t="s">
-        <v>392</v>
-      </c>
-      <c r="I138" t="s">
-        <v>382</v>
-      </c>
-      <c r="J138">
+    </row>
+    <row r="137" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>553</v>
+      </c>
+      <c r="B137" t="s">
+        <v>553</v>
+      </c>
+      <c r="C137" t="s">
+        <v>554</v>
+      </c>
+      <c r="D137" t="s">
+        <v>555</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="F137" t="s">
+        <v>172</v>
+      </c>
+      <c r="H137" t="s">
+        <v>389</v>
+      </c>
+      <c r="I137" t="s">
+        <v>379</v>
+      </c>
+      <c r="J137">
         <v>0</v>
       </c>
+      <c r="L137" t="s">
+        <v>564</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L137" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="2">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G54" xr:uid="{2F5F9FA7-5446-47AF-A091-DD36F3BEED45}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G53" xr:uid="{2F5F9FA7-5446-47AF-A091-DD36F3BEED45}">
       <formula1>1</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A218 B124:B131 B133 B135 B70" xr:uid="{C9CEA4D8-9D09-46A7-AFBC-6B7076AE134A}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B123:B130 B132 B134 B69 A2:A217" xr:uid="{C9CEA4D8-9D09-46A7-AFBC-6B7076AE134A}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G50" r:id="rId1" xr:uid="{86CF00EA-F175-49E3-B292-E21775BC70DA}"/>
-    <hyperlink ref="G81" r:id="rId2" xr:uid="{6D5714C4-09C7-4724-9E57-FC6947A71A0B}"/>
-    <hyperlink ref="G20" r:id="rId3" xr:uid="{5E00DB9D-DE2F-4335-9771-72FBC89C518A}"/>
-    <hyperlink ref="G52" r:id="rId4" xr:uid="{33ABC5F7-45E0-4703-ADE7-FD5BE84A6C85}"/>
-    <hyperlink ref="G27" r:id="rId5" xr:uid="{28FA960A-1B0F-4F36-AB25-3065353EBB96}"/>
-    <hyperlink ref="G68" r:id="rId6" xr:uid="{AA81982C-4488-4D0A-9FD0-D28A5532BDB6}"/>
-    <hyperlink ref="G125:G129" r:id="rId7" display="http://sdg4-data.uis.unesco.org/" xr:uid="{58D543BA-AA31-46B7-9D51-23E366CBECFA}"/>
-    <hyperlink ref="G83" r:id="rId8" xr:uid="{E5444A53-A5ED-43B0-A996-1EEFCF0EBC2B}"/>
-    <hyperlink ref="G137" r:id="rId9" xr:uid="{30556D34-7A52-4A25-AE71-8D81DA199009}"/>
-    <hyperlink ref="G42" r:id="rId10" xr:uid="{79265DDE-6A41-4907-9981-CC79AE247B48}"/>
+    <hyperlink ref="G49" r:id="rId1" xr:uid="{86CF00EA-F175-49E3-B292-E21775BC70DA}"/>
+    <hyperlink ref="G80" r:id="rId2" xr:uid="{6D5714C4-09C7-4724-9E57-FC6947A71A0B}"/>
+    <hyperlink ref="G19" r:id="rId3" xr:uid="{5E00DB9D-DE2F-4335-9771-72FBC89C518A}"/>
+    <hyperlink ref="G51" r:id="rId4" xr:uid="{33ABC5F7-45E0-4703-ADE7-FD5BE84A6C85}"/>
+    <hyperlink ref="G26" r:id="rId5" xr:uid="{28FA960A-1B0F-4F36-AB25-3065353EBB96}"/>
+    <hyperlink ref="G67" r:id="rId6" xr:uid="{AA81982C-4488-4D0A-9FD0-D28A5532BDB6}"/>
+    <hyperlink ref="G124:G128" r:id="rId7" display="http://sdg4-data.uis.unesco.org/" xr:uid="{58D543BA-AA31-46B7-9D51-23E366CBECFA}"/>
+    <hyperlink ref="G82" r:id="rId8" xr:uid="{E5444A53-A5ED-43B0-A996-1EEFCF0EBC2B}"/>
+    <hyperlink ref="G136" r:id="rId9" xr:uid="{30556D34-7A52-4A25-AE71-8D81DA199009}"/>
+    <hyperlink ref="G41" r:id="rId10" xr:uid="{79265DDE-6A41-4907-9981-CC79AE247B48}"/>
     <hyperlink ref="G14" r:id="rId11" xr:uid="{9909B422-45A8-4627-8430-D53FECADEE8B}"/>
-    <hyperlink ref="G46" r:id="rId12" xr:uid="{4223E1D3-2634-4817-9EFA-3F96BE143230}"/>
-    <hyperlink ref="G44" r:id="rId13" xr:uid="{7F719CB2-8B34-4A47-8AB2-11A150ECAA5B}"/>
-    <hyperlink ref="G24" r:id="rId14" xr:uid="{40D76283-D72C-4222-8FB8-B4531115EFAD}"/>
+    <hyperlink ref="G45" r:id="rId12" xr:uid="{4223E1D3-2634-4817-9EFA-3F96BE143230}"/>
+    <hyperlink ref="G43" r:id="rId13" xr:uid="{7F719CB2-8B34-4A47-8AB2-11A150ECAA5B}"/>
+    <hyperlink ref="G23" r:id="rId14" xr:uid="{40D76283-D72C-4222-8FB8-B4531115EFAD}"/>
     <hyperlink ref="G15" r:id="rId15" xr:uid="{68FDFCA9-FB4B-4EED-8D4C-E6016B9042C3}"/>
-    <hyperlink ref="G63" r:id="rId16" xr:uid="{EA923F37-55CE-4483-A9E1-D5A1042DB662}"/>
-    <hyperlink ref="G99" r:id="rId17" xr:uid="{E5ED0119-33A0-4A2E-829E-695F316B42BF}"/>
-    <hyperlink ref="G105" r:id="rId18" xr:uid="{18725DBC-CEF7-41D2-A3A0-584402339517}"/>
+    <hyperlink ref="G62" r:id="rId16" xr:uid="{EA923F37-55CE-4483-A9E1-D5A1042DB662}"/>
+    <hyperlink ref="G98" r:id="rId17" xr:uid="{E5ED0119-33A0-4A2E-829E-695F316B42BF}"/>
+    <hyperlink ref="G104" r:id="rId18" xr:uid="{18725DBC-CEF7-41D2-A3A0-584402339517}"/>
+    <hyperlink ref="G114" r:id="rId19" xr:uid="{EF925FB2-6739-43AB-8855-E2EE921CDDC2}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/Data/Data_Raw/Country codes & metadata/metadata.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="13_ncr:1_{FC2C9288-8A66-4053-A636-819A3E74D826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7288004-9EA4-40B1-AD6C-F26E793A862A}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="13_ncr:1_{FC2C9288-8A66-4053-A636-819A3E74D826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{887A60AD-4A79-4629-9A1F-FE5032C5AD2A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,8 +35,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={9F1BA12D-72A0-4381-90C0-83B0293920F3}</author>
+    <author>tc={A8E59D9C-AF5C-4FB4-92BA-25EED9C9B6AC}</author>
+    <author>tc={EDCA2EE5-50D8-46D4-830D-8B27B73B2F8D}</author>
+  </authors>
+  <commentList>
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{9F1BA12D-72A0-4381-90C0-83B0293920F3}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Esto es employment to population ratio
+</t>
+      </text>
+    </comment>
+    <comment ref="B30" authorId="1" shapeId="0" xr:uid="{A8E59D9C-AF5C-4FB4-92BA-25EED9C9B6AC}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This is ILO modelled estimate
+</t>
+      </text>
+    </comment>
+    <comment ref="B60" authorId="2" shapeId="0" xr:uid="{EDCA2EE5-50D8-46D4-830D-8B27B73B2F8D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Corresponds to the ILO modelled estimate. I changed it for luu_xlu4 which is updated</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="583">
   <si>
     <t>name_portal</t>
   </si>
@@ -1102,9 +1140,6 @@
     <t>Prevalence of undernourishment (percent) (3-year average)</t>
   </si>
   <si>
-    <t>The prevalence of undernourishment expresses the probability that a randomly selected individual from the population consumes an amount of calories that is insufficient to cover her/his energy requirement for an active and healthy life. The indicator is computed by comparing a probability distribution of habitual daily dietary energy consumption with a threshold level called the minimum dietary energy Requirement. Both are based on the notion of an average individual in the reference population.</t>
-  </si>
-  <si>
     <t>https://www.fao.org/faostat/es/#data/FS</t>
   </si>
   <si>
@@ -1450,9 +1485,6 @@
     <t>https://www.ilo.org/shinyapps/bulkexplorer39/?lang=en&amp;id=EMP_TEMP_SEX_AGE_NB_A</t>
   </si>
   <si>
-    <t>2023, June</t>
-  </si>
-  <si>
     <t>The employed comprise all persons of working age who, during a specified brief period, were in one of the following categories: a) paid employment (whether at work or with a job but not at work); or b) self-employment (whether at work or with an enterprise but not at work). </t>
   </si>
   <si>
@@ -1531,9 +1563,6 @@
     <t>Adult composite measure of labour underutilization, ages 25+</t>
   </si>
   <si>
-    <t>https://www.ilo.org/ilostat-files/WEB_bulk_download/indicator/</t>
-  </si>
-  <si>
     <t>Adult inactivity rate (%), ages 25+</t>
   </si>
   <si>
@@ -1735,12 +1764,6 @@
     <t>May 18, 2023</t>
   </si>
   <si>
-    <t>June 26, 2023</t>
-  </si>
-  <si>
-    <t>May 4, 2022</t>
-  </si>
-  <si>
     <t>June 23, 2023</t>
   </si>
   <si>
@@ -1760,16 +1783,64 @@
   </si>
   <si>
     <t>https://data.unicef.org/resources/data_explorer/unicef_f/?ag=UNICEF&amp;df=GLOBAL_DATAFLOW&amp;ver=1.0&amp;dq=.MNCH_PNCMOM..&amp;startPeriod=2011&amp;endPeriod=2021</t>
+  </si>
+  <si>
+    <t>The prevalence of undernourishment expresses the probability that a randomly selected individual from the population consumes an amount of calories that is insufficient to cover her/his energy requirement for an active and healthy life. The indicator is computed by comparing a probability distribution of habitual daily dietary energy consumption with a threshold level called the minimum dietary energy Requirement. Both are based on the notion of an average individual in the reference population. Note: the year presented is the last one of the 3.</t>
+  </si>
+  <si>
+    <t>June 28, 2023</t>
+  </si>
+  <si>
+    <t>February 23, 2023</t>
+  </si>
+  <si>
+    <t>https://www.ilo.org/shinyapps/bulkexplorer39/?lang=en&amp;id=EIP_2PLF_SEX_AGE_NB_A</t>
+  </si>
+  <si>
+    <t>https://www.ilo.org/shinyapps/bulkexplorer56/?lang=en&amp;id=EIP_NEET_SEX_AGE_RT_A</t>
+  </si>
+  <si>
+    <t>https://www.ilo.org/shinyapps/bulkexplorer55/?lang=en&amp;id=EMP_NIFL_SEX_AGE_RT_A</t>
+  </si>
+  <si>
+    <t>https://www.ilo.org/shinyapps/bulkexplorer51/?lang=en&amp;id=LUU_XLU4_SEX_AGE_RT_A</t>
+  </si>
+  <si>
+    <t>June 25, 2023</t>
+  </si>
+  <si>
+    <t>June 4, 2023</t>
+  </si>
+  <si>
+    <t>https://www.ilo.org/shinyapps/bulkexplorer37/?lang=en&amp;id=EIP_2WAP_SEX_AGE_RT_A</t>
+  </si>
+  <si>
+    <t>July 4, 2023</t>
+  </si>
+  <si>
+    <t>https://www.ilo.org/shinyapps/bulkexplorer39/?lang=en&amp;id=UNE_2EAP_SEX_AGE_RT_A</t>
+  </si>
+  <si>
+    <t>March, 2023</t>
+  </si>
+  <si>
+    <t>June 14, 2023</t>
+  </si>
+  <si>
+    <t>2023, April</t>
+  </si>
+  <si>
+    <t>https://datacatalog.worldbank.org/search/dataset/0038030/Human-Capital-Index</t>
+  </si>
+  <si>
+    <t>2021, March 31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1811,8 +1882,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1834,6 +1911,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1877,7 +1960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1895,9 +1978,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1915,6 +1999,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Yanel Llohis" id="{4A027149-1972-4F48-A293-01677850197A}" userId="S::yllohis@mail.utdt.edu::e49add5b-1567-4959-8ef1-8cd14231da56" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2200,13 +2290,30 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B22" dT="2023-07-04T20:05:10.11" personId="{4A027149-1972-4F48-A293-01677850197A}" id="{9F1BA12D-72A0-4381-90C0-83B0293920F3}">
+    <text xml:space="preserve">Esto es employment to population ratio
+</text>
+  </threadedComment>
+  <threadedComment ref="B30" dT="2023-07-04T20:36:18.43" personId="{4A027149-1972-4F48-A293-01677850197A}" id="{A8E59D9C-AF5C-4FB4-92BA-25EED9C9B6AC}">
+    <text xml:space="preserve">This is ILO modelled estimate
+</text>
+  </threadedComment>
+  <threadedComment ref="B60" dT="2023-07-05T11:20:47.42" personId="{4A027149-1972-4F48-A293-01677850197A}" id="{EDCA2EE5-50D8-46D4-830D-8B27B73B2F8D}">
+    <text>Corresponds to the ILO modelled estimate. I changed it for luu_xlu4 which is updated</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J3" sqref="J3"/>
+      <selection pane="topRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2214,10 +2321,9 @@
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2252,10 +2358,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>271</v>
       </c>
@@ -2266,31 +2372,31 @@
         <v>272</v>
       </c>
       <c r="D2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>579</v>
       </c>
       <c r="G2" t="s">
         <v>273</v>
       </c>
       <c r="H2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J2">
         <v>6</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -2310,13 +2416,13 @@
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -2336,13 +2442,13 @@
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -2365,13 +2471,13 @@
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -2394,50 +2500,50 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I6" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="G7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H7" t="s">
-        <v>389</v>
-      </c>
-      <c r="I7" t="s">
-        <v>365</v>
-      </c>
-      <c r="J7">
+      <c r="G7" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="J7" s="15">
         <v>0</v>
       </c>
-      <c r="L7" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="15" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B8" t="s">
         <v>283</v>
@@ -2458,10 +2564,10 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J8">
         <v>4</v>
@@ -2470,9 +2576,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B9" t="s">
         <v>307</v>
@@ -2493,10 +2599,10 @@
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -2505,9 +2611,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B10" t="s">
         <v>288</v>
@@ -2528,10 +2634,10 @@
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J10">
         <v>3</v>
@@ -2540,45 +2646,44 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>415</v>
+      </c>
+      <c r="B11" t="s">
         <v>311</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" t="s">
         <v>312</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" t="s">
         <v>313</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" t="s">
         <v>286</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="J11" s="14">
+      <c r="H11" t="s">
+        <v>371</v>
+      </c>
+      <c r="I11" t="s">
+        <v>364</v>
+      </c>
+      <c r="J11">
         <v>2</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" t="s">
         <v>310</v>
       </c>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B12" t="s">
         <v>291</v>
@@ -2599,18 +2704,18 @@
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K12" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B13" t="s">
         <v>314</v>
@@ -2631,49 +2736,49 @@
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K13" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="14" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>455</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>456</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B15" t="s">
         <v>243</v>
@@ -2682,22 +2787,22 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E15" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J15">
         <v>13</v>
@@ -2706,9 +2811,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B16" t="s">
         <v>241</v>
@@ -2717,19 +2822,19 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="H16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2738,9 +2843,9 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B17" t="s">
         <v>131</v>
@@ -2761,90 +2866,89 @@
         <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J17">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="B18" s="14" t="s">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>405</v>
+      </c>
+      <c r="B18" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>568</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="F18" s="14" t="s">
+      <c r="D18" t="s">
+        <v>563</v>
+      </c>
+      <c r="E18" t="s">
+        <v>564</v>
+      </c>
+      <c r="F18" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="14" t="s">
-        <v>570</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="J18" s="14">
+      <c r="G18" t="s">
+        <v>565</v>
+      </c>
+      <c r="H18" t="s">
+        <v>380</v>
+      </c>
+      <c r="I18" t="s">
+        <v>364</v>
+      </c>
+      <c r="J18">
         <v>7</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" t="s">
         <v>142</v>
       </c>
-      <c r="L18" s="14"/>
-    </row>
-    <row r="19" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>437</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>438</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J19" s="5">
         <v>1</v>
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>165</v>
       </c>
       <c r="B20" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
@@ -2862,18 +2966,18 @@
         <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B21" t="s">
         <v>239</v>
@@ -2882,16 +2986,16 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E21" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J21">
         <v>16</v>
@@ -2900,42 +3004,45 @@
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="C22" t="s">
-        <v>480</v>
-      </c>
-      <c r="D22" t="s">
-        <v>392</v>
-      </c>
-      <c r="E22" t="s">
-        <v>501</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>494</v>
-      </c>
-      <c r="H22" t="s">
-        <v>389</v>
-      </c>
-      <c r="I22" t="s">
-        <v>379</v>
-      </c>
-      <c r="J22">
+      <c r="C22" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="J22" s="13">
         <v>1</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="13" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="13" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>274</v>
       </c>
@@ -2955,19 +3062,19 @@
         <v>278</v>
       </c>
       <c r="H23" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J23">
         <v>4</v>
       </c>
       <c r="L23" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2978,10 +3085,10 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E24" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>12</v>
@@ -2990,16 +3097,16 @@
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K24" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -3010,10 +3117,10 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E25" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>12</v>
@@ -3022,49 +3129,49 @@
         <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I25" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>435</v>
-      </c>
       <c r="G26" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J26" s="5">
         <v>4</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>208</v>
       </c>
@@ -3072,34 +3179,34 @@
         <v>208</v>
       </c>
       <c r="C27" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D27" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E27" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>494</v>
+        <v>568</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>569</v>
       </c>
       <c r="H27" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K27" t="s">
         <v>205</v>
       </c>
       <c r="L27" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>220</v>
       </c>
@@ -3107,34 +3214,34 @@
         <v>220</v>
       </c>
       <c r="C28" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D28" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E28" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>568</v>
       </c>
       <c r="G28" t="s">
-        <v>494</v>
+        <v>569</v>
       </c>
       <c r="H28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K28" t="s">
         <v>217</v>
       </c>
       <c r="L28" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>204</v>
       </c>
@@ -3142,69 +3249,69 @@
         <v>204</v>
       </c>
       <c r="C29" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D29" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E29" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>494</v>
+        <v>567</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>575</v>
       </c>
       <c r="H29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K29" t="s">
         <v>205</v>
       </c>
       <c r="L29" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="C30" t="s">
-        <v>480</v>
-      </c>
-      <c r="D30" t="s">
-        <v>505</v>
-      </c>
-      <c r="E30" t="s">
-        <v>496</v>
-      </c>
-      <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s">
-        <v>494</v>
-      </c>
-      <c r="H30" t="s">
-        <v>381</v>
-      </c>
-      <c r="I30" t="s">
-        <v>379</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="C30" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="K30" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="L30" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L30" s="13" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>212</v>
       </c>
@@ -3212,25 +3319,25 @@
         <v>212</v>
       </c>
       <c r="C31" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E31" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>494</v>
+        <v>567</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>570</v>
       </c>
       <c r="H31" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -3239,10 +3346,10 @@
         <v>213</v>
       </c>
       <c r="L31" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>206</v>
       </c>
@@ -3250,25 +3357,25 @@
         <v>206</v>
       </c>
       <c r="C32" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D32" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E32" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s">
-        <v>494</v>
+        <v>561</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>571</v>
       </c>
       <c r="H32" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J32">
         <v>3</v>
@@ -3277,10 +3384,10 @@
         <v>207</v>
       </c>
       <c r="L32" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>218</v>
       </c>
@@ -3288,25 +3395,25 @@
         <v>218</v>
       </c>
       <c r="C33" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D33" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E33" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>561</v>
       </c>
       <c r="G33" t="s">
-        <v>494</v>
+        <v>571</v>
       </c>
       <c r="H33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I33" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J33">
         <v>4</v>
@@ -3315,10 +3422,10 @@
         <v>219</v>
       </c>
       <c r="L33" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>174</v>
       </c>
@@ -3338,13 +3445,13 @@
         <v>172</v>
       </c>
       <c r="G34" t="s">
-        <v>173</v>
+        <v>581</v>
       </c>
       <c r="H34" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3353,71 +3460,77 @@
         <v>177</v>
       </c>
       <c r="L34" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C35" t="s">
         <v>349</v>
       </c>
       <c r="D35" t="s">
+        <v>356</v>
+      </c>
+      <c r="E35" t="s">
         <v>357</v>
-      </c>
-      <c r="E35" t="s">
-        <v>358</v>
       </c>
       <c r="F35" t="s">
         <v>68</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="H35" t="s">
+        <v>363</v>
+      </c>
+      <c r="I35" t="s">
+        <v>364</v>
+      </c>
+      <c r="K35" t="s">
+        <v>242</v>
+      </c>
+      <c r="L35" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>421</v>
+      </c>
+      <c r="B36" t="s">
         <v>352</v>
-      </c>
-      <c r="H35" t="s">
-        <v>364</v>
-      </c>
-      <c r="I35" t="s">
-        <v>365</v>
-      </c>
-      <c r="L35" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>422</v>
-      </c>
-      <c r="B36" t="s">
-        <v>353</v>
       </c>
       <c r="C36" t="s">
         <v>349</v>
       </c>
       <c r="D36" t="s">
+        <v>353</v>
+      </c>
+      <c r="E36" t="s">
         <v>354</v>
-      </c>
-      <c r="E36" t="s">
-        <v>355</v>
       </c>
       <c r="F36" t="s">
         <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I36" t="s">
-        <v>365</v>
+        <v>364</v>
+      </c>
+      <c r="K36" t="s">
+        <v>248</v>
       </c>
       <c r="L36" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3440,13 +3553,13 @@
         <v>172</v>
       </c>
       <c r="G37" t="s">
-        <v>173</v>
+        <v>581</v>
       </c>
       <c r="H37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I37" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3455,7 +3568,7 @@
         <v>189</v>
       </c>
       <c r="L37" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3478,13 +3591,13 @@
         <v>172</v>
       </c>
       <c r="G38" t="s">
-        <v>173</v>
+        <v>581</v>
       </c>
       <c r="H38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -3493,7 +3606,7 @@
         <v>189</v>
       </c>
       <c r="L38" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3516,13 +3629,13 @@
         <v>172</v>
       </c>
       <c r="G39" t="s">
-        <v>173</v>
+        <v>581</v>
       </c>
       <c r="H39" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I39" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -3531,78 +3644,80 @@
         <v>189</v>
       </c>
       <c r="L39" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>486</v>
-      </c>
       <c r="C40" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D40" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5" t="s">
-        <v>487</v>
-      </c>
       <c r="H40" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J40" s="5">
         <v>5</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>467</v>
+        <v>567</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J41" s="5">
         <v>4</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -3622,45 +3737,42 @@
         <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I42" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>552</v>
-      </c>
-      <c r="C43" s="14" t="s">
+      <c r="B43" t="s">
+        <v>549</v>
+      </c>
+      <c r="C43" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" t="s">
         <v>42</v>
       </c>
-      <c r="F43" s="14"/>
       <c r="G43" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H43" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="I43" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="J43" s="14">
+      <c r="H43" t="s">
+        <v>380</v>
+      </c>
+      <c r="I43" t="s">
+        <v>364</v>
+      </c>
+      <c r="J43">
         <v>4</v>
       </c>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-    </row>
-    <row r="44" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -3680,46 +3792,46 @@
         <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I44" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>463</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>464</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J45" s="5">
         <v>5</v>
       </c>
       <c r="K45" s="5"/>
     </row>
-    <row r="46" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -3739,13 +3851,13 @@
         <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I46" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -3768,15 +3880,15 @@
         <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I47" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B48" t="s">
         <v>54</v>
@@ -3797,15 +3909,15 @@
         <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I48" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B49" t="s">
         <v>317</v>
@@ -3826,19 +3938,19 @@
         <v>321</v>
       </c>
       <c r="H49" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I49" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J49">
         <v>6</v>
       </c>
       <c r="L49" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -3849,57 +3961,57 @@
         <v>272</v>
       </c>
       <c r="D50" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F50" t="s">
-        <v>53</v>
+        <v>579</v>
       </c>
       <c r="G50" t="s">
         <v>273</v>
       </c>
       <c r="H50" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I50" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L50" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="B51" s="12" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="E51" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="E51" s="12" t="s">
+      <c r="F51" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="G51" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="F51" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="J51" s="12">
+      <c r="H51" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="J51" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>322</v>
       </c>
@@ -3922,19 +4034,19 @@
         <v>321</v>
       </c>
       <c r="H52" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I52" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J52">
         <v>4</v>
       </c>
       <c r="L52" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>120</v>
       </c>
@@ -3957,16 +4069,16 @@
         <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J53">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>124</v>
       </c>
@@ -3989,10 +4101,10 @@
         <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I54" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -4006,22 +4118,22 @@
         <v>169</v>
       </c>
       <c r="D55" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E55" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>12</v>
+        <v>582</v>
       </c>
       <c r="G55" t="s">
         <v>173</v>
       </c>
       <c r="H55" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I55" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -4030,7 +4142,7 @@
         <v>256</v>
       </c>
       <c r="L55" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -4044,10 +4156,10 @@
         <v>169</v>
       </c>
       <c r="D56" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E56" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F56" t="s">
         <v>252</v>
@@ -4056,10 +4168,10 @@
         <v>173</v>
       </c>
       <c r="H56" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I56" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J56">
         <v>11</v>
@@ -4068,7 +4180,7 @@
         <v>260</v>
       </c>
       <c r="L56" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -4082,10 +4194,10 @@
         <v>169</v>
       </c>
       <c r="D57" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E57" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F57" t="s">
         <v>252</v>
@@ -4094,10 +4206,10 @@
         <v>173</v>
       </c>
       <c r="H57" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I57" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J57">
         <v>7</v>
@@ -4106,7 +4218,7 @@
         <v>264</v>
       </c>
       <c r="L57" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -4120,22 +4232,22 @@
         <v>169</v>
       </c>
       <c r="D58" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E58" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F58" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G58" t="s">
         <v>173</v>
       </c>
       <c r="H58" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I58" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J58">
         <v>3</v>
@@ -4144,7 +4256,7 @@
         <v>268</v>
       </c>
       <c r="L58" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -4158,22 +4270,22 @@
         <v>169</v>
       </c>
       <c r="D59" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E59" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F59" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G59" t="s">
         <v>173</v>
       </c>
       <c r="H59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I59" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J59">
         <v>3</v>
@@ -4182,10 +4294,10 @@
         <v>268</v>
       </c>
       <c r="L59" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>202</v>
       </c>
@@ -4193,34 +4305,34 @@
         <v>202</v>
       </c>
       <c r="C60" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D60" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E60" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s">
-        <v>494</v>
+        <v>573</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>572</v>
       </c>
       <c r="H60" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K60" t="s">
         <v>203</v>
       </c>
       <c r="L60" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>214</v>
       </c>
@@ -4228,36 +4340,36 @@
         <v>214</v>
       </c>
       <c r="C61" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D61" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E61" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>573</v>
       </c>
       <c r="G61" t="s">
-        <v>494</v>
+        <v>572</v>
       </c>
       <c r="H61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I61" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K61" t="s">
         <v>215</v>
       </c>
       <c r="L61" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B62" t="s">
         <v>245</v>
@@ -4266,22 +4378,22 @@
         <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E62" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F62" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="G62" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="G62" s="8" t="s">
-        <v>523</v>
-      </c>
       <c r="H62" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I62" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J62">
         <v>2</v>
@@ -4290,239 +4402,239 @@
         <v>246</v>
       </c>
     </row>
-    <row r="63" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>331</v>
       </c>
       <c r="D63" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="F63" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="G63" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="F63" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>460</v>
-      </c>
       <c r="H63" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J63" s="5">
         <v>3</v>
       </c>
       <c r="K63" s="5"/>
       <c r="L63" s="5" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>275</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>275</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>275</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J66" s="5">
         <v>12</v>
       </c>
       <c r="K66" s="5"/>
       <c r="L66" s="5" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>275</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>275</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>275</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J69" s="5">
         <v>11</v>
       </c>
       <c r="K69" s="5"/>
       <c r="L69" s="5" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>117</v>
       </c>
@@ -4545,13 +4657,13 @@
         <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I70" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>128</v>
       </c>
@@ -4574,13 +4686,13 @@
         <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I71" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>134</v>
       </c>
@@ -4603,13 +4715,13 @@
         <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I72" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>143</v>
       </c>
@@ -4632,13 +4744,13 @@
         <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I73" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>146</v>
       </c>
@@ -4661,15 +4773,15 @@
         <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I74" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B75" t="s">
         <v>19</v>
@@ -4681,19 +4793,19 @@
         <v>20</v>
       </c>
       <c r="E75" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G75" t="s">
         <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I75" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J75">
         <v>2</v>
@@ -4702,9 +4814,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
@@ -4716,19 +4828,19 @@
         <v>23</v>
       </c>
       <c r="E76" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G76" t="s">
         <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I76" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -4737,9 +4849,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B77" t="s">
         <v>265</v>
@@ -4748,16 +4860,16 @@
         <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G77" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H77" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I77" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -4786,13 +4898,13 @@
         <v>172</v>
       </c>
       <c r="G78" t="s">
-        <v>173</v>
+        <v>581</v>
       </c>
       <c r="H78" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I78" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -4801,10 +4913,10 @@
         <v>181</v>
       </c>
       <c r="L78" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>326</v>
       </c>
@@ -4827,45 +4939,45 @@
         <v>321</v>
       </c>
       <c r="H79" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I79" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J79">
         <v>7</v>
       </c>
       <c r="L79" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J80" s="5">
         <v>2</v>
@@ -4873,7 +4985,7 @@
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
     </row>
-    <row r="81" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>137</v>
       </c>
@@ -4896,49 +5008,49 @@
         <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I81" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>275</v>
+        <v>506</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="G82" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="G82" s="6" t="s">
-        <v>450</v>
-      </c>
       <c r="H82" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J82" s="5">
         <v>13</v>
       </c>
       <c r="K82" s="5"/>
       <c r="L82" s="5" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>161</v>
       </c>
@@ -4961,13 +5073,13 @@
         <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I83" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>330</v>
       </c>
@@ -4978,30 +5090,30 @@
         <v>331</v>
       </c>
       <c r="D84" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E84" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F84" t="s">
         <v>68</v>
       </c>
       <c r="G84" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="H84" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I84" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L84" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B85" t="s">
         <v>257</v>
@@ -5010,10 +5122,10 @@
         <v>169</v>
       </c>
       <c r="D85" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E85" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F85" t="s">
         <v>252</v>
@@ -5022,10 +5134,10 @@
         <v>173</v>
       </c>
       <c r="H85" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I85" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J85">
         <v>2</v>
@@ -5034,7 +5146,7 @@
         <v>258</v>
       </c>
       <c r="L85" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -5057,13 +5169,13 @@
         <v>172</v>
       </c>
       <c r="G86" t="s">
-        <v>173</v>
+        <v>581</v>
       </c>
       <c r="H86" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I86" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -5072,7 +5184,7 @@
         <v>181</v>
       </c>
       <c r="L86" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -5095,13 +5207,13 @@
         <v>172</v>
       </c>
       <c r="G87" t="s">
-        <v>173</v>
+        <v>581</v>
       </c>
       <c r="H87" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I87" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -5110,10 +5222,10 @@
         <v>177</v>
       </c>
       <c r="L87" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>332</v>
       </c>
@@ -5130,25 +5242,25 @@
         <v>333</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" t="s">
+        <v>579</v>
+      </c>
+      <c r="G88" s="3" t="s">
         <v>273</v>
       </c>
       <c r="H88" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I88" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J88">
         <v>5</v>
       </c>
       <c r="L88" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>334</v>
       </c>
@@ -5156,7 +5268,7 @@
         <v>334</v>
       </c>
       <c r="C89" t="s">
-        <v>275</v>
+        <v>506</v>
       </c>
       <c r="D89" t="s">
         <v>335</v>
@@ -5165,63 +5277,63 @@
         <v>336</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>578</v>
       </c>
       <c r="G89" t="s">
         <v>278</v>
       </c>
       <c r="H89" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I89" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J89">
         <v>6</v>
       </c>
       <c r="L89" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="H90" t="s">
-        <v>372</v>
-      </c>
-      <c r="I90" t="s">
-        <v>363</v>
-      </c>
-      <c r="J90">
+      <c r="H90" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="I90" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="J90" s="13">
         <v>1</v>
       </c>
-      <c r="K90" t="s">
+      <c r="K90" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="L90" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L90" s="13" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>157</v>
       </c>
@@ -5244,15 +5356,15 @@
         <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I91" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B92" t="s">
         <v>279</v>
@@ -5273,15 +5385,15 @@
         <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I92" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B93" t="s">
         <v>282</v>
@@ -5302,10 +5414,10 @@
         <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I93" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -5319,10 +5431,10 @@
         <v>169</v>
       </c>
       <c r="D94" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E94" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F94" t="s">
         <v>252</v>
@@ -5331,10 +5443,10 @@
         <v>173</v>
       </c>
       <c r="H94" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I94" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -5343,44 +5455,44 @@
         <v>177</v>
       </c>
       <c r="L94" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B95" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
       </c>
       <c r="D95" t="s">
+        <v>358</v>
+      </c>
+      <c r="E95" t="s">
         <v>359</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="G95" t="s">
         <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I95" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K95" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B96" t="s">
         <v>11</v>
@@ -5389,22 +5501,22 @@
         <v>13</v>
       </c>
       <c r="D96" t="s">
+        <v>358</v>
+      </c>
+      <c r="E96" t="s">
         <v>359</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>360</v>
-      </c>
-      <c r="F96" t="s">
-        <v>361</v>
       </c>
       <c r="G96" t="s">
         <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I96" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J96">
         <v>14</v>
@@ -5413,7 +5525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>149</v>
       </c>
@@ -5436,13 +5548,13 @@
         <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I97" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>149</v>
       </c>
@@ -5453,25 +5565,25 @@
         <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E98" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H98" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K98" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="99" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>337</v>
       </c>
@@ -5494,16 +5606,16 @@
         <v>321</v>
       </c>
       <c r="H99" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I99" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J99">
         <v>6</v>
       </c>
       <c r="L99" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -5526,13 +5638,13 @@
         <v>172</v>
       </c>
       <c r="G100" t="s">
-        <v>173</v>
+        <v>581</v>
       </c>
       <c r="H100" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I100" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -5541,10 +5653,10 @@
         <v>185</v>
       </c>
       <c r="L100" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>340</v>
       </c>
@@ -5567,19 +5679,19 @@
         <v>321</v>
       </c>
       <c r="H101" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I101" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J101">
         <v>10</v>
       </c>
       <c r="L101" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>344</v>
       </c>
@@ -5602,21 +5714,21 @@
         <v>321</v>
       </c>
       <c r="H102" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J102">
         <v>9</v>
       </c>
       <c r="L102" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B103" t="s">
         <v>16</v>
@@ -5628,19 +5740,19 @@
         <v>17</v>
       </c>
       <c r="E103" t="s">
+        <v>395</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="G103" t="s">
         <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I103" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K103" t="s">
         <v>18</v>
@@ -5657,22 +5769,22 @@
         <v>169</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E104" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F104" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>173</v>
       </c>
       <c r="H104" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I104" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J104">
         <v>2</v>
@@ -5681,7 +5793,7 @@
         <v>224</v>
       </c>
       <c r="L104" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -5695,22 +5807,22 @@
         <v>169</v>
       </c>
       <c r="D105" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E105" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F105" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G105" t="s">
         <v>173</v>
       </c>
       <c r="H105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I105" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J105">
         <v>5</v>
@@ -5719,386 +5831,383 @@
         <v>224</v>
       </c>
       <c r="L105" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="14" t="s">
+      <c r="A106" t="s">
         <v>223</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="B106" t="s">
         <v>223</v>
       </c>
-      <c r="C106" s="14" t="s">
+      <c r="C106" t="s">
+        <v>506</v>
+      </c>
+      <c r="D106" t="s">
+        <v>379</v>
+      </c>
+      <c r="E106" t="s">
+        <v>504</v>
+      </c>
+      <c r="F106" t="s">
+        <v>578</v>
+      </c>
+      <c r="G106" t="s">
+        <v>449</v>
+      </c>
+      <c r="H106" t="s">
+        <v>380</v>
+      </c>
+      <c r="I106" t="s">
+        <v>362</v>
+      </c>
+      <c r="J106">
+        <v>2</v>
+      </c>
+      <c r="K106" t="s">
+        <v>224</v>
+      </c>
+      <c r="L106" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>229</v>
+      </c>
+      <c r="B107" t="s">
+        <v>229</v>
+      </c>
+      <c r="C107" t="s">
+        <v>506</v>
+      </c>
+      <c r="D107" t="s">
+        <v>508</v>
+      </c>
+      <c r="E107" t="s">
         <v>509</v>
       </c>
-      <c r="D106" s="14" t="s">
+      <c r="F107" t="s">
+        <v>578</v>
+      </c>
+      <c r="G107" t="s">
+        <v>449</v>
+      </c>
+      <c r="H107" t="s">
+        <v>363</v>
+      </c>
+      <c r="I107" t="s">
+        <v>362</v>
+      </c>
+      <c r="K107" t="s">
+        <v>230</v>
+      </c>
+      <c r="L107" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>267</v>
+      </c>
+      <c r="B108" t="s">
+        <v>267</v>
+      </c>
+      <c r="C108" t="s">
+        <v>169</v>
+      </c>
+      <c r="D108" t="s">
+        <v>361</v>
+      </c>
+      <c r="E108" t="s">
+        <v>537</v>
+      </c>
+      <c r="F108" t="s">
+        <v>529</v>
+      </c>
+      <c r="G108" t="s">
+        <v>173</v>
+      </c>
+      <c r="H108" t="s">
+        <v>363</v>
+      </c>
+      <c r="I108" t="s">
+        <v>362</v>
+      </c>
+      <c r="J108">
+        <v>3</v>
+      </c>
+      <c r="K108" t="s">
+        <v>268</v>
+      </c>
+      <c r="L108" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>233</v>
+      </c>
+      <c r="B109" t="s">
+        <v>233</v>
+      </c>
+      <c r="C109" t="s">
+        <v>506</v>
+      </c>
+      <c r="D109" t="s">
+        <v>375</v>
+      </c>
+      <c r="E109" t="s">
+        <v>511</v>
+      </c>
+      <c r="F109" t="s">
+        <v>578</v>
+      </c>
+      <c r="G109" t="s">
+        <v>449</v>
+      </c>
+      <c r="H109" t="s">
+        <v>371</v>
+      </c>
+      <c r="I109" t="s">
+        <v>362</v>
+      </c>
+      <c r="J109">
+        <v>8</v>
+      </c>
+      <c r="K109" t="s">
+        <v>232</v>
+      </c>
+      <c r="L109" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>231</v>
+      </c>
+      <c r="B110" t="s">
+        <v>231</v>
+      </c>
+      <c r="C110" t="s">
+        <v>506</v>
+      </c>
+      <c r="D110" t="s">
+        <v>374</v>
+      </c>
+      <c r="E110" t="s">
+        <v>510</v>
+      </c>
+      <c r="F110" t="s">
+        <v>578</v>
+      </c>
+      <c r="G110" t="s">
+        <v>449</v>
+      </c>
+      <c r="H110" t="s">
+        <v>371</v>
+      </c>
+      <c r="I110" t="s">
+        <v>362</v>
+      </c>
+      <c r="J110">
+        <v>7</v>
+      </c>
+      <c r="K110" t="s">
+        <v>232</v>
+      </c>
+      <c r="L110" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>236</v>
+      </c>
+      <c r="B111" t="s">
+        <v>236</v>
+      </c>
+      <c r="C111" t="s">
+        <v>506</v>
+      </c>
+      <c r="D111" t="s">
+        <v>376</v>
+      </c>
+      <c r="E111" t="s">
+        <v>513</v>
+      </c>
+      <c r="F111" t="s">
+        <v>578</v>
+      </c>
+      <c r="G111" t="s">
+        <v>449</v>
+      </c>
+      <c r="H111" t="s">
+        <v>371</v>
+      </c>
+      <c r="I111" t="s">
+        <v>362</v>
+      </c>
+      <c r="J111">
+        <v>9</v>
+      </c>
+      <c r="K111" t="s">
+        <v>237</v>
+      </c>
+      <c r="L111" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>238</v>
+      </c>
+      <c r="B112" t="s">
+        <v>238</v>
+      </c>
+      <c r="C112" t="s">
+        <v>506</v>
+      </c>
+      <c r="D112" t="s">
+        <v>382</v>
+      </c>
+      <c r="E112" t="s">
+        <v>513</v>
+      </c>
+      <c r="F112" t="s">
+        <v>578</v>
+      </c>
+      <c r="G112" t="s">
+        <v>449</v>
+      </c>
+      <c r="H112" t="s">
         <v>380</v>
       </c>
-      <c r="E106" s="14" t="s">
+      <c r="I112" t="s">
+        <v>362</v>
+      </c>
+      <c r="J112">
+        <v>4</v>
+      </c>
+      <c r="K112" t="s">
+        <v>237</v>
+      </c>
+      <c r="L112" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>234</v>
+      </c>
+      <c r="B113" t="s">
+        <v>234</v>
+      </c>
+      <c r="C113" t="s">
+        <v>506</v>
+      </c>
+      <c r="D113" t="s">
+        <v>377</v>
+      </c>
+      <c r="E113" t="s">
+        <v>512</v>
+      </c>
+      <c r="F113" t="s">
+        <v>578</v>
+      </c>
+      <c r="G113" t="s">
+        <v>449</v>
+      </c>
+      <c r="H113" t="s">
+        <v>371</v>
+      </c>
+      <c r="I113" t="s">
+        <v>362</v>
+      </c>
+      <c r="J113">
+        <v>10</v>
+      </c>
+      <c r="K113" t="s">
+        <v>235</v>
+      </c>
+      <c r="L113" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>227</v>
+      </c>
+      <c r="B114" t="s">
+        <v>227</v>
+      </c>
+      <c r="C114" t="s">
+        <v>506</v>
+      </c>
+      <c r="D114" t="s">
+        <v>423</v>
+      </c>
+      <c r="E114" t="s">
         <v>507</v>
       </c>
-      <c r="F106" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="H106" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="I106" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="J106" s="14">
-        <v>2</v>
-      </c>
-      <c r="K106" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="L106" s="14" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C107" s="14" t="s">
-        <v>509</v>
-      </c>
-      <c r="D107" s="14" t="s">
-        <v>511</v>
-      </c>
-      <c r="E107" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="F107" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="H107" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="I107" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="J107" s="14"/>
-      <c r="K107" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="L107" s="14" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="D108" s="14" t="s">
+      <c r="F114" t="s">
+        <v>578</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="H114" t="s">
+        <v>371</v>
+      </c>
+      <c r="I114" t="s">
         <v>362</v>
       </c>
-      <c r="E108" s="14" t="s">
-        <v>540</v>
-      </c>
-      <c r="F108" s="14" t="s">
-        <v>532</v>
-      </c>
-      <c r="G108" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="H108" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="I108" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="J108" s="14">
-        <v>3</v>
-      </c>
-      <c r="K108" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="L108" s="14" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>509</v>
-      </c>
-      <c r="D109" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="E109" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="F109" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="H109" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="I109" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="J109" s="14">
-        <v>8</v>
-      </c>
-      <c r="K109" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="L109" s="14" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>509</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="E110" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="F110" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="H110" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="I110" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="J110" s="14">
-        <v>7</v>
-      </c>
-      <c r="K110" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="L110" s="14" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>509</v>
-      </c>
-      <c r="D111" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E111" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="F111" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="H111" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="I111" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="J111" s="14">
-        <v>9</v>
-      </c>
-      <c r="K111" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="L111" s="14" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>509</v>
-      </c>
-      <c r="D112" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="E112" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="F112" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="H112" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="I112" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="J112" s="14">
-        <v>4</v>
-      </c>
-      <c r="K112" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="L112" s="14" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="B113" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>509</v>
-      </c>
-      <c r="D113" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E113" s="14" t="s">
-        <v>515</v>
-      </c>
-      <c r="F113" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="H113" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="I113" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="J113" s="14">
-        <v>10</v>
-      </c>
-      <c r="K113" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="L113" s="14" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="B114" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="C114" s="14" t="s">
-        <v>509</v>
-      </c>
-      <c r="D114" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="E114" s="14" t="s">
-        <v>510</v>
-      </c>
-      <c r="F114" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="H114" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="I114" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="J114" s="14"/>
-      <c r="K114" s="14" t="s">
+      <c r="K114" t="s">
         <v>228</v>
       </c>
-      <c r="L114" s="14" t="s">
-        <v>565</v>
+      <c r="L114" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="14" t="s">
+      <c r="A115" t="s">
         <v>225</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" t="s">
         <v>225</v>
       </c>
-      <c r="C115" s="14" t="s">
-        <v>509</v>
-      </c>
-      <c r="D115" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="E115" s="14" t="s">
-        <v>508</v>
-      </c>
-      <c r="F115" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="H115" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="I115" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="J115" s="14"/>
-      <c r="K115" s="14" t="s">
+      <c r="C115" t="s">
+        <v>506</v>
+      </c>
+      <c r="D115" t="s">
+        <v>394</v>
+      </c>
+      <c r="E115" t="s">
+        <v>505</v>
+      </c>
+      <c r="F115" t="s">
+        <v>578</v>
+      </c>
+      <c r="G115" t="s">
+        <v>449</v>
+      </c>
+      <c r="H115" t="s">
+        <v>371</v>
+      </c>
+      <c r="I115" t="s">
+        <v>362</v>
+      </c>
+      <c r="K115" t="s">
         <v>226</v>
       </c>
-      <c r="L115" s="14" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L115" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B116" t="s">
         <v>348</v>
@@ -6110,25 +6219,28 @@
         <v>350</v>
       </c>
       <c r="E116" t="s">
-        <v>351</v>
+        <v>566</v>
       </c>
       <c r="F116" t="s">
         <v>68</v>
       </c>
       <c r="G116" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H116" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I116" t="s">
-        <v>365</v>
+        <v>364</v>
+      </c>
+      <c r="K116" t="s">
+        <v>63</v>
       </c>
       <c r="L116" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>210</v>
       </c>
@@ -6136,25 +6248,25 @@
         <v>210</v>
       </c>
       <c r="C117" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D117" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E117" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" t="s">
-        <v>494</v>
+        <v>574</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>577</v>
       </c>
       <c r="H117" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I117" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J117">
         <v>2</v>
@@ -6163,10 +6275,10 @@
         <v>211</v>
       </c>
       <c r="L117" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>221</v>
       </c>
@@ -6174,25 +6286,25 @@
         <v>221</v>
       </c>
       <c r="C118" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D118" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E118" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" t="s">
-        <v>494</v>
+        <v>567</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>577</v>
       </c>
       <c r="H118" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I118" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J118">
         <v>2</v>
@@ -6201,661 +6313,644 @@
         <v>222</v>
       </c>
       <c r="L118" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>294</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B119" t="s">
         <v>295</v>
       </c>
-      <c r="C119" s="14" t="s">
+      <c r="C119" t="s">
         <v>13</v>
       </c>
-      <c r="D119" s="14" t="s">
+      <c r="D119" t="s">
         <v>296</v>
       </c>
-      <c r="E119" s="14" t="s">
+      <c r="E119" t="s">
         <v>297</v>
       </c>
-      <c r="F119" s="14" t="s">
+      <c r="F119" t="s">
         <v>286</v>
       </c>
-      <c r="G119" s="14" t="s">
+      <c r="G119" t="s">
         <v>14</v>
       </c>
-      <c r="H119" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="I119" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="J119" s="14"/>
-      <c r="K119" s="14" t="s">
+      <c r="H119" t="s">
+        <v>363</v>
+      </c>
+      <c r="I119" t="s">
+        <v>364</v>
+      </c>
+      <c r="K119" t="s">
         <v>298</v>
       </c>
-      <c r="L119" s="14"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="14" t="s">
+    </row>
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>299</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B120" t="s">
         <v>300</v>
       </c>
-      <c r="C120" s="14" t="s">
+      <c r="C120" t="s">
         <v>13</v>
       </c>
-      <c r="D120" s="14" t="s">
+      <c r="D120" t="s">
         <v>301</v>
       </c>
-      <c r="E120" s="14" t="s">
+      <c r="E120" t="s">
         <v>302</v>
       </c>
-      <c r="F120" s="14" t="s">
+      <c r="F120" t="s">
         <v>286</v>
       </c>
-      <c r="G120" s="14" t="s">
+      <c r="G120" t="s">
         <v>14</v>
       </c>
-      <c r="H120" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="I120" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="J120" s="14">
+      <c r="H120" t="s">
+        <v>363</v>
+      </c>
+      <c r="I120" t="s">
+        <v>364</v>
+      </c>
+      <c r="J120">
         <v>17</v>
       </c>
-      <c r="K120" s="14" t="s">
+      <c r="K120" t="s">
         <v>298</v>
       </c>
-      <c r="L120" s="14"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="14" t="s">
+    </row>
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>303</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" t="s">
         <v>304</v>
       </c>
-      <c r="C121" s="14" t="s">
+      <c r="C121" t="s">
         <v>13</v>
       </c>
-      <c r="D121" s="14" t="s">
+      <c r="D121" t="s">
         <v>305</v>
       </c>
-      <c r="E121" s="14" t="s">
+      <c r="E121" t="s">
         <v>306</v>
       </c>
-      <c r="F121" s="14" t="s">
+      <c r="F121" t="s">
         <v>286</v>
       </c>
-      <c r="G121" s="14" t="s">
+      <c r="G121" t="s">
         <v>14</v>
       </c>
-      <c r="H121" s="14"/>
-      <c r="I121" s="14"/>
-      <c r="J121" s="14"/>
-      <c r="K121" s="14" t="s">
+      <c r="K121" t="s">
         <v>298</v>
       </c>
-      <c r="L121" s="14"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="14" t="s">
+    </row>
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>58</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B122" t="s">
         <v>59</v>
       </c>
-      <c r="C122" s="14" t="s">
+      <c r="C122" t="s">
         <v>13</v>
       </c>
-      <c r="D122" s="14" t="s">
+      <c r="D122" t="s">
         <v>60</v>
       </c>
-      <c r="E122" s="14" t="s">
+      <c r="E122" t="s">
         <v>61</v>
       </c>
-      <c r="F122" s="14" t="s">
+      <c r="F122" t="s">
         <v>62</v>
       </c>
-      <c r="G122" s="14" t="s">
+      <c r="G122" t="s">
         <v>14</v>
       </c>
-      <c r="H122" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="I122" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="J122" s="14">
+      <c r="H122" t="s">
+        <v>363</v>
+      </c>
+      <c r="I122" t="s">
+        <v>364</v>
+      </c>
+      <c r="J122">
         <v>15</v>
       </c>
-      <c r="K122" s="14" t="s">
+      <c r="K122" t="s">
         <v>63</v>
       </c>
-      <c r="L122" s="14"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="14" t="s">
+    </row>
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>64</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" t="s">
         <v>65</v>
       </c>
-      <c r="C123" s="14" t="s">
+      <c r="C123" t="s">
         <v>13</v>
       </c>
-      <c r="D123" s="14" t="s">
+      <c r="D123" t="s">
         <v>66</v>
       </c>
-      <c r="E123" s="14" t="s">
+      <c r="E123" t="s">
         <v>67</v>
       </c>
-      <c r="F123" s="14" t="s">
+      <c r="F123" t="s">
         <v>68</v>
       </c>
-      <c r="G123" s="14" t="s">
+      <c r="G123" t="s">
         <v>14</v>
       </c>
-      <c r="H123" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="I123" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="J123" s="14"/>
-      <c r="K123" s="14" t="s">
+      <c r="H123" t="s">
+        <v>363</v>
+      </c>
+      <c r="I123" t="s">
+        <v>364</v>
+      </c>
+      <c r="K123" t="s">
         <v>63</v>
       </c>
-      <c r="L123" s="14"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="14" t="s">
+    </row>
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>69</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="B124" t="s">
         <v>70</v>
       </c>
-      <c r="C124" s="14" t="s">
+      <c r="C124" t="s">
         <v>13</v>
       </c>
-      <c r="D124" s="14" t="s">
+      <c r="D124" t="s">
         <v>71</v>
       </c>
-      <c r="E124" s="14" t="s">
+      <c r="E124" t="s">
         <v>72</v>
       </c>
-      <c r="F124" s="14" t="s">
+      <c r="F124" t="s">
         <v>68</v>
       </c>
-      <c r="G124" s="14" t="s">
+      <c r="G124" t="s">
         <v>14</v>
       </c>
-      <c r="H124" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="I124" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="J124" s="14">
+      <c r="H124" t="s">
+        <v>363</v>
+      </c>
+      <c r="I124" t="s">
+        <v>364</v>
+      </c>
+      <c r="J124">
         <v>3</v>
       </c>
-      <c r="K124" s="14" t="s">
+      <c r="K124" t="s">
         <v>63</v>
       </c>
-      <c r="L124" s="14"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="14" t="s">
+    </row>
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>73</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" t="s">
         <v>74</v>
       </c>
-      <c r="C125" s="14" t="s">
+      <c r="C125" t="s">
         <v>13</v>
       </c>
-      <c r="D125" s="14" t="s">
+      <c r="D125" t="s">
         <v>75</v>
       </c>
-      <c r="E125" s="14" t="s">
+      <c r="E125" t="s">
         <v>76</v>
       </c>
-      <c r="F125" s="14" t="s">
+      <c r="F125" t="s">
         <v>68</v>
       </c>
-      <c r="G125" s="14" t="s">
+      <c r="G125" t="s">
         <v>14</v>
       </c>
-      <c r="H125" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="I125" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="J125" s="14">
+      <c r="H125" t="s">
+        <v>363</v>
+      </c>
+      <c r="I125" t="s">
+        <v>364</v>
+      </c>
+      <c r="J125">
         <v>4</v>
       </c>
-      <c r="K125" s="14" t="s">
+      <c r="K125" t="s">
         <v>63</v>
       </c>
-      <c r="L125" s="14"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="14" t="s">
+    </row>
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>77</v>
       </c>
-      <c r="B126" s="14" t="s">
+      <c r="B126" t="s">
         <v>78</v>
       </c>
-      <c r="C126" s="14" t="s">
+      <c r="C126" t="s">
         <v>13</v>
       </c>
-      <c r="D126" s="14" t="s">
+      <c r="D126" t="s">
         <v>79</v>
       </c>
-      <c r="E126" s="14" t="s">
+      <c r="E126" t="s">
         <v>80</v>
       </c>
-      <c r="F126" s="14" t="s">
+      <c r="F126" t="s">
         <v>68</v>
       </c>
-      <c r="G126" s="14" t="s">
+      <c r="G126" t="s">
         <v>14</v>
       </c>
-      <c r="H126" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="I126" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="J126" s="14"/>
-      <c r="K126" s="14" t="s">
+      <c r="H126" t="s">
+        <v>363</v>
+      </c>
+      <c r="I126" t="s">
+        <v>364</v>
+      </c>
+      <c r="K126" t="s">
         <v>63</v>
       </c>
-      <c r="L126" s="14"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="14" t="s">
+    </row>
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>81</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B127" t="s">
         <v>82</v>
       </c>
-      <c r="C127" s="14" t="s">
+      <c r="C127" t="s">
         <v>13</v>
       </c>
-      <c r="D127" s="14" t="s">
+      <c r="D127" t="s">
         <v>83</v>
       </c>
-      <c r="E127" s="14" t="s">
+      <c r="E127" t="s">
         <v>84</v>
       </c>
-      <c r="F127" s="14" t="s">
+      <c r="F127" t="s">
         <v>68</v>
       </c>
-      <c r="G127" s="14" t="s">
+      <c r="G127" t="s">
         <v>14</v>
       </c>
-      <c r="H127" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="I127" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="J127" s="14"/>
-      <c r="K127" s="14" t="s">
+      <c r="H127" t="s">
+        <v>363</v>
+      </c>
+      <c r="I127" t="s">
+        <v>364</v>
+      </c>
+      <c r="K127" t="s">
         <v>63</v>
       </c>
-      <c r="L127" s="14"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="14" t="s">
+    </row>
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>85</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="B128" t="s">
         <v>86</v>
       </c>
-      <c r="C128" s="14" t="s">
+      <c r="C128" t="s">
         <v>13</v>
       </c>
-      <c r="D128" s="14" t="s">
+      <c r="D128" t="s">
         <v>87</v>
       </c>
-      <c r="E128" s="14" t="s">
+      <c r="E128" t="s">
         <v>88</v>
       </c>
-      <c r="F128" s="14" t="s">
+      <c r="F128" t="s">
         <v>68</v>
       </c>
-      <c r="G128" s="14" t="s">
+      <c r="G128" t="s">
         <v>14</v>
       </c>
-      <c r="H128" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="I128" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="J128" s="14"/>
-      <c r="K128" s="14" t="s">
+      <c r="H128" t="s">
+        <v>363</v>
+      </c>
+      <c r="I128" t="s">
+        <v>364</v>
+      </c>
+      <c r="K128" t="s">
         <v>63</v>
       </c>
-      <c r="L128" s="14"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="14" t="s">
+    </row>
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>89</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" t="s">
         <v>90</v>
       </c>
-      <c r="C129" s="14" t="s">
+      <c r="C129" t="s">
         <v>13</v>
       </c>
-      <c r="D129" s="14" t="s">
+      <c r="D129" t="s">
         <v>91</v>
       </c>
-      <c r="E129" s="14" t="s">
+      <c r="E129" t="s">
         <v>92</v>
       </c>
-      <c r="F129" s="14" t="s">
+      <c r="F129" t="s">
         <v>68</v>
       </c>
-      <c r="G129" s="14" t="s">
+      <c r="G129" t="s">
         <v>14</v>
       </c>
-      <c r="H129" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="I129" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="J129" s="14"/>
-      <c r="K129" s="14" t="s">
+      <c r="H129" t="s">
+        <v>363</v>
+      </c>
+      <c r="I129" t="s">
+        <v>364</v>
+      </c>
+      <c r="K129" t="s">
         <v>63</v>
       </c>
-      <c r="L129" s="14"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="14" t="s">
+    </row>
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>93</v>
       </c>
-      <c r="B130" s="14" t="s">
+      <c r="B130" t="s">
         <v>94</v>
       </c>
-      <c r="C130" s="14" t="s">
+      <c r="C130" t="s">
         <v>13</v>
       </c>
-      <c r="D130" s="14" t="s">
+      <c r="D130" t="s">
         <v>95</v>
       </c>
-      <c r="E130" s="14" t="s">
+      <c r="E130" t="s">
         <v>96</v>
       </c>
-      <c r="F130" s="14" t="s">
+      <c r="F130" t="s">
         <v>68</v>
       </c>
-      <c r="G130" s="14" t="s">
+      <c r="G130" t="s">
         <v>14</v>
       </c>
-      <c r="H130" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="I130" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="J130" s="14"/>
-      <c r="K130" s="14" t="s">
+      <c r="H130" t="s">
+        <v>363</v>
+      </c>
+      <c r="I130" t="s">
+        <v>364</v>
+      </c>
+      <c r="K130" t="s">
         <v>63</v>
       </c>
-      <c r="L130" s="14"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="14" t="s">
+    </row>
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>97</v>
       </c>
-      <c r="B131" s="14" t="s">
+      <c r="B131" t="s">
         <v>98</v>
       </c>
-      <c r="C131" s="14" t="s">
+      <c r="C131" t="s">
         <v>13</v>
       </c>
-      <c r="D131" s="14" t="s">
+      <c r="D131" t="s">
         <v>99</v>
       </c>
-      <c r="E131" s="14" t="s">
+      <c r="E131" t="s">
         <v>100</v>
       </c>
-      <c r="F131" s="14" t="s">
+      <c r="F131" t="s">
         <v>68</v>
       </c>
-      <c r="G131" s="14" t="s">
+      <c r="G131" t="s">
         <v>14</v>
       </c>
-      <c r="H131" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="I131" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="J131" s="14"/>
-      <c r="K131" s="14" t="s">
+      <c r="H131" t="s">
+        <v>363</v>
+      </c>
+      <c r="I131" t="s">
+        <v>364</v>
+      </c>
+      <c r="K131" t="s">
         <v>63</v>
       </c>
-      <c r="L131" s="14"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="14" t="s">
+    </row>
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>101</v>
       </c>
-      <c r="B132" s="14" t="s">
+      <c r="B132" t="s">
         <v>102</v>
       </c>
-      <c r="C132" s="14" t="s">
+      <c r="C132" t="s">
         <v>13</v>
       </c>
-      <c r="D132" s="14" t="s">
+      <c r="D132" t="s">
         <v>103</v>
       </c>
-      <c r="E132" s="14" t="s">
+      <c r="E132" t="s">
         <v>104</v>
       </c>
-      <c r="F132" s="14" t="s">
+      <c r="F132" t="s">
         <v>68</v>
       </c>
-      <c r="G132" s="14" t="s">
+      <c r="G132" t="s">
         <v>14</v>
       </c>
-      <c r="H132" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="I132" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="J132" s="14"/>
-      <c r="K132" s="14" t="s">
+      <c r="H132" t="s">
+        <v>363</v>
+      </c>
+      <c r="I132" t="s">
+        <v>364</v>
+      </c>
+      <c r="K132" t="s">
         <v>63</v>
       </c>
-      <c r="L132" s="14"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="14" t="s">
+    </row>
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>105</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="B133" t="s">
         <v>106</v>
       </c>
-      <c r="C133" s="14" t="s">
+      <c r="C133" t="s">
         <v>13</v>
       </c>
-      <c r="D133" s="14" t="s">
+      <c r="D133" t="s">
         <v>107</v>
       </c>
-      <c r="E133" s="14" t="s">
+      <c r="E133" t="s">
         <v>108</v>
       </c>
-      <c r="F133" s="14" t="s">
+      <c r="F133" t="s">
         <v>68</v>
       </c>
-      <c r="G133" s="14" t="s">
+      <c r="G133" t="s">
         <v>14</v>
       </c>
-      <c r="H133" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="I133" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="J133" s="14"/>
-      <c r="K133" s="14" t="s">
+      <c r="H133" t="s">
+        <v>363</v>
+      </c>
+      <c r="I133" t="s">
+        <v>364</v>
+      </c>
+      <c r="K133" t="s">
         <v>63</v>
       </c>
-      <c r="L133" s="14"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="14" t="s">
+    </row>
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>153</v>
       </c>
-      <c r="B134" s="14" t="s">
+      <c r="B134" t="s">
         <v>154</v>
       </c>
-      <c r="C134" s="14" t="s">
+      <c r="C134" t="s">
         <v>13</v>
       </c>
-      <c r="D134" s="14" t="s">
+      <c r="D134" t="s">
         <v>155</v>
       </c>
-      <c r="E134" s="14" t="s">
+      <c r="E134" t="s">
         <v>156</v>
       </c>
-      <c r="F134" s="14" t="s">
+      <c r="F134" t="s">
         <v>53</v>
       </c>
-      <c r="G134" s="14" t="s">
+      <c r="G134" t="s">
         <v>14</v>
       </c>
-      <c r="H134" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="I134" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="J134" s="14"/>
-      <c r="K134" s="14"/>
-      <c r="L134" s="14"/>
+      <c r="H134" t="s">
+        <v>363</v>
+      </c>
+      <c r="I134" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="14" t="s">
-        <v>545</v>
-      </c>
-      <c r="B135" s="14" t="s">
-        <v>545</v>
-      </c>
-      <c r="C135" s="14" t="s">
-        <v>480</v>
-      </c>
-      <c r="D135" s="14" t="s">
-        <v>543</v>
-      </c>
-      <c r="E135" s="14" t="s">
-        <v>544</v>
-      </c>
-      <c r="F135" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="H135" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="I135" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="J135" s="14">
+      <c r="A135" t="s">
+        <v>542</v>
+      </c>
+      <c r="B135" t="s">
+        <v>542</v>
+      </c>
+      <c r="C135" t="s">
+        <v>478</v>
+      </c>
+      <c r="D135" t="s">
+        <v>540</v>
+      </c>
+      <c r="E135" t="s">
+        <v>541</v>
+      </c>
+      <c r="F135" t="s">
+        <v>574</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="H135" t="s">
+        <v>380</v>
+      </c>
+      <c r="I135" t="s">
+        <v>378</v>
+      </c>
+      <c r="J135">
         <v>3</v>
       </c>
-      <c r="K135" s="14"/>
-      <c r="L135" s="14" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L135" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>275</v>
       </c>
       <c r="D136" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E136" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="E136" s="5" t="s">
-        <v>453</v>
-      </c>
       <c r="F136" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J136" s="5">
         <v>1</v>
       </c>
       <c r="K136" s="5"/>
       <c r="L136" s="5" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>550</v>
+      </c>
+      <c r="B137" t="s">
+        <v>550</v>
+      </c>
+      <c r="C137" t="s">
+        <v>551</v>
+      </c>
+      <c r="D137" t="s">
+        <v>552</v>
+      </c>
+      <c r="E137" s="9" t="s">
         <v>553</v>
-      </c>
-      <c r="B137" t="s">
-        <v>553</v>
-      </c>
-      <c r="C137" t="s">
-        <v>554</v>
-      </c>
-      <c r="D137" t="s">
-        <v>555</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>556</v>
       </c>
       <c r="F137" t="s">
         <v>172</v>
       </c>
       <c r="H137" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I137" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J137">
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L137" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L137" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="FAO"/>
+        <filter val="HD Chief Economist Office"/>
+        <filter val="ILO"/>
+        <filter val="UIS"/>
+        <filter val="UN"/>
+        <filter val="UNESCO"/>
+        <filter val="UNHCR"/>
+        <filter val="WDI"/>
+        <filter val="WHO"/>
+        <filter val="World Bank DataBank"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="2">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G53" xr:uid="{2F5F9FA7-5446-47AF-A091-DD36F3BEED45}">
       <formula1>1</formula1>
@@ -6886,8 +6981,19 @@
     <hyperlink ref="G98" r:id="rId17" xr:uid="{E5ED0119-33A0-4A2E-829E-695F316B42BF}"/>
     <hyperlink ref="G104" r:id="rId18" xr:uid="{18725DBC-CEF7-41D2-A3A0-584402339517}"/>
     <hyperlink ref="G114" r:id="rId19" xr:uid="{EF925FB2-6739-43AB-8855-E2EE921CDDC2}"/>
+    <hyperlink ref="G35" r:id="rId20" location="data/FS" xr:uid="{5F9C3D01-1651-4CED-B521-805E8377CE91}"/>
+    <hyperlink ref="G32" r:id="rId21" xr:uid="{C1C72C59-4314-4E0C-AB2C-2EE2647B2CAE}"/>
+    <hyperlink ref="G22" r:id="rId22" xr:uid="{7C72DE4F-1122-4854-B0B8-1CCCAB758AA0}"/>
+    <hyperlink ref="G27" r:id="rId23" xr:uid="{60C9512B-9CD3-4065-BDF8-B1BA7F629A67}"/>
+    <hyperlink ref="G31" r:id="rId24" xr:uid="{C69028E6-F247-48D6-9C13-CD3008B01D8F}"/>
+    <hyperlink ref="G60" r:id="rId25" xr:uid="{9120E52F-82B9-40C7-9692-9A5C5F409B85}"/>
+    <hyperlink ref="G64" r:id="rId26" xr:uid="{51E79296-DC56-40FA-BAD5-1ADF754BB6EC}"/>
+    <hyperlink ref="G88" r:id="rId27" xr:uid="{CF960F6A-5842-42A3-B06B-8B4A326BC6AE}"/>
+    <hyperlink ref="G40" r:id="rId28" xr:uid="{230F680F-91A8-43CF-BE1E-804AC0A780D6}"/>
+    <hyperlink ref="G90" r:id="rId29" xr:uid="{AC7ED0C4-5E12-4C6E-A2FF-A7E4FA2ECE49}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
+  <legacyDrawing r:id="rId31"/>
 </worksheet>
 </file>
--- a/Data/Data_Raw/Country codes & metadata/metadata.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/metadata.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="278" documentId="13_ncr:1_{FC2C9288-8A66-4053-A636-819A3E74D826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{887A60AD-4A79-4629-9A1F-FE5032C5AD2A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687F62C5-6AAD-4859-96CE-562268A160BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18975" yWindow="8040" windowWidth="9825" windowHeight="7560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$135</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="588">
   <si>
     <t>name_portal</t>
   </si>
@@ -109,9 +109,6 @@
     <t>units</t>
   </si>
   <si>
-    <t>unicef_stillbirths</t>
-  </si>
-  <si>
     <t>FIXME</t>
   </si>
   <si>
@@ -208,9 +205,6 @@
     <t>HVA_PED_ART_CVG</t>
   </si>
   <si>
-    <t>Per cent of children (aged 0-14 years) living with HIV and receiving antiretroviral therapy (ART)</t>
-  </si>
-  <si>
     <t>Numerator: Number of children who received ART in the last year. Denominator: Estimated number of children aged 0-14 living with HIV</t>
   </si>
   <si>
@@ -229,9 +223,6 @@
     <t>HVA_PREV_KNOW</t>
   </si>
   <si>
-    <t>Per cent of young people (aged 15-24 years) with comprehensive, correct knowledge of HIV</t>
-  </si>
-  <si>
     <t>Numerator: Number of young women and men 15-24 years old who correctly identify both ways of preventing the sexual transmission of HIV, know that a healthy-looking person can be HIV-positive and reject two most common misconceptions about HIV transmission. Denominator: Number of young people (aged 15-24)</t>
   </si>
   <si>
@@ -241,9 +232,6 @@
     <t>HVA_PREV_KNOW_TEST</t>
   </si>
   <si>
-    <t>Per cent of young people (aged 15-24 years) who know a place to get tested for HIV</t>
-  </si>
-  <si>
     <t>Numerator: Number of young people (aged 15-24) who know a place to get tested for HIV. Denominator: Number of young people (aged 15-24)</t>
   </si>
   <si>
@@ -409,9 +397,6 @@
     <t>MNCH_ANC1</t>
   </si>
   <si>
-    <t>Antenatal care 1+ visit - percentage of women (aged 15-49 years) attended at least once during pregnancy by skilled health personnel</t>
-  </si>
-  <si>
     <t>Numerator: Number of women age 15-49 years with a live birth in the last 2 or 5 years who were attended during their last pregnancy that led to a live birth for at least once by skilled health personnel (typically a doctor, nurse or midwife). Denominator: Total number of women age 15-49 years with a live birth in the last 2 or 5 years</t>
   </si>
   <si>
@@ -421,18 +406,12 @@
     <t>MNCH_ANC4</t>
   </si>
   <si>
-    <t>Antenatal care 4+ visits - percentage of women (aged 15-49 years) attended at least four times during pregnancy by any provider</t>
-  </si>
-  <si>
     <t>Numerator: Number of women age 15-49 years with a live birth in the last 2 or 5 years who were attended during their last pregnancy that led to a live birth for at least four times by any provider. Denominator: Total number of women age 15-49 years with a live birth in the last 2 or 5 years</t>
   </si>
   <si>
     <t>MNCH_DEMAND_FP</t>
   </si>
   <si>
-    <t>Demand for family planning satisfied with modern methods - percentage of women (aged 15-49 years)</t>
-  </si>
-  <si>
     <t>Numerator: Number of women of reproductive age (15-49 years) who have their need for family planning satisfied with modern methods. Denominator: Total number of women of reproductive age (15-49 years) in need of family planning</t>
   </si>
   <si>
@@ -442,9 +421,6 @@
     <t>MNCH_ITN</t>
   </si>
   <si>
-    <t>ITN use by children - percentage of children (under age 5) who slept under an insecticide-treated mosquito net the night prior to the survey</t>
-  </si>
-  <si>
     <t>Numerator: Number of children under age 5 who slept under an ITN the previous night. Denominator: Total number of children under age 5 who spent the previous night in the interviewed households</t>
   </si>
   <si>
@@ -454,36 +430,24 @@
     <t>MNCH_ITNPREG</t>
   </si>
   <si>
-    <t>Pregnant women sleeping under ITN - percentage of pregnant women (aged 15-49 years) who slept under an insecticide-treated net the previous night</t>
-  </si>
-  <si>
     <t>Numerator: Number of pregnant women who slept under an ITN the previous night. Denominator: Total number of pregnant women</t>
   </si>
   <si>
     <t>MNCH_MLRACT</t>
   </si>
   <si>
-    <t>Malaria, first line treatment - percentage of febrile children (under age 5) receiving ACT (first line antimalarial drug), among those receiving any antimalarial drugs</t>
-  </si>
-  <si>
     <t>Numerator: Number of children under age 5 with fever in the last 2 weeks who received ACT (or other first-line treatment according to national policy). Denominator: Total number of children under age 5 with fever in the last 2 weeks who received any anti-malarial drugs</t>
   </si>
   <si>
     <t>MNCH_MLRCARE</t>
   </si>
   <si>
-    <t>Careseeking for febrile children - percentage of children (under age 5) with fever for whom advice or treatment was sought from a health facility or provider</t>
-  </si>
-  <si>
     <t>Numerator: Careseeking for febrile children - percentage of children (under age 5) with fever for whom advice or treatment was sought. Denominator: Total number of children under age 5 with fever in the last 2 weeks</t>
   </si>
   <si>
     <t>MNCH_MLRDIAG</t>
   </si>
   <si>
-    <t>Malaria diagnostics - percentage of febrile children (under age 5) who had a finger or heel stick for malaria testing</t>
-  </si>
-  <si>
     <t>Numerator: Number of children under age 5 with fever in the last 2 weeks who had a finger or heel stick for malaria testing. Denominator: Total number of children under age 5 with fever in the last 2 weeks</t>
   </si>
   <si>
@@ -493,13 +457,6 @@
     <t>MNCH_ORS</t>
   </si>
   <si>
-    <t>Diarrhoea treatment - percentage of children (under age 5) with diarrhoea who received ORS (packets or pre-packaged fluids)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numerator: Number of children under age 5 with diarrhea in the last 2 weeks who received oral rehydration salts (ORS packets or pre-packaged ORS fluids).. Denominator: Total number of children under age 5 with diarrhea  in the two weeks preceding the survey_x000D_
-</t>
-  </si>
-  <si>
     <t>MNCH_PNCNB</t>
   </si>
   <si>
@@ -509,18 +466,12 @@
     <t>MNCH_PNEUCARE</t>
   </si>
   <si>
-    <t>Careseeking for ARI - percentage of children (under age 5) with acute respiratory infection symptoms whom advice or treatment was sought from a health facility or provider</t>
-  </si>
-  <si>
     <t>Numerator: Number of children under age 5 with ARI symptoms in the last 2 weeks for whom advice or treatment was sought from a health facility or provider. Denominator: Total number of children under age 5 with ARI symptoms in the last 2 weeks</t>
   </si>
   <si>
     <t>MNCH_SAB</t>
   </si>
   <si>
-    <t xml:space="preserve">Skilled birth attendant - Proportion of births attended by skilled health personnel </t>
-  </si>
-  <si>
     <t xml:space="preserve">Numerator: Number of births attended by skilled health personnel (doctor, nurse or midwife) trained in providing quality obstetric care, including giving the necessary support and care to the mother and the newborn during childbirth and immediate postpartum period . Denominator: Denominator: The total number of live births in the same period. </t>
   </si>
   <si>
@@ -530,12 +481,6 @@
     <t>NT_ANT_HAZ_NE2</t>
   </si>
   <si>
-    <t>Height-for-age &lt;-2 SD (Stunting), Survey Estimates</t>
-  </si>
-  <si>
-    <t>Numerator: ​Number of under-fives falling below minus 2 standard deviations (moderate and severe) from the median height-for-age of the reference population. Denominator: ​Children under 5 years of age in the surveyed population​ with valid height-for-age z-scores</t>
-  </si>
-  <si>
     <t>wasting</t>
   </si>
   <si>
@@ -575,9 +520,6 @@
     <t>child_labor</t>
   </si>
   <si>
-    <t>Percentage of children (aged 5-17 years) engaged in child labour (economic activities)</t>
-  </si>
-  <si>
     <t>Numerator: Number of children aged 5-17 years who are engaged in child labour (economic activities) during the reference period, usually the week prior to the survey. Denominator: Number of children aged 5-17 years</t>
   </si>
   <si>
@@ -603,9 +545,6 @@
   </si>
   <si>
     <t>Expected Years of School</t>
-  </si>
-  <si>
-    <t>Expected years of school is calculated as the sum of age-specific enrollment rates between ages 4 and 17. Age-specific enrollment rates are approximated using school enrollment rates at different levels: pre-primary enrollment rates approximate the age-specific enrolment rates for 4 and 5 year-olds; the primary rate approximates for 6-11 year-olds; the lower-secondary rate approximates for 12-14 year-olds; and the upper-secondary approximates for 15-17 year-olds. Most recent estimates are used.  Year of most recent primary enrollment rate used is shown  in data notes.</t>
   </si>
   <si>
     <t>years</t>
@@ -696,9 +635,6 @@
     <t>luu_2lu4_mf_a</t>
   </si>
   <si>
-    <t>% of extended labour force, ages 25+</t>
-  </si>
-  <si>
     <t>eip_2wap_a</t>
   </si>
   <si>
@@ -732,9 +668,6 @@
     <t>luu_2lu4_mf_y</t>
   </si>
   <si>
-    <t>% of extended labour force, ages 15-24</t>
-  </si>
-  <si>
     <t>eip_2wap_y</t>
   </si>
   <si>
@@ -783,9 +716,6 @@
     <t>uisoaepg2gpv</t>
   </si>
   <si>
-    <t>% of the total enrolment in the given level of education</t>
-  </si>
-  <si>
     <t>uisoaepg1</t>
   </si>
   <si>
@@ -822,15 +752,9 @@
     <t>% of children 0-5 months</t>
   </si>
   <si>
-    <t>unicef_mealfreq</t>
-  </si>
-  <si>
     <t>% of children aged 6 to 23 months</t>
   </si>
   <si>
-    <t>unicef_stunting</t>
-  </si>
-  <si>
     <t>% of children under 5 years of age</t>
   </si>
   <si>
@@ -858,9 +782,6 @@
     <t>per 1,000 women ages 15-19</t>
   </si>
   <si>
-    <t>lastnm_probdeath_ncd</t>
-  </si>
-  <si>
     <t>% of all deaths for all ages by underlying causes</t>
   </si>
   <si>
@@ -882,9 +803,6 @@
     <t>per 100,000 live births</t>
   </si>
   <si>
-    <t>unicef_neomort</t>
-  </si>
-  <si>
     <t>uiscr1</t>
   </si>
   <si>
@@ -915,21 +833,12 @@
     <t>UNESCO</t>
   </si>
   <si>
-    <t>Gross enrolment ratio, early childhood education, both sexes (%)</t>
-  </si>
-  <si>
-    <t>Gross early childhood education enrolment ratio in (a) pre-primary education and (b) early childhood educational development,  both sexes (%)</t>
-  </si>
-  <si>
     <t>http://data.uis.unesco.org</t>
   </si>
   <si>
     <t>PT_F_18_29_SX_V_AGE_18</t>
   </si>
   <si>
-    <t>Percentage of women (aged 18-29 years) who experienced sexual violence by age 18</t>
-  </si>
-  <si>
     <t>Numerator: Number of women aged 18-29 years who experienced sexual violence by age 18. Denominator: Number of women aged 18-29 years</t>
   </si>
   <si>
@@ -1056,12 +965,6 @@
     <t>insuf_activity</t>
   </si>
   <si>
-    <t>Prevalence of insufficient physical activity among school going adolescents aged 11-17 years</t>
-  </si>
-  <si>
-    <t>Percent of school going adolescents not meeting WHO recommendations on Physical Activity for Health, i.e. doing less than 60 minutes of moderate- to vigorous-intensity physical activity daily.</t>
-  </si>
-  <si>
     <t>2019, November</t>
   </si>
   <si>
@@ -1185,9 +1088,6 @@
     <t>Minimum meal frequency (children aged 6 to 23 months) (%)</t>
   </si>
   <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
     <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
   </si>
   <si>
@@ -1260,9 +1160,6 @@
     <t>Cause of death, by non-communicable diseases (% of total)</t>
   </si>
   <si>
-    <t>Labour force participation (%), ages 25+</t>
-  </si>
-  <si>
     <t>Unemployment (%), ages 25+</t>
   </si>
   <si>
@@ -1446,9 +1343,6 @@
     <t>The youth literacy rate is defined by the percentage of the population aged 15 to 24 years that can read and write. It is typically measured according to the ability to comprehend a short simple statement on everyday life. Generally, literacy also encompasses numeracy, and measurement may incorporate a simple assessment of arithmetic ability. </t>
   </si>
   <si>
-    <t>Early childbearing - percentage of women (aged 20-24 years) who gave birth before age 18</t>
-  </si>
-  <si>
     <t>births_18</t>
   </si>
   <si>
@@ -1560,45 +1454,18 @@
     <t>Internally displaced persons of concern to UNHCR</t>
   </si>
   <si>
-    <t>Adult composite measure of labour underutilization, ages 25+</t>
-  </si>
-  <si>
     <t>Adult inactivity rate (%), ages 25+</t>
   </si>
   <si>
-    <t>Proportion of the working-age population that is not in the labour force</t>
-  </si>
-  <si>
-    <t>[(persons in time-related underemployment + persons in unemployment +potential labour force) / (extended labour force)] x 100</t>
-  </si>
-  <si>
     <t>Share of informal employment in total employment = Informal employment / Total employment  x 100</t>
   </si>
   <si>
-    <t>Adult potential labour force rate (%), ages 25+</t>
-  </si>
-  <si>
-    <t>The potential labour force is made up of 2 groups of people not in employment: the available potential jobseekers (available but not seeking), and. the unavailable jobseekers (not available but seeking).</t>
-  </si>
-  <si>
-    <t>Labour force participation rate = Labour force / Working-age population x 100 = (Persons employed + Persons unemployed) / Working-age population x 100</t>
-  </si>
-  <si>
-    <t>Unemployment rate = Persons unemployed / Labour force = Persons unemployed / (Persons employed + Persons unemployed) x 100</t>
-  </si>
-  <si>
     <t>Share of youth not in employment, education or training (NEET) by sex and age. NEET rate = (Youth – Youth in employment – Youth not in employment but in education or training) / Youth x 100</t>
   </si>
   <si>
-    <t>Youth composite measure of labour underutilization, ages 15-24</t>
-  </si>
-  <si>
     <t>Youth inactivity rate (%), ages 15-24</t>
   </si>
   <si>
-    <t>Youth potential labour force rate (%), ages 15-24</t>
-  </si>
-  <si>
     <t>Percentage of a cohort of children or young people aged 3-5 years above the intended age for the last grade of each level of education who have completed that grade</t>
   </si>
   <si>
@@ -1611,12 +1478,6 @@
     <t>Expenditure on education refers to expenditure on core educational goods and services, such as teaching staff, school buildings, or school books and teaching materials, and peripheral educational goods and services such as ancillary services, general administration and other activities. As percentage of GDP.</t>
   </si>
   <si>
-    <t>Gross enrolment ratio, early childhood educational development programmes (%)</t>
-  </si>
-  <si>
-    <t>Total enrolment in a specific level of education, regardless of age, expressed as a percentage of the eligible official school-age population corresponding to the same level of education in a given school year.</t>
-  </si>
-  <si>
     <t>Percentage of pupils in each level of education (lower secondary education) who are at least 2 years above the intended age for their grade</t>
   </si>
   <si>
@@ -1776,9 +1637,6 @@
     <t>March 16, 2023</t>
   </si>
   <si>
-    <t>Postnatal care for mothers - percentage of women (aged 15-49 years) who received postnatal care within 2 days of giving birth</t>
-  </si>
-  <si>
     <t>Numerator: Number of women age 15-49 years who received a health check while in facility or at home following delivery, or a post-natal care visit within 2 days after delivery of their most recent live birth in the two years preceding the survey. Denominator: Total number of women age 15-49 years with a live birth in the two years preceding the survey</t>
   </si>
   <si>
@@ -1834,13 +1692,170 @@
   </si>
   <si>
     <t>2021, March 31</t>
+  </si>
+  <si>
+    <t>labor force participation (%), ages 25+</t>
+  </si>
+  <si>
+    <t>labor force participation rate = labor force / Working-age population x 100 = (Persons employed + Persons unemployed) / Working-age population x 100</t>
+  </si>
+  <si>
+    <t>Adult potential labor force rate (%), ages 25+</t>
+  </si>
+  <si>
+    <t>The potential labor force is made up of 2 groups of people not in employment: the available potential jobseekers (available but not seeking), and. the unavailable jobseekers (not available but seeking).</t>
+  </si>
+  <si>
+    <t>Youth potential labor force rate (%), ages 15-24</t>
+  </si>
+  <si>
+    <t>Proportion of the working-age population that is not in the labor force</t>
+  </si>
+  <si>
+    <t>Adult composite measure of labor underutilization, ages 25+</t>
+  </si>
+  <si>
+    <t>[(persons in time-related underemployment + persons in unemployment +potential labor force) / (extended labor force)] x 100</t>
+  </si>
+  <si>
+    <t>% of extended labor force, ages 25+</t>
+  </si>
+  <si>
+    <t>Youth composite measure of labor underutilization, ages 15-24</t>
+  </si>
+  <si>
+    <t>% of extended labor force, ages 15-24</t>
+  </si>
+  <si>
+    <t>Unemployment rate = Persons unemployed / labor force = Persons unemployed / (Persons employed + Persons unemployed) x 100</t>
+  </si>
+  <si>
+    <t>Gross enrollment ratio, early childhood education, both sexes (%)</t>
+  </si>
+  <si>
+    <t>Gross early childhood education enrollment ratio in (a) pre-primary education and (b) early childhood educational development,  both sexes (%)</t>
+  </si>
+  <si>
+    <t>Expected years of school is calculated as the sum of age-specific enrollment rates between ages 4 and 17. Age-specific enrollment rates are approximated using school enrollment rates at different levels: pre-primary enrollment rates approximate the age-specific enrollment rates for 4 and 5 year-olds; the primary rate approximates for 6-11 year-olds; the lower-secondary rate approximates for 12-14 year-olds; and the upper-secondary approximates for 15-17 year-olds. Most recent estimates are used.  Year of most recent primary enrollment rate used is shown  in data notes.</t>
+  </si>
+  <si>
+    <t>Gross enrollment ratio, early childhood educational development programmes (%)</t>
+  </si>
+  <si>
+    <t>Total enrollment in a specific level of education, regardless of age, expressed as a percentage of the eligible official school-age population corresponding to the same level of education in a given school year.</t>
+  </si>
+  <si>
+    <t>% of the total enrollment in the given level of education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numerator: Number of children under age 5 with diarrhea in the last 2 weeks who received oral rehydration salts (ORS packets or pre-packaged ORS fluids). Denominator: Total number of children under age 5 with diarrhea  in the two weeks preceding the survey
+</t>
+  </si>
+  <si>
+    <t>Prevalence of insufficient physical activity among school-going adolescents aged 11-17 years</t>
+  </si>
+  <si>
+    <t>Percent of school-going adolescents not meeting WHO recommendations on Physical Activity for Health, i.e. doing less than 60 minutes of moderate- to vigorous-intensity physical activity daily.</t>
+  </si>
+  <si>
+    <t>Percentage of women aged 15-49 years who attended at least four times during pregnancy by any provider</t>
+  </si>
+  <si>
+    <t>Percentage of women aged 15-49 years who attended at least once during pregnancy by skilled health personnel</t>
+  </si>
+  <si>
+    <t>Percentage of women (aged 20-24 years) who gave birth before age 18</t>
+  </si>
+  <si>
+    <t>Percentage of children under age 5 with fever for whom advice or treatment was sought from a health facility or provider</t>
+  </si>
+  <si>
+    <t>Percentage of women aged 15-49 years who received postnatal care within 2 days of giving birth</t>
+  </si>
+  <si>
+    <t>Percentage of children aged 5-17 years engaged in child labour (economic activities)</t>
+  </si>
+  <si>
+    <t>Per cent of children aged 0-14 years living with HIV and receiving antiretroviral therapy (ART)</t>
+  </si>
+  <si>
+    <t>Per cent of young people aged 15-24 years with comprehensive, correct knowledge of HIV</t>
+  </si>
+  <si>
+    <t>Per cent of young people aged 15-24 years who know a place to get tested for HIV</t>
+  </si>
+  <si>
+    <t>Percentage of children under age 5 who slept under an insecticide-treated mosquito net the night prior to the survey</t>
+  </si>
+  <si>
+    <t>Percentage of pregnant women aged 15-49 years who slept under an insecticide-treated net the night prior to the survey</t>
+  </si>
+  <si>
+    <t>Demand for family planning satisfied with modern methods (percentage of women aged 15-49 years)</t>
+  </si>
+  <si>
+    <t>Percentage of febrile children under age 5 receiving ACT (first line antimalarial drug), among those receiving any antimalarial drugs</t>
+  </si>
+  <si>
+    <t>Percentage of febrile children under age 5 who had a finger or heel stick for malaria testing</t>
+  </si>
+  <si>
+    <t>Percentage of children under age 5 with acute respiratory infection symptoms whom advice or treatment was sought from a health facility or provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of births attended by skilled health personnel </t>
+  </si>
+  <si>
+    <t>Neonatal Mortality rate (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Percentage of children under age 5 with diarrhoea who received ORS (packets or pre-packaged fluids)</t>
+  </si>
+  <si>
+    <t>Percentage of women aged 18-29 years who experienced sexual violence by age 18</t>
+  </si>
+  <si>
+    <t>SP_ADO_TFRT</t>
+  </si>
+  <si>
+    <t>SH_DTH_NCOM_ZS</t>
+  </si>
+  <si>
+    <t>SH_STA_MMRT_NE</t>
+  </si>
+  <si>
+    <t>SP_REG_BRTH_ZS</t>
+  </si>
+  <si>
+    <t>SP_DYN_LE00_IN</t>
+  </si>
+  <si>
+    <t>SE_SEC_CMPT_LO_ZS</t>
+  </si>
+  <si>
+    <t>SE_PRM_CMPT_ZS</t>
+  </si>
+  <si>
+    <t>SE_PRE_ENRR</t>
+  </si>
+  <si>
+    <t>CME_MRM0</t>
+  </si>
+  <si>
+    <t>SE_SEC_ENRR</t>
+  </si>
+  <si>
+    <t>SE_TER_ENRR</t>
+  </si>
+  <si>
+    <t>NT_CF_MMF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1881,12 +1896,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1960,7 +1969,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1982,7 +1991,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2309,16 +2317,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L137"/>
+  <dimension ref="A1:L135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N7" sqref="N7"/>
+      <selection pane="topRight" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
@@ -2358,518 +2367,518 @@
         <v>10</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="D2" t="s">
-        <v>535</v>
+        <v>489</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>579</v>
+        <v>532</v>
       </c>
       <c r="G2" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="H2" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="I2" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="J2">
         <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>576</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
       <c r="H3" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="I3" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
       <c r="H4" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="I4" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>558</v>
+      </c>
+      <c r="E5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
       <c r="H5" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I5" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>557</v>
+      </c>
+      <c r="E6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
       <c r="H6" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>172</v>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" t="s">
+        <v>153</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="J7" s="15">
+        <v>534</v>
+      </c>
+      <c r="H7" t="s">
+        <v>355</v>
+      </c>
+      <c r="I7" t="s">
+        <v>332</v>
+      </c>
+      <c r="J7">
         <v>0</v>
       </c>
-      <c r="L7" s="15" t="s">
-        <v>576</v>
+      <c r="L7" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E8" t="s">
-        <v>285</v>
-      </c>
-      <c r="F8" t="s">
-        <v>286</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
       <c r="H8" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="I8" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="B9" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" t="s">
+        <v>279</v>
+      </c>
+      <c r="F9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
-        <v>308</v>
-      </c>
-      <c r="E9" t="s">
-        <v>309</v>
-      </c>
-      <c r="F9" t="s">
-        <v>286</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
       <c r="H9" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="I9" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J9">
         <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" t="s">
+        <v>256</v>
+      </c>
+      <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
-        <v>289</v>
-      </c>
-      <c r="E10" t="s">
-        <v>290</v>
-      </c>
-      <c r="F10" t="s">
-        <v>286</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
       <c r="H10" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="I10" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="B11" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>282</v>
+      </c>
+      <c r="E11" t="s">
+        <v>283</v>
+      </c>
+      <c r="F11" t="s">
+        <v>256</v>
+      </c>
+      <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>312</v>
-      </c>
-      <c r="E11" t="s">
-        <v>313</v>
-      </c>
-      <c r="F11" t="s">
-        <v>286</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
       <c r="H11" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="I11" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J11">
         <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F12" t="s">
+        <v>256</v>
+      </c>
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" t="s">
-        <v>292</v>
-      </c>
-      <c r="E12" t="s">
-        <v>293</v>
-      </c>
-      <c r="F12" t="s">
-        <v>286</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
       <c r="H12" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="I12" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="K12" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
       <c r="B13" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>285</v>
+      </c>
+      <c r="E13" t="s">
+        <v>286</v>
+      </c>
+      <c r="F13" t="s">
+        <v>256</v>
+      </c>
+      <c r="G13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" t="s">
-        <v>315</v>
-      </c>
-      <c r="E13" t="s">
-        <v>316</v>
-      </c>
-      <c r="F13" t="s">
-        <v>286</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
       <c r="H13" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="I13" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="K13" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>454</v>
+        <v>419</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>479</v>
+        <v>444</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>453</v>
+        <v>559</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>455</v>
+        <v>420</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>456</v>
+        <v>421</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="B15" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="E15" t="s">
-        <v>516</v>
+        <v>470</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>517</v>
+        <v>471</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>518</v>
+        <v>472</v>
       </c>
       <c r="H15" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I15" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J15">
         <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="B16" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>515</v>
+        <v>469</v>
       </c>
       <c r="H16" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I16" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J16">
         <v>5</v>
       </c>
       <c r="K16" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>560</v>
+      </c>
+      <c r="E17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
         <v>13</v>
       </c>
-      <c r="D17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" t="s">
-        <v>14</v>
-      </c>
       <c r="H17" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I17" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J17">
         <v>8</v>
@@ -2877,66 +2886,66 @@
     </row>
     <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E18" t="s">
-        <v>564</v>
+        <v>517</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s">
-        <v>565</v>
+        <v>518</v>
       </c>
       <c r="H18" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="I18" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J18">
         <v>7</v>
       </c>
       <c r="K18" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>543</v>
+        <v>497</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="J19" s="5">
         <v>1</v>
@@ -2945,31 +2954,31 @@
     </row>
     <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s">
-        <v>546</v>
+        <v>500</v>
       </c>
       <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>562</v>
+      </c>
+      <c r="E20" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" t="s">
         <v>13</v>
       </c>
-      <c r="D20" t="s">
-        <v>166</v>
-      </c>
-      <c r="E20" t="s">
-        <v>167</v>
-      </c>
-      <c r="F20" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
       <c r="H20" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="I20" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -2977,796 +2986,796 @@
     </row>
     <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="B21" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="E21" t="s">
-        <v>514</v>
+        <v>468</v>
       </c>
       <c r="H21" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I21" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J21">
         <v>16</v>
       </c>
       <c r="K21" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>391</v>
+        <v>536</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>498</v>
+        <v>537</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>567</v>
+        <v>520</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="J22" s="13">
         <v>1</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="C23" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="D23" t="s">
-        <v>276</v>
+        <v>548</v>
       </c>
       <c r="E23" t="s">
-        <v>277</v>
+        <v>549</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="H23" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I23" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="J23">
         <v>4</v>
       </c>
       <c r="L23" t="s">
-        <v>556</v>
+        <v>510</v>
       </c>
     </row>
     <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
       <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>452</v>
+      </c>
+      <c r="E24" t="s">
+        <v>452</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
         <v>13</v>
       </c>
-      <c r="D24" t="s">
-        <v>487</v>
-      </c>
-      <c r="E24" t="s">
-        <v>487</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>14</v>
-      </c>
       <c r="H24" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="I24" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="K24" t="s">
-        <v>488</v>
+        <v>453</v>
       </c>
     </row>
     <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
       <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>454</v>
+      </c>
+      <c r="E25" t="s">
+        <v>454</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
         <v>13</v>
       </c>
-      <c r="D25" t="s">
-        <v>489</v>
-      </c>
-      <c r="E25" t="s">
-        <v>489</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>14</v>
-      </c>
       <c r="H25" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="I25" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="J26" s="5">
         <v>4</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="B27" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="C27" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="D27" t="s">
-        <v>496</v>
+        <v>538</v>
       </c>
       <c r="E27" t="s">
-        <v>497</v>
+        <v>539</v>
       </c>
       <c r="F27" t="s">
-        <v>568</v>
+        <v>521</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>569</v>
+        <v>522</v>
       </c>
       <c r="H27" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="I27" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="K27" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="L27" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="B28" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="C28" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="D28" t="s">
-        <v>503</v>
+        <v>540</v>
       </c>
       <c r="E28" t="s">
-        <v>497</v>
+        <v>539</v>
       </c>
       <c r="F28" t="s">
-        <v>568</v>
+        <v>521</v>
       </c>
       <c r="G28" t="s">
-        <v>569</v>
+        <v>522</v>
       </c>
       <c r="H28" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="I28" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="K28" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="L28" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="B29" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="C29" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="D29" t="s">
-        <v>492</v>
+        <v>456</v>
       </c>
       <c r="E29" t="s">
-        <v>493</v>
+        <v>541</v>
       </c>
       <c r="F29" t="s">
-        <v>567</v>
+        <v>520</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>575</v>
+        <v>528</v>
       </c>
       <c r="H29" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="I29" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="K29" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="L29" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>502</v>
+        <v>459</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>493</v>
+        <v>541</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>567</v>
+        <v>520</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>575</v>
+        <v>528</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="B31" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="C31" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="D31" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="E31" t="s">
-        <v>500</v>
+        <v>458</v>
       </c>
       <c r="F31" t="s">
-        <v>567</v>
+        <v>520</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>570</v>
+        <v>523</v>
       </c>
       <c r="H31" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="I31" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="L31" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="B32" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="C32" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="D32" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="E32" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F32" t="s">
-        <v>561</v>
+        <v>515</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="H32" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="I32" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="J32">
         <v>3</v>
       </c>
       <c r="K32" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="L32" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="B33" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="C33" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="D33" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="E33" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F33" t="s">
-        <v>561</v>
+        <v>515</v>
       </c>
       <c r="G33" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="H33" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="I33" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="J33">
         <v>4</v>
       </c>
       <c r="K33" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="L33" t="s">
-        <v>576</v>
+        <v>529</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B34" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D34" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E34" t="s">
-        <v>176</v>
+        <v>550</v>
       </c>
       <c r="F34" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="G34" t="s">
-        <v>581</v>
+        <v>534</v>
       </c>
       <c r="H34" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="I34" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="L34" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="B35" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="C35" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="D35" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="E35" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="H35" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I35" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="K35" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="L35" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>421</v>
+        <v>387</v>
       </c>
       <c r="B36" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="C36" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="D36" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="E36" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G36" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="H36" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I36" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="K36" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="L36" t="s">
-        <v>558</v>
+        <v>512</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="B37" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C37" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D37" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="E37" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="F37" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="G37" t="s">
-        <v>581</v>
+        <v>534</v>
       </c>
       <c r="H37" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="I37" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="L37" t="s">
-        <v>576</v>
+        <v>529</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="B38" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="C38" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D38" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="E38" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="F38" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="G38" t="s">
-        <v>581</v>
+        <v>534</v>
       </c>
       <c r="H38" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="I38" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="L38" t="s">
-        <v>576</v>
+        <v>529</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B39" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="C39" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D39" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="E39" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="F39" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="G39" t="s">
-        <v>581</v>
+        <v>534</v>
       </c>
       <c r="H39" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="I39" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="L39" t="s">
-        <v>576</v>
+        <v>529</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>482</v>
+        <v>447</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>484</v>
+        <v>449</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>483</v>
+        <v>448</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
-        <v>580</v>
+        <v>533</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>485</v>
+        <v>450</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J40" s="5">
         <v>5</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>545</v>
+        <v>499</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>545</v>
+        <v>499</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>467</v>
+        <v>432</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>466</v>
+        <v>431</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>567</v>
+        <v>520</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="J41" s="5">
         <v>4</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5" t="s">
-        <v>576</v>
+        <v>529</v>
       </c>
     </row>
     <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" t="s">
         <v>36</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
         <v>37</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" t="s">
         <v>13</v>
       </c>
-      <c r="D42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" t="s">
-        <v>14</v>
-      </c>
       <c r="H42" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="I42" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>503</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
         <v>40</v>
       </c>
-      <c r="B43" t="s">
-        <v>549</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D43" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43" t="s">
-        <v>42</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="H43" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="I43" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J43">
         <v>4</v>
@@ -3774,57 +3783,57 @@
     </row>
     <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
         <v>46</v>
       </c>
-      <c r="B44" t="s">
+      <c r="E44" t="s">
         <v>47</v>
       </c>
-      <c r="C44" t="s">
+      <c r="G44" t="s">
         <v>13</v>
       </c>
-      <c r="D44" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" t="s">
-        <v>14</v>
-      </c>
       <c r="H44" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I44" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>462</v>
+        <v>427</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>480</v>
+        <v>445</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>461</v>
+        <v>426</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>464</v>
+        <v>429</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J45" s="5">
         <v>5</v>
@@ -3833,246 +3842,246 @@
     </row>
     <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>563</v>
+      </c>
+      <c r="E46" t="s">
         <v>43</v>
       </c>
-      <c r="B46" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="G46" t="s">
         <v>13</v>
       </c>
-      <c r="D46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" t="s">
-        <v>45</v>
-      </c>
-      <c r="G46" t="s">
-        <v>14</v>
-      </c>
       <c r="H46" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="I46" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>564</v>
+      </c>
+      <c r="E47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" t="s">
         <v>50</v>
       </c>
-      <c r="B47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="G47" t="s">
         <v>13</v>
       </c>
-      <c r="D47" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" t="s">
-        <v>53</v>
-      </c>
-      <c r="G47" t="s">
-        <v>14</v>
-      </c>
       <c r="H47" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="I47" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>565</v>
+      </c>
+      <c r="E48" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" t="s">
         <v>13</v>
       </c>
-      <c r="D48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E48" t="s">
-        <v>56</v>
-      </c>
-      <c r="F48" t="s">
-        <v>53</v>
-      </c>
-      <c r="G48" t="s">
-        <v>14</v>
-      </c>
       <c r="H48" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="I48" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="B49" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="C49" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="D49" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="E49" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="F49" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="H49" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="I49" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J49">
         <v>6</v>
       </c>
       <c r="L49" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="D50" t="s">
-        <v>490</v>
+        <v>455</v>
       </c>
       <c r="F50" t="s">
-        <v>579</v>
+        <v>532</v>
       </c>
       <c r="G50" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="H50" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="I50" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="L50" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>427</v>
+        <v>393</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>443</v>
+        <v>409</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J51" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="B52" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="C52" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="D52" t="s">
-        <v>323</v>
+        <v>555</v>
       </c>
       <c r="E52" t="s">
-        <v>324</v>
+        <v>556</v>
       </c>
       <c r="F52" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="G52" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="H52" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="I52" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J52">
         <v>4</v>
       </c>
       <c r="L52" t="s">
-        <v>555</v>
+        <v>509</v>
       </c>
     </row>
     <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B53" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>566</v>
+      </c>
+      <c r="E53" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53" t="s">
+        <v>50</v>
+      </c>
+      <c r="G53" t="s">
         <v>13</v>
       </c>
-      <c r="D53" t="s">
-        <v>122</v>
-      </c>
-      <c r="E53" t="s">
-        <v>123</v>
-      </c>
-      <c r="F53" t="s">
-        <v>53</v>
-      </c>
-      <c r="G53" t="s">
-        <v>14</v>
-      </c>
       <c r="H53" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I53" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J53">
         <v>12</v>
@@ -4080,904 +4089,904 @@
     </row>
     <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B54" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>567</v>
+      </c>
+      <c r="E54" t="s">
+        <v>118</v>
+      </c>
+      <c r="F54" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54" t="s">
         <v>13</v>
       </c>
-      <c r="D54" t="s">
-        <v>126</v>
-      </c>
-      <c r="E54" t="s">
-        <v>127</v>
-      </c>
-      <c r="F54" t="s">
-        <v>53</v>
-      </c>
-      <c r="G54" t="s">
-        <v>14</v>
-      </c>
       <c r="H54" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="I54" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="B55" t="s">
-        <v>255</v>
+        <v>576</v>
       </c>
       <c r="C55" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D55" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="E55" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>582</v>
+        <v>535</v>
       </c>
       <c r="G55" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H55" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="I55" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J55">
         <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="L55" t="s">
-        <v>576</v>
+        <v>529</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="B56" t="s">
-        <v>259</v>
+        <v>579</v>
       </c>
       <c r="C56" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D56" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="E56" t="s">
-        <v>526</v>
+        <v>480</v>
       </c>
       <c r="F56" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="G56" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H56" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I56" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J56">
         <v>11</v>
       </c>
       <c r="K56" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="L56" t="s">
-        <v>576</v>
+        <v>529</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="B57" t="s">
-        <v>263</v>
+        <v>578</v>
       </c>
       <c r="C57" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D57" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="E57" t="s">
-        <v>530</v>
+        <v>484</v>
       </c>
       <c r="F57" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="G57" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H57" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I57" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J57">
         <v>7</v>
       </c>
       <c r="K57" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="L57" t="s">
-        <v>576</v>
+        <v>529</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="B58" t="s">
-        <v>269</v>
+        <v>585</v>
       </c>
       <c r="C58" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D58" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="E58" t="s">
-        <v>538</v>
+        <v>492</v>
       </c>
       <c r="F58" t="s">
-        <v>529</v>
+        <v>483</v>
       </c>
       <c r="G58" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H58" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="I58" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="J58">
         <v>3</v>
       </c>
       <c r="K58" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="L58" t="s">
-        <v>576</v>
+        <v>529</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="B59" t="s">
-        <v>270</v>
+        <v>586</v>
       </c>
       <c r="C59" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D59" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="E59" t="s">
-        <v>539</v>
+        <v>493</v>
       </c>
       <c r="F59" t="s">
-        <v>529</v>
+        <v>483</v>
       </c>
       <c r="G59" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H59" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="I59" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="J59">
         <v>3</v>
       </c>
       <c r="K59" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="L59" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="B60" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="C60" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="D60" t="s">
-        <v>491</v>
+        <v>542</v>
       </c>
       <c r="E60" t="s">
-        <v>494</v>
+        <v>543</v>
       </c>
       <c r="F60" t="s">
-        <v>573</v>
+        <v>526</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>572</v>
+        <v>525</v>
       </c>
       <c r="H60" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="I60" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="K60" t="s">
-        <v>203</v>
+        <v>544</v>
       </c>
       <c r="L60" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="B61" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="C61" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="D61" t="s">
-        <v>501</v>
+        <v>545</v>
       </c>
       <c r="E61" t="s">
-        <v>494</v>
+        <v>543</v>
       </c>
       <c r="F61" t="s">
-        <v>573</v>
+        <v>526</v>
       </c>
       <c r="G61" t="s">
-        <v>572</v>
+        <v>525</v>
       </c>
       <c r="H61" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="I61" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="K61" t="s">
-        <v>215</v>
+        <v>546</v>
       </c>
       <c r="L61" t="s">
-        <v>576</v>
+        <v>529</v>
       </c>
     </row>
     <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="B62" t="s">
-        <v>245</v>
+        <v>587</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="E62" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>517</v>
+        <v>471</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>520</v>
+        <v>474</v>
       </c>
       <c r="H62" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I62" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J62">
         <v>2</v>
       </c>
       <c r="K62" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>460</v>
+        <v>425</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>460</v>
+        <v>425</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>457</v>
+        <v>422</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>458</v>
+        <v>423</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>459</v>
+        <v>424</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J63" s="5">
         <v>3</v>
       </c>
       <c r="K63" s="5"/>
       <c r="L63" s="5" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>470</v>
+        <v>435</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>470</v>
+        <v>435</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>474</v>
+        <v>439</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>476</v>
+        <v>441</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>547</v>
+        <v>501</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>547</v>
+        <v>501</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="J66" s="5">
         <v>12</v>
       </c>
       <c r="K66" s="5"/>
       <c r="L66" s="5" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>469</v>
+        <v>434</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>469</v>
+        <v>434</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>468</v>
+        <v>433</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>468</v>
+        <v>433</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>473</v>
+        <v>438</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>548</v>
+        <v>502</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>548</v>
+        <v>502</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>472</v>
+        <v>437</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="J69" s="5">
         <v>11</v>
       </c>
       <c r="K69" s="5"/>
       <c r="L69" s="5" t="s">
-        <v>557</v>
+        <v>511</v>
       </c>
     </row>
     <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B70" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>568</v>
+      </c>
+      <c r="E70" t="s">
+        <v>112</v>
+      </c>
+      <c r="F70" t="s">
+        <v>50</v>
+      </c>
+      <c r="G70" t="s">
         <v>13</v>
       </c>
-      <c r="D70" t="s">
-        <v>118</v>
-      </c>
-      <c r="E70" t="s">
-        <v>119</v>
-      </c>
-      <c r="F70" t="s">
-        <v>53</v>
-      </c>
-      <c r="G70" t="s">
-        <v>14</v>
-      </c>
       <c r="H70" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="I70" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
     </row>
     <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B71" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
+        <v>569</v>
+      </c>
+      <c r="E71" t="s">
+        <v>120</v>
+      </c>
+      <c r="F71" t="s">
+        <v>50</v>
+      </c>
+      <c r="G71" t="s">
         <v>13</v>
       </c>
-      <c r="D71" t="s">
-        <v>129</v>
-      </c>
-      <c r="E71" t="s">
-        <v>130</v>
-      </c>
-      <c r="F71" t="s">
-        <v>53</v>
-      </c>
-      <c r="G71" t="s">
-        <v>14</v>
-      </c>
       <c r="H71" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I71" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
     </row>
     <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B72" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>570</v>
+      </c>
+      <c r="E72" t="s">
+        <v>124</v>
+      </c>
+      <c r="F72" t="s">
+        <v>50</v>
+      </c>
+      <c r="G72" t="s">
         <v>13</v>
       </c>
-      <c r="D72" t="s">
-        <v>135</v>
-      </c>
-      <c r="E72" t="s">
-        <v>136</v>
-      </c>
-      <c r="F72" t="s">
-        <v>53</v>
-      </c>
-      <c r="G72" t="s">
-        <v>14</v>
-      </c>
       <c r="H72" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I72" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
     </row>
     <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" t="s">
+        <v>571</v>
+      </c>
+      <c r="E73" t="s">
+        <v>130</v>
+      </c>
+      <c r="F73" t="s">
+        <v>50</v>
+      </c>
+      <c r="G73" t="s">
         <v>13</v>
       </c>
-      <c r="D73" t="s">
-        <v>144</v>
-      </c>
-      <c r="E73" t="s">
-        <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>53</v>
-      </c>
-      <c r="G73" t="s">
-        <v>14</v>
-      </c>
       <c r="H73" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I73" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
     </row>
     <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B74" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" t="s">
+        <v>572</v>
+      </c>
+      <c r="E74" t="s">
+        <v>132</v>
+      </c>
+      <c r="F74" t="s">
+        <v>50</v>
+      </c>
+      <c r="G74" t="s">
         <v>13</v>
       </c>
-      <c r="D74" t="s">
-        <v>147</v>
-      </c>
-      <c r="E74" t="s">
-        <v>148</v>
-      </c>
-      <c r="F74" t="s">
-        <v>53</v>
-      </c>
-      <c r="G74" t="s">
-        <v>14</v>
-      </c>
       <c r="H74" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I74" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
     </row>
     <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="B75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
         <v>19</v>
       </c>
-      <c r="C75" t="s">
+      <c r="E75" t="s">
+        <v>363</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G75" t="s">
         <v>13</v>
       </c>
-      <c r="D75" t="s">
-        <v>20</v>
-      </c>
-      <c r="E75" t="s">
-        <v>397</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="G75" t="s">
-        <v>14</v>
-      </c>
       <c r="H75" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="I75" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J75">
         <v>2</v>
       </c>
       <c r="K75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="B76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" t="s">
         <v>22</v>
       </c>
-      <c r="C76" t="s">
+      <c r="E76" t="s">
+        <v>364</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G76" t="s">
         <v>13</v>
       </c>
-      <c r="D76" t="s">
-        <v>23</v>
-      </c>
-      <c r="E76" t="s">
-        <v>398</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="G76" t="s">
-        <v>14</v>
-      </c>
       <c r="H76" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="I76" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J76">
         <v>1</v>
       </c>
       <c r="K76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="B77" t="s">
-        <v>265</v>
+        <v>584</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>366</v>
+        <v>573</v>
       </c>
       <c r="G77" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
       <c r="H77" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I77" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J77">
         <v>1</v>
       </c>
       <c r="K77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B78" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="C78" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D78" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="E78" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="F78" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="G78" t="s">
-        <v>581</v>
+        <v>534</v>
       </c>
       <c r="H78" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I78" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="L78" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="B79" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="C79" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="D79" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="E79" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="F79" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="G79" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="H79" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="I79" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J79">
         <v>7</v>
       </c>
       <c r="L79" t="s">
-        <v>555</v>
+        <v>509</v>
       </c>
     </row>
     <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>441</v>
+        <v>407</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>481</v>
+        <v>446</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>544</v>
+        <v>498</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>534</v>
+        <v>488</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="J80" s="5">
         <v>2</v>
@@ -4987,1966 +4996,1900 @@
     </row>
     <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B81" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
+        <v>574</v>
+      </c>
+      <c r="E81" t="s">
+        <v>554</v>
+      </c>
+      <c r="F81" t="s">
+        <v>50</v>
+      </c>
+      <c r="G81" t="s">
         <v>13</v>
       </c>
-      <c r="D81" t="s">
-        <v>139</v>
-      </c>
-      <c r="E81" t="s">
-        <v>140</v>
-      </c>
-      <c r="F81" t="s">
-        <v>53</v>
-      </c>
-      <c r="G81" t="s">
-        <v>14</v>
-      </c>
       <c r="H81" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I81" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>450</v>
+        <v>416</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>450</v>
+        <v>416</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>506</v>
+        <v>462</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="J82" s="5">
         <v>13</v>
       </c>
       <c r="K82" s="5"/>
       <c r="L82" s="5" t="s">
-        <v>557</v>
+        <v>511</v>
       </c>
     </row>
     <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
+        <v>145</v>
+      </c>
+      <c r="E83" t="s">
+        <v>146</v>
+      </c>
+      <c r="F83" t="s">
+        <v>50</v>
+      </c>
+      <c r="G83" t="s">
         <v>13</v>
       </c>
-      <c r="D83" t="s">
-        <v>163</v>
-      </c>
-      <c r="E83" t="s">
-        <v>164</v>
-      </c>
-      <c r="F83" t="s">
-        <v>53</v>
-      </c>
-      <c r="G83" t="s">
-        <v>14</v>
-      </c>
       <c r="H83" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I83" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="B84" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="C84" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="D84" t="s">
-        <v>532</v>
+        <v>486</v>
       </c>
       <c r="E84" t="s">
-        <v>532</v>
+        <v>486</v>
       </c>
       <c r="F84" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G84" t="s">
-        <v>533</v>
+        <v>487</v>
       </c>
       <c r="H84" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="I84" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="L84" t="s">
-        <v>555</v>
+        <v>509</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="B85" t="s">
-        <v>257</v>
+        <v>577</v>
       </c>
       <c r="C85" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D85" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="E85" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="F85" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="G85" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H85" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="I85" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J85">
         <v>2</v>
       </c>
       <c r="K85" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="L85" t="s">
-        <v>576</v>
+        <v>529</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B86" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="C86" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D86" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="E86" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="G86" t="s">
-        <v>581</v>
+        <v>534</v>
       </c>
       <c r="H86" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I86" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="L86" t="s">
-        <v>576</v>
+        <v>529</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="B87" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="C87" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D87" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="E87" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="G87" t="s">
-        <v>581</v>
+        <v>534</v>
       </c>
       <c r="H87" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="I87" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="L87" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="B88" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="C88" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="D88" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="E88" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="F88" t="s">
-        <v>579</v>
+        <v>532</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="H88" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="I88" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="J88">
         <v>5</v>
       </c>
       <c r="L88" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="B89" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="C89" t="s">
-        <v>506</v>
+        <v>462</v>
       </c>
       <c r="D89" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="E89" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="F89" t="s">
-        <v>578</v>
+        <v>531</v>
       </c>
       <c r="G89" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="H89" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="I89" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="J89">
         <v>6</v>
       </c>
       <c r="L89" t="s">
-        <v>555</v>
+        <v>509</v>
       </c>
     </row>
     <row r="90" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="I90" s="13" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="J90" s="13">
         <v>1</v>
       </c>
       <c r="K90" s="13" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="L90" s="13" t="s">
-        <v>562</v>
+        <v>516</v>
       </c>
     </row>
     <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B91" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" t="s">
+        <v>141</v>
+      </c>
+      <c r="E91" t="s">
+        <v>142</v>
+      </c>
+      <c r="F91" t="s">
+        <v>50</v>
+      </c>
+      <c r="G91" t="s">
         <v>13</v>
       </c>
-      <c r="D91" t="s">
-        <v>159</v>
-      </c>
-      <c r="E91" t="s">
-        <v>160</v>
-      </c>
-      <c r="F91" t="s">
-        <v>53</v>
-      </c>
-      <c r="G91" t="s">
-        <v>14</v>
-      </c>
       <c r="H91" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I91" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
     </row>
     <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="B92" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" t="s">
+        <v>575</v>
+      </c>
+      <c r="E92" t="s">
+        <v>251</v>
+      </c>
+      <c r="F92" t="s">
+        <v>50</v>
+      </c>
+      <c r="G92" t="s">
         <v>13</v>
       </c>
-      <c r="D92" t="s">
-        <v>280</v>
-      </c>
-      <c r="E92" t="s">
-        <v>281</v>
-      </c>
-      <c r="F92" t="s">
-        <v>53</v>
-      </c>
-      <c r="G92" t="s">
-        <v>14</v>
-      </c>
       <c r="H92" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="I92" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
     </row>
     <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="B93" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" t="s">
+        <v>575</v>
+      </c>
+      <c r="E93" t="s">
+        <v>251</v>
+      </c>
+      <c r="F93" t="s">
+        <v>50</v>
+      </c>
+      <c r="G93" t="s">
         <v>13</v>
       </c>
-      <c r="D93" t="s">
-        <v>280</v>
-      </c>
-      <c r="E93" t="s">
-        <v>281</v>
-      </c>
-      <c r="F93" t="s">
-        <v>53</v>
-      </c>
-      <c r="G93" t="s">
-        <v>14</v>
-      </c>
       <c r="H93" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="I93" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="B94" t="s">
-        <v>261</v>
+        <v>580</v>
       </c>
       <c r="C94" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D94" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="E94" t="s">
-        <v>527</v>
+        <v>481</v>
       </c>
       <c r="F94" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="G94" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H94" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="I94" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J94">
         <v>1</v>
       </c>
       <c r="K94" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="L94" t="s">
-        <v>576</v>
+        <v>529</v>
       </c>
     </row>
     <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="B95" t="s">
-        <v>486</v>
+        <v>451</v>
       </c>
       <c r="C95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" t="s">
+        <v>326</v>
+      </c>
+      <c r="E95" t="s">
+        <v>327</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G95" t="s">
         <v>13</v>
       </c>
-      <c r="D95" t="s">
-        <v>358</v>
-      </c>
-      <c r="E95" t="s">
-        <v>359</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
+        <v>331</v>
+      </c>
+      <c r="I95" t="s">
+        <v>332</v>
+      </c>
+      <c r="J95">
         <v>14</v>
       </c>
-      <c r="H95" t="s">
-        <v>363</v>
-      </c>
-      <c r="I95" t="s">
-        <v>364</v>
-      </c>
       <c r="K95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>399</v>
+        <v>133</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D96" t="s">
-        <v>358</v>
+        <v>476</v>
       </c>
       <c r="E96" t="s">
-        <v>359</v>
-      </c>
-      <c r="F96" t="s">
-        <v>360</v>
-      </c>
-      <c r="G96" t="s">
-        <v>14</v>
+        <v>475</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>477</v>
       </c>
       <c r="H96" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I96" t="s">
-        <v>364</v>
-      </c>
-      <c r="J96">
-        <v>14</v>
+        <v>332</v>
       </c>
       <c r="K96" t="s">
-        <v>15</v>
+        <v>223</v>
       </c>
     </row>
     <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>149</v>
+        <v>305</v>
       </c>
       <c r="B97" t="s">
+        <v>305</v>
+      </c>
+      <c r="C97" t="s">
+        <v>288</v>
+      </c>
+      <c r="D97" t="s">
+        <v>306</v>
+      </c>
+      <c r="E97" t="s">
+        <v>307</v>
+      </c>
+      <c r="F97" t="s">
+        <v>256</v>
+      </c>
+      <c r="G97" t="s">
+        <v>291</v>
+      </c>
+      <c r="H97" t="s">
+        <v>347</v>
+      </c>
+      <c r="I97" t="s">
+        <v>332</v>
+      </c>
+      <c r="J97">
+        <v>6</v>
+      </c>
+      <c r="L97" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>162</v>
+      </c>
+      <c r="B98" t="s">
+        <v>162</v>
+      </c>
+      <c r="C98" t="s">
         <v>150</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D98" t="s">
+        <v>163</v>
+      </c>
+      <c r="E98" t="s">
+        <v>164</v>
+      </c>
+      <c r="F98" t="s">
+        <v>153</v>
+      </c>
+      <c r="G98" t="s">
+        <v>534</v>
+      </c>
+      <c r="H98" t="s">
+        <v>338</v>
+      </c>
+      <c r="I98" t="s">
+        <v>330</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98" t="s">
+        <v>165</v>
+      </c>
+      <c r="L98" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>308</v>
+      </c>
+      <c r="B99" t="s">
+        <v>308</v>
+      </c>
+      <c r="C99" t="s">
+        <v>288</v>
+      </c>
+      <c r="D99" t="s">
+        <v>309</v>
+      </c>
+      <c r="E99" t="s">
+        <v>310</v>
+      </c>
+      <c r="F99" t="s">
+        <v>311</v>
+      </c>
+      <c r="G99" t="s">
+        <v>291</v>
+      </c>
+      <c r="H99" t="s">
+        <v>331</v>
+      </c>
+      <c r="I99" t="s">
+        <v>332</v>
+      </c>
+      <c r="J99">
+        <v>10</v>
+      </c>
+      <c r="L99" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>312</v>
+      </c>
+      <c r="B100" t="s">
+        <v>312</v>
+      </c>
+      <c r="C100" t="s">
+        <v>288</v>
+      </c>
+      <c r="D100" t="s">
+        <v>313</v>
+      </c>
+      <c r="E100" t="s">
+        <v>314</v>
+      </c>
+      <c r="F100" t="s">
+        <v>315</v>
+      </c>
+      <c r="G100" t="s">
+        <v>291</v>
+      </c>
+      <c r="H100" t="s">
+        <v>331</v>
+      </c>
+      <c r="I100" t="s">
+        <v>332</v>
+      </c>
+      <c r="J100">
+        <v>9</v>
+      </c>
+      <c r="L100" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>366</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" t="s">
+        <v>361</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G101" t="s">
         <v>13</v>
       </c>
-      <c r="D97" t="s">
-        <v>151</v>
-      </c>
-      <c r="E97" t="s">
-        <v>152</v>
-      </c>
-      <c r="F97" t="s">
-        <v>53</v>
-      </c>
-      <c r="G97" t="s">
-        <v>14</v>
-      </c>
-      <c r="H97" t="s">
-        <v>363</v>
-      </c>
-      <c r="I97" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>149</v>
-      </c>
-      <c r="B98" t="s">
-        <v>247</v>
-      </c>
-      <c r="C98" t="s">
-        <v>13</v>
-      </c>
-      <c r="D98" t="s">
-        <v>522</v>
-      </c>
-      <c r="E98" t="s">
-        <v>521</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="H98" t="s">
-        <v>363</v>
-      </c>
-      <c r="K98" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>337</v>
-      </c>
-      <c r="B99" t="s">
-        <v>337</v>
-      </c>
-      <c r="C99" t="s">
-        <v>318</v>
-      </c>
-      <c r="D99" t="s">
-        <v>338</v>
-      </c>
-      <c r="E99" t="s">
-        <v>339</v>
-      </c>
-      <c r="F99" t="s">
-        <v>286</v>
-      </c>
-      <c r="G99" t="s">
-        <v>321</v>
-      </c>
-      <c r="H99" t="s">
-        <v>380</v>
-      </c>
-      <c r="I99" t="s">
-        <v>364</v>
-      </c>
-      <c r="J99">
-        <v>6</v>
-      </c>
-      <c r="L99" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>182</v>
-      </c>
-      <c r="B100" t="s">
-        <v>182</v>
-      </c>
-      <c r="C100" t="s">
-        <v>169</v>
-      </c>
-      <c r="D100" t="s">
-        <v>183</v>
-      </c>
-      <c r="E100" t="s">
-        <v>184</v>
-      </c>
-      <c r="F100" t="s">
-        <v>172</v>
-      </c>
-      <c r="G100" t="s">
-        <v>581</v>
-      </c>
-      <c r="H100" t="s">
-        <v>371</v>
-      </c>
-      <c r="I100" t="s">
-        <v>362</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100" t="s">
-        <v>185</v>
-      </c>
-      <c r="L100" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>340</v>
-      </c>
-      <c r="B101" t="s">
-        <v>340</v>
-      </c>
-      <c r="C101" t="s">
-        <v>318</v>
-      </c>
-      <c r="D101" t="s">
-        <v>341</v>
-      </c>
-      <c r="E101" t="s">
-        <v>342</v>
-      </c>
-      <c r="F101" t="s">
-        <v>343</v>
-      </c>
-      <c r="G101" t="s">
-        <v>321</v>
-      </c>
       <c r="H101" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I101" t="s">
-        <v>364</v>
-      </c>
-      <c r="J101">
-        <v>10</v>
-      </c>
-      <c r="L101" t="s">
-        <v>555</v>
+        <v>332</v>
+      </c>
+      <c r="K101" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>344</v>
+        <v>239</v>
       </c>
       <c r="B102" t="s">
-        <v>344</v>
+        <v>582</v>
       </c>
       <c r="C102" t="s">
-        <v>318</v>
-      </c>
-      <c r="D102" t="s">
-        <v>345</v>
+        <v>150</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>390</v>
       </c>
       <c r="E102" t="s">
+        <v>490</v>
+      </c>
+      <c r="F102" t="s">
+        <v>483</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H102" t="s">
+        <v>338</v>
+      </c>
+      <c r="I102" t="s">
+        <v>330</v>
+      </c>
+      <c r="J102">
+        <v>2</v>
+      </c>
+      <c r="K102" t="s">
+        <v>202</v>
+      </c>
+      <c r="L102" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>236</v>
+      </c>
+      <c r="B103" t="s">
+        <v>581</v>
+      </c>
+      <c r="C103" t="s">
+        <v>150</v>
+      </c>
+      <c r="D103" t="s">
+        <v>340</v>
+      </c>
+      <c r="E103" t="s">
+        <v>482</v>
+      </c>
+      <c r="F103" t="s">
+        <v>483</v>
+      </c>
+      <c r="G103" t="s">
+        <v>154</v>
+      </c>
+      <c r="H103" t="s">
+        <v>338</v>
+      </c>
+      <c r="I103" t="s">
+        <v>330</v>
+      </c>
+      <c r="J103">
+        <v>5</v>
+      </c>
+      <c r="K103" t="s">
+        <v>202</v>
+      </c>
+      <c r="L103" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>201</v>
+      </c>
+      <c r="B104" t="s">
+        <v>201</v>
+      </c>
+      <c r="C104" t="s">
+        <v>462</v>
+      </c>
+      <c r="D104" t="s">
         <v>346</v>
       </c>
-      <c r="F102" t="s">
+      <c r="E104" t="s">
+        <v>460</v>
+      </c>
+      <c r="F104" t="s">
+        <v>531</v>
+      </c>
+      <c r="G104" t="s">
+        <v>415</v>
+      </c>
+      <c r="H104" t="s">
         <v>347</v>
       </c>
-      <c r="G102" t="s">
-        <v>321</v>
-      </c>
-      <c r="H102" t="s">
-        <v>363</v>
-      </c>
-      <c r="I102" t="s">
-        <v>364</v>
-      </c>
-      <c r="J102">
-        <v>9</v>
-      </c>
-      <c r="L102" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>400</v>
-      </c>
-      <c r="B103" t="s">
-        <v>16</v>
-      </c>
-      <c r="C103" t="s">
-        <v>13</v>
-      </c>
-      <c r="D103" t="s">
-        <v>17</v>
-      </c>
-      <c r="E103" t="s">
-        <v>395</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="G103" t="s">
-        <v>14</v>
-      </c>
-      <c r="H103" t="s">
-        <v>363</v>
-      </c>
-      <c r="I103" t="s">
-        <v>364</v>
-      </c>
-      <c r="K103" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>266</v>
-      </c>
-      <c r="B104" t="s">
-        <v>266</v>
-      </c>
-      <c r="C104" t="s">
-        <v>169</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="E104" t="s">
-        <v>536</v>
-      </c>
-      <c r="F104" t="s">
-        <v>529</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H104" t="s">
-        <v>371</v>
-      </c>
       <c r="I104" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="J104">
         <v>2</v>
       </c>
       <c r="K104" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="L104" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="B105" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="C105" t="s">
-        <v>169</v>
+        <v>462</v>
       </c>
       <c r="D105" t="s">
-        <v>373</v>
+        <v>551</v>
       </c>
       <c r="E105" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="F105" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G105" t="s">
-        <v>173</v>
+        <v>415</v>
       </c>
       <c r="H105" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="I105" t="s">
-        <v>362</v>
-      </c>
-      <c r="J105">
-        <v>5</v>
+        <v>330</v>
       </c>
       <c r="K105" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="L105" t="s">
-        <v>576</v>
+        <v>514</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="B106" t="s">
-        <v>223</v>
+        <v>583</v>
       </c>
       <c r="C106" t="s">
-        <v>506</v>
+        <v>150</v>
       </c>
       <c r="D106" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="E106" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="F106" t="s">
-        <v>578</v>
+        <v>483</v>
       </c>
       <c r="G106" t="s">
-        <v>449</v>
+        <v>154</v>
       </c>
       <c r="H106" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="I106" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="J106">
+        <v>3</v>
+      </c>
+      <c r="K106" t="s">
+        <v>241</v>
+      </c>
+      <c r="L106" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" t="s">
+        <v>210</v>
+      </c>
+      <c r="C107" t="s">
+        <v>462</v>
+      </c>
+      <c r="D107" t="s">
+        <v>342</v>
+      </c>
+      <c r="E107" t="s">
+        <v>465</v>
+      </c>
+      <c r="F107" t="s">
+        <v>531</v>
+      </c>
+      <c r="G107" t="s">
+        <v>415</v>
+      </c>
+      <c r="H107" t="s">
+        <v>338</v>
+      </c>
+      <c r="I107" t="s">
+        <v>330</v>
+      </c>
+      <c r="J107">
+        <v>8</v>
+      </c>
+      <c r="K107" t="s">
+        <v>553</v>
+      </c>
+      <c r="L107" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>209</v>
+      </c>
+      <c r="B108" t="s">
+        <v>209</v>
+      </c>
+      <c r="C108" t="s">
+        <v>462</v>
+      </c>
+      <c r="D108" t="s">
+        <v>341</v>
+      </c>
+      <c r="E108" t="s">
+        <v>464</v>
+      </c>
+      <c r="F108" t="s">
+        <v>531</v>
+      </c>
+      <c r="G108" t="s">
+        <v>415</v>
+      </c>
+      <c r="H108" t="s">
+        <v>338</v>
+      </c>
+      <c r="I108" t="s">
+        <v>330</v>
+      </c>
+      <c r="J108">
+        <v>7</v>
+      </c>
+      <c r="K108" t="s">
+        <v>553</v>
+      </c>
+      <c r="L108" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>213</v>
+      </c>
+      <c r="B109" t="s">
+        <v>213</v>
+      </c>
+      <c r="C109" t="s">
+        <v>462</v>
+      </c>
+      <c r="D109" t="s">
+        <v>343</v>
+      </c>
+      <c r="E109" t="s">
+        <v>467</v>
+      </c>
+      <c r="F109" t="s">
+        <v>531</v>
+      </c>
+      <c r="G109" t="s">
+        <v>415</v>
+      </c>
+      <c r="H109" t="s">
+        <v>338</v>
+      </c>
+      <c r="I109" t="s">
+        <v>330</v>
+      </c>
+      <c r="J109">
+        <v>9</v>
+      </c>
+      <c r="K109" t="s">
+        <v>214</v>
+      </c>
+      <c r="L109" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>215</v>
+      </c>
+      <c r="B110" t="s">
+        <v>215</v>
+      </c>
+      <c r="C110" t="s">
+        <v>462</v>
+      </c>
+      <c r="D110" t="s">
+        <v>349</v>
+      </c>
+      <c r="E110" t="s">
+        <v>467</v>
+      </c>
+      <c r="F110" t="s">
+        <v>531</v>
+      </c>
+      <c r="G110" t="s">
+        <v>415</v>
+      </c>
+      <c r="H110" t="s">
+        <v>347</v>
+      </c>
+      <c r="I110" t="s">
+        <v>330</v>
+      </c>
+      <c r="J110">
+        <v>4</v>
+      </c>
+      <c r="K110" t="s">
+        <v>214</v>
+      </c>
+      <c r="L110" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>211</v>
+      </c>
+      <c r="B111" t="s">
+        <v>211</v>
+      </c>
+      <c r="C111" t="s">
+        <v>462</v>
+      </c>
+      <c r="D111" t="s">
+        <v>344</v>
+      </c>
+      <c r="E111" t="s">
+        <v>466</v>
+      </c>
+      <c r="F111" t="s">
+        <v>531</v>
+      </c>
+      <c r="G111" t="s">
+        <v>415</v>
+      </c>
+      <c r="H111" t="s">
+        <v>338</v>
+      </c>
+      <c r="I111" t="s">
+        <v>330</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111" t="s">
+        <v>212</v>
+      </c>
+      <c r="L111" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>205</v>
+      </c>
+      <c r="B112" t="s">
+        <v>205</v>
+      </c>
+      <c r="C112" t="s">
+        <v>462</v>
+      </c>
+      <c r="D112" t="s">
+        <v>389</v>
+      </c>
+      <c r="E112" t="s">
+        <v>463</v>
+      </c>
+      <c r="F112" t="s">
+        <v>531</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="H112" t="s">
+        <v>338</v>
+      </c>
+      <c r="I112" t="s">
+        <v>330</v>
+      </c>
+      <c r="K112" t="s">
+        <v>206</v>
+      </c>
+      <c r="L112" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>203</v>
+      </c>
+      <c r="B113" t="s">
+        <v>203</v>
+      </c>
+      <c r="C113" t="s">
+        <v>462</v>
+      </c>
+      <c r="D113" t="s">
+        <v>360</v>
+      </c>
+      <c r="E113" t="s">
+        <v>461</v>
+      </c>
+      <c r="F113" t="s">
+        <v>531</v>
+      </c>
+      <c r="G113" t="s">
+        <v>415</v>
+      </c>
+      <c r="H113" t="s">
+        <v>338</v>
+      </c>
+      <c r="I113" t="s">
+        <v>330</v>
+      </c>
+      <c r="K113" t="s">
+        <v>204</v>
+      </c>
+      <c r="L113" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>384</v>
+      </c>
+      <c r="B114" t="s">
+        <v>316</v>
+      </c>
+      <c r="C114" t="s">
+        <v>317</v>
+      </c>
+      <c r="D114" t="s">
+        <v>318</v>
+      </c>
+      <c r="E114" t="s">
+        <v>519</v>
+      </c>
+      <c r="F114" t="s">
+        <v>64</v>
+      </c>
+      <c r="G114" t="s">
+        <v>319</v>
+      </c>
+      <c r="H114" t="s">
+        <v>331</v>
+      </c>
+      <c r="I114" t="s">
+        <v>332</v>
+      </c>
+      <c r="K114" t="s">
+        <v>59</v>
+      </c>
+      <c r="L114" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>189</v>
+      </c>
+      <c r="B115" t="s">
+        <v>189</v>
+      </c>
+      <c r="C115" t="s">
+        <v>443</v>
+      </c>
+      <c r="D115" t="s">
+        <v>358</v>
+      </c>
+      <c r="E115" t="s">
+        <v>547</v>
+      </c>
+      <c r="F115" t="s">
+        <v>527</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="H115" t="s">
+        <v>355</v>
+      </c>
+      <c r="I115" t="s">
+        <v>345</v>
+      </c>
+      <c r="J115">
         <v>2</v>
       </c>
-      <c r="K106" t="s">
-        <v>224</v>
-      </c>
-      <c r="L106" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>229</v>
-      </c>
-      <c r="B107" t="s">
-        <v>229</v>
-      </c>
-      <c r="C107" t="s">
-        <v>506</v>
-      </c>
-      <c r="D107" t="s">
-        <v>508</v>
-      </c>
-      <c r="E107" t="s">
-        <v>509</v>
-      </c>
-      <c r="F107" t="s">
-        <v>578</v>
-      </c>
-      <c r="G107" t="s">
-        <v>449</v>
-      </c>
-      <c r="H107" t="s">
-        <v>363</v>
-      </c>
-      <c r="I107" t="s">
-        <v>362</v>
-      </c>
-      <c r="K107" t="s">
-        <v>230</v>
-      </c>
-      <c r="L107" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="K115" t="s">
+        <v>190</v>
+      </c>
+      <c r="L115" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>199</v>
+      </c>
+      <c r="B116" t="s">
+        <v>199</v>
+      </c>
+      <c r="C116" t="s">
+        <v>443</v>
+      </c>
+      <c r="D116" t="s">
+        <v>353</v>
+      </c>
+      <c r="E116" t="s">
+        <v>547</v>
+      </c>
+      <c r="F116" t="s">
+        <v>520</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="H116" t="s">
+        <v>347</v>
+      </c>
+      <c r="I116" t="s">
+        <v>345</v>
+      </c>
+      <c r="J116">
+        <v>2</v>
+      </c>
+      <c r="K116" t="s">
+        <v>200</v>
+      </c>
+      <c r="L116" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>264</v>
+      </c>
+      <c r="B117" t="s">
+        <v>265</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" t="s">
+        <v>266</v>
+      </c>
+      <c r="E117" t="s">
         <v>267</v>
       </c>
-      <c r="B108" t="s">
-        <v>267</v>
-      </c>
-      <c r="C108" t="s">
-        <v>169</v>
-      </c>
-      <c r="D108" t="s">
-        <v>361</v>
-      </c>
-      <c r="E108" t="s">
-        <v>537</v>
-      </c>
-      <c r="F108" t="s">
-        <v>529</v>
-      </c>
-      <c r="G108" t="s">
-        <v>173</v>
-      </c>
-      <c r="H108" t="s">
-        <v>363</v>
-      </c>
-      <c r="I108" t="s">
-        <v>362</v>
-      </c>
-      <c r="J108">
-        <v>3</v>
-      </c>
-      <c r="K108" t="s">
+      <c r="F117" t="s">
+        <v>256</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
+      <c r="H117" t="s">
+        <v>331</v>
+      </c>
+      <c r="I117" t="s">
+        <v>332</v>
+      </c>
+      <c r="K117" t="s">
         <v>268</v>
       </c>
-      <c r="L108" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>233</v>
-      </c>
-      <c r="B109" t="s">
-        <v>233</v>
-      </c>
-      <c r="C109" t="s">
-        <v>506</v>
-      </c>
-      <c r="D109" t="s">
-        <v>375</v>
-      </c>
-      <c r="E109" t="s">
-        <v>511</v>
-      </c>
-      <c r="F109" t="s">
-        <v>578</v>
-      </c>
-      <c r="G109" t="s">
-        <v>449</v>
-      </c>
-      <c r="H109" t="s">
-        <v>371</v>
-      </c>
-      <c r="I109" t="s">
-        <v>362</v>
-      </c>
-      <c r="J109">
-        <v>8</v>
-      </c>
-      <c r="K109" t="s">
-        <v>232</v>
-      </c>
-      <c r="L109" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>231</v>
-      </c>
-      <c r="B110" t="s">
-        <v>231</v>
-      </c>
-      <c r="C110" t="s">
-        <v>506</v>
-      </c>
-      <c r="D110" t="s">
-        <v>374</v>
-      </c>
-      <c r="E110" t="s">
-        <v>510</v>
-      </c>
-      <c r="F110" t="s">
-        <v>578</v>
-      </c>
-      <c r="G110" t="s">
-        <v>449</v>
-      </c>
-      <c r="H110" t="s">
-        <v>371</v>
-      </c>
-      <c r="I110" t="s">
-        <v>362</v>
-      </c>
-      <c r="J110">
-        <v>7</v>
-      </c>
-      <c r="K110" t="s">
-        <v>232</v>
-      </c>
-      <c r="L110" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>236</v>
-      </c>
-      <c r="B111" t="s">
-        <v>236</v>
-      </c>
-      <c r="C111" t="s">
-        <v>506</v>
-      </c>
-      <c r="D111" t="s">
-        <v>376</v>
-      </c>
-      <c r="E111" t="s">
-        <v>513</v>
-      </c>
-      <c r="F111" t="s">
-        <v>578</v>
-      </c>
-      <c r="G111" t="s">
-        <v>449</v>
-      </c>
-      <c r="H111" t="s">
-        <v>371</v>
-      </c>
-      <c r="I111" t="s">
-        <v>362</v>
-      </c>
-      <c r="J111">
-        <v>9</v>
-      </c>
-      <c r="K111" t="s">
-        <v>237</v>
-      </c>
-      <c r="L111" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>238</v>
-      </c>
-      <c r="B112" t="s">
-        <v>238</v>
-      </c>
-      <c r="C112" t="s">
-        <v>506</v>
-      </c>
-      <c r="D112" t="s">
-        <v>382</v>
-      </c>
-      <c r="E112" t="s">
-        <v>513</v>
-      </c>
-      <c r="F112" t="s">
-        <v>578</v>
-      </c>
-      <c r="G112" t="s">
-        <v>449</v>
-      </c>
-      <c r="H112" t="s">
-        <v>380</v>
-      </c>
-      <c r="I112" t="s">
-        <v>362</v>
-      </c>
-      <c r="J112">
-        <v>4</v>
-      </c>
-      <c r="K112" t="s">
-        <v>237</v>
-      </c>
-      <c r="L112" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>234</v>
-      </c>
-      <c r="B113" t="s">
-        <v>234</v>
-      </c>
-      <c r="C113" t="s">
-        <v>506</v>
-      </c>
-      <c r="D113" t="s">
-        <v>377</v>
-      </c>
-      <c r="E113" t="s">
-        <v>512</v>
-      </c>
-      <c r="F113" t="s">
-        <v>578</v>
-      </c>
-      <c r="G113" t="s">
-        <v>449</v>
-      </c>
-      <c r="H113" t="s">
-        <v>371</v>
-      </c>
-      <c r="I113" t="s">
-        <v>362</v>
-      </c>
-      <c r="J113">
-        <v>10</v>
-      </c>
-      <c r="K113" t="s">
-        <v>235</v>
-      </c>
-      <c r="L113" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>227</v>
-      </c>
-      <c r="B114" t="s">
-        <v>227</v>
-      </c>
-      <c r="C114" t="s">
-        <v>506</v>
-      </c>
-      <c r="D114" t="s">
-        <v>423</v>
-      </c>
-      <c r="E114" t="s">
-        <v>507</v>
-      </c>
-      <c r="F114" t="s">
-        <v>578</v>
-      </c>
-      <c r="G114" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="H114" t="s">
-        <v>371</v>
-      </c>
-      <c r="I114" t="s">
-        <v>362</v>
-      </c>
-      <c r="K114" t="s">
-        <v>228</v>
-      </c>
-      <c r="L114" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>225</v>
-      </c>
-      <c r="B115" t="s">
-        <v>225</v>
-      </c>
-      <c r="C115" t="s">
-        <v>506</v>
-      </c>
-      <c r="D115" t="s">
-        <v>394</v>
-      </c>
-      <c r="E115" t="s">
-        <v>505</v>
-      </c>
-      <c r="F115" t="s">
-        <v>578</v>
-      </c>
-      <c r="G115" t="s">
-        <v>449</v>
-      </c>
-      <c r="H115" t="s">
-        <v>371</v>
-      </c>
-      <c r="I115" t="s">
-        <v>362</v>
-      </c>
-      <c r="K115" t="s">
-        <v>226</v>
-      </c>
-      <c r="L115" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>418</v>
-      </c>
-      <c r="B116" t="s">
-        <v>348</v>
-      </c>
-      <c r="C116" t="s">
-        <v>349</v>
-      </c>
-      <c r="D116" t="s">
-        <v>350</v>
-      </c>
-      <c r="E116" t="s">
-        <v>566</v>
-      </c>
-      <c r="F116" t="s">
-        <v>68</v>
-      </c>
-      <c r="G116" t="s">
-        <v>351</v>
-      </c>
-      <c r="H116" t="s">
-        <v>363</v>
-      </c>
-      <c r="I116" t="s">
-        <v>364</v>
-      </c>
-      <c r="K116" t="s">
-        <v>63</v>
-      </c>
-      <c r="L116" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>210</v>
-      </c>
-      <c r="B117" t="s">
-        <v>210</v>
-      </c>
-      <c r="C117" t="s">
-        <v>478</v>
-      </c>
-      <c r="D117" t="s">
-        <v>392</v>
-      </c>
-      <c r="E117" t="s">
-        <v>499</v>
-      </c>
-      <c r="F117" t="s">
-        <v>574</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="H117" t="s">
-        <v>388</v>
-      </c>
-      <c r="I117" t="s">
-        <v>378</v>
-      </c>
-      <c r="J117">
-        <v>2</v>
-      </c>
-      <c r="K117" t="s">
-        <v>211</v>
-      </c>
-      <c r="L117" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="B118" t="s">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="C118" t="s">
-        <v>478</v>
+        <v>12</v>
       </c>
       <c r="D118" t="s">
-        <v>386</v>
+        <v>271</v>
       </c>
       <c r="E118" t="s">
-        <v>499</v>
+        <v>272</v>
       </c>
       <c r="F118" t="s">
-        <v>567</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>577</v>
+        <v>256</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
       </c>
       <c r="H118" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="I118" t="s">
-        <v>378</v>
+        <v>332</v>
       </c>
       <c r="J118">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="K118" t="s">
-        <v>222</v>
-      </c>
-      <c r="L118" t="s">
-        <v>576</v>
+        <v>268</v>
       </c>
     </row>
     <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="B119" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="C119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" t="s">
+        <v>275</v>
+      </c>
+      <c r="E119" t="s">
+        <v>276</v>
+      </c>
+      <c r="F119" t="s">
+        <v>256</v>
+      </c>
+      <c r="G119" t="s">
         <v>13</v>
       </c>
-      <c r="D119" t="s">
-        <v>296</v>
-      </c>
-      <c r="E119" t="s">
-        <v>297</v>
-      </c>
-      <c r="F119" t="s">
-        <v>286</v>
-      </c>
-      <c r="G119" t="s">
-        <v>14</v>
-      </c>
-      <c r="H119" t="s">
-        <v>363</v>
-      </c>
-      <c r="I119" t="s">
-        <v>364</v>
-      </c>
       <c r="K119" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
     </row>
     <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>299</v>
+        <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" t="s">
+        <v>56</v>
+      </c>
+      <c r="E120" t="s">
+        <v>57</v>
+      </c>
+      <c r="F120" t="s">
+        <v>58</v>
+      </c>
+      <c r="G120" t="s">
         <v>13</v>
       </c>
-      <c r="D120" t="s">
-        <v>301</v>
-      </c>
-      <c r="E120" t="s">
-        <v>302</v>
-      </c>
-      <c r="F120" t="s">
-        <v>286</v>
-      </c>
-      <c r="G120" t="s">
-        <v>14</v>
-      </c>
       <c r="H120" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I120" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="J120">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K120" t="s">
-        <v>298</v>
+        <v>59</v>
       </c>
     </row>
     <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>303</v>
+        <v>60</v>
       </c>
       <c r="B121" t="s">
-        <v>304</v>
+        <v>61</v>
       </c>
       <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" t="s">
+        <v>62</v>
+      </c>
+      <c r="E121" t="s">
+        <v>63</v>
+      </c>
+      <c r="F121" t="s">
+        <v>64</v>
+      </c>
+      <c r="G121" t="s">
         <v>13</v>
       </c>
-      <c r="D121" t="s">
-        <v>305</v>
-      </c>
-      <c r="E121" t="s">
-        <v>306</v>
-      </c>
-      <c r="F121" t="s">
-        <v>286</v>
-      </c>
-      <c r="G121" t="s">
-        <v>14</v>
+      <c r="H121" t="s">
+        <v>331</v>
+      </c>
+      <c r="I121" t="s">
+        <v>332</v>
       </c>
       <c r="K121" t="s">
-        <v>298</v>
+        <v>59</v>
       </c>
     </row>
     <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B122" t="s">
+        <v>66</v>
+      </c>
+      <c r="C122" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" t="s">
+        <v>67</v>
+      </c>
+      <c r="E122" t="s">
+        <v>68</v>
+      </c>
+      <c r="F122" t="s">
+        <v>64</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
+      <c r="H122" t="s">
+        <v>331</v>
+      </c>
+      <c r="I122" t="s">
+        <v>332</v>
+      </c>
+      <c r="J122">
+        <v>3</v>
+      </c>
+      <c r="K122" t="s">
         <v>59</v>
-      </c>
-      <c r="C122" t="s">
-        <v>13</v>
-      </c>
-      <c r="D122" t="s">
-        <v>60</v>
-      </c>
-      <c r="E122" t="s">
-        <v>61</v>
-      </c>
-      <c r="F122" t="s">
-        <v>62</v>
-      </c>
-      <c r="G122" t="s">
-        <v>14</v>
-      </c>
-      <c r="H122" t="s">
-        <v>363</v>
-      </c>
-      <c r="I122" t="s">
-        <v>364</v>
-      </c>
-      <c r="J122">
-        <v>15</v>
-      </c>
-      <c r="K122" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>69</v>
+      </c>
+      <c r="B123" t="s">
+        <v>70</v>
+      </c>
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" t="s">
+        <v>71</v>
+      </c>
+      <c r="E123" t="s">
+        <v>72</v>
+      </c>
+      <c r="F123" t="s">
         <v>64</v>
       </c>
-      <c r="B123" t="s">
-        <v>65</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="G123" t="s">
         <v>13</v>
       </c>
-      <c r="D123" t="s">
-        <v>66</v>
-      </c>
-      <c r="E123" t="s">
-        <v>67</v>
-      </c>
-      <c r="F123" t="s">
-        <v>68</v>
-      </c>
-      <c r="G123" t="s">
-        <v>14</v>
-      </c>
       <c r="H123" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I123" t="s">
-        <v>364</v>
+        <v>332</v>
+      </c>
+      <c r="J123">
+        <v>4</v>
       </c>
       <c r="K123" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B124" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C124" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" t="s">
+        <v>75</v>
+      </c>
+      <c r="E124" t="s">
+        <v>76</v>
+      </c>
+      <c r="F124" t="s">
+        <v>64</v>
+      </c>
+      <c r="G124" t="s">
         <v>13</v>
       </c>
-      <c r="D124" t="s">
-        <v>71</v>
-      </c>
-      <c r="E124" t="s">
-        <v>72</v>
-      </c>
-      <c r="F124" t="s">
-        <v>68</v>
-      </c>
-      <c r="G124" t="s">
-        <v>14</v>
-      </c>
       <c r="H124" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I124" t="s">
-        <v>364</v>
-      </c>
-      <c r="J124">
-        <v>3</v>
+        <v>332</v>
       </c>
       <c r="K124" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B125" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C125" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" t="s">
+        <v>79</v>
+      </c>
+      <c r="E125" t="s">
+        <v>80</v>
+      </c>
+      <c r="F125" t="s">
+        <v>64</v>
+      </c>
+      <c r="G125" t="s">
         <v>13</v>
       </c>
-      <c r="D125" t="s">
-        <v>75</v>
-      </c>
-      <c r="E125" t="s">
-        <v>76</v>
-      </c>
-      <c r="F125" t="s">
-        <v>68</v>
-      </c>
-      <c r="G125" t="s">
-        <v>14</v>
-      </c>
       <c r="H125" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I125" t="s">
-        <v>364</v>
-      </c>
-      <c r="J125">
-        <v>4</v>
+        <v>332</v>
       </c>
       <c r="K125" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B126" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C126" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" t="s">
+        <v>83</v>
+      </c>
+      <c r="E126" t="s">
+        <v>84</v>
+      </c>
+      <c r="F126" t="s">
+        <v>64</v>
+      </c>
+      <c r="G126" t="s">
         <v>13</v>
       </c>
-      <c r="D126" t="s">
-        <v>79</v>
-      </c>
-      <c r="E126" t="s">
-        <v>80</v>
-      </c>
-      <c r="F126" t="s">
-        <v>68</v>
-      </c>
-      <c r="G126" t="s">
-        <v>14</v>
-      </c>
       <c r="H126" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I126" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="K126" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B127" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C127" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" t="s">
+        <v>87</v>
+      </c>
+      <c r="E127" t="s">
+        <v>88</v>
+      </c>
+      <c r="F127" t="s">
+        <v>64</v>
+      </c>
+      <c r="G127" t="s">
         <v>13</v>
       </c>
-      <c r="D127" t="s">
-        <v>83</v>
-      </c>
-      <c r="E127" t="s">
-        <v>84</v>
-      </c>
-      <c r="F127" t="s">
-        <v>68</v>
-      </c>
-      <c r="G127" t="s">
-        <v>14</v>
-      </c>
       <c r="H127" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I127" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="K127" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B128" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C128" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" t="s">
+        <v>91</v>
+      </c>
+      <c r="E128" t="s">
+        <v>92</v>
+      </c>
+      <c r="F128" t="s">
+        <v>64</v>
+      </c>
+      <c r="G128" t="s">
         <v>13</v>
       </c>
-      <c r="D128" t="s">
-        <v>87</v>
-      </c>
-      <c r="E128" t="s">
-        <v>88</v>
-      </c>
-      <c r="F128" t="s">
-        <v>68</v>
-      </c>
-      <c r="G128" t="s">
-        <v>14</v>
-      </c>
       <c r="H128" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I128" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="K128" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B129" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C129" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" t="s">
+        <v>95</v>
+      </c>
+      <c r="E129" t="s">
+        <v>96</v>
+      </c>
+      <c r="F129" t="s">
+        <v>64</v>
+      </c>
+      <c r="G129" t="s">
         <v>13</v>
       </c>
-      <c r="D129" t="s">
-        <v>91</v>
-      </c>
-      <c r="E129" t="s">
-        <v>92</v>
-      </c>
-      <c r="F129" t="s">
-        <v>68</v>
-      </c>
-      <c r="G129" t="s">
-        <v>14</v>
-      </c>
       <c r="H129" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I129" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="K129" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B130" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" t="s">
+        <v>99</v>
+      </c>
+      <c r="E130" t="s">
+        <v>100</v>
+      </c>
+      <c r="F130" t="s">
+        <v>64</v>
+      </c>
+      <c r="G130" t="s">
         <v>13</v>
       </c>
-      <c r="D130" t="s">
-        <v>95</v>
-      </c>
-      <c r="E130" t="s">
-        <v>96</v>
-      </c>
-      <c r="F130" t="s">
-        <v>68</v>
-      </c>
-      <c r="G130" t="s">
-        <v>14</v>
-      </c>
       <c r="H130" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I130" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="K130" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B131" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C131" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" t="s">
+        <v>103</v>
+      </c>
+      <c r="E131" t="s">
+        <v>104</v>
+      </c>
+      <c r="F131" t="s">
+        <v>64</v>
+      </c>
+      <c r="G131" t="s">
         <v>13</v>
       </c>
-      <c r="D131" t="s">
-        <v>99</v>
-      </c>
-      <c r="E131" t="s">
-        <v>100</v>
-      </c>
-      <c r="F131" t="s">
-        <v>68</v>
-      </c>
-      <c r="G131" t="s">
-        <v>14</v>
-      </c>
       <c r="H131" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I131" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="K131" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="C132" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" t="s">
+        <v>137</v>
+      </c>
+      <c r="E132" t="s">
+        <v>138</v>
+      </c>
+      <c r="F132" t="s">
+        <v>50</v>
+      </c>
+      <c r="G132" t="s">
         <v>13</v>
       </c>
-      <c r="D132" t="s">
-        <v>103</v>
-      </c>
-      <c r="E132" t="s">
-        <v>104</v>
-      </c>
-      <c r="F132" t="s">
-        <v>68</v>
-      </c>
-      <c r="G132" t="s">
-        <v>14</v>
-      </c>
       <c r="H132" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="I132" t="s">
-        <v>364</v>
-      </c>
-      <c r="K132" t="s">
-        <v>63</v>
+        <v>332</v>
       </c>
     </row>
     <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>105</v>
+        <v>496</v>
       </c>
       <c r="B133" t="s">
-        <v>106</v>
+        <v>496</v>
       </c>
       <c r="C133" t="s">
-        <v>13</v>
+        <v>443</v>
       </c>
       <c r="D133" t="s">
-        <v>107</v>
+        <v>494</v>
       </c>
       <c r="E133" t="s">
-        <v>108</v>
+        <v>495</v>
       </c>
       <c r="F133" t="s">
-        <v>68</v>
-      </c>
-      <c r="G133" t="s">
-        <v>14</v>
+        <v>527</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="H133" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="I133" t="s">
-        <v>364</v>
-      </c>
-      <c r="K133" t="s">
-        <v>63</v>
+        <v>345</v>
+      </c>
+      <c r="J133">
+        <v>3</v>
+      </c>
+      <c r="L133" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="I134" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="J134" s="5">
+        <v>1</v>
+      </c>
+      <c r="K134" s="5"/>
+      <c r="L134" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>504</v>
+      </c>
+      <c r="B135" t="s">
+        <v>504</v>
+      </c>
+      <c r="C135" t="s">
+        <v>505</v>
+      </c>
+      <c r="D135" t="s">
+        <v>506</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="F135" t="s">
         <v>153</v>
       </c>
-      <c r="B134" t="s">
-        <v>154</v>
-      </c>
-      <c r="C134" t="s">
-        <v>13</v>
-      </c>
-      <c r="D134" t="s">
-        <v>155</v>
-      </c>
-      <c r="E134" t="s">
-        <v>156</v>
-      </c>
-      <c r="F134" t="s">
-        <v>53</v>
-      </c>
-      <c r="G134" t="s">
-        <v>14</v>
-      </c>
-      <c r="H134" t="s">
-        <v>363</v>
-      </c>
-      <c r="I134" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>542</v>
-      </c>
-      <c r="B135" t="s">
-        <v>542</v>
-      </c>
-      <c r="C135" t="s">
-        <v>478</v>
-      </c>
-      <c r="D135" t="s">
-        <v>540</v>
-      </c>
-      <c r="E135" t="s">
-        <v>541</v>
-      </c>
-      <c r="F135" t="s">
-        <v>574</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>577</v>
-      </c>
       <c r="H135" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="I135" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="J135">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="G136" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="H136" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="I136" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="J136" s="5">
-        <v>1</v>
-      </c>
-      <c r="K136" s="5"/>
-      <c r="L136" s="5" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>550</v>
-      </c>
-      <c r="B137" t="s">
-        <v>550</v>
-      </c>
-      <c r="C137" t="s">
-        <v>551</v>
-      </c>
-      <c r="D137" t="s">
-        <v>552</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="F137" t="s">
-        <v>172</v>
-      </c>
-      <c r="H137" t="s">
-        <v>388</v>
-      </c>
-      <c r="I137" t="s">
-        <v>378</v>
-      </c>
-      <c r="J137">
-        <v>0</v>
-      </c>
-      <c r="L137" t="s">
-        <v>559</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L137" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:L135" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="FAO"/>
-        <filter val="HD Chief Economist Office"/>
-        <filter val="ILO"/>
-        <filter val="UIS"/>
-        <filter val="UN"/>
-        <filter val="UNESCO"/>
-        <filter val="UNHCR"/>
         <filter val="WDI"/>
-        <filter val="WHO"/>
         <filter val="World Bank DataBank"/>
       </filters>
     </filterColumn>
@@ -6956,7 +6899,7 @@
       <formula1>1</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B123:B130 B132 B134 B69 A2:A217" xr:uid="{C9CEA4D8-9D09-46A7-AFBC-6B7076AE134A}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B121:B128 B130 B132 B69 A2:A215" xr:uid="{C9CEA4D8-9D09-46A7-AFBC-6B7076AE134A}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
@@ -6968,9 +6911,9 @@
     <hyperlink ref="G51" r:id="rId4" xr:uid="{33ABC5F7-45E0-4703-ADE7-FD5BE84A6C85}"/>
     <hyperlink ref="G26" r:id="rId5" xr:uid="{28FA960A-1B0F-4F36-AB25-3065353EBB96}"/>
     <hyperlink ref="G67" r:id="rId6" xr:uid="{AA81982C-4488-4D0A-9FD0-D28A5532BDB6}"/>
-    <hyperlink ref="G124:G128" r:id="rId7" display="http://sdg4-data.uis.unesco.org/" xr:uid="{58D543BA-AA31-46B7-9D51-23E366CBECFA}"/>
+    <hyperlink ref="G122:G126" r:id="rId7" display="http://sdg4-data.uis.unesco.org/" xr:uid="{58D543BA-AA31-46B7-9D51-23E366CBECFA}"/>
     <hyperlink ref="G82" r:id="rId8" xr:uid="{E5444A53-A5ED-43B0-A996-1EEFCF0EBC2B}"/>
-    <hyperlink ref="G136" r:id="rId9" xr:uid="{30556D34-7A52-4A25-AE71-8D81DA199009}"/>
+    <hyperlink ref="G134" r:id="rId9" xr:uid="{30556D34-7A52-4A25-AE71-8D81DA199009}"/>
     <hyperlink ref="G41" r:id="rId10" xr:uid="{79265DDE-6A41-4907-9981-CC79AE247B48}"/>
     <hyperlink ref="G14" r:id="rId11" xr:uid="{9909B422-45A8-4627-8430-D53FECADEE8B}"/>
     <hyperlink ref="G45" r:id="rId12" xr:uid="{4223E1D3-2634-4817-9EFA-3F96BE143230}"/>
@@ -6978,19 +6921,19 @@
     <hyperlink ref="G23" r:id="rId14" xr:uid="{40D76283-D72C-4222-8FB8-B4531115EFAD}"/>
     <hyperlink ref="G15" r:id="rId15" xr:uid="{68FDFCA9-FB4B-4EED-8D4C-E6016B9042C3}"/>
     <hyperlink ref="G62" r:id="rId16" xr:uid="{EA923F37-55CE-4483-A9E1-D5A1042DB662}"/>
-    <hyperlink ref="G98" r:id="rId17" xr:uid="{E5ED0119-33A0-4A2E-829E-695F316B42BF}"/>
-    <hyperlink ref="G104" r:id="rId18" xr:uid="{18725DBC-CEF7-41D2-A3A0-584402339517}"/>
-    <hyperlink ref="G114" r:id="rId19" xr:uid="{EF925FB2-6739-43AB-8855-E2EE921CDDC2}"/>
-    <hyperlink ref="G35" r:id="rId20" location="data/FS" xr:uid="{5F9C3D01-1651-4CED-B521-805E8377CE91}"/>
-    <hyperlink ref="G32" r:id="rId21" xr:uid="{C1C72C59-4314-4E0C-AB2C-2EE2647B2CAE}"/>
-    <hyperlink ref="G22" r:id="rId22" xr:uid="{7C72DE4F-1122-4854-B0B8-1CCCAB758AA0}"/>
-    <hyperlink ref="G27" r:id="rId23" xr:uid="{60C9512B-9CD3-4065-BDF8-B1BA7F629A67}"/>
-    <hyperlink ref="G31" r:id="rId24" xr:uid="{C69028E6-F247-48D6-9C13-CD3008B01D8F}"/>
-    <hyperlink ref="G60" r:id="rId25" xr:uid="{9120E52F-82B9-40C7-9692-9A5C5F409B85}"/>
-    <hyperlink ref="G64" r:id="rId26" xr:uid="{51E79296-DC56-40FA-BAD5-1ADF754BB6EC}"/>
-    <hyperlink ref="G88" r:id="rId27" xr:uid="{CF960F6A-5842-42A3-B06B-8B4A326BC6AE}"/>
-    <hyperlink ref="G40" r:id="rId28" xr:uid="{230F680F-91A8-43CF-BE1E-804AC0A780D6}"/>
-    <hyperlink ref="G90" r:id="rId29" xr:uid="{AC7ED0C4-5E12-4C6E-A2FF-A7E4FA2ECE49}"/>
+    <hyperlink ref="G102" r:id="rId17" xr:uid="{18725DBC-CEF7-41D2-A3A0-584402339517}"/>
+    <hyperlink ref="G112" r:id="rId18" xr:uid="{EF925FB2-6739-43AB-8855-E2EE921CDDC2}"/>
+    <hyperlink ref="G35" r:id="rId19" location="data/FS" xr:uid="{5F9C3D01-1651-4CED-B521-805E8377CE91}"/>
+    <hyperlink ref="G32" r:id="rId20" xr:uid="{C1C72C59-4314-4E0C-AB2C-2EE2647B2CAE}"/>
+    <hyperlink ref="G22" r:id="rId21" xr:uid="{7C72DE4F-1122-4854-B0B8-1CCCAB758AA0}"/>
+    <hyperlink ref="G27" r:id="rId22" xr:uid="{60C9512B-9CD3-4065-BDF8-B1BA7F629A67}"/>
+    <hyperlink ref="G31" r:id="rId23" xr:uid="{C69028E6-F247-48D6-9C13-CD3008B01D8F}"/>
+    <hyperlink ref="G60" r:id="rId24" xr:uid="{9120E52F-82B9-40C7-9692-9A5C5F409B85}"/>
+    <hyperlink ref="G64" r:id="rId25" xr:uid="{51E79296-DC56-40FA-BAD5-1ADF754BB6EC}"/>
+    <hyperlink ref="G88" r:id="rId26" xr:uid="{CF960F6A-5842-42A3-B06B-8B4A326BC6AE}"/>
+    <hyperlink ref="G40" r:id="rId27" xr:uid="{230F680F-91A8-43CF-BE1E-804AC0A780D6}"/>
+    <hyperlink ref="G90" r:id="rId28" xr:uid="{AC7ED0C4-5E12-4C6E-A2FF-A7E4FA2ECE49}"/>
+    <hyperlink ref="G96" r:id="rId29" xr:uid="{7A672DF1-0ECC-4DA1-82ED-2E4732F293E5}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>

--- a/Data/Data_Raw/Country codes & metadata/metadata.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687F62C5-6AAD-4859-96CE-562268A160BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{687F62C5-6AAD-4859-96CE-562268A160BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6E4BF5A-10E8-49A8-A022-38B1674F1706}"/>
   <bookViews>
-    <workbookView xWindow="18975" yWindow="8040" windowWidth="9825" windowHeight="7560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="591">
   <si>
     <t>name_portal</t>
   </si>
@@ -1574,9 +1574,6 @@
     <t>Youth unemployment (%), ages 15-24/ Unemployment, +25 (own calculation)</t>
   </si>
   <si>
-    <t>youth_adult_un</t>
-  </si>
-  <si>
     <t>ECD_CHLD_36_59M_LMPSL</t>
   </si>
   <si>
@@ -1849,6 +1846,18 @@
   </si>
   <si>
     <t>NT_CF_MMF</t>
+  </si>
+  <si>
+    <t>netenrolment_lowersec</t>
+  </si>
+  <si>
+    <t>netenrolment_prim</t>
+  </si>
+  <si>
+    <t>netenrolment_uppersec</t>
+  </si>
+  <si>
+    <t>y_a_unemp</t>
   </si>
 </sst>
 </file>
@@ -2007,6 +2016,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
+<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14"/>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2316,12 +2329,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L135"/>
+  <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C37" sqref="C37"/>
+      <selection pane="topRight" activeCell="O135" sqref="O135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2367,10 +2379,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>244</v>
       </c>
@@ -2387,7 +2399,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G2" t="s">
         <v>246</v>
@@ -2402,10 +2414,10 @@
         <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -2431,7 +2443,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -2457,7 +2469,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -2468,7 +2480,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E5" t="s">
         <v>107</v>
@@ -2486,7 +2498,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -2497,7 +2509,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E6" t="s">
         <v>110</v>
@@ -2535,7 +2547,7 @@
         <v>153</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H7" t="s">
         <v>355</v>
@@ -2547,10 +2559,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>377</v>
       </c>
@@ -2585,7 +2597,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>380</v>
       </c>
@@ -2620,7 +2632,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>378</v>
       </c>
@@ -2655,7 +2667,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>381</v>
       </c>
@@ -2690,7 +2702,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>379</v>
       </c>
@@ -2722,7 +2734,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>382</v>
       </c>
@@ -2754,7 +2766,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>419</v>
       </c>
@@ -2765,7 +2777,7 @@
         <v>404</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>420</v>
@@ -2785,7 +2797,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>374</v>
       </c>
@@ -2820,7 +2832,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>373</v>
       </c>
@@ -2852,7 +2864,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>370</v>
       </c>
@@ -2863,7 +2875,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E17" t="s">
         <v>122</v>
@@ -2884,7 +2896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>371</v>
       </c>
@@ -2895,16 +2907,16 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F18" t="s">
         <v>50</v>
       </c>
       <c r="G18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H18" t="s">
         <v>347</v>
@@ -2919,12 +2931,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>402</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>404</v>
@@ -2952,18 +2964,18 @@
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>147</v>
       </c>
       <c r="B20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E20" t="s">
         <v>148</v>
@@ -2984,7 +2996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>372</v>
       </c>
@@ -3013,7 +3025,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>188</v>
       </c>
@@ -3024,13 +3036,13 @@
         <v>443</v>
       </c>
       <c r="D22" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>536</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>537</v>
-      </c>
       <c r="F22" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>430</v>
@@ -3048,10 +3060,10 @@
         <v>184</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>247</v>
       </c>
@@ -3062,10 +3074,10 @@
         <v>248</v>
       </c>
       <c r="D23" t="s">
+        <v>547</v>
+      </c>
+      <c r="E23" t="s">
         <v>548</v>
-      </c>
-      <c r="E23" t="s">
-        <v>549</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>249</v>
@@ -3080,10 +3092,10 @@
         <v>4</v>
       </c>
       <c r="L23" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -3115,7 +3127,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -3177,10 +3189,10 @@
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>187</v>
       </c>
@@ -3191,16 +3203,16 @@
         <v>443</v>
       </c>
       <c r="D27" t="s">
+        <v>537</v>
+      </c>
+      <c r="E27" t="s">
         <v>538</v>
       </c>
-      <c r="E27" t="s">
-        <v>539</v>
-      </c>
       <c r="F27" t="s">
+        <v>520</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>521</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>522</v>
       </c>
       <c r="H27" t="s">
         <v>355</v>
@@ -3212,10 +3224,10 @@
         <v>184</v>
       </c>
       <c r="L27" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>198</v>
       </c>
@@ -3226,16 +3238,16 @@
         <v>443</v>
       </c>
       <c r="D28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E28" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F28" t="s">
+        <v>520</v>
+      </c>
+      <c r="G28" t="s">
         <v>521</v>
-      </c>
-      <c r="G28" t="s">
-        <v>522</v>
       </c>
       <c r="H28" t="s">
         <v>347</v>
@@ -3247,10 +3259,10 @@
         <v>195</v>
       </c>
       <c r="L28" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>183</v>
       </c>
@@ -3264,13 +3276,13 @@
         <v>456</v>
       </c>
       <c r="E29" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F29" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H29" t="s">
         <v>355</v>
@@ -3282,10 +3294,10 @@
         <v>184</v>
       </c>
       <c r="L29" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>194</v>
       </c>
@@ -3299,13 +3311,13 @@
         <v>459</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>347</v>
@@ -3317,10 +3329,10 @@
         <v>195</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>191</v>
       </c>
@@ -3337,10 +3349,10 @@
         <v>458</v>
       </c>
       <c r="F31" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H31" t="s">
         <v>347</v>
@@ -3355,10 +3367,10 @@
         <v>192</v>
       </c>
       <c r="L31" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>185</v>
       </c>
@@ -3375,10 +3387,10 @@
         <v>457</v>
       </c>
       <c r="F32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H32" t="s">
         <v>355</v>
@@ -3393,10 +3405,10 @@
         <v>186</v>
       </c>
       <c r="L32" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>196</v>
       </c>
@@ -3413,10 +3425,10 @@
         <v>457</v>
       </c>
       <c r="F33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G33" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H33" t="s">
         <v>347</v>
@@ -3431,7 +3443,7 @@
         <v>197</v>
       </c>
       <c r="L33" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3448,13 +3460,13 @@
         <v>156</v>
       </c>
       <c r="E34" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F34" t="s">
         <v>153</v>
       </c>
       <c r="G34" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H34" t="s">
         <v>338</v>
@@ -3469,10 +3481,10 @@
         <v>157</v>
       </c>
       <c r="L34" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>388</v>
       </c>
@@ -3504,10 +3516,10 @@
         <v>219</v>
       </c>
       <c r="L35" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>387</v>
       </c>
@@ -3539,7 +3551,7 @@
         <v>223</v>
       </c>
       <c r="L36" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3562,7 +3574,7 @@
         <v>153</v>
       </c>
       <c r="G37" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H37" t="s">
         <v>355</v>
@@ -3577,7 +3589,7 @@
         <v>169</v>
       </c>
       <c r="L37" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3600,7 +3612,7 @@
         <v>153</v>
       </c>
       <c r="G38" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H38" t="s">
         <v>355</v>
@@ -3615,7 +3627,7 @@
         <v>169</v>
       </c>
       <c r="L38" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3638,7 +3650,7 @@
         <v>153</v>
       </c>
       <c r="G39" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H39" t="s">
         <v>355</v>
@@ -3653,7 +3665,7 @@
         <v>169</v>
       </c>
       <c r="L39" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -3671,7 +3683,7 @@
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>450</v>
@@ -3687,15 +3699,15 @@
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>443</v>
@@ -3707,7 +3719,7 @@
         <v>431</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>430</v>
@@ -3723,10 +3735,10 @@
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -3752,12 +3764,12 @@
         <v>332</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -3781,7 +3793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -3807,7 +3819,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>427</v>
       </c>
@@ -3840,7 +3852,7 @@
       </c>
       <c r="K45" s="5"/>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -3851,7 +3863,7 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E46" t="s">
         <v>43</v>
@@ -3866,7 +3878,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -3877,7 +3889,7 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E47" t="s">
         <v>49</v>
@@ -3895,7 +3907,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>369</v>
       </c>
@@ -3906,7 +3918,7 @@
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E48" t="s">
         <v>52</v>
@@ -3924,7 +3936,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>383</v>
       </c>
@@ -3956,10 +3968,10 @@
         <v>6</v>
       </c>
       <c r="L49" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -3973,7 +3985,7 @@
         <v>455</v>
       </c>
       <c r="F50" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G50" t="s">
         <v>246</v>
@@ -3985,10 +3997,10 @@
         <v>345</v>
       </c>
       <c r="L50" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>398</v>
       </c>
@@ -4020,7 +4032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>292</v>
       </c>
@@ -4031,10 +4043,10 @@
         <v>288</v>
       </c>
       <c r="D52" t="s">
+        <v>554</v>
+      </c>
+      <c r="E52" t="s">
         <v>555</v>
-      </c>
-      <c r="E52" t="s">
-        <v>556</v>
       </c>
       <c r="F52" t="s">
         <v>293</v>
@@ -4052,10 +4064,10 @@
         <v>4</v>
       </c>
       <c r="L52" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -4066,7 +4078,7 @@
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E53" t="s">
         <v>115</v>
@@ -4087,7 +4099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>116</v>
       </c>
@@ -4098,7 +4110,7 @@
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E54" t="s">
         <v>118</v>
@@ -4121,7 +4133,7 @@
         <v>230</v>
       </c>
       <c r="B55" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C55" t="s">
         <v>150</v>
@@ -4133,7 +4145,7 @@
         <v>478</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G55" t="s">
         <v>154</v>
@@ -4151,7 +4163,7 @@
         <v>231</v>
       </c>
       <c r="L55" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -4159,7 +4171,7 @@
         <v>233</v>
       </c>
       <c r="B56" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C56" t="s">
         <v>150</v>
@@ -4189,7 +4201,7 @@
         <v>234</v>
       </c>
       <c r="L56" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -4197,7 +4209,7 @@
         <v>237</v>
       </c>
       <c r="B57" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C57" t="s">
         <v>150</v>
@@ -4227,7 +4239,7 @@
         <v>238</v>
       </c>
       <c r="L57" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -4235,7 +4247,7 @@
         <v>242</v>
       </c>
       <c r="B58" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C58" t="s">
         <v>150</v>
@@ -4265,7 +4277,7 @@
         <v>241</v>
       </c>
       <c r="L58" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -4273,7 +4285,7 @@
         <v>243</v>
       </c>
       <c r="B59" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C59" t="s">
         <v>150</v>
@@ -4303,10 +4315,10 @@
         <v>241</v>
       </c>
       <c r="L59" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>182</v>
       </c>
@@ -4317,16 +4329,16 @@
         <v>443</v>
       </c>
       <c r="D60" t="s">
+        <v>541</v>
+      </c>
+      <c r="E60" t="s">
         <v>542</v>
       </c>
-      <c r="E60" t="s">
-        <v>543</v>
-      </c>
       <c r="F60" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H60" t="s">
         <v>355</v>
@@ -4335,13 +4347,13 @@
         <v>345</v>
       </c>
       <c r="K60" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L60" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>193</v>
       </c>
@@ -4352,16 +4364,16 @@
         <v>443</v>
       </c>
       <c r="D61" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E61" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F61" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G61" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H61" t="s">
         <v>347</v>
@@ -4370,18 +4382,18 @@
         <v>345</v>
       </c>
       <c r="K61" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L61" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>375</v>
       </c>
       <c r="B62" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
@@ -4411,7 +4423,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>425</v>
       </c>
@@ -4444,10 +4456,10 @@
       </c>
       <c r="K63" s="5"/>
       <c r="L63" s="5" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>435</v>
       </c>
@@ -4476,10 +4488,10 @@
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>436</v>
       </c>
@@ -4508,15 +4520,15 @@
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>248</v>
@@ -4542,10 +4554,10 @@
       </c>
       <c r="K66" s="5"/>
       <c r="L66" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>434</v>
       </c>
@@ -4574,10 +4586,10 @@
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>433</v>
       </c>
@@ -4606,15 +4618,15 @@
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>248</v>
@@ -4640,10 +4652,10 @@
       </c>
       <c r="K69" s="5"/>
       <c r="L69" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>111</v>
       </c>
@@ -4654,7 +4666,7 @@
         <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E70" t="s">
         <v>112</v>
@@ -4672,7 +4684,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>119</v>
       </c>
@@ -4683,7 +4695,7 @@
         <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E71" t="s">
         <v>120</v>
@@ -4701,7 +4713,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>123</v>
       </c>
@@ -4712,7 +4724,7 @@
         <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E72" t="s">
         <v>124</v>
@@ -4730,7 +4742,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>129</v>
       </c>
@@ -4741,7 +4753,7 @@
         <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E73" t="s">
         <v>130</v>
@@ -4759,7 +4771,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>131</v>
       </c>
@@ -4770,7 +4782,7 @@
         <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E74" t="s">
         <v>132</v>
@@ -4788,7 +4800,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>367</v>
       </c>
@@ -4823,7 +4835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>368</v>
       </c>
@@ -4858,18 +4870,24 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>376</v>
       </c>
       <c r="B77" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>573</v>
+        <v>572</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" t="s">
+        <v>11</v>
       </c>
       <c r="G77" t="s">
         <v>485</v>
@@ -4907,7 +4925,7 @@
         <v>153</v>
       </c>
       <c r="G78" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H78" t="s">
         <v>331</v>
@@ -4922,10 +4940,10 @@
         <v>161</v>
       </c>
       <c r="L78" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>294</v>
       </c>
@@ -4957,10 +4975,10 @@
         <v>7</v>
       </c>
       <c r="L79" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>407</v>
       </c>
@@ -4971,7 +4989,7 @@
         <v>12</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>488</v>
@@ -4994,7 +5012,7 @@
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>125</v>
       </c>
@@ -5005,10 +5023,10 @@
         <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F81" t="s">
         <v>50</v>
@@ -5023,7 +5041,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>416</v>
       </c>
@@ -5056,10 +5074,10 @@
       </c>
       <c r="K82" s="5"/>
       <c r="L82" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>143</v>
       </c>
@@ -5088,7 +5106,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>298</v>
       </c>
@@ -5117,7 +5135,7 @@
         <v>345</v>
       </c>
       <c r="L84" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -5125,7 +5143,7 @@
         <v>385</v>
       </c>
       <c r="B85" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C85" t="s">
         <v>150</v>
@@ -5155,7 +5173,7 @@
         <v>232</v>
       </c>
       <c r="L85" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -5178,7 +5196,7 @@
         <v>153</v>
       </c>
       <c r="G86" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H86" t="s">
         <v>331</v>
@@ -5193,7 +5211,7 @@
         <v>161</v>
       </c>
       <c r="L86" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -5216,7 +5234,7 @@
         <v>153</v>
       </c>
       <c r="G87" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H87" t="s">
         <v>338</v>
@@ -5231,10 +5249,10 @@
         <v>157</v>
       </c>
       <c r="L87" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>300</v>
       </c>
@@ -5251,7 +5269,7 @@
         <v>301</v>
       </c>
       <c r="F88" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>246</v>
@@ -5266,10 +5284,10 @@
         <v>5</v>
       </c>
       <c r="L88" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>302</v>
       </c>
@@ -5286,7 +5304,7 @@
         <v>304</v>
       </c>
       <c r="F89" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G89" t="s">
         <v>249</v>
@@ -5301,7 +5319,7 @@
         <v>6</v>
       </c>
       <c r="L89" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="90" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5339,10 +5357,10 @@
         <v>229</v>
       </c>
       <c r="L90" s="13" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>139</v>
       </c>
@@ -5371,7 +5389,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>386</v>
       </c>
@@ -5382,7 +5400,7 @@
         <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E92" t="s">
         <v>251</v>
@@ -5400,7 +5418,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>386</v>
       </c>
@@ -5411,7 +5429,7 @@
         <v>12</v>
       </c>
       <c r="D93" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E93" t="s">
         <v>251</v>
@@ -5434,7 +5452,7 @@
         <v>235</v>
       </c>
       <c r="B94" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C94" t="s">
         <v>150</v>
@@ -5464,10 +5482,10 @@
         <v>157</v>
       </c>
       <c r="L94" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>365</v>
       </c>
@@ -5502,7 +5520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>133</v>
       </c>
@@ -5534,7 +5552,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>305</v>
       </c>
@@ -5566,7 +5584,7 @@
         <v>6</v>
       </c>
       <c r="L97" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -5589,7 +5607,7 @@
         <v>153</v>
       </c>
       <c r="G98" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H98" t="s">
         <v>338</v>
@@ -5604,10 +5622,10 @@
         <v>165</v>
       </c>
       <c r="L98" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>308</v>
       </c>
@@ -5639,10 +5657,10 @@
         <v>10</v>
       </c>
       <c r="L99" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>312</v>
       </c>
@@ -5674,10 +5692,10 @@
         <v>9</v>
       </c>
       <c r="L100" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>366</v>
       </c>
@@ -5714,7 +5732,7 @@
         <v>239</v>
       </c>
       <c r="B102" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C102" t="s">
         <v>150</v>
@@ -5744,7 +5762,7 @@
         <v>202</v>
       </c>
       <c r="L102" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -5752,7 +5770,7 @@
         <v>236</v>
       </c>
       <c r="B103" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C103" t="s">
         <v>150</v>
@@ -5782,10 +5800,10 @@
         <v>202</v>
       </c>
       <c r="L103" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>201</v>
       </c>
@@ -5802,7 +5820,7 @@
         <v>460</v>
       </c>
       <c r="F104" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G104" t="s">
         <v>415</v>
@@ -5820,10 +5838,10 @@
         <v>202</v>
       </c>
       <c r="L104" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>207</v>
       </c>
@@ -5834,13 +5852,13 @@
         <v>462</v>
       </c>
       <c r="D105" t="s">
+        <v>550</v>
+      </c>
+      <c r="E105" t="s">
         <v>551</v>
       </c>
-      <c r="E105" t="s">
-        <v>552</v>
-      </c>
       <c r="F105" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G105" t="s">
         <v>415</v>
@@ -5855,7 +5873,7 @@
         <v>208</v>
       </c>
       <c r="L105" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -5863,7 +5881,7 @@
         <v>240</v>
       </c>
       <c r="B106" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C106" t="s">
         <v>150</v>
@@ -5893,10 +5911,10 @@
         <v>241</v>
       </c>
       <c r="L106" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>210</v>
       </c>
@@ -5913,7 +5931,7 @@
         <v>465</v>
       </c>
       <c r="F107" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G107" t="s">
         <v>415</v>
@@ -5928,13 +5946,13 @@
         <v>8</v>
       </c>
       <c r="K107" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L107" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>209</v>
       </c>
@@ -5951,7 +5969,7 @@
         <v>464</v>
       </c>
       <c r="F108" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G108" t="s">
         <v>415</v>
@@ -5966,13 +5984,13 @@
         <v>7</v>
       </c>
       <c r="K108" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L108" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>213</v>
       </c>
@@ -5989,7 +6007,7 @@
         <v>467</v>
       </c>
       <c r="F109" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G109" t="s">
         <v>415</v>
@@ -6007,10 +6025,10 @@
         <v>214</v>
       </c>
       <c r="L109" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>215</v>
       </c>
@@ -6027,7 +6045,7 @@
         <v>467</v>
       </c>
       <c r="F110" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G110" t="s">
         <v>415</v>
@@ -6045,10 +6063,10 @@
         <v>214</v>
       </c>
       <c r="L110" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>211</v>
       </c>
@@ -6065,7 +6083,7 @@
         <v>466</v>
       </c>
       <c r="F111" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G111" t="s">
         <v>415</v>
@@ -6083,10 +6101,10 @@
         <v>212</v>
       </c>
       <c r="L111" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>205</v>
       </c>
@@ -6103,7 +6121,7 @@
         <v>463</v>
       </c>
       <c r="F112" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G112" s="8" t="s">
         <v>415</v>
@@ -6118,10 +6136,10 @@
         <v>206</v>
       </c>
       <c r="L112" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>203</v>
       </c>
@@ -6138,7 +6156,7 @@
         <v>461</v>
       </c>
       <c r="F113" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G113" t="s">
         <v>415</v>
@@ -6153,10 +6171,10 @@
         <v>204</v>
       </c>
       <c r="L113" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>384</v>
       </c>
@@ -6170,7 +6188,7 @@
         <v>318</v>
       </c>
       <c r="E114" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F114" t="s">
         <v>64</v>
@@ -6188,10 +6206,10 @@
         <v>59</v>
       </c>
       <c r="L114" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>189</v>
       </c>
@@ -6205,13 +6223,13 @@
         <v>358</v>
       </c>
       <c r="E115" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F115" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H115" t="s">
         <v>355</v>
@@ -6226,10 +6244,10 @@
         <v>190</v>
       </c>
       <c r="L115" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>199</v>
       </c>
@@ -6243,13 +6261,13 @@
         <v>353</v>
       </c>
       <c r="E116" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F116" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H116" t="s">
         <v>347</v>
@@ -6264,10 +6282,10 @@
         <v>200</v>
       </c>
       <c r="L116" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>264</v>
       </c>
@@ -6299,7 +6317,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>269</v>
       </c>
@@ -6334,7 +6352,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>273</v>
       </c>
@@ -6360,7 +6378,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>54</v>
       </c>
@@ -6395,7 +6413,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>60</v>
       </c>
@@ -6427,7 +6445,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>65</v>
       </c>
@@ -6462,7 +6480,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>69</v>
       </c>
@@ -6497,7 +6515,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>73</v>
       </c>
@@ -6529,7 +6547,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>77</v>
       </c>
@@ -6561,7 +6579,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>81</v>
       </c>
@@ -6593,7 +6611,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>85</v>
       </c>
@@ -6625,7 +6643,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>89</v>
       </c>
@@ -6657,7 +6675,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>93</v>
       </c>
@@ -6689,7 +6707,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>97</v>
       </c>
@@ -6721,7 +6739,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>101</v>
       </c>
@@ -6753,7 +6771,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>135</v>
       </c>
@@ -6782,12 +6800,12 @@
         <v>332</v>
       </c>
     </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>496</v>
+        <v>590</v>
       </c>
       <c r="B133" t="s">
-        <v>496</v>
+        <v>590</v>
       </c>
       <c r="C133" t="s">
         <v>443</v>
@@ -6799,10 +6817,10 @@
         <v>495</v>
       </c>
       <c r="F133" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H133" t="s">
         <v>347</v>
@@ -6814,10 +6832,10 @@
         <v>3</v>
       </c>
       <c r="L133" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>442</v>
       </c>
@@ -6850,24 +6868,24 @@
       </c>
       <c r="K134" s="5"/>
       <c r="L134" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>503</v>
+      </c>
+      <c r="B135" t="s">
+        <v>503</v>
+      </c>
+      <c r="C135" t="s">
         <v>504</v>
       </c>
-      <c r="B135" t="s">
-        <v>504</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>505</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" s="9" t="s">
         <v>506</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>507</v>
       </c>
       <c r="F135" t="s">
         <v>153</v>
@@ -6882,24 +6900,131 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>513</v>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>587</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136" t="s">
+        <v>11</v>
+      </c>
+      <c r="H136" t="s">
+        <v>11</v>
+      </c>
+      <c r="I136" t="s">
+        <v>11</v>
+      </c>
+      <c r="J136" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" t="s">
+        <v>11</v>
+      </c>
+      <c r="L136" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>588</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137" t="s">
+        <v>11</v>
+      </c>
+      <c r="H137" t="s">
+        <v>11</v>
+      </c>
+      <c r="I137" t="s">
+        <v>11</v>
+      </c>
+      <c r="J137" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" t="s">
+        <v>11</v>
+      </c>
+      <c r="L137" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>589</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" t="s">
+        <v>11</v>
+      </c>
+      <c r="H138" t="s">
+        <v>11</v>
+      </c>
+      <c r="I138" t="s">
+        <v>11</v>
+      </c>
+      <c r="J138" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" t="s">
+        <v>11</v>
+      </c>
+      <c r="L138" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L135" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="WDI"/>
-        <filter val="World Bank DataBank"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L135" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G53" xr:uid="{2F5F9FA7-5446-47AF-A091-DD36F3BEED45}">
       <formula1>1</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B121:B128 B130 B132 B69 A2:A215" xr:uid="{C9CEA4D8-9D09-46A7-AFBC-6B7076AE134A}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B121:B128 B130 B132:B133 B69 A2:A215" xr:uid="{C9CEA4D8-9D09-46A7-AFBC-6B7076AE134A}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>

--- a/Data/Data_Raw/Country codes & metadata/metadata.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687F62C5-6AAD-4859-96CE-562268A160BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF23F0C-10A7-420A-9C69-330B78B98D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18975" yWindow="8040" windowWidth="9825" windowHeight="7560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="616">
   <si>
     <t>name_portal</t>
   </si>
@@ -734,9 +734,6 @@
     <t>uisqutp2t3</t>
   </si>
   <si>
-    <t>unicef_diarrhoea</t>
-  </si>
-  <si>
     <t>% of children (under age 5)</t>
   </si>
   <si>
@@ -1849,6 +1846,93 @@
   </si>
   <si>
     <t>NT_CF_MMF</t>
+  </si>
+  <si>
+    <t>CR.3</t>
+  </si>
+  <si>
+    <t>GER.01</t>
+  </si>
+  <si>
+    <t>OAEPG.1</t>
+  </si>
+  <si>
+    <t>OAEPG.2.GPV</t>
+  </si>
+  <si>
+    <t>QUTP.1</t>
+  </si>
+  <si>
+    <t>QUTP.2T3</t>
+  </si>
+  <si>
+    <t>SCHBSP.1.WELEC</t>
+  </si>
+  <si>
+    <t>XGDP.FSGOV</t>
+  </si>
+  <si>
+    <t>XGOVEXP.IMF</t>
+  </si>
+  <si>
+    <t>SE.LPV.PRIM</t>
+  </si>
+  <si>
+    <t>HD.HCI.EYRS</t>
+  </si>
+  <si>
+    <t>HD.HCI.STNT</t>
+  </si>
+  <si>
+    <t>HD.HCI.HLOS</t>
+  </si>
+  <si>
+    <t>HD.HCI.OVRL</t>
+  </si>
+  <si>
+    <t>HD.HCI.OVRL.LB</t>
+  </si>
+  <si>
+    <t>HD.HCI.OVRL.UB</t>
+  </si>
+  <si>
+    <t>HD.HCI.LAYS</t>
+  </si>
+  <si>
+    <t>HD.HCI.MORT</t>
+  </si>
+  <si>
+    <t>HD.HCI.AMRT</t>
+  </si>
+  <si>
+    <t>netenrolment_lowersec</t>
+  </si>
+  <si>
+    <t>NERT_2_CP</t>
+  </si>
+  <si>
+    <t>Total net enrolment rate, lower secondary, both sexes (%)</t>
+  </si>
+  <si>
+    <t>netenrolment_prim</t>
+  </si>
+  <si>
+    <t>NERT_1_CP</t>
+  </si>
+  <si>
+    <t>Total net enrolment rate, primary, both sexes (%)</t>
+  </si>
+  <si>
+    <t>netenrolment_uppersec</t>
+  </si>
+  <si>
+    <t>NERT_3_CP</t>
+  </si>
+  <si>
+    <t>Total net enrolment rate, upper secondary, both sexes (%)</t>
+  </si>
+  <si>
+    <t>MNCH_DIARCARE</t>
   </si>
 </sst>
 </file>
@@ -2316,19 +2400,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L135"/>
+  <dimension ref="A1:L138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C37" sqref="C37"/>
+      <selection pane="topRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2367,45 +2450,45 @@
         <v>10</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" t="s">
         <v>244</v>
       </c>
-      <c r="B2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C2" t="s">
-        <v>245</v>
-      </c>
       <c r="D2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J2">
         <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -2425,13 +2508,13 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -2451,13 +2534,13 @@
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -2468,7 +2551,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E5" t="s">
         <v>107</v>
@@ -2480,13 +2563,13 @@
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -2497,7 +2580,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E6" t="s">
         <v>110</v>
@@ -2509,10 +2592,10 @@
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2520,7 +2603,7 @@
         <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>605</v>
       </c>
       <c r="C7" t="s">
         <v>150</v>
@@ -2535,326 +2618,326 @@
         <v>153</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E8" t="s">
         <v>254</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>255</v>
-      </c>
-      <c r="F8" t="s">
-        <v>256</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E9" t="s">
         <v>278</v>
       </c>
-      <c r="E9" t="s">
-        <v>279</v>
-      </c>
       <c r="F9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J9">
         <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E10" t="s">
         <v>259</v>
       </c>
-      <c r="E10" t="s">
-        <v>260</v>
-      </c>
       <c r="F10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E11" t="s">
         <v>282</v>
       </c>
-      <c r="E11" t="s">
-        <v>283</v>
-      </c>
       <c r="F11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J11">
         <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E12" t="s">
         <v>262</v>
       </c>
-      <c r="E12" t="s">
-        <v>263</v>
-      </c>
       <c r="F12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E13" t="s">
         <v>285</v>
       </c>
-      <c r="E13" t="s">
-        <v>286</v>
-      </c>
       <c r="F13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>419</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>420</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E15" t="s">
+        <v>469</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>472</v>
-      </c>
       <c r="H15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J15">
         <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J16">
         <v>5</v>
       </c>
       <c r="K16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B17" t="s">
         <v>121</v>
@@ -2863,7 +2946,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E17" t="s">
         <v>122</v>
@@ -2875,18 +2958,18 @@
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J17">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B18" t="s">
         <v>127</v>
@@ -2895,22 +2978,22 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F18" t="s">
         <v>50</v>
       </c>
       <c r="G18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J18">
         <v>7</v>
@@ -2919,51 +3002,51 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>402</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>403</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J19" s="5">
         <v>1</v>
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>147</v>
       </c>
       <c r="B20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E20" t="s">
         <v>148</v>
@@ -2975,45 +3058,45 @@
         <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B21" t="s">
-        <v>216</v>
+        <v>615</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H21" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J21">
         <v>16</v>
       </c>
       <c r="K21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>188</v>
       </c>
@@ -3021,25 +3104,25 @@
         <v>188</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D22" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>536</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>537</v>
-      </c>
       <c r="F22" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J22" s="13">
         <v>1</v>
@@ -3048,42 +3131,42 @@
         <v>184</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>246</v>
+      </c>
+      <c r="B23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C23" t="s">
         <v>247</v>
       </c>
-      <c r="B23" t="s">
-        <v>247</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>547</v>
+      </c>
+      <c r="E23" t="s">
+        <v>548</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D23" t="s">
-        <v>548</v>
-      </c>
-      <c r="E23" t="s">
-        <v>549</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="H23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J23">
         <v>4</v>
       </c>
       <c r="L23" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -3094,10 +3177,10 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>11</v>
@@ -3106,16 +3189,16 @@
         <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K24" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -3126,10 +3209,10 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E25" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>11</v>
@@ -3138,49 +3221,49 @@
         <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>400</v>
-      </c>
       <c r="G26" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J26" s="5">
         <v>4</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>187</v>
       </c>
@@ -3188,34 +3271,34 @@
         <v>187</v>
       </c>
       <c r="C27" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D27" t="s">
+        <v>537</v>
+      </c>
+      <c r="E27" t="s">
         <v>538</v>
       </c>
-      <c r="E27" t="s">
-        <v>539</v>
-      </c>
       <c r="F27" t="s">
+        <v>520</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>522</v>
-      </c>
       <c r="H27" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K27" t="s">
         <v>184</v>
       </c>
       <c r="L27" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>198</v>
       </c>
@@ -3223,34 +3306,34 @@
         <v>198</v>
       </c>
       <c r="C28" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E28" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F28" t="s">
+        <v>520</v>
+      </c>
+      <c r="G28" t="s">
         <v>521</v>
       </c>
-      <c r="G28" t="s">
-        <v>522</v>
-      </c>
       <c r="H28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K28" t="s">
         <v>195</v>
       </c>
       <c r="L28" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>183</v>
       </c>
@@ -3258,34 +3341,34 @@
         <v>183</v>
       </c>
       <c r="C29" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D29" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E29" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F29" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K29" t="s">
         <v>184</v>
       </c>
       <c r="L29" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>194</v>
       </c>
@@ -3293,34 +3376,34 @@
         <v>194</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K30" s="13" t="s">
         <v>195</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>191</v>
       </c>
@@ -3328,25 +3411,25 @@
         <v>191</v>
       </c>
       <c r="C31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D31" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F31" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -3355,10 +3438,10 @@
         <v>192</v>
       </c>
       <c r="L31" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>185</v>
       </c>
@@ -3366,25 +3449,25 @@
         <v>185</v>
       </c>
       <c r="C32" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E32" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J32">
         <v>3</v>
@@ -3393,10 +3476,10 @@
         <v>186</v>
       </c>
       <c r="L32" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>196</v>
       </c>
@@ -3404,25 +3487,25 @@
         <v>196</v>
       </c>
       <c r="C33" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E33" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G33" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I33" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J33">
         <v>4</v>
@@ -3431,7 +3514,7 @@
         <v>197</v>
       </c>
       <c r="L33" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3439,7 +3522,7 @@
         <v>155</v>
       </c>
       <c r="B34" t="s">
-        <v>155</v>
+        <v>597</v>
       </c>
       <c r="C34" t="s">
         <v>150</v>
@@ -3448,19 +3531,19 @@
         <v>156</v>
       </c>
       <c r="E34" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F34" t="s">
         <v>153</v>
       </c>
       <c r="G34" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I34" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3469,77 +3552,77 @@
         <v>157</v>
       </c>
       <c r="L34" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B35" t="s">
+        <v>322</v>
+      </c>
+      <c r="C35" t="s">
+        <v>316</v>
+      </c>
+      <c r="D35" t="s">
         <v>323</v>
       </c>
-      <c r="C35" t="s">
-        <v>317</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>324</v>
-      </c>
-      <c r="E35" t="s">
-        <v>325</v>
       </c>
       <c r="F35" t="s">
         <v>64</v>
       </c>
       <c r="G35" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="H35" t="s">
+        <v>330</v>
+      </c>
+      <c r="I35" t="s">
+        <v>331</v>
+      </c>
+      <c r="K35" t="s">
+        <v>218</v>
+      </c>
+      <c r="L35" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>386</v>
+      </c>
+      <c r="B36" t="s">
         <v>319</v>
       </c>
-      <c r="H35" t="s">
-        <v>331</v>
-      </c>
-      <c r="I35" t="s">
-        <v>332</v>
-      </c>
-      <c r="K35" t="s">
-        <v>219</v>
-      </c>
-      <c r="L35" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>387</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
+        <v>316</v>
+      </c>
+      <c r="D36" t="s">
         <v>320</v>
       </c>
-      <c r="C36" t="s">
-        <v>317</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>321</v>
-      </c>
-      <c r="E36" t="s">
-        <v>322</v>
       </c>
       <c r="F36" t="s">
         <v>64</v>
       </c>
       <c r="G36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I36" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L36" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3547,7 +3630,7 @@
         <v>166</v>
       </c>
       <c r="B37" t="s">
-        <v>166</v>
+        <v>600</v>
       </c>
       <c r="C37" t="s">
         <v>150</v>
@@ -3562,13 +3645,13 @@
         <v>153</v>
       </c>
       <c r="G37" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I37" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3577,7 +3660,7 @@
         <v>169</v>
       </c>
       <c r="L37" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3585,7 +3668,7 @@
         <v>170</v>
       </c>
       <c r="B38" t="s">
-        <v>170</v>
+        <v>601</v>
       </c>
       <c r="C38" t="s">
         <v>150</v>
@@ -3600,13 +3683,13 @@
         <v>153</v>
       </c>
       <c r="G38" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I38" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -3615,7 +3698,7 @@
         <v>169</v>
       </c>
       <c r="L38" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3623,7 +3706,7 @@
         <v>173</v>
       </c>
       <c r="B39" t="s">
-        <v>173</v>
+        <v>602</v>
       </c>
       <c r="C39" t="s">
         <v>150</v>
@@ -3638,13 +3721,13 @@
         <v>153</v>
       </c>
       <c r="G39" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -3653,80 +3736,80 @@
         <v>169</v>
       </c>
       <c r="L39" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>447</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>448</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J40" s="5">
         <v>5</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J41" s="5">
         <v>4</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -3746,18 +3829,18 @@
         <v>13</v>
       </c>
       <c r="H42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I42" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -3772,16 +3855,16 @@
         <v>13</v>
       </c>
       <c r="H43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J43">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -3801,46 +3884,46 @@
         <v>13</v>
       </c>
       <c r="H44" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I44" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>427</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>428</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J45" s="5">
         <v>5</v>
       </c>
       <c r="K45" s="5"/>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -3851,7 +3934,7 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E46" t="s">
         <v>43</v>
@@ -3860,13 +3943,13 @@
         <v>13</v>
       </c>
       <c r="H46" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I46" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -3877,7 +3960,7 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E47" t="s">
         <v>49</v>
@@ -3889,15 +3972,15 @@
         <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I47" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B48" t="s">
         <v>51</v>
@@ -3906,7 +3989,7 @@
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E48" t="s">
         <v>52</v>
@@ -3918,48 +4001,48 @@
         <v>13</v>
       </c>
       <c r="H48" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I48" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B49" t="s">
+        <v>286</v>
+      </c>
+      <c r="C49" t="s">
         <v>287</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>288</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
+        <v>288</v>
+      </c>
+      <c r="F49" t="s">
         <v>289</v>
       </c>
-      <c r="E49" t="s">
-        <v>289</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="G49" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>291</v>
-      </c>
       <c r="H49" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I49" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J49">
         <v>6</v>
       </c>
       <c r="L49" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -3967,95 +4050,95 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
+        <v>244</v>
+      </c>
+      <c r="D50" t="s">
+        <v>454</v>
+      </c>
+      <c r="F50" t="s">
+        <v>531</v>
+      </c>
+      <c r="G50" t="s">
         <v>245</v>
       </c>
-      <c r="D50" t="s">
-        <v>455</v>
-      </c>
-      <c r="F50" t="s">
-        <v>532</v>
-      </c>
-      <c r="G50" t="s">
-        <v>246</v>
-      </c>
       <c r="H50" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I50" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L50" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B51" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="E51" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E51" s="11" t="s">
+      <c r="F51" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="G51" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="F51" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>394</v>
-      </c>
       <c r="H51" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J51" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>291</v>
+      </c>
+      <c r="B52" t="s">
+        <v>291</v>
+      </c>
+      <c r="C52" t="s">
+        <v>287</v>
+      </c>
+      <c r="D52" t="s">
+        <v>554</v>
+      </c>
+      <c r="E52" t="s">
+        <v>555</v>
+      </c>
+      <c r="F52" t="s">
         <v>292</v>
       </c>
-      <c r="B52" t="s">
-        <v>292</v>
-      </c>
-      <c r="C52" t="s">
-        <v>288</v>
-      </c>
-      <c r="D52" t="s">
-        <v>555</v>
-      </c>
-      <c r="E52" t="s">
-        <v>556</v>
-      </c>
-      <c r="F52" t="s">
-        <v>293</v>
-      </c>
       <c r="G52" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H52" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I52" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J52">
         <v>4</v>
       </c>
       <c r="L52" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -4066,7 +4149,7 @@
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E53" t="s">
         <v>115</v>
@@ -4078,16 +4161,16 @@
         <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I53" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J53">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>116</v>
       </c>
@@ -4098,7 +4181,7 @@
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E54" t="s">
         <v>118</v>
@@ -4110,203 +4193,203 @@
         <v>13</v>
       </c>
       <c r="H54" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I54" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B55" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C55" t="s">
         <v>150</v>
       </c>
       <c r="D55" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E55" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G55" t="s">
         <v>154</v>
       </c>
       <c r="H55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I55" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J55">
         <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L55" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B56" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C56" t="s">
         <v>150</v>
       </c>
       <c r="D56" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E56" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F56" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G56" t="s">
         <v>154</v>
       </c>
       <c r="H56" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I56" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J56">
         <v>11</v>
       </c>
       <c r="K56" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L56" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B57" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C57" t="s">
         <v>150</v>
       </c>
       <c r="D57" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E57" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F57" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G57" t="s">
         <v>154</v>
       </c>
       <c r="H57" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I57" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J57">
         <v>7</v>
       </c>
       <c r="K57" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L57" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B58" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C58" t="s">
         <v>150</v>
       </c>
       <c r="D58" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E58" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F58" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G58" t="s">
         <v>154</v>
       </c>
       <c r="H58" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I58" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J58">
         <v>3</v>
       </c>
       <c r="K58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L58" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B59" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C59" t="s">
         <v>150</v>
       </c>
       <c r="D59" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E59" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F59" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G59" t="s">
         <v>154</v>
       </c>
       <c r="H59" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I59" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J59">
         <v>3</v>
       </c>
       <c r="K59" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L59" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>182</v>
       </c>
@@ -4314,34 +4397,34 @@
         <v>182</v>
       </c>
       <c r="C60" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D60" t="s">
+        <v>541</v>
+      </c>
+      <c r="E60" t="s">
         <v>542</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
+        <v>525</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="H60" t="s">
+        <v>354</v>
+      </c>
+      <c r="I60" t="s">
+        <v>344</v>
+      </c>
+      <c r="K60" t="s">
         <v>543</v>
       </c>
-      <c r="F60" t="s">
-        <v>526</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="H60" t="s">
-        <v>355</v>
-      </c>
-      <c r="I60" t="s">
-        <v>345</v>
-      </c>
-      <c r="K60" t="s">
-        <v>544</v>
-      </c>
       <c r="L60" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>193</v>
       </c>
@@ -4349,235 +4432,237 @@
         <v>193</v>
       </c>
       <c r="C61" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D61" t="s">
+        <v>544</v>
+      </c>
+      <c r="E61" t="s">
+        <v>542</v>
+      </c>
+      <c r="F61" t="s">
+        <v>525</v>
+      </c>
+      <c r="G61" t="s">
+        <v>524</v>
+      </c>
+      <c r="H61" t="s">
+        <v>346</v>
+      </c>
+      <c r="I61" t="s">
+        <v>344</v>
+      </c>
+      <c r="K61" t="s">
         <v>545</v>
       </c>
-      <c r="E61" t="s">
-        <v>543</v>
-      </c>
-      <c r="F61" t="s">
-        <v>526</v>
-      </c>
-      <c r="G61" t="s">
-        <v>525</v>
-      </c>
-      <c r="H61" t="s">
-        <v>347</v>
-      </c>
-      <c r="I61" t="s">
-        <v>345</v>
-      </c>
-      <c r="K61" t="s">
-        <v>546</v>
-      </c>
       <c r="L61" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B62" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E62" t="s">
+        <v>472</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G62" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>474</v>
-      </c>
       <c r="H62" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I62" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J62">
         <v>2</v>
       </c>
       <c r="K62" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D63" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="F63" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="G63" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="F63" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>424</v>
-      </c>
       <c r="H63" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J63" s="5">
         <v>3</v>
       </c>
       <c r="K63" s="5"/>
       <c r="L63" s="5" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>435</v>
+        <v>500</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>435</v>
+        <v>500</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>439</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="J64" s="5"/>
+        <v>329</v>
+      </c>
+      <c r="J64" s="5">
+        <v>12</v>
+      </c>
       <c r="K64" s="5"/>
       <c r="L64" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>440</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="J66" s="5">
-        <v>12</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>434</v>
+        <v>501</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>434</v>
+        <v>501</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="J67" s="5"/>
+        <v>329</v>
+      </c>
+      <c r="J67" s="5">
+        <v>11</v>
+      </c>
       <c r="K67" s="5"/>
       <c r="L67" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>433</v>
       </c>
@@ -4585,65 +4670,63 @@
         <v>433</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>502</v>
+        <v>432</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>502</v>
+        <v>432</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>437</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="J69" s="5">
-        <v>11</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>111</v>
       </c>
@@ -4654,7 +4737,7 @@
         <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E70" t="s">
         <v>112</v>
@@ -4666,13 +4749,13 @@
         <v>13</v>
       </c>
       <c r="H70" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I70" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>119</v>
       </c>
@@ -4683,7 +4766,7 @@
         <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E71" t="s">
         <v>120</v>
@@ -4695,13 +4778,13 @@
         <v>13</v>
       </c>
       <c r="H71" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I71" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>123</v>
       </c>
@@ -4712,7 +4795,7 @@
         <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E72" t="s">
         <v>124</v>
@@ -4724,13 +4807,13 @@
         <v>13</v>
       </c>
       <c r="H72" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I72" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>129</v>
       </c>
@@ -4741,7 +4824,7 @@
         <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E73" t="s">
         <v>130</v>
@@ -4753,13 +4836,13 @@
         <v>13</v>
       </c>
       <c r="H73" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I73" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>131</v>
       </c>
@@ -4770,7 +4853,7 @@
         <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E74" t="s">
         <v>132</v>
@@ -4782,15 +4865,15 @@
         <v>13</v>
       </c>
       <c r="H74" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I74" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B75" t="s">
         <v>18</v>
@@ -4802,19 +4885,19 @@
         <v>19</v>
       </c>
       <c r="E75" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G75" t="s">
         <v>13</v>
       </c>
       <c r="H75" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I75" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J75">
         <v>2</v>
@@ -4823,9 +4906,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B76" t="s">
         <v>21</v>
@@ -4837,19 +4920,19 @@
         <v>22</v>
       </c>
       <c r="E76" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G76" t="s">
         <v>13</v>
       </c>
       <c r="H76" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I76" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -4858,27 +4941,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B77" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G77" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H77" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I77" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -4892,7 +4975,7 @@
         <v>158</v>
       </c>
       <c r="B78" t="s">
-        <v>158</v>
+        <v>598</v>
       </c>
       <c r="C78" t="s">
         <v>150</v>
@@ -4907,13 +4990,13 @@
         <v>153</v>
       </c>
       <c r="G78" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H78" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I78" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -4922,71 +5005,71 @@
         <v>161</v>
       </c>
       <c r="L78" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>293</v>
+      </c>
+      <c r="B79" t="s">
+        <v>293</v>
+      </c>
+      <c r="C79" t="s">
+        <v>287</v>
+      </c>
+      <c r="D79" t="s">
         <v>294</v>
       </c>
-      <c r="B79" t="s">
-        <v>294</v>
-      </c>
-      <c r="C79" t="s">
-        <v>288</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>295</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>296</v>
       </c>
-      <c r="F79" t="s">
-        <v>297</v>
-      </c>
       <c r="G79" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H79" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I79" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J79">
         <v>7</v>
       </c>
       <c r="L79" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J80" s="5">
         <v>2</v>
@@ -4994,7 +5077,7 @@
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>125</v>
       </c>
@@ -5005,10 +5088,10 @@
         <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F81" t="s">
         <v>50</v>
@@ -5017,49 +5100,49 @@
         <v>13</v>
       </c>
       <c r="H81" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I81" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F82" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="G82" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="G82" s="6" t="s">
-        <v>415</v>
-      </c>
       <c r="H82" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J82" s="5">
         <v>13</v>
       </c>
       <c r="K82" s="5"/>
       <c r="L82" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>143</v>
       </c>
@@ -5082,80 +5165,80 @@
         <v>13</v>
       </c>
       <c r="H83" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I83" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>297</v>
+      </c>
+      <c r="B84" t="s">
+        <v>297</v>
+      </c>
+      <c r="C84" t="s">
         <v>298</v>
       </c>
-      <c r="B84" t="s">
-        <v>298</v>
-      </c>
-      <c r="C84" t="s">
-        <v>299</v>
-      </c>
       <c r="D84" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E84" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F84" t="s">
         <v>64</v>
       </c>
       <c r="G84" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H84" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I84" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L84" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B85" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C85" t="s">
         <v>150</v>
       </c>
       <c r="D85" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E85" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F85" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G85" t="s">
         <v>154</v>
       </c>
       <c r="H85" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I85" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J85">
         <v>2</v>
       </c>
       <c r="K85" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L85" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -5163,7 +5246,7 @@
         <v>176</v>
       </c>
       <c r="B86" t="s">
-        <v>176</v>
+        <v>604</v>
       </c>
       <c r="C86" t="s">
         <v>150</v>
@@ -5178,13 +5261,13 @@
         <v>153</v>
       </c>
       <c r="G86" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H86" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I86" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -5193,7 +5276,7 @@
         <v>161</v>
       </c>
       <c r="L86" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -5201,7 +5284,7 @@
         <v>179</v>
       </c>
       <c r="B87" t="s">
-        <v>179</v>
+        <v>603</v>
       </c>
       <c r="C87" t="s">
         <v>150</v>
@@ -5216,13 +5299,13 @@
         <v>153</v>
       </c>
       <c r="G87" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H87" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I87" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -5231,118 +5314,118 @@
         <v>157</v>
       </c>
       <c r="L87" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>299</v>
+      </c>
+      <c r="B88" t="s">
+        <v>299</v>
+      </c>
+      <c r="C88" t="s">
+        <v>244</v>
+      </c>
+      <c r="D88" t="s">
         <v>300</v>
       </c>
-      <c r="B88" t="s">
+      <c r="E88" t="s">
         <v>300</v>
       </c>
-      <c r="C88" t="s">
+      <c r="F88" t="s">
+        <v>531</v>
+      </c>
+      <c r="G88" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D88" t="s">
-        <v>301</v>
-      </c>
-      <c r="E88" t="s">
-        <v>301</v>
-      </c>
-      <c r="F88" t="s">
-        <v>532</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>246</v>
-      </c>
       <c r="H88" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I88" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J88">
         <v>5</v>
       </c>
       <c r="L88" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>301</v>
+      </c>
+      <c r="B89" t="s">
+        <v>301</v>
+      </c>
+      <c r="C89" t="s">
+        <v>461</v>
+      </c>
+      <c r="D89" t="s">
         <v>302</v>
       </c>
-      <c r="B89" t="s">
-        <v>302</v>
-      </c>
-      <c r="C89" t="s">
-        <v>462</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>303</v>
       </c>
-      <c r="E89" t="s">
-        <v>304</v>
-      </c>
       <c r="F89" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G89" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H89" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I89" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J89">
         <v>6</v>
       </c>
       <c r="L89" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="90" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>224</v>
+        <v>596</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>150</v>
       </c>
       <c r="D90" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E90" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="E90" s="13" t="s">
+      <c r="F90" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="F90" s="13" t="s">
+      <c r="G90" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="G90" s="14" t="s">
-        <v>228</v>
-      </c>
       <c r="H90" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I90" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J90" s="13">
         <v>1</v>
       </c>
       <c r="K90" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L90" s="13" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>139</v>
       </c>
@@ -5365,27 +5448,27 @@
         <v>13</v>
       </c>
       <c r="H91" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I91" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B92" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C92" t="s">
         <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E92" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F92" t="s">
         <v>50</v>
@@ -5394,27 +5477,27 @@
         <v>13</v>
       </c>
       <c r="H92" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I92" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B93" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C93" t="s">
         <v>12</v>
       </c>
       <c r="D93" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E93" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F93" t="s">
         <v>50</v>
@@ -5423,39 +5506,39 @@
         <v>13</v>
       </c>
       <c r="H93" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I93" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B94" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C94" t="s">
         <v>150</v>
       </c>
       <c r="D94" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E94" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F94" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G94" t="s">
         <v>154</v>
       </c>
       <c r="H94" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I94" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -5464,36 +5547,36 @@
         <v>157</v>
       </c>
       <c r="L94" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B95" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C95" t="s">
         <v>12</v>
       </c>
       <c r="D95" t="s">
+        <v>325</v>
+      </c>
+      <c r="E95" t="s">
         <v>326</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="G95" t="s">
         <v>13</v>
       </c>
       <c r="H95" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I95" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J95">
         <v>14</v>
@@ -5502,7 +5585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>133</v>
       </c>
@@ -5513,60 +5596,60 @@
         <v>12</v>
       </c>
       <c r="D96" t="s">
+        <v>475</v>
+      </c>
+      <c r="E96" t="s">
+        <v>474</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G96" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="E96" t="s">
-        <v>475</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>477</v>
-      </c>
       <c r="H96" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I96" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K96" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>304</v>
+      </c>
+      <c r="B97" t="s">
+        <v>304</v>
+      </c>
+      <c r="C97" t="s">
+        <v>287</v>
+      </c>
+      <c r="D97" t="s">
         <v>305</v>
       </c>
-      <c r="B97" t="s">
-        <v>305</v>
-      </c>
-      <c r="C97" t="s">
-        <v>288</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>306</v>
       </c>
-      <c r="E97" t="s">
-        <v>307</v>
-      </c>
       <c r="F97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G97" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H97" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I97" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J97">
         <v>6</v>
       </c>
       <c r="L97" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -5574,7 +5657,7 @@
         <v>162</v>
       </c>
       <c r="B98" t="s">
-        <v>162</v>
+        <v>599</v>
       </c>
       <c r="C98" t="s">
         <v>150</v>
@@ -5589,13 +5672,13 @@
         <v>153</v>
       </c>
       <c r="G98" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H98" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I98" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -5604,82 +5687,82 @@
         <v>165</v>
       </c>
       <c r="L98" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>307</v>
+      </c>
+      <c r="B99" t="s">
+        <v>307</v>
+      </c>
+      <c r="C99" t="s">
+        <v>287</v>
+      </c>
+      <c r="D99" t="s">
         <v>308</v>
       </c>
-      <c r="B99" t="s">
-        <v>308</v>
-      </c>
-      <c r="C99" t="s">
-        <v>288</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>309</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>310</v>
       </c>
-      <c r="F99" t="s">
-        <v>311</v>
-      </c>
       <c r="G99" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H99" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I99" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J99">
         <v>10</v>
       </c>
       <c r="L99" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>311</v>
+      </c>
+      <c r="B100" t="s">
+        <v>311</v>
+      </c>
+      <c r="C100" t="s">
+        <v>287</v>
+      </c>
+      <c r="D100" t="s">
         <v>312</v>
       </c>
-      <c r="B100" t="s">
-        <v>312</v>
-      </c>
-      <c r="C100" t="s">
-        <v>288</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>313</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>314</v>
       </c>
-      <c r="F100" t="s">
-        <v>315</v>
-      </c>
       <c r="G100" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H100" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I100" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J100">
         <v>9</v>
       </c>
       <c r="L100" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B101" t="s">
         <v>15</v>
@@ -5691,19 +5774,19 @@
         <v>16</v>
       </c>
       <c r="E101" t="s">
+        <v>360</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="G101" t="s">
         <v>13</v>
       </c>
       <c r="H101" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I101" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K101" t="s">
         <v>17</v>
@@ -5711,45 +5794,39 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>239</v>
+        <v>503</v>
       </c>
       <c r="B102" t="s">
-        <v>582</v>
+        <v>503</v>
       </c>
       <c r="C102" t="s">
-        <v>150</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="E102" t="s">
-        <v>490</v>
+        <v>504</v>
+      </c>
+      <c r="D102" t="s">
+        <v>505</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>506</v>
       </c>
       <c r="F102" t="s">
-        <v>483</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H102" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="I102" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="J102">
-        <v>2</v>
-      </c>
-      <c r="K102" t="s">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="L102" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B103" t="s">
         <v>581</v>
@@ -5757,192 +5834,192 @@
       <c r="C103" t="s">
         <v>150</v>
       </c>
-      <c r="D103" t="s">
-        <v>340</v>
+      <c r="D103" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="E103" t="s">
+        <v>489</v>
+      </c>
+      <c r="F103" t="s">
         <v>482</v>
       </c>
-      <c r="F103" t="s">
-        <v>483</v>
-      </c>
-      <c r="G103" t="s">
+      <c r="G103" s="3" t="s">
         <v>154</v>
       </c>
       <c r="H103" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I103" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J103">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K103" t="s">
         <v>202</v>
       </c>
       <c r="L103" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="B104" t="s">
-        <v>201</v>
+        <v>580</v>
       </c>
       <c r="C104" t="s">
-        <v>462</v>
+        <v>150</v>
       </c>
       <c r="D104" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E104" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="F104" t="s">
-        <v>531</v>
+        <v>482</v>
       </c>
       <c r="G104" t="s">
-        <v>415</v>
+        <v>154</v>
       </c>
       <c r="H104" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="I104" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J104">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K104" t="s">
         <v>202</v>
       </c>
       <c r="L104" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B105" t="s">
-        <v>207</v>
+        <v>587</v>
       </c>
       <c r="C105" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D105" t="s">
-        <v>551</v>
+        <v>345</v>
       </c>
       <c r="E105" t="s">
-        <v>552</v>
+        <v>459</v>
       </c>
       <c r="F105" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G105" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H105" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="I105" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="J105">
+        <v>2</v>
       </c>
       <c r="K105" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L105" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>207</v>
+      </c>
+      <c r="B106" t="s">
+        <v>588</v>
+      </c>
+      <c r="C106" t="s">
+        <v>461</v>
+      </c>
+      <c r="D106" t="s">
+        <v>550</v>
+      </c>
+      <c r="E106" t="s">
+        <v>551</v>
+      </c>
+      <c r="F106" t="s">
+        <v>530</v>
+      </c>
+      <c r="G106" t="s">
+        <v>414</v>
+      </c>
+      <c r="H106" t="s">
+        <v>330</v>
+      </c>
+      <c r="I106" t="s">
+        <v>329</v>
+      </c>
+      <c r="K106" t="s">
+        <v>208</v>
+      </c>
+      <c r="L106" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>239</v>
+      </c>
+      <c r="B107" t="s">
+        <v>582</v>
+      </c>
+      <c r="C107" t="s">
+        <v>150</v>
+      </c>
+      <c r="D107" t="s">
+        <v>328</v>
+      </c>
+      <c r="E107" t="s">
+        <v>490</v>
+      </c>
+      <c r="F107" t="s">
+        <v>482</v>
+      </c>
+      <c r="G107" t="s">
+        <v>154</v>
+      </c>
+      <c r="H107" t="s">
+        <v>330</v>
+      </c>
+      <c r="I107" t="s">
+        <v>329</v>
+      </c>
+      <c r="J107">
+        <v>3</v>
+      </c>
+      <c r="K107" t="s">
         <v>240</v>
       </c>
-      <c r="B106" t="s">
-        <v>583</v>
-      </c>
-      <c r="C106" t="s">
-        <v>150</v>
-      </c>
-      <c r="D106" t="s">
-        <v>329</v>
-      </c>
-      <c r="E106" t="s">
-        <v>491</v>
-      </c>
-      <c r="F106" t="s">
-        <v>483</v>
-      </c>
-      <c r="G106" t="s">
-        <v>154</v>
-      </c>
-      <c r="H106" t="s">
-        <v>331</v>
-      </c>
-      <c r="I106" t="s">
-        <v>330</v>
-      </c>
-      <c r="J106">
-        <v>3</v>
-      </c>
-      <c r="K106" t="s">
-        <v>241</v>
-      </c>
-      <c r="L106" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="L107" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>210</v>
       </c>
-      <c r="B107" t="s">
-        <v>210</v>
-      </c>
-      <c r="C107" t="s">
-        <v>462</v>
-      </c>
-      <c r="D107" t="s">
-        <v>342</v>
-      </c>
-      <c r="E107" t="s">
-        <v>465</v>
-      </c>
-      <c r="F107" t="s">
-        <v>531</v>
-      </c>
-      <c r="G107" t="s">
-        <v>415</v>
-      </c>
-      <c r="H107" t="s">
-        <v>338</v>
-      </c>
-      <c r="I107" t="s">
-        <v>330</v>
-      </c>
-      <c r="J107">
-        <v>8</v>
-      </c>
-      <c r="K107" t="s">
-        <v>553</v>
-      </c>
-      <c r="L107" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>209</v>
-      </c>
       <c r="B108" t="s">
-        <v>209</v>
+        <v>589</v>
       </c>
       <c r="C108" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D108" t="s">
         <v>341</v>
@@ -5951,497 +6028,503 @@
         <v>464</v>
       </c>
       <c r="F108" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G108" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H108" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I108" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J108">
+        <v>8</v>
+      </c>
+      <c r="K108" t="s">
+        <v>552</v>
+      </c>
+      <c r="L108" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>209</v>
+      </c>
+      <c r="B109" t="s">
+        <v>590</v>
+      </c>
+      <c r="C109" t="s">
+        <v>461</v>
+      </c>
+      <c r="D109" t="s">
+        <v>340</v>
+      </c>
+      <c r="E109" t="s">
+        <v>463</v>
+      </c>
+      <c r="F109" t="s">
+        <v>530</v>
+      </c>
+      <c r="G109" t="s">
+        <v>414</v>
+      </c>
+      <c r="H109" t="s">
+        <v>337</v>
+      </c>
+      <c r="I109" t="s">
+        <v>329</v>
+      </c>
+      <c r="J109">
         <v>7</v>
       </c>
-      <c r="K108" t="s">
-        <v>553</v>
-      </c>
-      <c r="L108" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="K109" t="s">
+        <v>552</v>
+      </c>
+      <c r="L109" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>213</v>
       </c>
-      <c r="B109" t="s">
-        <v>213</v>
-      </c>
-      <c r="C109" t="s">
-        <v>462</v>
-      </c>
-      <c r="D109" t="s">
-        <v>343</v>
-      </c>
-      <c r="E109" t="s">
-        <v>467</v>
-      </c>
-      <c r="F109" t="s">
-        <v>531</v>
-      </c>
-      <c r="G109" t="s">
-        <v>415</v>
-      </c>
-      <c r="H109" t="s">
-        <v>338</v>
-      </c>
-      <c r="I109" t="s">
-        <v>330</v>
-      </c>
-      <c r="J109">
+      <c r="B110" t="s">
+        <v>591</v>
+      </c>
+      <c r="C110" t="s">
+        <v>461</v>
+      </c>
+      <c r="D110" t="s">
+        <v>342</v>
+      </c>
+      <c r="E110" t="s">
+        <v>466</v>
+      </c>
+      <c r="F110" t="s">
+        <v>530</v>
+      </c>
+      <c r="G110" t="s">
+        <v>414</v>
+      </c>
+      <c r="H110" t="s">
+        <v>337</v>
+      </c>
+      <c r="I110" t="s">
+        <v>329</v>
+      </c>
+      <c r="J110">
         <v>9</v>
-      </c>
-      <c r="K109" t="s">
-        <v>214</v>
-      </c>
-      <c r="L109" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>215</v>
-      </c>
-      <c r="B110" t="s">
-        <v>215</v>
-      </c>
-      <c r="C110" t="s">
-        <v>462</v>
-      </c>
-      <c r="D110" t="s">
-        <v>349</v>
-      </c>
-      <c r="E110" t="s">
-        <v>467</v>
-      </c>
-      <c r="F110" t="s">
-        <v>531</v>
-      </c>
-      <c r="G110" t="s">
-        <v>415</v>
-      </c>
-      <c r="H110" t="s">
-        <v>347</v>
-      </c>
-      <c r="I110" t="s">
-        <v>330</v>
-      </c>
-      <c r="J110">
-        <v>4</v>
       </c>
       <c r="K110" t="s">
         <v>214</v>
       </c>
       <c r="L110" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B111" t="s">
-        <v>211</v>
+        <v>592</v>
       </c>
       <c r="C111" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D111" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E111" t="s">
         <v>466</v>
       </c>
       <c r="F111" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G111" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H111" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="I111" t="s">
+        <v>329</v>
+      </c>
+      <c r="J111">
+        <v>4</v>
+      </c>
+      <c r="K111" t="s">
+        <v>214</v>
+      </c>
+      <c r="L111" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>211</v>
+      </c>
+      <c r="B112" t="s">
+        <v>593</v>
+      </c>
+      <c r="C112" t="s">
+        <v>461</v>
+      </c>
+      <c r="D112" t="s">
+        <v>343</v>
+      </c>
+      <c r="E112" t="s">
+        <v>465</v>
+      </c>
+      <c r="F112" t="s">
+        <v>530</v>
+      </c>
+      <c r="G112" t="s">
+        <v>414</v>
+      </c>
+      <c r="H112" t="s">
+        <v>337</v>
+      </c>
+      <c r="I112" t="s">
+        <v>329</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112" t="s">
+        <v>212</v>
+      </c>
+      <c r="L112" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>205</v>
+      </c>
+      <c r="B113" t="s">
+        <v>594</v>
+      </c>
+      <c r="C113" t="s">
+        <v>461</v>
+      </c>
+      <c r="D113" t="s">
+        <v>388</v>
+      </c>
+      <c r="E113" t="s">
+        <v>462</v>
+      </c>
+      <c r="F113" t="s">
+        <v>530</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="H113" t="s">
+        <v>337</v>
+      </c>
+      <c r="I113" t="s">
+        <v>329</v>
+      </c>
+      <c r="K113" t="s">
+        <v>206</v>
+      </c>
+      <c r="L113" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>203</v>
+      </c>
+      <c r="B114" t="s">
+        <v>595</v>
+      </c>
+      <c r="C114" t="s">
+        <v>461</v>
+      </c>
+      <c r="D114" t="s">
+        <v>359</v>
+      </c>
+      <c r="E114" t="s">
+        <v>460</v>
+      </c>
+      <c r="F114" t="s">
+        <v>530</v>
+      </c>
+      <c r="G114" t="s">
+        <v>414</v>
+      </c>
+      <c r="H114" t="s">
+        <v>337</v>
+      </c>
+      <c r="I114" t="s">
+        <v>329</v>
+      </c>
+      <c r="K114" t="s">
+        <v>204</v>
+      </c>
+      <c r="L114" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>383</v>
+      </c>
+      <c r="B115" t="s">
+        <v>315</v>
+      </c>
+      <c r="C115" t="s">
+        <v>316</v>
+      </c>
+      <c r="D115" t="s">
+        <v>317</v>
+      </c>
+      <c r="E115" t="s">
+        <v>518</v>
+      </c>
+      <c r="F115" t="s">
+        <v>64</v>
+      </c>
+      <c r="G115" t="s">
+        <v>318</v>
+      </c>
+      <c r="H115" t="s">
         <v>330</v>
       </c>
-      <c r="J111">
-        <v>0</v>
-      </c>
-      <c r="K111" t="s">
-        <v>212</v>
-      </c>
-      <c r="L111" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>205</v>
-      </c>
-      <c r="B112" t="s">
-        <v>205</v>
-      </c>
-      <c r="C112" t="s">
-        <v>462</v>
-      </c>
-      <c r="D112" t="s">
-        <v>389</v>
-      </c>
-      <c r="E112" t="s">
-        <v>463</v>
-      </c>
-      <c r="F112" t="s">
-        <v>531</v>
-      </c>
-      <c r="G112" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="H112" t="s">
-        <v>338</v>
-      </c>
-      <c r="I112" t="s">
-        <v>330</v>
-      </c>
-      <c r="K112" t="s">
-        <v>206</v>
-      </c>
-      <c r="L112" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>203</v>
-      </c>
-      <c r="B113" t="s">
-        <v>203</v>
-      </c>
-      <c r="C113" t="s">
-        <v>462</v>
-      </c>
-      <c r="D113" t="s">
-        <v>360</v>
-      </c>
-      <c r="E113" t="s">
-        <v>461</v>
-      </c>
-      <c r="F113" t="s">
-        <v>531</v>
-      </c>
-      <c r="G113" t="s">
-        <v>415</v>
-      </c>
-      <c r="H113" t="s">
-        <v>338</v>
-      </c>
-      <c r="I113" t="s">
-        <v>330</v>
-      </c>
-      <c r="K113" t="s">
-        <v>204</v>
-      </c>
-      <c r="L113" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>384</v>
-      </c>
-      <c r="B114" t="s">
-        <v>316</v>
-      </c>
-      <c r="C114" t="s">
-        <v>317</v>
-      </c>
-      <c r="D114" t="s">
-        <v>318</v>
-      </c>
-      <c r="E114" t="s">
-        <v>519</v>
-      </c>
-      <c r="F114" t="s">
-        <v>64</v>
-      </c>
-      <c r="G114" t="s">
-        <v>319</v>
-      </c>
-      <c r="H114" t="s">
-        <v>331</v>
-      </c>
-      <c r="I114" t="s">
-        <v>332</v>
-      </c>
-      <c r="K114" t="s">
+      <c r="I115" t="s">
+        <v>331</v>
+      </c>
+      <c r="K115" t="s">
         <v>59</v>
       </c>
-      <c r="L114" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="L115" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>189</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>189</v>
       </c>
-      <c r="C115" t="s">
-        <v>443</v>
-      </c>
-      <c r="D115" t="s">
-        <v>358</v>
-      </c>
-      <c r="E115" t="s">
-        <v>547</v>
-      </c>
-      <c r="F115" t="s">
-        <v>527</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="H115" t="s">
-        <v>355</v>
-      </c>
-      <c r="I115" t="s">
-        <v>345</v>
-      </c>
-      <c r="J115">
-        <v>2</v>
-      </c>
-      <c r="K115" t="s">
-        <v>190</v>
-      </c>
-      <c r="L115" t="s">
+      <c r="C116" t="s">
+        <v>442</v>
+      </c>
+      <c r="D116" t="s">
+        <v>357</v>
+      </c>
+      <c r="E116" t="s">
+        <v>546</v>
+      </c>
+      <c r="F116" t="s">
+        <v>526</v>
+      </c>
+      <c r="G116" s="3" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>199</v>
-      </c>
-      <c r="B116" t="s">
-        <v>199</v>
-      </c>
-      <c r="C116" t="s">
-        <v>443</v>
-      </c>
-      <c r="D116" t="s">
-        <v>353</v>
-      </c>
-      <c r="E116" t="s">
-        <v>547</v>
-      </c>
-      <c r="F116" t="s">
-        <v>520</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>530</v>
-      </c>
       <c r="H116" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="I116" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J116">
         <v>2</v>
       </c>
       <c r="K116" t="s">
+        <v>190</v>
+      </c>
+      <c r="L116" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>199</v>
+      </c>
+      <c r="B117" t="s">
+        <v>199</v>
+      </c>
+      <c r="C117" t="s">
+        <v>442</v>
+      </c>
+      <c r="D117" t="s">
+        <v>352</v>
+      </c>
+      <c r="E117" t="s">
+        <v>546</v>
+      </c>
+      <c r="F117" t="s">
+        <v>519</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="H117" t="s">
+        <v>346</v>
+      </c>
+      <c r="I117" t="s">
+        <v>344</v>
+      </c>
+      <c r="J117">
+        <v>2</v>
+      </c>
+      <c r="K117" t="s">
         <v>200</v>
       </c>
-      <c r="L116" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="L117" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>263</v>
+      </c>
+      <c r="B118" t="s">
         <v>264</v>
-      </c>
-      <c r="B117" t="s">
-        <v>265</v>
-      </c>
-      <c r="C117" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" t="s">
-        <v>266</v>
-      </c>
-      <c r="E117" t="s">
-        <v>267</v>
-      </c>
-      <c r="F117" t="s">
-        <v>256</v>
-      </c>
-      <c r="G117" t="s">
-        <v>13</v>
-      </c>
-      <c r="H117" t="s">
-        <v>331</v>
-      </c>
-      <c r="I117" t="s">
-        <v>332</v>
-      </c>
-      <c r="K117" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>269</v>
-      </c>
-      <c r="B118" t="s">
-        <v>270</v>
       </c>
       <c r="C118" t="s">
         <v>12</v>
       </c>
       <c r="D118" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E118" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F118" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G118" t="s">
         <v>13</v>
       </c>
       <c r="H118" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I118" t="s">
-        <v>332</v>
-      </c>
-      <c r="J118">
-        <v>17</v>
+        <v>331</v>
       </c>
       <c r="K118" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>273</v>
-      </c>
       <c r="B119" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C119" t="s">
         <v>12</v>
       </c>
       <c r="D119" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E119" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F119" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G119" t="s">
         <v>13</v>
       </c>
+      <c r="H119" t="s">
+        <v>330</v>
+      </c>
+      <c r="I119" t="s">
+        <v>331</v>
+      </c>
+      <c r="J119">
+        <v>17</v>
+      </c>
       <c r="K119" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>54</v>
+        <v>272</v>
       </c>
       <c r="B120" t="s">
-        <v>55</v>
+        <v>273</v>
       </c>
       <c r="C120" t="s">
         <v>12</v>
       </c>
       <c r="D120" t="s">
-        <v>56</v>
+        <v>274</v>
       </c>
       <c r="E120" t="s">
-        <v>57</v>
+        <v>275</v>
       </c>
       <c r="F120" t="s">
-        <v>58</v>
+        <v>255</v>
       </c>
       <c r="G120" t="s">
         <v>13</v>
       </c>
-      <c r="H120" t="s">
-        <v>331</v>
-      </c>
-      <c r="I120" t="s">
-        <v>332</v>
-      </c>
-      <c r="J120">
-        <v>15</v>
-      </c>
       <c r="K120" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B121" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C121" t="s">
         <v>12</v>
       </c>
       <c r="D121" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E121" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F121" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G121" t="s">
         <v>13</v>
       </c>
       <c r="H121" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I121" t="s">
-        <v>332</v>
+        <v>331</v>
+      </c>
+      <c r="J121">
+        <v>15</v>
       </c>
       <c r="K121" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B122" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C122" t="s">
         <v>12</v>
       </c>
       <c r="D122" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E122" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F122" t="s">
         <v>64</v>
@@ -6450,33 +6533,30 @@
         <v>13</v>
       </c>
       <c r="H122" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I122" t="s">
-        <v>332</v>
-      </c>
-      <c r="J122">
-        <v>3</v>
+        <v>331</v>
       </c>
       <c r="K122" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B123" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C123" t="s">
         <v>12</v>
       </c>
       <c r="D123" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E123" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F123" t="s">
         <v>64</v>
@@ -6485,33 +6565,33 @@
         <v>13</v>
       </c>
       <c r="H123" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I123" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J123">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K123" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B124" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C124" t="s">
         <v>12</v>
       </c>
       <c r="D124" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E124" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F124" t="s">
         <v>64</v>
@@ -6520,30 +6600,33 @@
         <v>13</v>
       </c>
       <c r="H124" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I124" t="s">
-        <v>332</v>
+        <v>331</v>
+      </c>
+      <c r="J124">
+        <v>4</v>
       </c>
       <c r="K124" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B125" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C125" t="s">
         <v>12</v>
       </c>
       <c r="D125" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E125" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F125" t="s">
         <v>64</v>
@@ -6552,30 +6635,30 @@
         <v>13</v>
       </c>
       <c r="H125" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I125" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K125" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B126" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C126" t="s">
         <v>12</v>
       </c>
       <c r="D126" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E126" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F126" t="s">
         <v>64</v>
@@ -6584,30 +6667,30 @@
         <v>13</v>
       </c>
       <c r="H126" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I126" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K126" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B127" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C127" t="s">
         <v>12</v>
       </c>
       <c r="D127" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E127" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F127" t="s">
         <v>64</v>
@@ -6616,30 +6699,30 @@
         <v>13</v>
       </c>
       <c r="H127" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I127" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K127" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B128" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C128" t="s">
         <v>12</v>
       </c>
       <c r="D128" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E128" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F128" t="s">
         <v>64</v>
@@ -6648,30 +6731,30 @@
         <v>13</v>
       </c>
       <c r="H128" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I128" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K128" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B129" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C129" t="s">
         <v>12</v>
       </c>
       <c r="D129" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E129" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F129" t="s">
         <v>64</v>
@@ -6680,30 +6763,30 @@
         <v>13</v>
       </c>
       <c r="H129" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I129" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K129" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B130" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C130" t="s">
         <v>12</v>
       </c>
       <c r="D130" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E130" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F130" t="s">
         <v>64</v>
@@ -6712,30 +6795,30 @@
         <v>13</v>
       </c>
       <c r="H130" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I130" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K130" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B131" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C131" t="s">
         <v>12</v>
       </c>
       <c r="D131" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E131" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F131" t="s">
         <v>64</v>
@@ -6744,155 +6827,257 @@
         <v>13</v>
       </c>
       <c r="H131" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I131" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K131" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="B132" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="C132" t="s">
         <v>12</v>
       </c>
       <c r="D132" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="E132" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="F132" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G132" t="s">
         <v>13</v>
       </c>
       <c r="H132" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I132" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="K132" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>496</v>
+        <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>496</v>
+        <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>443</v>
+        <v>12</v>
       </c>
       <c r="D133" t="s">
+        <v>137</v>
+      </c>
+      <c r="E133" t="s">
+        <v>138</v>
+      </c>
+      <c r="F133" t="s">
+        <v>50</v>
+      </c>
+      <c r="G133" t="s">
+        <v>13</v>
+      </c>
+      <c r="H133" t="s">
+        <v>330</v>
+      </c>
+      <c r="I133" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>495</v>
+      </c>
+      <c r="B134" t="s">
+        <v>495</v>
+      </c>
+      <c r="C134" t="s">
+        <v>442</v>
+      </c>
+      <c r="D134" t="s">
+        <v>493</v>
+      </c>
+      <c r="E134" t="s">
         <v>494</v>
       </c>
-      <c r="E133" t="s">
-        <v>495</v>
-      </c>
-      <c r="F133" t="s">
-        <v>527</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="H133" t="s">
-        <v>347</v>
-      </c>
-      <c r="I133" t="s">
-        <v>345</v>
-      </c>
-      <c r="J133">
+      <c r="F134" t="s">
+        <v>526</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="H134" t="s">
+        <v>346</v>
+      </c>
+      <c r="I134" t="s">
+        <v>344</v>
+      </c>
+      <c r="J134">
         <v>3</v>
       </c>
-      <c r="L133" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D134" s="7" t="s">
+      <c r="L134" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="E135" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="E134" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="G134" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="H134" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="I134" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="J134" s="5">
+      <c r="F135" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="I135" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="J135" s="5">
         <v>1</v>
       </c>
-      <c r="K134" s="5"/>
-      <c r="L134" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>504</v>
-      </c>
-      <c r="B135" t="s">
-        <v>504</v>
-      </c>
-      <c r="C135" t="s">
-        <v>505</v>
-      </c>
-      <c r="D135" t="s">
-        <v>506</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="F135" t="s">
-        <v>153</v>
-      </c>
-      <c r="H135" t="s">
-        <v>355</v>
-      </c>
-      <c r="I135" t="s">
-        <v>345</v>
-      </c>
-      <c r="J135">
-        <v>0</v>
-      </c>
-      <c r="L135" t="s">
-        <v>513</v>
+      <c r="K135" s="5"/>
+      <c r="L135" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>606</v>
+      </c>
+      <c r="B136" t="s">
+        <v>607</v>
+      </c>
+      <c r="C136" t="s">
+        <v>461</v>
+      </c>
+      <c r="D136" t="s">
+        <v>608</v>
+      </c>
+      <c r="E136" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136" t="s">
+        <v>11</v>
+      </c>
+      <c r="H136" t="s">
+        <v>337</v>
+      </c>
+      <c r="I136" t="s">
+        <v>329</v>
+      </c>
+      <c r="K136" t="s">
+        <v>11</v>
+      </c>
+      <c r="L136" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>609</v>
+      </c>
+      <c r="B137" t="s">
+        <v>610</v>
+      </c>
+      <c r="C137" t="s">
+        <v>461</v>
+      </c>
+      <c r="D137" t="s">
+        <v>611</v>
+      </c>
+      <c r="E137" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137" t="s">
+        <v>11</v>
+      </c>
+      <c r="H137" t="s">
+        <v>337</v>
+      </c>
+      <c r="I137" t="s">
+        <v>329</v>
+      </c>
+      <c r="K137" t="s">
+        <v>11</v>
+      </c>
+      <c r="L137" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>612</v>
+      </c>
+      <c r="B138" t="s">
+        <v>613</v>
+      </c>
+      <c r="C138" t="s">
+        <v>461</v>
+      </c>
+      <c r="D138" t="s">
+        <v>614</v>
+      </c>
+      <c r="E138" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" t="s">
+        <v>11</v>
+      </c>
+      <c r="H138" t="s">
+        <v>346</v>
+      </c>
+      <c r="I138" t="s">
+        <v>329</v>
+      </c>
+      <c r="K138" t="s">
+        <v>11</v>
+      </c>
+      <c r="L138" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L135" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="WDI"/>
-        <filter val="World Bank DataBank"/>
-      </filters>
-    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L135">
+      <sortCondition ref="A1:A135"/>
+    </sortState>
   </autoFilter>
   <dataValidations count="2">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G53" xr:uid="{2F5F9FA7-5446-47AF-A091-DD36F3BEED45}">
@@ -6910,10 +7095,10 @@
     <hyperlink ref="G19" r:id="rId3" xr:uid="{5E00DB9D-DE2F-4335-9771-72FBC89C518A}"/>
     <hyperlink ref="G51" r:id="rId4" xr:uid="{33ABC5F7-45E0-4703-ADE7-FD5BE84A6C85}"/>
     <hyperlink ref="G26" r:id="rId5" xr:uid="{28FA960A-1B0F-4F36-AB25-3065353EBB96}"/>
-    <hyperlink ref="G67" r:id="rId6" xr:uid="{AA81982C-4488-4D0A-9FD0-D28A5532BDB6}"/>
+    <hyperlink ref="G68" r:id="rId6" xr:uid="{AA81982C-4488-4D0A-9FD0-D28A5532BDB6}"/>
     <hyperlink ref="G122:G126" r:id="rId7" display="http://sdg4-data.uis.unesco.org/" xr:uid="{58D543BA-AA31-46B7-9D51-23E366CBECFA}"/>
     <hyperlink ref="G82" r:id="rId8" xr:uid="{E5444A53-A5ED-43B0-A996-1EEFCF0EBC2B}"/>
-    <hyperlink ref="G134" r:id="rId9" xr:uid="{30556D34-7A52-4A25-AE71-8D81DA199009}"/>
+    <hyperlink ref="G135" r:id="rId9" xr:uid="{30556D34-7A52-4A25-AE71-8D81DA199009}"/>
     <hyperlink ref="G41" r:id="rId10" xr:uid="{79265DDE-6A41-4907-9981-CC79AE247B48}"/>
     <hyperlink ref="G14" r:id="rId11" xr:uid="{9909B422-45A8-4627-8430-D53FECADEE8B}"/>
     <hyperlink ref="G45" r:id="rId12" xr:uid="{4223E1D3-2634-4817-9EFA-3F96BE143230}"/>
@@ -6921,15 +7106,15 @@
     <hyperlink ref="G23" r:id="rId14" xr:uid="{40D76283-D72C-4222-8FB8-B4531115EFAD}"/>
     <hyperlink ref="G15" r:id="rId15" xr:uid="{68FDFCA9-FB4B-4EED-8D4C-E6016B9042C3}"/>
     <hyperlink ref="G62" r:id="rId16" xr:uid="{EA923F37-55CE-4483-A9E1-D5A1042DB662}"/>
-    <hyperlink ref="G102" r:id="rId17" xr:uid="{18725DBC-CEF7-41D2-A3A0-584402339517}"/>
-    <hyperlink ref="G112" r:id="rId18" xr:uid="{EF925FB2-6739-43AB-8855-E2EE921CDDC2}"/>
+    <hyperlink ref="G103" r:id="rId17" xr:uid="{18725DBC-CEF7-41D2-A3A0-584402339517}"/>
+    <hyperlink ref="G113" r:id="rId18" xr:uid="{EF925FB2-6739-43AB-8855-E2EE921CDDC2}"/>
     <hyperlink ref="G35" r:id="rId19" location="data/FS" xr:uid="{5F9C3D01-1651-4CED-B521-805E8377CE91}"/>
     <hyperlink ref="G32" r:id="rId20" xr:uid="{C1C72C59-4314-4E0C-AB2C-2EE2647B2CAE}"/>
     <hyperlink ref="G22" r:id="rId21" xr:uid="{7C72DE4F-1122-4854-B0B8-1CCCAB758AA0}"/>
     <hyperlink ref="G27" r:id="rId22" xr:uid="{60C9512B-9CD3-4065-BDF8-B1BA7F629A67}"/>
     <hyperlink ref="G31" r:id="rId23" xr:uid="{C69028E6-F247-48D6-9C13-CD3008B01D8F}"/>
     <hyperlink ref="G60" r:id="rId24" xr:uid="{9120E52F-82B9-40C7-9692-9A5C5F409B85}"/>
-    <hyperlink ref="G64" r:id="rId25" xr:uid="{51E79296-DC56-40FA-BAD5-1ADF754BB6EC}"/>
+    <hyperlink ref="G65" r:id="rId25" xr:uid="{51E79296-DC56-40FA-BAD5-1ADF754BB6EC}"/>
     <hyperlink ref="G88" r:id="rId26" xr:uid="{CF960F6A-5842-42A3-B06B-8B4A326BC6AE}"/>
     <hyperlink ref="G40" r:id="rId27" xr:uid="{230F680F-91A8-43CF-BE1E-804AC0A780D6}"/>
     <hyperlink ref="G90" r:id="rId28" xr:uid="{AC7ED0C4-5E12-4C6E-A2FF-A7E4FA2ECE49}"/>

--- a/Data/Data_Raw/Country codes & metadata/metadata.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF23F0C-10A7-420A-9C69-330B78B98D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0F22F4-AA31-4717-915C-A84519190948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="615">
   <si>
     <t>name_portal</t>
   </si>
@@ -737,15 +737,9 @@
     <t>% of children (under age 5)</t>
   </si>
   <si>
-    <t>unicef_care</t>
-  </si>
-  <si>
     <t>% of newborns</t>
   </si>
   <si>
-    <t>unicef_breastf</t>
-  </si>
-  <si>
     <t>% of children 0-5 months</t>
   </si>
   <si>
@@ -1136,9 +1130,6 @@
     <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
-    <t>Postnatal contact with a health provider within 2 days of delivery</t>
-  </si>
-  <si>
     <t>Youth NEET (%), ages 15-24</t>
   </si>
   <si>
@@ -1488,9 +1479,6 @@
   </si>
   <si>
     <t>Percentage of children (under age 5) with diarrhoea for whom advice or treatment was sought from a health facility or provider</t>
-  </si>
-  <si>
-    <t>https://data.unicef.org/resources/data_explorer/unicef_f/?ag=UNICEF&amp;df=GLOBAL_DATAFLOW&amp;ver=1.0&amp;dq=.MNCH_DIARCARE..&amp;startPeriod=2015&amp;endPeriod=2020</t>
   </si>
   <si>
     <t>Percentage of infants 0–5 months of age who are fed exclusively with breast milk</t>
@@ -1933,6 +1921,15 @@
   </si>
   <si>
     <t>MNCH_DIARCARE</t>
+  </si>
+  <si>
+    <t>MNCH_PNCMOM</t>
+  </si>
+  <si>
+    <t>NT_BF_EXBF</t>
+  </si>
+  <si>
+    <t>Percentage of newborns who have a postnatal contact with a health provider within 2 days of delivery.</t>
   </si>
 </sst>
 </file>
@@ -2053,7 +2050,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2075,6 +2072,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2404,7 +2403,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C18" sqref="C18"/>
+      <selection pane="topRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2450,42 +2449,42 @@
         <v>10</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="G2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J2">
         <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2508,10 +2507,10 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2534,10 +2533,10 @@
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2551,7 +2550,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E5" t="s">
         <v>107</v>
@@ -2563,10 +2562,10 @@
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2580,7 +2579,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E6" t="s">
         <v>110</v>
@@ -2592,10 +2591,10 @@
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2603,7 +2602,7 @@
         <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C7" t="s">
         <v>150</v>
@@ -2618,326 +2617,323 @@
         <v>153</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E8" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" t="s">
         <v>253</v>
-      </c>
-      <c r="E8" t="s">
-        <v>254</v>
-      </c>
-      <c r="F8" t="s">
-        <v>255</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J9">
         <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J11">
         <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B15" t="s">
-        <v>219</v>
+        <v>613</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E15" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H15" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J15">
         <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>372</v>
-      </c>
-      <c r="B16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="J16" s="15">
+        <v>5</v>
+      </c>
+      <c r="K16" s="15" t="s">
         <v>217</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>350</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>468</v>
-      </c>
-      <c r="H16" t="s">
-        <v>330</v>
-      </c>
-      <c r="I16" t="s">
-        <v>331</v>
-      </c>
-      <c r="J16">
-        <v>5</v>
-      </c>
-      <c r="K16" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B17" t="s">
         <v>121</v>
@@ -2946,7 +2942,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E17" t="s">
         <v>122</v>
@@ -2958,10 +2954,10 @@
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I17" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J17">
         <v>8</v>
@@ -2969,31 +2965,31 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>612</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E18" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F18" t="s">
         <v>50</v>
       </c>
       <c r="G18" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="H18" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J18">
         <v>7</v>
@@ -3004,31 +3000,31 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J19" s="5">
         <v>1</v>
@@ -3040,13 +3036,13 @@
         <v>147</v>
       </c>
       <c r="B20" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E20" t="s">
         <v>148</v>
@@ -3058,10 +3054,10 @@
         <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -3069,25 +3065,25 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B21" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E21" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J21">
         <v>16</v>
@@ -3104,25 +3100,25 @@
         <v>188</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J22" s="13">
         <v>1</v>
@@ -3131,39 +3127,39 @@
         <v>184</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>244</v>
+      </c>
+      <c r="B23" t="s">
+        <v>244</v>
+      </c>
+      <c r="C23" t="s">
+        <v>245</v>
+      </c>
+      <c r="D23" t="s">
+        <v>543</v>
+      </c>
+      <c r="E23" t="s">
+        <v>544</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B23" t="s">
-        <v>246</v>
-      </c>
-      <c r="C23" t="s">
-        <v>247</v>
-      </c>
-      <c r="D23" t="s">
-        <v>547</v>
-      </c>
-      <c r="E23" t="s">
-        <v>548</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>248</v>
-      </c>
       <c r="H23" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I23" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J23">
         <v>4</v>
       </c>
       <c r="L23" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -3177,10 +3173,10 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E24" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>11</v>
@@ -3189,13 +3185,13 @@
         <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K24" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -3209,10 +3205,10 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E25" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>11</v>
@@ -3221,46 +3217,46 @@
         <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I25" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>399</v>
-      </c>
       <c r="G26" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J26" s="5">
         <v>4</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -3271,31 +3267,31 @@
         <v>187</v>
       </c>
       <c r="C27" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D27" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E27" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F27" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H27" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I27" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K27" t="s">
         <v>184</v>
       </c>
       <c r="L27" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -3306,31 +3302,31 @@
         <v>198</v>
       </c>
       <c r="C28" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D28" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E28" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F28" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G28" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H28" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K28" t="s">
         <v>195</v>
       </c>
       <c r="L28" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -3341,31 +3337,31 @@
         <v>183</v>
       </c>
       <c r="C29" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D29" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E29" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F29" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I29" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K29" t="s">
         <v>184</v>
       </c>
       <c r="L29" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3376,31 +3372,31 @@
         <v>194</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K30" s="13" t="s">
         <v>195</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -3411,25 +3407,25 @@
         <v>191</v>
       </c>
       <c r="C31" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D31" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E31" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F31" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="H31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I31" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -3438,7 +3434,7 @@
         <v>192</v>
       </c>
       <c r="L31" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -3449,25 +3445,25 @@
         <v>185</v>
       </c>
       <c r="C32" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D32" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E32" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F32" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H32" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I32" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J32">
         <v>3</v>
@@ -3476,7 +3472,7 @@
         <v>186</v>
       </c>
       <c r="L32" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3487,25 +3483,25 @@
         <v>196</v>
       </c>
       <c r="C33" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D33" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E33" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F33" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G33" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H33" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I33" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J33">
         <v>4</v>
@@ -3514,7 +3510,7 @@
         <v>197</v>
       </c>
       <c r="L33" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3522,7 +3518,7 @@
         <v>155</v>
       </c>
       <c r="B34" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C34" t="s">
         <v>150</v>
@@ -3531,19 +3527,19 @@
         <v>156</v>
       </c>
       <c r="E34" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F34" t="s">
         <v>153</v>
       </c>
       <c r="G34" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H34" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I34" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3552,77 +3548,77 @@
         <v>157</v>
       </c>
       <c r="L34" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B35" t="s">
+        <v>320</v>
+      </c>
+      <c r="C35" t="s">
+        <v>314</v>
+      </c>
+      <c r="D35" t="s">
+        <v>321</v>
+      </c>
+      <c r="E35" t="s">
         <v>322</v>
-      </c>
-      <c r="C35" t="s">
-        <v>316</v>
-      </c>
-      <c r="D35" t="s">
-        <v>323</v>
-      </c>
-      <c r="E35" t="s">
-        <v>324</v>
       </c>
       <c r="F35" t="s">
         <v>64</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H35" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I35" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L35" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B36" t="s">
+        <v>317</v>
+      </c>
+      <c r="C36" t="s">
+        <v>314</v>
+      </c>
+      <c r="D36" t="s">
+        <v>318</v>
+      </c>
+      <c r="E36" t="s">
         <v>319</v>
-      </c>
-      <c r="C36" t="s">
-        <v>316</v>
-      </c>
-      <c r="D36" t="s">
-        <v>320</v>
-      </c>
-      <c r="E36" t="s">
-        <v>321</v>
       </c>
       <c r="F36" t="s">
         <v>64</v>
       </c>
       <c r="G36" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H36" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I36" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K36" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L36" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3630,7 +3626,7 @@
         <v>166</v>
       </c>
       <c r="B37" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C37" t="s">
         <v>150</v>
@@ -3645,13 +3641,13 @@
         <v>153</v>
       </c>
       <c r="G37" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H37" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I37" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3660,7 +3656,7 @@
         <v>169</v>
       </c>
       <c r="L37" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3668,7 +3664,7 @@
         <v>170</v>
       </c>
       <c r="B38" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C38" t="s">
         <v>150</v>
@@ -3683,13 +3679,13 @@
         <v>153</v>
       </c>
       <c r="G38" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H38" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I38" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -3698,7 +3694,7 @@
         <v>169</v>
       </c>
       <c r="L38" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3706,7 +3702,7 @@
         <v>173</v>
       </c>
       <c r="B39" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C39" t="s">
         <v>150</v>
@@ -3721,13 +3717,13 @@
         <v>153</v>
       </c>
       <c r="G39" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H39" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I39" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -3736,77 +3732,77 @@
         <v>169</v>
       </c>
       <c r="L39" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J40" s="5">
         <v>5</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J41" s="5">
         <v>4</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -3829,10 +3825,10 @@
         <v>13</v>
       </c>
       <c r="H42" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I42" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -3840,7 +3836,7 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -3855,10 +3851,10 @@
         <v>13</v>
       </c>
       <c r="H43" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I43" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J43">
         <v>4</v>
@@ -3884,39 +3880,39 @@
         <v>13</v>
       </c>
       <c r="H44" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I44" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J45" s="5">
         <v>5</v>
@@ -3934,7 +3930,7 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E46" t="s">
         <v>43</v>
@@ -3943,10 +3939,10 @@
         <v>13</v>
       </c>
       <c r="H46" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I46" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -3960,7 +3956,7 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E47" t="s">
         <v>49</v>
@@ -3972,15 +3968,15 @@
         <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I47" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B48" t="s">
         <v>51</v>
@@ -3989,7 +3985,7 @@
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E48" t="s">
         <v>52</v>
@@ -4001,45 +3997,45 @@
         <v>13</v>
       </c>
       <c r="H48" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I48" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B49" t="s">
+        <v>284</v>
+      </c>
+      <c r="C49" t="s">
+        <v>285</v>
+      </c>
+      <c r="D49" t="s">
         <v>286</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
+        <v>286</v>
+      </c>
+      <c r="F49" t="s">
         <v>287</v>
       </c>
-      <c r="D49" t="s">
+      <c r="G49" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E49" t="s">
-        <v>288</v>
-      </c>
-      <c r="F49" t="s">
-        <v>289</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>290</v>
-      </c>
       <c r="H49" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I49" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J49">
         <v>6</v>
       </c>
       <c r="L49" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -4050,54 +4046,54 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D50" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F50" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="G50" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H50" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I50" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L50" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D51" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="G51" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="E51" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>393</v>
-      </c>
       <c r="H51" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J51" s="11">
         <v>6</v>
@@ -4105,37 +4101,37 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B52" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C52" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D52" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E52" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F52" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G52" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H52" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I52" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J52">
         <v>4</v>
       </c>
       <c r="L52" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -4149,7 +4145,7 @@
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E53" t="s">
         <v>115</v>
@@ -4161,10 +4157,10 @@
         <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I53" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J53">
         <v>12</v>
@@ -4181,7 +4177,7 @@
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E54" t="s">
         <v>118</v>
@@ -4193,200 +4189,200 @@
         <v>13</v>
       </c>
       <c r="H54" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I54" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B55" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C55" t="s">
         <v>150</v>
       </c>
       <c r="D55" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E55" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G55" t="s">
         <v>154</v>
       </c>
       <c r="H55" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I55" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J55">
         <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L55" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B56" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C56" t="s">
         <v>150</v>
       </c>
       <c r="D56" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E56" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F56" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G56" t="s">
         <v>154</v>
       </c>
       <c r="H56" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I56" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J56">
         <v>11</v>
       </c>
       <c r="K56" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L56" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B57" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C57" t="s">
         <v>150</v>
       </c>
       <c r="D57" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E57" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F57" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G57" t="s">
         <v>154</v>
       </c>
       <c r="H57" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I57" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J57">
         <v>7</v>
       </c>
       <c r="K57" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L57" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B58" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C58" t="s">
         <v>150</v>
       </c>
       <c r="D58" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E58" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F58" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G58" t="s">
         <v>154</v>
       </c>
       <c r="H58" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I58" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J58">
         <v>3</v>
       </c>
       <c r="K58" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L58" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B59" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C59" t="s">
         <v>150</v>
       </c>
       <c r="D59" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E59" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F59" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G59" t="s">
         <v>154</v>
       </c>
       <c r="H59" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I59" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J59">
         <v>3</v>
       </c>
       <c r="K59" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L59" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -4397,31 +4393,31 @@
         <v>182</v>
       </c>
       <c r="C60" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D60" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E60" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F60" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G60" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="H60" t="s">
+        <v>351</v>
+      </c>
+      <c r="I60" t="s">
+        <v>342</v>
+      </c>
+      <c r="K60" t="s">
+        <v>539</v>
+      </c>
+      <c r="L60" t="s">
         <v>524</v>
-      </c>
-      <c r="H60" t="s">
-        <v>354</v>
-      </c>
-      <c r="I60" t="s">
-        <v>344</v>
-      </c>
-      <c r="K60" t="s">
-        <v>543</v>
-      </c>
-      <c r="L60" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -4432,298 +4428,298 @@
         <v>193</v>
       </c>
       <c r="C61" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D61" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E61" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F61" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G61" t="s">
+        <v>520</v>
+      </c>
+      <c r="H61" t="s">
+        <v>344</v>
+      </c>
+      <c r="I61" t="s">
+        <v>342</v>
+      </c>
+      <c r="K61" t="s">
+        <v>541</v>
+      </c>
+      <c r="L61" t="s">
         <v>524</v>
-      </c>
-      <c r="H61" t="s">
-        <v>346</v>
-      </c>
-      <c r="I61" t="s">
-        <v>344</v>
-      </c>
-      <c r="K61" t="s">
-        <v>545</v>
-      </c>
-      <c r="L61" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B62" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E62" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H62" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I62" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J62">
         <v>2</v>
       </c>
       <c r="K62" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J63" s="5">
         <v>3</v>
       </c>
       <c r="K63" s="5"/>
       <c r="L63" s="5" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="G64" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="G64" s="6" t="s">
-        <v>410</v>
-      </c>
       <c r="H64" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J64" s="5">
         <v>12</v>
       </c>
       <c r="K64" s="5"/>
       <c r="L64" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="G65" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="G65" s="6" t="s">
-        <v>410</v>
-      </c>
       <c r="H65" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="G66" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="G66" s="6" t="s">
-        <v>410</v>
-      </c>
       <c r="H66" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="G67" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="G67" s="6" t="s">
-        <v>410</v>
-      </c>
       <c r="H67" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J67" s="5">
         <v>11</v>
       </c>
       <c r="K67" s="5"/>
       <c r="L67" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="G68" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="G68" s="6" t="s">
-        <v>410</v>
-      </c>
       <c r="H68" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="G69" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="G69" s="6" t="s">
-        <v>410</v>
-      </c>
       <c r="H69" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -4737,7 +4733,7 @@
         <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E70" t="s">
         <v>112</v>
@@ -4749,10 +4745,10 @@
         <v>13</v>
       </c>
       <c r="H70" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I70" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -4766,7 +4762,7 @@
         <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E71" t="s">
         <v>120</v>
@@ -4778,10 +4774,10 @@
         <v>13</v>
       </c>
       <c r="H71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I71" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -4795,7 +4791,7 @@
         <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E72" t="s">
         <v>124</v>
@@ -4807,10 +4803,10 @@
         <v>13</v>
       </c>
       <c r="H72" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I72" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -4824,7 +4820,7 @@
         <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E73" t="s">
         <v>130</v>
@@ -4836,10 +4832,10 @@
         <v>13</v>
       </c>
       <c r="H73" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I73" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -4853,7 +4849,7 @@
         <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E74" t="s">
         <v>132</v>
@@ -4865,15 +4861,15 @@
         <v>13</v>
       </c>
       <c r="H74" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I74" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B75" t="s">
         <v>18</v>
@@ -4885,19 +4881,19 @@
         <v>19</v>
       </c>
       <c r="E75" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G75" t="s">
         <v>13</v>
       </c>
       <c r="H75" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I75" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J75">
         <v>2</v>
@@ -4908,7 +4904,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B76" t="s">
         <v>21</v>
@@ -4920,19 +4916,19 @@
         <v>22</v>
       </c>
       <c r="E76" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G76" t="s">
         <v>13</v>
       </c>
       <c r="H76" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I76" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -4943,25 +4939,25 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B77" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G77" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H77" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I77" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -4975,7 +4971,7 @@
         <v>158</v>
       </c>
       <c r="B78" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C78" t="s">
         <v>150</v>
@@ -4990,13 +4986,13 @@
         <v>153</v>
       </c>
       <c r="G78" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H78" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I78" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -5005,71 +5001,71 @@
         <v>161</v>
       </c>
       <c r="L78" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>291</v>
+      </c>
+      <c r="B79" t="s">
+        <v>291</v>
+      </c>
+      <c r="C79" t="s">
+        <v>285</v>
+      </c>
+      <c r="D79" t="s">
+        <v>292</v>
+      </c>
+      <c r="E79" t="s">
         <v>293</v>
       </c>
-      <c r="B79" t="s">
-        <v>293</v>
-      </c>
-      <c r="C79" t="s">
-        <v>287</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="F79" t="s">
         <v>294</v>
       </c>
-      <c r="E79" t="s">
-        <v>295</v>
-      </c>
-      <c r="F79" t="s">
-        <v>296</v>
-      </c>
       <c r="G79" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H79" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I79" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J79">
         <v>7</v>
       </c>
       <c r="L79" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J80" s="5">
         <v>2</v>
@@ -5088,10 +5084,10 @@
         <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E81" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F81" t="s">
         <v>50</v>
@@ -5100,46 +5096,46 @@
         <v>13</v>
       </c>
       <c r="H81" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I81" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J82" s="5">
         <v>13</v>
       </c>
       <c r="K82" s="5"/>
       <c r="L82" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -5165,80 +5161,80 @@
         <v>13</v>
       </c>
       <c r="H83" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I83" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B84" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C84" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D84" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E84" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F84" t="s">
         <v>64</v>
       </c>
       <c r="G84" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H84" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I84" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L84" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B85" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C85" t="s">
         <v>150</v>
       </c>
       <c r="D85" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E85" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F85" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G85" t="s">
         <v>154</v>
       </c>
       <c r="H85" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I85" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J85">
         <v>2</v>
       </c>
       <c r="K85" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L85" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -5246,7 +5242,7 @@
         <v>176</v>
       </c>
       <c r="B86" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C86" t="s">
         <v>150</v>
@@ -5261,13 +5257,13 @@
         <v>153</v>
       </c>
       <c r="G86" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H86" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I86" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -5276,7 +5272,7 @@
         <v>161</v>
       </c>
       <c r="L86" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -5284,7 +5280,7 @@
         <v>179</v>
       </c>
       <c r="B87" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C87" t="s">
         <v>150</v>
@@ -5299,13 +5295,13 @@
         <v>153</v>
       </c>
       <c r="G87" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H87" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I87" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -5314,115 +5310,115 @@
         <v>157</v>
       </c>
       <c r="L87" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B88" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C88" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D88" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E88" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F88" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H88" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I88" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J88">
         <v>5</v>
       </c>
       <c r="L88" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>299</v>
+      </c>
+      <c r="B89" t="s">
+        <v>299</v>
+      </c>
+      <c r="C89" t="s">
+        <v>458</v>
+      </c>
+      <c r="D89" t="s">
+        <v>300</v>
+      </c>
+      <c r="E89" t="s">
         <v>301</v>
       </c>
-      <c r="B89" t="s">
-        <v>301</v>
-      </c>
-      <c r="C89" t="s">
-        <v>461</v>
-      </c>
-      <c r="D89" t="s">
-        <v>302</v>
-      </c>
-      <c r="E89" t="s">
-        <v>303</v>
-      </c>
       <c r="F89" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G89" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H89" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I89" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J89">
         <v>6</v>
       </c>
       <c r="L89" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="90" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>150</v>
       </c>
       <c r="D90" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F90" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="E90" s="13" t="s">
+      <c r="G90" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="F90" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="G90" s="14" t="s">
-        <v>227</v>
-      </c>
       <c r="H90" s="13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I90" s="13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J90" s="13">
         <v>1</v>
       </c>
       <c r="K90" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L90" s="13" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -5448,27 +5444,27 @@
         <v>13</v>
       </c>
       <c r="H91" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I91" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B92" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C92" t="s">
         <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E92" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F92" t="s">
         <v>50</v>
@@ -5477,27 +5473,27 @@
         <v>13</v>
       </c>
       <c r="H92" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I92" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B93" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C93" t="s">
         <v>12</v>
       </c>
       <c r="D93" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E93" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F93" t="s">
         <v>50</v>
@@ -5506,39 +5502,39 @@
         <v>13</v>
       </c>
       <c r="H93" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I93" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B94" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C94" t="s">
         <v>150</v>
       </c>
       <c r="D94" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E94" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F94" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G94" t="s">
         <v>154</v>
       </c>
       <c r="H94" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I94" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -5547,36 +5543,36 @@
         <v>157</v>
       </c>
       <c r="L94" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B95" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C95" t="s">
         <v>12</v>
       </c>
       <c r="D95" t="s">
+        <v>323</v>
+      </c>
+      <c r="E95" t="s">
+        <v>324</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="E95" t="s">
-        <v>326</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>327</v>
       </c>
       <c r="G95" t="s">
         <v>13</v>
       </c>
       <c r="H95" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I95" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J95">
         <v>14</v>
@@ -5596,60 +5592,60 @@
         <v>12</v>
       </c>
       <c r="D96" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E96" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H96" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I96" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K96" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>302</v>
+      </c>
+      <c r="B97" t="s">
+        <v>302</v>
+      </c>
+      <c r="C97" t="s">
+        <v>285</v>
+      </c>
+      <c r="D97" t="s">
+        <v>303</v>
+      </c>
+      <c r="E97" t="s">
         <v>304</v>
       </c>
-      <c r="B97" t="s">
-        <v>304</v>
-      </c>
-      <c r="C97" t="s">
-        <v>287</v>
-      </c>
-      <c r="D97" t="s">
-        <v>305</v>
-      </c>
-      <c r="E97" t="s">
-        <v>306</v>
-      </c>
       <c r="F97" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G97" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H97" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I97" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J97">
         <v>6</v>
       </c>
       <c r="L97" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -5657,7 +5653,7 @@
         <v>162</v>
       </c>
       <c r="B98" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C98" t="s">
         <v>150</v>
@@ -5672,13 +5668,13 @@
         <v>153</v>
       </c>
       <c r="G98" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H98" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I98" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -5687,82 +5683,82 @@
         <v>165</v>
       </c>
       <c r="L98" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>305</v>
+      </c>
+      <c r="B99" t="s">
+        <v>305</v>
+      </c>
+      <c r="C99" t="s">
+        <v>285</v>
+      </c>
+      <c r="D99" t="s">
+        <v>306</v>
+      </c>
+      <c r="E99" t="s">
         <v>307</v>
       </c>
-      <c r="B99" t="s">
-        <v>307</v>
-      </c>
-      <c r="C99" t="s">
-        <v>287</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="F99" t="s">
         <v>308</v>
       </c>
-      <c r="E99" t="s">
-        <v>309</v>
-      </c>
-      <c r="F99" t="s">
-        <v>310</v>
-      </c>
       <c r="G99" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H99" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I99" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J99">
         <v>10</v>
       </c>
       <c r="L99" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>309</v>
+      </c>
+      <c r="B100" t="s">
+        <v>309</v>
+      </c>
+      <c r="C100" t="s">
+        <v>285</v>
+      </c>
+      <c r="D100" t="s">
+        <v>310</v>
+      </c>
+      <c r="E100" t="s">
         <v>311</v>
       </c>
-      <c r="B100" t="s">
-        <v>311</v>
-      </c>
-      <c r="C100" t="s">
-        <v>287</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="F100" t="s">
         <v>312</v>
       </c>
-      <c r="E100" t="s">
-        <v>313</v>
-      </c>
-      <c r="F100" t="s">
-        <v>314</v>
-      </c>
       <c r="G100" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H100" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I100" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J100">
         <v>9</v>
       </c>
       <c r="L100" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B101" t="s">
         <v>15</v>
@@ -5774,19 +5770,19 @@
         <v>16</v>
       </c>
       <c r="E101" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G101" t="s">
         <v>13</v>
       </c>
       <c r="H101" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I101" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K101" t="s">
         <v>17</v>
@@ -5794,63 +5790,63 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B102" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C102" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D102" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F102" t="s">
         <v>153</v>
       </c>
       <c r="H102" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I102" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="L102" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B103" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C103" t="s">
         <v>150</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E103" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F103" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>154</v>
       </c>
       <c r="H103" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I103" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J103">
         <v>2</v>
@@ -5859,36 +5855,36 @@
         <v>202</v>
       </c>
       <c r="L103" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B104" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C104" t="s">
         <v>150</v>
       </c>
       <c r="D104" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E104" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F104" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G104" t="s">
         <v>154</v>
       </c>
       <c r="H104" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I104" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J104">
         <v>5</v>
@@ -5897,7 +5893,7 @@
         <v>202</v>
       </c>
       <c r="L104" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -5905,28 +5901,28 @@
         <v>201</v>
       </c>
       <c r="B105" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C105" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D105" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E105" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F105" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G105" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H105" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I105" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J105">
         <v>2</v>
@@ -5935,7 +5931,7 @@
         <v>202</v>
       </c>
       <c r="L105" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -5943,72 +5939,72 @@
         <v>207</v>
       </c>
       <c r="B106" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C106" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D106" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E106" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F106" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G106" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H106" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I106" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K106" t="s">
         <v>208</v>
       </c>
       <c r="L106" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B107" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C107" t="s">
         <v>150</v>
       </c>
       <c r="D107" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E107" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F107" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G107" t="s">
         <v>154</v>
       </c>
       <c r="H107" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I107" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J107">
         <v>3</v>
       </c>
       <c r="K107" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L107" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -6016,37 +6012,37 @@
         <v>210</v>
       </c>
       <c r="B108" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C108" t="s">
+        <v>458</v>
+      </c>
+      <c r="D108" t="s">
+        <v>339</v>
+      </c>
+      <c r="E108" t="s">
         <v>461</v>
       </c>
-      <c r="D108" t="s">
-        <v>341</v>
-      </c>
-      <c r="E108" t="s">
-        <v>464</v>
-      </c>
       <c r="F108" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G108" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H108" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I108" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J108">
         <v>8</v>
       </c>
       <c r="K108" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="L108" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -6054,37 +6050,37 @@
         <v>209</v>
       </c>
       <c r="B109" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C109" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D109" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E109" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F109" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G109" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H109" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I109" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J109">
         <v>7</v>
       </c>
       <c r="K109" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="L109" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -6092,28 +6088,28 @@
         <v>213</v>
       </c>
       <c r="B110" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C110" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D110" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E110" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F110" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G110" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H110" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I110" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J110">
         <v>9</v>
@@ -6122,7 +6118,7 @@
         <v>214</v>
       </c>
       <c r="L110" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -6130,28 +6126,28 @@
         <v>215</v>
       </c>
       <c r="B111" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C111" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D111" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E111" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F111" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G111" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H111" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I111" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J111">
         <v>4</v>
@@ -6160,7 +6156,7 @@
         <v>214</v>
       </c>
       <c r="L111" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -6168,28 +6164,28 @@
         <v>211</v>
       </c>
       <c r="B112" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C112" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D112" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E112" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F112" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G112" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H112" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I112" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -6198,7 +6194,7 @@
         <v>212</v>
       </c>
       <c r="L112" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -6206,34 +6202,34 @@
         <v>205</v>
       </c>
       <c r="B113" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C113" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D113" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E113" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F113" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H113" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I113" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K113" t="s">
         <v>206</v>
       </c>
       <c r="L113" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -6241,69 +6237,69 @@
         <v>203</v>
       </c>
       <c r="B114" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C114" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D114" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E114" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F114" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G114" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H114" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I114" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K114" t="s">
         <v>204</v>
       </c>
       <c r="L114" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B115" t="s">
+        <v>313</v>
+      </c>
+      <c r="C115" t="s">
+        <v>314</v>
+      </c>
+      <c r="D115" t="s">
         <v>315</v>
       </c>
-      <c r="C115" t="s">
-        <v>316</v>
-      </c>
-      <c r="D115" t="s">
-        <v>317</v>
-      </c>
       <c r="E115" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F115" t="s">
         <v>64</v>
       </c>
       <c r="G115" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H115" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I115" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K115" t="s">
         <v>59</v>
       </c>
       <c r="L115" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -6314,25 +6310,25 @@
         <v>189</v>
       </c>
       <c r="C116" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D116" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E116" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F116" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H116" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I116" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J116">
         <v>2</v>
@@ -6341,7 +6337,7 @@
         <v>190</v>
       </c>
       <c r="L116" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -6352,25 +6348,25 @@
         <v>199</v>
       </c>
       <c r="C117" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D117" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E117" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F117" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H117" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I117" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J117">
         <v>2</v>
@@ -6379,100 +6375,100 @@
         <v>200</v>
       </c>
       <c r="L117" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B118" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C118" t="s">
         <v>12</v>
       </c>
       <c r="D118" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E118" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F118" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G118" t="s">
         <v>13</v>
       </c>
       <c r="H118" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I118" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K118" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B119" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C119" t="s">
         <v>12</v>
       </c>
       <c r="D119" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E119" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F119" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G119" t="s">
         <v>13</v>
       </c>
       <c r="H119" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I119" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J119">
         <v>17</v>
       </c>
       <c r="K119" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B120" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C120" t="s">
         <v>12</v>
       </c>
       <c r="D120" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E120" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F120" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G120" t="s">
         <v>13</v>
       </c>
       <c r="K120" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -6498,10 +6494,10 @@
         <v>13</v>
       </c>
       <c r="H121" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I121" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J121">
         <v>15</v>
@@ -6533,10 +6529,10 @@
         <v>13</v>
       </c>
       <c r="H122" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I122" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K122" t="s">
         <v>59</v>
@@ -6565,10 +6561,10 @@
         <v>13</v>
       </c>
       <c r="H123" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I123" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -6600,10 +6596,10 @@
         <v>13</v>
       </c>
       <c r="H124" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I124" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J124">
         <v>4</v>
@@ -6635,10 +6631,10 @@
         <v>13</v>
       </c>
       <c r="H125" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I125" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K125" t="s">
         <v>59</v>
@@ -6667,10 +6663,10 @@
         <v>13</v>
       </c>
       <c r="H126" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I126" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K126" t="s">
         <v>59</v>
@@ -6699,10 +6695,10 @@
         <v>13</v>
       </c>
       <c r="H127" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I127" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K127" t="s">
         <v>59</v>
@@ -6731,10 +6727,10 @@
         <v>13</v>
       </c>
       <c r="H128" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I128" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K128" t="s">
         <v>59</v>
@@ -6763,10 +6759,10 @@
         <v>13</v>
       </c>
       <c r="H129" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I129" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K129" t="s">
         <v>59</v>
@@ -6795,10 +6791,10 @@
         <v>13</v>
       </c>
       <c r="H130" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I130" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K130" t="s">
         <v>59</v>
@@ -6827,10 +6823,10 @@
         <v>13</v>
       </c>
       <c r="H131" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I131" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K131" t="s">
         <v>59</v>
@@ -6859,10 +6855,10 @@
         <v>13</v>
       </c>
       <c r="H132" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I132" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K132" t="s">
         <v>59</v>
@@ -6891,95 +6887,95 @@
         <v>13</v>
       </c>
       <c r="H133" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I133" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B134" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C134" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D134" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E134" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F134" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H134" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I134" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J134">
         <v>3</v>
       </c>
       <c r="L134" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J135" s="5">
         <v>1</v>
       </c>
       <c r="K135" s="5"/>
       <c r="L135" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B136" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C136" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D136" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E136" t="s">
         <v>11</v>
@@ -6991,10 +6987,10 @@
         <v>11</v>
       </c>
       <c r="H136" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I136" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K136" t="s">
         <v>11</v>
@@ -7005,16 +7001,16 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B137" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C137" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D137" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E137" t="s">
         <v>11</v>
@@ -7026,10 +7022,10 @@
         <v>11</v>
       </c>
       <c r="H137" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I137" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K137" t="s">
         <v>11</v>
@@ -7040,16 +7036,16 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B138" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C138" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D138" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="E138" t="s">
         <v>11</v>
@@ -7061,10 +7057,10 @@
         <v>11</v>
       </c>
       <c r="H138" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I138" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K138" t="s">
         <v>11</v>

--- a/Data/Data_Raw/Country codes & metadata/metadata.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="8_{97974825-B185-4BF9-BCAD-C4500B5B26B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81C2B08C-B61B-486A-8102-42E2DDFFAD96}"/>
+  <xr:revisionPtr revIDLastSave="300" documentId="8_{97974825-B185-4BF9-BCAD-C4500B5B26B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69C27B96-A46B-4575-ACD5-2DA67F778F13}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="653">
   <si>
     <t>name_portal</t>
   </si>
@@ -241,9 +241,6 @@
     <t>IM_BCG</t>
   </si>
   <si>
-    <t>Percentage of live births who received bacille Calmette-Guerin (vaccine against tuberculosis)</t>
-  </si>
-  <si>
     <t>Numerator: Number of live births who received bacille Calmette-Guérin (vaccine against tuberculosis). Denominator: Total number of live births</t>
   </si>
   <si>
@@ -274,9 +271,6 @@
     <t>IM_DTP3</t>
   </si>
   <si>
-    <t>Percentage of surviving infants who received the third dose of DTP-containing vaccine</t>
-  </si>
-  <si>
     <t>Numerator: Number of surviving infants who received the third dose of DTP containing vaccine. Denominator: Total number of surviving infants</t>
   </si>
   <si>
@@ -286,9 +280,6 @@
     <t>IM_HEPB3</t>
   </si>
   <si>
-    <t>Percentage of surviving infants who received the third dose of hep B-containing vaccine</t>
-  </si>
-  <si>
     <t>Numerator: Number of surviving infants who received the third dose of HepB containing vaccine. Denominator: Total number of surviving infants</t>
   </si>
   <si>
@@ -524,9 +515,6 @@
   </si>
   <si>
     <t>World Bank DataBank</t>
-  </si>
-  <si>
-    <t>Survival Rate from Age 15-60</t>
   </si>
   <si>
     <t>Adult survival rate is calculated by subtracting the mortality rate for 15-60 year-olds from 1. Most recent estimates are used.  Year of most recent estimate shown in data notes.</t>
@@ -836,9 +824,6 @@
     <t>WS_HCF_H_B</t>
   </si>
   <si>
-    <t>Proportion of health care facilities with basic hygiene services</t>
-  </si>
-  <si>
     <t>Numerator: Number of health care facilities with basic hygiene services. Denominator: Number of health care facilities</t>
   </si>
   <si>
@@ -851,18 +836,12 @@
     <t>WS_HCF_S_B</t>
   </si>
   <si>
-    <t>Proportion of health care facilities with basic sanitation services</t>
-  </si>
-  <si>
     <t>Numerator: Number of health care facilities with basic sanitation services. Denominator: Number of health care facilities</t>
   </si>
   <si>
     <t>WS_HCF_W_B</t>
   </si>
   <si>
-    <t>Proportion of health care facilities with basic water services</t>
-  </si>
-  <si>
     <t>Numerator: Number of health care facilities with basic water services. Denominator: Number of health care facilities</t>
   </si>
   <si>
@@ -887,9 +866,6 @@
     <t>WS_PPL_S_ALB</t>
   </si>
   <si>
-    <t>Proportion of population using at least basic sanitation services</t>
-  </si>
-  <si>
     <t>Numerator: Population using at least basic sanitation services. Denominator: Total Population</t>
   </si>
   <si>
@@ -908,9 +884,6 @@
     <t>WS_SCH_H_B</t>
   </si>
   <si>
-    <t>Proportion of schools with basic hygiene services</t>
-  </si>
-  <si>
     <t>Numerator: Number of schools with basic hygiene services. Denominator: Number of schools</t>
   </si>
   <si>
@@ -920,18 +893,12 @@
     <t>WS_SCH_S_B</t>
   </si>
   <si>
-    <t>Proportion of schools with basic sanitation services</t>
-  </si>
-  <si>
     <t>Numerator: Number of schools with basic sanitation services. Denominator: Number of schools</t>
   </si>
   <si>
     <t>WS_SCH_W_B</t>
   </si>
   <si>
-    <t>Proportion of schools with basic drinking water services</t>
-  </si>
-  <si>
     <t>Numerator: Number of schools with basic drinking water services. Denominator: Number of schools</t>
   </si>
   <si>
@@ -992,18 +959,12 @@
     <t>suicide_15_19</t>
   </si>
   <si>
-    <t>Crude suicide rates (per 100 000 population)</t>
-  </si>
-  <si>
     <t>Crude suicide rates (per 100 000 population), 15-19 year age group</t>
   </si>
   <si>
     <t>u5_anaemia</t>
   </si>
   <si>
-    <t>Prevalence of anaemia in children aged 6–59 months (%)</t>
-  </si>
-  <si>
     <t>Percentage of children aged 6−59 months with a haemoglobin concentration less than 110 g/L, adjusted for altitude.</t>
   </si>
   <si>
@@ -1013,9 +974,6 @@
     <t>u5_pneu_cs</t>
   </si>
   <si>
-    <t>Children aged &lt; 5 years with pneumonia symptoms taken to a health facility (%)</t>
-  </si>
-  <si>
     <t>Percentage of children aged 0–59 months with pneumonia symptoms in the two weeks prior to the survey who were taken to an appropriate health provider.</t>
   </si>
   <si>
@@ -1073,12 +1031,6 @@
     <t>Health</t>
   </si>
   <si>
-    <t>Minimum meal frequency (children aged 6 to 23 months) (%)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
-  </si>
-  <si>
     <t>Completeness of birth registration (%)</t>
   </si>
   <si>
@@ -1094,9 +1046,6 @@
     <t>School enrollment, secondary (% gross)</t>
   </si>
   <si>
-    <t>Lower secondary completion rate (% of relevant age group)</t>
-  </si>
-  <si>
     <t>Over-age lower secondary students (%)</t>
   </si>
   <si>
@@ -1106,15 +1055,9 @@
     <t>Qualified teachers in primary education (%)</t>
   </si>
   <si>
-    <t>Proportion of primary schools with access to electricity (%)</t>
-  </si>
-  <si>
     <t>Labor</t>
   </si>
   <si>
-    <t>Completion rate, upper secondary education (%)</t>
-  </si>
-  <si>
     <t>Youth</t>
   </si>
   <si>
@@ -1124,9 +1067,6 @@
     <t>Qualified teachers in secondary education (%)</t>
   </si>
   <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
     <t>Youth NEET (%), ages 15-24</t>
   </si>
   <si>
@@ -1142,9 +1082,6 @@
     <t>Life expectancy at birth (years)</t>
   </si>
   <si>
-    <t>Cause of death, by non-communicable diseases (% of total)</t>
-  </si>
-  <si>
     <t>Unemployment (%), ages 25+</t>
   </si>
   <si>
@@ -1274,9 +1211,6 @@
     <t>ch_ontrack</t>
   </si>
   <si>
-    <t>Proportion of children aged 24–59 months who are developmentally on track in health, learning and psychosocial well-being (%)</t>
-  </si>
-  <si>
     <t>UNICEF</t>
   </si>
   <si>
@@ -1316,9 +1250,6 @@
     <t>out_school</t>
   </si>
   <si>
-    <t>4.6.2.Youth literacy rate, population 15-24 years, both sexes (%)</t>
-  </si>
-  <si>
     <t>The youth literacy rate is defined by the percentage of the population aged 15 to 24 years that can read and write. It is typically measured according to the ability to comprehend a short simple statement on everyday life. Generally, literacy also encompasses numeracy, and measurement may incorporate a simple assessment of arithmetic ability. </t>
   </si>
   <si>
@@ -1331,9 +1262,6 @@
     <t>https://data.unicef.org/resources/data_explorer/unicef_f/?ag=UNICEF&amp;df=GLOBAL_DATAFLOW&amp;ver=1.0&amp;dq=.MNCH_BIRTH18..&amp;startPeriod=2015&amp;endPeriod=2022</t>
   </si>
   <si>
-    <t>Demand for family planning satisfied by any method (Percent) 1</t>
-  </si>
-  <si>
     <t> Percentage of women of reproductive age (15-49 years) who had theur need for family planning satisfied with any method</t>
   </si>
   <si>
@@ -1343,9 +1271,6 @@
     <t>met_fam_plan</t>
   </si>
   <si>
-    <t>Percentage of females who received the last dose of human papillomavirus (HPV) vaccine per national schedule</t>
-  </si>
-  <si>
     <t>HPV_vac</t>
   </si>
   <si>
@@ -1376,18 +1301,12 @@
     <t>minprof_m_lowsec</t>
   </si>
   <si>
-    <t>Proportion of students at the end of primary education achieving at least a minimum proficiency level in reading, both sexes (%)</t>
-  </si>
-  <si>
     <t>Proportion of students at the end of lower secondary education achieving at least a minimum proficiency level in reading, both sexes (%)</t>
   </si>
   <si>
     <t>Proportion of students in Grade 2 or 3 achieving at least a minimum proficiency level in mathematics, both sexes (%)</t>
   </si>
   <si>
-    <t>Proportion of students at the end of primary education achieving at least a minimum proficiency level in mathematics, both sexes (%)</t>
-  </si>
-  <si>
     <t>Proportion of students at the end of lower secondary education achieving at least a minimum proficiency level in mathematics, both sexes (%)</t>
   </si>
   <si>
@@ -1556,9 +1475,6 @@
     <t>ECD_CHLD_36_59M_LMPSL</t>
   </si>
   <si>
-    <t>Participation rate in organized learning (one year before the official primary entry age) (%)</t>
-  </si>
-  <si>
     <t>high_skill</t>
   </si>
   <si>
@@ -1670,9 +1586,6 @@
     <t>2021, March 31</t>
   </si>
   <si>
-    <t>labor force participation (%), ages 25+</t>
-  </si>
-  <si>
     <t>labor force participation rate = labor force / Working-age population x 100 = (Persons employed + Persons unemployed) / Working-age population x 100</t>
   </si>
   <si>
@@ -1704,9 +1617,6 @@
   </si>
   <si>
     <t>Unemployment rate = Persons unemployed / labor force = Persons unemployed / (Persons employed + Persons unemployed) x 100</t>
-  </si>
-  <si>
-    <t>Gross enrollment ratio, early childhood education, both sexes (%)</t>
   </si>
   <si>
     <t>Gross early childhood education enrollment ratio in (a) pre-primary education and (b) early childhood educational development,  both sexes (%)</t>
@@ -1728,9 +1638,6 @@
 </t>
   </si>
   <si>
-    <t>Prevalence of insufficient physical activity among school-going adolescents aged 11-17 years</t>
-  </si>
-  <si>
     <t>Percent of school-going adolescents not meeting WHO recommendations on Physical Activity for Health, i.e. doing less than 60 minutes of moderate- to vigorous-intensity physical activity daily.</t>
   </si>
   <si>
@@ -1743,15 +1650,6 @@
     <t>Percentage of women (aged 20-24 years) who gave birth before age 18</t>
   </si>
   <si>
-    <t>Percentage of children under age 5 with fever for whom advice or treatment was sought from a health facility or provider</t>
-  </si>
-  <si>
-    <t>Percentage of women aged 15-49 years who received postnatal care within 2 days of giving birth</t>
-  </si>
-  <si>
-    <t>Percentage of children aged 5-17 years engaged in child labour (economic activities)</t>
-  </si>
-  <si>
     <t>Per cent of children aged 0-14 years living with HIV and receiving antiretroviral therapy (ART)</t>
   </si>
   <si>
@@ -1761,9 +1659,6 @@
     <t>Per cent of young people aged 15-24 years who know a place to get tested for HIV</t>
   </si>
   <si>
-    <t>Percentage of children under age 5 who slept under an insecticide-treated mosquito net the night prior to the survey</t>
-  </si>
-  <si>
     <t>Percentage of pregnant women aged 15-49 years who slept under an insecticide-treated net the night prior to the survey</t>
   </si>
   <si>
@@ -1887,9 +1782,6 @@
     <t>NERT_2_CP</t>
   </si>
   <si>
-    <t>Total net enrolment rate, lower secondary, both sexes (%)</t>
-  </si>
-  <si>
     <t>NERT_1_CP</t>
   </si>
   <si>
@@ -1911,9 +1803,6 @@
     <t>NT_BF_EXBF</t>
   </si>
   <si>
-    <t>Percentage of newborns who have a postnatal contact with a health provider within 2 days of delivery.</t>
-  </si>
-  <si>
     <t>insbirths</t>
   </si>
   <si>
@@ -1953,9 +1842,6 @@
     <t>idp_pop</t>
   </si>
   <si>
-    <t>Internally displaced persons of concern to UNHCR (% population)</t>
-  </si>
-  <si>
     <t>Internally displaced persons of concern to UNHCR/population</t>
   </si>
   <si>
@@ -2041,6 +1927,123 @@
   </si>
   <si>
     <t>netenr_us</t>
+  </si>
+  <si>
+    <t>Labor force participation (%), ages 25+</t>
+  </si>
+  <si>
+    <t>Survival Rate ( ages 15-60)</t>
+  </si>
+  <si>
+    <t>Basic hygiene, health care facilities (%)</t>
+  </si>
+  <si>
+    <t>Basic hygiene, schools (%)</t>
+  </si>
+  <si>
+    <t>Basic sanitation, health care facilities (%)</t>
+  </si>
+  <si>
+    <t>Basic sanitation, schools (%)</t>
+  </si>
+  <si>
+    <t>Basic water services, health care facilities (%)</t>
+  </si>
+  <si>
+    <t>Basic drinking water, schools (%)</t>
+  </si>
+  <si>
+    <t>Postnatal care (% newborns)</t>
+  </si>
+  <si>
+    <t>Postnatal care, mothers (%)</t>
+  </si>
+  <si>
+    <t>Children developmentally on track (%)</t>
+  </si>
+  <si>
+    <t>Child labor (%)</t>
+  </si>
+  <si>
+    <t>Healthcare for febrile children (%)</t>
+  </si>
+  <si>
+    <t>Gross enrollment, early childhood education (%)</t>
+  </si>
+  <si>
+    <t>HPV vaccine, last dose (% females)</t>
+  </si>
+  <si>
+    <t>Prevalence of hypertension, 30-79 years (%)</t>
+  </si>
+  <si>
+    <t>Insufficient physical activity, 11-17 years (%)</t>
+  </si>
+  <si>
+    <t>Children sleeping under an ITN (%)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (%)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (%)</t>
+  </si>
+  <si>
+    <t>Minimum meal frequency, 6-23 months (%)</t>
+  </si>
+  <si>
+    <t>Demand for family planning satisfied (%)</t>
+  </si>
+  <si>
+    <t>Minimum proficiency in mathematics, primary (%)</t>
+  </si>
+  <si>
+    <t>Minimum proficiency in reading, primary (%)</t>
+  </si>
+  <si>
+    <t>Deaths by non-communicable diseases (%)</t>
+  </si>
+  <si>
+    <t>Participation in organized learning,  pre-primary (%)</t>
+  </si>
+  <si>
+    <t>Adolescent suicide rates (per 100000 population)</t>
+  </si>
+  <si>
+    <t>Prevalence of anaemia, 6–59 months (%)</t>
+  </si>
+  <si>
+    <t>Health care for neumonia sympthoms (%)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate (%)</t>
+  </si>
+  <si>
+    <t>Completion rate, upper secondary (%)</t>
+  </si>
+  <si>
+    <t>Primary schools with access to electricity (%)</t>
+  </si>
+  <si>
+    <t>Basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>BCG vaccination (% of live births)</t>
+  </si>
+  <si>
+    <t>DTP vaccination, 3rd dose (% of infants)</t>
+  </si>
+  <si>
+    <t>Hepatitis B vaccination, 3rd dose (% of infants)</t>
+  </si>
+  <si>
+    <t>Youth literacy rate, 15-24 years (%)</t>
+  </si>
+  <si>
+    <t>Net enrolment rate, lower secondary (%)</t>
+  </si>
+  <si>
+    <t>Internally displaced persons (% population)</t>
   </si>
 </sst>
 </file>
@@ -2510,11 +2513,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E142" sqref="E142"/>
+      <selection pane="topRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2528,7 +2532,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>626</v>
+        <v>588</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2564,52 +2568,52 @@
         <v>10</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>C2</f>
         <v>A_seekers</v>
       </c>
       <c r="B2" t="s">
-        <v>624</v>
+        <v>586</v>
       </c>
       <c r="C2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E2" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>524</v>
+        <v>496</v>
       </c>
       <c r="H2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I2" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="J2" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="M2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>C3</f>
         <v>HVA_EPI_DTH_RT_0_14</v>
       </c>
       <c r="B3" t="s">
-        <v>625</v>
+        <v>587</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
@@ -2627,13 +2631,13 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A67" si="0">C4</f>
         <v>HVA_EPI_DTH_ANN_15_24</v>
@@ -2657,31 +2661,31 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="J4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>MNCH_ANC1</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>550</v>
+        <v>519</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G5" t="s">
         <v>49</v>
@@ -2690,31 +2694,31 @@
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>MNCH_ANC4</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>549</v>
+        <v>518</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G6" t="s">
         <v>49</v>
@@ -2723,48 +2727,48 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>639</v>
+        <v>601</v>
       </c>
       <c r="B7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" t="s">
+        <v>563</v>
+      </c>
+      <c r="D7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" t="s">
+        <v>615</v>
+      </c>
+      <c r="F7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" t="s">
         <v>148</v>
       </c>
-      <c r="C7" t="s">
-        <v>598</v>
-      </c>
-      <c r="D7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" t="s">
-        <v>152</v>
-      </c>
       <c r="H7" s="8" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="I7" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="J7" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2773,37 +2777,37 @@
         <v>WS_HCF_H_B</v>
       </c>
       <c r="B8" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="C8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>250</v>
+        <v>616</v>
       </c>
       <c r="F8" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G8" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="J8" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K8">
         <v>4</v>
       </c>
       <c r="L8" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2812,37 +2816,37 @@
         <v>WS_SCH_H_B</v>
       </c>
       <c r="B9" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="C9" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>274</v>
+        <v>617</v>
       </c>
       <c r="F9" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="G9" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J9" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K9">
         <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2851,37 +2855,37 @@
         <v>WS_HCF_S_B</v>
       </c>
       <c r="B10" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="C10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>255</v>
+        <v>618</v>
       </c>
       <c r="F10" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G10" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="J10" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K10">
         <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2890,142 +2894,142 @@
         <v>WS_SCH_S_B</v>
       </c>
       <c r="B11" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="C11" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>278</v>
+        <v>619</v>
       </c>
       <c r="F11" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="G11" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J11" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>WS_HCF_W_B</v>
       </c>
       <c r="B12" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="C12" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>258</v>
+        <v>620</v>
       </c>
       <c r="F12" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G12" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="J12" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="L12" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>WS_SCH_W_B</v>
       </c>
       <c r="B13" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="C13" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>281</v>
+        <v>621</v>
       </c>
       <c r="F13" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="G13" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J13" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="L13" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>MNCH_BIRTH18</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>551</v>
+        <v>520</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -3036,37 +3040,37 @@
         <v>NT_BF_EXBF</v>
       </c>
       <c r="B15" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="C15" t="s">
-        <v>607</v>
+        <v>571</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="F15" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>463</v>
+        <v>436</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="I15" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J15" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K15">
         <v>13</v>
       </c>
       <c r="L15" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -3075,31 +3079,31 @@
         <v>MNCH_PNCNB</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>510</v>
+        <v>482</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K16" s="15">
         <v>5</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3108,19 +3112,19 @@
         <v>MNCH_MLRCARE</v>
       </c>
       <c r="B17" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>552</v>
+        <v>626</v>
       </c>
       <c r="F17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G17" t="s">
         <v>49</v>
@@ -3129,10 +3133,10 @@
         <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J17" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K17">
         <v>8</v>
@@ -3144,37 +3148,37 @@
         <v>MNCH_PNCMOM</v>
       </c>
       <c r="B18" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="C18" t="s">
-        <v>606</v>
+        <v>570</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>553</v>
+        <v>623</v>
       </c>
       <c r="F18" t="s">
-        <v>509</v>
+        <v>481</v>
       </c>
       <c r="G18" t="s">
         <v>49</v>
       </c>
       <c r="H18" t="s">
-        <v>510</v>
+        <v>482</v>
       </c>
       <c r="I18" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="J18" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K18">
         <v>7</v>
       </c>
       <c r="L18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -3183,31 +3187,31 @@
         <v>ECD_CHLD_36_59M_LMPSL</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>396</v>
+        <v>624</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="K19" s="5">
         <v>1</v>
@@ -3220,19 +3224,19 @@
         <v>PT_CHLD_5_17_LBR_ECON</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C20" t="s">
-        <v>492</v>
+        <v>464</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>554</v>
+        <v>625</v>
       </c>
       <c r="F20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G20" t="s">
         <v>49</v>
@@ -3241,10 +3245,10 @@
         <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J20" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -3256,31 +3260,31 @@
         <v>MNCH_DIARCARE</v>
       </c>
       <c r="B21" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="C21" t="s">
-        <v>605</v>
+        <v>569</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="F21" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
       <c r="I21" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J21" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K21">
         <v>16</v>
       </c>
       <c r="L21" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3289,40 +3293,40 @@
         <v>eap_2wap_mf_a</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>528</v>
+        <v>614</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>512</v>
+        <v>484</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="K22" s="13">
         <v>1</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -3331,37 +3335,37 @@
         <v>ECedu</v>
       </c>
       <c r="B23" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C23" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D23" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E23" t="s">
-        <v>540</v>
+        <v>627</v>
       </c>
       <c r="F23" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I23" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J23" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="K23">
         <v>4</v>
       </c>
       <c r="M23" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>ED_MAT_G23</v>
@@ -3376,10 +3380,10 @@
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="F24" t="s">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>11</v>
@@ -3388,16 +3392,16 @@
         <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J24" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="L24" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>ED_READ_G23</v>
@@ -3412,10 +3416,10 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="F25" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>11</v>
@@ -3424,203 +3428,203 @@
         <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J25" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>645</v>
+        <v>607</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>eip_2plf_a</v>
       </c>
       <c r="B27" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C27" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D27" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="E27" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="F27" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="G27" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
       <c r="I27" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="J27" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="L27" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M27" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>eip_2plf_y</v>
       </c>
       <c r="B28" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C28" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D28" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="E28" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
       <c r="F28" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="G28" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
       <c r="H28" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
       <c r="I28" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="J28" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="L28" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M28" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>eip_2wap_a</v>
       </c>
       <c r="B29" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C29" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D29" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="E29" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="F29" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="G29" t="s">
-        <v>512</v>
+        <v>484</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>520</v>
+        <v>492</v>
       </c>
       <c r="I29" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="J29" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="L29" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M29" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>eip_2wap_y</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>452</v>
+        <v>425</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>512</v>
+        <v>484</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>520</v>
+        <v>492</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3629,40 +3633,40 @@
         <v>eip_neet_mf_y</v>
       </c>
       <c r="B31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D31" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="E31" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="F31" t="s">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="G31" t="s">
-        <v>512</v>
+        <v>484</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
       <c r="I31" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="J31" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M31" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -3671,40 +3675,40 @@
         <v>emp_nifl_a</v>
       </c>
       <c r="B32" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C32" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D32" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="E32" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="F32" t="s">
-        <v>450</v>
+        <v>423</v>
       </c>
       <c r="G32" t="s">
-        <v>507</v>
+        <v>479</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>516</v>
+        <v>488</v>
       </c>
       <c r="I32" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="J32" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="K32">
         <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M32" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -3713,319 +3717,319 @@
         <v>emp_nifl_y</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D33" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="E33" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="F33" t="s">
-        <v>450</v>
+        <v>423</v>
       </c>
       <c r="G33" t="s">
-        <v>507</v>
+        <v>479</v>
       </c>
       <c r="H33" t="s">
-        <v>516</v>
+        <v>488</v>
       </c>
       <c r="I33" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="J33" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="K33">
         <v>4</v>
       </c>
       <c r="L33" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M33" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>640</v>
+        <v>602</v>
       </c>
       <c r="B34" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C34" t="s">
-        <v>590</v>
+        <v>555</v>
       </c>
       <c r="D34" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F34" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="G34" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H34" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="I34" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J34" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M34" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" ref="A35:A36" si="1">B35</f>
         <v>fao_stunting</v>
       </c>
       <c r="B35" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="C35" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="D35" t="s">
+        <v>299</v>
+      </c>
+      <c r="E35" t="s">
+        <v>306</v>
+      </c>
+      <c r="F35" t="s">
+        <v>307</v>
+      </c>
+      <c r="G35" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="I35" t="s">
         <v>313</v>
       </c>
-      <c r="E35" t="s">
-        <v>320</v>
-      </c>
-      <c r="F35" t="s">
-        <v>321</v>
-      </c>
-      <c r="G35" t="s">
-        <v>63</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="I35" t="s">
-        <v>327</v>
-      </c>
       <c r="J35" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="L35" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M35" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="1"/>
         <v>fao_wasting</v>
       </c>
       <c r="B36" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="C36" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="D36" t="s">
+        <v>299</v>
+      </c>
+      <c r="E36" t="s">
+        <v>303</v>
+      </c>
+      <c r="F36" t="s">
+        <v>304</v>
+      </c>
+      <c r="G36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" t="s">
+        <v>301</v>
+      </c>
+      <c r="I36" t="s">
         <v>313</v>
       </c>
-      <c r="E36" t="s">
-        <v>317</v>
-      </c>
-      <c r="F36" t="s">
-        <v>318</v>
-      </c>
-      <c r="G36" t="s">
-        <v>63</v>
-      </c>
-      <c r="H36" t="s">
-        <v>315</v>
-      </c>
-      <c r="I36" t="s">
-        <v>327</v>
-      </c>
       <c r="J36" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="L36" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M36" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>641</v>
+        <v>603</v>
       </c>
       <c r="B37" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C37" t="s">
-        <v>593</v>
+        <v>558</v>
       </c>
       <c r="D37" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E37" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F37" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G37" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H37" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="I37" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="J37" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M37" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>642</v>
+        <v>604</v>
       </c>
       <c r="B38" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C38" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="D38" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E38" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F38" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G38" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H38" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="I38" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="J38" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38" t="s">
+        <v>164</v>
+      </c>
+      <c r="M38" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>605</v>
+      </c>
+      <c r="B39" t="s">
         <v>168</v>
       </c>
-      <c r="M38" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>643</v>
-      </c>
-      <c r="B39" t="s">
-        <v>172</v>
-      </c>
       <c r="C39" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="D39" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E39" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F39" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G39" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H39" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="I39" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="J39" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M39" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>646</v>
+        <v>608</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5" t="s">
-        <v>525</v>
+        <v>497</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K40" s="5">
         <v>5</v>
       </c>
       <c r="L40" s="5"/>
       <c r="M40" s="5" t="s">
-        <v>507</v>
+        <v>479</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -4034,41 +4038,41 @@
         <v>high_skill</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>512</v>
+        <v>484</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="K41" s="5">
         <v>4</v>
       </c>
       <c r="L41" s="5"/>
       <c r="M41" s="5" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>HVA_EPI_INF_RT_0_14</v>
@@ -4092,10 +4096,10 @@
         <v>13</v>
       </c>
       <c r="I42" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J42" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -4107,7 +4111,7 @@
         <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>495</v>
+        <v>467</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -4122,16 +4126,16 @@
         <v>13</v>
       </c>
       <c r="I43" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="J43" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K43">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>HVA_PMTCT_MTCT</v>
@@ -4155,10 +4159,10 @@
         <v>13</v>
       </c>
       <c r="I44" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J44" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -4167,38 +4171,38 @@
         <v>IM_HPV</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>419</v>
+        <v>628</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K45" s="5">
         <v>5</v>
       </c>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>HVA_PED_ART_CVG</v>
@@ -4213,7 +4217,7 @@
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>555</v>
+        <v>521</v>
       </c>
       <c r="F46" t="s">
         <v>42</v>
@@ -4222,13 +4226,13 @@
         <v>13</v>
       </c>
       <c r="I46" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J46" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>HVA_PREV_KNOW</v>
@@ -4243,7 +4247,7 @@
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>556</v>
+        <v>522</v>
       </c>
       <c r="F47" t="s">
         <v>48</v>
@@ -4255,19 +4259,19 @@
         <v>13</v>
       </c>
       <c r="I47" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="J47" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>HVA_PREV_KNOW_TEST</v>
       </c>
       <c r="B48" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="C48" t="s">
         <v>50</v>
@@ -4276,7 +4280,7 @@
         <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="F48" t="s">
         <v>51</v>
@@ -4288,10 +4292,10 @@
         <v>13</v>
       </c>
       <c r="I48" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="J48" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -4300,40 +4304,40 @@
         <v>hypertension_30_79</v>
       </c>
       <c r="B49" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="C49" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="D49" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="E49" t="s">
-        <v>285</v>
+        <v>629</v>
       </c>
       <c r="F49" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="G49" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="I49" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="J49" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K49">
         <v>6</v>
       </c>
       <c r="M49" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>IDPs</v>
@@ -4345,25 +4349,25 @@
         <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E50" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
       <c r="G50" t="s">
-        <v>524</v>
+        <v>496</v>
       </c>
       <c r="H50" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I50" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="J50" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="M50" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
     </row>
     <row r="51" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4372,31 +4376,31 @@
         <v>insbirths</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K51" s="11">
         <v>6</v>
@@ -4408,37 +4412,37 @@
         <v>insuf_activity</v>
       </c>
       <c r="B52" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C52" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D52" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="E52" t="s">
-        <v>547</v>
+        <v>630</v>
       </c>
       <c r="F52" t="s">
-        <v>548</v>
+        <v>517</v>
       </c>
       <c r="G52" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="H52" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="I52" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J52" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K52">
         <v>4</v>
       </c>
       <c r="M52" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -4447,19 +4451,19 @@
         <v>MNCH_ITN</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>558</v>
+        <v>631</v>
       </c>
       <c r="F53" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G53" t="s">
         <v>49</v>
@@ -4468,34 +4472,34 @@
         <v>13</v>
       </c>
       <c r="I53" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J53" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K53">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>MNCH_ITNPREG</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C54" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>559</v>
+        <v>524</v>
       </c>
       <c r="F54" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G54" t="s">
         <v>49</v>
@@ -4504,10 +4508,10 @@
         <v>13</v>
       </c>
       <c r="I54" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="J54" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -4516,40 +4520,40 @@
         <v>SP_ADO_TFRT</v>
       </c>
       <c r="B55" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C55" t="s">
-        <v>568</v>
+        <v>533</v>
       </c>
       <c r="D55" t="s">
+        <v>146</v>
+      </c>
+      <c r="E55" t="s">
+        <v>632</v>
+      </c>
+      <c r="F55" t="s">
+        <v>443</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="H55" t="s">
         <v>149</v>
       </c>
-      <c r="E55" t="s">
-        <v>346</v>
-      </c>
-      <c r="F55" t="s">
-        <v>470</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="H55" t="s">
-        <v>153</v>
-      </c>
       <c r="I55" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="J55" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K55">
         <v>1</v>
       </c>
       <c r="L55" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M55" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -4558,40 +4562,40 @@
         <v>SP_REG_BRTH_ZS</v>
       </c>
       <c r="B56" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C56" t="s">
-        <v>571</v>
+        <v>536</v>
       </c>
       <c r="D56" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56" t="s">
+        <v>315</v>
+      </c>
+      <c r="F56" t="s">
+        <v>445</v>
+      </c>
+      <c r="G56" t="s">
+        <v>219</v>
+      </c>
+      <c r="H56" t="s">
         <v>149</v>
       </c>
-      <c r="E56" t="s">
-        <v>331</v>
-      </c>
-      <c r="F56" t="s">
-        <v>472</v>
-      </c>
-      <c r="G56" t="s">
-        <v>223</v>
-      </c>
-      <c r="H56" t="s">
-        <v>153</v>
-      </c>
       <c r="I56" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J56" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K56">
         <v>11</v>
       </c>
       <c r="L56" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M56" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -4600,79 +4604,79 @@
         <v>SH_STA_MMRT_NE</v>
       </c>
       <c r="B57" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C57" t="s">
-        <v>570</v>
+        <v>535</v>
       </c>
       <c r="D57" t="s">
+        <v>146</v>
+      </c>
+      <c r="E57" t="s">
+        <v>633</v>
+      </c>
+      <c r="F57" t="s">
+        <v>449</v>
+      </c>
+      <c r="G57" t="s">
+        <v>219</v>
+      </c>
+      <c r="H57" t="s">
         <v>149</v>
       </c>
-      <c r="E57" t="s">
-        <v>330</v>
-      </c>
-      <c r="F57" t="s">
-        <v>476</v>
-      </c>
-      <c r="G57" t="s">
-        <v>223</v>
-      </c>
-      <c r="H57" t="s">
-        <v>153</v>
-      </c>
       <c r="I57" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J57" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K57">
         <v>7</v>
       </c>
       <c r="L57" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M57" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>C58</f>
         <v>SE_SEC_ENRR</v>
       </c>
       <c r="B58" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C58" t="s">
-        <v>577</v>
+        <v>542</v>
       </c>
       <c r="D58" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" t="s">
+        <v>319</v>
+      </c>
+      <c r="F58" t="s">
+        <v>457</v>
+      </c>
+      <c r="G58" t="s">
+        <v>448</v>
+      </c>
+      <c r="H58" t="s">
         <v>149</v>
       </c>
-      <c r="E58" t="s">
-        <v>335</v>
-      </c>
-      <c r="F58" t="s">
-        <v>484</v>
-      </c>
-      <c r="G58" t="s">
-        <v>475</v>
-      </c>
-      <c r="H58" t="s">
-        <v>153</v>
-      </c>
       <c r="I58" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J58" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="L58" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M58" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -4681,118 +4685,118 @@
         <v>lastnm_ter_ger</v>
       </c>
       <c r="B59" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C59" t="s">
-        <v>578</v>
+        <v>543</v>
       </c>
       <c r="D59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E59" t="s">
+        <v>325</v>
+      </c>
+      <c r="F59" t="s">
+        <v>458</v>
+      </c>
+      <c r="G59" t="s">
+        <v>448</v>
+      </c>
+      <c r="H59" t="s">
         <v>149</v>
       </c>
-      <c r="E59" t="s">
-        <v>344</v>
-      </c>
-      <c r="F59" t="s">
-        <v>485</v>
-      </c>
-      <c r="G59" t="s">
-        <v>475</v>
-      </c>
-      <c r="H59" t="s">
-        <v>153</v>
-      </c>
       <c r="I59" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="J59" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="K59">
         <v>3</v>
       </c>
       <c r="L59" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M59" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="2"/>
         <v>luu_2lu4_mf_a</v>
       </c>
       <c r="B60" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C60" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D60" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="E60" t="s">
-        <v>534</v>
+        <v>505</v>
       </c>
       <c r="F60" t="s">
-        <v>535</v>
+        <v>506</v>
       </c>
       <c r="G60" t="s">
-        <v>518</v>
+        <v>490</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>517</v>
+        <v>489</v>
       </c>
       <c r="I60" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="J60" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="L60" t="s">
-        <v>536</v>
+        <v>507</v>
       </c>
       <c r="M60" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>luu_2lu4_mf_y</v>
       </c>
       <c r="B61" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C61" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D61" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="E61" t="s">
-        <v>537</v>
+        <v>508</v>
       </c>
       <c r="F61" t="s">
-        <v>535</v>
+        <v>506</v>
       </c>
       <c r="G61" t="s">
-        <v>518</v>
+        <v>490</v>
       </c>
       <c r="H61" t="s">
-        <v>517</v>
+        <v>489</v>
       </c>
       <c r="I61" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="J61" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="L61" t="s">
-        <v>538</v>
+        <v>509</v>
       </c>
       <c r="M61" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -4801,37 +4805,37 @@
         <v>NT_CF_MMF</v>
       </c>
       <c r="B62" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="C62" t="s">
-        <v>579</v>
+        <v>544</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
       </c>
       <c r="E62" t="s">
-        <v>329</v>
+        <v>634</v>
       </c>
       <c r="F62" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>463</v>
+        <v>436</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="I62" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J62" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K62">
         <v>2</v>
       </c>
       <c r="L62" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -4840,38 +4844,38 @@
         <v>met_fam_plan</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>415</v>
+        <v>635</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K63" s="5">
         <v>3</v>
       </c>
       <c r="L63" s="5"/>
       <c r="M63" s="5" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -4880,108 +4884,108 @@
         <v>minprof_m_endprim</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>493</v>
+        <v>465</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>493</v>
+        <v>465</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>433</v>
+        <v>636</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="K64" s="5">
         <v>11</v>
       </c>
       <c r="L64" s="5"/>
       <c r="M64" s="5" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>minprof_m_g23</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="5" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
       <c r="M65" s="5" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>minprof_m_lowsec</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5" t="s">
-        <v>503</v>
+        <v>475</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -4990,129 +4994,129 @@
         <v>minprof_r_endprim</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>494</v>
+        <v>466</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>494</v>
+        <v>466</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>430</v>
+        <v>637</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="K67" s="5">
         <v>10</v>
       </c>
       <c r="L67" s="5"/>
       <c r="M67" s="5" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" ref="A68:A131" si="3">C68</f>
         <v>minprof_r_g23</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="5" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
       <c r="M68" s="5" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="3"/>
         <v>minprof_r_lowsec</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="5" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="3"/>
         <v>MNCH_DEMAND_FP</v>
       </c>
       <c r="B70" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C70" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="F70" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G70" t="s">
         <v>49</v>
@@ -5121,31 +5125,31 @@
         <v>13</v>
       </c>
       <c r="I70" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="J70" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="3"/>
         <v>MNCH_MLRACT</v>
       </c>
       <c r="B71" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C71" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>561</v>
+        <v>526</v>
       </c>
       <c r="F71" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G71" t="s">
         <v>49</v>
@@ -5154,31 +5158,31 @@
         <v>13</v>
       </c>
       <c r="I71" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J71" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="3"/>
         <v>MNCH_MLRDIAG</v>
       </c>
       <c r="B72" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C72" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D72" t="s">
         <v>12</v>
       </c>
       <c r="E72" t="s">
-        <v>562</v>
+        <v>527</v>
       </c>
       <c r="F72" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G72" t="s">
         <v>49</v>
@@ -5187,31 +5191,31 @@
         <v>13</v>
       </c>
       <c r="I72" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J72" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="3"/>
         <v>MNCH_PNEUCARE</v>
       </c>
       <c r="B73" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C73" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>563</v>
+        <v>528</v>
       </c>
       <c r="F73" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G73" t="s">
         <v>49</v>
@@ -5220,31 +5224,31 @@
         <v>13</v>
       </c>
       <c r="I73" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J73" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="3"/>
         <v>MNCH_SAB</v>
       </c>
       <c r="B74" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C74" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>564</v>
+        <v>529</v>
       </c>
       <c r="F74" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G74" t="s">
         <v>49</v>
@@ -5253,10 +5257,10 @@
         <v>13</v>
       </c>
       <c r="I74" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J74" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -5265,7 +5269,7 @@
         <v>CME_MRY15T24</v>
       </c>
       <c r="B75" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="C75" t="s">
         <v>18</v>
@@ -5277,19 +5281,19 @@
         <v>19</v>
       </c>
       <c r="F75" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="H75" t="s">
         <v>13</v>
       </c>
       <c r="I75" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="J75" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -5304,7 +5308,7 @@
         <v>CME_MRY5T14</v>
       </c>
       <c r="B76" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C76" t="s">
         <v>21</v>
@@ -5316,19 +5320,19 @@
         <v>22</v>
       </c>
       <c r="F76" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="H76" t="s">
         <v>13</v>
       </c>
       <c r="I76" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J76" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -5343,25 +5347,25 @@
         <v>CME_MRM0</v>
       </c>
       <c r="B77" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="C77" t="s">
-        <v>576</v>
+        <v>541</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="H77" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="I77" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J77" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -5370,45 +5374,45 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>644</v>
+        <v>606</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C78" t="s">
-        <v>591</v>
+        <v>556</v>
       </c>
       <c r="D78" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E78" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F78" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G78" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H78" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="I78" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J78" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K78">
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M78" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -5417,37 +5421,37 @@
         <v>obesity</v>
       </c>
       <c r="B79" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C79" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D79" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="E79" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="F79" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G79" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="H79" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="I79" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="J79" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K79">
         <v>7</v>
       </c>
       <c r="M79" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -5456,31 +5460,31 @@
         <v>C040202</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>490</v>
+        <v>639</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="K80" s="5">
         <v>2</v>
@@ -5488,25 +5492,25 @@
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="3"/>
         <v>MNCH_ORS</v>
       </c>
       <c r="B81" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C81" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>566</v>
+        <v>531</v>
       </c>
       <c r="F81" t="s">
-        <v>546</v>
+        <v>516</v>
       </c>
       <c r="G81" t="s">
         <v>49</v>
@@ -5515,69 +5519,69 @@
         <v>13</v>
       </c>
       <c r="I81" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J81" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="3"/>
         <v>out_school</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f>C83</f>
         <v>NT_ANT_WHZ_PO2</v>
       </c>
       <c r="B83" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C83" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F83" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G83" t="s">
         <v>49</v>
@@ -5586,46 +5590,46 @@
         <v>13</v>
       </c>
       <c r="I83" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J83" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="3"/>
         <v>population</v>
       </c>
       <c r="B84" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C84" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D84" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E84" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="F84" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="G84" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H84" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="I84" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="J84" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="M84" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -5634,158 +5638,158 @@
         <v>SH_DTH_NCOM_ZS</v>
       </c>
       <c r="B85" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="C85" t="s">
-        <v>569</v>
+        <v>534</v>
       </c>
       <c r="D85" t="s">
+        <v>146</v>
+      </c>
+      <c r="E85" t="s">
+        <v>638</v>
+      </c>
+      <c r="F85" t="s">
+        <v>444</v>
+      </c>
+      <c r="G85" t="s">
+        <v>219</v>
+      </c>
+      <c r="H85" t="s">
         <v>149</v>
       </c>
-      <c r="E85" t="s">
-        <v>352</v>
-      </c>
-      <c r="F85" t="s">
-        <v>471</v>
-      </c>
-      <c r="G85" t="s">
-        <v>223</v>
-      </c>
-      <c r="H85" t="s">
-        <v>153</v>
-      </c>
       <c r="I85" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="J85" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K85">
         <v>2</v>
       </c>
       <c r="L85" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M85" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>636</v>
+        <v>598</v>
       </c>
       <c r="B86" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C86" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="D86" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E86" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F86" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G86" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H86" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="I86" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J86" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K86">
         <v>0</v>
       </c>
       <c r="L86" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M86" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>637</v>
+        <v>599</v>
       </c>
       <c r="B87" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C87" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="D87" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E87" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F87" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G87" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H87" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="I87" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J87" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="K87">
         <v>0</v>
       </c>
       <c r="L87" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M87" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="3"/>
         <v>refugees</v>
       </c>
       <c r="B88" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C88" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D88" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E88" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="F88" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="G88" t="s">
-        <v>524</v>
+        <v>496</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I88" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="J88" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="M88" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -5794,37 +5798,37 @@
         <v>repetition</v>
       </c>
       <c r="B89" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C89" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D89" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="E89" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="F89" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="G89" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
       <c r="H89" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I89" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J89" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="K89">
         <v>5</v>
       </c>
       <c r="M89" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
     </row>
     <row r="90" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5833,61 +5837,61 @@
         <v>se_lpv_prim</v>
       </c>
       <c r="B90" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="H90" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="C90" s="13" t="s">
-        <v>589</v>
-      </c>
-      <c r="D90" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="G90" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="H90" s="14" t="s">
-        <v>224</v>
-      </c>
       <c r="I90" s="13" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J90" s="13" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="K90" s="13">
         <v>1</v>
       </c>
       <c r="L90" s="13" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M90" s="13" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f>C91</f>
         <v>NT_ANT_WHZ_NE3</v>
       </c>
       <c r="B91" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C91" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D91" t="s">
         <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F91" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G91" t="s">
         <v>49</v>
@@ -5896,31 +5900,31 @@
         <v>13</v>
       </c>
       <c r="I91" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J91" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f>C92</f>
         <v>PT_F_18_29_SX_V_AGE_18</v>
       </c>
       <c r="B92" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="C92" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D92" t="s">
         <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>567</v>
+        <v>532</v>
       </c>
       <c r="F92" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G92" t="s">
         <v>49</v>
@@ -5929,31 +5933,31 @@
         <v>13</v>
       </c>
       <c r="I92" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="J92" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f>C93</f>
         <v>PT_M_18_29_SX_V_AGE_18</v>
       </c>
       <c r="B93" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="C93" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>567</v>
+        <v>532</v>
       </c>
       <c r="F93" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G93" t="s">
         <v>49</v>
@@ -5962,10 +5966,10 @@
         <v>13</v>
       </c>
       <c r="I93" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="J93" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -5974,40 +5978,40 @@
         <v>SP_DYN_LE00_IN</v>
       </c>
       <c r="B94" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C94" t="s">
-        <v>572</v>
+        <v>537</v>
       </c>
       <c r="D94" t="s">
+        <v>146</v>
+      </c>
+      <c r="E94" t="s">
+        <v>331</v>
+      </c>
+      <c r="F94" t="s">
+        <v>446</v>
+      </c>
+      <c r="G94" t="s">
+        <v>219</v>
+      </c>
+      <c r="H94" t="s">
         <v>149</v>
       </c>
-      <c r="E94" t="s">
-        <v>351</v>
-      </c>
-      <c r="F94" t="s">
-        <v>473</v>
-      </c>
-      <c r="G94" t="s">
-        <v>223</v>
-      </c>
-      <c r="H94" t="s">
-        <v>153</v>
-      </c>
       <c r="I94" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="J94" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K94">
         <v>1</v>
       </c>
       <c r="L94" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M94" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -6016,31 +6020,31 @@
         <v>CME_SBR</v>
       </c>
       <c r="B95" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="C95" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="F95" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="H95" t="s">
         <v>13</v>
       </c>
       <c r="I95" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J95" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K95">
         <v>14</v>
@@ -6049,40 +6053,40 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="3"/>
         <v>NT_ANT_HAZ_NE2</v>
       </c>
       <c r="B96" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C96" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D96" t="s">
         <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="F96" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="I96" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J96" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="L96" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -6091,78 +6095,78 @@
         <v>suicide_15_19</v>
       </c>
       <c r="B97" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C97" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D97" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="E97" t="s">
-        <v>302</v>
+        <v>640</v>
       </c>
       <c r="F97" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="G97" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H97" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="I97" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="J97" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K97">
         <v>6</v>
       </c>
       <c r="M97" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>638</v>
+        <v>600</v>
       </c>
       <c r="B98" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C98" t="s">
-        <v>592</v>
+        <v>557</v>
       </c>
       <c r="D98" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E98" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F98" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G98" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H98" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="I98" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J98" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="K98">
         <v>0</v>
       </c>
       <c r="L98" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M98" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -6171,37 +6175,37 @@
         <v>u5_anaemia</v>
       </c>
       <c r="B99" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C99" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="D99" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="E99" t="s">
-        <v>305</v>
+        <v>641</v>
       </c>
       <c r="F99" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="G99" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="H99" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="I99" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J99" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K99">
         <v>10</v>
       </c>
       <c r="M99" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -6210,46 +6214,46 @@
         <v>u5_pneu_cs</v>
       </c>
       <c r="B100" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="C100" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D100" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="E100" t="s">
-        <v>309</v>
+        <v>642</v>
       </c>
       <c r="F100" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="G100" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="H100" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="I100" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J100" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K100">
         <v>9</v>
       </c>
       <c r="M100" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f>C101</f>
         <v>CME_MRY0T4</v>
       </c>
       <c r="B101" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="C101" t="s">
         <v>15</v>
@@ -6261,58 +6265,58 @@
         <v>16</v>
       </c>
       <c r="F101" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="H101" t="s">
         <v>13</v>
       </c>
       <c r="I101" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J101" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="L101" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="3"/>
         <v>uhci</v>
       </c>
       <c r="B102" t="s">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="C102" t="s">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="D102" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="E102" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="G102" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I102" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="J102" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="K102">
         <v>0</v>
       </c>
       <c r="M102" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -6321,40 +6325,40 @@
         <v>SE_PRM_CMPT_ZS</v>
       </c>
       <c r="B103" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C103" t="s">
-        <v>574</v>
+        <v>539</v>
       </c>
       <c r="D103" t="s">
+        <v>146</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F103" t="s">
+        <v>455</v>
+      </c>
+      <c r="G103" t="s">
+        <v>448</v>
+      </c>
+      <c r="H103" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E103" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="F103" t="s">
-        <v>482</v>
-      </c>
-      <c r="G103" t="s">
-        <v>475</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="I103" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J103" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="K103">
         <v>2</v>
       </c>
       <c r="L103" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M103" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -6363,119 +6367,119 @@
         <v>SE_SEC_CMPT_LO_ZS</v>
       </c>
       <c r="B104" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C104" t="s">
-        <v>573</v>
+        <v>538</v>
       </c>
       <c r="D104" t="s">
+        <v>146</v>
+      </c>
+      <c r="E104" t="s">
+        <v>643</v>
+      </c>
+      <c r="F104" t="s">
+        <v>447</v>
+      </c>
+      <c r="G104" t="s">
+        <v>448</v>
+      </c>
+      <c r="H104" t="s">
         <v>149</v>
       </c>
-      <c r="E104" t="s">
-        <v>336</v>
-      </c>
-      <c r="F104" t="s">
-        <v>474</v>
-      </c>
-      <c r="G104" t="s">
-        <v>475</v>
-      </c>
-      <c r="H104" t="s">
-        <v>153</v>
-      </c>
       <c r="I104" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J104" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="K104">
         <v>4</v>
       </c>
       <c r="L104" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M104" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>627</v>
+        <v>589</v>
       </c>
       <c r="B105" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C105" t="s">
-        <v>580</v>
+        <v>545</v>
       </c>
       <c r="D105" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="E105" t="s">
-        <v>342</v>
+        <v>644</v>
       </c>
       <c r="F105" t="s">
-        <v>453</v>
+        <v>426</v>
       </c>
       <c r="G105" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
       <c r="H105" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="I105" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="J105" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="K105">
         <v>2</v>
       </c>
       <c r="L105" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M105" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B106" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C106" t="s">
-        <v>581</v>
+        <v>546</v>
       </c>
       <c r="D106" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="E106" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="F106" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
       <c r="G106" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
       <c r="H106" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="I106" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J106" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="L106" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M106" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -6484,360 +6488,360 @@
         <v>SE_PRE_ENRR</v>
       </c>
       <c r="B107" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C107" t="s">
-        <v>575</v>
+        <v>540</v>
       </c>
       <c r="D107" t="s">
+        <v>146</v>
+      </c>
+      <c r="E107" t="s">
+        <v>311</v>
+      </c>
+      <c r="F107" t="s">
+        <v>456</v>
+      </c>
+      <c r="G107" t="s">
+        <v>448</v>
+      </c>
+      <c r="H107" t="s">
         <v>149</v>
       </c>
-      <c r="E107" t="s">
-        <v>325</v>
-      </c>
-      <c r="F107" t="s">
-        <v>483</v>
-      </c>
-      <c r="G107" t="s">
-        <v>475</v>
-      </c>
-      <c r="H107" t="s">
-        <v>153</v>
-      </c>
       <c r="I107" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J107" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="K107">
         <v>3</v>
       </c>
       <c r="L107" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M107" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>629</v>
+        <v>591</v>
       </c>
       <c r="B108" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C108" t="s">
-        <v>582</v>
+        <v>547</v>
       </c>
       <c r="D108" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="E108" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="F108" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="G108" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
       <c r="H108" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="I108" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J108" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="K108">
         <v>7</v>
       </c>
       <c r="L108" t="s">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="M108" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>630</v>
+        <v>592</v>
       </c>
       <c r="B109" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C109" t="s">
-        <v>583</v>
+        <v>548</v>
       </c>
       <c r="D109" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="E109" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="F109" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="G109" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
       <c r="H109" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="I109" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J109" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="K109">
         <v>6</v>
       </c>
       <c r="L109" t="s">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="M109" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>631</v>
+        <v>593</v>
       </c>
       <c r="B110" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C110" t="s">
-        <v>584</v>
+        <v>549</v>
       </c>
       <c r="D110" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="E110" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="F110" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="G110" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
       <c r="H110" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="I110" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J110" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="K110">
         <v>8</v>
       </c>
       <c r="L110" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M110" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>632</v>
+        <v>594</v>
       </c>
       <c r="B111" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C111" t="s">
-        <v>585</v>
+        <v>550</v>
       </c>
       <c r="D111" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="E111" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="F111" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="G111" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
       <c r="H111" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="I111" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="J111" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="K111">
         <v>4</v>
       </c>
       <c r="L111" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M111" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="B112" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C112" t="s">
-        <v>586</v>
+        <v>551</v>
       </c>
       <c r="D112" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="E112" t="s">
-        <v>340</v>
+        <v>645</v>
       </c>
       <c r="F112" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="G112" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
       <c r="H112" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="I112" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J112" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="K112">
         <v>9</v>
       </c>
       <c r="L112" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M112" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>634</v>
+        <v>596</v>
       </c>
       <c r="B113" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C113" t="s">
-        <v>587</v>
+        <v>552</v>
       </c>
       <c r="D113" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="E113" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="F113" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="G113" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="I113" t="s">
+        <v>318</v>
+      </c>
+      <c r="J113" t="s">
+        <v>312</v>
+      </c>
+      <c r="L113" t="s">
+        <v>201</v>
+      </c>
+      <c r="M113" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>597</v>
+      </c>
+      <c r="B114" t="s">
+        <v>198</v>
+      </c>
+      <c r="C114" t="s">
+        <v>553</v>
+      </c>
+      <c r="D114" t="s">
+        <v>428</v>
+      </c>
+      <c r="E114" t="s">
         <v>334</v>
       </c>
-      <c r="J113" t="s">
-        <v>326</v>
-      </c>
-      <c r="L113" t="s">
-        <v>205</v>
-      </c>
-      <c r="M113" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>635</v>
-      </c>
-      <c r="B114" t="s">
-        <v>202</v>
-      </c>
-      <c r="C114" t="s">
-        <v>588</v>
-      </c>
-      <c r="D114" t="s">
-        <v>455</v>
-      </c>
-      <c r="E114" t="s">
-        <v>355</v>
-      </c>
       <c r="F114" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="G114" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
       <c r="H114" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="I114" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J114" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="L114" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M114" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" ref="A115" si="4">B115</f>
         <v>fao_undern</v>
       </c>
       <c r="B115" t="s">
-        <v>647</v>
+        <v>609</v>
       </c>
       <c r="C115" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="D115" t="s">
+        <v>299</v>
+      </c>
+      <c r="E115" t="s">
+        <v>300</v>
+      </c>
+      <c r="F115" t="s">
+        <v>483</v>
+      </c>
+      <c r="G115" t="s">
+        <v>62</v>
+      </c>
+      <c r="H115" t="s">
+        <v>301</v>
+      </c>
+      <c r="I115" t="s">
         <v>313</v>
       </c>
-      <c r="E115" t="s">
+      <c r="J115" t="s">
         <v>314</v>
       </c>
-      <c r="F115" t="s">
-        <v>511</v>
-      </c>
-      <c r="G115" t="s">
-        <v>63</v>
-      </c>
-      <c r="H115" t="s">
-        <v>315</v>
-      </c>
-      <c r="I115" t="s">
-        <v>327</v>
-      </c>
-      <c r="J115" t="s">
-        <v>328</v>
-      </c>
       <c r="L115" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M115" t="s">
-        <v>504</v>
+        <v>476</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -6846,40 +6850,40 @@
         <v>une_2eap_mf_a</v>
       </c>
       <c r="B116" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C116" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D116" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="E116" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="F116" t="s">
-        <v>539</v>
+        <v>510</v>
       </c>
       <c r="G116" t="s">
-        <v>519</v>
+        <v>491</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>522</v>
+        <v>494</v>
       </c>
       <c r="I116" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="J116" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="K116">
         <v>2</v>
       </c>
       <c r="L116" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M116" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -6888,76 +6892,76 @@
         <v>une_2eap_mf_y</v>
       </c>
       <c r="B117" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C117" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D117" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="E117" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="F117" t="s">
-        <v>539</v>
+        <v>510</v>
       </c>
       <c r="G117" t="s">
-        <v>512</v>
+        <v>484</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>522</v>
+        <v>494</v>
       </c>
       <c r="I117" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="J117" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="K117">
         <v>2</v>
       </c>
       <c r="L117" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M117" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="3"/>
         <v>WS_PPL_H_B</v>
       </c>
       <c r="B118" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C118" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D118" t="s">
         <v>12</v>
       </c>
       <c r="E118" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F118" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G118" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H118" t="s">
         <v>13</v>
       </c>
       <c r="I118" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J118" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="L118" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -6966,67 +6970,67 @@
         <v>WS_PPL_S_ALB</v>
       </c>
       <c r="B119" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C119" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D119" t="s">
         <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>267</v>
+        <v>646</v>
       </c>
       <c r="F119" t="s">
-      